--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
   <si>
     <t>ID</t>
   </si>
@@ -20,6 +20,24 @@
   </si>
   <si>
     <t>zh_TW</t>
+  </si>
+  <si>
+    <t>通用</t>
+  </si>
+  <si>
+    <t>TexasHoldem</t>
+  </si>
+  <si>
+    <t>Texas Holdem</t>
+  </si>
+  <si>
+    <t>德州撲克</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>創建</t>
   </si>
   <si>
     <t>大廳</t>
@@ -58,7 +76,229 @@
     <t>已達最大房間數</t>
   </si>
   <si>
-    <t>通用</t>
+    <t>WalletDisconnect</t>
+  </si>
+  <si>
+    <t>Wallet Disconnect</t>
+  </si>
+  <si>
+    <t>斷開錢包</t>
+  </si>
+  <si>
+    <t>WalletAddress</t>
+  </si>
+  <si>
+    <t>Wallet Address</t>
+  </si>
+  <si>
+    <t>錢包地址</t>
+  </si>
+  <si>
+    <t>WalletBalance</t>
+  </si>
+  <si>
+    <t>Wallet Balance</t>
+  </si>
+  <si>
+    <t>錢包餘額</t>
+  </si>
+  <si>
+    <t>遊戲</t>
+  </si>
+  <si>
+    <t>Waiting</t>
+  </si>
+  <si>
+    <t>等待下一局</t>
+  </si>
+  <si>
+    <t>Check</t>
+  </si>
+  <si>
+    <t>過牌</t>
+  </si>
+  <si>
+    <t>Fold</t>
+  </si>
+  <si>
+    <t>棄牌</t>
+  </si>
+  <si>
+    <t>CallAny</t>
+  </si>
+  <si>
+    <t>Call Any</t>
+  </si>
+  <si>
+    <t>任何跟注</t>
+  </si>
+  <si>
+    <t>Raise</t>
+  </si>
+  <si>
+    <t>加注</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>跟注</t>
+  </si>
+  <si>
+    <t>RaiseTo</t>
+  </si>
+  <si>
+    <t>Raise To</t>
+  </si>
+  <si>
+    <t>加注至</t>
+  </si>
+  <si>
+    <t>Pot</t>
+  </si>
+  <si>
+    <t>底池</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>邊池</t>
+  </si>
+  <si>
+    <t>Blind</t>
+  </si>
+  <si>
+    <t>盲注</t>
+  </si>
+  <si>
+    <t>AllIn</t>
+  </si>
+  <si>
+    <t>All In</t>
+  </si>
+  <si>
+    <t>PotWinner</t>
+  </si>
+  <si>
+    <t>Pot Winner</t>
+  </si>
+  <si>
+    <t>底池贏家</t>
+  </si>
+  <si>
+    <t>SideWinner</t>
+  </si>
+  <si>
+    <t>Side Winner</t>
+  </si>
+  <si>
+    <t>邊池贏家</t>
+  </si>
+  <si>
+    <t>ExitRoom</t>
+  </si>
+  <si>
+    <t>Exit Room</t>
+  </si>
+  <si>
+    <t>退出牌局</t>
+  </si>
+  <si>
+    <t>CheckOrFold</t>
+  </si>
+  <si>
+    <t>Check / Fold</t>
+  </si>
+  <si>
+    <t>過牌 / 棄牌</t>
+  </si>
+  <si>
+    <t>牌型名稱</t>
+  </si>
+  <si>
+    <t>RoyalFlush</t>
+  </si>
+  <si>
+    <t>Royal Flush</t>
+  </si>
+  <si>
+    <t>皇家同花順</t>
+  </si>
+  <si>
+    <t>StraightFlush</t>
+  </si>
+  <si>
+    <t>Straight Flush</t>
+  </si>
+  <si>
+    <t>同花順</t>
+  </si>
+  <si>
+    <t>FourOfKind</t>
+  </si>
+  <si>
+    <t>Four of Kind</t>
+  </si>
+  <si>
+    <t>四條</t>
+  </si>
+  <si>
+    <t>FullHouse</t>
+  </si>
+  <si>
+    <t>Full House</t>
+  </si>
+  <si>
+    <t>葫蘆</t>
+  </si>
+  <si>
+    <t>Flush</t>
+  </si>
+  <si>
+    <t>同花</t>
+  </si>
+  <si>
+    <t>Straight</t>
+  </si>
+  <si>
+    <t>順子</t>
+  </si>
+  <si>
+    <t>ThreeOfAKind</t>
+  </si>
+  <si>
+    <t>Three of a Kind</t>
+  </si>
+  <si>
+    <t>三條</t>
+  </si>
+  <si>
+    <t>TwoPairs</t>
+  </si>
+  <si>
+    <t>Two Pairs</t>
+  </si>
+  <si>
+    <t>兩對</t>
+  </si>
+  <si>
+    <t>OnePair</t>
+  </si>
+  <si>
+    <t>One Pair</t>
+  </si>
+  <si>
+    <t>一對</t>
+  </si>
+  <si>
+    <t>HightCard</t>
+  </si>
+  <si>
+    <t>Hight Card</t>
+  </si>
+  <si>
+    <t>高牌</t>
   </si>
 </sst>
 </file>
@@ -78,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -91,6 +331,12 @@
         <bgColor rgb="FF00FF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -98,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -112,6 +358,12 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -400,145 +652,141 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="6"/>
+      <c r="Z5" s="6"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -564,9 +812,15 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -592,9 +846,15 @@
       <c r="Z8" s="2"/>
     </row>
     <row r="9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -620,39 +880,49 @@
       <c r="Z9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>15</v>
+      <c r="A10" s="1" t="s">
+        <v>18</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
-      <c r="Z10" s="4"/>
+      <c r="B10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -678,9 +948,15 @@
       <c r="Z11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -706,9 +982,15 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -734,9 +1016,9 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -762,37 +1044,45 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
     </row>
     <row r="16">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -818,9 +1108,15 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -846,9 +1142,15 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -874,9 +1176,15 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -902,9 +1210,15 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -930,9 +1244,15 @@
       <c r="Z20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -958,9 +1278,15 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -986,9 +1312,15 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1014,9 +1346,15 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1042,9 +1380,15 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1070,9 +1414,15 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -1098,9 +1448,15 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -1126,9 +1482,15 @@
       <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1154,9 +1516,15 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1182,9 +1550,15 @@
       <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1210,9 +1584,9 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1238,37 +1612,45 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
+      <c r="A32" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -1294,9 +1676,15 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>73</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -1322,9 +1710,15 @@
       <c r="Z34" s="2"/>
     </row>
     <row r="35">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -1350,9 +1744,15 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="A36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>79</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1378,9 +1778,15 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -1406,9 +1812,15 @@
       <c r="Z37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+      <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>83</v>
+      </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -1434,9 +1846,15 @@
       <c r="Z38" s="2"/>
     </row>
     <row r="39">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -1462,9 +1880,15 @@
       <c r="Z39" s="2"/>
     </row>
     <row r="40">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+      <c r="A40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -1490,9 +1914,15 @@
       <c r="Z40" s="2"/>
     </row>
     <row r="41">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1518,9 +1948,15 @@
       <c r="Z41" s="2"/>
     </row>
     <row r="42">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -28369,6 +28805,286 @@
       <c r="Y1000" s="2"/>
       <c r="Z1000" s="2"/>
     </row>
+    <row r="1001">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+      <c r="G1001" s="2"/>
+      <c r="H1001" s="2"/>
+      <c r="I1001" s="2"/>
+      <c r="J1001" s="2"/>
+      <c r="K1001" s="2"/>
+      <c r="L1001" s="2"/>
+      <c r="M1001" s="2"/>
+      <c r="N1001" s="2"/>
+      <c r="O1001" s="2"/>
+      <c r="P1001" s="2"/>
+      <c r="Q1001" s="2"/>
+      <c r="R1001" s="2"/>
+      <c r="S1001" s="2"/>
+      <c r="T1001" s="2"/>
+      <c r="U1001" s="2"/>
+      <c r="V1001" s="2"/>
+      <c r="W1001" s="2"/>
+      <c r="X1001" s="2"/>
+      <c r="Y1001" s="2"/>
+      <c r="Z1001" s="2"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+      <c r="H1002" s="2"/>
+      <c r="I1002" s="2"/>
+      <c r="J1002" s="2"/>
+      <c r="K1002" s="2"/>
+      <c r="L1002" s="2"/>
+      <c r="M1002" s="2"/>
+      <c r="N1002" s="2"/>
+      <c r="O1002" s="2"/>
+      <c r="P1002" s="2"/>
+      <c r="Q1002" s="2"/>
+      <c r="R1002" s="2"/>
+      <c r="S1002" s="2"/>
+      <c r="T1002" s="2"/>
+      <c r="U1002" s="2"/>
+      <c r="V1002" s="2"/>
+      <c r="W1002" s="2"/>
+      <c r="X1002" s="2"/>
+      <c r="Y1002" s="2"/>
+      <c r="Z1002" s="2"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+      <c r="H1003" s="2"/>
+      <c r="I1003" s="2"/>
+      <c r="J1003" s="2"/>
+      <c r="K1003" s="2"/>
+      <c r="L1003" s="2"/>
+      <c r="M1003" s="2"/>
+      <c r="N1003" s="2"/>
+      <c r="O1003" s="2"/>
+      <c r="P1003" s="2"/>
+      <c r="Q1003" s="2"/>
+      <c r="R1003" s="2"/>
+      <c r="S1003" s="2"/>
+      <c r="T1003" s="2"/>
+      <c r="U1003" s="2"/>
+      <c r="V1003" s="2"/>
+      <c r="W1003" s="2"/>
+      <c r="X1003" s="2"/>
+      <c r="Y1003" s="2"/>
+      <c r="Z1003" s="2"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+      <c r="G1004" s="2"/>
+      <c r="H1004" s="2"/>
+      <c r="I1004" s="2"/>
+      <c r="J1004" s="2"/>
+      <c r="K1004" s="2"/>
+      <c r="L1004" s="2"/>
+      <c r="M1004" s="2"/>
+      <c r="N1004" s="2"/>
+      <c r="O1004" s="2"/>
+      <c r="P1004" s="2"/>
+      <c r="Q1004" s="2"/>
+      <c r="R1004" s="2"/>
+      <c r="S1004" s="2"/>
+      <c r="T1004" s="2"/>
+      <c r="U1004" s="2"/>
+      <c r="V1004" s="2"/>
+      <c r="W1004" s="2"/>
+      <c r="X1004" s="2"/>
+      <c r="Y1004" s="2"/>
+      <c r="Z1004" s="2"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+      <c r="Z1005" s="2"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+      <c r="Z1006" s="2"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2"/>
+      <c r="B1007" s="2"/>
+      <c r="C1007" s="2"/>
+      <c r="D1007" s="2"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="2"/>
+      <c r="G1007" s="2"/>
+      <c r="H1007" s="2"/>
+      <c r="I1007" s="2"/>
+      <c r="J1007" s="2"/>
+      <c r="K1007" s="2"/>
+      <c r="L1007" s="2"/>
+      <c r="M1007" s="2"/>
+      <c r="N1007" s="2"/>
+      <c r="O1007" s="2"/>
+      <c r="P1007" s="2"/>
+      <c r="Q1007" s="2"/>
+      <c r="R1007" s="2"/>
+      <c r="S1007" s="2"/>
+      <c r="T1007" s="2"/>
+      <c r="U1007" s="2"/>
+      <c r="V1007" s="2"/>
+      <c r="W1007" s="2"/>
+      <c r="X1007" s="2"/>
+      <c r="Y1007" s="2"/>
+      <c r="Z1007" s="2"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2"/>
+      <c r="B1008" s="2"/>
+      <c r="C1008" s="2"/>
+      <c r="D1008" s="2"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="2"/>
+      <c r="G1008" s="2"/>
+      <c r="H1008" s="2"/>
+      <c r="I1008" s="2"/>
+      <c r="J1008" s="2"/>
+      <c r="K1008" s="2"/>
+      <c r="L1008" s="2"/>
+      <c r="M1008" s="2"/>
+      <c r="N1008" s="2"/>
+      <c r="O1008" s="2"/>
+      <c r="P1008" s="2"/>
+      <c r="Q1008" s="2"/>
+      <c r="R1008" s="2"/>
+      <c r="S1008" s="2"/>
+      <c r="T1008" s="2"/>
+      <c r="U1008" s="2"/>
+      <c r="V1008" s="2"/>
+      <c r="W1008" s="2"/>
+      <c r="X1008" s="2"/>
+      <c r="Y1008" s="2"/>
+      <c r="Z1008" s="2"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2"/>
+      <c r="B1009" s="2"/>
+      <c r="C1009" s="2"/>
+      <c r="D1009" s="2"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="2"/>
+      <c r="G1009" s="2"/>
+      <c r="H1009" s="2"/>
+      <c r="I1009" s="2"/>
+      <c r="J1009" s="2"/>
+      <c r="K1009" s="2"/>
+      <c r="L1009" s="2"/>
+      <c r="M1009" s="2"/>
+      <c r="N1009" s="2"/>
+      <c r="O1009" s="2"/>
+      <c r="P1009" s="2"/>
+      <c r="Q1009" s="2"/>
+      <c r="R1009" s="2"/>
+      <c r="S1009" s="2"/>
+      <c r="T1009" s="2"/>
+      <c r="U1009" s="2"/>
+      <c r="V1009" s="2"/>
+      <c r="W1009" s="2"/>
+      <c r="X1009" s="2"/>
+      <c r="Y1009" s="2"/>
+      <c r="Z1009" s="2"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2"/>
+      <c r="B1010" s="2"/>
+      <c r="C1010" s="2"/>
+      <c r="D1010" s="2"/>
+      <c r="E1010" s="2"/>
+      <c r="F1010" s="2"/>
+      <c r="G1010" s="2"/>
+      <c r="H1010" s="2"/>
+      <c r="I1010" s="2"/>
+      <c r="J1010" s="2"/>
+      <c r="K1010" s="2"/>
+      <c r="L1010" s="2"/>
+      <c r="M1010" s="2"/>
+      <c r="N1010" s="2"/>
+      <c r="O1010" s="2"/>
+      <c r="P1010" s="2"/>
+      <c r="Q1010" s="2"/>
+      <c r="R1010" s="2"/>
+      <c r="S1010" s="2"/>
+      <c r="T1010" s="2"/>
+      <c r="U1010" s="2"/>
+      <c r="V1010" s="2"/>
+      <c r="W1010" s="2"/>
+      <c r="X1010" s="2"/>
+      <c r="Y1010" s="2"/>
+      <c r="Z1010" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
   <si>
     <t>ID</t>
   </si>
@@ -38,6 +38,39 @@
   </si>
   <si>
     <t>創建</t>
+  </si>
+  <si>
+    <t>ReturnLobby</t>
+  </si>
+  <si>
+    <t>Return Lobby</t>
+  </si>
+  <si>
+    <t>返回大廳</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>購買</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>確認</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>獲勝</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>失敗</t>
   </si>
   <si>
     <t>大廳</t>
@@ -720,9 +753,15 @@
       <c r="Z4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
@@ -748,214 +787,208 @@
       <c r="Z5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
-      <c r="U6" s="4"/>
-      <c r="V6" s="4"/>
-      <c r="W6" s="4"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="B6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+      <c r="Y6" s="6"/>
+      <c r="Z6" s="6"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+      <c r="W7" s="6"/>
+      <c r="X7" s="6"/>
+      <c r="Y7" s="6"/>
+      <c r="Z7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+      <c r="Z8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+      <c r="W9" s="6"/>
+      <c r="X9" s="6"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="6"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
+      <c r="W10" s="6"/>
+      <c r="X10" s="6"/>
+      <c r="Y10" s="6"/>
+      <c r="Z10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -983,13 +1016,13 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -1016,9 +1049,15 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1044,44 +1083,48 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="4"/>
-      <c r="W15" s="4"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
-      <c r="Z15" s="4"/>
+      <c r="C15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -1109,13 +1152,13 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1143,13 +1186,13 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1176,15 +1219,9 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>39</v>
-      </c>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1210,38 +1247,34 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="A20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -1282,10 +1315,10 @@
         <v>44</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1313,13 +1346,13 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1347,7 +1380,7 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>49</v>
@@ -1418,7 +1451,7 @@
         <v>53</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>54</v>
@@ -1486,10 +1519,10 @@
         <v>58</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1517,13 +1550,13 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1551,13 +1584,13 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1584,9 +1617,15 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1612,44 +1651,48 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
+      <c r="C32" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1677,13 +1720,13 @@
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1711,13 +1754,13 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1744,15 +1787,9 @@
       <c r="Z35" s="2"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>79</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -1778,48 +1815,44 @@
       <c r="Z36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1847,13 +1880,13 @@
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1881,13 +1914,13 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1915,13 +1948,13 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1949,13 +1982,13 @@
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -1982,9 +2015,15 @@
       <c r="Z42" s="2"/>
     </row>
     <row r="43">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>94</v>
+      </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2010,9 +2049,15 @@
       <c r="Z43" s="2"/>
     </row>
     <row r="44">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -2038,9 +2083,15 @@
       <c r="Z44" s="2"/>
     </row>
     <row r="45">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -2066,9 +2117,15 @@
       <c r="Z45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+      <c r="A46" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
@@ -2094,9 +2151,15 @@
       <c r="Z46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -29085,6 +29148,146 @@
       <c r="Y1010" s="2"/>
       <c r="Z1010" s="2"/>
     </row>
+    <row r="1011">
+      <c r="A1011" s="2"/>
+      <c r="B1011" s="2"/>
+      <c r="C1011" s="2"/>
+      <c r="D1011" s="2"/>
+      <c r="E1011" s="2"/>
+      <c r="F1011" s="2"/>
+      <c r="G1011" s="2"/>
+      <c r="H1011" s="2"/>
+      <c r="I1011" s="2"/>
+      <c r="J1011" s="2"/>
+      <c r="K1011" s="2"/>
+      <c r="L1011" s="2"/>
+      <c r="M1011" s="2"/>
+      <c r="N1011" s="2"/>
+      <c r="O1011" s="2"/>
+      <c r="P1011" s="2"/>
+      <c r="Q1011" s="2"/>
+      <c r="R1011" s="2"/>
+      <c r="S1011" s="2"/>
+      <c r="T1011" s="2"/>
+      <c r="U1011" s="2"/>
+      <c r="V1011" s="2"/>
+      <c r="W1011" s="2"/>
+      <c r="X1011" s="2"/>
+      <c r="Y1011" s="2"/>
+      <c r="Z1011" s="2"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2"/>
+      <c r="B1012" s="2"/>
+      <c r="C1012" s="2"/>
+      <c r="D1012" s="2"/>
+      <c r="E1012" s="2"/>
+      <c r="F1012" s="2"/>
+      <c r="G1012" s="2"/>
+      <c r="H1012" s="2"/>
+      <c r="I1012" s="2"/>
+      <c r="J1012" s="2"/>
+      <c r="K1012" s="2"/>
+      <c r="L1012" s="2"/>
+      <c r="M1012" s="2"/>
+      <c r="N1012" s="2"/>
+      <c r="O1012" s="2"/>
+      <c r="P1012" s="2"/>
+      <c r="Q1012" s="2"/>
+      <c r="R1012" s="2"/>
+      <c r="S1012" s="2"/>
+      <c r="T1012" s="2"/>
+      <c r="U1012" s="2"/>
+      <c r="V1012" s="2"/>
+      <c r="W1012" s="2"/>
+      <c r="X1012" s="2"/>
+      <c r="Y1012" s="2"/>
+      <c r="Z1012" s="2"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2"/>
+      <c r="B1013" s="2"/>
+      <c r="C1013" s="2"/>
+      <c r="D1013" s="2"/>
+      <c r="E1013" s="2"/>
+      <c r="F1013" s="2"/>
+      <c r="G1013" s="2"/>
+      <c r="H1013" s="2"/>
+      <c r="I1013" s="2"/>
+      <c r="J1013" s="2"/>
+      <c r="K1013" s="2"/>
+      <c r="L1013" s="2"/>
+      <c r="M1013" s="2"/>
+      <c r="N1013" s="2"/>
+      <c r="O1013" s="2"/>
+      <c r="P1013" s="2"/>
+      <c r="Q1013" s="2"/>
+      <c r="R1013" s="2"/>
+      <c r="S1013" s="2"/>
+      <c r="T1013" s="2"/>
+      <c r="U1013" s="2"/>
+      <c r="V1013" s="2"/>
+      <c r="W1013" s="2"/>
+      <c r="X1013" s="2"/>
+      <c r="Y1013" s="2"/>
+      <c r="Z1013" s="2"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2"/>
+      <c r="B1014" s="2"/>
+      <c r="C1014" s="2"/>
+      <c r="D1014" s="2"/>
+      <c r="E1014" s="2"/>
+      <c r="F1014" s="2"/>
+      <c r="G1014" s="2"/>
+      <c r="H1014" s="2"/>
+      <c r="I1014" s="2"/>
+      <c r="J1014" s="2"/>
+      <c r="K1014" s="2"/>
+      <c r="L1014" s="2"/>
+      <c r="M1014" s="2"/>
+      <c r="N1014" s="2"/>
+      <c r="O1014" s="2"/>
+      <c r="P1014" s="2"/>
+      <c r="Q1014" s="2"/>
+      <c r="R1014" s="2"/>
+      <c r="S1014" s="2"/>
+      <c r="T1014" s="2"/>
+      <c r="U1014" s="2"/>
+      <c r="V1014" s="2"/>
+      <c r="W1014" s="2"/>
+      <c r="X1014" s="2"/>
+      <c r="Y1014" s="2"/>
+      <c r="Z1014" s="2"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2"/>
+      <c r="B1015" s="2"/>
+      <c r="C1015" s="2"/>
+      <c r="D1015" s="2"/>
+      <c r="E1015" s="2"/>
+      <c r="F1015" s="2"/>
+      <c r="G1015" s="2"/>
+      <c r="H1015" s="2"/>
+      <c r="I1015" s="2"/>
+      <c r="J1015" s="2"/>
+      <c r="K1015" s="2"/>
+      <c r="L1015" s="2"/>
+      <c r="M1015" s="2"/>
+      <c r="N1015" s="2"/>
+      <c r="O1015" s="2"/>
+      <c r="P1015" s="2"/>
+      <c r="Q1015" s="2"/>
+      <c r="R1015" s="2"/>
+      <c r="S1015" s="2"/>
+      <c r="T1015" s="2"/>
+      <c r="U1015" s="2"/>
+      <c r="V1015" s="2"/>
+      <c r="W1015" s="2"/>
+      <c r="X1015" s="2"/>
+      <c r="Y1015" s="2"/>
+      <c r="Z1015" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="199">
   <si>
     <t>ID</t>
   </si>
@@ -25,52 +25,328 @@
     <t>通用</t>
   </si>
   <si>
-    <t>TexasHoldem</t>
+    <t>Retry</t>
   </si>
   <si>
-    <t>Texas Holdem</t>
+    <t>RETRY</t>
   </si>
   <si>
-    <t>德州撲克</t>
+    <t>重新嘗試</t>
   </si>
   <si>
-    <t>Create</t>
+    <t>Wallet</t>
   </si>
   <si>
-    <t>創建</t>
+    <t>錢包</t>
   </si>
   <si>
-    <t>ReturnLobby</t>
+    <t>Mobile</t>
   </si>
   <si>
-    <t>Return Lobby</t>
+    <t>手機</t>
   </si>
   <si>
-    <t>返回大廳</t>
+    <t>MobileNumber</t>
   </si>
   <si>
-    <t>Buy</t>
+    <t>Mobile Number</t>
   </si>
   <si>
-    <t>購買</t>
+    <t>手機號碼</t>
   </si>
   <si>
-    <t>Confirm</t>
+    <t>OTPCode</t>
   </si>
   <si>
-    <t>確認</t>
+    <t>OTP Code</t>
   </si>
   <si>
-    <t>Win</t>
+    <t>一次性代碼</t>
   </si>
   <si>
-    <t>獲勝</t>
+    <t>SendCode</t>
   </si>
   <si>
-    <t>Fail</t>
+    <t>SEND CODE</t>
   </si>
   <si>
-    <t>失敗</t>
+    <t>傳送代碼</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>SUBMIT</t>
+  </si>
+  <si>
+    <t>提交</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>密碼</t>
+  </si>
+  <si>
+    <t>ResetPassword</t>
+  </si>
+  <si>
+    <t>Reset Password</t>
+  </si>
+  <si>
+    <t>重新設密碼</t>
+  </si>
+  <si>
+    <t>SignIn</t>
+  </si>
+  <si>
+    <t>SIGN IN</t>
+  </si>
+  <si>
+    <t>登入</t>
+  </si>
+  <si>
+    <t>SignUp</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
+  </si>
+  <si>
+    <t>報名</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>REGISTER</t>
+  </si>
+  <si>
+    <t>註冊</t>
+  </si>
+  <si>
+    <t>LostPassword</t>
+  </si>
+  <si>
+    <t>Lost Password</t>
+  </si>
+  <si>
+    <t>忘記密碼</t>
+  </si>
+  <si>
+    <t>PasswordInputTip</t>
+  </si>
+  <si>
+    <t>Please Enter Here</t>
+  </si>
+  <si>
+    <t>請在此輸入</t>
+  </si>
+  <si>
+    <t>OTPCodeInputTip</t>
+  </si>
+  <si>
+    <t>Please Enter The OTP Code</t>
+  </si>
+  <si>
+    <t>請輸入一次性密碼</t>
+  </si>
+  <si>
+    <t>PhoneInputTip</t>
+  </si>
+  <si>
+    <t>Your Phone Number</t>
+  </si>
+  <si>
+    <t>您的手機號碼</t>
+  </si>
+  <si>
+    <t>RememberMe</t>
+  </si>
+  <si>
+    <t>Remember Me</t>
+  </si>
+  <si>
+    <t>記住帳號密碼</t>
+  </si>
+  <si>
+    <t>EnterNewPassword</t>
+  </si>
+  <si>
+    <t>Enter New Password.</t>
+  </si>
+  <si>
+    <t>輸入新密碼。</t>
+  </si>
+  <si>
+    <t>AllowedCharacters</t>
+  </si>
+  <si>
+    <t>Allowed Characters: Alphanumeric A-Z, 0-9.</t>
+  </si>
+  <si>
+    <t>允許的字元：字母數字 A-Z、0-9。</t>
+  </si>
+  <si>
+    <t>AtLeast8Chars</t>
+  </si>
+  <si>
+    <t>At Least 8 Chars.</t>
+  </si>
+  <si>
+    <t>至少 8 個字元。</t>
+  </si>
+  <si>
+    <t>錯誤訊息</t>
+  </si>
+  <si>
+    <t>PhoneError</t>
+  </si>
+  <si>
+    <t>User Name Entered Incorrectly, Please Try Again.</t>
+  </si>
+  <si>
+    <t>手機號格式錯誤。</t>
+  </si>
+  <si>
+    <t>CodeError</t>
+  </si>
+  <si>
+    <t>Invalid Code, Please Try Again.</t>
+  </si>
+  <si>
+    <t>密碼無效，請重新輸入。</t>
+  </si>
+  <si>
+    <t>PrivacyPolicyError</t>
+  </si>
+  <si>
+    <t>Please Agree To The Privacy Policy.</t>
+  </si>
+  <si>
+    <t>請同意隱私權政策。</t>
+  </si>
+  <si>
+    <t>登入(LoginView)</t>
+  </si>
+  <si>
+    <t>錢包連接頁面</t>
+  </si>
+  <si>
+    <t>WalletSiginTip</t>
+  </si>
+  <si>
+    <t>Please, Sign In With Your Wallet.</t>
+  </si>
+  <si>
+    <t>請使用您的錢包登入。</t>
+  </si>
+  <si>
+    <t>WalletConnectTip</t>
+  </si>
+  <si>
+    <t>Connect Using Browser Wallet</t>
+  </si>
+  <si>
+    <t>使用瀏覽器錢包連接</t>
+  </si>
+  <si>
+    <t>SignUpGuide</t>
+  </si>
+  <si>
+    <t>Don't Have An Account? &lt;color=#79E84B&gt;&lt;link=Sign Up Here!&gt;&lt;u&gt;Sign Up Here!&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>沒有帳戶？&lt;color=#79E84B&gt;&lt;link=Sign Up Here!&gt;&lt;u&gt;在此註冊！&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>錢包連接中頁面</t>
+  </si>
+  <si>
+    <t>LogInUsing</t>
+  </si>
+  <si>
+    <t>Log In Using</t>
+  </si>
+  <si>
+    <t>登入到</t>
+  </si>
+  <si>
+    <t>LoadInto</t>
+  </si>
+  <si>
+    <t>Load Into</t>
+  </si>
+  <si>
+    <t>連接到</t>
+  </si>
+  <si>
+    <t>ErrorWalletLogin</t>
+  </si>
+  <si>
+    <t>Error Logging Into</t>
+  </si>
+  <si>
+    <t>連接錢包超時</t>
+  </si>
+  <si>
+    <t>簡訊驗證</t>
+  </si>
+  <si>
+    <t>SMSVerification</t>
+  </si>
+  <si>
+    <t>SMS Verification</t>
+  </si>
+  <si>
+    <t>手機登入</t>
+  </si>
+  <si>
+    <t>PhoneLoginTip</t>
+  </si>
+  <si>
+    <t>Please use your mobile phone number to log in.</t>
+  </si>
+  <si>
+    <t>請使用您的手機號碼登入。</t>
+  </si>
+  <si>
+    <t>RegisterTip</t>
+  </si>
+  <si>
+    <t>You Will Receive A New Account.</t>
+  </si>
+  <si>
+    <t>您將收到一個新帳戶。</t>
+  </si>
+  <si>
+    <t>ForgotPassword</t>
+  </si>
+  <si>
+    <t>&lt;color=#79E84B&gt;&lt;link=Forgot Password?&gt;&lt;u&gt;Forgot Password?&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>&lt;color=#79E84B&gt;&lt;link=Forgot Password?&gt;&lt;u&gt;忘記密碼?&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>手機註冊</t>
+  </si>
+  <si>
+    <t>PrivacyPolicy</t>
+  </si>
+  <si>
+    <t>Agree To The &lt;color=#79E84B&gt;&lt;link=Terms&gt;&lt;u&gt;Terms&lt;/u&gt;&lt;/link&gt;&lt;/color&gt; &amp; &lt;color=#79E84B&gt;&lt;link=Privacy Policy&gt;&lt;u&gt;Privacy Policy&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>同意 &lt;color=#79E84B&gt;&lt;link=Terms&gt;&lt;u&gt;條款&lt;/u&gt;&lt;/link&gt;&lt;/color&gt; &amp; &lt;color=#79E84B&gt;&lt;link=Privacy Policy&gt;&lt;u&gt;隱私權政策&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>RegisterSuccTip</t>
+  </si>
+  <si>
+    <t>&lt;size=14&gt;&lt;color=#FFFFFF&gt;Registration Successful&lt;/color&gt;&lt;/size&gt;\n&lt;size=12&gt;&lt;color=#C6C2C2&gt;Account Successfully Created&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>&lt;size=14&gt;&lt;color=#FFFFFF&gt;註冊成功&lt;/color&gt;&lt;/size&gt;\n&lt;size=12&gt;&lt;color=#C6C2C2&gt;成功建立帳戶&lt;/color&gt;&lt;/size&gt;</t>
   </si>
   <si>
     <t>大廳</t>
@@ -338,7 +614,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -346,12 +622,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,6 +662,18 @@
         <bgColor theme="0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFF9900"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -377,27 +681,48 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,8 +941,8 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.63"/>
-    <col customWidth="1" min="2" max="2" width="39.0"/>
-    <col customWidth="1" min="3" max="3" width="41.75"/>
+    <col customWidth="1" min="2" max="2" width="118.5"/>
+    <col customWidth="1" min="3" max="3" width="105.25"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -756,11 +1081,11 @@
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>10</v>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -788,7 +1113,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>12</v>
@@ -825,10 +1150,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -856,13 +1181,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -890,13 +1215,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -923,9 +1248,15 @@
       <c r="Z9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
@@ -951,277 +1282,287 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="4"/>
-      <c r="W11" s="4"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
-      <c r="Z11" s="4"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
-      <c r="U12" s="2"/>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
+      <c r="C11" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+      <c r="Z11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
+      <c r="B12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C12" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
+      <c r="B13" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C14" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+      <c r="Y14" s="6"/>
+      <c r="Z14" s="6"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="B15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C15" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
+      <c r="B16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
+      <c r="V17" s="6"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1247,44 +1588,48 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="s">
-        <v>41</v>
+      <c r="A20" s="1" t="s">
+        <v>52</v>
       </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
+      <c r="B20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>42</v>
+      <c r="A21" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1312,13 +1657,13 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1345,15 +1690,9 @@
       <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1379,815 +1718,785 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="2"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
-      <c r="Q28" s="2"/>
-      <c r="R28" s="2"/>
-      <c r="S28" s="2"/>
-      <c r="T28" s="2"/>
-      <c r="U28" s="2"/>
-      <c r="V28" s="2"/>
-      <c r="W28" s="2"/>
-      <c r="X28" s="2"/>
-      <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="A24" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="C25" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+      <c r="R25" s="6"/>
+      <c r="S25" s="6"/>
+      <c r="T25" s="6"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="6"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="6"/>
+      <c r="Y25" s="6"/>
+      <c r="Z25" s="6"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="B26" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C26" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+      <c r="R26" s="6"/>
+      <c r="S26" s="6"/>
+      <c r="T26" s="6"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="6"/>
+      <c r="W26" s="6"/>
+      <c r="X26" s="6"/>
+      <c r="Y26" s="6"/>
+      <c r="Z26" s="6"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C27" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="6"/>
+      <c r="M27" s="6"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6"/>
+      <c r="P27" s="6"/>
+      <c r="Q27" s="6"/>
+      <c r="R27" s="6"/>
+      <c r="S27" s="6"/>
+      <c r="T27" s="6"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="6"/>
+      <c r="W27" s="6"/>
+      <c r="X27" s="6"/>
+      <c r="Y27" s="6"/>
+      <c r="Z27" s="6"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="S28" s="6"/>
+      <c r="T28" s="6"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
+      <c r="M29" s="6"/>
+      <c r="N29" s="6"/>
+      <c r="O29" s="6"/>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
+      <c r="S29" s="6"/>
+      <c r="T29" s="6"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="6"/>
+      <c r="W29" s="6"/>
+      <c r="X29" s="6"/>
+      <c r="Y29" s="6"/>
+      <c r="Z29" s="6"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="6"/>
+      <c r="M30" s="6"/>
+      <c r="N30" s="6"/>
+      <c r="O30" s="6"/>
+      <c r="P30" s="6"/>
+      <c r="Q30" s="6"/>
+      <c r="R30" s="6"/>
+      <c r="S30" s="6"/>
+      <c r="T30" s="6"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="6"/>
+      <c r="W30" s="6"/>
+      <c r="X30" s="6"/>
+      <c r="Y30" s="6"/>
+      <c r="Z30" s="6"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="s">
+      <c r="C33" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="6"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="6"/>
+      <c r="O33" s="6"/>
+      <c r="P33" s="6"/>
+      <c r="Q33" s="6"/>
+      <c r="R33" s="6"/>
+      <c r="S33" s="6"/>
+      <c r="T33" s="6"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="6"/>
+      <c r="W33" s="6"/>
+      <c r="X33" s="6"/>
+      <c r="Y33" s="6"/>
+      <c r="Z33" s="6"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="B34" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="2"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C35" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="s">
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="2"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="s">
+      <c r="C37" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="6"/>
+      <c r="N37" s="6"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="6"/>
+      <c r="Q37" s="6"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="6"/>
+      <c r="T37" s="6"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="6"/>
+      <c r="W37" s="6"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="6"/>
+      <c r="Z37" s="6"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="B38" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="s">
+      <c r="C38" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="6"/>
+      <c r="W38" s="6"/>
+      <c r="X38" s="6"/>
+      <c r="Y38" s="6"/>
+      <c r="Z38" s="6"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="2"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="s">
+      <c r="C39" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42" s="1" t="s">
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="2"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="s">
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="12"/>
+      <c r="O40" s="12"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="12"/>
+      <c r="Y40" s="12"/>
+      <c r="Z40" s="12"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="2"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="s">
+      <c r="C41" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
+      <c r="Y41" s="6"/>
+      <c r="Z41" s="6"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="B43" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="2"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="C43" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="B44" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="C44" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="S44" s="6"/>
+      <c r="T44" s="6"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="s">
+      <c r="C45" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+      <c r="R46" s="10"/>
+      <c r="S46" s="10"/>
+      <c r="T46" s="10"/>
+      <c r="U46" s="10"/>
+      <c r="V46" s="10"/>
+      <c r="W46" s="10"/>
+      <c r="X46" s="10"/>
+      <c r="Y46" s="10"/>
+      <c r="Z46" s="10"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-      <c r="V47" s="2"/>
-      <c r="W47" s="2"/>
-      <c r="X47" s="2"/>
-      <c r="Y47" s="2"/>
-      <c r="Z47" s="2"/>
+      <c r="B47" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="6"/>
+      <c r="Q47" s="6"/>
+      <c r="R47" s="6"/>
+      <c r="S47" s="6"/>
+      <c r="T47" s="6"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="6"/>
+      <c r="W47" s="6"/>
+      <c r="X47" s="6"/>
+      <c r="Y47" s="6"/>
+      <c r="Z47" s="6"/>
     </row>
     <row r="48">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="A48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -2213,121 +2522,129 @@
       <c r="Z48" s="2"/>
     </row>
     <row r="49">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
-      <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
-      <c r="V49" s="2"/>
-      <c r="W49" s="2"/>
-      <c r="X49" s="2"/>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
     </row>
     <row r="50">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+      <c r="N50" s="6"/>
+      <c r="O50" s="6"/>
+      <c r="P50" s="6"/>
+      <c r="Q50" s="6"/>
+      <c r="R50" s="6"/>
+      <c r="S50" s="6"/>
+      <c r="T50" s="6"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="6"/>
+      <c r="W50" s="6"/>
+      <c r="X50" s="6"/>
+      <c r="Y50" s="6"/>
+      <c r="Z50" s="6"/>
     </row>
     <row r="51">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
     </row>
     <row r="52">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-      <c r="J52" s="2"/>
-      <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-      <c r="V52" s="2"/>
-      <c r="W52" s="2"/>
-      <c r="X52" s="2"/>
-      <c r="Y52" s="2"/>
-      <c r="Z52" s="2"/>
+      <c r="A52" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
     </row>
     <row r="53">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
@@ -2353,9 +2670,15 @@
       <c r="Z53" s="2"/>
     </row>
     <row r="54">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+      <c r="A54" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -2381,9 +2704,15 @@
       <c r="Z54" s="2"/>
     </row>
     <row r="55">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="A55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2409,9 +2738,15 @@
       <c r="Z55" s="2"/>
     </row>
     <row r="56">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>123</v>
+      </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -2437,9 +2772,15 @@
       <c r="Z56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="A57" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2465,9 +2806,15 @@
       <c r="Z57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="A58" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>129</v>
+      </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2493,9 +2840,15 @@
       <c r="Z58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+      <c r="A59" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -2521,9 +2874,9 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2549,37 +2902,45 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
+      <c r="A61" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="A62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -2605,9 +2966,15 @@
       <c r="Z62" s="2"/>
     </row>
     <row r="63">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="A63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2633,9 +3000,15 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+      <c r="A64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -2661,9 +3034,15 @@
       <c r="Z64" s="2"/>
     </row>
     <row r="65">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="A65" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -2689,9 +3068,15 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+      <c r="A66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>144</v>
+      </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -2717,9 +3102,15 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
+      <c r="A67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>146</v>
+      </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -2745,9 +3136,15 @@
       <c r="Z67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
+      <c r="A68" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
@@ -2773,9 +3170,15 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
+      <c r="A69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -2801,9 +3204,15 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
+      <c r="A70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>153</v>
+      </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
@@ -2829,9 +3238,15 @@
       <c r="Z70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
+      <c r="A71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -2857,9 +3272,15 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
+      <c r="A72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
@@ -2885,9 +3306,15 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
+      <c r="A73" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>160</v>
+      </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -2913,9 +3340,15 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
+      <c r="A74" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>163</v>
+      </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -2941,9 +3374,15 @@
       <c r="Z74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
+      <c r="A75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>166</v>
+      </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
@@ -2969,9 +3408,15 @@
       <c r="Z75" s="2"/>
     </row>
     <row r="76">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
+      <c r="A76" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>169</v>
+      </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
@@ -2997,9 +3442,9 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -3025,37 +3470,45 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
+      <c r="A78" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
     </row>
     <row r="79">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
+      <c r="A79" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -3081,9 +3534,15 @@
       <c r="Z79" s="2"/>
     </row>
     <row r="80">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+      <c r="A80" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -3109,9 +3568,15 @@
       <c r="Z80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+      <c r="A81" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
@@ -3137,9 +3602,15 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+      <c r="A82" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>182</v>
+      </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -3165,9 +3636,15 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+      <c r="A83" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -3193,9 +3670,15 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+      <c r="A84" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
@@ -3221,9 +3704,15 @@
       <c r="Z84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+      <c r="A85" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>189</v>
+      </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
@@ -3249,9 +3738,15 @@
       <c r="Z85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+      <c r="A86" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -3277,9 +3772,15 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+      <c r="A87" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -3305,9 +3806,15 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+      <c r="A88" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>198</v>
+      </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -29288,6 +29795,1154 @@
       <c r="Y1015" s="2"/>
       <c r="Z1015" s="2"/>
     </row>
+    <row r="1016">
+      <c r="A1016" s="2"/>
+      <c r="B1016" s="2"/>
+      <c r="C1016" s="2"/>
+      <c r="D1016" s="2"/>
+      <c r="E1016" s="2"/>
+      <c r="F1016" s="2"/>
+      <c r="G1016" s="2"/>
+      <c r="H1016" s="2"/>
+      <c r="I1016" s="2"/>
+      <c r="J1016" s="2"/>
+      <c r="K1016" s="2"/>
+      <c r="L1016" s="2"/>
+      <c r="M1016" s="2"/>
+      <c r="N1016" s="2"/>
+      <c r="O1016" s="2"/>
+      <c r="P1016" s="2"/>
+      <c r="Q1016" s="2"/>
+      <c r="R1016" s="2"/>
+      <c r="S1016" s="2"/>
+      <c r="T1016" s="2"/>
+      <c r="U1016" s="2"/>
+      <c r="V1016" s="2"/>
+      <c r="W1016" s="2"/>
+      <c r="X1016" s="2"/>
+      <c r="Y1016" s="2"/>
+      <c r="Z1016" s="2"/>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2"/>
+      <c r="B1017" s="2"/>
+      <c r="C1017" s="2"/>
+      <c r="D1017" s="2"/>
+      <c r="E1017" s="2"/>
+      <c r="F1017" s="2"/>
+      <c r="G1017" s="2"/>
+      <c r="H1017" s="2"/>
+      <c r="I1017" s="2"/>
+      <c r="J1017" s="2"/>
+      <c r="K1017" s="2"/>
+      <c r="L1017" s="2"/>
+      <c r="M1017" s="2"/>
+      <c r="N1017" s="2"/>
+      <c r="O1017" s="2"/>
+      <c r="P1017" s="2"/>
+      <c r="Q1017" s="2"/>
+      <c r="R1017" s="2"/>
+      <c r="S1017" s="2"/>
+      <c r="T1017" s="2"/>
+      <c r="U1017" s="2"/>
+      <c r="V1017" s="2"/>
+      <c r="W1017" s="2"/>
+      <c r="X1017" s="2"/>
+      <c r="Y1017" s="2"/>
+      <c r="Z1017" s="2"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2"/>
+      <c r="B1018" s="2"/>
+      <c r="C1018" s="2"/>
+      <c r="D1018" s="2"/>
+      <c r="E1018" s="2"/>
+      <c r="F1018" s="2"/>
+      <c r="G1018" s="2"/>
+      <c r="H1018" s="2"/>
+      <c r="I1018" s="2"/>
+      <c r="J1018" s="2"/>
+      <c r="K1018" s="2"/>
+      <c r="L1018" s="2"/>
+      <c r="M1018" s="2"/>
+      <c r="N1018" s="2"/>
+      <c r="O1018" s="2"/>
+      <c r="P1018" s="2"/>
+      <c r="Q1018" s="2"/>
+      <c r="R1018" s="2"/>
+      <c r="S1018" s="2"/>
+      <c r="T1018" s="2"/>
+      <c r="U1018" s="2"/>
+      <c r="V1018" s="2"/>
+      <c r="W1018" s="2"/>
+      <c r="X1018" s="2"/>
+      <c r="Y1018" s="2"/>
+      <c r="Z1018" s="2"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2"/>
+      <c r="B1019" s="2"/>
+      <c r="C1019" s="2"/>
+      <c r="D1019" s="2"/>
+      <c r="E1019" s="2"/>
+      <c r="F1019" s="2"/>
+      <c r="G1019" s="2"/>
+      <c r="H1019" s="2"/>
+      <c r="I1019" s="2"/>
+      <c r="J1019" s="2"/>
+      <c r="K1019" s="2"/>
+      <c r="L1019" s="2"/>
+      <c r="M1019" s="2"/>
+      <c r="N1019" s="2"/>
+      <c r="O1019" s="2"/>
+      <c r="P1019" s="2"/>
+      <c r="Q1019" s="2"/>
+      <c r="R1019" s="2"/>
+      <c r="S1019" s="2"/>
+      <c r="T1019" s="2"/>
+      <c r="U1019" s="2"/>
+      <c r="V1019" s="2"/>
+      <c r="W1019" s="2"/>
+      <c r="X1019" s="2"/>
+      <c r="Y1019" s="2"/>
+      <c r="Z1019" s="2"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2"/>
+      <c r="B1020" s="2"/>
+      <c r="C1020" s="2"/>
+      <c r="D1020" s="2"/>
+      <c r="E1020" s="2"/>
+      <c r="F1020" s="2"/>
+      <c r="G1020" s="2"/>
+      <c r="H1020" s="2"/>
+      <c r="I1020" s="2"/>
+      <c r="J1020" s="2"/>
+      <c r="K1020" s="2"/>
+      <c r="L1020" s="2"/>
+      <c r="M1020" s="2"/>
+      <c r="N1020" s="2"/>
+      <c r="O1020" s="2"/>
+      <c r="P1020" s="2"/>
+      <c r="Q1020" s="2"/>
+      <c r="R1020" s="2"/>
+      <c r="S1020" s="2"/>
+      <c r="T1020" s="2"/>
+      <c r="U1020" s="2"/>
+      <c r="V1020" s="2"/>
+      <c r="W1020" s="2"/>
+      <c r="X1020" s="2"/>
+      <c r="Y1020" s="2"/>
+      <c r="Z1020" s="2"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2"/>
+      <c r="B1021" s="2"/>
+      <c r="C1021" s="2"/>
+      <c r="D1021" s="2"/>
+      <c r="E1021" s="2"/>
+      <c r="F1021" s="2"/>
+      <c r="G1021" s="2"/>
+      <c r="H1021" s="2"/>
+      <c r="I1021" s="2"/>
+      <c r="J1021" s="2"/>
+      <c r="K1021" s="2"/>
+      <c r="L1021" s="2"/>
+      <c r="M1021" s="2"/>
+      <c r="N1021" s="2"/>
+      <c r="O1021" s="2"/>
+      <c r="P1021" s="2"/>
+      <c r="Q1021" s="2"/>
+      <c r="R1021" s="2"/>
+      <c r="S1021" s="2"/>
+      <c r="T1021" s="2"/>
+      <c r="U1021" s="2"/>
+      <c r="V1021" s="2"/>
+      <c r="W1021" s="2"/>
+      <c r="X1021" s="2"/>
+      <c r="Y1021" s="2"/>
+      <c r="Z1021" s="2"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2"/>
+      <c r="B1022" s="2"/>
+      <c r="C1022" s="2"/>
+      <c r="D1022" s="2"/>
+      <c r="E1022" s="2"/>
+      <c r="F1022" s="2"/>
+      <c r="G1022" s="2"/>
+      <c r="H1022" s="2"/>
+      <c r="I1022" s="2"/>
+      <c r="J1022" s="2"/>
+      <c r="K1022" s="2"/>
+      <c r="L1022" s="2"/>
+      <c r="M1022" s="2"/>
+      <c r="N1022" s="2"/>
+      <c r="O1022" s="2"/>
+      <c r="P1022" s="2"/>
+      <c r="Q1022" s="2"/>
+      <c r="R1022" s="2"/>
+      <c r="S1022" s="2"/>
+      <c r="T1022" s="2"/>
+      <c r="U1022" s="2"/>
+      <c r="V1022" s="2"/>
+      <c r="W1022" s="2"/>
+      <c r="X1022" s="2"/>
+      <c r="Y1022" s="2"/>
+      <c r="Z1022" s="2"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2"/>
+      <c r="B1023" s="2"/>
+      <c r="C1023" s="2"/>
+      <c r="D1023" s="2"/>
+      <c r="E1023" s="2"/>
+      <c r="F1023" s="2"/>
+      <c r="G1023" s="2"/>
+      <c r="H1023" s="2"/>
+      <c r="I1023" s="2"/>
+      <c r="J1023" s="2"/>
+      <c r="K1023" s="2"/>
+      <c r="L1023" s="2"/>
+      <c r="M1023" s="2"/>
+      <c r="N1023" s="2"/>
+      <c r="O1023" s="2"/>
+      <c r="P1023" s="2"/>
+      <c r="Q1023" s="2"/>
+      <c r="R1023" s="2"/>
+      <c r="S1023" s="2"/>
+      <c r="T1023" s="2"/>
+      <c r="U1023" s="2"/>
+      <c r="V1023" s="2"/>
+      <c r="W1023" s="2"/>
+      <c r="X1023" s="2"/>
+      <c r="Y1023" s="2"/>
+      <c r="Z1023" s="2"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2"/>
+      <c r="B1024" s="2"/>
+      <c r="C1024" s="2"/>
+      <c r="D1024" s="2"/>
+      <c r="E1024" s="2"/>
+      <c r="F1024" s="2"/>
+      <c r="G1024" s="2"/>
+      <c r="H1024" s="2"/>
+      <c r="I1024" s="2"/>
+      <c r="J1024" s="2"/>
+      <c r="K1024" s="2"/>
+      <c r="L1024" s="2"/>
+      <c r="M1024" s="2"/>
+      <c r="N1024" s="2"/>
+      <c r="O1024" s="2"/>
+      <c r="P1024" s="2"/>
+      <c r="Q1024" s="2"/>
+      <c r="R1024" s="2"/>
+      <c r="S1024" s="2"/>
+      <c r="T1024" s="2"/>
+      <c r="U1024" s="2"/>
+      <c r="V1024" s="2"/>
+      <c r="W1024" s="2"/>
+      <c r="X1024" s="2"/>
+      <c r="Y1024" s="2"/>
+      <c r="Z1024" s="2"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2"/>
+      <c r="B1025" s="2"/>
+      <c r="C1025" s="2"/>
+      <c r="D1025" s="2"/>
+      <c r="E1025" s="2"/>
+      <c r="F1025" s="2"/>
+      <c r="G1025" s="2"/>
+      <c r="H1025" s="2"/>
+      <c r="I1025" s="2"/>
+      <c r="J1025" s="2"/>
+      <c r="K1025" s="2"/>
+      <c r="L1025" s="2"/>
+      <c r="M1025" s="2"/>
+      <c r="N1025" s="2"/>
+      <c r="O1025" s="2"/>
+      <c r="P1025" s="2"/>
+      <c r="Q1025" s="2"/>
+      <c r="R1025" s="2"/>
+      <c r="S1025" s="2"/>
+      <c r="T1025" s="2"/>
+      <c r="U1025" s="2"/>
+      <c r="V1025" s="2"/>
+      <c r="W1025" s="2"/>
+      <c r="X1025" s="2"/>
+      <c r="Y1025" s="2"/>
+      <c r="Z1025" s="2"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2"/>
+      <c r="B1026" s="2"/>
+      <c r="C1026" s="2"/>
+      <c r="D1026" s="2"/>
+      <c r="E1026" s="2"/>
+      <c r="F1026" s="2"/>
+      <c r="G1026" s="2"/>
+      <c r="H1026" s="2"/>
+      <c r="I1026" s="2"/>
+      <c r="J1026" s="2"/>
+      <c r="K1026" s="2"/>
+      <c r="L1026" s="2"/>
+      <c r="M1026" s="2"/>
+      <c r="N1026" s="2"/>
+      <c r="O1026" s="2"/>
+      <c r="P1026" s="2"/>
+      <c r="Q1026" s="2"/>
+      <c r="R1026" s="2"/>
+      <c r="S1026" s="2"/>
+      <c r="T1026" s="2"/>
+      <c r="U1026" s="2"/>
+      <c r="V1026" s="2"/>
+      <c r="W1026" s="2"/>
+      <c r="X1026" s="2"/>
+      <c r="Y1026" s="2"/>
+      <c r="Z1026" s="2"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2"/>
+      <c r="B1027" s="2"/>
+      <c r="C1027" s="2"/>
+      <c r="D1027" s="2"/>
+      <c r="E1027" s="2"/>
+      <c r="F1027" s="2"/>
+      <c r="G1027" s="2"/>
+      <c r="H1027" s="2"/>
+      <c r="I1027" s="2"/>
+      <c r="J1027" s="2"/>
+      <c r="K1027" s="2"/>
+      <c r="L1027" s="2"/>
+      <c r="M1027" s="2"/>
+      <c r="N1027" s="2"/>
+      <c r="O1027" s="2"/>
+      <c r="P1027" s="2"/>
+      <c r="Q1027" s="2"/>
+      <c r="R1027" s="2"/>
+      <c r="S1027" s="2"/>
+      <c r="T1027" s="2"/>
+      <c r="U1027" s="2"/>
+      <c r="V1027" s="2"/>
+      <c r="W1027" s="2"/>
+      <c r="X1027" s="2"/>
+      <c r="Y1027" s="2"/>
+      <c r="Z1027" s="2"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2"/>
+      <c r="B1028" s="2"/>
+      <c r="C1028" s="2"/>
+      <c r="D1028" s="2"/>
+      <c r="E1028" s="2"/>
+      <c r="F1028" s="2"/>
+      <c r="G1028" s="2"/>
+      <c r="H1028" s="2"/>
+      <c r="I1028" s="2"/>
+      <c r="J1028" s="2"/>
+      <c r="K1028" s="2"/>
+      <c r="L1028" s="2"/>
+      <c r="M1028" s="2"/>
+      <c r="N1028" s="2"/>
+      <c r="O1028" s="2"/>
+      <c r="P1028" s="2"/>
+      <c r="Q1028" s="2"/>
+      <c r="R1028" s="2"/>
+      <c r="S1028" s="2"/>
+      <c r="T1028" s="2"/>
+      <c r="U1028" s="2"/>
+      <c r="V1028" s="2"/>
+      <c r="W1028" s="2"/>
+      <c r="X1028" s="2"/>
+      <c r="Y1028" s="2"/>
+      <c r="Z1028" s="2"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2"/>
+      <c r="B1029" s="2"/>
+      <c r="C1029" s="2"/>
+      <c r="D1029" s="2"/>
+      <c r="E1029" s="2"/>
+      <c r="F1029" s="2"/>
+      <c r="G1029" s="2"/>
+      <c r="H1029" s="2"/>
+      <c r="I1029" s="2"/>
+      <c r="J1029" s="2"/>
+      <c r="K1029" s="2"/>
+      <c r="L1029" s="2"/>
+      <c r="M1029" s="2"/>
+      <c r="N1029" s="2"/>
+      <c r="O1029" s="2"/>
+      <c r="P1029" s="2"/>
+      <c r="Q1029" s="2"/>
+      <c r="R1029" s="2"/>
+      <c r="S1029" s="2"/>
+      <c r="T1029" s="2"/>
+      <c r="U1029" s="2"/>
+      <c r="V1029" s="2"/>
+      <c r="W1029" s="2"/>
+      <c r="X1029" s="2"/>
+      <c r="Y1029" s="2"/>
+      <c r="Z1029" s="2"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2"/>
+      <c r="B1030" s="2"/>
+      <c r="C1030" s="2"/>
+      <c r="D1030" s="2"/>
+      <c r="E1030" s="2"/>
+      <c r="F1030" s="2"/>
+      <c r="G1030" s="2"/>
+      <c r="H1030" s="2"/>
+      <c r="I1030" s="2"/>
+      <c r="J1030" s="2"/>
+      <c r="K1030" s="2"/>
+      <c r="L1030" s="2"/>
+      <c r="M1030" s="2"/>
+      <c r="N1030" s="2"/>
+      <c r="O1030" s="2"/>
+      <c r="P1030" s="2"/>
+      <c r="Q1030" s="2"/>
+      <c r="R1030" s="2"/>
+      <c r="S1030" s="2"/>
+      <c r="T1030" s="2"/>
+      <c r="U1030" s="2"/>
+      <c r="V1030" s="2"/>
+      <c r="W1030" s="2"/>
+      <c r="X1030" s="2"/>
+      <c r="Y1030" s="2"/>
+      <c r="Z1030" s="2"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2"/>
+      <c r="B1031" s="2"/>
+      <c r="C1031" s="2"/>
+      <c r="D1031" s="2"/>
+      <c r="E1031" s="2"/>
+      <c r="F1031" s="2"/>
+      <c r="G1031" s="2"/>
+      <c r="H1031" s="2"/>
+      <c r="I1031" s="2"/>
+      <c r="J1031" s="2"/>
+      <c r="K1031" s="2"/>
+      <c r="L1031" s="2"/>
+      <c r="M1031" s="2"/>
+      <c r="N1031" s="2"/>
+      <c r="O1031" s="2"/>
+      <c r="P1031" s="2"/>
+      <c r="Q1031" s="2"/>
+      <c r="R1031" s="2"/>
+      <c r="S1031" s="2"/>
+      <c r="T1031" s="2"/>
+      <c r="U1031" s="2"/>
+      <c r="V1031" s="2"/>
+      <c r="W1031" s="2"/>
+      <c r="X1031" s="2"/>
+      <c r="Y1031" s="2"/>
+      <c r="Z1031" s="2"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2"/>
+      <c r="B1032" s="2"/>
+      <c r="C1032" s="2"/>
+      <c r="D1032" s="2"/>
+      <c r="E1032" s="2"/>
+      <c r="F1032" s="2"/>
+      <c r="G1032" s="2"/>
+      <c r="H1032" s="2"/>
+      <c r="I1032" s="2"/>
+      <c r="J1032" s="2"/>
+      <c r="K1032" s="2"/>
+      <c r="L1032" s="2"/>
+      <c r="M1032" s="2"/>
+      <c r="N1032" s="2"/>
+      <c r="O1032" s="2"/>
+      <c r="P1032" s="2"/>
+      <c r="Q1032" s="2"/>
+      <c r="R1032" s="2"/>
+      <c r="S1032" s="2"/>
+      <c r="T1032" s="2"/>
+      <c r="U1032" s="2"/>
+      <c r="V1032" s="2"/>
+      <c r="W1032" s="2"/>
+      <c r="X1032" s="2"/>
+      <c r="Y1032" s="2"/>
+      <c r="Z1032" s="2"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2"/>
+      <c r="B1033" s="2"/>
+      <c r="C1033" s="2"/>
+      <c r="D1033" s="2"/>
+      <c r="E1033" s="2"/>
+      <c r="F1033" s="2"/>
+      <c r="G1033" s="2"/>
+      <c r="H1033" s="2"/>
+      <c r="I1033" s="2"/>
+      <c r="J1033" s="2"/>
+      <c r="K1033" s="2"/>
+      <c r="L1033" s="2"/>
+      <c r="M1033" s="2"/>
+      <c r="N1033" s="2"/>
+      <c r="O1033" s="2"/>
+      <c r="P1033" s="2"/>
+      <c r="Q1033" s="2"/>
+      <c r="R1033" s="2"/>
+      <c r="S1033" s="2"/>
+      <c r="T1033" s="2"/>
+      <c r="U1033" s="2"/>
+      <c r="V1033" s="2"/>
+      <c r="W1033" s="2"/>
+      <c r="X1033" s="2"/>
+      <c r="Y1033" s="2"/>
+      <c r="Z1033" s="2"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2"/>
+      <c r="B1034" s="2"/>
+      <c r="C1034" s="2"/>
+      <c r="D1034" s="2"/>
+      <c r="E1034" s="2"/>
+      <c r="F1034" s="2"/>
+      <c r="G1034" s="2"/>
+      <c r="H1034" s="2"/>
+      <c r="I1034" s="2"/>
+      <c r="J1034" s="2"/>
+      <c r="K1034" s="2"/>
+      <c r="L1034" s="2"/>
+      <c r="M1034" s="2"/>
+      <c r="N1034" s="2"/>
+      <c r="O1034" s="2"/>
+      <c r="P1034" s="2"/>
+      <c r="Q1034" s="2"/>
+      <c r="R1034" s="2"/>
+      <c r="S1034" s="2"/>
+      <c r="T1034" s="2"/>
+      <c r="U1034" s="2"/>
+      <c r="V1034" s="2"/>
+      <c r="W1034" s="2"/>
+      <c r="X1034" s="2"/>
+      <c r="Y1034" s="2"/>
+      <c r="Z1034" s="2"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2"/>
+      <c r="B1035" s="2"/>
+      <c r="C1035" s="2"/>
+      <c r="D1035" s="2"/>
+      <c r="E1035" s="2"/>
+      <c r="F1035" s="2"/>
+      <c r="G1035" s="2"/>
+      <c r="H1035" s="2"/>
+      <c r="I1035" s="2"/>
+      <c r="J1035" s="2"/>
+      <c r="K1035" s="2"/>
+      <c r="L1035" s="2"/>
+      <c r="M1035" s="2"/>
+      <c r="N1035" s="2"/>
+      <c r="O1035" s="2"/>
+      <c r="P1035" s="2"/>
+      <c r="Q1035" s="2"/>
+      <c r="R1035" s="2"/>
+      <c r="S1035" s="2"/>
+      <c r="T1035" s="2"/>
+      <c r="U1035" s="2"/>
+      <c r="V1035" s="2"/>
+      <c r="W1035" s="2"/>
+      <c r="X1035" s="2"/>
+      <c r="Y1035" s="2"/>
+      <c r="Z1035" s="2"/>
+    </row>
+    <row r="1036">
+      <c r="A1036" s="2"/>
+      <c r="B1036" s="2"/>
+      <c r="C1036" s="2"/>
+      <c r="D1036" s="2"/>
+      <c r="E1036" s="2"/>
+      <c r="F1036" s="2"/>
+      <c r="G1036" s="2"/>
+      <c r="H1036" s="2"/>
+      <c r="I1036" s="2"/>
+      <c r="J1036" s="2"/>
+      <c r="K1036" s="2"/>
+      <c r="L1036" s="2"/>
+      <c r="M1036" s="2"/>
+      <c r="N1036" s="2"/>
+      <c r="O1036" s="2"/>
+      <c r="P1036" s="2"/>
+      <c r="Q1036" s="2"/>
+      <c r="R1036" s="2"/>
+      <c r="S1036" s="2"/>
+      <c r="T1036" s="2"/>
+      <c r="U1036" s="2"/>
+      <c r="V1036" s="2"/>
+      <c r="W1036" s="2"/>
+      <c r="X1036" s="2"/>
+      <c r="Y1036" s="2"/>
+      <c r="Z1036" s="2"/>
+    </row>
+    <row r="1037">
+      <c r="A1037" s="2"/>
+      <c r="B1037" s="2"/>
+      <c r="C1037" s="2"/>
+      <c r="D1037" s="2"/>
+      <c r="E1037" s="2"/>
+      <c r="F1037" s="2"/>
+      <c r="G1037" s="2"/>
+      <c r="H1037" s="2"/>
+      <c r="I1037" s="2"/>
+      <c r="J1037" s="2"/>
+      <c r="K1037" s="2"/>
+      <c r="L1037" s="2"/>
+      <c r="M1037" s="2"/>
+      <c r="N1037" s="2"/>
+      <c r="O1037" s="2"/>
+      <c r="P1037" s="2"/>
+      <c r="Q1037" s="2"/>
+      <c r="R1037" s="2"/>
+      <c r="S1037" s="2"/>
+      <c r="T1037" s="2"/>
+      <c r="U1037" s="2"/>
+      <c r="V1037" s="2"/>
+      <c r="W1037" s="2"/>
+      <c r="X1037" s="2"/>
+      <c r="Y1037" s="2"/>
+      <c r="Z1037" s="2"/>
+    </row>
+    <row r="1038">
+      <c r="A1038" s="2"/>
+      <c r="B1038" s="2"/>
+      <c r="C1038" s="2"/>
+      <c r="D1038" s="2"/>
+      <c r="E1038" s="2"/>
+      <c r="F1038" s="2"/>
+      <c r="G1038" s="2"/>
+      <c r="H1038" s="2"/>
+      <c r="I1038" s="2"/>
+      <c r="J1038" s="2"/>
+      <c r="K1038" s="2"/>
+      <c r="L1038" s="2"/>
+      <c r="M1038" s="2"/>
+      <c r="N1038" s="2"/>
+      <c r="O1038" s="2"/>
+      <c r="P1038" s="2"/>
+      <c r="Q1038" s="2"/>
+      <c r="R1038" s="2"/>
+      <c r="S1038" s="2"/>
+      <c r="T1038" s="2"/>
+      <c r="U1038" s="2"/>
+      <c r="V1038" s="2"/>
+      <c r="W1038" s="2"/>
+      <c r="X1038" s="2"/>
+      <c r="Y1038" s="2"/>
+      <c r="Z1038" s="2"/>
+    </row>
+    <row r="1039">
+      <c r="A1039" s="2"/>
+      <c r="B1039" s="2"/>
+      <c r="C1039" s="2"/>
+      <c r="D1039" s="2"/>
+      <c r="E1039" s="2"/>
+      <c r="F1039" s="2"/>
+      <c r="G1039" s="2"/>
+      <c r="H1039" s="2"/>
+      <c r="I1039" s="2"/>
+      <c r="J1039" s="2"/>
+      <c r="K1039" s="2"/>
+      <c r="L1039" s="2"/>
+      <c r="M1039" s="2"/>
+      <c r="N1039" s="2"/>
+      <c r="O1039" s="2"/>
+      <c r="P1039" s="2"/>
+      <c r="Q1039" s="2"/>
+      <c r="R1039" s="2"/>
+      <c r="S1039" s="2"/>
+      <c r="T1039" s="2"/>
+      <c r="U1039" s="2"/>
+      <c r="V1039" s="2"/>
+      <c r="W1039" s="2"/>
+      <c r="X1039" s="2"/>
+      <c r="Y1039" s="2"/>
+      <c r="Z1039" s="2"/>
+    </row>
+    <row r="1040">
+      <c r="A1040" s="2"/>
+      <c r="B1040" s="2"/>
+      <c r="C1040" s="2"/>
+      <c r="D1040" s="2"/>
+      <c r="E1040" s="2"/>
+      <c r="F1040" s="2"/>
+      <c r="G1040" s="2"/>
+      <c r="H1040" s="2"/>
+      <c r="I1040" s="2"/>
+      <c r="J1040" s="2"/>
+      <c r="K1040" s="2"/>
+      <c r="L1040" s="2"/>
+      <c r="M1040" s="2"/>
+      <c r="N1040" s="2"/>
+      <c r="O1040" s="2"/>
+      <c r="P1040" s="2"/>
+      <c r="Q1040" s="2"/>
+      <c r="R1040" s="2"/>
+      <c r="S1040" s="2"/>
+      <c r="T1040" s="2"/>
+      <c r="U1040" s="2"/>
+      <c r="V1040" s="2"/>
+      <c r="W1040" s="2"/>
+      <c r="X1040" s="2"/>
+      <c r="Y1040" s="2"/>
+      <c r="Z1040" s="2"/>
+    </row>
+    <row r="1041">
+      <c r="A1041" s="2"/>
+      <c r="B1041" s="2"/>
+      <c r="C1041" s="2"/>
+      <c r="D1041" s="2"/>
+      <c r="E1041" s="2"/>
+      <c r="F1041" s="2"/>
+      <c r="G1041" s="2"/>
+      <c r="H1041" s="2"/>
+      <c r="I1041" s="2"/>
+      <c r="J1041" s="2"/>
+      <c r="K1041" s="2"/>
+      <c r="L1041" s="2"/>
+      <c r="M1041" s="2"/>
+      <c r="N1041" s="2"/>
+      <c r="O1041" s="2"/>
+      <c r="P1041" s="2"/>
+      <c r="Q1041" s="2"/>
+      <c r="R1041" s="2"/>
+      <c r="S1041" s="2"/>
+      <c r="T1041" s="2"/>
+      <c r="U1041" s="2"/>
+      <c r="V1041" s="2"/>
+      <c r="W1041" s="2"/>
+      <c r="X1041" s="2"/>
+      <c r="Y1041" s="2"/>
+      <c r="Z1041" s="2"/>
+    </row>
+    <row r="1042">
+      <c r="A1042" s="2"/>
+      <c r="B1042" s="2"/>
+      <c r="C1042" s="2"/>
+      <c r="D1042" s="2"/>
+      <c r="E1042" s="2"/>
+      <c r="F1042" s="2"/>
+      <c r="G1042" s="2"/>
+      <c r="H1042" s="2"/>
+      <c r="I1042" s="2"/>
+      <c r="J1042" s="2"/>
+      <c r="K1042" s="2"/>
+      <c r="L1042" s="2"/>
+      <c r="M1042" s="2"/>
+      <c r="N1042" s="2"/>
+      <c r="O1042" s="2"/>
+      <c r="P1042" s="2"/>
+      <c r="Q1042" s="2"/>
+      <c r="R1042" s="2"/>
+      <c r="S1042" s="2"/>
+      <c r="T1042" s="2"/>
+      <c r="U1042" s="2"/>
+      <c r="V1042" s="2"/>
+      <c r="W1042" s="2"/>
+      <c r="X1042" s="2"/>
+      <c r="Y1042" s="2"/>
+      <c r="Z1042" s="2"/>
+    </row>
+    <row r="1043">
+      <c r="A1043" s="2"/>
+      <c r="B1043" s="2"/>
+      <c r="C1043" s="2"/>
+      <c r="D1043" s="2"/>
+      <c r="E1043" s="2"/>
+      <c r="F1043" s="2"/>
+      <c r="G1043" s="2"/>
+      <c r="H1043" s="2"/>
+      <c r="I1043" s="2"/>
+      <c r="J1043" s="2"/>
+      <c r="K1043" s="2"/>
+      <c r="L1043" s="2"/>
+      <c r="M1043" s="2"/>
+      <c r="N1043" s="2"/>
+      <c r="O1043" s="2"/>
+      <c r="P1043" s="2"/>
+      <c r="Q1043" s="2"/>
+      <c r="R1043" s="2"/>
+      <c r="S1043" s="2"/>
+      <c r="T1043" s="2"/>
+      <c r="U1043" s="2"/>
+      <c r="V1043" s="2"/>
+      <c r="W1043" s="2"/>
+      <c r="X1043" s="2"/>
+      <c r="Y1043" s="2"/>
+      <c r="Z1043" s="2"/>
+    </row>
+    <row r="1044">
+      <c r="A1044" s="2"/>
+      <c r="B1044" s="2"/>
+      <c r="C1044" s="2"/>
+      <c r="D1044" s="2"/>
+      <c r="E1044" s="2"/>
+      <c r="F1044" s="2"/>
+      <c r="G1044" s="2"/>
+      <c r="H1044" s="2"/>
+      <c r="I1044" s="2"/>
+      <c r="J1044" s="2"/>
+      <c r="K1044" s="2"/>
+      <c r="L1044" s="2"/>
+      <c r="M1044" s="2"/>
+      <c r="N1044" s="2"/>
+      <c r="O1044" s="2"/>
+      <c r="P1044" s="2"/>
+      <c r="Q1044" s="2"/>
+      <c r="R1044" s="2"/>
+      <c r="S1044" s="2"/>
+      <c r="T1044" s="2"/>
+      <c r="U1044" s="2"/>
+      <c r="V1044" s="2"/>
+      <c r="W1044" s="2"/>
+      <c r="X1044" s="2"/>
+      <c r="Y1044" s="2"/>
+      <c r="Z1044" s="2"/>
+    </row>
+    <row r="1045">
+      <c r="A1045" s="2"/>
+      <c r="B1045" s="2"/>
+      <c r="C1045" s="2"/>
+      <c r="D1045" s="2"/>
+      <c r="E1045" s="2"/>
+      <c r="F1045" s="2"/>
+      <c r="G1045" s="2"/>
+      <c r="H1045" s="2"/>
+      <c r="I1045" s="2"/>
+      <c r="J1045" s="2"/>
+      <c r="K1045" s="2"/>
+      <c r="L1045" s="2"/>
+      <c r="M1045" s="2"/>
+      <c r="N1045" s="2"/>
+      <c r="O1045" s="2"/>
+      <c r="P1045" s="2"/>
+      <c r="Q1045" s="2"/>
+      <c r="R1045" s="2"/>
+      <c r="S1045" s="2"/>
+      <c r="T1045" s="2"/>
+      <c r="U1045" s="2"/>
+      <c r="V1045" s="2"/>
+      <c r="W1045" s="2"/>
+      <c r="X1045" s="2"/>
+      <c r="Y1045" s="2"/>
+      <c r="Z1045" s="2"/>
+    </row>
+    <row r="1046">
+      <c r="A1046" s="2"/>
+      <c r="B1046" s="2"/>
+      <c r="C1046" s="2"/>
+      <c r="D1046" s="2"/>
+      <c r="E1046" s="2"/>
+      <c r="F1046" s="2"/>
+      <c r="G1046" s="2"/>
+      <c r="H1046" s="2"/>
+      <c r="I1046" s="2"/>
+      <c r="J1046" s="2"/>
+      <c r="K1046" s="2"/>
+      <c r="L1046" s="2"/>
+      <c r="M1046" s="2"/>
+      <c r="N1046" s="2"/>
+      <c r="O1046" s="2"/>
+      <c r="P1046" s="2"/>
+      <c r="Q1046" s="2"/>
+      <c r="R1046" s="2"/>
+      <c r="S1046" s="2"/>
+      <c r="T1046" s="2"/>
+      <c r="U1046" s="2"/>
+      <c r="V1046" s="2"/>
+      <c r="W1046" s="2"/>
+      <c r="X1046" s="2"/>
+      <c r="Y1046" s="2"/>
+      <c r="Z1046" s="2"/>
+    </row>
+    <row r="1047">
+      <c r="A1047" s="2"/>
+      <c r="B1047" s="2"/>
+      <c r="C1047" s="2"/>
+      <c r="D1047" s="2"/>
+      <c r="E1047" s="2"/>
+      <c r="F1047" s="2"/>
+      <c r="G1047" s="2"/>
+      <c r="H1047" s="2"/>
+      <c r="I1047" s="2"/>
+      <c r="J1047" s="2"/>
+      <c r="K1047" s="2"/>
+      <c r="L1047" s="2"/>
+      <c r="M1047" s="2"/>
+      <c r="N1047" s="2"/>
+      <c r="O1047" s="2"/>
+      <c r="P1047" s="2"/>
+      <c r="Q1047" s="2"/>
+      <c r="R1047" s="2"/>
+      <c r="S1047" s="2"/>
+      <c r="T1047" s="2"/>
+      <c r="U1047" s="2"/>
+      <c r="V1047" s="2"/>
+      <c r="W1047" s="2"/>
+      <c r="X1047" s="2"/>
+      <c r="Y1047" s="2"/>
+      <c r="Z1047" s="2"/>
+    </row>
+    <row r="1048">
+      <c r="A1048" s="2"/>
+      <c r="B1048" s="2"/>
+      <c r="C1048" s="2"/>
+      <c r="D1048" s="2"/>
+      <c r="E1048" s="2"/>
+      <c r="F1048" s="2"/>
+      <c r="G1048" s="2"/>
+      <c r="H1048" s="2"/>
+      <c r="I1048" s="2"/>
+      <c r="J1048" s="2"/>
+      <c r="K1048" s="2"/>
+      <c r="L1048" s="2"/>
+      <c r="M1048" s="2"/>
+      <c r="N1048" s="2"/>
+      <c r="O1048" s="2"/>
+      <c r="P1048" s="2"/>
+      <c r="Q1048" s="2"/>
+      <c r="R1048" s="2"/>
+      <c r="S1048" s="2"/>
+      <c r="T1048" s="2"/>
+      <c r="U1048" s="2"/>
+      <c r="V1048" s="2"/>
+      <c r="W1048" s="2"/>
+      <c r="X1048" s="2"/>
+      <c r="Y1048" s="2"/>
+      <c r="Z1048" s="2"/>
+    </row>
+    <row r="1049">
+      <c r="A1049" s="2"/>
+      <c r="B1049" s="2"/>
+      <c r="C1049" s="2"/>
+      <c r="D1049" s="2"/>
+      <c r="E1049" s="2"/>
+      <c r="F1049" s="2"/>
+      <c r="G1049" s="2"/>
+      <c r="H1049" s="2"/>
+      <c r="I1049" s="2"/>
+      <c r="J1049" s="2"/>
+      <c r="K1049" s="2"/>
+      <c r="L1049" s="2"/>
+      <c r="M1049" s="2"/>
+      <c r="N1049" s="2"/>
+      <c r="O1049" s="2"/>
+      <c r="P1049" s="2"/>
+      <c r="Q1049" s="2"/>
+      <c r="R1049" s="2"/>
+      <c r="S1049" s="2"/>
+      <c r="T1049" s="2"/>
+      <c r="U1049" s="2"/>
+      <c r="V1049" s="2"/>
+      <c r="W1049" s="2"/>
+      <c r="X1049" s="2"/>
+      <c r="Y1049" s="2"/>
+      <c r="Z1049" s="2"/>
+    </row>
+    <row r="1050">
+      <c r="A1050" s="2"/>
+      <c r="B1050" s="2"/>
+      <c r="C1050" s="2"/>
+      <c r="D1050" s="2"/>
+      <c r="E1050" s="2"/>
+      <c r="F1050" s="2"/>
+      <c r="G1050" s="2"/>
+      <c r="H1050" s="2"/>
+      <c r="I1050" s="2"/>
+      <c r="J1050" s="2"/>
+      <c r="K1050" s="2"/>
+      <c r="L1050" s="2"/>
+      <c r="M1050" s="2"/>
+      <c r="N1050" s="2"/>
+      <c r="O1050" s="2"/>
+      <c r="P1050" s="2"/>
+      <c r="Q1050" s="2"/>
+      <c r="R1050" s="2"/>
+      <c r="S1050" s="2"/>
+      <c r="T1050" s="2"/>
+      <c r="U1050" s="2"/>
+      <c r="V1050" s="2"/>
+      <c r="W1050" s="2"/>
+      <c r="X1050" s="2"/>
+      <c r="Y1050" s="2"/>
+      <c r="Z1050" s="2"/>
+    </row>
+    <row r="1051">
+      <c r="A1051" s="2"/>
+      <c r="B1051" s="2"/>
+      <c r="C1051" s="2"/>
+      <c r="D1051" s="2"/>
+      <c r="E1051" s="2"/>
+      <c r="F1051" s="2"/>
+      <c r="G1051" s="2"/>
+      <c r="H1051" s="2"/>
+      <c r="I1051" s="2"/>
+      <c r="J1051" s="2"/>
+      <c r="K1051" s="2"/>
+      <c r="L1051" s="2"/>
+      <c r="M1051" s="2"/>
+      <c r="N1051" s="2"/>
+      <c r="O1051" s="2"/>
+      <c r="P1051" s="2"/>
+      <c r="Q1051" s="2"/>
+      <c r="R1051" s="2"/>
+      <c r="S1051" s="2"/>
+      <c r="T1051" s="2"/>
+      <c r="U1051" s="2"/>
+      <c r="V1051" s="2"/>
+      <c r="W1051" s="2"/>
+      <c r="X1051" s="2"/>
+      <c r="Y1051" s="2"/>
+      <c r="Z1051" s="2"/>
+    </row>
+    <row r="1052">
+      <c r="A1052" s="2"/>
+      <c r="B1052" s="2"/>
+      <c r="C1052" s="2"/>
+      <c r="D1052" s="2"/>
+      <c r="E1052" s="2"/>
+      <c r="F1052" s="2"/>
+      <c r="G1052" s="2"/>
+      <c r="H1052" s="2"/>
+      <c r="I1052" s="2"/>
+      <c r="J1052" s="2"/>
+      <c r="K1052" s="2"/>
+      <c r="L1052" s="2"/>
+      <c r="M1052" s="2"/>
+      <c r="N1052" s="2"/>
+      <c r="O1052" s="2"/>
+      <c r="P1052" s="2"/>
+      <c r="Q1052" s="2"/>
+      <c r="R1052" s="2"/>
+      <c r="S1052" s="2"/>
+      <c r="T1052" s="2"/>
+      <c r="U1052" s="2"/>
+      <c r="V1052" s="2"/>
+      <c r="W1052" s="2"/>
+      <c r="X1052" s="2"/>
+      <c r="Y1052" s="2"/>
+      <c r="Z1052" s="2"/>
+    </row>
+    <row r="1053">
+      <c r="A1053" s="2"/>
+      <c r="B1053" s="2"/>
+      <c r="C1053" s="2"/>
+      <c r="D1053" s="2"/>
+      <c r="E1053" s="2"/>
+      <c r="F1053" s="2"/>
+      <c r="G1053" s="2"/>
+      <c r="H1053" s="2"/>
+      <c r="I1053" s="2"/>
+      <c r="J1053" s="2"/>
+      <c r="K1053" s="2"/>
+      <c r="L1053" s="2"/>
+      <c r="M1053" s="2"/>
+      <c r="N1053" s="2"/>
+      <c r="O1053" s="2"/>
+      <c r="P1053" s="2"/>
+      <c r="Q1053" s="2"/>
+      <c r="R1053" s="2"/>
+      <c r="S1053" s="2"/>
+      <c r="T1053" s="2"/>
+      <c r="U1053" s="2"/>
+      <c r="V1053" s="2"/>
+      <c r="W1053" s="2"/>
+      <c r="X1053" s="2"/>
+      <c r="Y1053" s="2"/>
+      <c r="Z1053" s="2"/>
+    </row>
+    <row r="1054">
+      <c r="A1054" s="2"/>
+      <c r="B1054" s="2"/>
+      <c r="C1054" s="2"/>
+      <c r="D1054" s="2"/>
+      <c r="E1054" s="2"/>
+      <c r="F1054" s="2"/>
+      <c r="G1054" s="2"/>
+      <c r="H1054" s="2"/>
+      <c r="I1054" s="2"/>
+      <c r="J1054" s="2"/>
+      <c r="K1054" s="2"/>
+      <c r="L1054" s="2"/>
+      <c r="M1054" s="2"/>
+      <c r="N1054" s="2"/>
+      <c r="O1054" s="2"/>
+      <c r="P1054" s="2"/>
+      <c r="Q1054" s="2"/>
+      <c r="R1054" s="2"/>
+      <c r="S1054" s="2"/>
+      <c r="T1054" s="2"/>
+      <c r="U1054" s="2"/>
+      <c r="V1054" s="2"/>
+      <c r="W1054" s="2"/>
+      <c r="X1054" s="2"/>
+      <c r="Y1054" s="2"/>
+      <c r="Z1054" s="2"/>
+    </row>
+    <row r="1055">
+      <c r="A1055" s="2"/>
+      <c r="B1055" s="2"/>
+      <c r="C1055" s="2"/>
+      <c r="D1055" s="2"/>
+      <c r="E1055" s="2"/>
+      <c r="F1055" s="2"/>
+      <c r="G1055" s="2"/>
+      <c r="H1055" s="2"/>
+      <c r="I1055" s="2"/>
+      <c r="J1055" s="2"/>
+      <c r="K1055" s="2"/>
+      <c r="L1055" s="2"/>
+      <c r="M1055" s="2"/>
+      <c r="N1055" s="2"/>
+      <c r="O1055" s="2"/>
+      <c r="P1055" s="2"/>
+      <c r="Q1055" s="2"/>
+      <c r="R1055" s="2"/>
+      <c r="S1055" s="2"/>
+      <c r="T1055" s="2"/>
+      <c r="U1055" s="2"/>
+      <c r="V1055" s="2"/>
+      <c r="W1055" s="2"/>
+      <c r="X1055" s="2"/>
+      <c r="Y1055" s="2"/>
+      <c r="Z1055" s="2"/>
+    </row>
+    <row r="1056">
+      <c r="A1056" s="2"/>
+      <c r="B1056" s="2"/>
+      <c r="C1056" s="2"/>
+      <c r="D1056" s="2"/>
+      <c r="E1056" s="2"/>
+      <c r="F1056" s="2"/>
+      <c r="G1056" s="2"/>
+      <c r="H1056" s="2"/>
+      <c r="I1056" s="2"/>
+      <c r="J1056" s="2"/>
+      <c r="K1056" s="2"/>
+      <c r="L1056" s="2"/>
+      <c r="M1056" s="2"/>
+      <c r="N1056" s="2"/>
+      <c r="O1056" s="2"/>
+      <c r="P1056" s="2"/>
+      <c r="Q1056" s="2"/>
+      <c r="R1056" s="2"/>
+      <c r="S1056" s="2"/>
+      <c r="T1056" s="2"/>
+      <c r="U1056" s="2"/>
+      <c r="V1056" s="2"/>
+      <c r="W1056" s="2"/>
+      <c r="X1056" s="2"/>
+      <c r="Y1056" s="2"/>
+      <c r="Z1056" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="208">
   <si>
     <t>ID</t>
   </si>
@@ -196,6 +196,45 @@
     <t>至少 8 個字元。</t>
   </si>
   <si>
+    <t>CryptoTable</t>
+  </si>
+  <si>
+    <t>Crypto Table</t>
+  </si>
+  <si>
+    <t>加密貨幣桌</t>
+  </si>
+  <si>
+    <t>VCTable</t>
+  </si>
+  <si>
+    <t>VC Table</t>
+  </si>
+  <si>
+    <t>虛擬貨幣桌</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>黃金</t>
+  </si>
+  <si>
+    <t>Stamina</t>
+  </si>
+  <si>
+    <t>耐力</t>
+  </si>
+  <si>
+    <t>OTProps</t>
+  </si>
+  <si>
+    <t>OT Props</t>
+  </si>
+  <si>
+    <t>加時道具</t>
+  </si>
+  <si>
     <t>錯誤訊息</t>
   </si>
   <si>
@@ -352,22 +391,13 @@
     <t>大廳</t>
   </si>
   <si>
-    <t>BattleRoom</t>
+    <t>Integral</t>
   </si>
   <si>
-    <t>Battle</t>
+    <t>INTEGRAL</t>
   </si>
   <si>
-    <t>積分對戰</t>
-  </si>
-  <si>
-    <t>CashRoom</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>現金桌</t>
+    <t>積分</t>
   </si>
   <si>
     <t>Pairing</t>
@@ -379,37 +409,34 @@
     <t>MaxRoomTip</t>
   </si>
   <si>
-    <t>Maximum number of rooms reached</t>
+    <t>Maximum game room reached!</t>
   </si>
   <si>
-    <t>已達最大房間數</t>
+    <t>已達最大遊戲房間!</t>
   </si>
   <si>
-    <t>WalletDisconnect</t>
+    <t>Mine</t>
   </si>
   <si>
-    <t>Wallet Disconnect</t>
+    <t>我的</t>
   </si>
   <si>
-    <t>斷開錢包</t>
+    <t>Shop</t>
   </si>
   <si>
-    <t>WalletAddress</t>
+    <t>商城</t>
   </si>
   <si>
-    <t>Wallet Address</t>
+    <t>Activity</t>
   </si>
   <si>
-    <t>錢包地址</t>
+    <t>活動</t>
   </si>
   <si>
-    <t>WalletBalance</t>
+    <t>Ranking</t>
   </si>
   <si>
-    <t>Wallet Balance</t>
-  </si>
-  <si>
-    <t>錢包餘額</t>
+    <t>排名</t>
   </si>
   <si>
     <t>遊戲</t>
@@ -614,7 +641,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -629,11 +656,6 @@
     </font>
     <font>
       <sz val="10.0"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="&quot;Google Sans&quot;"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
@@ -675,13 +697,65 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -706,8 +780,41 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -721,7 +828,7 @@
     <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1282,7 +1389,7 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1350,7 +1457,7 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1418,7 +1525,7 @@
       <c r="Z14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1588,41 +1695,41 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="11"/>
+      <c r="T20" s="11"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
+      <c r="X20" s="11"/>
+      <c r="Y20" s="11"/>
+      <c r="Z20" s="12"/>
     </row>
     <row r="21">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="13" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1653,262 +1760,280 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
+      <c r="Z21" s="14"/>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+      <c r="Z22" s="18"/>
     </row>
     <row r="23">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="3" t="s">
+      <c r="A23" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="5" t="s">
+      <c r="B23" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C23" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
+      <c r="X23" s="11"/>
+      <c r="Y23" s="11"/>
+      <c r="Z23" s="12"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="6"/>
-      <c r="T25" s="6"/>
-      <c r="U25" s="6"/>
-      <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="6"/>
-      <c r="Y25" s="6"/>
-      <c r="Z25" s="6"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="14"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="6"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="6"/>
-      <c r="T26" s="6"/>
-      <c r="U26" s="6"/>
-      <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="6"/>
-      <c r="Y26" s="6"/>
-      <c r="Z26" s="6"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="5" t="s">
+      <c r="B25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="14"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="B26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="6"/>
-      <c r="T27" s="6"/>
-      <c r="U27" s="6"/>
-      <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="6"/>
-      <c r="Y27" s="6"/>
-      <c r="Z27" s="6"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="14"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+      <c r="Z27" s="18"/>
     </row>
     <row r="28">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="6"/>
-      <c r="T28" s="6"/>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="6"/>
-      <c r="Q29" s="6"/>
-      <c r="R29" s="6"/>
-      <c r="S29" s="6"/>
-      <c r="T29" s="6"/>
-      <c r="U29" s="6"/>
-      <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="6"/>
-      <c r="Y29" s="6"/>
-      <c r="Z29" s="6"/>
+      <c r="A29" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
     </row>
     <row r="30">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1934,75 +2059,77 @@
       <c r="Z30" s="6"/>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="s">
-        <v>71</v>
+      <c r="A31" s="5" t="s">
+        <v>78</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
-      <c r="U31" s="4"/>
-      <c r="V31" s="4"/>
-      <c r="W31" s="4"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
+      <c r="B31" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="6"/>
+      <c r="M31" s="6"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6"/>
+      <c r="P31" s="6"/>
+      <c r="Q31" s="6"/>
+      <c r="R31" s="6"/>
+      <c r="S31" s="6"/>
+      <c r="T31" s="6"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="6"/>
+      <c r="W31" s="6"/>
+      <c r="X31" s="6"/>
+      <c r="Y31" s="6"/>
+      <c r="Z31" s="6"/>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
-        <v>72</v>
+      <c r="A32" s="5" t="s">
+        <v>81</v>
       </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-      <c r="R32" s="10"/>
-      <c r="S32" s="10"/>
-      <c r="T32" s="10"/>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
-      <c r="X32" s="10"/>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
+      <c r="B32" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+      <c r="O32" s="6"/>
+      <c r="P32" s="6"/>
+      <c r="Q32" s="6"/>
+      <c r="R32" s="6"/>
+      <c r="S32" s="6"/>
+      <c r="T32" s="6"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="6"/>
+      <c r="W32" s="6"/>
+      <c r="X32" s="6"/>
+      <c r="Y32" s="6"/>
+      <c r="Z32" s="6"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>75</v>
-      </c>
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -2028,112 +2155,108 @@
       <c r="Z33" s="6"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
-        <v>76</v>
+      <c r="A34" s="3" t="s">
+        <v>84</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>77</v>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="20" t="s">
+        <v>85</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>78</v>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="21"/>
+      <c r="J35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="21"/>
+      <c r="M35" s="21"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="21"/>
+      <c r="U35" s="21"/>
+      <c r="V35" s="21"/>
+      <c r="W35" s="21"/>
+      <c r="X35" s="21"/>
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="21"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>86</v>
       </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
-        <v>79</v>
+      <c r="B36" s="5" t="s">
+        <v>87</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>80</v>
+      <c r="C36" s="5" t="s">
+        <v>88</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-      <c r="R36" s="10"/>
-      <c r="S36" s="10"/>
-      <c r="T36" s="10"/>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
-      <c r="X36" s="10"/>
-      <c r="Y36" s="10"/>
-      <c r="Z36" s="10"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
+      <c r="O36" s="6"/>
+      <c r="P36" s="6"/>
+      <c r="Q36" s="6"/>
+      <c r="R36" s="6"/>
+      <c r="S36" s="6"/>
+      <c r="T36" s="6"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="6"/>
+      <c r="W36" s="6"/>
+      <c r="X36" s="6"/>
+      <c r="Y36" s="6"/>
+      <c r="Z36" s="6"/>
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2161,13 +2284,13 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>88</v>
+      <c r="C38" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -2194,78 +2317,78 @@
       <c r="Z38" s="6"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
-        <v>89</v>
+      <c r="A39" s="20" t="s">
+        <v>95</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>90</v>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="s">
+        <v>96</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>91</v>
+      <c r="B40" s="5" t="s">
+        <v>97</v>
       </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="11" t="s">
-        <v>92</v>
+      <c r="C40" s="5" t="s">
+        <v>98</v>
       </c>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="12"/>
-      <c r="O40" s="12"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-      <c r="R40" s="12"/>
-      <c r="S40" s="12"/>
-      <c r="T40" s="12"/>
-      <c r="U40" s="12"/>
-      <c r="V40" s="12"/>
-      <c r="W40" s="12"/>
-      <c r="X40" s="12"/>
-      <c r="Y40" s="12"/>
-      <c r="Z40" s="12"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="6"/>
+      <c r="M40" s="6"/>
+      <c r="N40" s="6"/>
+      <c r="O40" s="6"/>
+      <c r="P40" s="6"/>
+      <c r="Q40" s="6"/>
+      <c r="R40" s="6"/>
+      <c r="S40" s="6"/>
+      <c r="T40" s="6"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="6"/>
+      <c r="W40" s="6"/>
+      <c r="X40" s="6"/>
+      <c r="Y40" s="6"/>
+      <c r="Z40" s="6"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2292,78 +2415,78 @@
       <c r="Z41" s="6"/>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="s">
-        <v>95</v>
+      <c r="A42" s="5" t="s">
+        <v>102</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="10"/>
-      <c r="S42" s="10"/>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
-      <c r="X42" s="10"/>
-      <c r="Y42" s="10"/>
-      <c r="Z42" s="10"/>
+      <c r="B42" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>96</v>
+      <c r="A43" s="22" t="s">
+        <v>105</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+      <c r="J43" s="23"/>
+      <c r="K43" s="23"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="23"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="23"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="23"/>
+      <c r="R43" s="23"/>
+      <c r="S43" s="23"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="23"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
+      <c r="X43" s="23"/>
+      <c r="Y43" s="23"/>
+      <c r="Z43" s="23"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -2390,78 +2513,78 @@
       <c r="Z44" s="6"/>
     </row>
     <row r="45">
-      <c r="A45" s="7" t="s">
-        <v>102</v>
+      <c r="A45" s="20" t="s">
+        <v>108</v>
       </c>
-      <c r="B45" s="5" t="s">
-        <v>103</v>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="21"/>
+      <c r="G45" s="21"/>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+      <c r="V45" s="21"/>
+      <c r="W45" s="21"/>
+      <c r="X45" s="21"/>
+      <c r="Y45" s="21"/>
+      <c r="Z45" s="21"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="5" t="s">
+        <v>109</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>104</v>
+      <c r="B46" s="5" t="s">
+        <v>110</v>
       </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="9" t="s">
-        <v>105</v>
+      <c r="C46" s="5" t="s">
+        <v>111</v>
       </c>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-      <c r="R46" s="10"/>
-      <c r="S46" s="10"/>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
-      <c r="X46" s="10"/>
-      <c r="Y46" s="10"/>
-      <c r="Z46" s="10"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="6"/>
+      <c r="Q46" s="6"/>
+      <c r="R46" s="6"/>
+      <c r="S46" s="6"/>
+      <c r="T46" s="6"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="6"/>
+      <c r="W46" s="6"/>
+      <c r="X46" s="6"/>
+      <c r="Y46" s="6"/>
+      <c r="Z46" s="6"/>
     </row>
     <row r="47">
-      <c r="A47" s="13" t="s">
-        <v>106</v>
+      <c r="A47" s="5" t="s">
+        <v>112</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>107</v>
+      <c r="B47" s="5" t="s">
+        <v>113</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>108</v>
+      <c r="C47" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -2488,71 +2611,79 @@
       <c r="Z47" s="6"/>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="s">
-        <v>109</v>
+      <c r="A48" s="7" t="s">
+        <v>115</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>110</v>
+      <c r="B48" s="5" t="s">
+        <v>116</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>111</v>
+      <c r="C48" s="5" t="s">
+        <v>117</v>
       </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="2"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
     </row>
     <row r="49">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
+      <c r="A49" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
+      <c r="G49" s="21"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
+      <c r="J49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+      <c r="V49" s="21"/>
+      <c r="W49" s="21"/>
+      <c r="X49" s="21"/>
+      <c r="Y49" s="21"/>
+      <c r="Z49" s="21"/>
     </row>
     <row r="50">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="A50" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2578,106 +2709,106 @@
       <c r="Z50" s="6"/>
     </row>
     <row r="51">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
+      <c r="A51" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="s">
-        <v>112</v>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="s">
+        <v>125</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="2"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+      <c r="M53" s="4"/>
+      <c r="N53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+      <c r="R53" s="4"/>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -2705,13 +2836,13 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -2739,13 +2870,13 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2773,13 +2904,13 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2807,13 +2938,13 @@
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
@@ -2841,13 +2972,13 @@
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2874,9 +3005,15 @@
       <c r="Z59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="A60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>141</v>
+      </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2902,78 +3039,72 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>133</v>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="3" t="s">
+        <v>142</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="4"/>
+      <c r="N62" s="4"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="4"/>
+      <c r="Q62" s="4"/>
+      <c r="R62" s="4"/>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -3001,13 +3132,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -3035,13 +3166,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -3069,13 +3200,13 @@
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
@@ -3103,13 +3234,13 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -3137,13 +3268,13 @@
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -3171,13 +3302,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -3205,13 +3336,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -3239,13 +3370,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -3273,13 +3404,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -3307,13 +3438,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -3341,13 +3472,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -3375,13 +3506,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -3409,13 +3540,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -3442,9 +3573,15 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
+      <c r="A77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -3470,78 +3607,72 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
-        <v>170</v>
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="3" t="s">
+        <v>179</v>
       </c>
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="4"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3569,13 +3700,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3603,13 +3734,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3637,13 +3768,13 @@
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3671,13 +3802,13 @@
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
@@ -3705,13 +3836,13 @@
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3739,13 +3870,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3773,13 +3904,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3807,13 +3938,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3840,9 +3971,15 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+      <c r="A89" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>207</v>
+      </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -30943,6 +31080,34 @@
       <c r="Y1056" s="2"/>
       <c r="Z1056" s="2"/>
     </row>
+    <row r="1057">
+      <c r="A1057" s="2"/>
+      <c r="B1057" s="2"/>
+      <c r="C1057" s="2"/>
+      <c r="D1057" s="2"/>
+      <c r="E1057" s="2"/>
+      <c r="F1057" s="2"/>
+      <c r="G1057" s="2"/>
+      <c r="H1057" s="2"/>
+      <c r="I1057" s="2"/>
+      <c r="J1057" s="2"/>
+      <c r="K1057" s="2"/>
+      <c r="L1057" s="2"/>
+      <c r="M1057" s="2"/>
+      <c r="N1057" s="2"/>
+      <c r="O1057" s="2"/>
+      <c r="P1057" s="2"/>
+      <c r="Q1057" s="2"/>
+      <c r="R1057" s="2"/>
+      <c r="S1057" s="2"/>
+      <c r="T1057" s="2"/>
+      <c r="U1057" s="2"/>
+      <c r="V1057" s="2"/>
+      <c r="W1057" s="2"/>
+      <c r="X1057" s="2"/>
+      <c r="Y1057" s="2"/>
+      <c r="Z1057" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="181">
   <si>
     <t>ID</t>
   </si>
@@ -55,25 +55,16 @@
     <t>手機號碼</t>
   </si>
   <si>
-    <t>OTPCode</t>
-  </si>
-  <si>
     <t>OTP Code</t>
   </si>
   <si>
     <t>一次性代碼</t>
   </si>
   <si>
-    <t>SendCode</t>
-  </si>
-  <si>
     <t>SEND CODE</t>
   </si>
   <si>
     <t>傳送代碼</t>
-  </si>
-  <si>
-    <t>Submit</t>
   </si>
   <si>
     <t>SUBMIT</t>
@@ -88,16 +79,10 @@
     <t>密碼</t>
   </si>
   <si>
-    <t>ResetPassword</t>
-  </si>
-  <si>
     <t>Reset Password</t>
   </si>
   <si>
     <t>重新設密碼</t>
-  </si>
-  <si>
-    <t>SignIn</t>
   </si>
   <si>
     <t>SIGN IN</t>
@@ -106,16 +91,10 @@
     <t>登入</t>
   </si>
   <si>
-    <t>SignUp</t>
-  </si>
-  <si>
     <t>Sign Up</t>
   </si>
   <si>
     <t>報名</t>
-  </si>
-  <si>
-    <t>Register</t>
   </si>
   <si>
     <t>REGISTER</t>
@@ -124,16 +103,10 @@
     <t>註冊</t>
   </si>
   <si>
-    <t>LostPassword</t>
-  </si>
-  <si>
     <t>Lost Password</t>
   </si>
   <si>
     <t>忘記密碼</t>
-  </si>
-  <si>
-    <t>PasswordInputTip</t>
   </si>
   <si>
     <t>Please Enter Here</t>
@@ -142,16 +115,10 @@
     <t>請在此輸入</t>
   </si>
   <si>
-    <t>OTPCodeInputTip</t>
-  </si>
-  <si>
     <t>Please Enter The OTP Code</t>
   </si>
   <si>
     <t>請輸入一次性密碼</t>
-  </si>
-  <si>
-    <t>PhoneInputTip</t>
   </si>
   <si>
     <t>Your Phone Number</t>
@@ -160,16 +127,10 @@
     <t>您的手機號碼</t>
   </si>
   <si>
-    <t>RememberMe</t>
-  </si>
-  <si>
     <t>Remember Me</t>
   </si>
   <si>
     <t>記住帳號密碼</t>
-  </si>
-  <si>
-    <t>EnterNewPassword</t>
   </si>
   <si>
     <t>Enter New Password.</t>
@@ -178,16 +139,10 @@
     <t>輸入新密碼。</t>
   </si>
   <si>
-    <t>AllowedCharacters</t>
-  </si>
-  <si>
     <t>Allowed Characters: Alphanumeric A-Z, 0-9.</t>
   </si>
   <si>
     <t>允許的字元：字母數字 A-Z、0-9。</t>
-  </si>
-  <si>
-    <t>AtLeast8Chars</t>
   </si>
   <si>
     <t>At Least 8 Chars.</t>
@@ -196,16 +151,10 @@
     <t>至少 8 個字元。</t>
   </si>
   <si>
-    <t>CryptoTable</t>
-  </si>
-  <si>
     <t>Crypto Table</t>
   </si>
   <si>
     <t>加密貨幣桌</t>
-  </si>
-  <si>
-    <t>VCTable</t>
   </si>
   <si>
     <t>VC Table</t>
@@ -226,9 +175,6 @@
     <t>耐力</t>
   </si>
   <si>
-    <t>OTProps</t>
-  </si>
-  <si>
     <t>OT Props</t>
   </si>
   <si>
@@ -238,25 +184,16 @@
     <t>錯誤訊息</t>
   </si>
   <si>
-    <t>PhoneError</t>
-  </si>
-  <si>
     <t>User Name Entered Incorrectly, Please Try Again.</t>
   </si>
   <si>
     <t>手機號格式錯誤。</t>
   </si>
   <si>
-    <t>CodeError</t>
-  </si>
-  <si>
     <t>Invalid Code, Please Try Again.</t>
   </si>
   <si>
     <t>密碼無效，請重新輸入。</t>
-  </si>
-  <si>
-    <t>PrivacyPolicyError</t>
   </si>
   <si>
     <t>Please Agree To The Privacy Policy.</t>
@@ -271,16 +208,10 @@
     <t>錢包連接頁面</t>
   </si>
   <si>
-    <t>WalletSiginTip</t>
-  </si>
-  <si>
     <t>Please, Sign In With Your Wallet.</t>
   </si>
   <si>
     <t>請使用您的錢包登入。</t>
-  </si>
-  <si>
-    <t>WalletConnectTip</t>
   </si>
   <si>
     <t>Connect Using Browser Wallet</t>
@@ -289,19 +220,13 @@
     <t>使用瀏覽器錢包連接</t>
   </si>
   <si>
-    <t>SignUpGuide</t>
-  </si>
-  <si>
     <t>Don't Have An Account? &lt;color=#79E84B&gt;&lt;link=Sign Up Here!&gt;&lt;u&gt;Sign Up Here!&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
   </si>
   <si>
-    <t>沒有帳戶？&lt;color=#79E84B&gt;&lt;link=Sign Up Here!&gt;&lt;u&gt;在此註冊！&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
+    <t>沒有帳戶？ &lt;color=#79E84B&gt;&lt;link=Sign Up Here!&gt;&lt;u&gt;在此註冊！&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
   </si>
   <si>
     <t>錢包連接中頁面</t>
-  </si>
-  <si>
-    <t>LogInUsing</t>
   </si>
   <si>
     <t>Log In Using</t>
@@ -310,16 +235,10 @@
     <t>登入到</t>
   </si>
   <si>
-    <t>LoadInto</t>
-  </si>
-  <si>
     <t>Load Into</t>
   </si>
   <si>
     <t>連接到</t>
-  </si>
-  <si>
-    <t>ErrorWalletLogin</t>
   </si>
   <si>
     <t>Error Logging Into</t>
@@ -331,16 +250,10 @@
     <t>簡訊驗證</t>
   </si>
   <si>
-    <t>SMSVerification</t>
-  </si>
-  <si>
     <t>SMS Verification</t>
   </si>
   <si>
     <t>手機登入</t>
-  </si>
-  <si>
-    <t>PhoneLoginTip</t>
   </si>
   <si>
     <t>Please use your mobile phone number to log in.</t>
@@ -349,16 +262,10 @@
     <t>請使用您的手機號碼登入。</t>
   </si>
   <si>
-    <t>RegisterTip</t>
-  </si>
-  <si>
     <t>You Will Receive A New Account.</t>
   </si>
   <si>
     <t>您將收到一個新帳戶。</t>
-  </si>
-  <si>
-    <t>ForgotPassword</t>
   </si>
   <si>
     <t>&lt;color=#79E84B&gt;&lt;link=Forgot Password?&gt;&lt;u&gt;Forgot Password?&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
@@ -370,22 +277,34 @@
     <t>手機註冊</t>
   </si>
   <si>
-    <t>PrivacyPolicy</t>
-  </si>
-  <si>
     <t>Agree To The &lt;color=#79E84B&gt;&lt;link=Terms&gt;&lt;u&gt;Terms&lt;/u&gt;&lt;/link&gt;&lt;/color&gt; &amp; &lt;color=#79E84B&gt;&lt;link=Privacy Policy&gt;&lt;u&gt;Privacy Policy&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
   </si>
   <si>
     <t>同意 &lt;color=#79E84B&gt;&lt;link=Terms&gt;&lt;u&gt;條款&lt;/u&gt;&lt;/link&gt;&lt;/color&gt; &amp; &lt;color=#79E84B&gt;&lt;link=Privacy Policy&gt;&lt;u&gt;隱私權政策&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
   </si>
   <si>
-    <t>RegisterSuccTip</t>
-  </si>
-  <si>
     <t>&lt;size=14&gt;&lt;color=#FFFFFF&gt;Registration Successful&lt;/color&gt;&lt;/size&gt;\n&lt;size=12&gt;&lt;color=#C6C2C2&gt;Account Successfully Created&lt;/color&gt;&lt;/size&gt;</t>
   </si>
   <si>
     <t>&lt;size=14&gt;&lt;color=#FFFFFF&gt;註冊成功&lt;/color&gt;&lt;/size&gt;\n&lt;size=12&gt;&lt;color=#C6C2C2&gt;成功建立帳戶&lt;/color&gt;&lt;/size&gt;</t>
+  </si>
+  <si>
+    <t>設置暱稱</t>
+  </si>
+  <si>
+    <t>Set Your Nickname</t>
+  </si>
+  <si>
+    <t>Nickname</t>
+  </si>
+  <si>
+    <t>暱稱</t>
+  </si>
+  <si>
+    <t>Enter nickname</t>
+  </si>
+  <si>
+    <t>輸入暱稱</t>
   </si>
   <si>
     <t>大廳</t>
@@ -641,7 +560,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -656,6 +575,11 @@
     </font>
     <font>
       <sz val="10.0"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
     </font>
@@ -755,7 +679,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -779,6 +703,9 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -828,7 +755,7 @@
     <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1047,7 +974,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.63"/>
+    <col customWidth="1" min="1" max="1" width="120.75"/>
     <col customWidth="1" min="2" max="2" width="118.5"/>
     <col customWidth="1" min="3" max="3" width="105.25"/>
   </cols>
@@ -1257,10 +1184,10 @@
         <v>14</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -1288,13 +1215,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -1322,13 +1249,13 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -1356,13 +1283,13 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -1390,13 +1317,13 @@
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -1423,14 +1350,14 @@
       <c r="Z11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>28</v>
+      <c r="A12" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -1458,13 +1385,13 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -1492,13 +1419,13 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
@@ -1526,13 +1453,13 @@
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -1560,13 +1487,13 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
@@ -1594,13 +1521,13 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -1628,13 +1555,13 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -1662,13 +1589,13 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1695,48 +1622,48 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="8" t="s">
-        <v>52</v>
+      <c r="A20" s="9" t="s">
+        <v>40</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>53</v>
+      <c r="B20" s="10" t="s">
+        <v>40</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>54</v>
+      <c r="C20" s="11" t="s">
+        <v>41</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="13"/>
     </row>
     <row r="21">
-      <c r="A21" s="13" t="s">
-        <v>55</v>
+      <c r="A21" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1760,85 +1687,85 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="14"/>
+      <c r="Z21" s="15"/>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="s">
-        <v>58</v>
+      <c r="A22" s="16" t="s">
+        <v>44</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>59</v>
+      <c r="B22" s="17" t="s">
+        <v>44</v>
       </c>
-      <c r="C22" s="16" t="s">
-        <v>60</v>
+      <c r="C22" s="17" t="s">
+        <v>45</v>
       </c>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-      <c r="X22" s="17"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="18"/>
+      <c r="V22" s="18"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="18"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="19"/>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>61</v>
+      <c r="A23" s="9" t="s">
+        <v>46</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>62</v>
+      <c r="B23" s="11" t="s">
+        <v>46</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>63</v>
+      <c r="C23" s="11" t="s">
+        <v>47</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="13"/>
     </row>
     <row r="24">
-      <c r="A24" s="19" t="s">
-        <v>64</v>
+      <c r="A24" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1862,17 +1789,17 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-      <c r="Z24" s="14"/>
+      <c r="Z24" s="15"/>
     </row>
     <row r="25">
-      <c r="A25" s="19" t="s">
-        <v>67</v>
+      <c r="A25" s="20" t="s">
+        <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1896,17 +1823,17 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="14"/>
+      <c r="Z25" s="15"/>
     </row>
     <row r="26">
-      <c r="A26" s="19" t="s">
-        <v>69</v>
+      <c r="A26" s="20" t="s">
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1930,41 +1857,41 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="14"/>
+      <c r="Z26" s="15"/>
     </row>
     <row r="27">
-      <c r="A27" s="15" t="s">
-        <v>71</v>
+      <c r="A27" s="16" t="s">
+        <v>54</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>72</v>
+      <c r="B27" s="17" t="s">
+        <v>54</v>
       </c>
-      <c r="C27" s="16" t="s">
-        <v>73</v>
+      <c r="C27" s="17" t="s">
+        <v>55</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17"/>
-      <c r="O27" s="17"/>
-      <c r="P27" s="17"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="19"/>
     </row>
     <row r="28">
       <c r="A28" s="2"/>
@@ -1996,7 +1923,7 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2026,13 +1953,13 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
@@ -2060,13 +1987,13 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6"/>
@@ -2094,13 +2021,13 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
@@ -2156,7 +2083,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2185,44 +2112,44 @@
       <c r="Z34" s="4"/>
     </row>
     <row r="35">
-      <c r="A35" s="20" t="s">
-        <v>85</v>
+      <c r="A35" s="21" t="s">
+        <v>64</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21"/>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
+      <c r="Z35" s="22"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
@@ -2250,13 +2177,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
@@ -2284,13 +2211,13 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
@@ -2317,44 +2244,44 @@
       <c r="Z38" s="6"/>
     </row>
     <row r="39">
-      <c r="A39" s="20" t="s">
-        <v>95</v>
+      <c r="A39" s="21" t="s">
+        <v>71</v>
       </c>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
-      <c r="I39" s="21"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-      <c r="V39" s="21"/>
-      <c r="W39" s="21"/>
-      <c r="X39" s="21"/>
-      <c r="Y39" s="21"/>
-      <c r="Z39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
+      <c r="Z39" s="22"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -2382,13 +2309,13 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2416,13 +2343,13 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
@@ -2449,44 +2376,44 @@
       <c r="Z42" s="6"/>
     </row>
     <row r="43">
-      <c r="A43" s="22" t="s">
-        <v>105</v>
+      <c r="A43" s="23" t="s">
+        <v>78</v>
       </c>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="24"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -2513,44 +2440,44 @@
       <c r="Z44" s="6"/>
     </row>
     <row r="45">
-      <c r="A45" s="20" t="s">
-        <v>108</v>
+      <c r="A45" s="21" t="s">
+        <v>80</v>
       </c>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="21"/>
-      <c r="H45" s="21"/>
-      <c r="I45" s="21"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="21"/>
-      <c r="M45" s="21"/>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
+      <c r="B45" s="21"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
+      <c r="W45" s="22"/>
+      <c r="X45" s="22"/>
+      <c r="Y45" s="22"/>
+      <c r="Z45" s="22"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
@@ -2578,13 +2505,13 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -2612,13 +2539,13 @@
     </row>
     <row r="48">
       <c r="A48" s="7" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
@@ -2645,44 +2572,44 @@
       <c r="Z48" s="6"/>
     </row>
     <row r="49">
-      <c r="A49" s="20" t="s">
-        <v>118</v>
+      <c r="A49" s="21" t="s">
+        <v>87</v>
       </c>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="21"/>
-      <c r="H49" s="21"/>
-      <c r="I49" s="21"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="21"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-      <c r="V49" s="21"/>
-      <c r="W49" s="21"/>
-      <c r="X49" s="21"/>
-      <c r="Y49" s="21"/>
-      <c r="Z49" s="21"/>
+      <c r="B49" s="21"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
     </row>
     <row r="50">
-      <c r="A50" s="24" t="s">
-        <v>119</v>
+      <c r="A50" s="25" t="s">
+        <v>88</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -2710,13 +2637,13 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>123</v>
+        <v>90</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
@@ -2772,7 +2699,7 @@
     </row>
     <row r="53">
       <c r="A53" s="3" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2801,184 +2728,174 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
-        <v>126</v>
+      <c r="A54" s="5" t="s">
+        <v>93</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>127</v>
+      <c r="B54" s="5" t="s">
+        <v>93</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>128</v>
+      <c r="C54" s="5" t="s">
+        <v>92</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="s">
-        <v>129</v>
+      <c r="A55" s="5" t="s">
+        <v>94</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>129</v>
+      <c r="B55" s="5" t="s">
+        <v>94</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>130</v>
+      <c r="C55" s="5" t="s">
+        <v>95</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
-        <v>131</v>
+      <c r="A56" s="5" t="s">
+        <v>96</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>132</v>
+      <c r="B56" s="5" t="s">
+        <v>96</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>133</v>
+      <c r="C56" s="5" t="s">
+        <v>97</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="s">
-        <v>134</v>
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="3" t="s">
+        <v>98</v>
       </c>
-      <c r="B57" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>139</v>
+        <v>101</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -3006,13 +2923,13 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -3039,9 +2956,15 @@
       <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
+      <c r="A61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -3067,44 +2990,48 @@
       <c r="Z61" s="2"/>
     </row>
     <row r="62">
-      <c r="A62" s="3" t="s">
-        <v>142</v>
+      <c r="A62" s="1" t="s">
+        <v>107</v>
       </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="R62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
+      <c r="B62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -3132,13 +3059,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -3166,13 +3093,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -3199,15 +3126,9 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -3233,48 +3154,44 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>152</v>
+      <c r="A67" s="3" t="s">
+        <v>115</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+      <c r="M67" s="4"/>
+      <c r="N67" s="4"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="4"/>
+      <c r="Q67" s="4"/>
+      <c r="R67" s="4"/>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>154</v>
+        <v>116</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>155</v>
+        <v>117</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -3302,13 +3219,13 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>157</v>
+        <v>118</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>158</v>
+        <v>119</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -3336,13 +3253,13 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -3370,13 +3287,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>161</v>
+        <v>122</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -3404,13 +3321,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -3438,13 +3355,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -3472,13 +3389,13 @@
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>168</v>
+        <v>130</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -3506,13 +3423,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>170</v>
+        <v>132</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>172</v>
+        <v>133</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -3540,13 +3457,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>173</v>
+        <v>134</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>174</v>
+        <v>134</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>175</v>
+        <v>135</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -3574,13 +3491,13 @@
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
@@ -3607,9 +3524,15 @@
       <c r="Z77" s="2"/>
     </row>
     <row r="78">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-      <c r="C78" s="1"/>
+      <c r="A78" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -3635,44 +3558,48 @@
       <c r="Z78" s="2"/>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
-        <v>179</v>
+      <c r="A79" s="1" t="s">
+        <v>140</v>
       </c>
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
+      <c r="B79" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>181</v>
+        <v>144</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -3700,13 +3627,13 @@
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>184</v>
+        <v>147</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3734,13 +3661,13 @@
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>186</v>
+        <v>149</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>187</v>
+        <v>150</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>188</v>
+        <v>151</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3767,15 +3694,9 @@
       <c r="Z82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>191</v>
-      </c>
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
@@ -3801,48 +3722,44 @@
       <c r="Z83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
-        <v>192</v>
+      <c r="A84" s="3" t="s">
+        <v>152</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
-      <c r="Z84" s="2"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="4"/>
+      <c r="Q84" s="4"/>
+      <c r="R84" s="4"/>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>194</v>
+        <v>154</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>195</v>
+        <v>155</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3870,13 +3787,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>196</v>
+        <v>156</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>197</v>
+        <v>157</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>198</v>
+        <v>158</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3904,13 +3821,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>199</v>
+        <v>159</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3938,13 +3855,13 @@
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>202</v>
+        <v>162</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>204</v>
+        <v>164</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -3972,13 +3889,13 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -4005,9 +3922,15 @@
       <c r="Z89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+      <c r="A90" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>168</v>
+      </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
@@ -4033,9 +3956,15 @@
       <c r="Z90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+      <c r="A91" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -4061,9 +3990,15 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+      <c r="A92" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>174</v>
+      </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -4089,9 +4024,15 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="A93" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -4117,9 +4058,15 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="A94" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>180</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -31108,6 +31055,146 @@
       <c r="Y1057" s="2"/>
       <c r="Z1057" s="2"/>
     </row>
+    <row r="1058">
+      <c r="A1058" s="2"/>
+      <c r="B1058" s="2"/>
+      <c r="C1058" s="2"/>
+      <c r="D1058" s="2"/>
+      <c r="E1058" s="2"/>
+      <c r="F1058" s="2"/>
+      <c r="G1058" s="2"/>
+      <c r="H1058" s="2"/>
+      <c r="I1058" s="2"/>
+      <c r="J1058" s="2"/>
+      <c r="K1058" s="2"/>
+      <c r="L1058" s="2"/>
+      <c r="M1058" s="2"/>
+      <c r="N1058" s="2"/>
+      <c r="O1058" s="2"/>
+      <c r="P1058" s="2"/>
+      <c r="Q1058" s="2"/>
+      <c r="R1058" s="2"/>
+      <c r="S1058" s="2"/>
+      <c r="T1058" s="2"/>
+      <c r="U1058" s="2"/>
+      <c r="V1058" s="2"/>
+      <c r="W1058" s="2"/>
+      <c r="X1058" s="2"/>
+      <c r="Y1058" s="2"/>
+      <c r="Z1058" s="2"/>
+    </row>
+    <row r="1059">
+      <c r="A1059" s="2"/>
+      <c r="B1059" s="2"/>
+      <c r="C1059" s="2"/>
+      <c r="D1059" s="2"/>
+      <c r="E1059" s="2"/>
+      <c r="F1059" s="2"/>
+      <c r="G1059" s="2"/>
+      <c r="H1059" s="2"/>
+      <c r="I1059" s="2"/>
+      <c r="J1059" s="2"/>
+      <c r="K1059" s="2"/>
+      <c r="L1059" s="2"/>
+      <c r="M1059" s="2"/>
+      <c r="N1059" s="2"/>
+      <c r="O1059" s="2"/>
+      <c r="P1059" s="2"/>
+      <c r="Q1059" s="2"/>
+      <c r="R1059" s="2"/>
+      <c r="S1059" s="2"/>
+      <c r="T1059" s="2"/>
+      <c r="U1059" s="2"/>
+      <c r="V1059" s="2"/>
+      <c r="W1059" s="2"/>
+      <c r="X1059" s="2"/>
+      <c r="Y1059" s="2"/>
+      <c r="Z1059" s="2"/>
+    </row>
+    <row r="1060">
+      <c r="A1060" s="2"/>
+      <c r="B1060" s="2"/>
+      <c r="C1060" s="2"/>
+      <c r="D1060" s="2"/>
+      <c r="E1060" s="2"/>
+      <c r="F1060" s="2"/>
+      <c r="G1060" s="2"/>
+      <c r="H1060" s="2"/>
+      <c r="I1060" s="2"/>
+      <c r="J1060" s="2"/>
+      <c r="K1060" s="2"/>
+      <c r="L1060" s="2"/>
+      <c r="M1060" s="2"/>
+      <c r="N1060" s="2"/>
+      <c r="O1060" s="2"/>
+      <c r="P1060" s="2"/>
+      <c r="Q1060" s="2"/>
+      <c r="R1060" s="2"/>
+      <c r="S1060" s="2"/>
+      <c r="T1060" s="2"/>
+      <c r="U1060" s="2"/>
+      <c r="V1060" s="2"/>
+      <c r="W1060" s="2"/>
+      <c r="X1060" s="2"/>
+      <c r="Y1060" s="2"/>
+      <c r="Z1060" s="2"/>
+    </row>
+    <row r="1061">
+      <c r="A1061" s="2"/>
+      <c r="B1061" s="2"/>
+      <c r="C1061" s="2"/>
+      <c r="D1061" s="2"/>
+      <c r="E1061" s="2"/>
+      <c r="F1061" s="2"/>
+      <c r="G1061" s="2"/>
+      <c r="H1061" s="2"/>
+      <c r="I1061" s="2"/>
+      <c r="J1061" s="2"/>
+      <c r="K1061" s="2"/>
+      <c r="L1061" s="2"/>
+      <c r="M1061" s="2"/>
+      <c r="N1061" s="2"/>
+      <c r="O1061" s="2"/>
+      <c r="P1061" s="2"/>
+      <c r="Q1061" s="2"/>
+      <c r="R1061" s="2"/>
+      <c r="S1061" s="2"/>
+      <c r="T1061" s="2"/>
+      <c r="U1061" s="2"/>
+      <c r="V1061" s="2"/>
+      <c r="W1061" s="2"/>
+      <c r="X1061" s="2"/>
+      <c r="Y1061" s="2"/>
+      <c r="Z1061" s="2"/>
+    </row>
+    <row r="1062">
+      <c r="A1062" s="2"/>
+      <c r="B1062" s="2"/>
+      <c r="C1062" s="2"/>
+      <c r="D1062" s="2"/>
+      <c r="E1062" s="2"/>
+      <c r="F1062" s="2"/>
+      <c r="G1062" s="2"/>
+      <c r="H1062" s="2"/>
+      <c r="I1062" s="2"/>
+      <c r="J1062" s="2"/>
+      <c r="K1062" s="2"/>
+      <c r="L1062" s="2"/>
+      <c r="M1062" s="2"/>
+      <c r="N1062" s="2"/>
+      <c r="O1062" s="2"/>
+      <c r="P1062" s="2"/>
+      <c r="Q1062" s="2"/>
+      <c r="R1062" s="2"/>
+      <c r="S1062" s="2"/>
+      <c r="T1062" s="2"/>
+      <c r="U1062" s="2"/>
+      <c r="V1062" s="2"/>
+      <c r="W1062" s="2"/>
+      <c r="X1062" s="2"/>
+      <c r="Y1062" s="2"/>
+      <c r="Z1062" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="223">
   <si>
     <t>ID</t>
   </si>
@@ -179,6 +179,30 @@
   </si>
   <si>
     <t>加時道具</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>類型</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>標題</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>狀態</t>
+  </si>
+  <si>
+    <t>P&amp;L</t>
+  </si>
+  <si>
+    <t>交易結果</t>
   </si>
   <si>
     <t>錯誤訊息</t>
@@ -356,6 +380,108 @@
   </si>
   <si>
     <t>排名</t>
+  </si>
+  <si>
+    <t>交易紀錄</t>
+  </si>
+  <si>
+    <t>TRANSACTION HISTORY</t>
+  </si>
+  <si>
+    <t>交易記錄</t>
+  </si>
+  <si>
+    <t>Only Show Transactions From The Last 3 Months.</t>
+  </si>
+  <si>
+    <t>僅顯示最近 3 個月的交易。</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>現金</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>VIRTUAL CODE</t>
+  </si>
+  <si>
+    <t>虛擬程式碼</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>之</t>
+  </si>
+  <si>
+    <t>Date Range</t>
+  </si>
+  <si>
+    <t>日期範圍</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>開始日期</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>結束日期</t>
+  </si>
+  <si>
+    <t>All Type</t>
+  </si>
+  <si>
+    <t>所有類型</t>
+  </si>
+  <si>
+    <t>BUY-IN</t>
+  </si>
+  <si>
+    <t>買入</t>
+  </si>
+  <si>
+    <t>ANTE</t>
+  </si>
+  <si>
+    <t>賭注</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>全部</t>
+  </si>
+  <si>
+    <t>All Status</t>
+  </si>
+  <si>
+    <t>所有狀態</t>
+  </si>
+  <si>
+    <t>PROCESSING</t>
+  </si>
+  <si>
+    <t>處理中</t>
+  </si>
+  <si>
+    <t>SUCCESS</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>失敗</t>
   </si>
   <si>
     <t>遊戲</t>
@@ -560,7 +686,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -584,7 +710,16 @@
       <name val="&quot;Google Sans&quot;"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -679,7 +814,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -743,6 +878,9 @@
     <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -755,7 +893,10 @@
     <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1894,9 +2035,15 @@
       <c r="Z27" s="19"/>
     </row>
     <row r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>57</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
@@ -1922,141 +2069,101 @@
       <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="s">
+      <c r="B29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="5" t="s">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6"/>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="6"/>
-      <c r="Y31" s="6"/>
-      <c r="Z31" s="6"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="s">
+      <c r="B30" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" s="5" t="s">
+    </row>
+    <row r="31">
+      <c r="A31" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
+      <c r="B31" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
     </row>
     <row r="33">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
+      <c r="A33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -2082,75 +2189,77 @@
       <c r="Z33" s="6"/>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="s">
-        <v>63</v>
+      <c r="A34" s="5" t="s">
+        <v>67</v>
       </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
+      <c r="B34" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="6"/>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="6"/>
+      <c r="R34" s="6"/>
+      <c r="S34" s="6"/>
+      <c r="T34" s="6"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="6"/>
+      <c r="W34" s="6"/>
+      <c r="X34" s="6"/>
+      <c r="Y34" s="6"/>
+      <c r="Z34" s="6"/>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="s">
-        <v>64</v>
+      <c r="A35" s="5" t="s">
+        <v>69</v>
       </c>
-      <c r="B35" s="21"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="22"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="22"/>
-      <c r="U35" s="22"/>
-      <c r="V35" s="22"/>
-      <c r="W35" s="22"/>
-      <c r="X35" s="22"/>
-      <c r="Y35" s="22"/>
-      <c r="Z35" s="22"/>
+      <c r="B35" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
+      <c r="Y35" s="6"/>
+      <c r="Z35" s="6"/>
     </row>
     <row r="36">
-      <c r="A36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -2176,112 +2285,108 @@
       <c r="Z36" s="6"/>
     </row>
     <row r="37">
-      <c r="A37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="21" t="s">
+      <c r="A37" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="22"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="23"/>
+      <c r="I38" s="23"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="23"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="23"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="23"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
+      <c r="X38" s="23"/>
+      <c r="Y38" s="23"/>
+      <c r="Z38" s="23"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="6"/>
+      <c r="M39" s="6"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6"/>
+      <c r="P39" s="6"/>
+      <c r="Q39" s="6"/>
+      <c r="R39" s="6"/>
+      <c r="S39" s="6"/>
+      <c r="T39" s="6"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="6"/>
+      <c r="W39" s="6"/>
+      <c r="X39" s="6"/>
+      <c r="Y39" s="6"/>
+      <c r="Z39" s="6"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
@@ -2309,13 +2414,13 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>75</v>
+      <c r="C41" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
@@ -2342,78 +2447,78 @@
       <c r="Z41" s="6"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
-        <v>76</v>
+      <c r="A42" s="22" t="s">
+        <v>79</v>
       </c>
-      <c r="B42" s="5" t="s">
-        <v>76</v>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="23"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="23"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="23"/>
+      <c r="R42" s="23"/>
+      <c r="S42" s="23"/>
+      <c r="T42" s="23"/>
+      <c r="U42" s="23"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
+      <c r="X42" s="23"/>
+      <c r="Y42" s="23"/>
+      <c r="Z42" s="23"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="s">
+        <v>80</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>77</v>
+      <c r="B43" s="5" t="s">
+        <v>80</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="23" t="s">
-        <v>78</v>
+      <c r="C43" s="5" t="s">
+        <v>81</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
-      <c r="W43" s="24"/>
-      <c r="X43" s="24"/>
-      <c r="Y43" s="24"/>
-      <c r="Z43" s="24"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="6"/>
+      <c r="Q43" s="6"/>
+      <c r="R43" s="6"/>
+      <c r="S43" s="6"/>
+      <c r="T43" s="6"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="6"/>
+      <c r="W43" s="6"/>
+      <c r="X43" s="6"/>
+      <c r="Y43" s="6"/>
+      <c r="Z43" s="6"/>
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -2440,78 +2545,78 @@
       <c r="Z44" s="6"/>
     </row>
     <row r="45">
-      <c r="A45" s="21" t="s">
-        <v>80</v>
+      <c r="A45" s="5" t="s">
+        <v>84</v>
       </c>
-      <c r="B45" s="21"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="22"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="22"/>
-      <c r="S45" s="22"/>
-      <c r="T45" s="22"/>
-      <c r="U45" s="22"/>
-      <c r="V45" s="22"/>
-      <c r="W45" s="22"/>
-      <c r="X45" s="22"/>
-      <c r="Y45" s="22"/>
-      <c r="Z45" s="22"/>
+      <c r="B45" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="6"/>
+      <c r="Q45" s="6"/>
+      <c r="R45" s="6"/>
+      <c r="S45" s="6"/>
+      <c r="T45" s="6"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="6"/>
+      <c r="W45" s="6"/>
+      <c r="X45" s="6"/>
+      <c r="Y45" s="6"/>
+      <c r="Z45" s="6"/>
     </row>
     <row r="46">
-      <c r="A46" s="5" t="s">
-        <v>81</v>
+      <c r="A46" s="24" t="s">
+        <v>86</v>
       </c>
-      <c r="B46" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="6"/>
-      <c r="T46" s="6"/>
-      <c r="U46" s="6"/>
-      <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-      <c r="X46" s="6"/>
-      <c r="Y46" s="6"/>
-      <c r="Z46" s="6"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="25"/>
+      <c r="E46" s="25"/>
+      <c r="F46" s="25"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="25"/>
+      <c r="I46" s="25"/>
+      <c r="J46" s="25"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
@@ -2538,78 +2643,78 @@
       <c r="Z47" s="6"/>
     </row>
     <row r="48">
-      <c r="A48" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="21"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="25" t="s">
+      <c r="A48" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>88</v>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+      <c r="K48" s="23"/>
+      <c r="L48" s="23"/>
+      <c r="M48" s="23"/>
+      <c r="N48" s="23"/>
+      <c r="O48" s="23"/>
+      <c r="P48" s="23"/>
+      <c r="Q48" s="23"/>
+      <c r="R48" s="23"/>
+      <c r="S48" s="23"/>
+      <c r="T48" s="23"/>
+      <c r="U48" s="23"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
+      <c r="X48" s="23"/>
+      <c r="Y48" s="23"/>
+      <c r="Z48" s="23"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="s">
+        <v>89</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="B49" s="5" t="s">
         <v>89</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
+      <c r="K49" s="6"/>
+      <c r="L49" s="6"/>
+      <c r="M49" s="6"/>
+      <c r="N49" s="6"/>
+      <c r="O49" s="6"/>
+      <c r="P49" s="6"/>
+      <c r="Q49" s="6"/>
+      <c r="R49" s="6"/>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="6"/>
+      <c r="W49" s="6"/>
+      <c r="X49" s="6"/>
+      <c r="Y49" s="6"/>
+      <c r="Z49" s="6"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>92</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -2636,141 +2741,141 @@
       <c r="Z50" s="6"/>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
-      <c r="X51" s="2"/>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="5"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="5" t="s">
+      <c r="A51" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C54" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B55" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+      <c r="P51" s="6"/>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+      <c r="Y51" s="6"/>
+      <c r="Z51" s="6"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="22" t="s">
         <v>95</v>
       </c>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="23"/>
+      <c r="Z52" s="23"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+      <c r="N53" s="6"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="6"/>
+      <c r="Q53" s="6"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="6"/>
+      <c r="T53" s="6"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="6"/>
+      <c r="W53" s="6"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="6"/>
+      <c r="Z53" s="6"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -2796,43 +2901,45 @@
       <c r="Z55" s="6"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="s">
-        <v>96</v>
+      <c r="A56" s="3" t="s">
+        <v>100</v>
       </c>
-      <c r="B56" s="5" t="s">
-        <v>96</v>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="5" t="s">
+        <v>101</v>
       </c>
-      <c r="C56" s="5" t="s">
-        <v>97</v>
+      <c r="B57" s="5" t="s">
+        <v>101</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="5"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="C57" s="5" t="s">
+        <v>100</v>
+      </c>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -2858,146 +2965,140 @@
       <c r="Z57" s="6"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="s">
+      <c r="A58" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B58" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C58" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="s">
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="6"/>
+      <c r="N58" s="6"/>
+      <c r="O58" s="6"/>
+      <c r="P58" s="6"/>
+      <c r="Q58" s="6"/>
+      <c r="R58" s="6"/>
+      <c r="S58" s="6"/>
+      <c r="T58" s="6"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="6"/>
+      <c r="W58" s="6"/>
+      <c r="X58" s="6"/>
+      <c r="Y58" s="6"/>
+      <c r="Z58" s="6"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B59" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
+      <c r="Y59" s="6"/>
+      <c r="Z59" s="6"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -3025,13 +3126,13 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -3059,13 +3160,13 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
@@ -3093,13 +3194,13 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
@@ -3126,9 +3227,15 @@
       <c r="Z65" s="2"/>
     </row>
     <row r="66">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
+      <c r="A66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -3154,44 +3261,48 @@
       <c r="Z66" s="2"/>
     </row>
     <row r="67">
-      <c r="A67" s="3" t="s">
-        <v>115</v>
+      <c r="A67" s="1" t="s">
+        <v>119</v>
       </c>
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-      <c r="E67" s="4"/>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-      <c r="I67" s="4"/>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
-      <c r="M67" s="4"/>
-      <c r="N67" s="4"/>
-      <c r="O67" s="4"/>
-      <c r="P67" s="4"/>
-      <c r="Q67" s="4"/>
-      <c r="R67" s="4"/>
-      <c r="S67" s="4"/>
-      <c r="T67" s="4"/>
-      <c r="U67" s="4"/>
-      <c r="V67" s="4"/>
-      <c r="W67" s="4"/>
-      <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="4"/>
+      <c r="B67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
@@ -3218,15 +3329,9 @@
       <c r="Z68" s="2"/>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -3252,48 +3357,44 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
-        <v>120</v>
+      <c r="A70" s="3" t="s">
+        <v>123</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -3321,13 +3422,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -3355,13 +3456,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -3388,14 +3489,14 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>129</v>
+      <c r="A74" s="27" t="s">
+        <v>130</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>131</v>
+        <v>51</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -3423,13 +3524,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -3457,13 +3558,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -3490,48 +3591,48 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C77" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="12"/>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12"/>
+      <c r="S77" s="12"/>
+      <c r="T77" s="12"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
+      <c r="X77" s="12"/>
+      <c r="Y77" s="12"/>
+      <c r="Z77" s="13"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="s">
-        <v>138</v>
-      </c>
       <c r="B78" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
@@ -3555,85 +3656,85 @@
       <c r="W78" s="2"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
+      <c r="Z78" s="15"/>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C79" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="18"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="18"/>
+      <c r="Q79" s="18"/>
+      <c r="R79" s="18"/>
+      <c r="S79" s="18"/>
+      <c r="T79" s="18"/>
+      <c r="U79" s="18"/>
+      <c r="V79" s="18"/>
+      <c r="W79" s="18"/>
+      <c r="X79" s="18"/>
+      <c r="Y79" s="18"/>
+      <c r="Z79" s="19"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="B80" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C80" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="s">
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="13"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="B81" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3657,17 +3758,17 @@
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
-      <c r="Z81" s="2"/>
+      <c r="Z81" s="15"/>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>149</v>
+      <c r="A82" s="20" t="s">
+        <v>145</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
@@ -3691,75 +3792,85 @@
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
+      <c r="Z82" s="15"/>
     </row>
     <row r="83">
-      <c r="A83" s="1"/>
-      <c r="B83" s="1"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-      <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
+      <c r="A83" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B83" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="18"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="18"/>
+      <c r="Q83" s="18"/>
+      <c r="R83" s="18"/>
+      <c r="S83" s="18"/>
+      <c r="T83" s="18"/>
+      <c r="U83" s="18"/>
+      <c r="V83" s="18"/>
+      <c r="W83" s="18"/>
+      <c r="X83" s="18"/>
+      <c r="Y83" s="18"/>
+      <c r="Z83" s="19"/>
     </row>
     <row r="84">
-      <c r="A84" s="3" t="s">
-        <v>152</v>
+      <c r="A84" s="1" t="s">
+        <v>149</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-      <c r="E84" s="4"/>
-      <c r="F84" s="4"/>
-      <c r="G84" s="4"/>
-      <c r="H84" s="4"/>
-      <c r="I84" s="4"/>
-      <c r="J84" s="4"/>
-      <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
-      <c r="M84" s="4"/>
-      <c r="N84" s="4"/>
-      <c r="O84" s="4"/>
-      <c r="P84" s="4"/>
-      <c r="Q84" s="4"/>
-      <c r="R84" s="4"/>
-      <c r="S84" s="4"/>
-      <c r="T84" s="4"/>
-      <c r="U84" s="4"/>
-      <c r="V84" s="4"/>
-      <c r="W84" s="4"/>
-      <c r="X84" s="4"/>
-      <c r="Y84" s="4"/>
-      <c r="Z84" s="4"/>
+      <c r="B84" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>153</v>
+      <c r="A85" s="21" t="s">
+        <v>151</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
@@ -3787,13 +3898,13 @@
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3821,13 +3932,13 @@
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
@@ -3854,15 +3965,9 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>164</v>
-      </c>
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -3888,48 +3993,44 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>165</v>
+      <c r="A89" s="3" t="s">
+        <v>157</v>
       </c>
-      <c r="B89" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
-      <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
-      <c r="Z89" s="2"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="4"/>
+      <c r="R89" s="4"/>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -3957,13 +4058,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -3991,13 +4092,13 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -4025,13 +4126,13 @@
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -4059,13 +4160,13 @@
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -4092,9 +4193,15 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="A95" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>170</v>
+      </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -4120,9 +4227,15 @@
       <c r="Z95" s="2"/>
     </row>
     <row r="96">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="A96" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -4148,9 +4261,15 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="2"/>
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
+      <c r="A97" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>175</v>
+      </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -4176,9 +4295,15 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="2"/>
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
+      <c r="A98" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>177</v>
+      </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -4204,9 +4329,15 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="2"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
+      <c r="A99" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>179</v>
+      </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
@@ -4232,9 +4363,15 @@
       <c r="Z99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="2"/>
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
+      <c r="A100" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>181</v>
+      </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
@@ -4260,9 +4397,15 @@
       <c r="Z100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
+      <c r="A101" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>184</v>
+      </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -4288,9 +4431,15 @@
       <c r="Z101" s="2"/>
     </row>
     <row r="102">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
+      <c r="A102" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>187</v>
+      </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -4316,9 +4465,15 @@
       <c r="Z102" s="2"/>
     </row>
     <row r="103">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
+      <c r="A103" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -4344,9 +4499,15 @@
       <c r="Z103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
+      <c r="A104" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -4372,9 +4533,9 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
+      <c r="A105" s="1"/>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -4400,37 +4561,45 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="2"/>
-      <c r="V106" s="2"/>
-      <c r="W106" s="2"/>
-      <c r="X106" s="2"/>
-      <c r="Y106" s="2"/>
-      <c r="Z106" s="2"/>
+      <c r="A106" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="4"/>
+      <c r="Q106" s="4"/>
+      <c r="R106" s="4"/>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4"/>
     </row>
     <row r="107">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
+      <c r="A107" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>197</v>
+      </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -4456,9 +4625,15 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
+      <c r="A108" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -4484,9 +4659,15 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
+      <c r="A109" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -4512,9 +4693,15 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
+      <c r="A110" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>206</v>
+      </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -4540,9 +4727,15 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
+      <c r="A111" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -4568,9 +4761,15 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
+      <c r="A112" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -4596,9 +4795,15 @@
       <c r="Z112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
+      <c r="A113" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -4624,9 +4829,15 @@
       <c r="Z113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
+      <c r="A114" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>216</v>
+      </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -4652,9 +4863,15 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="2"/>
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
+      <c r="A115" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -4680,9 +4897,15 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="2"/>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
+      <c r="A116" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
@@ -31195,6 +31418,622 @@
       <c r="Y1062" s="2"/>
       <c r="Z1062" s="2"/>
     </row>
+    <row r="1063">
+      <c r="A1063" s="2"/>
+      <c r="B1063" s="2"/>
+      <c r="C1063" s="2"/>
+      <c r="D1063" s="2"/>
+      <c r="E1063" s="2"/>
+      <c r="F1063" s="2"/>
+      <c r="G1063" s="2"/>
+      <c r="H1063" s="2"/>
+      <c r="I1063" s="2"/>
+      <c r="J1063" s="2"/>
+      <c r="K1063" s="2"/>
+      <c r="L1063" s="2"/>
+      <c r="M1063" s="2"/>
+      <c r="N1063" s="2"/>
+      <c r="O1063" s="2"/>
+      <c r="P1063" s="2"/>
+      <c r="Q1063" s="2"/>
+      <c r="R1063" s="2"/>
+      <c r="S1063" s="2"/>
+      <c r="T1063" s="2"/>
+      <c r="U1063" s="2"/>
+      <c r="V1063" s="2"/>
+      <c r="W1063" s="2"/>
+      <c r="X1063" s="2"/>
+      <c r="Y1063" s="2"/>
+      <c r="Z1063" s="2"/>
+    </row>
+    <row r="1064">
+      <c r="A1064" s="2"/>
+      <c r="B1064" s="2"/>
+      <c r="C1064" s="2"/>
+      <c r="D1064" s="2"/>
+      <c r="E1064" s="2"/>
+      <c r="F1064" s="2"/>
+      <c r="G1064" s="2"/>
+      <c r="H1064" s="2"/>
+      <c r="I1064" s="2"/>
+      <c r="J1064" s="2"/>
+      <c r="K1064" s="2"/>
+      <c r="L1064" s="2"/>
+      <c r="M1064" s="2"/>
+      <c r="N1064" s="2"/>
+      <c r="O1064" s="2"/>
+      <c r="P1064" s="2"/>
+      <c r="Q1064" s="2"/>
+      <c r="R1064" s="2"/>
+      <c r="S1064" s="2"/>
+      <c r="T1064" s="2"/>
+      <c r="U1064" s="2"/>
+      <c r="V1064" s="2"/>
+      <c r="W1064" s="2"/>
+      <c r="X1064" s="2"/>
+      <c r="Y1064" s="2"/>
+      <c r="Z1064" s="2"/>
+    </row>
+    <row r="1065">
+      <c r="A1065" s="2"/>
+      <c r="B1065" s="2"/>
+      <c r="C1065" s="2"/>
+      <c r="D1065" s="2"/>
+      <c r="E1065" s="2"/>
+      <c r="F1065" s="2"/>
+      <c r="G1065" s="2"/>
+      <c r="H1065" s="2"/>
+      <c r="I1065" s="2"/>
+      <c r="J1065" s="2"/>
+      <c r="K1065" s="2"/>
+      <c r="L1065" s="2"/>
+      <c r="M1065" s="2"/>
+      <c r="N1065" s="2"/>
+      <c r="O1065" s="2"/>
+      <c r="P1065" s="2"/>
+      <c r="Q1065" s="2"/>
+      <c r="R1065" s="2"/>
+      <c r="S1065" s="2"/>
+      <c r="T1065" s="2"/>
+      <c r="U1065" s="2"/>
+      <c r="V1065" s="2"/>
+      <c r="W1065" s="2"/>
+      <c r="X1065" s="2"/>
+      <c r="Y1065" s="2"/>
+      <c r="Z1065" s="2"/>
+    </row>
+    <row r="1066">
+      <c r="A1066" s="2"/>
+      <c r="B1066" s="2"/>
+      <c r="C1066" s="2"/>
+      <c r="D1066" s="2"/>
+      <c r="E1066" s="2"/>
+      <c r="F1066" s="2"/>
+      <c r="G1066" s="2"/>
+      <c r="H1066" s="2"/>
+      <c r="I1066" s="2"/>
+      <c r="J1066" s="2"/>
+      <c r="K1066" s="2"/>
+      <c r="L1066" s="2"/>
+      <c r="M1066" s="2"/>
+      <c r="N1066" s="2"/>
+      <c r="O1066" s="2"/>
+      <c r="P1066" s="2"/>
+      <c r="Q1066" s="2"/>
+      <c r="R1066" s="2"/>
+      <c r="S1066" s="2"/>
+      <c r="T1066" s="2"/>
+      <c r="U1066" s="2"/>
+      <c r="V1066" s="2"/>
+      <c r="W1066" s="2"/>
+      <c r="X1066" s="2"/>
+      <c r="Y1066" s="2"/>
+      <c r="Z1066" s="2"/>
+    </row>
+    <row r="1067">
+      <c r="A1067" s="2"/>
+      <c r="B1067" s="2"/>
+      <c r="C1067" s="2"/>
+      <c r="D1067" s="2"/>
+      <c r="E1067" s="2"/>
+      <c r="F1067" s="2"/>
+      <c r="G1067" s="2"/>
+      <c r="H1067" s="2"/>
+      <c r="I1067" s="2"/>
+      <c r="J1067" s="2"/>
+      <c r="K1067" s="2"/>
+      <c r="L1067" s="2"/>
+      <c r="M1067" s="2"/>
+      <c r="N1067" s="2"/>
+      <c r="O1067" s="2"/>
+      <c r="P1067" s="2"/>
+      <c r="Q1067" s="2"/>
+      <c r="R1067" s="2"/>
+      <c r="S1067" s="2"/>
+      <c r="T1067" s="2"/>
+      <c r="U1067" s="2"/>
+      <c r="V1067" s="2"/>
+      <c r="W1067" s="2"/>
+      <c r="X1067" s="2"/>
+      <c r="Y1067" s="2"/>
+      <c r="Z1067" s="2"/>
+    </row>
+    <row r="1068">
+      <c r="A1068" s="2"/>
+      <c r="B1068" s="2"/>
+      <c r="C1068" s="2"/>
+      <c r="D1068" s="2"/>
+      <c r="E1068" s="2"/>
+      <c r="F1068" s="2"/>
+      <c r="G1068" s="2"/>
+      <c r="H1068" s="2"/>
+      <c r="I1068" s="2"/>
+      <c r="J1068" s="2"/>
+      <c r="K1068" s="2"/>
+      <c r="L1068" s="2"/>
+      <c r="M1068" s="2"/>
+      <c r="N1068" s="2"/>
+      <c r="O1068" s="2"/>
+      <c r="P1068" s="2"/>
+      <c r="Q1068" s="2"/>
+      <c r="R1068" s="2"/>
+      <c r="S1068" s="2"/>
+      <c r="T1068" s="2"/>
+      <c r="U1068" s="2"/>
+      <c r="V1068" s="2"/>
+      <c r="W1068" s="2"/>
+      <c r="X1068" s="2"/>
+      <c r="Y1068" s="2"/>
+      <c r="Z1068" s="2"/>
+    </row>
+    <row r="1069">
+      <c r="A1069" s="2"/>
+      <c r="B1069" s="2"/>
+      <c r="C1069" s="2"/>
+      <c r="D1069" s="2"/>
+      <c r="E1069" s="2"/>
+      <c r="F1069" s="2"/>
+      <c r="G1069" s="2"/>
+      <c r="H1069" s="2"/>
+      <c r="I1069" s="2"/>
+      <c r="J1069" s="2"/>
+      <c r="K1069" s="2"/>
+      <c r="L1069" s="2"/>
+      <c r="M1069" s="2"/>
+      <c r="N1069" s="2"/>
+      <c r="O1069" s="2"/>
+      <c r="P1069" s="2"/>
+      <c r="Q1069" s="2"/>
+      <c r="R1069" s="2"/>
+      <c r="S1069" s="2"/>
+      <c r="T1069" s="2"/>
+      <c r="U1069" s="2"/>
+      <c r="V1069" s="2"/>
+      <c r="W1069" s="2"/>
+      <c r="X1069" s="2"/>
+      <c r="Y1069" s="2"/>
+      <c r="Z1069" s="2"/>
+    </row>
+    <row r="1070">
+      <c r="A1070" s="2"/>
+      <c r="B1070" s="2"/>
+      <c r="C1070" s="2"/>
+      <c r="D1070" s="2"/>
+      <c r="E1070" s="2"/>
+      <c r="F1070" s="2"/>
+      <c r="G1070" s="2"/>
+      <c r="H1070" s="2"/>
+      <c r="I1070" s="2"/>
+      <c r="J1070" s="2"/>
+      <c r="K1070" s="2"/>
+      <c r="L1070" s="2"/>
+      <c r="M1070" s="2"/>
+      <c r="N1070" s="2"/>
+      <c r="O1070" s="2"/>
+      <c r="P1070" s="2"/>
+      <c r="Q1070" s="2"/>
+      <c r="R1070" s="2"/>
+      <c r="S1070" s="2"/>
+      <c r="T1070" s="2"/>
+      <c r="U1070" s="2"/>
+      <c r="V1070" s="2"/>
+      <c r="W1070" s="2"/>
+      <c r="X1070" s="2"/>
+      <c r="Y1070" s="2"/>
+      <c r="Z1070" s="2"/>
+    </row>
+    <row r="1071">
+      <c r="A1071" s="2"/>
+      <c r="B1071" s="2"/>
+      <c r="C1071" s="2"/>
+      <c r="D1071" s="2"/>
+      <c r="E1071" s="2"/>
+      <c r="F1071" s="2"/>
+      <c r="G1071" s="2"/>
+      <c r="H1071" s="2"/>
+      <c r="I1071" s="2"/>
+      <c r="J1071" s="2"/>
+      <c r="K1071" s="2"/>
+      <c r="L1071" s="2"/>
+      <c r="M1071" s="2"/>
+      <c r="N1071" s="2"/>
+      <c r="O1071" s="2"/>
+      <c r="P1071" s="2"/>
+      <c r="Q1071" s="2"/>
+      <c r="R1071" s="2"/>
+      <c r="S1071" s="2"/>
+      <c r="T1071" s="2"/>
+      <c r="U1071" s="2"/>
+      <c r="V1071" s="2"/>
+      <c r="W1071" s="2"/>
+      <c r="X1071" s="2"/>
+      <c r="Y1071" s="2"/>
+      <c r="Z1071" s="2"/>
+    </row>
+    <row r="1072">
+      <c r="A1072" s="2"/>
+      <c r="B1072" s="2"/>
+      <c r="C1072" s="2"/>
+      <c r="D1072" s="2"/>
+      <c r="E1072" s="2"/>
+      <c r="F1072" s="2"/>
+      <c r="G1072" s="2"/>
+      <c r="H1072" s="2"/>
+      <c r="I1072" s="2"/>
+      <c r="J1072" s="2"/>
+      <c r="K1072" s="2"/>
+      <c r="L1072" s="2"/>
+      <c r="M1072" s="2"/>
+      <c r="N1072" s="2"/>
+      <c r="O1072" s="2"/>
+      <c r="P1072" s="2"/>
+      <c r="Q1072" s="2"/>
+      <c r="R1072" s="2"/>
+      <c r="S1072" s="2"/>
+      <c r="T1072" s="2"/>
+      <c r="U1072" s="2"/>
+      <c r="V1072" s="2"/>
+      <c r="W1072" s="2"/>
+      <c r="X1072" s="2"/>
+      <c r="Y1072" s="2"/>
+      <c r="Z1072" s="2"/>
+    </row>
+    <row r="1073">
+      <c r="A1073" s="2"/>
+      <c r="B1073" s="2"/>
+      <c r="C1073" s="2"/>
+      <c r="D1073" s="2"/>
+      <c r="E1073" s="2"/>
+      <c r="F1073" s="2"/>
+      <c r="G1073" s="2"/>
+      <c r="H1073" s="2"/>
+      <c r="I1073" s="2"/>
+      <c r="J1073" s="2"/>
+      <c r="K1073" s="2"/>
+      <c r="L1073" s="2"/>
+      <c r="M1073" s="2"/>
+      <c r="N1073" s="2"/>
+      <c r="O1073" s="2"/>
+      <c r="P1073" s="2"/>
+      <c r="Q1073" s="2"/>
+      <c r="R1073" s="2"/>
+      <c r="S1073" s="2"/>
+      <c r="T1073" s="2"/>
+      <c r="U1073" s="2"/>
+      <c r="V1073" s="2"/>
+      <c r="W1073" s="2"/>
+      <c r="X1073" s="2"/>
+      <c r="Y1073" s="2"/>
+      <c r="Z1073" s="2"/>
+    </row>
+    <row r="1074">
+      <c r="A1074" s="2"/>
+      <c r="B1074" s="2"/>
+      <c r="C1074" s="2"/>
+      <c r="D1074" s="2"/>
+      <c r="E1074" s="2"/>
+      <c r="F1074" s="2"/>
+      <c r="G1074" s="2"/>
+      <c r="H1074" s="2"/>
+      <c r="I1074" s="2"/>
+      <c r="J1074" s="2"/>
+      <c r="K1074" s="2"/>
+      <c r="L1074" s="2"/>
+      <c r="M1074" s="2"/>
+      <c r="N1074" s="2"/>
+      <c r="O1074" s="2"/>
+      <c r="P1074" s="2"/>
+      <c r="Q1074" s="2"/>
+      <c r="R1074" s="2"/>
+      <c r="S1074" s="2"/>
+      <c r="T1074" s="2"/>
+      <c r="U1074" s="2"/>
+      <c r="V1074" s="2"/>
+      <c r="W1074" s="2"/>
+      <c r="X1074" s="2"/>
+      <c r="Y1074" s="2"/>
+      <c r="Z1074" s="2"/>
+    </row>
+    <row r="1075">
+      <c r="A1075" s="2"/>
+      <c r="B1075" s="2"/>
+      <c r="C1075" s="2"/>
+      <c r="D1075" s="2"/>
+      <c r="E1075" s="2"/>
+      <c r="F1075" s="2"/>
+      <c r="G1075" s="2"/>
+      <c r="H1075" s="2"/>
+      <c r="I1075" s="2"/>
+      <c r="J1075" s="2"/>
+      <c r="K1075" s="2"/>
+      <c r="L1075" s="2"/>
+      <c r="M1075" s="2"/>
+      <c r="N1075" s="2"/>
+      <c r="O1075" s="2"/>
+      <c r="P1075" s="2"/>
+      <c r="Q1075" s="2"/>
+      <c r="R1075" s="2"/>
+      <c r="S1075" s="2"/>
+      <c r="T1075" s="2"/>
+      <c r="U1075" s="2"/>
+      <c r="V1075" s="2"/>
+      <c r="W1075" s="2"/>
+      <c r="X1075" s="2"/>
+      <c r="Y1075" s="2"/>
+      <c r="Z1075" s="2"/>
+    </row>
+    <row r="1076">
+      <c r="A1076" s="2"/>
+      <c r="B1076" s="2"/>
+      <c r="C1076" s="2"/>
+      <c r="D1076" s="2"/>
+      <c r="E1076" s="2"/>
+      <c r="F1076" s="2"/>
+      <c r="G1076" s="2"/>
+      <c r="H1076" s="2"/>
+      <c r="I1076" s="2"/>
+      <c r="J1076" s="2"/>
+      <c r="K1076" s="2"/>
+      <c r="L1076" s="2"/>
+      <c r="M1076" s="2"/>
+      <c r="N1076" s="2"/>
+      <c r="O1076" s="2"/>
+      <c r="P1076" s="2"/>
+      <c r="Q1076" s="2"/>
+      <c r="R1076" s="2"/>
+      <c r="S1076" s="2"/>
+      <c r="T1076" s="2"/>
+      <c r="U1076" s="2"/>
+      <c r="V1076" s="2"/>
+      <c r="W1076" s="2"/>
+      <c r="X1076" s="2"/>
+      <c r="Y1076" s="2"/>
+      <c r="Z1076" s="2"/>
+    </row>
+    <row r="1077">
+      <c r="A1077" s="2"/>
+      <c r="B1077" s="2"/>
+      <c r="C1077" s="2"/>
+      <c r="D1077" s="2"/>
+      <c r="E1077" s="2"/>
+      <c r="F1077" s="2"/>
+      <c r="G1077" s="2"/>
+      <c r="H1077" s="2"/>
+      <c r="I1077" s="2"/>
+      <c r="J1077" s="2"/>
+      <c r="K1077" s="2"/>
+      <c r="L1077" s="2"/>
+      <c r="M1077" s="2"/>
+      <c r="N1077" s="2"/>
+      <c r="O1077" s="2"/>
+      <c r="P1077" s="2"/>
+      <c r="Q1077" s="2"/>
+      <c r="R1077" s="2"/>
+      <c r="S1077" s="2"/>
+      <c r="T1077" s="2"/>
+      <c r="U1077" s="2"/>
+      <c r="V1077" s="2"/>
+      <c r="W1077" s="2"/>
+      <c r="X1077" s="2"/>
+      <c r="Y1077" s="2"/>
+      <c r="Z1077" s="2"/>
+    </row>
+    <row r="1078">
+      <c r="A1078" s="2"/>
+      <c r="B1078" s="2"/>
+      <c r="C1078" s="2"/>
+      <c r="D1078" s="2"/>
+      <c r="E1078" s="2"/>
+      <c r="F1078" s="2"/>
+      <c r="G1078" s="2"/>
+      <c r="H1078" s="2"/>
+      <c r="I1078" s="2"/>
+      <c r="J1078" s="2"/>
+      <c r="K1078" s="2"/>
+      <c r="L1078" s="2"/>
+      <c r="M1078" s="2"/>
+      <c r="N1078" s="2"/>
+      <c r="O1078" s="2"/>
+      <c r="P1078" s="2"/>
+      <c r="Q1078" s="2"/>
+      <c r="R1078" s="2"/>
+      <c r="S1078" s="2"/>
+      <c r="T1078" s="2"/>
+      <c r="U1078" s="2"/>
+      <c r="V1078" s="2"/>
+      <c r="W1078" s="2"/>
+      <c r="X1078" s="2"/>
+      <c r="Y1078" s="2"/>
+      <c r="Z1078" s="2"/>
+    </row>
+    <row r="1079">
+      <c r="A1079" s="2"/>
+      <c r="B1079" s="2"/>
+      <c r="C1079" s="2"/>
+      <c r="D1079" s="2"/>
+      <c r="E1079" s="2"/>
+      <c r="F1079" s="2"/>
+      <c r="G1079" s="2"/>
+      <c r="H1079" s="2"/>
+      <c r="I1079" s="2"/>
+      <c r="J1079" s="2"/>
+      <c r="K1079" s="2"/>
+      <c r="L1079" s="2"/>
+      <c r="M1079" s="2"/>
+      <c r="N1079" s="2"/>
+      <c r="O1079" s="2"/>
+      <c r="P1079" s="2"/>
+      <c r="Q1079" s="2"/>
+      <c r="R1079" s="2"/>
+      <c r="S1079" s="2"/>
+      <c r="T1079" s="2"/>
+      <c r="U1079" s="2"/>
+      <c r="V1079" s="2"/>
+      <c r="W1079" s="2"/>
+      <c r="X1079" s="2"/>
+      <c r="Y1079" s="2"/>
+      <c r="Z1079" s="2"/>
+    </row>
+    <row r="1080">
+      <c r="A1080" s="2"/>
+      <c r="B1080" s="2"/>
+      <c r="C1080" s="2"/>
+      <c r="D1080" s="2"/>
+      <c r="E1080" s="2"/>
+      <c r="F1080" s="2"/>
+      <c r="G1080" s="2"/>
+      <c r="H1080" s="2"/>
+      <c r="I1080" s="2"/>
+      <c r="J1080" s="2"/>
+      <c r="K1080" s="2"/>
+      <c r="L1080" s="2"/>
+      <c r="M1080" s="2"/>
+      <c r="N1080" s="2"/>
+      <c r="O1080" s="2"/>
+      <c r="P1080" s="2"/>
+      <c r="Q1080" s="2"/>
+      <c r="R1080" s="2"/>
+      <c r="S1080" s="2"/>
+      <c r="T1080" s="2"/>
+      <c r="U1080" s="2"/>
+      <c r="V1080" s="2"/>
+      <c r="W1080" s="2"/>
+      <c r="X1080" s="2"/>
+      <c r="Y1080" s="2"/>
+      <c r="Z1080" s="2"/>
+    </row>
+    <row r="1081">
+      <c r="A1081" s="2"/>
+      <c r="B1081" s="2"/>
+      <c r="C1081" s="2"/>
+      <c r="D1081" s="2"/>
+      <c r="E1081" s="2"/>
+      <c r="F1081" s="2"/>
+      <c r="G1081" s="2"/>
+      <c r="H1081" s="2"/>
+      <c r="I1081" s="2"/>
+      <c r="J1081" s="2"/>
+      <c r="K1081" s="2"/>
+      <c r="L1081" s="2"/>
+      <c r="M1081" s="2"/>
+      <c r="N1081" s="2"/>
+      <c r="O1081" s="2"/>
+      <c r="P1081" s="2"/>
+      <c r="Q1081" s="2"/>
+      <c r="R1081" s="2"/>
+      <c r="S1081" s="2"/>
+      <c r="T1081" s="2"/>
+      <c r="U1081" s="2"/>
+      <c r="V1081" s="2"/>
+      <c r="W1081" s="2"/>
+      <c r="X1081" s="2"/>
+      <c r="Y1081" s="2"/>
+      <c r="Z1081" s="2"/>
+    </row>
+    <row r="1082">
+      <c r="A1082" s="2"/>
+      <c r="B1082" s="2"/>
+      <c r="C1082" s="2"/>
+      <c r="D1082" s="2"/>
+      <c r="E1082" s="2"/>
+      <c r="F1082" s="2"/>
+      <c r="G1082" s="2"/>
+      <c r="H1082" s="2"/>
+      <c r="I1082" s="2"/>
+      <c r="J1082" s="2"/>
+      <c r="K1082" s="2"/>
+      <c r="L1082" s="2"/>
+      <c r="M1082" s="2"/>
+      <c r="N1082" s="2"/>
+      <c r="O1082" s="2"/>
+      <c r="P1082" s="2"/>
+      <c r="Q1082" s="2"/>
+      <c r="R1082" s="2"/>
+      <c r="S1082" s="2"/>
+      <c r="T1082" s="2"/>
+      <c r="U1082" s="2"/>
+      <c r="V1082" s="2"/>
+      <c r="W1082" s="2"/>
+      <c r="X1082" s="2"/>
+      <c r="Y1082" s="2"/>
+      <c r="Z1082" s="2"/>
+    </row>
+    <row r="1083">
+      <c r="A1083" s="2"/>
+      <c r="B1083" s="2"/>
+      <c r="C1083" s="2"/>
+      <c r="D1083" s="2"/>
+      <c r="E1083" s="2"/>
+      <c r="F1083" s="2"/>
+      <c r="G1083" s="2"/>
+      <c r="H1083" s="2"/>
+      <c r="I1083" s="2"/>
+      <c r="J1083" s="2"/>
+      <c r="K1083" s="2"/>
+      <c r="L1083" s="2"/>
+      <c r="M1083" s="2"/>
+      <c r="N1083" s="2"/>
+      <c r="O1083" s="2"/>
+      <c r="P1083" s="2"/>
+      <c r="Q1083" s="2"/>
+      <c r="R1083" s="2"/>
+      <c r="S1083" s="2"/>
+      <c r="T1083" s="2"/>
+      <c r="U1083" s="2"/>
+      <c r="V1083" s="2"/>
+      <c r="W1083" s="2"/>
+      <c r="X1083" s="2"/>
+      <c r="Y1083" s="2"/>
+      <c r="Z1083" s="2"/>
+    </row>
+    <row r="1084">
+      <c r="A1084" s="2"/>
+      <c r="B1084" s="2"/>
+      <c r="C1084" s="2"/>
+      <c r="D1084" s="2"/>
+      <c r="E1084" s="2"/>
+      <c r="F1084" s="2"/>
+      <c r="G1084" s="2"/>
+      <c r="H1084" s="2"/>
+      <c r="I1084" s="2"/>
+      <c r="J1084" s="2"/>
+      <c r="K1084" s="2"/>
+      <c r="L1084" s="2"/>
+      <c r="M1084" s="2"/>
+      <c r="N1084" s="2"/>
+      <c r="O1084" s="2"/>
+      <c r="P1084" s="2"/>
+      <c r="Q1084" s="2"/>
+      <c r="R1084" s="2"/>
+      <c r="S1084" s="2"/>
+      <c r="T1084" s="2"/>
+      <c r="U1084" s="2"/>
+      <c r="V1084" s="2"/>
+      <c r="W1084" s="2"/>
+      <c r="X1084" s="2"/>
+      <c r="Y1084" s="2"/>
+      <c r="Z1084" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="230">
   <si>
     <t>ID</t>
   </si>
@@ -484,6 +484,27 @@
     <t>失敗</t>
   </si>
   <si>
+    <t>Pledge</t>
+  </si>
+  <si>
+    <t>質押</t>
+  </si>
+  <si>
+    <t>我的NFT</t>
+  </si>
+  <si>
+    <t>My NFT</t>
+  </si>
+  <si>
+    <t>我的 NFT</t>
+  </si>
+  <si>
+    <t>NFT is not owned yet.</t>
+  </si>
+  <si>
+    <t>NFT 尚未擁有。</t>
+  </si>
+  <si>
     <t>遊戲</t>
   </si>
   <si>
@@ -814,7 +835,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -898,6 +919,9 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3829,41 +3853,41 @@
       <c r="Z83" s="19"/>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="C84" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
-      <c r="Z84" s="2"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="13"/>
     </row>
     <row r="85">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -3894,10 +3918,10 @@
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
-      <c r="Z85" s="2"/>
+      <c r="Z85" s="15"/>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="20" t="s">
         <v>153</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -3928,46 +3952,52 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
+      <c r="Z86" s="15"/>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="C87" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
-      <c r="Z87" s="2"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="18"/>
+      <c r="Q87" s="18"/>
+      <c r="R87" s="18"/>
+      <c r="S87" s="18"/>
+      <c r="T87" s="18"/>
+      <c r="U87" s="18"/>
+      <c r="V87" s="18"/>
+      <c r="W87" s="18"/>
+      <c r="X87" s="18"/>
+      <c r="Y87" s="18"/>
+      <c r="Z87" s="19"/>
     </row>
     <row r="88">
-      <c r="A88" s="1"/>
-      <c r="B88" s="1"/>
-      <c r="C88" s="1"/>
+      <c r="A88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -3993,68 +4023,62 @@
       <c r="Z88" s="2"/>
     </row>
     <row r="89">
-      <c r="A89" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-      <c r="E89" s="4"/>
-      <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
-      <c r="H89" s="4"/>
-      <c r="I89" s="4"/>
-      <c r="J89" s="4"/>
-      <c r="K89" s="4"/>
-      <c r="L89" s="4"/>
-      <c r="M89" s="4"/>
-      <c r="N89" s="4"/>
-      <c r="O89" s="4"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="4"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="4"/>
-      <c r="T89" s="4"/>
-      <c r="U89" s="4"/>
-      <c r="V89" s="4"/>
-      <c r="W89" s="4"/>
-      <c r="X89" s="4"/>
-      <c r="Y89" s="4"/>
-      <c r="Z89" s="4"/>
+      <c r="A89" s="1"/>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
-      <c r="V90" s="2"/>
-      <c r="W90" s="2"/>
-      <c r="X90" s="2"/>
-      <c r="Y90" s="2"/>
-      <c r="Z90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
@@ -4125,15 +4149,9 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>166</v>
-      </c>
+      <c r="A93" s="1"/>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -4159,48 +4177,44 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>167</v>
+      <c r="A94" s="3" t="s">
+        <v>164</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
-      <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
-      <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
-      <c r="Z94" s="2"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
@@ -4228,13 +4242,13 @@
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -4262,13 +4276,13 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -4296,13 +4310,13 @@
     </row>
     <row r="98">
       <c r="A98" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -4330,13 +4344,13 @@
     </row>
     <row r="99">
       <c r="A99" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
@@ -4364,13 +4378,13 @@
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -4398,13 +4412,13 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -4432,13 +4446,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -4466,13 +4480,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -4500,13 +4514,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -4533,9 +4547,15 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="1"/>
-      <c r="B105" s="1"/>
-      <c r="C105" s="1"/>
+      <c r="A105" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -4561,44 +4581,48 @@
       <c r="Z105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="3" t="s">
-        <v>194</v>
+      <c r="A106" s="1" t="s">
+        <v>189</v>
       </c>
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
-      <c r="D106" s="4"/>
-      <c r="E106" s="4"/>
-      <c r="F106" s="4"/>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
-      <c r="I106" s="4"/>
-      <c r="J106" s="4"/>
-      <c r="K106" s="4"/>
-      <c r="L106" s="4"/>
-      <c r="M106" s="4"/>
-      <c r="N106" s="4"/>
-      <c r="O106" s="4"/>
-      <c r="P106" s="4"/>
-      <c r="Q106" s="4"/>
-      <c r="R106" s="4"/>
-      <c r="S106" s="4"/>
-      <c r="T106" s="4"/>
-      <c r="U106" s="4"/>
-      <c r="V106" s="4"/>
-      <c r="W106" s="4"/>
-      <c r="X106" s="4"/>
-      <c r="Y106" s="4"/>
-      <c r="Z106" s="4"/>
+      <c r="B106" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -4626,13 +4650,13 @@
     </row>
     <row r="108">
       <c r="A108" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -4660,13 +4684,13 @@
     </row>
     <row r="109">
       <c r="A109" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -4693,15 +4717,9 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>206</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -4727,48 +4745,44 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>207</v>
+      <c r="A111" s="3" t="s">
+        <v>201</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
-      <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
-      <c r="U111" s="2"/>
-      <c r="V111" s="2"/>
-      <c r="W111" s="2"/>
-      <c r="X111" s="2"/>
-      <c r="Y111" s="2"/>
-      <c r="Z111" s="2"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -4796,13 +4810,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -4830,13 +4844,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -4864,13 +4878,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4898,13 +4912,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -4931,9 +4945,15 @@
       <c r="Z116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="2"/>
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
+      <c r="A117" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -4959,9 +4979,15 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="2"/>
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
+      <c r="A118" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
@@ -4987,9 +5013,15 @@
       <c r="Z118" s="2"/>
     </row>
     <row r="119">
-      <c r="A119" s="2"/>
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
+      <c r="A119" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
@@ -5015,9 +5047,15 @@
       <c r="Z119" s="2"/>
     </row>
     <row r="120">
-      <c r="A120" s="2"/>
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
+      <c r="A120" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
@@ -5043,9 +5081,15 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="2"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
+      <c r="A121" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>229</v>
+      </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
@@ -32034,6 +32078,146 @@
       <c r="Y1084" s="2"/>
       <c r="Z1084" s="2"/>
     </row>
+    <row r="1085">
+      <c r="A1085" s="2"/>
+      <c r="B1085" s="2"/>
+      <c r="C1085" s="2"/>
+      <c r="D1085" s="2"/>
+      <c r="E1085" s="2"/>
+      <c r="F1085" s="2"/>
+      <c r="G1085" s="2"/>
+      <c r="H1085" s="2"/>
+      <c r="I1085" s="2"/>
+      <c r="J1085" s="2"/>
+      <c r="K1085" s="2"/>
+      <c r="L1085" s="2"/>
+      <c r="M1085" s="2"/>
+      <c r="N1085" s="2"/>
+      <c r="O1085" s="2"/>
+      <c r="P1085" s="2"/>
+      <c r="Q1085" s="2"/>
+      <c r="R1085" s="2"/>
+      <c r="S1085" s="2"/>
+      <c r="T1085" s="2"/>
+      <c r="U1085" s="2"/>
+      <c r="V1085" s="2"/>
+      <c r="W1085" s="2"/>
+      <c r="X1085" s="2"/>
+      <c r="Y1085" s="2"/>
+      <c r="Z1085" s="2"/>
+    </row>
+    <row r="1086">
+      <c r="A1086" s="2"/>
+      <c r="B1086" s="2"/>
+      <c r="C1086" s="2"/>
+      <c r="D1086" s="2"/>
+      <c r="E1086" s="2"/>
+      <c r="F1086" s="2"/>
+      <c r="G1086" s="2"/>
+      <c r="H1086" s="2"/>
+      <c r="I1086" s="2"/>
+      <c r="J1086" s="2"/>
+      <c r="K1086" s="2"/>
+      <c r="L1086" s="2"/>
+      <c r="M1086" s="2"/>
+      <c r="N1086" s="2"/>
+      <c r="O1086" s="2"/>
+      <c r="P1086" s="2"/>
+      <c r="Q1086" s="2"/>
+      <c r="R1086" s="2"/>
+      <c r="S1086" s="2"/>
+      <c r="T1086" s="2"/>
+      <c r="U1086" s="2"/>
+      <c r="V1086" s="2"/>
+      <c r="W1086" s="2"/>
+      <c r="X1086" s="2"/>
+      <c r="Y1086" s="2"/>
+      <c r="Z1086" s="2"/>
+    </row>
+    <row r="1087">
+      <c r="A1087" s="2"/>
+      <c r="B1087" s="2"/>
+      <c r="C1087" s="2"/>
+      <c r="D1087" s="2"/>
+      <c r="E1087" s="2"/>
+      <c r="F1087" s="2"/>
+      <c r="G1087" s="2"/>
+      <c r="H1087" s="2"/>
+      <c r="I1087" s="2"/>
+      <c r="J1087" s="2"/>
+      <c r="K1087" s="2"/>
+      <c r="L1087" s="2"/>
+      <c r="M1087" s="2"/>
+      <c r="N1087" s="2"/>
+      <c r="O1087" s="2"/>
+      <c r="P1087" s="2"/>
+      <c r="Q1087" s="2"/>
+      <c r="R1087" s="2"/>
+      <c r="S1087" s="2"/>
+      <c r="T1087" s="2"/>
+      <c r="U1087" s="2"/>
+      <c r="V1087" s="2"/>
+      <c r="W1087" s="2"/>
+      <c r="X1087" s="2"/>
+      <c r="Y1087" s="2"/>
+      <c r="Z1087" s="2"/>
+    </row>
+    <row r="1088">
+      <c r="A1088" s="2"/>
+      <c r="B1088" s="2"/>
+      <c r="C1088" s="2"/>
+      <c r="D1088" s="2"/>
+      <c r="E1088" s="2"/>
+      <c r="F1088" s="2"/>
+      <c r="G1088" s="2"/>
+      <c r="H1088" s="2"/>
+      <c r="I1088" s="2"/>
+      <c r="J1088" s="2"/>
+      <c r="K1088" s="2"/>
+      <c r="L1088" s="2"/>
+      <c r="M1088" s="2"/>
+      <c r="N1088" s="2"/>
+      <c r="O1088" s="2"/>
+      <c r="P1088" s="2"/>
+      <c r="Q1088" s="2"/>
+      <c r="R1088" s="2"/>
+      <c r="S1088" s="2"/>
+      <c r="T1088" s="2"/>
+      <c r="U1088" s="2"/>
+      <c r="V1088" s="2"/>
+      <c r="W1088" s="2"/>
+      <c r="X1088" s="2"/>
+      <c r="Y1088" s="2"/>
+      <c r="Z1088" s="2"/>
+    </row>
+    <row r="1089">
+      <c r="A1089" s="2"/>
+      <c r="B1089" s="2"/>
+      <c r="C1089" s="2"/>
+      <c r="D1089" s="2"/>
+      <c r="E1089" s="2"/>
+      <c r="F1089" s="2"/>
+      <c r="G1089" s="2"/>
+      <c r="H1089" s="2"/>
+      <c r="I1089" s="2"/>
+      <c r="J1089" s="2"/>
+      <c r="K1089" s="2"/>
+      <c r="L1089" s="2"/>
+      <c r="M1089" s="2"/>
+      <c r="N1089" s="2"/>
+      <c r="O1089" s="2"/>
+      <c r="P1089" s="2"/>
+      <c r="Q1089" s="2"/>
+      <c r="R1089" s="2"/>
+      <c r="S1089" s="2"/>
+      <c r="T1089" s="2"/>
+      <c r="U1089" s="2"/>
+      <c r="V1089" s="2"/>
+      <c r="W1089" s="2"/>
+      <c r="X1089" s="2"/>
+      <c r="Y1089" s="2"/>
+      <c r="Z1089" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="250">
   <si>
     <t>ID</t>
   </si>
@@ -205,6 +205,42 @@
     <t>交易結果</t>
   </si>
   <si>
+    <t>INTEGRAL</t>
+  </si>
+  <si>
+    <t>積分</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>現金</t>
+  </si>
+  <si>
+    <t>GOLD</t>
+  </si>
+  <si>
+    <t>GOLDEN</t>
+  </si>
+  <si>
+    <t>OF</t>
+  </si>
+  <si>
+    <t>之</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>點</t>
+  </si>
+  <si>
+    <t>Golden</t>
+  </si>
+  <si>
     <t>錯誤訊息</t>
   </si>
   <si>
@@ -334,15 +370,6 @@
     <t>大廳</t>
   </si>
   <si>
-    <t>Integral</t>
-  </si>
-  <si>
-    <t>INTEGRAL</t>
-  </si>
-  <si>
-    <t>積分</t>
-  </si>
-  <si>
     <t>Pairing</t>
   </si>
   <si>
@@ -397,25 +424,10 @@
     <t>僅顯示最近 3 個月的交易。</t>
   </si>
   <si>
-    <t>CASH</t>
-  </si>
-  <si>
-    <t>現金</t>
-  </si>
-  <si>
-    <t>GOLD</t>
-  </si>
-  <si>
     <t>VIRTUAL CODE</t>
   </si>
   <si>
     <t>虛擬程式碼</t>
-  </si>
-  <si>
-    <t>OF</t>
-  </si>
-  <si>
-    <t>之</t>
   </si>
   <si>
     <t>Date Range</t>
@@ -503,6 +515,54 @@
   </si>
   <si>
     <t>NFT 尚未擁有。</t>
+  </si>
+  <si>
+    <t>SEASON</t>
+  </si>
+  <si>
+    <t>季賽</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>上個賽季</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>當前賽季</t>
+  </si>
+  <si>
+    <t>My Rank</t>
+  </si>
+  <si>
+    <t>我的排名</t>
+  </si>
+  <si>
+    <t>Time Lest</t>
+  </si>
+  <si>
+    <t>賽季結束</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>天</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>時</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>分</t>
   </si>
   <si>
     <t>遊戲</t>
@@ -736,11 +796,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -835,7 +895,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -902,6 +962,25 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -914,14 +993,8 @@
     <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2149,366 +2222,356 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
-      <c r="U32" s="4"/>
-      <c r="V32" s="4"/>
-      <c r="W32" s="4"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
+      <c r="B32" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="12"/>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
+      <c r="X32" s="12"/>
+      <c r="Y32" s="12"/>
+      <c r="Z32" s="13"/>
     </row>
     <row r="33">
-      <c r="A33" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="A33" s="22" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
+      <c r="B33" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="24"/>
+      <c r="Y33" s="24"/>
+      <c r="Z33" s="25"/>
     </row>
     <row r="34">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="24"/>
+      <c r="S34" s="24"/>
+      <c r="T34" s="24"/>
+      <c r="U34" s="24"/>
+      <c r="V34" s="24"/>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="24"/>
+      <c r="Z34" s="25"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z35" s="28"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="24"/>
+      <c r="Q36" s="24"/>
+      <c r="R36" s="24"/>
+      <c r="S36" s="24"/>
+      <c r="T36" s="24"/>
+      <c r="U36" s="24"/>
+      <c r="V36" s="24"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
+      <c r="Z36" s="25"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
-      <c r="S37" s="4"/>
-      <c r="T37" s="4"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="15"/>
     </row>
     <row r="38">
-      <c r="A38" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="23"/>
-      <c r="S38" s="23"/>
-      <c r="T38" s="23"/>
-      <c r="U38" s="23"/>
-      <c r="V38" s="23"/>
-      <c r="W38" s="23"/>
-      <c r="X38" s="23"/>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
+      <c r="A38" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="15"/>
     </row>
     <row r="39">
-      <c r="A39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
+      <c r="A39" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="19"/>
     </row>
     <row r="40">
-      <c r="A40" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="5" t="s">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C42" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="6"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="P41" s="6"/>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="6"/>
-      <c r="T41" s="6"/>
-      <c r="U41" s="6"/>
-      <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-      <c r="X41" s="6"/>
-      <c r="Y41" s="6"/>
-      <c r="Z41" s="6"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="23"/>
-      <c r="S42" s="23"/>
-      <c r="T42" s="23"/>
-      <c r="U42" s="23"/>
-      <c r="V42" s="23"/>
-      <c r="W42" s="23"/>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="23"/>
-      <c r="Z42" s="23"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="S42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
@@ -2536,13 +2599,13 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
@@ -2569,15 +2632,9 @@
       <c r="Z44" s="6"/>
     </row>
     <row r="45">
-      <c r="A45" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>85</v>
-      </c>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -2603,108 +2660,108 @@
       <c r="Z45" s="6"/>
     </row>
     <row r="46">
-      <c r="A46" s="24" t="s">
+      <c r="A46" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="29"/>
+      <c r="C47" s="29"/>
+      <c r="D47" s="30"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="30"/>
+      <c r="P47" s="30"/>
+      <c r="Q47" s="30"/>
+      <c r="R47" s="30"/>
+      <c r="S47" s="30"/>
+      <c r="T47" s="30"/>
+      <c r="U47" s="30"/>
+      <c r="V47" s="30"/>
+      <c r="W47" s="30"/>
+      <c r="X47" s="30"/>
+      <c r="Y47" s="30"/>
+      <c r="Z47" s="30"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-      <c r="I46" s="25"/>
-      <c r="J46" s="25"/>
-      <c r="K46" s="25"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="25"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-      <c r="S46" s="25"/>
-      <c r="T46" s="25"/>
-      <c r="U46" s="25"/>
-      <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-      <c r="X46" s="25"/>
-      <c r="Y46" s="25"/>
-      <c r="Z46" s="25"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="6"/>
-      <c r="T47" s="6"/>
-      <c r="U47" s="6"/>
-      <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-      <c r="X47" s="6"/>
-      <c r="Y47" s="6"/>
-      <c r="Z47" s="6"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="23"/>
-      <c r="Z48" s="23"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
+      <c r="K48" s="6"/>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="O48" s="6"/>
+      <c r="P48" s="6"/>
+      <c r="Q48" s="6"/>
+      <c r="R48" s="6"/>
+      <c r="S48" s="6"/>
+      <c r="T48" s="6"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="6"/>
+      <c r="W48" s="6"/>
+      <c r="X48" s="6"/>
+      <c r="Y48" s="6"/>
+      <c r="Z48" s="6"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D49" s="6"/>
       <c r="E49" s="6"/>
@@ -2732,13 +2789,13 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>90</v>
       </c>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
@@ -2765,78 +2822,78 @@
       <c r="Z50" s="6"/>
     </row>
     <row r="51">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B51" s="29"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="30"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="30"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="30"/>
+      <c r="P51" s="30"/>
+      <c r="Q51" s="30"/>
+      <c r="R51" s="30"/>
+      <c r="S51" s="30"/>
+      <c r="T51" s="30"/>
+      <c r="U51" s="30"/>
+      <c r="V51" s="30"/>
+      <c r="W51" s="30"/>
+      <c r="X51" s="30"/>
+      <c r="Y51" s="30"/>
+      <c r="Z51" s="30"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="6"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="6"/>
+      <c r="N52" s="6"/>
+      <c r="O52" s="6"/>
+      <c r="P52" s="6"/>
+      <c r="Q52" s="6"/>
+      <c r="R52" s="6"/>
+      <c r="S52" s="6"/>
+      <c r="T52" s="6"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="6"/>
+      <c r="W52" s="6"/>
+      <c r="X52" s="6"/>
+      <c r="Y52" s="6"/>
+      <c r="Z52" s="6"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-      <c r="O51" s="6"/>
-      <c r="P51" s="6"/>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="6"/>
-      <c r="T51" s="6"/>
-      <c r="U51" s="6"/>
-      <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-      <c r="X51" s="6"/>
-      <c r="Y51" s="6"/>
-      <c r="Z51" s="6"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="22" t="s">
+      <c r="B53" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="23"/>
-      <c r="Z52" s="23"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -2863,140 +2920,142 @@
       <c r="Z53" s="6"/>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="32"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="32"/>
+      <c r="P55" s="32"/>
+      <c r="Q55" s="32"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
+      <c r="Z55" s="32"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="2"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="3" t="s">
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+      <c r="N56" s="6"/>
+      <c r="O56" s="6"/>
+      <c r="P56" s="6"/>
+      <c r="Q56" s="6"/>
+      <c r="R56" s="6"/>
+      <c r="S56" s="6"/>
+      <c r="T56" s="6"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="6"/>
+      <c r="W56" s="6"/>
+      <c r="X56" s="6"/>
+      <c r="Y56" s="6"/>
+      <c r="Z56" s="6"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
+      <c r="B57" s="29"/>
+      <c r="C57" s="29"/>
+      <c r="D57" s="30"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="30"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="30"/>
+      <c r="P57" s="30"/>
+      <c r="Q57" s="30"/>
+      <c r="R57" s="30"/>
+      <c r="S57" s="30"/>
+      <c r="T57" s="30"/>
+      <c r="U57" s="30"/>
+      <c r="V57" s="30"/>
+      <c r="W57" s="30"/>
+      <c r="X57" s="30"/>
+      <c r="Y57" s="30"/>
+      <c r="Z57" s="30"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -3024,13 +3083,13 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>105</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -3057,9 +3116,15 @@
       <c r="Z59" s="6"/>
     </row>
     <row r="60">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="A60" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>106</v>
+      </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3085,68 +3150,68 @@
       <c r="Z60" s="6"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
+      <c r="A61" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="30"/>
+      <c r="E61" s="30"/>
+      <c r="F61" s="30"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="30"/>
+      <c r="I61" s="30"/>
+      <c r="J61" s="30"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="30"/>
+      <c r="P61" s="30"/>
+      <c r="Q61" s="30"/>
+      <c r="R61" s="30"/>
+      <c r="S61" s="30"/>
+      <c r="T61" s="30"/>
+      <c r="U61" s="30"/>
+      <c r="V61" s="30"/>
+      <c r="W61" s="30"/>
+      <c r="X61" s="30"/>
+      <c r="Y61" s="30"/>
+      <c r="Z61" s="30"/>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="s">
-        <v>107</v>
+      <c r="A62" s="33" t="s">
+        <v>108</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-      <c r="J62" s="2"/>
-      <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2"/>
-      <c r="S62" s="2"/>
-      <c r="T62" s="2"/>
-      <c r="U62" s="2"/>
-      <c r="V62" s="2"/>
-      <c r="W62" s="2"/>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
@@ -3155,7 +3220,7 @@
       <c r="B63" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="7" t="s">
         <v>111</v>
       </c>
       <c r="D63" s="2"/>
@@ -3183,206 +3248,196 @@
       <c r="Z63" s="2"/>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="5"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="4"/>
+      <c r="N65" s="4"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="4"/>
+      <c r="Q65" s="4"/>
+      <c r="R65" s="4"/>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="B66" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-      <c r="J64" s="2"/>
-      <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2"/>
-      <c r="S64" s="2"/>
-      <c r="T64" s="2"/>
-      <c r="U64" s="2"/>
-      <c r="V64" s="2"/>
-      <c r="W64" s="2"/>
-      <c r="X64" s="2"/>
-      <c r="Y64" s="2"/>
-      <c r="Z64" s="2"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="s">
+      <c r="B67" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C65" s="1" t="s">
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="2"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="s">
+      <c r="B68" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
-      <c r="R68" s="2"/>
-      <c r="S68" s="2"/>
-      <c r="T68" s="2"/>
-      <c r="U68" s="2"/>
-      <c r="V68" s="2"/>
-      <c r="W68" s="2"/>
-      <c r="X68" s="2"/>
-      <c r="Y68" s="2"/>
-      <c r="Z68" s="2"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
     </row>
     <row r="69">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="6"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
+      <c r="K69" s="6"/>
+      <c r="L69" s="6"/>
+      <c r="M69" s="6"/>
+      <c r="N69" s="6"/>
+      <c r="O69" s="6"/>
+      <c r="P69" s="6"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="6"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="6"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="6"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="6"/>
+      <c r="Y69" s="6"/>
+      <c r="Z69" s="6"/>
     </row>
     <row r="70">
       <c r="A70" s="3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -3412,13 +3467,13 @@
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
@@ -3446,13 +3501,13 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -3480,13 +3535,13 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -3513,14 +3568,14 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="27" t="s">
-        <v>130</v>
+      <c r="A74" s="1" t="s">
+        <v>126</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>51</v>
+        <v>127</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
@@ -3548,13 +3603,13 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -3582,13 +3637,13 @@
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
@@ -3615,150 +3670,140 @@
       <c r="Z76" s="2"/>
     </row>
     <row r="77">
-      <c r="A77" s="9" t="s">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="4"/>
+      <c r="Q78" s="4"/>
+      <c r="R78" s="4"/>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B80" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C77" s="11" t="s">
+      <c r="C80" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="12"/>
-      <c r="O77" s="12"/>
-      <c r="P77" s="12"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="12"/>
-      <c r="S77" s="12"/>
-      <c r="T77" s="12"/>
-      <c r="U77" s="12"/>
-      <c r="V77" s="12"/>
-      <c r="W77" s="12"/>
-      <c r="X77" s="12"/>
-      <c r="Y77" s="12"/>
-      <c r="Z77" s="13"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="20" t="s">
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B81" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="15"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B79" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="C79" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="D79" s="18"/>
-      <c r="E79" s="18"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
-      <c r="I79" s="18"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="18"/>
-      <c r="L79" s="18"/>
-      <c r="M79" s="18"/>
-      <c r="N79" s="18"/>
-      <c r="O79" s="18"/>
-      <c r="P79" s="18"/>
-      <c r="Q79" s="18"/>
-      <c r="R79" s="18"/>
-      <c r="S79" s="18"/>
-      <c r="T79" s="18"/>
-      <c r="U79" s="18"/>
-      <c r="V79" s="18"/>
-      <c r="W79" s="18"/>
-      <c r="X79" s="18"/>
-      <c r="Y79" s="18"/>
-      <c r="Z79" s="19"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-      <c r="H80" s="12"/>
-      <c r="I80" s="12"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="12"/>
-      <c r="N80" s="12"/>
-      <c r="O80" s="12"/>
-      <c r="P80" s="12"/>
-      <c r="Q80" s="12"/>
-      <c r="R80" s="12"/>
-      <c r="S80" s="12"/>
-      <c r="T80" s="12"/>
-      <c r="U80" s="12"/>
-      <c r="V80" s="12"/>
-      <c r="W80" s="12"/>
-      <c r="X80" s="12"/>
-      <c r="Y80" s="12"/>
-      <c r="Z80" s="13"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3782,153 +3827,153 @@
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
-      <c r="Z81" s="15"/>
+      <c r="Z81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="20" t="s">
+      <c r="A82" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="13"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="15"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B84" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C84" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="18"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+      <c r="O84" s="18"/>
+      <c r="P84" s="18"/>
+      <c r="Q84" s="18"/>
+      <c r="R84" s="18"/>
+      <c r="S84" s="18"/>
+      <c r="T84" s="18"/>
+      <c r="U84" s="18"/>
+      <c r="V84" s="18"/>
+      <c r="W84" s="18"/>
+      <c r="X84" s="18"/>
+      <c r="Y84" s="18"/>
+      <c r="Z84" s="19"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B85" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="C85" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-      <c r="Z82" s="15"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="D83" s="18"/>
-      <c r="E83" s="18"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="18"/>
-      <c r="I83" s="18"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="18"/>
-      <c r="L83" s="18"/>
-      <c r="M83" s="18"/>
-      <c r="N83" s="18"/>
-      <c r="O83" s="18"/>
-      <c r="P83" s="18"/>
-      <c r="Q83" s="18"/>
-      <c r="R83" s="18"/>
-      <c r="S83" s="18"/>
-      <c r="T83" s="18"/>
-      <c r="U83" s="18"/>
-      <c r="V83" s="18"/>
-      <c r="W83" s="18"/>
-      <c r="X83" s="18"/>
-      <c r="Y83" s="18"/>
-      <c r="Z83" s="19"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12"/>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="12"/>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="12"/>
-      <c r="P84" s="12"/>
-      <c r="Q84" s="12"/>
-      <c r="R84" s="12"/>
-      <c r="S84" s="12"/>
-      <c r="T84" s="12"/>
-      <c r="U84" s="12"/>
-      <c r="V84" s="12"/>
-      <c r="W84" s="12"/>
-      <c r="X84" s="12"/>
-      <c r="Y84" s="12"/>
-      <c r="Z84" s="13"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="2"/>
-      <c r="V85" s="2"/>
-      <c r="W85" s="2"/>
-      <c r="X85" s="2"/>
-      <c r="Y85" s="2"/>
-      <c r="Z85" s="15"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="13"/>
     </row>
     <row r="86">
       <c r="A86" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3955,140 +4000,150 @@
       <c r="Z86" s="15"/>
     </row>
     <row r="87">
-      <c r="A87" s="16" t="s">
+      <c r="A87" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="15"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+      <c r="O88" s="18"/>
+      <c r="P88" s="18"/>
+      <c r="Q88" s="18"/>
+      <c r="R88" s="18"/>
+      <c r="S88" s="18"/>
+      <c r="T88" s="18"/>
+      <c r="U88" s="18"/>
+      <c r="V88" s="18"/>
+      <c r="W88" s="18"/>
+      <c r="X88" s="18"/>
+      <c r="Y88" s="18"/>
+      <c r="Z88" s="19"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="13"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="B87" s="17" t="s">
+      <c r="B90" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C87" s="17" t="s">
+      <c r="C90" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D87" s="18"/>
-      <c r="E87" s="18"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="18"/>
-      <c r="N87" s="18"/>
-      <c r="O87" s="18"/>
-      <c r="P87" s="18"/>
-      <c r="Q87" s="18"/>
-      <c r="R87" s="18"/>
-      <c r="S87" s="18"/>
-      <c r="T87" s="18"/>
-      <c r="U87" s="18"/>
-      <c r="V87" s="18"/>
-      <c r="W87" s="18"/>
-      <c r="X87" s="18"/>
-      <c r="Y87" s="18"/>
-      <c r="Z87" s="19"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="s">
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="15"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
-      <c r="Z88" s="2"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="1"/>
-      <c r="B89" s="1"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
-      <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
-      <c r="Z89" s="2"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="4"/>
-      <c r="X90" s="4"/>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="4"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -4112,46 +4167,52 @@
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
-      <c r="Z91" s="2"/>
+      <c r="Z91" s="15"/>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="B92" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="C92" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="18"/>
+      <c r="Q92" s="18"/>
+      <c r="R92" s="18"/>
+      <c r="S92" s="18"/>
+      <c r="T92" s="18"/>
+      <c r="U92" s="18"/>
+      <c r="V92" s="18"/>
+      <c r="W92" s="18"/>
+      <c r="X92" s="18"/>
+      <c r="Y92" s="18"/>
+      <c r="Z92" s="19"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
-      <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-      <c r="Z92" s="2"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1"/>
-      <c r="B93" s="1"/>
-      <c r="C93" s="1"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -4177,78 +4238,72 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-      <c r="S94" s="4"/>
-      <c r="T94" s="4"/>
-      <c r="U94" s="4"/>
-      <c r="V94" s="4"/>
-      <c r="W94" s="4"/>
-      <c r="X94" s="4"/>
-      <c r="Y94" s="4"/>
-      <c r="Z94" s="4"/>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="2"/>
-      <c r="V95" s="2"/>
-      <c r="W95" s="2"/>
-      <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
-      <c r="Z95" s="2"/>
+      <c r="A95" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -4276,13 +4331,13 @@
     </row>
     <row r="97">
       <c r="A97" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -4309,15 +4364,9 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -4343,48 +4392,44 @@
       <c r="Z98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
-      <c r="W99" s="2"/>
-      <c r="X99" s="2"/>
-      <c r="Y99" s="2"/>
-      <c r="Z99" s="2"/>
+      <c r="A99" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -4412,13 +4457,13 @@
     </row>
     <row r="101">
       <c r="A101" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -4446,13 +4491,13 @@
     </row>
     <row r="102">
       <c r="A102" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -4480,13 +4525,13 @@
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -4514,13 +4559,13 @@
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -4548,13 +4593,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -4582,13 +4627,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4616,13 +4661,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -4649,15 +4694,9 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -4683,15 +4722,9 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -4717,72 +4750,78 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="2"/>
-      <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
-      <c r="V110" s="2"/>
-      <c r="W110" s="2"/>
-      <c r="X110" s="2"/>
-      <c r="Y110" s="2"/>
-      <c r="Z110" s="2"/>
+      <c r="A110" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
-      <c r="P111" s="4"/>
-      <c r="Q111" s="4"/>
-      <c r="R111" s="4"/>
-      <c r="S111" s="4"/>
-      <c r="T111" s="4"/>
-      <c r="U111" s="4"/>
-      <c r="V111" s="4"/>
-      <c r="W111" s="4"/>
-      <c r="X111" s="4"/>
-      <c r="Y111" s="4"/>
-      <c r="Z111" s="4"/>
+      <c r="A111" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -4810,13 +4849,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -4844,13 +4883,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -4878,13 +4917,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4912,13 +4951,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -4946,13 +4985,13 @@
     </row>
     <row r="117">
       <c r="A117" s="1" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
@@ -4980,13 +5019,13 @@
     </row>
     <row r="118">
       <c r="A118" s="1" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5014,13 +5053,13 @@
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5048,13 +5087,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>225</v>
+        <v>205</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5082,13 +5121,13 @@
     </row>
     <row r="121">
       <c r="A121" s="1" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>229</v>
+        <v>208</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5115,9 +5154,15 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="2"/>
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
+      <c r="A122" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -5143,9 +5188,15 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="2"/>
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
+      <c r="A123" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -5171,9 +5222,15 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="2"/>
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
+      <c r="A124" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -5199,9 +5256,15 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="2"/>
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
+      <c r="A125" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>220</v>
+      </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -5227,9 +5290,9 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="2"/>
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
+      <c r="A126" s="1"/>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
@@ -5255,37 +5318,45 @@
       <c r="Z126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="2"/>
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
-      <c r="T127" s="2"/>
-      <c r="U127" s="2"/>
-      <c r="V127" s="2"/>
-      <c r="W127" s="2"/>
-      <c r="X127" s="2"/>
-      <c r="Y127" s="2"/>
-      <c r="Z127" s="2"/>
+      <c r="A127" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="4"/>
+      <c r="Q127" s="4"/>
+      <c r="R127" s="4"/>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="4"/>
     </row>
     <row r="128">
-      <c r="A128" s="2"/>
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
+      <c r="A128" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -5311,9 +5382,15 @@
       <c r="Z128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="2"/>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
+      <c r="A129" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -5339,9 +5416,15 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="2"/>
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
+      <c r="A130" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -5367,9 +5450,15 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="2"/>
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
+      <c r="A131" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -5395,9 +5484,15 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="2"/>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
+      <c r="A132" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -5423,9 +5518,15 @@
       <c r="Z132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="2"/>
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
+      <c r="A133" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -5451,9 +5552,15 @@
       <c r="Z133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="2"/>
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
+      <c r="A134" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -5479,9 +5586,15 @@
       <c r="Z134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="2"/>
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
+      <c r="A135" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -5507,9 +5620,15 @@
       <c r="Z135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="2"/>
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
+      <c r="A136" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>246</v>
+      </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -5535,9 +5654,15 @@
       <c r="Z136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="2"/>
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
+      <c r="A137" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -32218,6 +32343,454 @@
       <c r="Y1089" s="2"/>
       <c r="Z1089" s="2"/>
     </row>
+    <row r="1090">
+      <c r="A1090" s="2"/>
+      <c r="B1090" s="2"/>
+      <c r="C1090" s="2"/>
+      <c r="D1090" s="2"/>
+      <c r="E1090" s="2"/>
+      <c r="F1090" s="2"/>
+      <c r="G1090" s="2"/>
+      <c r="H1090" s="2"/>
+      <c r="I1090" s="2"/>
+      <c r="J1090" s="2"/>
+      <c r="K1090" s="2"/>
+      <c r="L1090" s="2"/>
+      <c r="M1090" s="2"/>
+      <c r="N1090" s="2"/>
+      <c r="O1090" s="2"/>
+      <c r="P1090" s="2"/>
+      <c r="Q1090" s="2"/>
+      <c r="R1090" s="2"/>
+      <c r="S1090" s="2"/>
+      <c r="T1090" s="2"/>
+      <c r="U1090" s="2"/>
+      <c r="V1090" s="2"/>
+      <c r="W1090" s="2"/>
+      <c r="X1090" s="2"/>
+      <c r="Y1090" s="2"/>
+      <c r="Z1090" s="2"/>
+    </row>
+    <row r="1091">
+      <c r="A1091" s="2"/>
+      <c r="B1091" s="2"/>
+      <c r="C1091" s="2"/>
+      <c r="D1091" s="2"/>
+      <c r="E1091" s="2"/>
+      <c r="F1091" s="2"/>
+      <c r="G1091" s="2"/>
+      <c r="H1091" s="2"/>
+      <c r="I1091" s="2"/>
+      <c r="J1091" s="2"/>
+      <c r="K1091" s="2"/>
+      <c r="L1091" s="2"/>
+      <c r="M1091" s="2"/>
+      <c r="N1091" s="2"/>
+      <c r="O1091" s="2"/>
+      <c r="P1091" s="2"/>
+      <c r="Q1091" s="2"/>
+      <c r="R1091" s="2"/>
+      <c r="S1091" s="2"/>
+      <c r="T1091" s="2"/>
+      <c r="U1091" s="2"/>
+      <c r="V1091" s="2"/>
+      <c r="W1091" s="2"/>
+      <c r="X1091" s="2"/>
+      <c r="Y1091" s="2"/>
+      <c r="Z1091" s="2"/>
+    </row>
+    <row r="1092">
+      <c r="A1092" s="2"/>
+      <c r="B1092" s="2"/>
+      <c r="C1092" s="2"/>
+      <c r="D1092" s="2"/>
+      <c r="E1092" s="2"/>
+      <c r="F1092" s="2"/>
+      <c r="G1092" s="2"/>
+      <c r="H1092" s="2"/>
+      <c r="I1092" s="2"/>
+      <c r="J1092" s="2"/>
+      <c r="K1092" s="2"/>
+      <c r="L1092" s="2"/>
+      <c r="M1092" s="2"/>
+      <c r="N1092" s="2"/>
+      <c r="O1092" s="2"/>
+      <c r="P1092" s="2"/>
+      <c r="Q1092" s="2"/>
+      <c r="R1092" s="2"/>
+      <c r="S1092" s="2"/>
+      <c r="T1092" s="2"/>
+      <c r="U1092" s="2"/>
+      <c r="V1092" s="2"/>
+      <c r="W1092" s="2"/>
+      <c r="X1092" s="2"/>
+      <c r="Y1092" s="2"/>
+      <c r="Z1092" s="2"/>
+    </row>
+    <row r="1093">
+      <c r="A1093" s="2"/>
+      <c r="B1093" s="2"/>
+      <c r="C1093" s="2"/>
+      <c r="D1093" s="2"/>
+      <c r="E1093" s="2"/>
+      <c r="F1093" s="2"/>
+      <c r="G1093" s="2"/>
+      <c r="H1093" s="2"/>
+      <c r="I1093" s="2"/>
+      <c r="J1093" s="2"/>
+      <c r="K1093" s="2"/>
+      <c r="L1093" s="2"/>
+      <c r="M1093" s="2"/>
+      <c r="N1093" s="2"/>
+      <c r="O1093" s="2"/>
+      <c r="P1093" s="2"/>
+      <c r="Q1093" s="2"/>
+      <c r="R1093" s="2"/>
+      <c r="S1093" s="2"/>
+      <c r="T1093" s="2"/>
+      <c r="U1093" s="2"/>
+      <c r="V1093" s="2"/>
+      <c r="W1093" s="2"/>
+      <c r="X1093" s="2"/>
+      <c r="Y1093" s="2"/>
+      <c r="Z1093" s="2"/>
+    </row>
+    <row r="1094">
+      <c r="A1094" s="2"/>
+      <c r="B1094" s="2"/>
+      <c r="C1094" s="2"/>
+      <c r="D1094" s="2"/>
+      <c r="E1094" s="2"/>
+      <c r="F1094" s="2"/>
+      <c r="G1094" s="2"/>
+      <c r="H1094" s="2"/>
+      <c r="I1094" s="2"/>
+      <c r="J1094" s="2"/>
+      <c r="K1094" s="2"/>
+      <c r="L1094" s="2"/>
+      <c r="M1094" s="2"/>
+      <c r="N1094" s="2"/>
+      <c r="O1094" s="2"/>
+      <c r="P1094" s="2"/>
+      <c r="Q1094" s="2"/>
+      <c r="R1094" s="2"/>
+      <c r="S1094" s="2"/>
+      <c r="T1094" s="2"/>
+      <c r="U1094" s="2"/>
+      <c r="V1094" s="2"/>
+      <c r="W1094" s="2"/>
+      <c r="X1094" s="2"/>
+      <c r="Y1094" s="2"/>
+      <c r="Z1094" s="2"/>
+    </row>
+    <row r="1095">
+      <c r="A1095" s="2"/>
+      <c r="B1095" s="2"/>
+      <c r="C1095" s="2"/>
+      <c r="D1095" s="2"/>
+      <c r="E1095" s="2"/>
+      <c r="F1095" s="2"/>
+      <c r="G1095" s="2"/>
+      <c r="H1095" s="2"/>
+      <c r="I1095" s="2"/>
+      <c r="J1095" s="2"/>
+      <c r="K1095" s="2"/>
+      <c r="L1095" s="2"/>
+      <c r="M1095" s="2"/>
+      <c r="N1095" s="2"/>
+      <c r="O1095" s="2"/>
+      <c r="P1095" s="2"/>
+      <c r="Q1095" s="2"/>
+      <c r="R1095" s="2"/>
+      <c r="S1095" s="2"/>
+      <c r="T1095" s="2"/>
+      <c r="U1095" s="2"/>
+      <c r="V1095" s="2"/>
+      <c r="W1095" s="2"/>
+      <c r="X1095" s="2"/>
+      <c r="Y1095" s="2"/>
+      <c r="Z1095" s="2"/>
+    </row>
+    <row r="1096">
+      <c r="A1096" s="2"/>
+      <c r="B1096" s="2"/>
+      <c r="C1096" s="2"/>
+      <c r="D1096" s="2"/>
+      <c r="E1096" s="2"/>
+      <c r="F1096" s="2"/>
+      <c r="G1096" s="2"/>
+      <c r="H1096" s="2"/>
+      <c r="I1096" s="2"/>
+      <c r="J1096" s="2"/>
+      <c r="K1096" s="2"/>
+      <c r="L1096" s="2"/>
+      <c r="M1096" s="2"/>
+      <c r="N1096" s="2"/>
+      <c r="O1096" s="2"/>
+      <c r="P1096" s="2"/>
+      <c r="Q1096" s="2"/>
+      <c r="R1096" s="2"/>
+      <c r="S1096" s="2"/>
+      <c r="T1096" s="2"/>
+      <c r="U1096" s="2"/>
+      <c r="V1096" s="2"/>
+      <c r="W1096" s="2"/>
+      <c r="X1096" s="2"/>
+      <c r="Y1096" s="2"/>
+      <c r="Z1096" s="2"/>
+    </row>
+    <row r="1097">
+      <c r="A1097" s="2"/>
+      <c r="B1097" s="2"/>
+      <c r="C1097" s="2"/>
+      <c r="D1097" s="2"/>
+      <c r="E1097" s="2"/>
+      <c r="F1097" s="2"/>
+      <c r="G1097" s="2"/>
+      <c r="H1097" s="2"/>
+      <c r="I1097" s="2"/>
+      <c r="J1097" s="2"/>
+      <c r="K1097" s="2"/>
+      <c r="L1097" s="2"/>
+      <c r="M1097" s="2"/>
+      <c r="N1097" s="2"/>
+      <c r="O1097" s="2"/>
+      <c r="P1097" s="2"/>
+      <c r="Q1097" s="2"/>
+      <c r="R1097" s="2"/>
+      <c r="S1097" s="2"/>
+      <c r="T1097" s="2"/>
+      <c r="U1097" s="2"/>
+      <c r="V1097" s="2"/>
+      <c r="W1097" s="2"/>
+      <c r="X1097" s="2"/>
+      <c r="Y1097" s="2"/>
+      <c r="Z1097" s="2"/>
+    </row>
+    <row r="1098">
+      <c r="A1098" s="2"/>
+      <c r="B1098" s="2"/>
+      <c r="C1098" s="2"/>
+      <c r="D1098" s="2"/>
+      <c r="E1098" s="2"/>
+      <c r="F1098" s="2"/>
+      <c r="G1098" s="2"/>
+      <c r="H1098" s="2"/>
+      <c r="I1098" s="2"/>
+      <c r="J1098" s="2"/>
+      <c r="K1098" s="2"/>
+      <c r="L1098" s="2"/>
+      <c r="M1098" s="2"/>
+      <c r="N1098" s="2"/>
+      <c r="O1098" s="2"/>
+      <c r="P1098" s="2"/>
+      <c r="Q1098" s="2"/>
+      <c r="R1098" s="2"/>
+      <c r="S1098" s="2"/>
+      <c r="T1098" s="2"/>
+      <c r="U1098" s="2"/>
+      <c r="V1098" s="2"/>
+      <c r="W1098" s="2"/>
+      <c r="X1098" s="2"/>
+      <c r="Y1098" s="2"/>
+      <c r="Z1098" s="2"/>
+    </row>
+    <row r="1099">
+      <c r="A1099" s="2"/>
+      <c r="B1099" s="2"/>
+      <c r="C1099" s="2"/>
+      <c r="D1099" s="2"/>
+      <c r="E1099" s="2"/>
+      <c r="F1099" s="2"/>
+      <c r="G1099" s="2"/>
+      <c r="H1099" s="2"/>
+      <c r="I1099" s="2"/>
+      <c r="J1099" s="2"/>
+      <c r="K1099" s="2"/>
+      <c r="L1099" s="2"/>
+      <c r="M1099" s="2"/>
+      <c r="N1099" s="2"/>
+      <c r="O1099" s="2"/>
+      <c r="P1099" s="2"/>
+      <c r="Q1099" s="2"/>
+      <c r="R1099" s="2"/>
+      <c r="S1099" s="2"/>
+      <c r="T1099" s="2"/>
+      <c r="U1099" s="2"/>
+      <c r="V1099" s="2"/>
+      <c r="W1099" s="2"/>
+      <c r="X1099" s="2"/>
+      <c r="Y1099" s="2"/>
+      <c r="Z1099" s="2"/>
+    </row>
+    <row r="1100">
+      <c r="A1100" s="2"/>
+      <c r="B1100" s="2"/>
+      <c r="C1100" s="2"/>
+      <c r="D1100" s="2"/>
+      <c r="E1100" s="2"/>
+      <c r="F1100" s="2"/>
+      <c r="G1100" s="2"/>
+      <c r="H1100" s="2"/>
+      <c r="I1100" s="2"/>
+      <c r="J1100" s="2"/>
+      <c r="K1100" s="2"/>
+      <c r="L1100" s="2"/>
+      <c r="M1100" s="2"/>
+      <c r="N1100" s="2"/>
+      <c r="O1100" s="2"/>
+      <c r="P1100" s="2"/>
+      <c r="Q1100" s="2"/>
+      <c r="R1100" s="2"/>
+      <c r="S1100" s="2"/>
+      <c r="T1100" s="2"/>
+      <c r="U1100" s="2"/>
+      <c r="V1100" s="2"/>
+      <c r="W1100" s="2"/>
+      <c r="X1100" s="2"/>
+      <c r="Y1100" s="2"/>
+      <c r="Z1100" s="2"/>
+    </row>
+    <row r="1101">
+      <c r="A1101" s="2"/>
+      <c r="B1101" s="2"/>
+      <c r="C1101" s="2"/>
+      <c r="D1101" s="2"/>
+      <c r="E1101" s="2"/>
+      <c r="F1101" s="2"/>
+      <c r="G1101" s="2"/>
+      <c r="H1101" s="2"/>
+      <c r="I1101" s="2"/>
+      <c r="J1101" s="2"/>
+      <c r="K1101" s="2"/>
+      <c r="L1101" s="2"/>
+      <c r="M1101" s="2"/>
+      <c r="N1101" s="2"/>
+      <c r="O1101" s="2"/>
+      <c r="P1101" s="2"/>
+      <c r="Q1101" s="2"/>
+      <c r="R1101" s="2"/>
+      <c r="S1101" s="2"/>
+      <c r="T1101" s="2"/>
+      <c r="U1101" s="2"/>
+      <c r="V1101" s="2"/>
+      <c r="W1101" s="2"/>
+      <c r="X1101" s="2"/>
+      <c r="Y1101" s="2"/>
+      <c r="Z1101" s="2"/>
+    </row>
+    <row r="1102">
+      <c r="A1102" s="2"/>
+      <c r="B1102" s="2"/>
+      <c r="C1102" s="2"/>
+      <c r="D1102" s="2"/>
+      <c r="E1102" s="2"/>
+      <c r="F1102" s="2"/>
+      <c r="G1102" s="2"/>
+      <c r="H1102" s="2"/>
+      <c r="I1102" s="2"/>
+      <c r="J1102" s="2"/>
+      <c r="K1102" s="2"/>
+      <c r="L1102" s="2"/>
+      <c r="M1102" s="2"/>
+      <c r="N1102" s="2"/>
+      <c r="O1102" s="2"/>
+      <c r="P1102" s="2"/>
+      <c r="Q1102" s="2"/>
+      <c r="R1102" s="2"/>
+      <c r="S1102" s="2"/>
+      <c r="T1102" s="2"/>
+      <c r="U1102" s="2"/>
+      <c r="V1102" s="2"/>
+      <c r="W1102" s="2"/>
+      <c r="X1102" s="2"/>
+      <c r="Y1102" s="2"/>
+      <c r="Z1102" s="2"/>
+    </row>
+    <row r="1103">
+      <c r="A1103" s="2"/>
+      <c r="B1103" s="2"/>
+      <c r="C1103" s="2"/>
+      <c r="D1103" s="2"/>
+      <c r="E1103" s="2"/>
+      <c r="F1103" s="2"/>
+      <c r="G1103" s="2"/>
+      <c r="H1103" s="2"/>
+      <c r="I1103" s="2"/>
+      <c r="J1103" s="2"/>
+      <c r="K1103" s="2"/>
+      <c r="L1103" s="2"/>
+      <c r="M1103" s="2"/>
+      <c r="N1103" s="2"/>
+      <c r="O1103" s="2"/>
+      <c r="P1103" s="2"/>
+      <c r="Q1103" s="2"/>
+      <c r="R1103" s="2"/>
+      <c r="S1103" s="2"/>
+      <c r="T1103" s="2"/>
+      <c r="U1103" s="2"/>
+      <c r="V1103" s="2"/>
+      <c r="W1103" s="2"/>
+      <c r="X1103" s="2"/>
+      <c r="Y1103" s="2"/>
+      <c r="Z1103" s="2"/>
+    </row>
+    <row r="1104">
+      <c r="A1104" s="2"/>
+      <c r="B1104" s="2"/>
+      <c r="C1104" s="2"/>
+      <c r="D1104" s="2"/>
+      <c r="E1104" s="2"/>
+      <c r="F1104" s="2"/>
+      <c r="G1104" s="2"/>
+      <c r="H1104" s="2"/>
+      <c r="I1104" s="2"/>
+      <c r="J1104" s="2"/>
+      <c r="K1104" s="2"/>
+      <c r="L1104" s="2"/>
+      <c r="M1104" s="2"/>
+      <c r="N1104" s="2"/>
+      <c r="O1104" s="2"/>
+      <c r="P1104" s="2"/>
+      <c r="Q1104" s="2"/>
+      <c r="R1104" s="2"/>
+      <c r="S1104" s="2"/>
+      <c r="T1104" s="2"/>
+      <c r="U1104" s="2"/>
+      <c r="V1104" s="2"/>
+      <c r="W1104" s="2"/>
+      <c r="X1104" s="2"/>
+      <c r="Y1104" s="2"/>
+      <c r="Z1104" s="2"/>
+    </row>
+    <row r="1105">
+      <c r="A1105" s="2"/>
+      <c r="B1105" s="2"/>
+      <c r="C1105" s="2"/>
+      <c r="D1105" s="2"/>
+      <c r="E1105" s="2"/>
+      <c r="F1105" s="2"/>
+      <c r="G1105" s="2"/>
+      <c r="H1105" s="2"/>
+      <c r="I1105" s="2"/>
+      <c r="J1105" s="2"/>
+      <c r="K1105" s="2"/>
+      <c r="L1105" s="2"/>
+      <c r="M1105" s="2"/>
+      <c r="N1105" s="2"/>
+      <c r="O1105" s="2"/>
+      <c r="P1105" s="2"/>
+      <c r="Q1105" s="2"/>
+      <c r="R1105" s="2"/>
+      <c r="S1105" s="2"/>
+      <c r="T1105" s="2"/>
+      <c r="U1105" s="2"/>
+      <c r="V1105" s="2"/>
+      <c r="W1105" s="2"/>
+      <c r="X1105" s="2"/>
+      <c r="Y1105" s="2"/>
+      <c r="Z1105" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="274">
   <si>
     <t>ID</t>
   </si>
@@ -65,12 +65,6 @@
   </si>
   <si>
     <t>傳送代碼</t>
-  </si>
-  <si>
-    <t>SUBMIT</t>
-  </si>
-  <si>
-    <t>提交</t>
   </si>
   <si>
     <t>Password</t>
@@ -131,6 +125,24 @@
   </si>
   <si>
     <t>記住帳號密碼</t>
+  </si>
+  <si>
+    <t>SUBMIT</t>
+  </si>
+  <si>
+    <t>提交</t>
+  </si>
+  <si>
+    <t>REFLASH</t>
+  </si>
+  <si>
+    <t>重新整理</t>
+  </si>
+  <si>
+    <t>Copied!</t>
+  </si>
+  <si>
+    <t>已複製!</t>
   </si>
   <si>
     <t>Enter New Password.</t>
@@ -239,6 +251,54 @@
   </si>
   <si>
     <t>Golden</t>
+  </si>
+  <si>
+    <t>My NFT</t>
+  </si>
+  <si>
+    <t>我的 NFT</t>
+  </si>
+  <si>
+    <t>Transaction History</t>
+  </si>
+  <si>
+    <t>交易紀錄</t>
+  </si>
+  <si>
+    <t>Change Avatar</t>
+  </si>
+  <si>
+    <t>更換頭像</t>
+  </si>
+  <si>
+    <t>Account Balance</t>
+  </si>
+  <si>
+    <t>帳戶餘額</t>
+  </si>
+  <si>
+    <t>Score Record</t>
+  </si>
+  <si>
+    <t>成績記錄</t>
+  </si>
+  <si>
+    <t>Social Media</t>
+  </si>
+  <si>
+    <t>社群媒體</t>
+  </si>
+  <si>
+    <t>Hand History</t>
+  </si>
+  <si>
+    <t>手牌紀錄</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>設定</t>
   </si>
   <si>
     <t>錯誤訊息</t>
@@ -409,9 +469,6 @@
     <t>排名</t>
   </si>
   <si>
-    <t>交易紀錄</t>
-  </si>
-  <si>
     <t>TRANSACTION HISTORY</t>
   </si>
   <si>
@@ -505,12 +562,6 @@
     <t>我的NFT</t>
   </si>
   <si>
-    <t>My NFT</t>
-  </si>
-  <si>
-    <t>我的 NFT</t>
-  </si>
-  <si>
     <t>NFT is not owned yet.</t>
   </si>
   <si>
@@ -563,6 +614,27 @@
   </si>
   <si>
     <t>分</t>
+  </si>
+  <si>
+    <t>個人主頁面</t>
+  </si>
+  <si>
+    <t>LINK NOW</t>
+  </si>
+  <si>
+    <t>立即連結</t>
+  </si>
+  <si>
+    <t>LINKED</t>
+  </si>
+  <si>
+    <t>已連接</t>
+  </si>
+  <si>
+    <t>Not Yet Linked</t>
+  </si>
+  <si>
+    <t>尚未連結</t>
   </si>
   <si>
     <t>遊戲</t>
@@ -895,7 +967,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="40">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -981,6 +1053,20 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -1520,7 +1606,7 @@
       <c r="Z9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1554,7 +1640,7 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1588,7 +1674,7 @@
       <c r="Z11" s="6"/>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1622,7 +1708,7 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1656,7 +1742,7 @@
       <c r="Z13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1690,7 +1776,7 @@
       <c r="Z14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1792,109 +1878,109 @@
       <c r="Z17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="6"/>
-      <c r="T18" s="6"/>
-      <c r="U18" s="6"/>
-      <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="6"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
     </row>
     <row r="20">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="12"/>
-      <c r="X20" s="12"/>
-      <c r="Y20" s="12"/>
-      <c r="Z20" s="13"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
     </row>
     <row r="21">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1925,143 +2011,143 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-      <c r="Z21" s="15"/>
+      <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="19"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="13"/>
     </row>
     <row r="23">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="12"/>
-      <c r="Y23" s="12"/>
-      <c r="Z23" s="13"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="15"/>
     </row>
     <row r="24">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="15"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="19"/>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2"/>
-      <c r="U25" s="2"/>
-      <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
-      <c r="X25" s="2"/>
-      <c r="Y25" s="2"/>
-      <c r="Z25" s="15"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="13"/>
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
@@ -2098,41 +2184,41 @@
       <c r="Z26" s="15"/>
     </row>
     <row r="27">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-      <c r="Y27" s="18"/>
-      <c r="Z27" s="19"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="15"/>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="20" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2163,187 +2249,209 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
+      <c r="Z28" s="15"/>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="2"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="19"/>
     </row>
     <row r="30">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="1" t="s">
         <v>61</v>
       </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="1" t="s">
         <v>63</v>
       </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="12"/>
-      <c r="O32" s="12"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-      <c r="R32" s="12"/>
-      <c r="S32" s="12"/>
-      <c r="T32" s="12"/>
-      <c r="U32" s="12"/>
-      <c r="V32" s="12"/>
-      <c r="W32" s="12"/>
-      <c r="X32" s="12"/>
-      <c r="Y32" s="12"/>
-      <c r="Z32" s="13"/>
     </row>
     <row r="33">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="24"/>
-      <c r="H33" s="24"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="24"/>
-      <c r="R33" s="24"/>
-      <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
-      <c r="U33" s="24"/>
-      <c r="V33" s="24"/>
-      <c r="W33" s="24"/>
-      <c r="X33" s="24"/>
-      <c r="Y33" s="24"/>
-      <c r="Z33" s="25"/>
     </row>
     <row r="34">
-      <c r="A34" s="26" t="s">
+      <c r="A34" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="24"/>
-      <c r="R34" s="24"/>
-      <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
-      <c r="U34" s="24"/>
-      <c r="V34" s="24"/>
-      <c r="W34" s="24"/>
-      <c r="X34" s="24"/>
-      <c r="Y34" s="24"/>
-      <c r="Z34" s="25"/>
+      <c r="C34" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="12"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="12"/>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
+      <c r="X34" s="12"/>
+      <c r="Y34" s="12"/>
+      <c r="Z34" s="13"/>
     </row>
     <row r="35">
-      <c r="A35" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z35" s="28"/>
+      <c r="A35" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="24"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="24"/>
+      <c r="S35" s="24"/>
+      <c r="T35" s="24"/>
+      <c r="U35" s="24"/>
+      <c r="V35" s="24"/>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="24"/>
+      <c r="Z35" s="25"/>
     </row>
     <row r="36">
-      <c r="A36" s="22" t="s">
-        <v>70</v>
+      <c r="A36" s="26" t="s">
+        <v>72</v>
       </c>
       <c r="B36" s="23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="D36" s="24"/>
       <c r="E36" s="24"/>
@@ -2370,111 +2478,95 @@
       <c r="Z36" s="25"/>
     </row>
     <row r="37">
-      <c r="A37" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
-      <c r="Q37" s="2"/>
-      <c r="R37" s="2"/>
-      <c r="S37" s="2"/>
-      <c r="T37" s="2"/>
-      <c r="U37" s="2"/>
-      <c r="V37" s="2"/>
-      <c r="W37" s="2"/>
-      <c r="X37" s="2"/>
-      <c r="Y37" s="2"/>
-      <c r="Z37" s="15"/>
+      <c r="A37" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z37" s="28"/>
     </row>
     <row r="38">
-      <c r="A38" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="A38" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2"/>
-      <c r="S38" s="2"/>
-      <c r="T38" s="2"/>
-      <c r="U38" s="2"/>
-      <c r="V38" s="2"/>
-      <c r="W38" s="2"/>
-      <c r="X38" s="2"/>
-      <c r="Y38" s="2"/>
-      <c r="Z38" s="15"/>
+      <c r="B38" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="24"/>
+      <c r="S38" s="24"/>
+      <c r="T38" s="24"/>
+      <c r="U38" s="24"/>
+      <c r="V38" s="24"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
+      <c r="Z38" s="25"/>
     </row>
     <row r="39">
-      <c r="A39" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="19"/>
+      <c r="A39" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="15"/>
     </row>
     <row r="40">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -2497,369 +2589,381 @@
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
-      <c r="Z40" s="2"/>
+      <c r="Z40" s="15"/>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
-      <c r="X41" s="4"/>
-      <c r="Y41" s="4"/>
-      <c r="Z41" s="4"/>
+      <c r="A41" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="15"/>
     </row>
     <row r="42">
-      <c r="A42" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="6"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
-      <c r="M42" s="6"/>
-      <c r="N42" s="6"/>
-      <c r="O42" s="6"/>
-      <c r="P42" s="6"/>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="6"/>
-      <c r="T42" s="6"/>
-      <c r="U42" s="6"/>
-      <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-      <c r="X42" s="6"/>
-      <c r="Y42" s="6"/>
-      <c r="Z42" s="6"/>
+      <c r="A42" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="12"/>
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="12"/>
+      <c r="Y42" s="12"/>
+      <c r="Z42" s="13"/>
     </row>
     <row r="43">
-      <c r="A43" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="6"/>
-      <c r="P43" s="6"/>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="6"/>
-      <c r="T43" s="6"/>
-      <c r="U43" s="6"/>
-      <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-      <c r="X43" s="6"/>
-      <c r="Y43" s="6"/>
-      <c r="Z43" s="6"/>
+      <c r="A43" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="15"/>
     </row>
     <row r="44">
-      <c r="A44" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="6"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="6"/>
-      <c r="T44" s="6"/>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
+      <c r="A44" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B44" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+      <c r="O44" s="24"/>
+      <c r="P44" s="24"/>
+      <c r="Q44" s="24"/>
+      <c r="R44" s="24"/>
+      <c r="S44" s="24"/>
+      <c r="T44" s="24"/>
+      <c r="U44" s="24"/>
+      <c r="V44" s="24"/>
+      <c r="W44" s="24"/>
+      <c r="X44" s="24"/>
+      <c r="Y44" s="24"/>
+      <c r="Z44" s="25"/>
     </row>
     <row r="45">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
+      <c r="A45" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="24"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="24"/>
+      <c r="S45" s="24"/>
+      <c r="T45" s="24"/>
+      <c r="U45" s="24"/>
+      <c r="V45" s="24"/>
+      <c r="W45" s="24"/>
+      <c r="X45" s="24"/>
+      <c r="Y45" s="24"/>
+      <c r="Z45" s="25"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="4"/>
+      <c r="A46" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="24"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="24"/>
+      <c r="S46" s="24"/>
+      <c r="T46" s="24"/>
+      <c r="U46" s="24"/>
+      <c r="V46" s="24"/>
+      <c r="W46" s="24"/>
+      <c r="X46" s="24"/>
+      <c r="Y46" s="24"/>
+      <c r="Z46" s="25"/>
     </row>
     <row r="47">
-      <c r="A47" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47" s="29"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="30"/>
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="30"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-      <c r="K47" s="30"/>
-      <c r="L47" s="30"/>
-      <c r="M47" s="30"/>
-      <c r="N47" s="30"/>
-      <c r="O47" s="30"/>
-      <c r="P47" s="30"/>
-      <c r="Q47" s="30"/>
-      <c r="R47" s="30"/>
-      <c r="S47" s="30"/>
-      <c r="T47" s="30"/>
-      <c r="U47" s="30"/>
-      <c r="V47" s="30"/>
-      <c r="W47" s="30"/>
-      <c r="X47" s="30"/>
-      <c r="Y47" s="30"/>
-      <c r="Z47" s="30"/>
+      <c r="A47" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="24"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="24"/>
+      <c r="S47" s="24"/>
+      <c r="T47" s="24"/>
+      <c r="U47" s="24"/>
+      <c r="V47" s="24"/>
+      <c r="W47" s="24"/>
+      <c r="X47" s="24"/>
+      <c r="Y47" s="24"/>
+      <c r="Z47" s="25"/>
     </row>
     <row r="48">
-      <c r="A48" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="6"/>
-      <c r="T48" s="6"/>
-      <c r="U48" s="6"/>
-      <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-      <c r="X48" s="6"/>
-      <c r="Y48" s="6"/>
-      <c r="Z48" s="6"/>
+      <c r="A48" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+      <c r="O48" s="24"/>
+      <c r="P48" s="24"/>
+      <c r="Q48" s="24"/>
+      <c r="R48" s="24"/>
+      <c r="S48" s="24"/>
+      <c r="T48" s="24"/>
+      <c r="U48" s="24"/>
+      <c r="V48" s="24"/>
+      <c r="W48" s="24"/>
+      <c r="X48" s="24"/>
+      <c r="Y48" s="24"/>
+      <c r="Z48" s="25"/>
     </row>
     <row r="49">
-      <c r="A49" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-      <c r="O49" s="6"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="6"/>
-      <c r="T49" s="6"/>
-      <c r="U49" s="6"/>
-      <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-      <c r="X49" s="6"/>
-      <c r="Y49" s="6"/>
-      <c r="Z49" s="6"/>
+      <c r="A49" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
+      <c r="X49" s="33"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="34"/>
     </row>
     <row r="50">
-      <c r="A50" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-      <c r="O50" s="6"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="6"/>
-      <c r="T50" s="6"/>
-      <c r="U50" s="6"/>
-      <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-      <c r="X50" s="6"/>
-      <c r="Y50" s="6"/>
-      <c r="Z50" s="6"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
     </row>
     <row r="51">
-      <c r="A51" s="29" t="s">
-        <v>91</v>
-      </c>
-      <c r="B51" s="29"/>
-      <c r="C51" s="29"/>
-      <c r="D51" s="30"/>
-      <c r="E51" s="30"/>
-      <c r="F51" s="30"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="30"/>
-      <c r="I51" s="30"/>
-      <c r="J51" s="30"/>
-      <c r="K51" s="30"/>
-      <c r="L51" s="30"/>
-      <c r="M51" s="30"/>
-      <c r="N51" s="30"/>
-      <c r="O51" s="30"/>
-      <c r="P51" s="30"/>
-      <c r="Q51" s="30"/>
-      <c r="R51" s="30"/>
-      <c r="S51" s="30"/>
-      <c r="T51" s="30"/>
-      <c r="U51" s="30"/>
-      <c r="V51" s="30"/>
-      <c r="W51" s="30"/>
-      <c r="X51" s="30"/>
-      <c r="Y51" s="30"/>
-      <c r="Z51" s="30"/>
+      <c r="A51" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -2887,13 +2991,13 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D53" s="6"/>
       <c r="E53" s="6"/>
@@ -2921,13 +3025,13 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D54" s="6"/>
       <c r="E54" s="6"/>
@@ -2954,108 +3058,102 @@
       <c r="Z54" s="6"/>
     </row>
     <row r="55">
-      <c r="A55" s="31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32"/>
-      <c r="E55" s="32"/>
-      <c r="F55" s="32"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="32"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="32"/>
-      <c r="L55" s="32"/>
-      <c r="M55" s="32"/>
-      <c r="N55" s="32"/>
-      <c r="O55" s="32"/>
-      <c r="P55" s="32"/>
-      <c r="Q55" s="32"/>
-      <c r="R55" s="32"/>
-      <c r="S55" s="32"/>
-      <c r="T55" s="32"/>
-      <c r="U55" s="32"/>
-      <c r="V55" s="32"/>
-      <c r="W55" s="32"/>
-      <c r="X55" s="32"/>
-      <c r="Y55" s="32"/>
-      <c r="Z55" s="32"/>
+      <c r="A55" s="5"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+      <c r="N55" s="6"/>
+      <c r="O55" s="6"/>
+      <c r="P55" s="6"/>
+      <c r="Q55" s="6"/>
+      <c r="R55" s="6"/>
+      <c r="S55" s="6"/>
+      <c r="T55" s="6"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="6"/>
+      <c r="W55" s="6"/>
+      <c r="X55" s="6"/>
+      <c r="Y55" s="6"/>
+      <c r="Z55" s="6"/>
     </row>
     <row r="56">
-      <c r="A56" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-      <c r="O56" s="6"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="6"/>
-      <c r="T56" s="6"/>
-      <c r="U56" s="6"/>
-      <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-      <c r="X56" s="6"/>
-      <c r="Y56" s="6"/>
-      <c r="Z56" s="6"/>
+      <c r="A56" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B57" s="29"/>
-      <c r="C57" s="29"/>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="30"/>
-      <c r="L57" s="30"/>
-      <c r="M57" s="30"/>
-      <c r="N57" s="30"/>
-      <c r="O57" s="30"/>
-      <c r="P57" s="30"/>
-      <c r="Q57" s="30"/>
-      <c r="R57" s="30"/>
-      <c r="S57" s="30"/>
-      <c r="T57" s="30"/>
-      <c r="U57" s="30"/>
-      <c r="V57" s="30"/>
-      <c r="W57" s="30"/>
-      <c r="X57" s="30"/>
-      <c r="Y57" s="30"/>
-      <c r="Z57" s="30"/>
+      <c r="A57" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="36"/>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36"/>
+      <c r="G57" s="36"/>
+      <c r="H57" s="36"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+      <c r="L57" s="36"/>
+      <c r="M57" s="36"/>
+      <c r="N57" s="36"/>
+      <c r="O57" s="36"/>
+      <c r="P57" s="36"/>
+      <c r="Q57" s="36"/>
+      <c r="R57" s="36"/>
+      <c r="S57" s="36"/>
+      <c r="T57" s="36"/>
+      <c r="U57" s="36"/>
+      <c r="V57" s="36"/>
+      <c r="W57" s="36"/>
+      <c r="X57" s="36"/>
+      <c r="Y57" s="36"/>
+      <c r="Z57" s="36"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -3083,13 +3181,13 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -3116,14 +3214,14 @@
       <c r="Z59" s="6"/>
     </row>
     <row r="60">
-      <c r="A60" s="7" t="s">
-        <v>105</v>
+      <c r="A60" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
@@ -3150,44 +3248,44 @@
       <c r="Z60" s="6"/>
     </row>
     <row r="61">
-      <c r="A61" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="30"/>
-      <c r="E61" s="30"/>
-      <c r="F61" s="30"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="30"/>
-      <c r="I61" s="30"/>
-      <c r="J61" s="30"/>
-      <c r="K61" s="30"/>
-      <c r="L61" s="30"/>
-      <c r="M61" s="30"/>
-      <c r="N61" s="30"/>
-      <c r="O61" s="30"/>
-      <c r="P61" s="30"/>
-      <c r="Q61" s="30"/>
-      <c r="R61" s="30"/>
-      <c r="S61" s="30"/>
-      <c r="T61" s="30"/>
-      <c r="U61" s="30"/>
-      <c r="V61" s="30"/>
-      <c r="W61" s="30"/>
-      <c r="X61" s="30"/>
-      <c r="Y61" s="30"/>
-      <c r="Z61" s="30"/>
+      <c r="A61" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="36"/>
+      <c r="J61" s="36"/>
+      <c r="K61" s="36"/>
+      <c r="L61" s="36"/>
+      <c r="M61" s="36"/>
+      <c r="N61" s="36"/>
+      <c r="O61" s="36"/>
+      <c r="P61" s="36"/>
+      <c r="Q61" s="36"/>
+      <c r="R61" s="36"/>
+      <c r="S61" s="36"/>
+      <c r="T61" s="36"/>
+      <c r="U61" s="36"/>
+      <c r="V61" s="36"/>
+      <c r="W61" s="36"/>
+      <c r="X61" s="36"/>
+      <c r="Y61" s="36"/>
+      <c r="Z61" s="36"/>
     </row>
     <row r="62">
-      <c r="A62" s="33" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>109</v>
+      <c r="A62" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>113</v>
       </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
@@ -3214,43 +3312,49 @@
       <c r="Z62" s="6"/>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-      <c r="J63" s="2"/>
-      <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
-      <c r="S63" s="2"/>
-      <c r="T63" s="2"/>
-      <c r="U63" s="2"/>
-      <c r="V63" s="2"/>
-      <c r="W63" s="2"/>
-      <c r="X63" s="2"/>
-      <c r="Y63" s="2"/>
-      <c r="Z63" s="2"/>
+      <c r="A63" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
     </row>
     <row r="64">
-      <c r="A64" s="5"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
+      <c r="A64" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -3276,44 +3380,44 @@
       <c r="Z64" s="6"/>
     </row>
     <row r="65">
-      <c r="A65" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4"/>
-      <c r="J65" s="4"/>
-      <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
-      <c r="M65" s="4"/>
-      <c r="N65" s="4"/>
-      <c r="O65" s="4"/>
-      <c r="P65" s="4"/>
-      <c r="Q65" s="4"/>
-      <c r="R65" s="4"/>
-      <c r="S65" s="4"/>
-      <c r="T65" s="4"/>
-      <c r="U65" s="4"/>
-      <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
-      <c r="Z65" s="4"/>
+      <c r="A65" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="38"/>
+      <c r="K65" s="38"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D66" s="6"/>
       <c r="E66" s="6"/>
@@ -3340,48 +3444,44 @@
       <c r="Z66" s="6"/>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
+      <c r="A67" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="36"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="36"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="36"/>
+      <c r="Z67" s="36"/>
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -3408,9 +3508,15 @@
       <c r="Z68" s="6"/>
     </row>
     <row r="69">
-      <c r="A69" s="5"/>
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
+      <c r="A69" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>124</v>
+      </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3436,112 +3542,112 @@
       <c r="Z69" s="6"/>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
+      <c r="A70" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
+      <c r="A71" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="36"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="36"/>
+      <c r="Y71" s="36"/>
+      <c r="Z71" s="36"/>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="s">
-        <v>121</v>
+      <c r="A72" s="39" t="s">
+        <v>128</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-      <c r="J72" s="2"/>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2"/>
-      <c r="R72" s="2"/>
-      <c r="S72" s="2"/>
-      <c r="T72" s="2"/>
-      <c r="U72" s="2"/>
-      <c r="V72" s="2"/>
-      <c r="W72" s="2"/>
-      <c r="X72" s="2"/>
-      <c r="Y72" s="2"/>
-      <c r="Z72" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -3568,242 +3674,232 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="V74" s="2"/>
-      <c r="W74" s="2"/>
-      <c r="X74" s="2"/>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
+      <c r="A75" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="2"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="V76" s="2"/>
-      <c r="W76" s="2"/>
-      <c r="X76" s="2"/>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
+      <c r="A76" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
     </row>
     <row r="77">
-      <c r="A77" s="1"/>
-      <c r="B77" s="1"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
-      <c r="T77" s="2"/>
-      <c r="U77" s="2"/>
-      <c r="V77" s="2"/>
-      <c r="W77" s="2"/>
-      <c r="X77" s="2"/>
-      <c r="Y77" s="2"/>
-      <c r="Z77" s="2"/>
+      <c r="A77" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
     </row>
     <row r="78">
-      <c r="A78" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-      <c r="G78" s="4"/>
-      <c r="H78" s="4"/>
-      <c r="I78" s="4"/>
-      <c r="J78" s="4"/>
-      <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
-      <c r="M78" s="4"/>
-      <c r="N78" s="4"/>
-      <c r="O78" s="4"/>
-      <c r="P78" s="4"/>
-      <c r="Q78" s="4"/>
-      <c r="R78" s="4"/>
-      <c r="S78" s="4"/>
-      <c r="T78" s="4"/>
-      <c r="U78" s="4"/>
-      <c r="V78" s="4"/>
-      <c r="W78" s="4"/>
-      <c r="X78" s="4"/>
-      <c r="Y78" s="4"/>
-      <c r="Z78" s="4"/>
+      <c r="A78" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-      <c r="F79" s="2"/>
-      <c r="G79" s="2"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-      <c r="J79" s="2"/>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" s="2"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2"/>
-      <c r="S79" s="2"/>
-      <c r="T79" s="2"/>
-      <c r="U79" s="2"/>
-      <c r="V79" s="2"/>
-      <c r="W79" s="2"/>
-      <c r="X79" s="2"/>
-      <c r="Y79" s="2"/>
-      <c r="Z79" s="2"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
+      <c r="A80" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
@@ -3830,48 +3926,48 @@
       <c r="Z81" s="2"/>
     </row>
     <row r="82">
-      <c r="A82" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C82" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="12"/>
-      <c r="P82" s="12"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="12"/>
-      <c r="S82" s="12"/>
-      <c r="T82" s="12"/>
-      <c r="U82" s="12"/>
-      <c r="V82" s="12"/>
-      <c r="W82" s="12"/>
-      <c r="X82" s="12"/>
-      <c r="Y82" s="12"/>
-      <c r="Z82" s="13"/>
+      <c r="A82" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
     </row>
     <row r="83">
-      <c r="A83" s="20" t="s">
-        <v>141</v>
+      <c r="A83" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
@@ -3895,85 +3991,85 @@
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
-      <c r="Z83" s="15"/>
+      <c r="Z83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="18"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="18"/>
-      <c r="I84" s="18"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="18"/>
-      <c r="L84" s="18"/>
-      <c r="M84" s="18"/>
-      <c r="N84" s="18"/>
-      <c r="O84" s="18"/>
-      <c r="P84" s="18"/>
-      <c r="Q84" s="18"/>
-      <c r="R84" s="18"/>
-      <c r="S84" s="18"/>
-      <c r="T84" s="18"/>
-      <c r="U84" s="18"/>
-      <c r="V84" s="18"/>
-      <c r="W84" s="18"/>
-      <c r="X84" s="18"/>
-      <c r="Y84" s="18"/>
-      <c r="Z84" s="19"/>
+      <c r="A84" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
     </row>
     <row r="85">
-      <c r="A85" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C85" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12"/>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="12"/>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="12"/>
-      <c r="P85" s="12"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="12"/>
-      <c r="S85" s="12"/>
-      <c r="T85" s="12"/>
-      <c r="U85" s="12"/>
-      <c r="V85" s="12"/>
-      <c r="W85" s="12"/>
-      <c r="X85" s="12"/>
-      <c r="Y85" s="12"/>
-      <c r="Z85" s="13"/>
+      <c r="A85" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
     </row>
     <row r="86">
-      <c r="A86" s="20" t="s">
-        <v>147</v>
+      <c r="A86" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -3997,18 +4093,12 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
-      <c r="Z86" s="15"/>
+      <c r="Z86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>150</v>
-      </c>
+      <c r="A87" s="1"/>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -4031,85 +4121,81 @@
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
-      <c r="Z87" s="15"/>
+      <c r="Z87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="B88" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="C88" s="17" t="s">
+      <c r="A88" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="18"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="18"/>
-      <c r="N88" s="18"/>
-      <c r="O88" s="18"/>
-      <c r="P88" s="18"/>
-      <c r="Q88" s="18"/>
-      <c r="R88" s="18"/>
-      <c r="S88" s="18"/>
-      <c r="T88" s="18"/>
-      <c r="U88" s="18"/>
-      <c r="V88" s="18"/>
-      <c r="W88" s="18"/>
-      <c r="X88" s="18"/>
-      <c r="Y88" s="18"/>
-      <c r="Z88" s="19"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="9" t="s">
+      <c r="B89" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C89" s="11" t="s">
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="12"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="12"/>
-      <c r="O89" s="12"/>
-      <c r="P89" s="12"/>
-      <c r="Q89" s="12"/>
-      <c r="R89" s="12"/>
-      <c r="S89" s="12"/>
-      <c r="T89" s="12"/>
-      <c r="U89" s="12"/>
-      <c r="V89" s="12"/>
-      <c r="W89" s="12"/>
-      <c r="X89" s="12"/>
-      <c r="Y89" s="12"/>
-      <c r="Z89" s="13"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="27" t="s">
+      <c r="B90" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>156</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -4133,17 +4219,17 @@
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
-      <c r="Z90" s="15"/>
+      <c r="Z90" s="2"/>
     </row>
     <row r="91">
-      <c r="A91" s="20" t="s">
+      <c r="A91" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>157</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>158</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -4167,51 +4253,51 @@
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
-      <c r="Z91" s="15"/>
+      <c r="Z91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="16" t="s">
+      <c r="A92" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="C92" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="B92" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="C92" s="17" t="s">
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="13"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="18"/>
-      <c r="I92" s="18"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="18"/>
-      <c r="L92" s="18"/>
-      <c r="M92" s="18"/>
-      <c r="N92" s="18"/>
-      <c r="O92" s="18"/>
-      <c r="P92" s="18"/>
-      <c r="Q92" s="18"/>
-      <c r="R92" s="18"/>
-      <c r="S92" s="18"/>
-      <c r="T92" s="18"/>
-      <c r="U92" s="18"/>
-      <c r="V92" s="18"/>
-      <c r="W92" s="18"/>
-      <c r="X92" s="18"/>
-      <c r="Y92" s="18"/>
-      <c r="Z92" s="19"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>162</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
@@ -4235,75 +4321,85 @@
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
-      <c r="Z93" s="2"/>
+      <c r="Z93" s="15"/>
     </row>
     <row r="94">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
-      <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
-      <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
-      <c r="Z94" s="2"/>
+      <c r="A94" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B94" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="18"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="18"/>
+      <c r="Q94" s="18"/>
+      <c r="R94" s="18"/>
+      <c r="S94" s="18"/>
+      <c r="T94" s="18"/>
+      <c r="U94" s="18"/>
+      <c r="V94" s="18"/>
+      <c r="W94" s="18"/>
+      <c r="X94" s="18"/>
+      <c r="Y94" s="18"/>
+      <c r="Z94" s="19"/>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
-      <c r="T95" s="4"/>
-      <c r="U95" s="4"/>
-      <c r="V95" s="4"/>
-      <c r="W95" s="4"/>
-      <c r="X95" s="4"/>
-      <c r="Y95" s="4"/>
-      <c r="Z95" s="4"/>
+      <c r="A95" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="13"/>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
-        <v>164</v>
+      <c r="A96" s="20" t="s">
+        <v>166</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -4327,17 +4423,17 @@
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
-      <c r="Z96" s="2"/>
+      <c r="Z96" s="15"/>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
-        <v>166</v>
+      <c r="A97" s="20" t="s">
+        <v>168</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -4361,75 +4457,85 @@
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
-      <c r="Z97" s="2"/>
+      <c r="Z97" s="15"/>
     </row>
     <row r="98">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
-      <c r="V98" s="2"/>
-      <c r="W98" s="2"/>
-      <c r="X98" s="2"/>
-      <c r="Y98" s="2"/>
-      <c r="Z98" s="2"/>
+      <c r="A98" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="18"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="18"/>
+      <c r="Q98" s="18"/>
+      <c r="R98" s="18"/>
+      <c r="S98" s="18"/>
+      <c r="T98" s="18"/>
+      <c r="U98" s="18"/>
+      <c r="V98" s="18"/>
+      <c r="W98" s="18"/>
+      <c r="X98" s="18"/>
+      <c r="Y98" s="18"/>
+      <c r="Z98" s="19"/>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-      <c r="S99" s="4"/>
-      <c r="T99" s="4"/>
-      <c r="U99" s="4"/>
-      <c r="V99" s="4"/>
-      <c r="W99" s="4"/>
-      <c r="X99" s="4"/>
-      <c r="Y99" s="4"/>
-      <c r="Z99" s="4"/>
+      <c r="A99" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="12"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="13"/>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
-        <v>168</v>
+      <c r="A100" s="27" t="s">
+        <v>174</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -4453,17 +4559,17 @@
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
-      <c r="Z100" s="2"/>
+      <c r="Z100" s="15"/>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
-        <v>170</v>
+      <c r="A101" s="20" t="s">
+        <v>176</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -4487,51 +4593,51 @@
       <c r="W101" s="2"/>
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
-      <c r="Z101" s="2"/>
+      <c r="Z101" s="15"/>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="2"/>
-      <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
-      <c r="X102" s="2"/>
-      <c r="Y102" s="2"/>
-      <c r="Z102" s="2"/>
+      <c r="A102" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="B102" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C102" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="18"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="18"/>
+      <c r="Q102" s="18"/>
+      <c r="R102" s="18"/>
+      <c r="S102" s="18"/>
+      <c r="T102" s="18"/>
+      <c r="U102" s="18"/>
+      <c r="V102" s="18"/>
+      <c r="W102" s="18"/>
+      <c r="X102" s="18"/>
+      <c r="Y102" s="18"/>
+      <c r="Z102" s="19"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -4558,15 +4664,9 @@
       <c r="Z103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>177</v>
-      </c>
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -4592,48 +4692,44 @@
       <c r="Z104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
-      <c r="U105" s="2"/>
-      <c r="V105" s="2"/>
-      <c r="W105" s="2"/>
-      <c r="X105" s="2"/>
-      <c r="Y105" s="2"/>
-      <c r="Z105" s="2"/>
+      <c r="A105" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4660,15 +4756,9 @@
       <c r="Z106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>183</v>
-      </c>
+      <c r="A107" s="1"/>
+      <c r="B107" s="1"/>
+      <c r="C107" s="1"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -4694,37 +4784,45 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
-      <c r="X108" s="2"/>
-      <c r="Y108" s="2"/>
-      <c r="Z108" s="2"/>
+      <c r="A108" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="4"/>
+      <c r="Q108" s="4"/>
+      <c r="R108" s="4"/>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4"/>
     </row>
     <row r="109">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
+      <c r="A109" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>186</v>
+      </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -4750,44 +4848,48 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
-      <c r="R110" s="4"/>
-      <c r="S110" s="4"/>
-      <c r="T110" s="4"/>
-      <c r="U110" s="4"/>
-      <c r="V110" s="4"/>
-      <c r="W110" s="4"/>
-      <c r="X110" s="4"/>
-      <c r="Y110" s="4"/>
-      <c r="Z110" s="4"/>
+      <c r="A110" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -4815,13 +4917,13 @@
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -4849,13 +4951,13 @@
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -4883,13 +4985,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -4917,13 +5019,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -4951,13 +5053,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -4984,15 +5086,9 @@
       <c r="Z116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -5018,48 +5114,44 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="2"/>
-      <c r="S118" s="2"/>
-      <c r="T118" s="2"/>
-      <c r="U118" s="2"/>
-      <c r="V118" s="2"/>
-      <c r="W118" s="2"/>
-      <c r="X118" s="2"/>
-      <c r="Y118" s="2"/>
-      <c r="Z118" s="2"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5087,13 +5179,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5120,49 +5212,20 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C121" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
-      <c r="S121" s="2"/>
-      <c r="T121" s="2"/>
-      <c r="U121" s="2"/>
-      <c r="V121" s="2"/>
-      <c r="W121" s="2"/>
-      <c r="X121" s="2"/>
-      <c r="Y121" s="2"/>
-      <c r="Z121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -5188,15 +5251,9 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -5222,15 +5279,9 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -5256,15 +5307,9 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>220</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -5318,45 +5363,37 @@
       <c r="Z126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="4"/>
-      <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-      <c r="K127" s="4"/>
-      <c r="L127" s="4"/>
-      <c r="M127" s="4"/>
-      <c r="N127" s="4"/>
-      <c r="O127" s="4"/>
-      <c r="P127" s="4"/>
-      <c r="Q127" s="4"/>
-      <c r="R127" s="4"/>
-      <c r="S127" s="4"/>
-      <c r="T127" s="4"/>
-      <c r="U127" s="4"/>
-      <c r="V127" s="4"/>
-      <c r="W127" s="4"/>
-      <c r="X127" s="4"/>
-      <c r="Y127" s="4"/>
-      <c r="Z127" s="4"/>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+      <c r="U127" s="2"/>
+      <c r="V127" s="2"/>
+      <c r="W127" s="2"/>
+      <c r="X127" s="2"/>
+      <c r="Y127" s="2"/>
+      <c r="Z127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -5382,15 +5419,9 @@
       <c r="Z128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>227</v>
-      </c>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -5416,15 +5447,9 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -5450,15 +5475,9 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>233</v>
-      </c>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -5484,15 +5503,9 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>235</v>
-      </c>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -5518,15 +5531,9 @@
       <c r="Z132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="A133" s="1"/>
+      <c r="B133" s="1"/>
+      <c r="C133" s="1"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
@@ -5552,15 +5559,9 @@
       <c r="Z133" s="2"/>
     </row>
     <row r="134">
-      <c r="A134" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>240</v>
-      </c>
+      <c r="A134" s="1"/>
+      <c r="B134" s="1"/>
+      <c r="C134" s="1"/>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -5586,15 +5587,9 @@
       <c r="Z134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>243</v>
-      </c>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -5620,15 +5615,9 @@
       <c r="Z135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>246</v>
-      </c>
+      <c r="A136" s="1"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="1"/>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -5654,15 +5643,9 @@
       <c r="Z136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>249</v>
-      </c>
+      <c r="A137" s="1"/>
+      <c r="B137" s="1"/>
+      <c r="C137" s="1"/>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -5688,9 +5671,9 @@
       <c r="Z137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="2"/>
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
+      <c r="A138" s="1"/>
+      <c r="B138" s="1"/>
+      <c r="C138" s="1"/>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -5716,9 +5699,9 @@
       <c r="Z138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="2"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
+      <c r="A139" s="1"/>
+      <c r="B139" s="1"/>
+      <c r="C139" s="1"/>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
@@ -5744,9 +5727,9 @@
       <c r="Z139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="2"/>
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -5772,9 +5755,9 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="2"/>
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -5800,9 +5783,9 @@
       <c r="Z141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="2"/>
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -5828,9 +5811,9 @@
       <c r="Z142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="2"/>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
+      <c r="A143" s="1"/>
+      <c r="B143" s="1"/>
+      <c r="C143" s="1"/>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -5856,9 +5839,9 @@
       <c r="Z143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="2"/>
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
+      <c r="A144" s="1"/>
+      <c r="B144" s="1"/>
+      <c r="C144" s="1"/>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
@@ -5884,9 +5867,9 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="2"/>
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -5912,9 +5895,9 @@
       <c r="Z145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="2"/>
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
@@ -5940,9 +5923,9 @@
       <c r="Z146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="2"/>
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -5968,9 +5951,9 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="2"/>
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -5996,9 +5979,9 @@
       <c r="Z148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="2"/>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -6024,9 +6007,9 @@
       <c r="Z149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="2"/>
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
@@ -6052,9 +6035,9 @@
       <c r="Z150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="2"/>
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
+      <c r="A151" s="1"/>
+      <c r="B151" s="1"/>
+      <c r="C151" s="1"/>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
@@ -6080,9 +6063,9 @@
       <c r="Z151" s="2"/>
     </row>
     <row r="152">
-      <c r="A152" s="2"/>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
       <c r="F152" s="2"/>
@@ -6108,9 +6091,9 @@
       <c r="Z152" s="2"/>
     </row>
     <row r="153">
-      <c r="A153" s="2"/>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
       <c r="F153" s="2"/>
@@ -6136,9 +6119,9 @@
       <c r="Z153" s="2"/>
     </row>
     <row r="154">
-      <c r="A154" s="2"/>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
+      <c r="A154" s="1"/>
+      <c r="B154" s="1"/>
+      <c r="C154" s="1"/>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
       <c r="F154" s="2"/>
@@ -6164,9 +6147,9 @@
       <c r="Z154" s="2"/>
     </row>
     <row r="155">
-      <c r="A155" s="2"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+      <c r="A155" s="1"/>
+      <c r="B155" s="1"/>
+      <c r="C155" s="1"/>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
       <c r="F155" s="2"/>
@@ -6192,9 +6175,9 @@
       <c r="Z155" s="2"/>
     </row>
     <row r="156">
-      <c r="A156" s="2"/>
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
+      <c r="A156" s="1"/>
+      <c r="B156" s="1"/>
+      <c r="C156" s="1"/>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
       <c r="F156" s="2"/>
@@ -6220,9 +6203,9 @@
       <c r="Z156" s="2"/>
     </row>
     <row r="157">
-      <c r="A157" s="2"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
+      <c r="A157" s="1"/>
+      <c r="B157" s="1"/>
+      <c r="C157" s="1"/>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -6248,9 +6231,9 @@
       <c r="Z157" s="2"/>
     </row>
     <row r="158">
-      <c r="A158" s="2"/>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
+      <c r="A158" s="1"/>
+      <c r="B158" s="1"/>
+      <c r="C158" s="1"/>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -6276,37 +6259,45 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="2"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" s="2"/>
-      <c r="R159" s="2"/>
-      <c r="S159" s="2"/>
-      <c r="T159" s="2"/>
-      <c r="U159" s="2"/>
-      <c r="V159" s="2"/>
-      <c r="W159" s="2"/>
-      <c r="X159" s="2"/>
-      <c r="Y159" s="2"/>
-      <c r="Z159" s="2"/>
+      <c r="A159" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+      <c r="K159" s="4"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="4"/>
+      <c r="N159" s="4"/>
+      <c r="O159" s="4"/>
+      <c r="P159" s="4"/>
+      <c r="Q159" s="4"/>
+      <c r="R159" s="4"/>
+      <c r="S159" s="4"/>
+      <c r="T159" s="4"/>
+      <c r="U159" s="4"/>
+      <c r="V159" s="4"/>
+      <c r="W159" s="4"/>
+      <c r="X159" s="4"/>
+      <c r="Y159" s="4"/>
+      <c r="Z159" s="4"/>
     </row>
     <row r="160">
-      <c r="A160" s="2"/>
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
+      <c r="A160" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -6332,9 +6323,15 @@
       <c r="Z160" s="2"/>
     </row>
     <row r="161">
-      <c r="A161" s="2"/>
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
+      <c r="A161" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>212</v>
+      </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -6360,9 +6357,15 @@
       <c r="Z161" s="2"/>
     </row>
     <row r="162">
-      <c r="A162" s="2"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
+      <c r="A162" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -6388,9 +6391,15 @@
       <c r="Z162" s="2"/>
     </row>
     <row r="163">
-      <c r="A163" s="2"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
+      <c r="A163" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -6416,9 +6425,15 @@
       <c r="Z163" s="2"/>
     </row>
     <row r="164">
-      <c r="A164" s="2"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
+      <c r="A164" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
       <c r="F164" s="2"/>
@@ -6444,9 +6459,15 @@
       <c r="Z164" s="2"/>
     </row>
     <row r="165">
-      <c r="A165" s="2"/>
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
+      <c r="A165" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -6472,9 +6493,15 @@
       <c r="Z165" s="2"/>
     </row>
     <row r="166">
-      <c r="A166" s="2"/>
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
+      <c r="A166" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -6500,9 +6527,15 @@
       <c r="Z166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="2"/>
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
+      <c r="A167" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -6528,9 +6561,15 @@
       <c r="Z167" s="2"/>
     </row>
     <row r="168">
-      <c r="A168" s="2"/>
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
+      <c r="A168" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>228</v>
+      </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
       <c r="F168" s="2"/>
@@ -6556,9 +6595,15 @@
       <c r="Z168" s="2"/>
     </row>
     <row r="169">
-      <c r="A169" s="2"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+      <c r="A169" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -6584,9 +6629,15 @@
       <c r="Z169" s="2"/>
     </row>
     <row r="170">
-      <c r="A170" s="2"/>
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
+      <c r="A170" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>232</v>
+      </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -6612,9 +6663,15 @@
       <c r="Z170" s="2"/>
     </row>
     <row r="171">
-      <c r="A171" s="2"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
+      <c r="A171" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -6640,9 +6697,15 @@
       <c r="Z171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="2"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
+      <c r="A172" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -6668,9 +6731,15 @@
       <c r="Z172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="2"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
+      <c r="A173" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -6696,9 +6765,15 @@
       <c r="Z173" s="2"/>
     </row>
     <row r="174">
-      <c r="A174" s="2"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
+      <c r="A174" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -6724,9 +6799,9 @@
       <c r="Z174" s="2"/>
     </row>
     <row r="175">
-      <c r="A175" s="2"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
+      <c r="A175" s="1"/>
+      <c r="B175" s="1"/>
+      <c r="C175" s="1"/>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -6752,37 +6827,45 @@
       <c r="Z175" s="2"/>
     </row>
     <row r="176">
-      <c r="A176" s="2"/>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
-      <c r="O176" s="2"/>
-      <c r="P176" s="2"/>
-      <c r="Q176" s="2"/>
-      <c r="R176" s="2"/>
-      <c r="S176" s="2"/>
-      <c r="T176" s="2"/>
-      <c r="U176" s="2"/>
-      <c r="V176" s="2"/>
-      <c r="W176" s="2"/>
-      <c r="X176" s="2"/>
-      <c r="Y176" s="2"/>
-      <c r="Z176" s="2"/>
+      <c r="A176" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="4"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
+      <c r="P176" s="4"/>
+      <c r="Q176" s="4"/>
+      <c r="R176" s="4"/>
+      <c r="S176" s="4"/>
+      <c r="T176" s="4"/>
+      <c r="U176" s="4"/>
+      <c r="V176" s="4"/>
+      <c r="W176" s="4"/>
+      <c r="X176" s="4"/>
+      <c r="Y176" s="4"/>
+      <c r="Z176" s="4"/>
     </row>
     <row r="177">
-      <c r="A177" s="2"/>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
+      <c r="A177" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C177" s="1" t="s">
+        <v>248</v>
+      </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
       <c r="F177" s="2"/>
@@ -6808,9 +6891,15 @@
       <c r="Z177" s="2"/>
     </row>
     <row r="178">
-      <c r="A178" s="2"/>
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
+      <c r="A178" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C178" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
@@ -6836,9 +6925,15 @@
       <c r="Z178" s="2"/>
     </row>
     <row r="179">
-      <c r="A179" s="2"/>
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
+      <c r="A179" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C179" s="1" t="s">
+        <v>254</v>
+      </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -6864,9 +6959,15 @@
       <c r="Z179" s="2"/>
     </row>
     <row r="180">
-      <c r="A180" s="2"/>
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
+      <c r="A180" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -6892,9 +6993,15 @@
       <c r="Z180" s="2"/>
     </row>
     <row r="181">
-      <c r="A181" s="2"/>
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
+      <c r="A181" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -6920,9 +7027,15 @@
       <c r="Z181" s="2"/>
     </row>
     <row r="182">
-      <c r="A182" s="2"/>
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
+      <c r="A182" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>261</v>
+      </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
@@ -6948,9 +7061,15 @@
       <c r="Z182" s="2"/>
     </row>
     <row r="183">
-      <c r="A183" s="2"/>
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
+      <c r="A183" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C183" s="1" t="s">
+        <v>264</v>
+      </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
@@ -6976,9 +7095,15 @@
       <c r="Z183" s="2"/>
     </row>
     <row r="184">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
+      <c r="A184" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -7004,9 +7129,15 @@
       <c r="Z184" s="2"/>
     </row>
     <row r="185">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
+      <c r="A185" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>270</v>
+      </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -7032,9 +7163,15 @@
       <c r="Z185" s="2"/>
     </row>
     <row r="186">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
+      <c r="A186" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -32791,6 +32928,1378 @@
       <c r="Y1105" s="2"/>
       <c r="Z1105" s="2"/>
     </row>
+    <row r="1106">
+      <c r="A1106" s="2"/>
+      <c r="B1106" s="2"/>
+      <c r="C1106" s="2"/>
+      <c r="D1106" s="2"/>
+      <c r="E1106" s="2"/>
+      <c r="F1106" s="2"/>
+      <c r="G1106" s="2"/>
+      <c r="H1106" s="2"/>
+      <c r="I1106" s="2"/>
+      <c r="J1106" s="2"/>
+      <c r="K1106" s="2"/>
+      <c r="L1106" s="2"/>
+      <c r="M1106" s="2"/>
+      <c r="N1106" s="2"/>
+      <c r="O1106" s="2"/>
+      <c r="P1106" s="2"/>
+      <c r="Q1106" s="2"/>
+      <c r="R1106" s="2"/>
+      <c r="S1106" s="2"/>
+      <c r="T1106" s="2"/>
+      <c r="U1106" s="2"/>
+      <c r="V1106" s="2"/>
+      <c r="W1106" s="2"/>
+      <c r="X1106" s="2"/>
+      <c r="Y1106" s="2"/>
+      <c r="Z1106" s="2"/>
+    </row>
+    <row r="1107">
+      <c r="A1107" s="2"/>
+      <c r="B1107" s="2"/>
+      <c r="C1107" s="2"/>
+      <c r="D1107" s="2"/>
+      <c r="E1107" s="2"/>
+      <c r="F1107" s="2"/>
+      <c r="G1107" s="2"/>
+      <c r="H1107" s="2"/>
+      <c r="I1107" s="2"/>
+      <c r="J1107" s="2"/>
+      <c r="K1107" s="2"/>
+      <c r="L1107" s="2"/>
+      <c r="M1107" s="2"/>
+      <c r="N1107" s="2"/>
+      <c r="O1107" s="2"/>
+      <c r="P1107" s="2"/>
+      <c r="Q1107" s="2"/>
+      <c r="R1107" s="2"/>
+      <c r="S1107" s="2"/>
+      <c r="T1107" s="2"/>
+      <c r="U1107" s="2"/>
+      <c r="V1107" s="2"/>
+      <c r="W1107" s="2"/>
+      <c r="X1107" s="2"/>
+      <c r="Y1107" s="2"/>
+      <c r="Z1107" s="2"/>
+    </row>
+    <row r="1108">
+      <c r="A1108" s="2"/>
+      <c r="B1108" s="2"/>
+      <c r="C1108" s="2"/>
+      <c r="D1108" s="2"/>
+      <c r="E1108" s="2"/>
+      <c r="F1108" s="2"/>
+      <c r="G1108" s="2"/>
+      <c r="H1108" s="2"/>
+      <c r="I1108" s="2"/>
+      <c r="J1108" s="2"/>
+      <c r="K1108" s="2"/>
+      <c r="L1108" s="2"/>
+      <c r="M1108" s="2"/>
+      <c r="N1108" s="2"/>
+      <c r="O1108" s="2"/>
+      <c r="P1108" s="2"/>
+      <c r="Q1108" s="2"/>
+      <c r="R1108" s="2"/>
+      <c r="S1108" s="2"/>
+      <c r="T1108" s="2"/>
+      <c r="U1108" s="2"/>
+      <c r="V1108" s="2"/>
+      <c r="W1108" s="2"/>
+      <c r="X1108" s="2"/>
+      <c r="Y1108" s="2"/>
+      <c r="Z1108" s="2"/>
+    </row>
+    <row r="1109">
+      <c r="A1109" s="2"/>
+      <c r="B1109" s="2"/>
+      <c r="C1109" s="2"/>
+      <c r="D1109" s="2"/>
+      <c r="E1109" s="2"/>
+      <c r="F1109" s="2"/>
+      <c r="G1109" s="2"/>
+      <c r="H1109" s="2"/>
+      <c r="I1109" s="2"/>
+      <c r="J1109" s="2"/>
+      <c r="K1109" s="2"/>
+      <c r="L1109" s="2"/>
+      <c r="M1109" s="2"/>
+      <c r="N1109" s="2"/>
+      <c r="O1109" s="2"/>
+      <c r="P1109" s="2"/>
+      <c r="Q1109" s="2"/>
+      <c r="R1109" s="2"/>
+      <c r="S1109" s="2"/>
+      <c r="T1109" s="2"/>
+      <c r="U1109" s="2"/>
+      <c r="V1109" s="2"/>
+      <c r="W1109" s="2"/>
+      <c r="X1109" s="2"/>
+      <c r="Y1109" s="2"/>
+      <c r="Z1109" s="2"/>
+    </row>
+    <row r="1110">
+      <c r="A1110" s="2"/>
+      <c r="B1110" s="2"/>
+      <c r="C1110" s="2"/>
+      <c r="D1110" s="2"/>
+      <c r="E1110" s="2"/>
+      <c r="F1110" s="2"/>
+      <c r="G1110" s="2"/>
+      <c r="H1110" s="2"/>
+      <c r="I1110" s="2"/>
+      <c r="J1110" s="2"/>
+      <c r="K1110" s="2"/>
+      <c r="L1110" s="2"/>
+      <c r="M1110" s="2"/>
+      <c r="N1110" s="2"/>
+      <c r="O1110" s="2"/>
+      <c r="P1110" s="2"/>
+      <c r="Q1110" s="2"/>
+      <c r="R1110" s="2"/>
+      <c r="S1110" s="2"/>
+      <c r="T1110" s="2"/>
+      <c r="U1110" s="2"/>
+      <c r="V1110" s="2"/>
+      <c r="W1110" s="2"/>
+      <c r="X1110" s="2"/>
+      <c r="Y1110" s="2"/>
+      <c r="Z1110" s="2"/>
+    </row>
+    <row r="1111">
+      <c r="A1111" s="2"/>
+      <c r="B1111" s="2"/>
+      <c r="C1111" s="2"/>
+      <c r="D1111" s="2"/>
+      <c r="E1111" s="2"/>
+      <c r="F1111" s="2"/>
+      <c r="G1111" s="2"/>
+      <c r="H1111" s="2"/>
+      <c r="I1111" s="2"/>
+      <c r="J1111" s="2"/>
+      <c r="K1111" s="2"/>
+      <c r="L1111" s="2"/>
+      <c r="M1111" s="2"/>
+      <c r="N1111" s="2"/>
+      <c r="O1111" s="2"/>
+      <c r="P1111" s="2"/>
+      <c r="Q1111" s="2"/>
+      <c r="R1111" s="2"/>
+      <c r="S1111" s="2"/>
+      <c r="T1111" s="2"/>
+      <c r="U1111" s="2"/>
+      <c r="V1111" s="2"/>
+      <c r="W1111" s="2"/>
+      <c r="X1111" s="2"/>
+      <c r="Y1111" s="2"/>
+      <c r="Z1111" s="2"/>
+    </row>
+    <row r="1112">
+      <c r="A1112" s="2"/>
+      <c r="B1112" s="2"/>
+      <c r="C1112" s="2"/>
+      <c r="D1112" s="2"/>
+      <c r="E1112" s="2"/>
+      <c r="F1112" s="2"/>
+      <c r="G1112" s="2"/>
+      <c r="H1112" s="2"/>
+      <c r="I1112" s="2"/>
+      <c r="J1112" s="2"/>
+      <c r="K1112" s="2"/>
+      <c r="L1112" s="2"/>
+      <c r="M1112" s="2"/>
+      <c r="N1112" s="2"/>
+      <c r="O1112" s="2"/>
+      <c r="P1112" s="2"/>
+      <c r="Q1112" s="2"/>
+      <c r="R1112" s="2"/>
+      <c r="S1112" s="2"/>
+      <c r="T1112" s="2"/>
+      <c r="U1112" s="2"/>
+      <c r="V1112" s="2"/>
+      <c r="W1112" s="2"/>
+      <c r="X1112" s="2"/>
+      <c r="Y1112" s="2"/>
+      <c r="Z1112" s="2"/>
+    </row>
+    <row r="1113">
+      <c r="A1113" s="2"/>
+      <c r="B1113" s="2"/>
+      <c r="C1113" s="2"/>
+      <c r="D1113" s="2"/>
+      <c r="E1113" s="2"/>
+      <c r="F1113" s="2"/>
+      <c r="G1113" s="2"/>
+      <c r="H1113" s="2"/>
+      <c r="I1113" s="2"/>
+      <c r="J1113" s="2"/>
+      <c r="K1113" s="2"/>
+      <c r="L1113" s="2"/>
+      <c r="M1113" s="2"/>
+      <c r="N1113" s="2"/>
+      <c r="O1113" s="2"/>
+      <c r="P1113" s="2"/>
+      <c r="Q1113" s="2"/>
+      <c r="R1113" s="2"/>
+      <c r="S1113" s="2"/>
+      <c r="T1113" s="2"/>
+      <c r="U1113" s="2"/>
+      <c r="V1113" s="2"/>
+      <c r="W1113" s="2"/>
+      <c r="X1113" s="2"/>
+      <c r="Y1113" s="2"/>
+      <c r="Z1113" s="2"/>
+    </row>
+    <row r="1114">
+      <c r="A1114" s="2"/>
+      <c r="B1114" s="2"/>
+      <c r="C1114" s="2"/>
+      <c r="D1114" s="2"/>
+      <c r="E1114" s="2"/>
+      <c r="F1114" s="2"/>
+      <c r="G1114" s="2"/>
+      <c r="H1114" s="2"/>
+      <c r="I1114" s="2"/>
+      <c r="J1114" s="2"/>
+      <c r="K1114" s="2"/>
+      <c r="L1114" s="2"/>
+      <c r="M1114" s="2"/>
+      <c r="N1114" s="2"/>
+      <c r="O1114" s="2"/>
+      <c r="P1114" s="2"/>
+      <c r="Q1114" s="2"/>
+      <c r="R1114" s="2"/>
+      <c r="S1114" s="2"/>
+      <c r="T1114" s="2"/>
+      <c r="U1114" s="2"/>
+      <c r="V1114" s="2"/>
+      <c r="W1114" s="2"/>
+      <c r="X1114" s="2"/>
+      <c r="Y1114" s="2"/>
+      <c r="Z1114" s="2"/>
+    </row>
+    <row r="1115">
+      <c r="A1115" s="2"/>
+      <c r="B1115" s="2"/>
+      <c r="C1115" s="2"/>
+      <c r="D1115" s="2"/>
+      <c r="E1115" s="2"/>
+      <c r="F1115" s="2"/>
+      <c r="G1115" s="2"/>
+      <c r="H1115" s="2"/>
+      <c r="I1115" s="2"/>
+      <c r="J1115" s="2"/>
+      <c r="K1115" s="2"/>
+      <c r="L1115" s="2"/>
+      <c r="M1115" s="2"/>
+      <c r="N1115" s="2"/>
+      <c r="O1115" s="2"/>
+      <c r="P1115" s="2"/>
+      <c r="Q1115" s="2"/>
+      <c r="R1115" s="2"/>
+      <c r="S1115" s="2"/>
+      <c r="T1115" s="2"/>
+      <c r="U1115" s="2"/>
+      <c r="V1115" s="2"/>
+      <c r="W1115" s="2"/>
+      <c r="X1115" s="2"/>
+      <c r="Y1115" s="2"/>
+      <c r="Z1115" s="2"/>
+    </row>
+    <row r="1116">
+      <c r="A1116" s="2"/>
+      <c r="B1116" s="2"/>
+      <c r="C1116" s="2"/>
+      <c r="D1116" s="2"/>
+      <c r="E1116" s="2"/>
+      <c r="F1116" s="2"/>
+      <c r="G1116" s="2"/>
+      <c r="H1116" s="2"/>
+      <c r="I1116" s="2"/>
+      <c r="J1116" s="2"/>
+      <c r="K1116" s="2"/>
+      <c r="L1116" s="2"/>
+      <c r="M1116" s="2"/>
+      <c r="N1116" s="2"/>
+      <c r="O1116" s="2"/>
+      <c r="P1116" s="2"/>
+      <c r="Q1116" s="2"/>
+      <c r="R1116" s="2"/>
+      <c r="S1116" s="2"/>
+      <c r="T1116" s="2"/>
+      <c r="U1116" s="2"/>
+      <c r="V1116" s="2"/>
+      <c r="W1116" s="2"/>
+      <c r="X1116" s="2"/>
+      <c r="Y1116" s="2"/>
+      <c r="Z1116" s="2"/>
+    </row>
+    <row r="1117">
+      <c r="A1117" s="2"/>
+      <c r="B1117" s="2"/>
+      <c r="C1117" s="2"/>
+      <c r="D1117" s="2"/>
+      <c r="E1117" s="2"/>
+      <c r="F1117" s="2"/>
+      <c r="G1117" s="2"/>
+      <c r="H1117" s="2"/>
+      <c r="I1117" s="2"/>
+      <c r="J1117" s="2"/>
+      <c r="K1117" s="2"/>
+      <c r="L1117" s="2"/>
+      <c r="M1117" s="2"/>
+      <c r="N1117" s="2"/>
+      <c r="O1117" s="2"/>
+      <c r="P1117" s="2"/>
+      <c r="Q1117" s="2"/>
+      <c r="R1117" s="2"/>
+      <c r="S1117" s="2"/>
+      <c r="T1117" s="2"/>
+      <c r="U1117" s="2"/>
+      <c r="V1117" s="2"/>
+      <c r="W1117" s="2"/>
+      <c r="X1117" s="2"/>
+      <c r="Y1117" s="2"/>
+      <c r="Z1117" s="2"/>
+    </row>
+    <row r="1118">
+      <c r="A1118" s="2"/>
+      <c r="B1118" s="2"/>
+      <c r="C1118" s="2"/>
+      <c r="D1118" s="2"/>
+      <c r="E1118" s="2"/>
+      <c r="F1118" s="2"/>
+      <c r="G1118" s="2"/>
+      <c r="H1118" s="2"/>
+      <c r="I1118" s="2"/>
+      <c r="J1118" s="2"/>
+      <c r="K1118" s="2"/>
+      <c r="L1118" s="2"/>
+      <c r="M1118" s="2"/>
+      <c r="N1118" s="2"/>
+      <c r="O1118" s="2"/>
+      <c r="P1118" s="2"/>
+      <c r="Q1118" s="2"/>
+      <c r="R1118" s="2"/>
+      <c r="S1118" s="2"/>
+      <c r="T1118" s="2"/>
+      <c r="U1118" s="2"/>
+      <c r="V1118" s="2"/>
+      <c r="W1118" s="2"/>
+      <c r="X1118" s="2"/>
+      <c r="Y1118" s="2"/>
+      <c r="Z1118" s="2"/>
+    </row>
+    <row r="1119">
+      <c r="A1119" s="2"/>
+      <c r="B1119" s="2"/>
+      <c r="C1119" s="2"/>
+      <c r="D1119" s="2"/>
+      <c r="E1119" s="2"/>
+      <c r="F1119" s="2"/>
+      <c r="G1119" s="2"/>
+      <c r="H1119" s="2"/>
+      <c r="I1119" s="2"/>
+      <c r="J1119" s="2"/>
+      <c r="K1119" s="2"/>
+      <c r="L1119" s="2"/>
+      <c r="M1119" s="2"/>
+      <c r="N1119" s="2"/>
+      <c r="O1119" s="2"/>
+      <c r="P1119" s="2"/>
+      <c r="Q1119" s="2"/>
+      <c r="R1119" s="2"/>
+      <c r="S1119" s="2"/>
+      <c r="T1119" s="2"/>
+      <c r="U1119" s="2"/>
+      <c r="V1119" s="2"/>
+      <c r="W1119" s="2"/>
+      <c r="X1119" s="2"/>
+      <c r="Y1119" s="2"/>
+      <c r="Z1119" s="2"/>
+    </row>
+    <row r="1120">
+      <c r="A1120" s="2"/>
+      <c r="B1120" s="2"/>
+      <c r="C1120" s="2"/>
+      <c r="D1120" s="2"/>
+      <c r="E1120" s="2"/>
+      <c r="F1120" s="2"/>
+      <c r="G1120" s="2"/>
+      <c r="H1120" s="2"/>
+      <c r="I1120" s="2"/>
+      <c r="J1120" s="2"/>
+      <c r="K1120" s="2"/>
+      <c r="L1120" s="2"/>
+      <c r="M1120" s="2"/>
+      <c r="N1120" s="2"/>
+      <c r="O1120" s="2"/>
+      <c r="P1120" s="2"/>
+      <c r="Q1120" s="2"/>
+      <c r="R1120" s="2"/>
+      <c r="S1120" s="2"/>
+      <c r="T1120" s="2"/>
+      <c r="U1120" s="2"/>
+      <c r="V1120" s="2"/>
+      <c r="W1120" s="2"/>
+      <c r="X1120" s="2"/>
+      <c r="Y1120" s="2"/>
+      <c r="Z1120" s="2"/>
+    </row>
+    <row r="1121">
+      <c r="A1121" s="2"/>
+      <c r="B1121" s="2"/>
+      <c r="C1121" s="2"/>
+      <c r="D1121" s="2"/>
+      <c r="E1121" s="2"/>
+      <c r="F1121" s="2"/>
+      <c r="G1121" s="2"/>
+      <c r="H1121" s="2"/>
+      <c r="I1121" s="2"/>
+      <c r="J1121" s="2"/>
+      <c r="K1121" s="2"/>
+      <c r="L1121" s="2"/>
+      <c r="M1121" s="2"/>
+      <c r="N1121" s="2"/>
+      <c r="O1121" s="2"/>
+      <c r="P1121" s="2"/>
+      <c r="Q1121" s="2"/>
+      <c r="R1121" s="2"/>
+      <c r="S1121" s="2"/>
+      <c r="T1121" s="2"/>
+      <c r="U1121" s="2"/>
+      <c r="V1121" s="2"/>
+      <c r="W1121" s="2"/>
+      <c r="X1121" s="2"/>
+      <c r="Y1121" s="2"/>
+      <c r="Z1121" s="2"/>
+    </row>
+    <row r="1122">
+      <c r="A1122" s="2"/>
+      <c r="B1122" s="2"/>
+      <c r="C1122" s="2"/>
+      <c r="D1122" s="2"/>
+      <c r="E1122" s="2"/>
+      <c r="F1122" s="2"/>
+      <c r="G1122" s="2"/>
+      <c r="H1122" s="2"/>
+      <c r="I1122" s="2"/>
+      <c r="J1122" s="2"/>
+      <c r="K1122" s="2"/>
+      <c r="L1122" s="2"/>
+      <c r="M1122" s="2"/>
+      <c r="N1122" s="2"/>
+      <c r="O1122" s="2"/>
+      <c r="P1122" s="2"/>
+      <c r="Q1122" s="2"/>
+      <c r="R1122" s="2"/>
+      <c r="S1122" s="2"/>
+      <c r="T1122" s="2"/>
+      <c r="U1122" s="2"/>
+      <c r="V1122" s="2"/>
+      <c r="W1122" s="2"/>
+      <c r="X1122" s="2"/>
+      <c r="Y1122" s="2"/>
+      <c r="Z1122" s="2"/>
+    </row>
+    <row r="1123">
+      <c r="A1123" s="2"/>
+      <c r="B1123" s="2"/>
+      <c r="C1123" s="2"/>
+      <c r="D1123" s="2"/>
+      <c r="E1123" s="2"/>
+      <c r="F1123" s="2"/>
+      <c r="G1123" s="2"/>
+      <c r="H1123" s="2"/>
+      <c r="I1123" s="2"/>
+      <c r="J1123" s="2"/>
+      <c r="K1123" s="2"/>
+      <c r="L1123" s="2"/>
+      <c r="M1123" s="2"/>
+      <c r="N1123" s="2"/>
+      <c r="O1123" s="2"/>
+      <c r="P1123" s="2"/>
+      <c r="Q1123" s="2"/>
+      <c r="R1123" s="2"/>
+      <c r="S1123" s="2"/>
+      <c r="T1123" s="2"/>
+      <c r="U1123" s="2"/>
+      <c r="V1123" s="2"/>
+      <c r="W1123" s="2"/>
+      <c r="X1123" s="2"/>
+      <c r="Y1123" s="2"/>
+      <c r="Z1123" s="2"/>
+    </row>
+    <row r="1124">
+      <c r="A1124" s="2"/>
+      <c r="B1124" s="2"/>
+      <c r="C1124" s="2"/>
+      <c r="D1124" s="2"/>
+      <c r="E1124" s="2"/>
+      <c r="F1124" s="2"/>
+      <c r="G1124" s="2"/>
+      <c r="H1124" s="2"/>
+      <c r="I1124" s="2"/>
+      <c r="J1124" s="2"/>
+      <c r="K1124" s="2"/>
+      <c r="L1124" s="2"/>
+      <c r="M1124" s="2"/>
+      <c r="N1124" s="2"/>
+      <c r="O1124" s="2"/>
+      <c r="P1124" s="2"/>
+      <c r="Q1124" s="2"/>
+      <c r="R1124" s="2"/>
+      <c r="S1124" s="2"/>
+      <c r="T1124" s="2"/>
+      <c r="U1124" s="2"/>
+      <c r="V1124" s="2"/>
+      <c r="W1124" s="2"/>
+      <c r="X1124" s="2"/>
+      <c r="Y1124" s="2"/>
+      <c r="Z1124" s="2"/>
+    </row>
+    <row r="1125">
+      <c r="A1125" s="2"/>
+      <c r="B1125" s="2"/>
+      <c r="C1125" s="2"/>
+      <c r="D1125" s="2"/>
+      <c r="E1125" s="2"/>
+      <c r="F1125" s="2"/>
+      <c r="G1125" s="2"/>
+      <c r="H1125" s="2"/>
+      <c r="I1125" s="2"/>
+      <c r="J1125" s="2"/>
+      <c r="K1125" s="2"/>
+      <c r="L1125" s="2"/>
+      <c r="M1125" s="2"/>
+      <c r="N1125" s="2"/>
+      <c r="O1125" s="2"/>
+      <c r="P1125" s="2"/>
+      <c r="Q1125" s="2"/>
+      <c r="R1125" s="2"/>
+      <c r="S1125" s="2"/>
+      <c r="T1125" s="2"/>
+      <c r="U1125" s="2"/>
+      <c r="V1125" s="2"/>
+      <c r="W1125" s="2"/>
+      <c r="X1125" s="2"/>
+      <c r="Y1125" s="2"/>
+      <c r="Z1125" s="2"/>
+    </row>
+    <row r="1126">
+      <c r="A1126" s="2"/>
+      <c r="B1126" s="2"/>
+      <c r="C1126" s="2"/>
+      <c r="D1126" s="2"/>
+      <c r="E1126" s="2"/>
+      <c r="F1126" s="2"/>
+      <c r="G1126" s="2"/>
+      <c r="H1126" s="2"/>
+      <c r="I1126" s="2"/>
+      <c r="J1126" s="2"/>
+      <c r="K1126" s="2"/>
+      <c r="L1126" s="2"/>
+      <c r="M1126" s="2"/>
+      <c r="N1126" s="2"/>
+      <c r="O1126" s="2"/>
+      <c r="P1126" s="2"/>
+      <c r="Q1126" s="2"/>
+      <c r="R1126" s="2"/>
+      <c r="S1126" s="2"/>
+      <c r="T1126" s="2"/>
+      <c r="U1126" s="2"/>
+      <c r="V1126" s="2"/>
+      <c r="W1126" s="2"/>
+      <c r="X1126" s="2"/>
+      <c r="Y1126" s="2"/>
+      <c r="Z1126" s="2"/>
+    </row>
+    <row r="1127">
+      <c r="A1127" s="2"/>
+      <c r="B1127" s="2"/>
+      <c r="C1127" s="2"/>
+      <c r="D1127" s="2"/>
+      <c r="E1127" s="2"/>
+      <c r="F1127" s="2"/>
+      <c r="G1127" s="2"/>
+      <c r="H1127" s="2"/>
+      <c r="I1127" s="2"/>
+      <c r="J1127" s="2"/>
+      <c r="K1127" s="2"/>
+      <c r="L1127" s="2"/>
+      <c r="M1127" s="2"/>
+      <c r="N1127" s="2"/>
+      <c r="O1127" s="2"/>
+      <c r="P1127" s="2"/>
+      <c r="Q1127" s="2"/>
+      <c r="R1127" s="2"/>
+      <c r="S1127" s="2"/>
+      <c r="T1127" s="2"/>
+      <c r="U1127" s="2"/>
+      <c r="V1127" s="2"/>
+      <c r="W1127" s="2"/>
+      <c r="X1127" s="2"/>
+      <c r="Y1127" s="2"/>
+      <c r="Z1127" s="2"/>
+    </row>
+    <row r="1128">
+      <c r="A1128" s="2"/>
+      <c r="B1128" s="2"/>
+      <c r="C1128" s="2"/>
+      <c r="D1128" s="2"/>
+      <c r="E1128" s="2"/>
+      <c r="F1128" s="2"/>
+      <c r="G1128" s="2"/>
+      <c r="H1128" s="2"/>
+      <c r="I1128" s="2"/>
+      <c r="J1128" s="2"/>
+      <c r="K1128" s="2"/>
+      <c r="L1128" s="2"/>
+      <c r="M1128" s="2"/>
+      <c r="N1128" s="2"/>
+      <c r="O1128" s="2"/>
+      <c r="P1128" s="2"/>
+      <c r="Q1128" s="2"/>
+      <c r="R1128" s="2"/>
+      <c r="S1128" s="2"/>
+      <c r="T1128" s="2"/>
+      <c r="U1128" s="2"/>
+      <c r="V1128" s="2"/>
+      <c r="W1128" s="2"/>
+      <c r="X1128" s="2"/>
+      <c r="Y1128" s="2"/>
+      <c r="Z1128" s="2"/>
+    </row>
+    <row r="1129">
+      <c r="A1129" s="2"/>
+      <c r="B1129" s="2"/>
+      <c r="C1129" s="2"/>
+      <c r="D1129" s="2"/>
+      <c r="E1129" s="2"/>
+      <c r="F1129" s="2"/>
+      <c r="G1129" s="2"/>
+      <c r="H1129" s="2"/>
+      <c r="I1129" s="2"/>
+      <c r="J1129" s="2"/>
+      <c r="K1129" s="2"/>
+      <c r="L1129" s="2"/>
+      <c r="M1129" s="2"/>
+      <c r="N1129" s="2"/>
+      <c r="O1129" s="2"/>
+      <c r="P1129" s="2"/>
+      <c r="Q1129" s="2"/>
+      <c r="R1129" s="2"/>
+      <c r="S1129" s="2"/>
+      <c r="T1129" s="2"/>
+      <c r="U1129" s="2"/>
+      <c r="V1129" s="2"/>
+      <c r="W1129" s="2"/>
+      <c r="X1129" s="2"/>
+      <c r="Y1129" s="2"/>
+      <c r="Z1129" s="2"/>
+    </row>
+    <row r="1130">
+      <c r="A1130" s="2"/>
+      <c r="B1130" s="2"/>
+      <c r="C1130" s="2"/>
+      <c r="D1130" s="2"/>
+      <c r="E1130" s="2"/>
+      <c r="F1130" s="2"/>
+      <c r="G1130" s="2"/>
+      <c r="H1130" s="2"/>
+      <c r="I1130" s="2"/>
+      <c r="J1130" s="2"/>
+      <c r="K1130" s="2"/>
+      <c r="L1130" s="2"/>
+      <c r="M1130" s="2"/>
+      <c r="N1130" s="2"/>
+      <c r="O1130" s="2"/>
+      <c r="P1130" s="2"/>
+      <c r="Q1130" s="2"/>
+      <c r="R1130" s="2"/>
+      <c r="S1130" s="2"/>
+      <c r="T1130" s="2"/>
+      <c r="U1130" s="2"/>
+      <c r="V1130" s="2"/>
+      <c r="W1130" s="2"/>
+      <c r="X1130" s="2"/>
+      <c r="Y1130" s="2"/>
+      <c r="Z1130" s="2"/>
+    </row>
+    <row r="1131">
+      <c r="A1131" s="2"/>
+      <c r="B1131" s="2"/>
+      <c r="C1131" s="2"/>
+      <c r="D1131" s="2"/>
+      <c r="E1131" s="2"/>
+      <c r="F1131" s="2"/>
+      <c r="G1131" s="2"/>
+      <c r="H1131" s="2"/>
+      <c r="I1131" s="2"/>
+      <c r="J1131" s="2"/>
+      <c r="K1131" s="2"/>
+      <c r="L1131" s="2"/>
+      <c r="M1131" s="2"/>
+      <c r="N1131" s="2"/>
+      <c r="O1131" s="2"/>
+      <c r="P1131" s="2"/>
+      <c r="Q1131" s="2"/>
+      <c r="R1131" s="2"/>
+      <c r="S1131" s="2"/>
+      <c r="T1131" s="2"/>
+      <c r="U1131" s="2"/>
+      <c r="V1131" s="2"/>
+      <c r="W1131" s="2"/>
+      <c r="X1131" s="2"/>
+      <c r="Y1131" s="2"/>
+      <c r="Z1131" s="2"/>
+    </row>
+    <row r="1132">
+      <c r="A1132" s="2"/>
+      <c r="B1132" s="2"/>
+      <c r="C1132" s="2"/>
+      <c r="D1132" s="2"/>
+      <c r="E1132" s="2"/>
+      <c r="F1132" s="2"/>
+      <c r="G1132" s="2"/>
+      <c r="H1132" s="2"/>
+      <c r="I1132" s="2"/>
+      <c r="J1132" s="2"/>
+      <c r="K1132" s="2"/>
+      <c r="L1132" s="2"/>
+      <c r="M1132" s="2"/>
+      <c r="N1132" s="2"/>
+      <c r="O1132" s="2"/>
+      <c r="P1132" s="2"/>
+      <c r="Q1132" s="2"/>
+      <c r="R1132" s="2"/>
+      <c r="S1132" s="2"/>
+      <c r="T1132" s="2"/>
+      <c r="U1132" s="2"/>
+      <c r="V1132" s="2"/>
+      <c r="W1132" s="2"/>
+      <c r="X1132" s="2"/>
+      <c r="Y1132" s="2"/>
+      <c r="Z1132" s="2"/>
+    </row>
+    <row r="1133">
+      <c r="A1133" s="2"/>
+      <c r="B1133" s="2"/>
+      <c r="C1133" s="2"/>
+      <c r="D1133" s="2"/>
+      <c r="E1133" s="2"/>
+      <c r="F1133" s="2"/>
+      <c r="G1133" s="2"/>
+      <c r="H1133" s="2"/>
+      <c r="I1133" s="2"/>
+      <c r="J1133" s="2"/>
+      <c r="K1133" s="2"/>
+      <c r="L1133" s="2"/>
+      <c r="M1133" s="2"/>
+      <c r="N1133" s="2"/>
+      <c r="O1133" s="2"/>
+      <c r="P1133" s="2"/>
+      <c r="Q1133" s="2"/>
+      <c r="R1133" s="2"/>
+      <c r="S1133" s="2"/>
+      <c r="T1133" s="2"/>
+      <c r="U1133" s="2"/>
+      <c r="V1133" s="2"/>
+      <c r="W1133" s="2"/>
+      <c r="X1133" s="2"/>
+      <c r="Y1133" s="2"/>
+      <c r="Z1133" s="2"/>
+    </row>
+    <row r="1134">
+      <c r="A1134" s="2"/>
+      <c r="B1134" s="2"/>
+      <c r="C1134" s="2"/>
+      <c r="D1134" s="2"/>
+      <c r="E1134" s="2"/>
+      <c r="F1134" s="2"/>
+      <c r="G1134" s="2"/>
+      <c r="H1134" s="2"/>
+      <c r="I1134" s="2"/>
+      <c r="J1134" s="2"/>
+      <c r="K1134" s="2"/>
+      <c r="L1134" s="2"/>
+      <c r="M1134" s="2"/>
+      <c r="N1134" s="2"/>
+      <c r="O1134" s="2"/>
+      <c r="P1134" s="2"/>
+      <c r="Q1134" s="2"/>
+      <c r="R1134" s="2"/>
+      <c r="S1134" s="2"/>
+      <c r="T1134" s="2"/>
+      <c r="U1134" s="2"/>
+      <c r="V1134" s="2"/>
+      <c r="W1134" s="2"/>
+      <c r="X1134" s="2"/>
+      <c r="Y1134" s="2"/>
+      <c r="Z1134" s="2"/>
+    </row>
+    <row r="1135">
+      <c r="A1135" s="2"/>
+      <c r="B1135" s="2"/>
+      <c r="C1135" s="2"/>
+      <c r="D1135" s="2"/>
+      <c r="E1135" s="2"/>
+      <c r="F1135" s="2"/>
+      <c r="G1135" s="2"/>
+      <c r="H1135" s="2"/>
+      <c r="I1135" s="2"/>
+      <c r="J1135" s="2"/>
+      <c r="K1135" s="2"/>
+      <c r="L1135" s="2"/>
+      <c r="M1135" s="2"/>
+      <c r="N1135" s="2"/>
+      <c r="O1135" s="2"/>
+      <c r="P1135" s="2"/>
+      <c r="Q1135" s="2"/>
+      <c r="R1135" s="2"/>
+      <c r="S1135" s="2"/>
+      <c r="T1135" s="2"/>
+      <c r="U1135" s="2"/>
+      <c r="V1135" s="2"/>
+      <c r="W1135" s="2"/>
+      <c r="X1135" s="2"/>
+      <c r="Y1135" s="2"/>
+      <c r="Z1135" s="2"/>
+    </row>
+    <row r="1136">
+      <c r="A1136" s="2"/>
+      <c r="B1136" s="2"/>
+      <c r="C1136" s="2"/>
+      <c r="D1136" s="2"/>
+      <c r="E1136" s="2"/>
+      <c r="F1136" s="2"/>
+      <c r="G1136" s="2"/>
+      <c r="H1136" s="2"/>
+      <c r="I1136" s="2"/>
+      <c r="J1136" s="2"/>
+      <c r="K1136" s="2"/>
+      <c r="L1136" s="2"/>
+      <c r="M1136" s="2"/>
+      <c r="N1136" s="2"/>
+      <c r="O1136" s="2"/>
+      <c r="P1136" s="2"/>
+      <c r="Q1136" s="2"/>
+      <c r="R1136" s="2"/>
+      <c r="S1136" s="2"/>
+      <c r="T1136" s="2"/>
+      <c r="U1136" s="2"/>
+      <c r="V1136" s="2"/>
+      <c r="W1136" s="2"/>
+      <c r="X1136" s="2"/>
+      <c r="Y1136" s="2"/>
+      <c r="Z1136" s="2"/>
+    </row>
+    <row r="1137">
+      <c r="A1137" s="2"/>
+      <c r="B1137" s="2"/>
+      <c r="C1137" s="2"/>
+      <c r="D1137" s="2"/>
+      <c r="E1137" s="2"/>
+      <c r="F1137" s="2"/>
+      <c r="G1137" s="2"/>
+      <c r="H1137" s="2"/>
+      <c r="I1137" s="2"/>
+      <c r="J1137" s="2"/>
+      <c r="K1137" s="2"/>
+      <c r="L1137" s="2"/>
+      <c r="M1137" s="2"/>
+      <c r="N1137" s="2"/>
+      <c r="O1137" s="2"/>
+      <c r="P1137" s="2"/>
+      <c r="Q1137" s="2"/>
+      <c r="R1137" s="2"/>
+      <c r="S1137" s="2"/>
+      <c r="T1137" s="2"/>
+      <c r="U1137" s="2"/>
+      <c r="V1137" s="2"/>
+      <c r="W1137" s="2"/>
+      <c r="X1137" s="2"/>
+      <c r="Y1137" s="2"/>
+      <c r="Z1137" s="2"/>
+    </row>
+    <row r="1138">
+      <c r="A1138" s="2"/>
+      <c r="B1138" s="2"/>
+      <c r="C1138" s="2"/>
+      <c r="D1138" s="2"/>
+      <c r="E1138" s="2"/>
+      <c r="F1138" s="2"/>
+      <c r="G1138" s="2"/>
+      <c r="H1138" s="2"/>
+      <c r="I1138" s="2"/>
+      <c r="J1138" s="2"/>
+      <c r="K1138" s="2"/>
+      <c r="L1138" s="2"/>
+      <c r="M1138" s="2"/>
+      <c r="N1138" s="2"/>
+      <c r="O1138" s="2"/>
+      <c r="P1138" s="2"/>
+      <c r="Q1138" s="2"/>
+      <c r="R1138" s="2"/>
+      <c r="S1138" s="2"/>
+      <c r="T1138" s="2"/>
+      <c r="U1138" s="2"/>
+      <c r="V1138" s="2"/>
+      <c r="W1138" s="2"/>
+      <c r="X1138" s="2"/>
+      <c r="Y1138" s="2"/>
+      <c r="Z1138" s="2"/>
+    </row>
+    <row r="1139">
+      <c r="A1139" s="2"/>
+      <c r="B1139" s="2"/>
+      <c r="C1139" s="2"/>
+      <c r="D1139" s="2"/>
+      <c r="E1139" s="2"/>
+      <c r="F1139" s="2"/>
+      <c r="G1139" s="2"/>
+      <c r="H1139" s="2"/>
+      <c r="I1139" s="2"/>
+      <c r="J1139" s="2"/>
+      <c r="K1139" s="2"/>
+      <c r="L1139" s="2"/>
+      <c r="M1139" s="2"/>
+      <c r="N1139" s="2"/>
+      <c r="O1139" s="2"/>
+      <c r="P1139" s="2"/>
+      <c r="Q1139" s="2"/>
+      <c r="R1139" s="2"/>
+      <c r="S1139" s="2"/>
+      <c r="T1139" s="2"/>
+      <c r="U1139" s="2"/>
+      <c r="V1139" s="2"/>
+      <c r="W1139" s="2"/>
+      <c r="X1139" s="2"/>
+      <c r="Y1139" s="2"/>
+      <c r="Z1139" s="2"/>
+    </row>
+    <row r="1140">
+      <c r="A1140" s="2"/>
+      <c r="B1140" s="2"/>
+      <c r="C1140" s="2"/>
+      <c r="D1140" s="2"/>
+      <c r="E1140" s="2"/>
+      <c r="F1140" s="2"/>
+      <c r="G1140" s="2"/>
+      <c r="H1140" s="2"/>
+      <c r="I1140" s="2"/>
+      <c r="J1140" s="2"/>
+      <c r="K1140" s="2"/>
+      <c r="L1140" s="2"/>
+      <c r="M1140" s="2"/>
+      <c r="N1140" s="2"/>
+      <c r="O1140" s="2"/>
+      <c r="P1140" s="2"/>
+      <c r="Q1140" s="2"/>
+      <c r="R1140" s="2"/>
+      <c r="S1140" s="2"/>
+      <c r="T1140" s="2"/>
+      <c r="U1140" s="2"/>
+      <c r="V1140" s="2"/>
+      <c r="W1140" s="2"/>
+      <c r="X1140" s="2"/>
+      <c r="Y1140" s="2"/>
+      <c r="Z1140" s="2"/>
+    </row>
+    <row r="1141">
+      <c r="A1141" s="2"/>
+      <c r="B1141" s="2"/>
+      <c r="C1141" s="2"/>
+      <c r="D1141" s="2"/>
+      <c r="E1141" s="2"/>
+      <c r="F1141" s="2"/>
+      <c r="G1141" s="2"/>
+      <c r="H1141" s="2"/>
+      <c r="I1141" s="2"/>
+      <c r="J1141" s="2"/>
+      <c r="K1141" s="2"/>
+      <c r="L1141" s="2"/>
+      <c r="M1141" s="2"/>
+      <c r="N1141" s="2"/>
+      <c r="O1141" s="2"/>
+      <c r="P1141" s="2"/>
+      <c r="Q1141" s="2"/>
+      <c r="R1141" s="2"/>
+      <c r="S1141" s="2"/>
+      <c r="T1141" s="2"/>
+      <c r="U1141" s="2"/>
+      <c r="V1141" s="2"/>
+      <c r="W1141" s="2"/>
+      <c r="X1141" s="2"/>
+      <c r="Y1141" s="2"/>
+      <c r="Z1141" s="2"/>
+    </row>
+    <row r="1142">
+      <c r="A1142" s="2"/>
+      <c r="B1142" s="2"/>
+      <c r="C1142" s="2"/>
+      <c r="D1142" s="2"/>
+      <c r="E1142" s="2"/>
+      <c r="F1142" s="2"/>
+      <c r="G1142" s="2"/>
+      <c r="H1142" s="2"/>
+      <c r="I1142" s="2"/>
+      <c r="J1142" s="2"/>
+      <c r="K1142" s="2"/>
+      <c r="L1142" s="2"/>
+      <c r="M1142" s="2"/>
+      <c r="N1142" s="2"/>
+      <c r="O1142" s="2"/>
+      <c r="P1142" s="2"/>
+      <c r="Q1142" s="2"/>
+      <c r="R1142" s="2"/>
+      <c r="S1142" s="2"/>
+      <c r="T1142" s="2"/>
+      <c r="U1142" s="2"/>
+      <c r="V1142" s="2"/>
+      <c r="W1142" s="2"/>
+      <c r="X1142" s="2"/>
+      <c r="Y1142" s="2"/>
+      <c r="Z1142" s="2"/>
+    </row>
+    <row r="1143">
+      <c r="A1143" s="2"/>
+      <c r="B1143" s="2"/>
+      <c r="C1143" s="2"/>
+      <c r="D1143" s="2"/>
+      <c r="E1143" s="2"/>
+      <c r="F1143" s="2"/>
+      <c r="G1143" s="2"/>
+      <c r="H1143" s="2"/>
+      <c r="I1143" s="2"/>
+      <c r="J1143" s="2"/>
+      <c r="K1143" s="2"/>
+      <c r="L1143" s="2"/>
+      <c r="M1143" s="2"/>
+      <c r="N1143" s="2"/>
+      <c r="O1143" s="2"/>
+      <c r="P1143" s="2"/>
+      <c r="Q1143" s="2"/>
+      <c r="R1143" s="2"/>
+      <c r="S1143" s="2"/>
+      <c r="T1143" s="2"/>
+      <c r="U1143" s="2"/>
+      <c r="V1143" s="2"/>
+      <c r="W1143" s="2"/>
+      <c r="X1143" s="2"/>
+      <c r="Y1143" s="2"/>
+      <c r="Z1143" s="2"/>
+    </row>
+    <row r="1144">
+      <c r="A1144" s="2"/>
+      <c r="B1144" s="2"/>
+      <c r="C1144" s="2"/>
+      <c r="D1144" s="2"/>
+      <c r="E1144" s="2"/>
+      <c r="F1144" s="2"/>
+      <c r="G1144" s="2"/>
+      <c r="H1144" s="2"/>
+      <c r="I1144" s="2"/>
+      <c r="J1144" s="2"/>
+      <c r="K1144" s="2"/>
+      <c r="L1144" s="2"/>
+      <c r="M1144" s="2"/>
+      <c r="N1144" s="2"/>
+      <c r="O1144" s="2"/>
+      <c r="P1144" s="2"/>
+      <c r="Q1144" s="2"/>
+      <c r="R1144" s="2"/>
+      <c r="S1144" s="2"/>
+      <c r="T1144" s="2"/>
+      <c r="U1144" s="2"/>
+      <c r="V1144" s="2"/>
+      <c r="W1144" s="2"/>
+      <c r="X1144" s="2"/>
+      <c r="Y1144" s="2"/>
+      <c r="Z1144" s="2"/>
+    </row>
+    <row r="1145">
+      <c r="A1145" s="2"/>
+      <c r="B1145" s="2"/>
+      <c r="C1145" s="2"/>
+      <c r="D1145" s="2"/>
+      <c r="E1145" s="2"/>
+      <c r="F1145" s="2"/>
+      <c r="G1145" s="2"/>
+      <c r="H1145" s="2"/>
+      <c r="I1145" s="2"/>
+      <c r="J1145" s="2"/>
+      <c r="K1145" s="2"/>
+      <c r="L1145" s="2"/>
+      <c r="M1145" s="2"/>
+      <c r="N1145" s="2"/>
+      <c r="O1145" s="2"/>
+      <c r="P1145" s="2"/>
+      <c r="Q1145" s="2"/>
+      <c r="R1145" s="2"/>
+      <c r="S1145" s="2"/>
+      <c r="T1145" s="2"/>
+      <c r="U1145" s="2"/>
+      <c r="V1145" s="2"/>
+      <c r="W1145" s="2"/>
+      <c r="X1145" s="2"/>
+      <c r="Y1145" s="2"/>
+      <c r="Z1145" s="2"/>
+    </row>
+    <row r="1146">
+      <c r="A1146" s="2"/>
+      <c r="B1146" s="2"/>
+      <c r="C1146" s="2"/>
+      <c r="D1146" s="2"/>
+      <c r="E1146" s="2"/>
+      <c r="F1146" s="2"/>
+      <c r="G1146" s="2"/>
+      <c r="H1146" s="2"/>
+      <c r="I1146" s="2"/>
+      <c r="J1146" s="2"/>
+      <c r="K1146" s="2"/>
+      <c r="L1146" s="2"/>
+      <c r="M1146" s="2"/>
+      <c r="N1146" s="2"/>
+      <c r="O1146" s="2"/>
+      <c r="P1146" s="2"/>
+      <c r="Q1146" s="2"/>
+      <c r="R1146" s="2"/>
+      <c r="S1146" s="2"/>
+      <c r="T1146" s="2"/>
+      <c r="U1146" s="2"/>
+      <c r="V1146" s="2"/>
+      <c r="W1146" s="2"/>
+      <c r="X1146" s="2"/>
+      <c r="Y1146" s="2"/>
+      <c r="Z1146" s="2"/>
+    </row>
+    <row r="1147">
+      <c r="A1147" s="2"/>
+      <c r="B1147" s="2"/>
+      <c r="C1147" s="2"/>
+      <c r="D1147" s="2"/>
+      <c r="E1147" s="2"/>
+      <c r="F1147" s="2"/>
+      <c r="G1147" s="2"/>
+      <c r="H1147" s="2"/>
+      <c r="I1147" s="2"/>
+      <c r="J1147" s="2"/>
+      <c r="K1147" s="2"/>
+      <c r="L1147" s="2"/>
+      <c r="M1147" s="2"/>
+      <c r="N1147" s="2"/>
+      <c r="O1147" s="2"/>
+      <c r="P1147" s="2"/>
+      <c r="Q1147" s="2"/>
+      <c r="R1147" s="2"/>
+      <c r="S1147" s="2"/>
+      <c r="T1147" s="2"/>
+      <c r="U1147" s="2"/>
+      <c r="V1147" s="2"/>
+      <c r="W1147" s="2"/>
+      <c r="X1147" s="2"/>
+      <c r="Y1147" s="2"/>
+      <c r="Z1147" s="2"/>
+    </row>
+    <row r="1148">
+      <c r="A1148" s="2"/>
+      <c r="B1148" s="2"/>
+      <c r="C1148" s="2"/>
+      <c r="D1148" s="2"/>
+      <c r="E1148" s="2"/>
+      <c r="F1148" s="2"/>
+      <c r="G1148" s="2"/>
+      <c r="H1148" s="2"/>
+      <c r="I1148" s="2"/>
+      <c r="J1148" s="2"/>
+      <c r="K1148" s="2"/>
+      <c r="L1148" s="2"/>
+      <c r="M1148" s="2"/>
+      <c r="N1148" s="2"/>
+      <c r="O1148" s="2"/>
+      <c r="P1148" s="2"/>
+      <c r="Q1148" s="2"/>
+      <c r="R1148" s="2"/>
+      <c r="S1148" s="2"/>
+      <c r="T1148" s="2"/>
+      <c r="U1148" s="2"/>
+      <c r="V1148" s="2"/>
+      <c r="W1148" s="2"/>
+      <c r="X1148" s="2"/>
+      <c r="Y1148" s="2"/>
+      <c r="Z1148" s="2"/>
+    </row>
+    <row r="1149">
+      <c r="A1149" s="2"/>
+      <c r="B1149" s="2"/>
+      <c r="C1149" s="2"/>
+      <c r="D1149" s="2"/>
+      <c r="E1149" s="2"/>
+      <c r="F1149" s="2"/>
+      <c r="G1149" s="2"/>
+      <c r="H1149" s="2"/>
+      <c r="I1149" s="2"/>
+      <c r="J1149" s="2"/>
+      <c r="K1149" s="2"/>
+      <c r="L1149" s="2"/>
+      <c r="M1149" s="2"/>
+      <c r="N1149" s="2"/>
+      <c r="O1149" s="2"/>
+      <c r="P1149" s="2"/>
+      <c r="Q1149" s="2"/>
+      <c r="R1149" s="2"/>
+      <c r="S1149" s="2"/>
+      <c r="T1149" s="2"/>
+      <c r="U1149" s="2"/>
+      <c r="V1149" s="2"/>
+      <c r="W1149" s="2"/>
+      <c r="X1149" s="2"/>
+      <c r="Y1149" s="2"/>
+      <c r="Z1149" s="2"/>
+    </row>
+    <row r="1150">
+      <c r="A1150" s="2"/>
+      <c r="B1150" s="2"/>
+      <c r="C1150" s="2"/>
+      <c r="D1150" s="2"/>
+      <c r="E1150" s="2"/>
+      <c r="F1150" s="2"/>
+      <c r="G1150" s="2"/>
+      <c r="H1150" s="2"/>
+      <c r="I1150" s="2"/>
+      <c r="J1150" s="2"/>
+      <c r="K1150" s="2"/>
+      <c r="L1150" s="2"/>
+      <c r="M1150" s="2"/>
+      <c r="N1150" s="2"/>
+      <c r="O1150" s="2"/>
+      <c r="P1150" s="2"/>
+      <c r="Q1150" s="2"/>
+      <c r="R1150" s="2"/>
+      <c r="S1150" s="2"/>
+      <c r="T1150" s="2"/>
+      <c r="U1150" s="2"/>
+      <c r="V1150" s="2"/>
+      <c r="W1150" s="2"/>
+      <c r="X1150" s="2"/>
+      <c r="Y1150" s="2"/>
+      <c r="Z1150" s="2"/>
+    </row>
+    <row r="1151">
+      <c r="A1151" s="2"/>
+      <c r="B1151" s="2"/>
+      <c r="C1151" s="2"/>
+      <c r="D1151" s="2"/>
+      <c r="E1151" s="2"/>
+      <c r="F1151" s="2"/>
+      <c r="G1151" s="2"/>
+      <c r="H1151" s="2"/>
+      <c r="I1151" s="2"/>
+      <c r="J1151" s="2"/>
+      <c r="K1151" s="2"/>
+      <c r="L1151" s="2"/>
+      <c r="M1151" s="2"/>
+      <c r="N1151" s="2"/>
+      <c r="O1151" s="2"/>
+      <c r="P1151" s="2"/>
+      <c r="Q1151" s="2"/>
+      <c r="R1151" s="2"/>
+      <c r="S1151" s="2"/>
+      <c r="T1151" s="2"/>
+      <c r="U1151" s="2"/>
+      <c r="V1151" s="2"/>
+      <c r="W1151" s="2"/>
+      <c r="X1151" s="2"/>
+      <c r="Y1151" s="2"/>
+      <c r="Z1151" s="2"/>
+    </row>
+    <row r="1152">
+      <c r="A1152" s="2"/>
+      <c r="B1152" s="2"/>
+      <c r="C1152" s="2"/>
+      <c r="D1152" s="2"/>
+      <c r="E1152" s="2"/>
+      <c r="F1152" s="2"/>
+      <c r="G1152" s="2"/>
+      <c r="H1152" s="2"/>
+      <c r="I1152" s="2"/>
+      <c r="J1152" s="2"/>
+      <c r="K1152" s="2"/>
+      <c r="L1152" s="2"/>
+      <c r="M1152" s="2"/>
+      <c r="N1152" s="2"/>
+      <c r="O1152" s="2"/>
+      <c r="P1152" s="2"/>
+      <c r="Q1152" s="2"/>
+      <c r="R1152" s="2"/>
+      <c r="S1152" s="2"/>
+      <c r="T1152" s="2"/>
+      <c r="U1152" s="2"/>
+      <c r="V1152" s="2"/>
+      <c r="W1152" s="2"/>
+      <c r="X1152" s="2"/>
+      <c r="Y1152" s="2"/>
+      <c r="Z1152" s="2"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2"/>
+      <c r="B1153" s="2"/>
+      <c r="C1153" s="2"/>
+      <c r="D1153" s="2"/>
+      <c r="E1153" s="2"/>
+      <c r="F1153" s="2"/>
+      <c r="G1153" s="2"/>
+      <c r="H1153" s="2"/>
+      <c r="I1153" s="2"/>
+      <c r="J1153" s="2"/>
+      <c r="K1153" s="2"/>
+      <c r="L1153" s="2"/>
+      <c r="M1153" s="2"/>
+      <c r="N1153" s="2"/>
+      <c r="O1153" s="2"/>
+      <c r="P1153" s="2"/>
+      <c r="Q1153" s="2"/>
+      <c r="R1153" s="2"/>
+      <c r="S1153" s="2"/>
+      <c r="T1153" s="2"/>
+      <c r="U1153" s="2"/>
+      <c r="V1153" s="2"/>
+      <c r="W1153" s="2"/>
+      <c r="X1153" s="2"/>
+      <c r="Y1153" s="2"/>
+      <c r="Z1153" s="2"/>
+    </row>
+    <row r="1154">
+      <c r="A1154" s="2"/>
+      <c r="B1154" s="2"/>
+      <c r="C1154" s="2"/>
+      <c r="D1154" s="2"/>
+      <c r="E1154" s="2"/>
+      <c r="F1154" s="2"/>
+      <c r="G1154" s="2"/>
+      <c r="H1154" s="2"/>
+      <c r="I1154" s="2"/>
+      <c r="J1154" s="2"/>
+      <c r="K1154" s="2"/>
+      <c r="L1154" s="2"/>
+      <c r="M1154" s="2"/>
+      <c r="N1154" s="2"/>
+      <c r="O1154" s="2"/>
+      <c r="P1154" s="2"/>
+      <c r="Q1154" s="2"/>
+      <c r="R1154" s="2"/>
+      <c r="S1154" s="2"/>
+      <c r="T1154" s="2"/>
+      <c r="U1154" s="2"/>
+      <c r="V1154" s="2"/>
+      <c r="W1154" s="2"/>
+      <c r="X1154" s="2"/>
+      <c r="Y1154" s="2"/>
+      <c r="Z1154" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="281">
   <si>
     <t>ID</t>
   </si>
@@ -163,16 +163,22 @@
     <t>至少 8 個字元。</t>
   </si>
   <si>
-    <t>Crypto Table</t>
+    <t>CRYPTO TABLE</t>
   </si>
   <si>
     <t>加密貨幣桌</t>
   </si>
   <si>
-    <t>VC Table</t>
+    <t>VIRTUAL CURRENCY TABLE</t>
   </si>
   <si>
     <t>虛擬貨幣桌</t>
+  </si>
+  <si>
+    <t>Crypto Table</t>
+  </si>
+  <si>
+    <t>VC Table</t>
   </si>
   <si>
     <t>Gold</t>
@@ -299,6 +305,24 @@
   </si>
   <si>
     <t>設定</t>
+  </si>
+  <si>
+    <t>Blinds</t>
+  </si>
+  <si>
+    <t>盲注</t>
+  </si>
+  <si>
+    <t>Min Buy-In</t>
+  </si>
+  <si>
+    <t>最低買入額</t>
+  </si>
+  <si>
+    <t>LAUNCH</t>
+  </si>
+  <si>
+    <t>發射</t>
   </si>
   <si>
     <t>錯誤訊息</t>
@@ -701,9 +725,6 @@
   </si>
   <si>
     <t>Blind</t>
-  </si>
-  <si>
-    <t>盲注</t>
   </si>
   <si>
     <t>AllIn</t>
@@ -2116,38 +2137,38 @@
       <c r="Z24" s="19"/>
     </row>
     <row r="25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-      <c r="U25" s="12"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="12"/>
-      <c r="X25" s="12"/>
-      <c r="Y25" s="12"/>
-      <c r="Z25" s="13"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="15"/>
     </row>
     <row r="26">
       <c r="A26" s="20" t="s">
@@ -2184,48 +2205,48 @@
       <c r="Z26" s="15"/>
     </row>
     <row r="27">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="15"/>
+      <c r="C27" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="13"/>
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2252,48 +2273,48 @@
       <c r="Z28" s="15"/>
     </row>
     <row r="29">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="15"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C30" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="19"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2317,187 +2338,209 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
+      <c r="Z30" s="15"/>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="18"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="18"/>
+      <c r="S31" s="18"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="18"/>
+      <c r="V31" s="18"/>
+      <c r="W31" s="18"/>
+      <c r="X31" s="18"/>
+      <c r="Y31" s="18"/>
+      <c r="Z31" s="19"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="21" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C33" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="21" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B34" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C34" s="21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="9" t="s">
+    <row r="35">
+      <c r="A35" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="11" t="s">
+      <c r="B35" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="12"/>
-      <c r="O34" s="12"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="12"/>
-      <c r="S34" s="12"/>
-      <c r="T34" s="12"/>
-      <c r="U34" s="12"/>
-      <c r="V34" s="12"/>
-      <c r="W34" s="12"/>
-      <c r="X34" s="12"/>
-      <c r="Y34" s="12"/>
-      <c r="Z34" s="13"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="22" t="s">
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B36" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="23" t="s">
+      <c r="C36" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="24"/>
-      <c r="R35" s="24"/>
-      <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
-      <c r="U35" s="24"/>
-      <c r="V35" s="24"/>
-      <c r="W35" s="24"/>
-      <c r="X35" s="24"/>
-      <c r="Y35" s="24"/>
-      <c r="Z35" s="25"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="26" t="s">
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="13"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="23" t="s">
+      <c r="B37" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="24"/>
-      <c r="R36" s="24"/>
-      <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
-      <c r="U36" s="24"/>
-      <c r="V36" s="24"/>
-      <c r="W36" s="24"/>
-      <c r="X36" s="24"/>
-      <c r="Y36" s="24"/>
-      <c r="Z36" s="25"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="27" t="s">
+      <c r="C37" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z37" s="28"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="24"/>
+      <c r="S37" s="24"/>
+      <c r="T37" s="24"/>
+      <c r="U37" s="24"/>
+      <c r="V37" s="24"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
+      <c r="Z37" s="25"/>
     </row>
     <row r="38">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="26" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -2524,82 +2567,60 @@
       <c r="Z38" s="25"/>
     </row>
     <row r="39">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z39" s="28"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B40" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="15"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="20" t="s">
+      <c r="C40" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="15"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="25"/>
     </row>
     <row r="41">
       <c r="A41" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2626,48 +2647,48 @@
       <c r="Z41" s="15"/>
     </row>
     <row r="42">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="12"/>
-      <c r="O42" s="12"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="12"/>
-      <c r="T42" s="12"/>
-      <c r="U42" s="12"/>
-      <c r="V42" s="12"/>
-      <c r="W42" s="12"/>
-      <c r="X42" s="12"/>
-      <c r="Y42" s="12"/>
-      <c r="Z42" s="13"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="15"/>
     </row>
     <row r="43">
       <c r="A43" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2694,82 +2715,82 @@
       <c r="Z43" s="15"/>
     </row>
     <row r="44">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="12"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="12"/>
+      <c r="Y44" s="12"/>
+      <c r="Z44" s="13"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="23" t="s">
+      <c r="B45" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="23" t="s">
+      <c r="C45" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="24"/>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-      <c r="K44" s="24"/>
-      <c r="L44" s="24"/>
-      <c r="M44" s="24"/>
-      <c r="N44" s="24"/>
-      <c r="O44" s="24"/>
-      <c r="P44" s="24"/>
-      <c r="Q44" s="24"/>
-      <c r="R44" s="24"/>
-      <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
-      <c r="U44" s="24"/>
-      <c r="V44" s="24"/>
-      <c r="W44" s="24"/>
-      <c r="X44" s="24"/>
-      <c r="Y44" s="24"/>
-      <c r="Z44" s="25"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="24"/>
-      <c r="H45" s="24"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="24"/>
-      <c r="K45" s="24"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="24"/>
-      <c r="R45" s="24"/>
-      <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
-      <c r="U45" s="24"/>
-      <c r="V45" s="24"/>
-      <c r="W45" s="24"/>
-      <c r="X45" s="24"/>
-      <c r="Y45" s="24"/>
-      <c r="Z45" s="25"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="15"/>
     </row>
     <row r="46">
       <c r="A46" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B46" s="23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46" s="24"/>
       <c r="E46" s="24"/>
@@ -2797,13 +2818,13 @@
     </row>
     <row r="47">
       <c r="A47" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B47" s="23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D47" s="24"/>
       <c r="E47" s="24"/>
@@ -2830,14 +2851,14 @@
       <c r="Z47" s="25"/>
     </row>
     <row r="48">
-      <c r="A48" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="30" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>93</v>
+      <c r="A48" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="23" t="s">
+        <v>91</v>
       </c>
       <c r="D48" s="24"/>
       <c r="E48" s="24"/>
@@ -2864,230 +2885,240 @@
       <c r="Z48" s="25"/>
     </row>
     <row r="49">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="24"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="24"/>
+      <c r="S49" s="24"/>
+      <c r="T49" s="24"/>
+      <c r="U49" s="24"/>
+      <c r="V49" s="24"/>
+      <c r="W49" s="24"/>
+      <c r="X49" s="24"/>
+      <c r="Y49" s="24"/>
+      <c r="Z49" s="25"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B50" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="C49" s="32" t="s">
+      <c r="C50" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="D49" s="33"/>
-      <c r="E49" s="33"/>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="33"/>
-      <c r="J49" s="33"/>
-      <c r="K49" s="33"/>
-      <c r="L49" s="33"/>
-      <c r="M49" s="33"/>
-      <c r="N49" s="33"/>
-      <c r="O49" s="33"/>
-      <c r="P49" s="33"/>
-      <c r="Q49" s="33"/>
-      <c r="R49" s="33"/>
-      <c r="S49" s="33"/>
-      <c r="T49" s="33"/>
-      <c r="U49" s="33"/>
-      <c r="V49" s="33"/>
-      <c r="W49" s="33"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="33"/>
-      <c r="Z49" s="34"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
-      <c r="V50" s="2"/>
-      <c r="W50" s="2"/>
-      <c r="X50" s="2"/>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="24"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="24"/>
+      <c r="S50" s="24"/>
+      <c r="T50" s="24"/>
+      <c r="U50" s="24"/>
+      <c r="V50" s="24"/>
+      <c r="W50" s="24"/>
+      <c r="X50" s="24"/>
+      <c r="Y50" s="24"/>
+      <c r="Z50" s="25"/>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
+      <c r="B51" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="33"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
+      <c r="V51" s="33"/>
+      <c r="W51" s="33"/>
+      <c r="X51" s="33"/>
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="34"/>
     </row>
     <row r="52">
-      <c r="A52" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="A52" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-      <c r="O52" s="6"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="6"/>
-      <c r="T52" s="6"/>
-      <c r="U52" s="6"/>
-      <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-      <c r="X52" s="6"/>
-      <c r="Y52" s="6"/>
-      <c r="Z52" s="6"/>
+      <c r="B52" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="12"/>
+      <c r="O52" s="12"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="12"/>
+      <c r="Y52" s="12"/>
+      <c r="Z52" s="13"/>
     </row>
     <row r="53">
-      <c r="A53" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="A53" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-      <c r="O53" s="6"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="6"/>
-      <c r="T53" s="6"/>
-      <c r="U53" s="6"/>
-      <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-      <c r="X53" s="6"/>
-      <c r="Y53" s="6"/>
-      <c r="Z53" s="6"/>
+      <c r="B53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="15"/>
     </row>
     <row r="54">
-      <c r="A54" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="A54" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
+      <c r="B54" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
+      <c r="Q54" s="18"/>
+      <c r="R54" s="18"/>
+      <c r="S54" s="18"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="18"/>
+      <c r="V54" s="18"/>
+      <c r="W54" s="18"/>
+      <c r="X54" s="18"/>
+      <c r="Y54" s="18"/>
+      <c r="Z54" s="19"/>
     </row>
     <row r="55">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-      <c r="O55" s="6"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="6"/>
-      <c r="T55" s="6"/>
-      <c r="U55" s="6"/>
-      <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-      <c r="X55" s="6"/>
-      <c r="Y55" s="6"/>
-      <c r="Z55" s="6"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -3116,44 +3147,48 @@
       <c r="Z56" s="4"/>
     </row>
     <row r="57">
-      <c r="A57" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36"/>
-      <c r="G57" s="36"/>
-      <c r="H57" s="36"/>
-      <c r="I57" s="36"/>
-      <c r="J57" s="36"/>
-      <c r="K57" s="36"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="36"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="36"/>
-      <c r="P57" s="36"/>
-      <c r="Q57" s="36"/>
-      <c r="R57" s="36"/>
-      <c r="S57" s="36"/>
-      <c r="T57" s="36"/>
-      <c r="U57" s="36"/>
-      <c r="V57" s="36"/>
-      <c r="W57" s="36"/>
-      <c r="X57" s="36"/>
-      <c r="Y57" s="36"/>
-      <c r="Z57" s="36"/>
+      <c r="A57" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+      <c r="L57" s="6"/>
+      <c r="M57" s="6"/>
+      <c r="N57" s="6"/>
+      <c r="O57" s="6"/>
+      <c r="P57" s="6"/>
+      <c r="Q57" s="6"/>
+      <c r="R57" s="6"/>
+      <c r="S57" s="6"/>
+      <c r="T57" s="6"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="6"/>
+      <c r="W57" s="6"/>
+      <c r="X57" s="6"/>
+      <c r="Y57" s="6"/>
+      <c r="Z57" s="6"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
@@ -3181,13 +3216,13 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
@@ -3214,15 +3249,9 @@
       <c r="Z59" s="6"/>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>110</v>
-      </c>
+      <c r="A60" s="5"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3248,78 +3277,74 @@
       <c r="Z60" s="6"/>
     </row>
     <row r="61">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="36"/>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36"/>
-      <c r="H61" s="36"/>
-      <c r="I61" s="36"/>
-      <c r="J61" s="36"/>
-      <c r="K61" s="36"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="36"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="36"/>
-      <c r="P61" s="36"/>
-      <c r="Q61" s="36"/>
-      <c r="R61" s="36"/>
-      <c r="S61" s="36"/>
-      <c r="T61" s="36"/>
-      <c r="U61" s="36"/>
-      <c r="V61" s="36"/>
-      <c r="W61" s="36"/>
-      <c r="X61" s="36"/>
-      <c r="Y61" s="36"/>
-      <c r="Z61" s="36"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B62" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="6"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="6"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="36"/>
+      <c r="E62" s="36"/>
+      <c r="F62" s="36"/>
+      <c r="G62" s="36"/>
+      <c r="H62" s="36"/>
+      <c r="I62" s="36"/>
+      <c r="J62" s="36"/>
+      <c r="K62" s="36"/>
+      <c r="L62" s="36"/>
+      <c r="M62" s="36"/>
+      <c r="N62" s="36"/>
+      <c r="O62" s="36"/>
+      <c r="P62" s="36"/>
+      <c r="Q62" s="36"/>
+      <c r="R62" s="36"/>
+      <c r="S62" s="36"/>
+      <c r="T62" s="36"/>
+      <c r="U62" s="36"/>
+      <c r="V62" s="36"/>
+      <c r="W62" s="36"/>
+      <c r="X62" s="36"/>
+      <c r="Y62" s="36"/>
+      <c r="Z62" s="36"/>
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="D63" s="6"/>
       <c r="E63" s="6"/>
@@ -3347,13 +3372,13 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
@@ -3380,108 +3405,112 @@
       <c r="Z64" s="6"/>
     </row>
     <row r="65">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="38"/>
-      <c r="K65" s="38"/>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
+      <c r="K65" s="6"/>
+      <c r="L65" s="6"/>
+      <c r="M65" s="6"/>
+      <c r="N65" s="6"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="6"/>
+      <c r="Q65" s="6"/>
+      <c r="R65" s="6"/>
+      <c r="S65" s="6"/>
+      <c r="T65" s="6"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="6"/>
+      <c r="W65" s="6"/>
+      <c r="X65" s="6"/>
+      <c r="Y65" s="6"/>
+      <c r="Z65" s="6"/>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="B66" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="36"/>
+      <c r="E66" s="36"/>
+      <c r="F66" s="36"/>
+      <c r="G66" s="36"/>
+      <c r="H66" s="36"/>
+      <c r="I66" s="36"/>
+      <c r="J66" s="36"/>
+      <c r="K66" s="36"/>
+      <c r="L66" s="36"/>
+      <c r="M66" s="36"/>
+      <c r="N66" s="36"/>
+      <c r="O66" s="36"/>
+      <c r="P66" s="36"/>
+      <c r="Q66" s="36"/>
+      <c r="R66" s="36"/>
+      <c r="S66" s="36"/>
+      <c r="T66" s="36"/>
+      <c r="U66" s="36"/>
+      <c r="V66" s="36"/>
+      <c r="W66" s="36"/>
+      <c r="X66" s="36"/>
+      <c r="Y66" s="36"/>
+      <c r="Z66" s="36"/>
     </row>
     <row r="67">
-      <c r="A67" s="35" t="s">
+      <c r="A67" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="36"/>
-      <c r="W67" s="36"/>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="36"/>
-      <c r="Z67" s="36"/>
+      <c r="B67" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
+      <c r="Y67" s="6"/>
+      <c r="Z67" s="6"/>
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D68" s="6"/>
       <c r="E68" s="6"/>
@@ -3509,13 +3538,13 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -3542,141 +3571,143 @@
       <c r="Z69" s="6"/>
     </row>
     <row r="70">
-      <c r="A70" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C70" s="5" t="s">
+      <c r="A70" s="37" t="s">
         <v>126</v>
       </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="38"/>
+      <c r="K70" s="38"/>
+      <c r="L70" s="38"/>
+      <c r="M70" s="38"/>
+      <c r="N70" s="38"/>
+      <c r="O70" s="38"/>
+      <c r="P70" s="38"/>
+      <c r="Q70" s="38"/>
+      <c r="R70" s="38"/>
+      <c r="S70" s="38"/>
+      <c r="T70" s="38"/>
+      <c r="U70" s="38"/>
+      <c r="V70" s="38"/>
+      <c r="W70" s="38"/>
+      <c r="X70" s="38"/>
+      <c r="Y70" s="38"/>
+      <c r="Z70" s="38"/>
     </row>
     <row r="71">
-      <c r="A71" s="35" t="s">
+      <c r="A71" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
-      <c r="V71" s="36"/>
-      <c r="W71" s="36"/>
-      <c r="X71" s="36"/>
-      <c r="Y71" s="36"/>
-      <c r="Z71" s="36"/>
+      <c r="B71" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="6"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
+      <c r="K71" s="6"/>
+      <c r="L71" s="6"/>
+      <c r="M71" s="6"/>
+      <c r="N71" s="6"/>
+      <c r="O71" s="6"/>
+      <c r="P71" s="6"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="6"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="6"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="6"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="6"/>
+      <c r="Y71" s="6"/>
+      <c r="Z71" s="6"/>
     </row>
     <row r="72">
-      <c r="A72" s="39" t="s">
+      <c r="A72" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="B72" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C72" s="7" t="s">
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="36"/>
+      <c r="E72" s="36"/>
+      <c r="F72" s="36"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="36"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="36"/>
+      <c r="L72" s="36"/>
+      <c r="M72" s="36"/>
+      <c r="N72" s="36"/>
+      <c r="O72" s="36"/>
+      <c r="P72" s="36"/>
+      <c r="Q72" s="36"/>
+      <c r="R72" s="36"/>
+      <c r="S72" s="36"/>
+      <c r="T72" s="36"/>
+      <c r="U72" s="36"/>
+      <c r="V72" s="36"/>
+      <c r="W72" s="36"/>
+      <c r="X72" s="36"/>
+      <c r="Y72" s="36"/>
+      <c r="Z72" s="36"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B73" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C73" s="7" t="s">
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-      <c r="J73" s="2"/>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="2"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2"/>
-      <c r="R73" s="2"/>
-      <c r="S73" s="2"/>
-      <c r="T73" s="2"/>
-      <c r="U73" s="2"/>
-      <c r="V73" s="2"/>
-      <c r="W73" s="2"/>
-      <c r="X73" s="2"/>
-      <c r="Y73" s="2"/>
-      <c r="Z73" s="2"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
+      <c r="B74" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -3702,78 +3733,78 @@
       <c r="Z74" s="6"/>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
-      <c r="F75" s="4"/>
-      <c r="G75" s="4"/>
-      <c r="H75" s="4"/>
-      <c r="I75" s="4"/>
-      <c r="J75" s="4"/>
-      <c r="K75" s="4"/>
-      <c r="L75" s="4"/>
-      <c r="M75" s="4"/>
-      <c r="N75" s="4"/>
-      <c r="O75" s="4"/>
-      <c r="P75" s="4"/>
-      <c r="Q75" s="4"/>
-      <c r="R75" s="4"/>
-      <c r="S75" s="4"/>
-      <c r="T75" s="4"/>
-      <c r="U75" s="4"/>
-      <c r="V75" s="4"/>
-      <c r="W75" s="4"/>
-      <c r="X75" s="4"/>
-      <c r="Y75" s="4"/>
-      <c r="Z75" s="4"/>
+      <c r="A75" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="6"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="6"/>
-      <c r="T76" s="6"/>
-      <c r="U76" s="6"/>
-      <c r="V76" s="6"/>
-      <c r="W76" s="6"/>
-      <c r="X76" s="6"/>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
+      <c r="A76" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="35"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="36"/>
+      <c r="E76" s="36"/>
+      <c r="F76" s="36"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="36"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="36"/>
+      <c r="L76" s="36"/>
+      <c r="M76" s="36"/>
+      <c r="N76" s="36"/>
+      <c r="O76" s="36"/>
+      <c r="P76" s="36"/>
+      <c r="Q76" s="36"/>
+      <c r="R76" s="36"/>
+      <c r="S76" s="36"/>
+      <c r="T76" s="36"/>
+      <c r="U76" s="36"/>
+      <c r="V76" s="36"/>
+      <c r="W76" s="36"/>
+      <c r="X76" s="36"/>
+      <c r="Y76" s="36"/>
+      <c r="Z76" s="36"/>
     </row>
     <row r="77">
-      <c r="A77" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>135</v>
+      <c r="A77" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -3800,38 +3831,38 @@
       <c r="Z77" s="6"/>
     </row>
     <row r="78">
-      <c r="A78" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
+      <c r="A78" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="5"/>
@@ -3863,7 +3894,7 @@
     </row>
     <row r="80">
       <c r="A80" s="3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -3892,184 +3923,174 @@
       <c r="Z80" s="4"/>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C81" s="1" t="s">
+      <c r="A81" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-      <c r="F81" s="2"/>
-      <c r="G81" s="2"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-      <c r="J81" s="2"/>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-      <c r="R81" s="2"/>
-      <c r="S81" s="2"/>
-      <c r="T81" s="2"/>
-      <c r="U81" s="2"/>
-      <c r="V81" s="2"/>
-      <c r="W81" s="2"/>
-      <c r="X81" s="2"/>
-      <c r="Y81" s="2"/>
-      <c r="Z81" s="2"/>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B82" s="1" t="s">
+      <c r="A82" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="B82" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-      <c r="F82" s="2"/>
-      <c r="G82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" s="2"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2"/>
-      <c r="T82" s="2"/>
-      <c r="U82" s="2"/>
-      <c r="V82" s="2"/>
-      <c r="W82" s="2"/>
-      <c r="X82" s="2"/>
-      <c r="Y82" s="2"/>
-      <c r="Z82" s="2"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="C83" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-      <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B84" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
-      <c r="V84" s="2"/>
-      <c r="W84" s="2"/>
-      <c r="X84" s="2"/>
-      <c r="Y84" s="2"/>
-      <c r="Z84" s="2"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2"/>
-      <c r="T85" s="2"/>
-      <c r="U85" s="2"/>
-      <c r="V85" s="2"/>
-      <c r="W85" s="2"/>
-      <c r="X85" s="2"/>
-      <c r="Y85" s="2"/>
-      <c r="Z85" s="2"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -4096,9 +4117,15 @@
       <c r="Z86" s="2"/>
     </row>
     <row r="87">
-      <c r="A87" s="1"/>
-      <c r="B87" s="1"/>
-      <c r="C87" s="1"/>
+      <c r="A87" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
@@ -4124,44 +4151,48 @@
       <c r="Z87" s="2"/>
     </row>
     <row r="88">
-      <c r="A88" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-      <c r="U88" s="4"/>
-      <c r="V88" s="4"/>
-      <c r="W88" s="4"/>
-      <c r="X88" s="4"/>
-      <c r="Y88" s="4"/>
-      <c r="Z88" s="4"/>
+      <c r="A88" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
@@ -4189,13 +4220,13 @@
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
@@ -4223,13 +4254,13 @@
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -4256,150 +4287,140 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="12"/>
-      <c r="O92" s="12"/>
-      <c r="P92" s="12"/>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="12"/>
-      <c r="S92" s="12"/>
-      <c r="T92" s="12"/>
-      <c r="U92" s="12"/>
-      <c r="V92" s="12"/>
-      <c r="W92" s="12"/>
-      <c r="X92" s="12"/>
-      <c r="Y92" s="12"/>
-      <c r="Z92" s="13"/>
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="20" t="s">
+      <c r="A93" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="4"/>
+      <c r="Q93" s="4"/>
+      <c r="R93" s="4"/>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="C94" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="2"/>
-      <c r="V93" s="2"/>
-      <c r="W93" s="2"/>
-      <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
-      <c r="Z93" s="15"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="16" t="s">
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="B94" s="17" t="s">
+      <c r="B95" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="C95" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="18"/>
-      <c r="I94" s="18"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="18"/>
-      <c r="L94" s="18"/>
-      <c r="M94" s="18"/>
-      <c r="N94" s="18"/>
-      <c r="O94" s="18"/>
-      <c r="P94" s="18"/>
-      <c r="Q94" s="18"/>
-      <c r="R94" s="18"/>
-      <c r="S94" s="18"/>
-      <c r="T94" s="18"/>
-      <c r="U94" s="18"/>
-      <c r="V94" s="18"/>
-      <c r="W94" s="18"/>
-      <c r="X94" s="18"/>
-      <c r="Y94" s="18"/>
-      <c r="Z94" s="19"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="9" t="s">
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B96" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C95" s="11" t="s">
+      <c r="C96" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="12"/>
-      <c r="O95" s="12"/>
-      <c r="P95" s="12"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="12"/>
-      <c r="S95" s="12"/>
-      <c r="T95" s="12"/>
-      <c r="U95" s="12"/>
-      <c r="V95" s="12"/>
-      <c r="W95" s="12"/>
-      <c r="X95" s="12"/>
-      <c r="Y95" s="12"/>
-      <c r="Z95" s="13"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -4423,153 +4444,153 @@
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
-      <c r="Z96" s="15"/>
+      <c r="Z96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="20" t="s">
+      <c r="A97" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="13"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B98" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="C98" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="2"/>
-      <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
-      <c r="Z97" s="15"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="16" t="s">
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="15"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="B98" s="17" t="s">
+      <c r="B99" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C98" s="17" t="s">
+      <c r="C99" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="18"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="18"/>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="18"/>
-      <c r="L98" s="18"/>
-      <c r="M98" s="18"/>
-      <c r="N98" s="18"/>
-      <c r="O98" s="18"/>
-      <c r="P98" s="18"/>
-      <c r="Q98" s="18"/>
-      <c r="R98" s="18"/>
-      <c r="S98" s="18"/>
-      <c r="T98" s="18"/>
-      <c r="U98" s="18"/>
-      <c r="V98" s="18"/>
-      <c r="W98" s="18"/>
-      <c r="X98" s="18"/>
-      <c r="Y98" s="18"/>
-      <c r="Z98" s="19"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="9" t="s">
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="18"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="18"/>
+      <c r="Q99" s="18"/>
+      <c r="R99" s="18"/>
+      <c r="S99" s="18"/>
+      <c r="T99" s="18"/>
+      <c r="U99" s="18"/>
+      <c r="V99" s="18"/>
+      <c r="W99" s="18"/>
+      <c r="X99" s="18"/>
+      <c r="Y99" s="18"/>
+      <c r="Z99" s="19"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B100" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C100" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="12"/>
-      <c r="S99" s="12"/>
-      <c r="T99" s="12"/>
-      <c r="U99" s="12"/>
-      <c r="V99" s="12"/>
-      <c r="W99" s="12"/>
-      <c r="X99" s="12"/>
-      <c r="Y99" s="12"/>
-      <c r="Z99" s="13"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="27" t="s">
-        <v>174</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-      <c r="Z100" s="15"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100" s="12"/>
+      <c r="X100" s="12"/>
+      <c r="Y100" s="12"/>
+      <c r="Z100" s="13"/>
     </row>
     <row r="101">
       <c r="A101" s="20" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -4596,140 +4617,150 @@
       <c r="Z101" s="15"/>
     </row>
     <row r="102">
-      <c r="A102" s="16" t="s">
+      <c r="A102" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="15"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="B102" s="17" t="s">
+      <c r="B103" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="C102" s="17" t="s">
+      <c r="C103" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="18"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="18"/>
-      <c r="I102" s="18"/>
-      <c r="J102" s="18"/>
-      <c r="K102" s="18"/>
-      <c r="L102" s="18"/>
-      <c r="M102" s="18"/>
-      <c r="N102" s="18"/>
-      <c r="O102" s="18"/>
-      <c r="P102" s="18"/>
-      <c r="Q102" s="18"/>
-      <c r="R102" s="18"/>
-      <c r="S102" s="18"/>
-      <c r="T102" s="18"/>
-      <c r="U102" s="18"/>
-      <c r="V102" s="18"/>
-      <c r="W102" s="18"/>
-      <c r="X102" s="18"/>
-      <c r="Y102" s="18"/>
-      <c r="Z102" s="19"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="18"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="18"/>
+      <c r="Q103" s="18"/>
+      <c r="R103" s="18"/>
+      <c r="S103" s="18"/>
+      <c r="T103" s="18"/>
+      <c r="U103" s="18"/>
+      <c r="V103" s="18"/>
+      <c r="W103" s="18"/>
+      <c r="X103" s="18"/>
+      <c r="Y103" s="18"/>
+      <c r="Z103" s="19"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B104" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="C104" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="2"/>
-      <c r="U103" s="2"/>
-      <c r="V103" s="2"/>
-      <c r="W103" s="2"/>
-      <c r="X103" s="2"/>
-      <c r="Y103" s="2"/>
-      <c r="Z103" s="2"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1"/>
-      <c r="B104" s="1"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
-      <c r="U104" s="2"/>
-      <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
-      <c r="X104" s="2"/>
-      <c r="Y104" s="2"/>
-      <c r="Z104" s="2"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
+      <c r="Z104" s="13"/>
     </row>
     <row r="105">
-      <c r="A105" s="3" t="s">
+      <c r="A105" s="27" t="s">
         <v>182</v>
       </c>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="4"/>
-      <c r="E105" s="4"/>
-      <c r="F105" s="4"/>
-      <c r="G105" s="4"/>
-      <c r="H105" s="4"/>
-      <c r="I105" s="4"/>
-      <c r="J105" s="4"/>
-      <c r="K105" s="4"/>
-      <c r="L105" s="4"/>
-      <c r="M105" s="4"/>
-      <c r="N105" s="4"/>
-      <c r="O105" s="4"/>
-      <c r="P105" s="4"/>
-      <c r="Q105" s="4"/>
-      <c r="R105" s="4"/>
-      <c r="S105" s="4"/>
-      <c r="T105" s="4"/>
-      <c r="U105" s="4"/>
-      <c r="V105" s="4"/>
-      <c r="W105" s="4"/>
-      <c r="X105" s="4"/>
-      <c r="Y105" s="4"/>
-      <c r="Z105" s="4"/>
+      <c r="B105" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="15"/>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="s">
-        <v>183</v>
+      <c r="A106" s="20" t="s">
+        <v>184</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4753,76 +4784,80 @@
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
-      <c r="Z106" s="2"/>
+      <c r="Z106" s="15"/>
     </row>
     <row r="107">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1"/>
-      <c r="C107" s="1"/>
-      <c r="D107" s="2"/>
-      <c r="E107" s="2"/>
-      <c r="F107" s="2"/>
-      <c r="G107" s="2"/>
-      <c r="H107" s="2"/>
-      <c r="I107" s="2"/>
-      <c r="J107" s="2"/>
-      <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-      <c r="Q107" s="2"/>
-      <c r="R107" s="2"/>
-      <c r="S107" s="2"/>
-      <c r="T107" s="2"/>
-      <c r="U107" s="2"/>
-      <c r="V107" s="2"/>
-      <c r="W107" s="2"/>
-      <c r="X107" s="2"/>
-      <c r="Y107" s="2"/>
-      <c r="Z107" s="2"/>
+      <c r="A107" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="B107" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="C107" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="18"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
+      <c r="O107" s="18"/>
+      <c r="P107" s="18"/>
+      <c r="Q107" s="18"/>
+      <c r="R107" s="18"/>
+      <c r="S107" s="18"/>
+      <c r="T107" s="18"/>
+      <c r="U107" s="18"/>
+      <c r="V107" s="18"/>
+      <c r="W107" s="18"/>
+      <c r="X107" s="18"/>
+      <c r="Y107" s="18"/>
+      <c r="Z107" s="19"/>
     </row>
     <row r="108">
-      <c r="A108" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="4"/>
-      <c r="E108" s="4"/>
-      <c r="F108" s="4"/>
-      <c r="G108" s="4"/>
-      <c r="H108" s="4"/>
-      <c r="I108" s="4"/>
-      <c r="J108" s="4"/>
-      <c r="K108" s="4"/>
-      <c r="L108" s="4"/>
-      <c r="M108" s="4"/>
-      <c r="N108" s="4"/>
-      <c r="O108" s="4"/>
-      <c r="P108" s="4"/>
-      <c r="Q108" s="4"/>
-      <c r="R108" s="4"/>
-      <c r="S108" s="4"/>
-      <c r="T108" s="4"/>
-      <c r="U108" s="4"/>
-      <c r="V108" s="4"/>
-      <c r="W108" s="4"/>
-      <c r="X108" s="4"/>
-      <c r="Y108" s="4"/>
-      <c r="Z108" s="4"/>
+      <c r="A108" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>186</v>
-      </c>
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -4848,48 +4883,44 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="2"/>
-      <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
-      <c r="V110" s="2"/>
-      <c r="W110" s="2"/>
-      <c r="X110" s="2"/>
-      <c r="Y110" s="2"/>
-      <c r="Z110" s="2"/>
+      <c r="A110" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="4"/>
+      <c r="Q110" s="4"/>
+      <c r="R110" s="4"/>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -4916,15 +4947,9 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -4950,48 +4975,44 @@
       <c r="Z112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
-      <c r="S113" s="2"/>
-      <c r="T113" s="2"/>
-      <c r="U113" s="2"/>
-      <c r="V113" s="2"/>
-      <c r="W113" s="2"/>
-      <c r="X113" s="2"/>
-      <c r="Y113" s="2"/>
-      <c r="Z113" s="2"/>
+      <c r="A113" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5019,13 +5040,13 @@
     </row>
     <row r="115">
       <c r="A115" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -5053,13 +5074,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -5086,9 +5107,15 @@
       <c r="Z116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+      <c r="A117" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>200</v>
+      </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -5114,44 +5141,48 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="s">
+      <c r="A118" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="4"/>
-      <c r="S118" s="4"/>
-      <c r="T118" s="4"/>
-      <c r="U118" s="4"/>
-      <c r="V118" s="4"/>
-      <c r="W118" s="4"/>
-      <c r="X118" s="4"/>
-      <c r="Y118" s="4"/>
-      <c r="Z118" s="4"/>
+      <c r="B118" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="2"/>
+      <c r="Y118" s="2"/>
+      <c r="Z118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -5179,13 +5210,13 @@
     </row>
     <row r="120">
       <c r="A120" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -5212,15 +5243,38 @@
       <c r="Z120" s="2"/>
     </row>
     <row r="121">
-      <c r="A121" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="B121" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C121" s="21" t="s">
+      <c r="A121" s="1" t="s">
         <v>207</v>
       </c>
+      <c r="B121" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="V121" s="2"/>
+      <c r="W121" s="2"/>
+      <c r="X121" s="2"/>
+      <c r="Y121" s="2"/>
+      <c r="Z121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" s="1"/>
@@ -5251,37 +5305,45 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="1"/>
-      <c r="B123" s="1"/>
-      <c r="C123" s="1"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
-      <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2"/>
-      <c r="V123" s="2"/>
-      <c r="W123" s="2"/>
-      <c r="X123" s="2"/>
-      <c r="Y123" s="2"/>
-      <c r="Z123" s="2"/>
+      <c r="A123" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="4"/>
+      <c r="Q123" s="4"/>
+      <c r="R123" s="4"/>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4"/>
+      <c r="Y123" s="4"/>
+      <c r="Z123" s="4"/>
     </row>
     <row r="124">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -5307,9 +5369,15 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
+      <c r="A125" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>213</v>
+      </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -5335,32 +5403,15 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="1"/>
-      <c r="B126" s="1"/>
-      <c r="C126" s="1"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
-      <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-      <c r="U126" s="2"/>
-      <c r="V126" s="2"/>
-      <c r="W126" s="2"/>
-      <c r="X126" s="2"/>
-      <c r="Y126" s="2"/>
-      <c r="Z126" s="2"/>
+      <c r="A126" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1"/>
@@ -6259,45 +6310,37 @@
       <c r="Z158" s="2"/>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
-      <c r="F159" s="4"/>
-      <c r="G159" s="4"/>
-      <c r="H159" s="4"/>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
-      <c r="K159" s="4"/>
-      <c r="L159" s="4"/>
-      <c r="M159" s="4"/>
-      <c r="N159" s="4"/>
-      <c r="O159" s="4"/>
-      <c r="P159" s="4"/>
-      <c r="Q159" s="4"/>
-      <c r="R159" s="4"/>
-      <c r="S159" s="4"/>
-      <c r="T159" s="4"/>
-      <c r="U159" s="4"/>
-      <c r="V159" s="4"/>
-      <c r="W159" s="4"/>
-      <c r="X159" s="4"/>
-      <c r="Y159" s="4"/>
-      <c r="Z159" s="4"/>
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+      <c r="C159" s="1"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
+      <c r="Q159" s="2"/>
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2"/>
+      <c r="V159" s="2"/>
+      <c r="W159" s="2"/>
+      <c r="X159" s="2"/>
+      <c r="Y159" s="2"/>
+      <c r="Z159" s="2"/>
     </row>
     <row r="160">
-      <c r="A160" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>210</v>
-      </c>
+      <c r="A160" s="1"/>
+      <c r="B160" s="1"/>
+      <c r="C160" s="1"/>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -6323,15 +6366,9 @@
       <c r="Z160" s="2"/>
     </row>
     <row r="161">
-      <c r="A161" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>212</v>
-      </c>
+      <c r="A161" s="1"/>
+      <c r="B161" s="1"/>
+      <c r="C161" s="1"/>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -6357,15 +6394,9 @@
       <c r="Z161" s="2"/>
     </row>
     <row r="162">
-      <c r="A162" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>214</v>
-      </c>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
@@ -6391,15 +6422,9 @@
       <c r="Z162" s="2"/>
     </row>
     <row r="163">
-      <c r="A163" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="A163" s="1"/>
+      <c r="B163" s="1"/>
+      <c r="C163" s="1"/>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -6425,48 +6450,44 @@
       <c r="Z163" s="2"/>
     </row>
     <row r="164">
-      <c r="A164" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-      <c r="Q164" s="2"/>
-      <c r="R164" s="2"/>
-      <c r="S164" s="2"/>
-      <c r="T164" s="2"/>
-      <c r="U164" s="2"/>
-      <c r="V164" s="2"/>
-      <c r="W164" s="2"/>
-      <c r="X164" s="2"/>
-      <c r="Y164" s="2"/>
-      <c r="Z164" s="2"/>
+      <c r="A164" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
+      <c r="R164" s="4"/>
+      <c r="S164" s="4"/>
+      <c r="T164" s="4"/>
+      <c r="U164" s="4"/>
+      <c r="V164" s="4"/>
+      <c r="W164" s="4"/>
+      <c r="X164" s="4"/>
+      <c r="Y164" s="4"/>
+      <c r="Z164" s="4"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -6494,13 +6515,13 @@
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6528,13 +6549,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6562,13 +6583,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6596,13 +6617,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6630,13 +6651,13 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6664,13 +6685,13 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6698,13 +6719,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6732,13 +6753,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6766,13 +6787,13 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>244</v>
+        <v>99</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6799,9 +6820,15 @@
       <c r="Z174" s="2"/>
     </row>
     <row r="175">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
+      <c r="A175" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -6827,44 +6854,48 @@
       <c r="Z175" s="2"/>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
-      <c r="M176" s="4"/>
-      <c r="N176" s="4"/>
-      <c r="O176" s="4"/>
-      <c r="P176" s="4"/>
-      <c r="Q176" s="4"/>
-      <c r="R176" s="4"/>
-      <c r="S176" s="4"/>
-      <c r="T176" s="4"/>
-      <c r="U176" s="4"/>
-      <c r="V176" s="4"/>
-      <c r="W176" s="4"/>
-      <c r="X176" s="4"/>
-      <c r="Y176" s="4"/>
-      <c r="Z176" s="4"/>
+      <c r="A176" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
+      <c r="U176" s="2"/>
+      <c r="V176" s="2"/>
+      <c r="W176" s="2"/>
+      <c r="X176" s="2"/>
+      <c r="Y176" s="2"/>
+      <c r="Z176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6892,13 +6923,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6926,13 +6957,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -6959,15 +6990,9 @@
       <c r="Z179" s="2"/>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>257</v>
-      </c>
+      <c r="A180" s="1"/>
+      <c r="B180" s="1"/>
+      <c r="C180" s="1"/>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -6993,48 +7018,44 @@
       <c r="Z180" s="2"/>
     </row>
     <row r="181">
-      <c r="A181" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
-      <c r="G181" s="2"/>
-      <c r="H181" s="2"/>
-      <c r="I181" s="2"/>
-      <c r="J181" s="2"/>
-      <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
-      <c r="M181" s="2"/>
-      <c r="N181" s="2"/>
-      <c r="O181" s="2"/>
-      <c r="P181" s="2"/>
-      <c r="Q181" s="2"/>
-      <c r="R181" s="2"/>
-      <c r="S181" s="2"/>
-      <c r="T181" s="2"/>
-      <c r="U181" s="2"/>
-      <c r="V181" s="2"/>
-      <c r="W181" s="2"/>
-      <c r="X181" s="2"/>
-      <c r="Y181" s="2"/>
-      <c r="Z181" s="2"/>
+      <c r="A181" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
+      <c r="I181" s="4"/>
+      <c r="J181" s="4"/>
+      <c r="K181" s="4"/>
+      <c r="L181" s="4"/>
+      <c r="M181" s="4"/>
+      <c r="N181" s="4"/>
+      <c r="O181" s="4"/>
+      <c r="P181" s="4"/>
+      <c r="Q181" s="4"/>
+      <c r="R181" s="4"/>
+      <c r="S181" s="4"/>
+      <c r="T181" s="4"/>
+      <c r="U181" s="4"/>
+      <c r="V181" s="4"/>
+      <c r="W181" s="4"/>
+      <c r="X181" s="4"/>
+      <c r="Y181" s="4"/>
+      <c r="Z181" s="4"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -7062,13 +7083,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7096,13 +7117,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -7130,13 +7151,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -7164,13 +7185,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -7197,9 +7218,15 @@
       <c r="Z186" s="2"/>
     </row>
     <row r="187">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
+      <c r="A187" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>268</v>
+      </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -7225,9 +7252,15 @@
       <c r="Z187" s="2"/>
     </row>
     <row r="188">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
+      <c r="A188" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>271</v>
+      </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -7253,9 +7286,15 @@
       <c r="Z188" s="2"/>
     </row>
     <row r="189">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
+      <c r="A189" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -7281,9 +7320,15 @@
       <c r="Z189" s="2"/>
     </row>
     <row r="190">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
+      <c r="A190" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>277</v>
+      </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
@@ -7309,9 +7354,15 @@
       <c r="Z190" s="2"/>
     </row>
     <row r="191">
-      <c r="A191" s="2"/>
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
+      <c r="A191" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C191" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -34300,6 +34351,146 @@
       <c r="Y1154" s="2"/>
       <c r="Z1154" s="2"/>
     </row>
+    <row r="1155">
+      <c r="A1155" s="2"/>
+      <c r="B1155" s="2"/>
+      <c r="C1155" s="2"/>
+      <c r="D1155" s="2"/>
+      <c r="E1155" s="2"/>
+      <c r="F1155" s="2"/>
+      <c r="G1155" s="2"/>
+      <c r="H1155" s="2"/>
+      <c r="I1155" s="2"/>
+      <c r="J1155" s="2"/>
+      <c r="K1155" s="2"/>
+      <c r="L1155" s="2"/>
+      <c r="M1155" s="2"/>
+      <c r="N1155" s="2"/>
+      <c r="O1155" s="2"/>
+      <c r="P1155" s="2"/>
+      <c r="Q1155" s="2"/>
+      <c r="R1155" s="2"/>
+      <c r="S1155" s="2"/>
+      <c r="T1155" s="2"/>
+      <c r="U1155" s="2"/>
+      <c r="V1155" s="2"/>
+      <c r="W1155" s="2"/>
+      <c r="X1155" s="2"/>
+      <c r="Y1155" s="2"/>
+      <c r="Z1155" s="2"/>
+    </row>
+    <row r="1156">
+      <c r="A1156" s="2"/>
+      <c r="B1156" s="2"/>
+      <c r="C1156" s="2"/>
+      <c r="D1156" s="2"/>
+      <c r="E1156" s="2"/>
+      <c r="F1156" s="2"/>
+      <c r="G1156" s="2"/>
+      <c r="H1156" s="2"/>
+      <c r="I1156" s="2"/>
+      <c r="J1156" s="2"/>
+      <c r="K1156" s="2"/>
+      <c r="L1156" s="2"/>
+      <c r="M1156" s="2"/>
+      <c r="N1156" s="2"/>
+      <c r="O1156" s="2"/>
+      <c r="P1156" s="2"/>
+      <c r="Q1156" s="2"/>
+      <c r="R1156" s="2"/>
+      <c r="S1156" s="2"/>
+      <c r="T1156" s="2"/>
+      <c r="U1156" s="2"/>
+      <c r="V1156" s="2"/>
+      <c r="W1156" s="2"/>
+      <c r="X1156" s="2"/>
+      <c r="Y1156" s="2"/>
+      <c r="Z1156" s="2"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2"/>
+      <c r="B1157" s="2"/>
+      <c r="C1157" s="2"/>
+      <c r="D1157" s="2"/>
+      <c r="E1157" s="2"/>
+      <c r="F1157" s="2"/>
+      <c r="G1157" s="2"/>
+      <c r="H1157" s="2"/>
+      <c r="I1157" s="2"/>
+      <c r="J1157" s="2"/>
+      <c r="K1157" s="2"/>
+      <c r="L1157" s="2"/>
+      <c r="M1157" s="2"/>
+      <c r="N1157" s="2"/>
+      <c r="O1157" s="2"/>
+      <c r="P1157" s="2"/>
+      <c r="Q1157" s="2"/>
+      <c r="R1157" s="2"/>
+      <c r="S1157" s="2"/>
+      <c r="T1157" s="2"/>
+      <c r="U1157" s="2"/>
+      <c r="V1157" s="2"/>
+      <c r="W1157" s="2"/>
+      <c r="X1157" s="2"/>
+      <c r="Y1157" s="2"/>
+      <c r="Z1157" s="2"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2"/>
+      <c r="B1158" s="2"/>
+      <c r="C1158" s="2"/>
+      <c r="D1158" s="2"/>
+      <c r="E1158" s="2"/>
+      <c r="F1158" s="2"/>
+      <c r="G1158" s="2"/>
+      <c r="H1158" s="2"/>
+      <c r="I1158" s="2"/>
+      <c r="J1158" s="2"/>
+      <c r="K1158" s="2"/>
+      <c r="L1158" s="2"/>
+      <c r="M1158" s="2"/>
+      <c r="N1158" s="2"/>
+      <c r="O1158" s="2"/>
+      <c r="P1158" s="2"/>
+      <c r="Q1158" s="2"/>
+      <c r="R1158" s="2"/>
+      <c r="S1158" s="2"/>
+      <c r="T1158" s="2"/>
+      <c r="U1158" s="2"/>
+      <c r="V1158" s="2"/>
+      <c r="W1158" s="2"/>
+      <c r="X1158" s="2"/>
+      <c r="Y1158" s="2"/>
+      <c r="Z1158" s="2"/>
+    </row>
+    <row r="1159">
+      <c r="A1159" s="2"/>
+      <c r="B1159" s="2"/>
+      <c r="C1159" s="2"/>
+      <c r="D1159" s="2"/>
+      <c r="E1159" s="2"/>
+      <c r="F1159" s="2"/>
+      <c r="G1159" s="2"/>
+      <c r="H1159" s="2"/>
+      <c r="I1159" s="2"/>
+      <c r="J1159" s="2"/>
+      <c r="K1159" s="2"/>
+      <c r="L1159" s="2"/>
+      <c r="M1159" s="2"/>
+      <c r="N1159" s="2"/>
+      <c r="O1159" s="2"/>
+      <c r="P1159" s="2"/>
+      <c r="Q1159" s="2"/>
+      <c r="R1159" s="2"/>
+      <c r="S1159" s="2"/>
+      <c r="T1159" s="2"/>
+      <c r="U1159" s="2"/>
+      <c r="V1159" s="2"/>
+      <c r="W1159" s="2"/>
+      <c r="X1159" s="2"/>
+      <c r="Y1159" s="2"/>
+      <c r="Z1159" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="287">
   <si>
     <t>ID</t>
   </si>
@@ -175,6 +175,12 @@
     <t>虛擬貨幣桌</t>
   </si>
   <si>
+    <t>Integral Table</t>
+  </si>
+  <si>
+    <t>積分房</t>
+  </si>
+  <si>
     <t>Crypto Table</t>
   </si>
   <si>
@@ -323,6 +329,12 @@
   </si>
   <si>
     <t>發射</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>手牌</t>
   </si>
   <si>
     <t>錯誤訊息</t>
@@ -659,6 +671,12 @@
   </si>
   <si>
     <t>尚未連結</t>
+  </si>
+  <si>
+    <t>Show last 20 hands</t>
+  </si>
+  <si>
+    <t>已顯示最近20局手牌</t>
   </si>
   <si>
     <t>遊戲</t>
@@ -2212,7 +2230,7 @@
         <v>54</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="12"/>
@@ -2240,13 +2258,13 @@
     </row>
     <row r="28">
       <c r="A28" s="20" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2274,13 +2292,13 @@
     </row>
     <row r="29">
       <c r="A29" s="20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -2341,72 +2359,72 @@
       <c r="Z30" s="15"/>
     </row>
     <row r="31">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
-      <c r="W31" s="18"/>
-      <c r="X31" s="18"/>
-      <c r="Y31" s="18"/>
-      <c r="Z31" s="19"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="15"/>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
+      <c r="Y32" s="18"/>
+      <c r="Z32" s="19"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
@@ -2443,15 +2461,38 @@
       <c r="Z33" s="2"/>
     </row>
     <row r="34">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="1" t="s">
         <v>67</v>
       </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="21" t="s">
@@ -2465,82 +2506,59 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="12"/>
-      <c r="O36" s="12"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-      <c r="R36" s="12"/>
-      <c r="S36" s="12"/>
-      <c r="T36" s="12"/>
-      <c r="U36" s="12"/>
-      <c r="V36" s="12"/>
-      <c r="W36" s="12"/>
-      <c r="X36" s="12"/>
-      <c r="Y36" s="12"/>
-      <c r="Z36" s="13"/>
     </row>
     <row r="37">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="23" t="s">
+      <c r="B37" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="24"/>
-      <c r="H37" s="24"/>
-      <c r="I37" s="24"/>
-      <c r="J37" s="24"/>
-      <c r="K37" s="24"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="24"/>
-      <c r="R37" s="24"/>
-      <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
-      <c r="U37" s="24"/>
-      <c r="V37" s="24"/>
-      <c r="W37" s="24"/>
-      <c r="X37" s="24"/>
-      <c r="Y37" s="24"/>
-      <c r="Z37" s="25"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="12"/>
+      <c r="O37" s="12"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="12"/>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
+      <c r="X37" s="12"/>
+      <c r="Y37" s="12"/>
+      <c r="Z37" s="13"/>
     </row>
     <row r="38">
-      <c r="A38" s="26" t="s">
+      <c r="A38" s="22" t="s">
         <v>74</v>
       </c>
       <c r="B38" s="23" t="s">
         <v>74</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="D38" s="24"/>
       <c r="E38" s="24"/>
@@ -2567,94 +2585,94 @@
       <c r="Z38" s="25"/>
     </row>
     <row r="39">
-      <c r="A39" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z39" s="28"/>
+      <c r="A39" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="24"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="24"/>
+      <c r="S39" s="24"/>
+      <c r="T39" s="24"/>
+      <c r="U39" s="24"/>
+      <c r="V39" s="24"/>
+      <c r="W39" s="24"/>
+      <c r="X39" s="24"/>
+      <c r="Y39" s="24"/>
+      <c r="Z39" s="25"/>
     </row>
     <row r="40">
-      <c r="A40" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="C40" s="23" t="s">
+      <c r="A40" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="25"/>
+      <c r="B40" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z40" s="28"/>
     </row>
     <row r="41">
-      <c r="A41" s="20" t="s">
+      <c r="A41" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="2"/>
-      <c r="S41" s="2"/>
-      <c r="T41" s="2"/>
-      <c r="U41" s="2"/>
-      <c r="V41" s="2"/>
-      <c r="W41" s="2"/>
-      <c r="X41" s="2"/>
-      <c r="Y41" s="2"/>
-      <c r="Z41" s="15"/>
+      <c r="C41" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="24"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="24"/>
+      <c r="S41" s="24"/>
+      <c r="T41" s="24"/>
+      <c r="U41" s="24"/>
+      <c r="V41" s="24"/>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="24"/>
+      <c r="Z41" s="25"/>
     </row>
     <row r="42">
       <c r="A42" s="20" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2688,7 +2706,7 @@
         <v>81</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2715,106 +2733,106 @@
       <c r="Z43" s="15"/>
     </row>
     <row r="44">
-      <c r="A44" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C44" s="11" t="s">
+      <c r="A44" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="12"/>
-      <c r="N44" s="12"/>
-      <c r="O44" s="12"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
-      <c r="S44" s="12"/>
-      <c r="T44" s="12"/>
-      <c r="U44" s="12"/>
-      <c r="V44" s="12"/>
-      <c r="W44" s="12"/>
-      <c r="X44" s="12"/>
-      <c r="Y44" s="12"/>
-      <c r="Z44" s="13"/>
+      <c r="B44" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="15"/>
     </row>
     <row r="45">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="15"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="12"/>
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="12"/>
+      <c r="Y45" s="12"/>
+      <c r="Z45" s="13"/>
     </row>
     <row r="46">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B46" s="23" t="s">
+      <c r="B46" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="23" t="s">
+      <c r="C46" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="24"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
-      <c r="J46" s="24"/>
-      <c r="K46" s="24"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="24"/>
-      <c r="R46" s="24"/>
-      <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
-      <c r="U46" s="24"/>
-      <c r="V46" s="24"/>
-      <c r="W46" s="24"/>
-      <c r="X46" s="24"/>
-      <c r="Y46" s="24"/>
-      <c r="Z46" s="25"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="15"/>
     </row>
     <row r="47">
       <c r="A47" s="22" t="s">
@@ -2919,13 +2937,13 @@
       <c r="Z49" s="25"/>
     </row>
     <row r="50">
-      <c r="A50" s="29" t="s">
+      <c r="A50" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B50" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="23" t="s">
         <v>95</v>
       </c>
       <c r="D50" s="24"/>
@@ -2953,266 +2971,266 @@
       <c r="Z50" s="25"/>
     </row>
     <row r="51">
-      <c r="A51" s="31" t="s">
+      <c r="A51" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="33"/>
-      <c r="E51" s="33"/>
-      <c r="F51" s="33"/>
-      <c r="G51" s="33"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="33"/>
-      <c r="J51" s="33"/>
-      <c r="K51" s="33"/>
-      <c r="L51" s="33"/>
-      <c r="M51" s="33"/>
-      <c r="N51" s="33"/>
-      <c r="O51" s="33"/>
-      <c r="P51" s="33"/>
-      <c r="Q51" s="33"/>
-      <c r="R51" s="33"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="33"/>
-      <c r="V51" s="33"/>
-      <c r="W51" s="33"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="33"/>
-      <c r="Z51" s="34"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="25"/>
     </row>
     <row r="52">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="11" t="s">
+      <c r="C52" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="12"/>
-      <c r="O52" s="12"/>
-      <c r="P52" s="12"/>
-      <c r="Q52" s="12"/>
-      <c r="R52" s="12"/>
-      <c r="S52" s="12"/>
-      <c r="T52" s="12"/>
-      <c r="U52" s="12"/>
-      <c r="V52" s="12"/>
-      <c r="W52" s="12"/>
-      <c r="X52" s="12"/>
-      <c r="Y52" s="12"/>
-      <c r="Z52" s="13"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="33"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="33"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="33"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="33"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="33"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="33"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
+      <c r="U52" s="33"/>
+      <c r="V52" s="33"/>
+      <c r="W52" s="33"/>
+      <c r="X52" s="33"/>
+      <c r="Y52" s="33"/>
+      <c r="Z52" s="34"/>
     </row>
     <row r="53">
-      <c r="A53" s="20" t="s">
+      <c r="A53" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="15"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="12"/>
+      <c r="O53" s="12"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="12"/>
+      <c r="Y53" s="12"/>
+      <c r="Z53" s="13"/>
     </row>
     <row r="54">
-      <c r="A54" s="16" t="s">
+      <c r="A54" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="17" t="s">
+      <c r="B54" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="17" t="s">
+      <c r="C54" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
-      <c r="P54" s="18"/>
-      <c r="Q54" s="18"/>
-      <c r="R54" s="18"/>
-      <c r="S54" s="18"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
-      <c r="W54" s="18"/>
-      <c r="X54" s="18"/>
-      <c r="Y54" s="18"/>
-      <c r="Z54" s="19"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="15"/>
     </row>
     <row r="55">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="2"/>
+      <c r="A55" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="19"/>
     </row>
     <row r="56">
-      <c r="A56" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
+      <c r="A56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
     </row>
     <row r="57">
-      <c r="A57" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-      <c r="O57" s="6"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="6"/>
-      <c r="T57" s="6"/>
-      <c r="U57" s="6"/>
-      <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-      <c r="X57" s="6"/>
-      <c r="Y57" s="6"/>
-      <c r="Z57" s="6"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
     </row>
     <row r="58">
-      <c r="A58" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C58" s="5" t="s">
+      <c r="A58" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
-      <c r="Y58" s="6"/>
-      <c r="Z58" s="6"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="4"/>
+      <c r="N58" s="4"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="4"/>
+      <c r="Q58" s="4"/>
+      <c r="R58" s="4"/>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
@@ -3249,9 +3267,15 @@
       <c r="Z59" s="6"/>
     </row>
     <row r="60">
-      <c r="A60" s="5"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="A60" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>112</v>
+      </c>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3277,132 +3301,126 @@
       <c r="Z60" s="6"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
+      <c r="A61" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
+      <c r="K61" s="6"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="6"/>
+      <c r="N61" s="6"/>
+      <c r="O61" s="6"/>
+      <c r="P61" s="6"/>
+      <c r="Q61" s="6"/>
+      <c r="R61" s="6"/>
+      <c r="S61" s="6"/>
+      <c r="T61" s="6"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="6"/>
+      <c r="W61" s="6"/>
+      <c r="X61" s="6"/>
+      <c r="Y61" s="6"/>
+      <c r="Z61" s="6"/>
     </row>
     <row r="62">
-      <c r="A62" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="36"/>
-      <c r="E62" s="36"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="36"/>
-      <c r="H62" s="36"/>
-      <c r="I62" s="36"/>
-      <c r="J62" s="36"/>
-      <c r="K62" s="36"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="36"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="36"/>
-      <c r="P62" s="36"/>
-      <c r="Q62" s="36"/>
-      <c r="R62" s="36"/>
-      <c r="S62" s="36"/>
-      <c r="T62" s="36"/>
-      <c r="U62" s="36"/>
-      <c r="V62" s="36"/>
-      <c r="W62" s="36"/>
-      <c r="X62" s="36"/>
-      <c r="Y62" s="36"/>
-      <c r="Z62" s="36"/>
+      <c r="A62" s="5"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
+      <c r="Y62" s="6"/>
+      <c r="Z62" s="6"/>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
+      <c r="A63" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+      <c r="M63" s="4"/>
+      <c r="N63" s="4"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="4"/>
+      <c r="Q63" s="4"/>
+      <c r="R63" s="4"/>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C64" s="5" t="s">
+      <c r="A64" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="36"/>
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="36"/>
+      <c r="K64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="36"/>
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
@@ -3411,7 +3429,7 @@
       <c r="B65" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C65" s="7" t="s">
+      <c r="C65" s="5" t="s">
         <v>118</v>
       </c>
       <c r="D65" s="6"/>
@@ -3439,44 +3457,48 @@
       <c r="Z65" s="6"/>
     </row>
     <row r="66">
-      <c r="A66" s="35" t="s">
+      <c r="A66" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="36"/>
-      <c r="E66" s="36"/>
-      <c r="F66" s="36"/>
-      <c r="G66" s="36"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="36"/>
-      <c r="J66" s="36"/>
-      <c r="K66" s="36"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="36"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="36"/>
-      <c r="P66" s="36"/>
-      <c r="Q66" s="36"/>
-      <c r="R66" s="36"/>
-      <c r="S66" s="36"/>
-      <c r="T66" s="36"/>
-      <c r="U66" s="36"/>
-      <c r="V66" s="36"/>
-      <c r="W66" s="36"/>
-      <c r="X66" s="36"/>
-      <c r="Y66" s="36"/>
-      <c r="Z66" s="36"/>
+      <c r="B66" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C67" s="5" t="s">
         <v>121</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="D67" s="6"/>
       <c r="E67" s="6"/>
@@ -3503,38 +3525,34 @@
       <c r="Z67" s="6"/>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C68" s="5" t="s">
+      <c r="A68" s="35" t="s">
         <v>123</v>
       </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="36"/>
+      <c r="E68" s="36"/>
+      <c r="F68" s="36"/>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="36"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="36"/>
+      <c r="L68" s="36"/>
+      <c r="M68" s="36"/>
+      <c r="N68" s="36"/>
+      <c r="O68" s="36"/>
+      <c r="P68" s="36"/>
+      <c r="Q68" s="36"/>
+      <c r="R68" s="36"/>
+      <c r="S68" s="36"/>
+      <c r="T68" s="36"/>
+      <c r="U68" s="36"/>
+      <c r="V68" s="36"/>
+      <c r="W68" s="36"/>
+      <c r="X68" s="36"/>
+      <c r="Y68" s="36"/>
+      <c r="Z68" s="36"/>
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
@@ -3571,44 +3589,48 @@
       <c r="Z69" s="6"/>
     </row>
     <row r="70">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="38"/>
-      <c r="D70" s="38"/>
-      <c r="E70" s="38"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="38"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="38"/>
-      <c r="L70" s="38"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
-      <c r="Q70" s="38"/>
-      <c r="R70" s="38"/>
-      <c r="S70" s="38"/>
-      <c r="T70" s="38"/>
-      <c r="U70" s="38"/>
-      <c r="V70" s="38"/>
-      <c r="W70" s="38"/>
-      <c r="X70" s="38"/>
-      <c r="Y70" s="38"/>
-      <c r="Z70" s="38"/>
+      <c r="B70" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="6"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
+      <c r="K70" s="6"/>
+      <c r="L70" s="6"/>
+      <c r="M70" s="6"/>
+      <c r="N70" s="6"/>
+      <c r="O70" s="6"/>
+      <c r="P70" s="6"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="6"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="6"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="6"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="6"/>
+      <c r="Y70" s="6"/>
+      <c r="Z70" s="6"/>
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D71" s="6"/>
       <c r="E71" s="6"/>
@@ -3635,41 +3657,41 @@
       <c r="Z71" s="6"/>
     </row>
     <row r="72">
-      <c r="A72" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="36"/>
-      <c r="E72" s="36"/>
-      <c r="F72" s="36"/>
-      <c r="G72" s="36"/>
-      <c r="H72" s="36"/>
-      <c r="I72" s="36"/>
-      <c r="J72" s="36"/>
-      <c r="K72" s="36"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="36"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="36"/>
-      <c r="P72" s="36"/>
-      <c r="Q72" s="36"/>
-      <c r="R72" s="36"/>
-      <c r="S72" s="36"/>
-      <c r="T72" s="36"/>
-      <c r="U72" s="36"/>
-      <c r="V72" s="36"/>
-      <c r="W72" s="36"/>
-      <c r="X72" s="36"/>
-      <c r="Y72" s="36"/>
-      <c r="Z72" s="36"/>
+      <c r="A72" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38"/>
+      <c r="E72" s="38"/>
+      <c r="F72" s="38"/>
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="38"/>
+      <c r="K72" s="38"/>
+      <c r="L72" s="38"/>
+      <c r="M72" s="38"/>
+      <c r="N72" s="38"/>
+      <c r="O72" s="38"/>
+      <c r="P72" s="38"/>
+      <c r="Q72" s="38"/>
+      <c r="R72" s="38"/>
+      <c r="S72" s="38"/>
+      <c r="T72" s="38"/>
+      <c r="U72" s="38"/>
+      <c r="V72" s="38"/>
+      <c r="W72" s="38"/>
+      <c r="X72" s="38"/>
+      <c r="Y72" s="38"/>
+      <c r="Z72" s="38"/>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>130</v>
@@ -3699,41 +3721,37 @@
       <c r="Z73" s="6"/>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="C74" s="5" t="s">
+      <c r="A74" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="36"/>
+      <c r="E74" s="36"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="36"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="36"/>
+      <c r="L74" s="36"/>
+      <c r="M74" s="36"/>
+      <c r="N74" s="36"/>
+      <c r="O74" s="36"/>
+      <c r="P74" s="36"/>
+      <c r="Q74" s="36"/>
+      <c r="R74" s="36"/>
+      <c r="S74" s="36"/>
+      <c r="T74" s="36"/>
+      <c r="U74" s="36"/>
+      <c r="V74" s="36"/>
+      <c r="W74" s="36"/>
+      <c r="X74" s="36"/>
+      <c r="Y74" s="36"/>
+      <c r="Z74" s="36"/>
     </row>
     <row r="75">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="5" t="s">
         <v>133</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -3767,44 +3785,48 @@
       <c r="Z75" s="6"/>
     </row>
     <row r="76">
-      <c r="A76" s="35" t="s">
+      <c r="A76" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B76" s="35"/>
-      <c r="C76" s="35"/>
-      <c r="D76" s="36"/>
-      <c r="E76" s="36"/>
-      <c r="F76" s="36"/>
-      <c r="G76" s="36"/>
-      <c r="H76" s="36"/>
-      <c r="I76" s="36"/>
-      <c r="J76" s="36"/>
-      <c r="K76" s="36"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="36"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="36"/>
-      <c r="P76" s="36"/>
-      <c r="Q76" s="36"/>
-      <c r="R76" s="36"/>
-      <c r="S76" s="36"/>
-      <c r="T76" s="36"/>
-      <c r="U76" s="36"/>
-      <c r="V76" s="36"/>
-      <c r="W76" s="36"/>
-      <c r="X76" s="36"/>
-      <c r="Y76" s="36"/>
-      <c r="Z76" s="36"/>
+      <c r="B76" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="S76" s="6"/>
+      <c r="T76" s="6"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
     </row>
     <row r="77">
-      <c r="A77" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="7" t="s">
+      <c r="A77" s="7" t="s">
         <v>137</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="D77" s="6"/>
       <c r="E77" s="6"/>
@@ -3831,43 +3853,45 @@
       <c r="Z77" s="6"/>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" s="7" t="s">
+      <c r="A78" s="35" t="s">
         <v>139</v>
       </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="35"/>
+      <c r="D78" s="36"/>
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="36"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="36"/>
+      <c r="L78" s="36"/>
+      <c r="M78" s="36"/>
+      <c r="N78" s="36"/>
+      <c r="O78" s="36"/>
+      <c r="P78" s="36"/>
+      <c r="Q78" s="36"/>
+      <c r="R78" s="36"/>
+      <c r="S78" s="36"/>
+      <c r="T78" s="36"/>
+      <c r="U78" s="36"/>
+      <c r="V78" s="36"/>
+      <c r="W78" s="36"/>
+      <c r="X78" s="36"/>
+      <c r="Y78" s="36"/>
+      <c r="Z78" s="36"/>
     </row>
     <row r="79">
-      <c r="A79" s="5"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
+      <c r="A79" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>141</v>
+      </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -3893,45 +3917,43 @@
       <c r="Z79" s="6"/>
     </row>
     <row r="80">
-      <c r="A80" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="4"/>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-      <c r="G80" s="4"/>
-      <c r="H80" s="4"/>
-      <c r="I80" s="4"/>
-      <c r="J80" s="4"/>
-      <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
-      <c r="M80" s="4"/>
-      <c r="N80" s="4"/>
-      <c r="O80" s="4"/>
-      <c r="P80" s="4"/>
-      <c r="Q80" s="4"/>
-      <c r="R80" s="4"/>
-      <c r="S80" s="4"/>
-      <c r="T80" s="4"/>
-      <c r="U80" s="4"/>
-      <c r="V80" s="4"/>
-      <c r="W80" s="4"/>
-      <c r="X80" s="4"/>
-      <c r="Y80" s="4"/>
-      <c r="Z80" s="4"/>
+      <c r="A80" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C81" s="5" t="s">
-        <v>140</v>
-      </c>
+      <c r="A81" s="5"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -3957,48 +3979,44 @@
       <c r="Z81" s="6"/>
     </row>
     <row r="82">
-      <c r="A82" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B82" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
+      <c r="A82" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C83" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>145</v>
       </c>
       <c r="D83" s="6"/>
       <c r="E83" s="6"/>
@@ -4025,9 +4043,15 @@
       <c r="Z83" s="6"/>
     </row>
     <row r="84">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
+      <c r="A84" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -4053,112 +4077,106 @@
       <c r="Z84" s="6"/>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
-      <c r="W85" s="4"/>
-      <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="4"/>
+      <c r="A85" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
-      <c r="G86" s="2"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-      <c r="J86" s="2"/>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" s="2"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-      <c r="R86" s="2"/>
-      <c r="S86" s="2"/>
-      <c r="T86" s="2"/>
-      <c r="U86" s="2"/>
-      <c r="V86" s="2"/>
-      <c r="W86" s="2"/>
-      <c r="X86" s="2"/>
-      <c r="Y86" s="2"/>
-      <c r="Z86" s="2"/>
+      <c r="A86" s="5"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="A87" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="2"/>
-      <c r="G87" s="2"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-      <c r="J87" s="2"/>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-      <c r="R87" s="2"/>
-      <c r="S87" s="2"/>
-      <c r="T87" s="2"/>
-      <c r="U87" s="2"/>
-      <c r="V87" s="2"/>
-      <c r="W87" s="2"/>
-      <c r="X87" s="2"/>
-      <c r="Y87" s="2"/>
-      <c r="Z87" s="2"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="4"/>
+      <c r="R87" s="4"/>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
@@ -4186,7 +4204,7 @@
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>154</v>
@@ -4287,9 +4305,15 @@
       <c r="Z91" s="2"/>
     </row>
     <row r="92">
-      <c r="A92" s="1"/>
-      <c r="B92" s="1"/>
-      <c r="C92" s="1"/>
+      <c r="A92" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
@@ -4315,45 +4339,43 @@
       <c r="Z92" s="2"/>
     </row>
     <row r="93">
-      <c r="A93" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="4"/>
-      <c r="E93" s="4"/>
-      <c r="F93" s="4"/>
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
-      <c r="I93" s="4"/>
-      <c r="J93" s="4"/>
-      <c r="K93" s="4"/>
-      <c r="L93" s="4"/>
-      <c r="M93" s="4"/>
-      <c r="N93" s="4"/>
-      <c r="O93" s="4"/>
-      <c r="P93" s="4"/>
-      <c r="Q93" s="4"/>
-      <c r="R93" s="4"/>
-      <c r="S93" s="4"/>
-      <c r="T93" s="4"/>
-      <c r="U93" s="4"/>
-      <c r="V93" s="4"/>
-      <c r="W93" s="4"/>
-      <c r="X93" s="4"/>
-      <c r="Y93" s="4"/>
-      <c r="Z93" s="4"/>
+      <c r="A93" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -4379,38 +4401,34 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="2"/>
-      <c r="V95" s="2"/>
-      <c r="W95" s="2"/>
-      <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
-      <c r="Z95" s="2"/>
+      <c r="A95" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
@@ -4447,41 +4465,41 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="9" t="s">
+      <c r="A97" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C97" s="11" t="s">
+      <c r="C97" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D97" s="12"/>
-      <c r="E97" s="12"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="12"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="12"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="12"/>
-      <c r="N97" s="12"/>
-      <c r="O97" s="12"/>
-      <c r="P97" s="12"/>
-      <c r="Q97" s="12"/>
-      <c r="R97" s="12"/>
-      <c r="S97" s="12"/>
-      <c r="T97" s="12"/>
-      <c r="U97" s="12"/>
-      <c r="V97" s="12"/>
-      <c r="W97" s="12"/>
-      <c r="X97" s="12"/>
-      <c r="Y97" s="12"/>
-      <c r="Z97" s="13"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="20" t="s">
+      <c r="A98" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -4512,316 +4530,316 @@
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
-      <c r="Z98" s="15"/>
+      <c r="Z98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="16" t="s">
+      <c r="A99" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="C99" s="17" t="s">
+      <c r="C99" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="D99" s="18"/>
-      <c r="E99" s="18"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="18"/>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="18"/>
-      <c r="L99" s="18"/>
-      <c r="M99" s="18"/>
-      <c r="N99" s="18"/>
-      <c r="O99" s="18"/>
-      <c r="P99" s="18"/>
-      <c r="Q99" s="18"/>
-      <c r="R99" s="18"/>
-      <c r="S99" s="18"/>
-      <c r="T99" s="18"/>
-      <c r="U99" s="18"/>
-      <c r="V99" s="18"/>
-      <c r="W99" s="18"/>
-      <c r="X99" s="18"/>
-      <c r="Y99" s="18"/>
-      <c r="Z99" s="19"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="12"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="13"/>
     </row>
     <row r="100">
-      <c r="A100" s="9" t="s">
+      <c r="A100" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C100" s="11" t="s">
+      <c r="C100" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="12"/>
-      <c r="O100" s="12"/>
-      <c r="P100" s="12"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="12"/>
-      <c r="S100" s="12"/>
-      <c r="T100" s="12"/>
-      <c r="U100" s="12"/>
-      <c r="V100" s="12"/>
-      <c r="W100" s="12"/>
-      <c r="X100" s="12"/>
-      <c r="Y100" s="12"/>
-      <c r="Z100" s="13"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+      <c r="M100" s="2"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2"/>
+      <c r="R100" s="2"/>
+      <c r="S100" s="2"/>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="2"/>
+      <c r="Y100" s="2"/>
+      <c r="Z100" s="15"/>
     </row>
     <row r="101">
-      <c r="A101" s="20" t="s">
+      <c r="A101" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="17" t="s">
         <v>174</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="C101" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
-      <c r="V101" s="2"/>
-      <c r="W101" s="2"/>
-      <c r="X101" s="2"/>
-      <c r="Y101" s="2"/>
-      <c r="Z101" s="15"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="18"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+      <c r="O101" s="18"/>
+      <c r="P101" s="18"/>
+      <c r="Q101" s="18"/>
+      <c r="R101" s="18"/>
+      <c r="S101" s="18"/>
+      <c r="T101" s="18"/>
+      <c r="U101" s="18"/>
+      <c r="V101" s="18"/>
+      <c r="W101" s="18"/>
+      <c r="X101" s="18"/>
+      <c r="Y101" s="18"/>
+      <c r="Z101" s="19"/>
     </row>
     <row r="102">
-      <c r="A102" s="20" t="s">
+      <c r="A102" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="C102" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="2"/>
-      <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
-      <c r="X102" s="2"/>
-      <c r="Y102" s="2"/>
-      <c r="Z102" s="15"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="13"/>
     </row>
     <row r="103">
-      <c r="A103" s="16" t="s">
+      <c r="A103" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B103" s="17" t="s">
+      <c r="B103" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C103" s="17" t="s">
+      <c r="C103" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D103" s="18"/>
-      <c r="E103" s="18"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="18"/>
-      <c r="I103" s="18"/>
-      <c r="J103" s="18"/>
-      <c r="K103" s="18"/>
-      <c r="L103" s="18"/>
-      <c r="M103" s="18"/>
-      <c r="N103" s="18"/>
-      <c r="O103" s="18"/>
-      <c r="P103" s="18"/>
-      <c r="Q103" s="18"/>
-      <c r="R103" s="18"/>
-      <c r="S103" s="18"/>
-      <c r="T103" s="18"/>
-      <c r="U103" s="18"/>
-      <c r="V103" s="18"/>
-      <c r="W103" s="18"/>
-      <c r="X103" s="18"/>
-      <c r="Y103" s="18"/>
-      <c r="Z103" s="19"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+      <c r="J103" s="2"/>
+      <c r="K103" s="2"/>
+      <c r="L103" s="2"/>
+      <c r="M103" s="2"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2"/>
+      <c r="R103" s="2"/>
+      <c r="S103" s="2"/>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="2"/>
+      <c r="Y103" s="2"/>
+      <c r="Z103" s="15"/>
     </row>
     <row r="104">
-      <c r="A104" s="9" t="s">
+      <c r="A104" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C104" s="11" t="s">
+      <c r="C104" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="12"/>
-      <c r="O104" s="12"/>
-      <c r="P104" s="12"/>
-      <c r="Q104" s="12"/>
-      <c r="R104" s="12"/>
-      <c r="S104" s="12"/>
-      <c r="T104" s="12"/>
-      <c r="U104" s="12"/>
-      <c r="V104" s="12"/>
-      <c r="W104" s="12"/>
-      <c r="X104" s="12"/>
-      <c r="Y104" s="12"/>
-      <c r="Z104" s="13"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="15"/>
     </row>
     <row r="105">
-      <c r="A105" s="27" t="s">
+      <c r="A105" s="16" t="s">
         <v>182</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C105" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
-      <c r="U105" s="2"/>
-      <c r="V105" s="2"/>
-      <c r="W105" s="2"/>
-      <c r="X105" s="2"/>
-      <c r="Y105" s="2"/>
-      <c r="Z105" s="15"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="18"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18"/>
+      <c r="O105" s="18"/>
+      <c r="P105" s="18"/>
+      <c r="Q105" s="18"/>
+      <c r="R105" s="18"/>
+      <c r="S105" s="18"/>
+      <c r="T105" s="18"/>
+      <c r="U105" s="18"/>
+      <c r="V105" s="18"/>
+      <c r="W105" s="18"/>
+      <c r="X105" s="18"/>
+      <c r="Y105" s="18"/>
+      <c r="Z105" s="19"/>
     </row>
     <row r="106">
-      <c r="A106" s="20" t="s">
+      <c r="A106" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="C106" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D106" s="2"/>
-      <c r="E106" s="2"/>
-      <c r="F106" s="2"/>
-      <c r="G106" s="2"/>
-      <c r="H106" s="2"/>
-      <c r="I106" s="2"/>
-      <c r="J106" s="2"/>
-      <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-      <c r="Q106" s="2"/>
-      <c r="R106" s="2"/>
-      <c r="S106" s="2"/>
-      <c r="T106" s="2"/>
-      <c r="U106" s="2"/>
-      <c r="V106" s="2"/>
-      <c r="W106" s="2"/>
-      <c r="X106" s="2"/>
-      <c r="Y106" s="2"/>
-      <c r="Z106" s="15"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12"/>
+      <c r="Z106" s="13"/>
     </row>
     <row r="107">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="27" t="s">
         <v>186</v>
       </c>
-      <c r="B107" s="17" t="s">
+      <c r="B107" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C107" s="17" t="s">
+      <c r="C107" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D107" s="18"/>
-      <c r="E107" s="18"/>
-      <c r="F107" s="18"/>
-      <c r="G107" s="18"/>
-      <c r="H107" s="18"/>
-      <c r="I107" s="18"/>
-      <c r="J107" s="18"/>
-      <c r="K107" s="18"/>
-      <c r="L107" s="18"/>
-      <c r="M107" s="18"/>
-      <c r="N107" s="18"/>
-      <c r="O107" s="18"/>
-      <c r="P107" s="18"/>
-      <c r="Q107" s="18"/>
-      <c r="R107" s="18"/>
-      <c r="S107" s="18"/>
-      <c r="T107" s="18"/>
-      <c r="U107" s="18"/>
-      <c r="V107" s="18"/>
-      <c r="W107" s="18"/>
-      <c r="X107" s="18"/>
-      <c r="Y107" s="18"/>
-      <c r="Z107" s="19"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
+      <c r="Y107" s="2"/>
+      <c r="Z107" s="15"/>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="20" t="s">
         <v>188</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -4852,76 +4870,80 @@
       <c r="W108" s="2"/>
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
-      <c r="Z108" s="2"/>
+      <c r="Z108" s="15"/>
     </row>
     <row r="109">
-      <c r="A109" s="1"/>
-      <c r="B109" s="1"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
-      <c r="Q109" s="2"/>
-      <c r="R109" s="2"/>
-      <c r="S109" s="2"/>
-      <c r="T109" s="2"/>
-      <c r="U109" s="2"/>
-      <c r="V109" s="2"/>
-      <c r="W109" s="2"/>
-      <c r="X109" s="2"/>
-      <c r="Y109" s="2"/>
-      <c r="Z109" s="2"/>
+      <c r="A109" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="B109" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C109" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="18"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="18"/>
+      <c r="O109" s="18"/>
+      <c r="P109" s="18"/>
+      <c r="Q109" s="18"/>
+      <c r="R109" s="18"/>
+      <c r="S109" s="18"/>
+      <c r="T109" s="18"/>
+      <c r="U109" s="18"/>
+      <c r="V109" s="18"/>
+      <c r="W109" s="18"/>
+      <c r="X109" s="18"/>
+      <c r="Y109" s="18"/>
+      <c r="Z109" s="19"/>
     </row>
     <row r="110">
-      <c r="A110" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="4"/>
-      <c r="E110" s="4"/>
-      <c r="F110" s="4"/>
-      <c r="G110" s="4"/>
-      <c r="H110" s="4"/>
-      <c r="I110" s="4"/>
-      <c r="J110" s="4"/>
-      <c r="K110" s="4"/>
-      <c r="L110" s="4"/>
-      <c r="M110" s="4"/>
-      <c r="N110" s="4"/>
-      <c r="O110" s="4"/>
-      <c r="P110" s="4"/>
-      <c r="Q110" s="4"/>
-      <c r="R110" s="4"/>
-      <c r="S110" s="4"/>
-      <c r="T110" s="4"/>
-      <c r="U110" s="4"/>
-      <c r="V110" s="4"/>
-      <c r="W110" s="4"/>
-      <c r="X110" s="4"/>
-      <c r="Y110" s="4"/>
-      <c r="Z110" s="4"/>
+      <c r="A110" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2"/>
+      <c r="N110" s="2"/>
+      <c r="O110" s="2"/>
+      <c r="P110" s="2"/>
+      <c r="Q110" s="2"/>
+      <c r="R110" s="2"/>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+      <c r="Y110" s="2"/>
+      <c r="Z110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>192</v>
-      </c>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -4947,73 +4969,73 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="1"/>
-      <c r="B112" s="1"/>
-      <c r="C112" s="1"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2"/>
-      <c r="V112" s="2"/>
-      <c r="W112" s="2"/>
-      <c r="X112" s="2"/>
-      <c r="Y112" s="2"/>
-      <c r="Z112" s="2"/>
+      <c r="A112" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
     </row>
     <row r="113">
-      <c r="A113" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="4"/>
-      <c r="E113" s="4"/>
-      <c r="F113" s="4"/>
-      <c r="G113" s="4"/>
-      <c r="H113" s="4"/>
-      <c r="I113" s="4"/>
-      <c r="J113" s="4"/>
-      <c r="K113" s="4"/>
-      <c r="L113" s="4"/>
-      <c r="M113" s="4"/>
-      <c r="N113" s="4"/>
-      <c r="O113" s="4"/>
-      <c r="P113" s="4"/>
-      <c r="Q113" s="4"/>
-      <c r="R113" s="4"/>
-      <c r="S113" s="4"/>
-      <c r="T113" s="4"/>
-      <c r="U113" s="4"/>
-      <c r="V113" s="4"/>
-      <c r="W113" s="4"/>
-      <c r="X113" s="4"/>
-      <c r="Y113" s="4"/>
-      <c r="Z113" s="4"/>
+      <c r="A113" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
+      <c r="Z113" s="2"/>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>194</v>
-      </c>
+      <c r="A114" s="1"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -5039,38 +5061,34 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="2"/>
-      <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
-      <c r="T115" s="2"/>
-      <c r="U115" s="2"/>
-      <c r="V115" s="2"/>
-      <c r="W115" s="2"/>
-      <c r="X115" s="2"/>
-      <c r="Y115" s="2"/>
-      <c r="Z115" s="2"/>
+      <c r="A115" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="4"/>
+      <c r="Q115" s="4"/>
+      <c r="R115" s="4"/>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
@@ -5277,9 +5295,15 @@
       <c r="Z121" s="2"/>
     </row>
     <row r="122">
-      <c r="A122" s="1"/>
-      <c r="B122" s="1"/>
-      <c r="C122" s="1"/>
+      <c r="A122" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
@@ -5305,45 +5329,43 @@
       <c r="Z122" s="2"/>
     </row>
     <row r="123">
-      <c r="A123" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="4"/>
-      <c r="G123" s="4"/>
-      <c r="H123" s="4"/>
-      <c r="I123" s="4"/>
-      <c r="J123" s="4"/>
-      <c r="K123" s="4"/>
-      <c r="L123" s="4"/>
-      <c r="M123" s="4"/>
-      <c r="N123" s="4"/>
-      <c r="O123" s="4"/>
-      <c r="P123" s="4"/>
-      <c r="Q123" s="4"/>
-      <c r="R123" s="4"/>
-      <c r="S123" s="4"/>
-      <c r="T123" s="4"/>
-      <c r="U123" s="4"/>
-      <c r="V123" s="4"/>
-      <c r="W123" s="4"/>
-      <c r="X123" s="4"/>
-      <c r="Y123" s="4"/>
-      <c r="Z123" s="4"/>
+      <c r="A123" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2"/>
+      <c r="V123" s="2"/>
+      <c r="W123" s="2"/>
+      <c r="X123" s="2"/>
+      <c r="Y123" s="2"/>
+      <c r="Z123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>211</v>
-      </c>
+      <c r="A124" s="1"/>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -5369,54 +5391,79 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C125" s="1" t="s">
+      <c r="A125" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-      <c r="P125" s="2"/>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
-      <c r="S125" s="2"/>
-      <c r="T125" s="2"/>
-      <c r="U125" s="2"/>
-      <c r="V125" s="2"/>
-      <c r="W125" s="2"/>
-      <c r="X125" s="2"/>
-      <c r="Y125" s="2"/>
-      <c r="Z125" s="2"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="4"/>
+      <c r="Q125" s="4"/>
+      <c r="R125" s="4"/>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
     </row>
     <row r="126">
-      <c r="A126" s="21" t="s">
+      <c r="A126" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B126" s="21" t="s">
+      <c r="B126" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C126" s="21" t="s">
+      <c r="C126" s="1" t="s">
         <v>215</v>
       </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="2"/>
+      <c r="Z126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -5442,32 +5489,15 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="2"/>
-      <c r="S128" s="2"/>
-      <c r="T128" s="2"/>
-      <c r="U128" s="2"/>
-      <c r="V128" s="2"/>
-      <c r="W128" s="2"/>
-      <c r="X128" s="2"/>
-      <c r="Y128" s="2"/>
-      <c r="Z128" s="2"/>
+      <c r="A128" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1"/>
@@ -5498,37 +5528,45 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
-      <c r="R130" s="2"/>
-      <c r="S130" s="2"/>
-      <c r="T130" s="2"/>
-      <c r="U130" s="2"/>
-      <c r="V130" s="2"/>
-      <c r="W130" s="2"/>
-      <c r="X130" s="2"/>
-      <c r="Y130" s="2"/>
-      <c r="Z130" s="2"/>
+      <c r="A130" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="4"/>
     </row>
     <row r="131">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -6450,78 +6488,72 @@
       <c r="Z163" s="2"/>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="4"/>
-      <c r="P164" s="4"/>
-      <c r="Q164" s="4"/>
-      <c r="R164" s="4"/>
-      <c r="S164" s="4"/>
-      <c r="T164" s="4"/>
-      <c r="U164" s="4"/>
-      <c r="V164" s="4"/>
-      <c r="W164" s="4"/>
-      <c r="X164" s="4"/>
-      <c r="Y164" s="4"/>
-      <c r="Z164" s="4"/>
+      <c r="A164" s="1"/>
+      <c r="B164" s="1"/>
+      <c r="C164" s="1"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2"/>
+      <c r="V164" s="2"/>
+      <c r="W164" s="2"/>
+      <c r="X164" s="2"/>
+      <c r="Y164" s="2"/>
+      <c r="Z164" s="2"/>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
-      <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
-      <c r="P165" s="2"/>
-      <c r="Q165" s="2"/>
-      <c r="R165" s="2"/>
-      <c r="S165" s="2"/>
-      <c r="T165" s="2"/>
-      <c r="U165" s="2"/>
-      <c r="V165" s="2"/>
-      <c r="W165" s="2"/>
-      <c r="X165" s="2"/>
-      <c r="Y165" s="2"/>
-      <c r="Z165" s="2"/>
+      <c r="A165" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
+      <c r="I165" s="4"/>
+      <c r="J165" s="4"/>
+      <c r="K165" s="4"/>
+      <c r="L165" s="4"/>
+      <c r="M165" s="4"/>
+      <c r="N165" s="4"/>
+      <c r="O165" s="4"/>
+      <c r="P165" s="4"/>
+      <c r="Q165" s="4"/>
+      <c r="R165" s="4"/>
+      <c r="S165" s="4"/>
+      <c r="T165" s="4"/>
+      <c r="U165" s="4"/>
+      <c r="V165" s="4"/>
+      <c r="W165" s="4"/>
+      <c r="X165" s="4"/>
+      <c r="Y165" s="4"/>
+      <c r="Z165" s="4"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
@@ -6549,13 +6581,13 @@
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6583,13 +6615,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6617,13 +6649,13 @@
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6651,13 +6683,13 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6685,13 +6717,13 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6719,13 +6751,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6753,13 +6785,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6787,13 +6819,13 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>99</v>
+        <v>242</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6821,13 +6853,13 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>239</v>
+        <v>101</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6855,13 +6887,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6889,13 +6921,13 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6923,13 +6955,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6957,13 +6989,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -6990,9 +7022,15 @@
       <c r="Z179" s="2"/>
     </row>
     <row r="180">
-      <c r="A180" s="1"/>
-      <c r="B180" s="1"/>
-      <c r="C180" s="1"/>
+      <c r="A180" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C180" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
       <c r="F180" s="2"/>
@@ -7018,78 +7056,72 @@
       <c r="Z180" s="2"/>
     </row>
     <row r="181">
-      <c r="A181" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
-      <c r="D181" s="4"/>
-      <c r="E181" s="4"/>
-      <c r="F181" s="4"/>
-      <c r="G181" s="4"/>
-      <c r="H181" s="4"/>
-      <c r="I181" s="4"/>
-      <c r="J181" s="4"/>
-      <c r="K181" s="4"/>
-      <c r="L181" s="4"/>
-      <c r="M181" s="4"/>
-      <c r="N181" s="4"/>
-      <c r="O181" s="4"/>
-      <c r="P181" s="4"/>
-      <c r="Q181" s="4"/>
-      <c r="R181" s="4"/>
-      <c r="S181" s="4"/>
-      <c r="T181" s="4"/>
-      <c r="U181" s="4"/>
-      <c r="V181" s="4"/>
-      <c r="W181" s="4"/>
-      <c r="X181" s="4"/>
-      <c r="Y181" s="4"/>
-      <c r="Z181" s="4"/>
+      <c r="A181" s="1"/>
+      <c r="B181" s="1"/>
+      <c r="C181" s="1"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+      <c r="L181" s="2"/>
+      <c r="M181" s="2"/>
+      <c r="N181" s="2"/>
+      <c r="O181" s="2"/>
+      <c r="P181" s="2"/>
+      <c r="Q181" s="2"/>
+      <c r="R181" s="2"/>
+      <c r="S181" s="2"/>
+      <c r="T181" s="2"/>
+      <c r="U181" s="2"/>
+      <c r="V181" s="2"/>
+      <c r="W181" s="2"/>
+      <c r="X181" s="2"/>
+      <c r="Y181" s="2"/>
+      <c r="Z181" s="2"/>
     </row>
     <row r="182">
-      <c r="A182" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D182" s="2"/>
-      <c r="E182" s="2"/>
-      <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
-      <c r="H182" s="2"/>
-      <c r="I182" s="2"/>
-      <c r="J182" s="2"/>
-      <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
-      <c r="M182" s="2"/>
-      <c r="N182" s="2"/>
-      <c r="O182" s="2"/>
-      <c r="P182" s="2"/>
-      <c r="Q182" s="2"/>
-      <c r="R182" s="2"/>
-      <c r="S182" s="2"/>
-      <c r="T182" s="2"/>
-      <c r="U182" s="2"/>
-      <c r="V182" s="2"/>
-      <c r="W182" s="2"/>
-      <c r="X182" s="2"/>
-      <c r="Y182" s="2"/>
-      <c r="Z182" s="2"/>
+      <c r="A182" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
+      <c r="I182" s="4"/>
+      <c r="J182" s="4"/>
+      <c r="K182" s="4"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="4"/>
+      <c r="N182" s="4"/>
+      <c r="O182" s="4"/>
+      <c r="P182" s="4"/>
+      <c r="Q182" s="4"/>
+      <c r="R182" s="4"/>
+      <c r="S182" s="4"/>
+      <c r="T182" s="4"/>
+      <c r="U182" s="4"/>
+      <c r="V182" s="4"/>
+      <c r="W182" s="4"/>
+      <c r="X182" s="4"/>
+      <c r="Y182" s="4"/>
+      <c r="Z182" s="4"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7117,13 +7149,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -7151,13 +7183,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -7185,13 +7217,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -7219,13 +7251,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -7253,13 +7285,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -7287,13 +7319,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -7321,13 +7353,13 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -7355,13 +7387,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -7388,9 +7420,15 @@
       <c r="Z191" s="2"/>
     </row>
     <row r="192">
-      <c r="A192" s="2"/>
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
+      <c r="A192" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C192" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -34491,6 +34529,34 @@
       <c r="Y1159" s="2"/>
       <c r="Z1159" s="2"/>
     </row>
+    <row r="1160">
+      <c r="A1160" s="2"/>
+      <c r="B1160" s="2"/>
+      <c r="C1160" s="2"/>
+      <c r="D1160" s="2"/>
+      <c r="E1160" s="2"/>
+      <c r="F1160" s="2"/>
+      <c r="G1160" s="2"/>
+      <c r="H1160" s="2"/>
+      <c r="I1160" s="2"/>
+      <c r="J1160" s="2"/>
+      <c r="K1160" s="2"/>
+      <c r="L1160" s="2"/>
+      <c r="M1160" s="2"/>
+      <c r="N1160" s="2"/>
+      <c r="O1160" s="2"/>
+      <c r="P1160" s="2"/>
+      <c r="Q1160" s="2"/>
+      <c r="R1160" s="2"/>
+      <c r="S1160" s="2"/>
+      <c r="T1160" s="2"/>
+      <c r="U1160" s="2"/>
+      <c r="V1160" s="2"/>
+      <c r="W1160" s="2"/>
+      <c r="X1160" s="2"/>
+      <c r="Y1160" s="2"/>
+      <c r="Z1160" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="293">
   <si>
     <t>ID</t>
   </si>
@@ -145,6 +145,18 @@
     <t>已複製!</t>
   </si>
   <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>購買</t>
+  </si>
+  <si>
     <t>Enter New Password.</t>
   </si>
   <si>
@@ -161,6 +173,12 @@
   </si>
   <si>
     <t>至少 8 個字元。</t>
+  </si>
+  <si>
+    <t>INTEGRAL</t>
+  </si>
+  <si>
+    <t>積分</t>
   </si>
   <si>
     <t>CRYPTO TABLE</t>
@@ -227,12 +245,6 @@
   </si>
   <si>
     <t>交易結果</t>
-  </si>
-  <si>
-    <t>INTEGRAL</t>
-  </si>
-  <si>
-    <t>積分</t>
   </si>
   <si>
     <t>CASH</t>
@@ -335,6 +347,12 @@
   </si>
   <si>
     <t>手牌</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>載入中</t>
   </si>
   <si>
     <t>錯誤訊息</t>
@@ -897,18 +915,18 @@
       <name val="&quot;Google Sans&quot;"/>
     </font>
     <font>
-      <sz val="9.0"/>
-      <color rgb="FF1F1F1F"/>
-      <name val="&quot;Google Sans&quot;"/>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -1006,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1031,7 +1049,7 @@
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1055,6 +1073,9 @@
     <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -1067,45 +1088,42 @@
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -1120,6 +1138,12 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2053,41 +2077,41 @@
       <c r="Z21" s="2"/>
     </row>
     <row r="22">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="X22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="Z22" s="13"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
     </row>
     <row r="23">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -2118,50 +2142,50 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-      <c r="Z23" s="15"/>
+      <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="19"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="13"/>
     </row>
     <row r="25">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D25" s="2"/>
@@ -2189,7 +2213,7 @@
       <c r="Z25" s="15"/>
     </row>
     <row r="26">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2257,14 +2281,14 @@
       <c r="Z27" s="13"/>
     </row>
     <row r="28">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="16" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -2291,48 +2315,48 @@
       <c r="Z28" s="15"/>
     </row>
     <row r="29">
-      <c r="A29" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
-      <c r="V29" s="2"/>
-      <c r="W29" s="2"/>
-      <c r="X29" s="2"/>
-      <c r="Y29" s="2"/>
-      <c r="Z29" s="15"/>
+      <c r="A29" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="20"/>
     </row>
     <row r="30">
-      <c r="A30" s="20" t="s">
-        <v>58</v>
+      <c r="A30" s="16" t="s">
+        <v>60</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -2359,14 +2383,14 @@
       <c r="Z30" s="15"/>
     </row>
     <row r="31">
-      <c r="A31" s="20" t="s">
-        <v>60</v>
+      <c r="A31" s="16" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -2394,40 +2418,40 @@
     </row>
     <row r="32">
       <c r="A32" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="18"/>
-      <c r="X32" s="18"/>
-      <c r="Y32" s="18"/>
-      <c r="Z32" s="19"/>
+      <c r="B32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="15"/>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="16" t="s">
         <v>64</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2458,10 +2482,10 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
+      <c r="Z33" s="15"/>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="16" t="s">
         <v>66</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2492,153 +2516,175 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="2"/>
+      <c r="Z34" s="15"/>
     </row>
     <row r="35">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="18" t="s">
         <v>69</v>
       </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="20"/>
     </row>
     <row r="36">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
     </row>
     <row r="37">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="12"/>
-      <c r="O37" s="12"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="12"/>
-      <c r="S37" s="12"/>
-      <c r="T37" s="12"/>
-      <c r="U37" s="12"/>
-      <c r="V37" s="12"/>
-      <c r="W37" s="12"/>
-      <c r="X37" s="12"/>
-      <c r="Y37" s="12"/>
-      <c r="Z37" s="13"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
     </row>
     <row r="38">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="23" t="s">
+      <c r="B38" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="24"/>
-      <c r="H38" s="24"/>
-      <c r="I38" s="24"/>
-      <c r="J38" s="24"/>
-      <c r="K38" s="24"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="24"/>
-      <c r="R38" s="24"/>
-      <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
-      <c r="U38" s="24"/>
-      <c r="V38" s="24"/>
-      <c r="W38" s="24"/>
-      <c r="X38" s="24"/>
-      <c r="Y38" s="24"/>
-      <c r="Z38" s="25"/>
     </row>
     <row r="39">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="23" t="s">
+      <c r="B39" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="24"/>
-      <c r="H39" s="24"/>
-      <c r="I39" s="24"/>
-      <c r="J39" s="24"/>
-      <c r="K39" s="24"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="24"/>
-      <c r="R39" s="24"/>
-      <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
-      <c r="U39" s="24"/>
-      <c r="V39" s="24"/>
-      <c r="W39" s="24"/>
-      <c r="X39" s="24"/>
-      <c r="Y39" s="24"/>
-      <c r="Z39" s="25"/>
+      <c r="C39" s="21" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z40" s="28"/>
+      <c r="A40" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+      <c r="O40" s="24"/>
+      <c r="P40" s="24"/>
+      <c r="Q40" s="24"/>
+      <c r="R40" s="24"/>
+      <c r="S40" s="24"/>
+      <c r="T40" s="24"/>
+      <c r="U40" s="24"/>
+      <c r="V40" s="24"/>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="24"/>
+      <c r="Z40" s="25"/>
     </row>
     <row r="41">
-      <c r="A41" s="22" t="s">
-        <v>78</v>
+      <c r="A41" s="26" t="s">
+        <v>80</v>
       </c>
       <c r="B41" s="23" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D41" s="24"/>
       <c r="E41" s="24"/>
@@ -2665,82 +2711,60 @@
       <c r="Z41" s="25"/>
     </row>
     <row r="42">
-      <c r="A42" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="2"/>
-      <c r="S42" s="2"/>
-      <c r="T42" s="2"/>
-      <c r="U42" s="2"/>
-      <c r="V42" s="2"/>
-      <c r="W42" s="2"/>
-      <c r="X42" s="2"/>
-      <c r="Y42" s="2"/>
-      <c r="Z42" s="15"/>
+      <c r="A42" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z42" s="28"/>
     </row>
     <row r="43">
-      <c r="A43" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C43" s="1" t="s">
+      <c r="A43" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="2"/>
-      <c r="S43" s="2"/>
-      <c r="T43" s="2"/>
-      <c r="U43" s="2"/>
-      <c r="V43" s="2"/>
-      <c r="W43" s="2"/>
-      <c r="X43" s="2"/>
-      <c r="Y43" s="2"/>
-      <c r="Z43" s="15"/>
+      <c r="B43" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="24"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="24"/>
+      <c r="S43" s="24"/>
+      <c r="T43" s="24"/>
+      <c r="U43" s="24"/>
+      <c r="V43" s="24"/>
+      <c r="W43" s="24"/>
+      <c r="X43" s="24"/>
+      <c r="Y43" s="24"/>
+      <c r="Z43" s="25"/>
     </row>
     <row r="44">
-      <c r="A44" s="20" t="s">
-        <v>83</v>
+      <c r="A44" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -2767,48 +2791,48 @@
       <c r="Z44" s="15"/>
     </row>
     <row r="45">
-      <c r="A45" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="11" t="s">
+      <c r="A45" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="12"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="12"/>
-      <c r="S45" s="12"/>
-      <c r="T45" s="12"/>
-      <c r="U45" s="12"/>
-      <c r="V45" s="12"/>
-      <c r="W45" s="12"/>
-      <c r="X45" s="12"/>
-      <c r="Y45" s="12"/>
-      <c r="Z45" s="13"/>
+      <c r="B45" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="15"/>
     </row>
     <row r="46">
-      <c r="A46" s="20" t="s">
-        <v>86</v>
+      <c r="A46" s="16" t="s">
+        <v>87</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2835,72 +2859,72 @@
       <c r="Z46" s="15"/>
     </row>
     <row r="47">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B47" s="23" t="s">
+      <c r="B47" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C47" s="23" t="s">
+      <c r="C47" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-      <c r="G47" s="24"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
-      <c r="J47" s="24"/>
-      <c r="K47" s="24"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="25"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="12"/>
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
+      <c r="S47" s="12"/>
+      <c r="T47" s="12"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
+      <c r="X47" s="12"/>
+      <c r="Y47" s="12"/>
+      <c r="Z47" s="13"/>
     </row>
     <row r="48">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B48" s="23" t="s">
+      <c r="B48" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="23" t="s">
+      <c r="C48" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-      <c r="F48" s="24"/>
-      <c r="G48" s="24"/>
-      <c r="H48" s="24"/>
-      <c r="I48" s="24"/>
-      <c r="J48" s="24"/>
-      <c r="K48" s="24"/>
-      <c r="L48" s="24"/>
-      <c r="M48" s="24"/>
-      <c r="N48" s="24"/>
-      <c r="O48" s="24"/>
-      <c r="P48" s="24"/>
-      <c r="Q48" s="24"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
-      <c r="U48" s="24"/>
-      <c r="V48" s="24"/>
-      <c r="W48" s="24"/>
-      <c r="X48" s="24"/>
-      <c r="Y48" s="24"/>
-      <c r="Z48" s="25"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="15"/>
     </row>
     <row r="49">
       <c r="A49" s="22" t="s">
@@ -2971,13 +2995,13 @@
       <c r="Z50" s="25"/>
     </row>
     <row r="51">
-      <c r="A51" s="29" t="s">
+      <c r="A51" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="30" t="s">
+      <c r="B51" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="C51" s="30" t="s">
+      <c r="C51" s="23" t="s">
         <v>97</v>
       </c>
       <c r="D51" s="24"/>
@@ -3005,143 +3029,143 @@
       <c r="Z51" s="25"/>
     </row>
     <row r="52">
-      <c r="A52" s="31" t="s">
+      <c r="A52" s="22" t="s">
         <v>98</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="C52" s="32" t="s">
+      <c r="C52" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="D52" s="33"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="33"/>
-      <c r="G52" s="33"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="33"/>
-      <c r="J52" s="33"/>
-      <c r="K52" s="33"/>
-      <c r="L52" s="33"/>
-      <c r="M52" s="33"/>
-      <c r="N52" s="33"/>
-      <c r="O52" s="33"/>
-      <c r="P52" s="33"/>
-      <c r="Q52" s="33"/>
-      <c r="R52" s="33"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="33"/>
-      <c r="V52" s="33"/>
-      <c r="W52" s="33"/>
-      <c r="X52" s="33"/>
-      <c r="Y52" s="33"/>
-      <c r="Z52" s="34"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="24"/>
+      <c r="N52" s="24"/>
+      <c r="O52" s="24"/>
+      <c r="P52" s="24"/>
+      <c r="Q52" s="24"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="24"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="24"/>
+      <c r="W52" s="24"/>
+      <c r="X52" s="24"/>
+      <c r="Y52" s="24"/>
+      <c r="Z52" s="25"/>
     </row>
     <row r="53">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C53" s="11" t="s">
+      <c r="C53" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="12"/>
-      <c r="O53" s="12"/>
-      <c r="P53" s="12"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="12"/>
-      <c r="S53" s="12"/>
-      <c r="T53" s="12"/>
-      <c r="U53" s="12"/>
-      <c r="V53" s="12"/>
-      <c r="W53" s="12"/>
-      <c r="X53" s="12"/>
-      <c r="Y53" s="12"/>
-      <c r="Z53" s="13"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="25"/>
     </row>
     <row r="54">
-      <c r="A54" s="20" t="s">
+      <c r="A54" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="15"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="33"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="33"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="33"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="33"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="33"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="33"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="33"/>
+      <c r="U54" s="33"/>
+      <c r="V54" s="33"/>
+      <c r="W54" s="33"/>
+      <c r="X54" s="33"/>
+      <c r="Y54" s="33"/>
+      <c r="Z54" s="34"/>
     </row>
     <row r="55">
-      <c r="A55" s="16" t="s">
+      <c r="A55" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B55" s="17" t="s">
+      <c r="B55" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="19"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="13"/>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="16" t="s">
         <v>106</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -3172,172 +3196,178 @@
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="2"/>
+      <c r="Z56" s="15"/>
     </row>
     <row r="57">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="2"/>
+      <c r="A57" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="19"/>
+      <c r="M57" s="19"/>
+      <c r="N57" s="19"/>
+      <c r="O57" s="19"/>
+      <c r="P57" s="19"/>
+      <c r="Q57" s="19"/>
+      <c r="R57" s="19"/>
+      <c r="S57" s="19"/>
+      <c r="T57" s="19"/>
+      <c r="U57" s="19"/>
+      <c r="V57" s="19"/>
+      <c r="W57" s="19"/>
+      <c r="X57" s="19"/>
+      <c r="Y57" s="19"/>
+      <c r="Z57" s="20"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="R58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
+      <c r="A58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
     </row>
     <row r="59">
-      <c r="A59" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="6"/>
-      <c r="T59" s="6"/>
-      <c r="U59" s="6"/>
-      <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-      <c r="X59" s="6"/>
-      <c r="Y59" s="6"/>
-      <c r="Z59" s="6"/>
+      <c r="A59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
     </row>
     <row r="60">
-      <c r="A60" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
     </row>
     <row r="61">
-      <c r="A61" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C61" s="5" t="s">
+      <c r="A61" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="6"/>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="6"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
-      <c r="M61" s="6"/>
-      <c r="N61" s="6"/>
-      <c r="O61" s="6"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="6"/>
-      <c r="T61" s="6"/>
-      <c r="U61" s="6"/>
-      <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-      <c r="X61" s="6"/>
-      <c r="Y61" s="6"/>
-      <c r="Z61" s="6"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+      <c r="M61" s="4"/>
+      <c r="N61" s="4"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="4"/>
+      <c r="Q61" s="4"/>
+      <c r="R61" s="4"/>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
     </row>
     <row r="62">
-      <c r="A62" s="5"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="A62" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="D62" s="6"/>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -3363,75 +3393,77 @@
       <c r="Z62" s="6"/>
     </row>
     <row r="63">
-      <c r="A63" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="4"/>
-      <c r="G63" s="4"/>
-      <c r="H63" s="4"/>
-      <c r="I63" s="4"/>
-      <c r="J63" s="4"/>
-      <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
-      <c r="N63" s="4"/>
-      <c r="O63" s="4"/>
-      <c r="P63" s="4"/>
-      <c r="Q63" s="4"/>
-      <c r="R63" s="4"/>
-      <c r="S63" s="4"/>
-      <c r="T63" s="4"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="4"/>
+      <c r="A63" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
+      <c r="K63" s="6"/>
+      <c r="L63" s="6"/>
+      <c r="M63" s="6"/>
+      <c r="N63" s="6"/>
+      <c r="O63" s="6"/>
+      <c r="P63" s="6"/>
+      <c r="Q63" s="6"/>
+      <c r="R63" s="6"/>
+      <c r="S63" s="6"/>
+      <c r="T63" s="6"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="6"/>
+      <c r="W63" s="6"/>
+      <c r="X63" s="6"/>
+      <c r="Y63" s="6"/>
+      <c r="Z63" s="6"/>
     </row>
     <row r="64">
-      <c r="A64" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="36"/>
-      <c r="E64" s="36"/>
-      <c r="F64" s="36"/>
-      <c r="G64" s="36"/>
-      <c r="H64" s="36"/>
-      <c r="I64" s="36"/>
-      <c r="J64" s="36"/>
-      <c r="K64" s="36"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="36"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="36"/>
-      <c r="P64" s="36"/>
-      <c r="Q64" s="36"/>
-      <c r="R64" s="36"/>
-      <c r="S64" s="36"/>
-      <c r="T64" s="36"/>
-      <c r="U64" s="36"/>
-      <c r="V64" s="36"/>
-      <c r="W64" s="36"/>
-      <c r="X64" s="36"/>
-      <c r="Y64" s="36"/>
-      <c r="Z64" s="36"/>
+      <c r="A64" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
+      <c r="K64" s="6"/>
+      <c r="L64" s="6"/>
+      <c r="M64" s="6"/>
+      <c r="N64" s="6"/>
+      <c r="O64" s="6"/>
+      <c r="P64" s="6"/>
+      <c r="Q64" s="6"/>
+      <c r="R64" s="6"/>
+      <c r="S64" s="6"/>
+      <c r="T64" s="6"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="6"/>
+      <c r="W64" s="6"/>
+      <c r="X64" s="6"/>
+      <c r="Y64" s="6"/>
+      <c r="Z64" s="6"/>
     </row>
     <row r="65">
-      <c r="A65" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>118</v>
-      </c>
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
       <c r="D65" s="6"/>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -3457,112 +3489,108 @@
       <c r="Z65" s="6"/>
     </row>
     <row r="66">
-      <c r="A66" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B66" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
+      <c r="A66" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+      <c r="M66" s="4"/>
+      <c r="N66" s="4"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="4"/>
+      <c r="Q66" s="4"/>
+      <c r="R66" s="4"/>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
     </row>
     <row r="67">
-      <c r="A67" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C67" s="7" t="s">
+      <c r="A67" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="6"/>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="6"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
-      <c r="M67" s="6"/>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="6"/>
-      <c r="T67" s="6"/>
-      <c r="U67" s="6"/>
-      <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-      <c r="X67" s="6"/>
-      <c r="Y67" s="6"/>
-      <c r="Z67" s="6"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="36"/>
+      <c r="H67" s="36"/>
+      <c r="I67" s="36"/>
+      <c r="J67" s="36"/>
+      <c r="K67" s="36"/>
+      <c r="L67" s="36"/>
+      <c r="M67" s="36"/>
+      <c r="N67" s="36"/>
+      <c r="O67" s="36"/>
+      <c r="P67" s="36"/>
+      <c r="Q67" s="36"/>
+      <c r="R67" s="36"/>
+      <c r="S67" s="36"/>
+      <c r="T67" s="36"/>
+      <c r="U67" s="36"/>
+      <c r="V67" s="36"/>
+      <c r="W67" s="36"/>
+      <c r="X67" s="36"/>
+      <c r="Y67" s="36"/>
+      <c r="Z67" s="36"/>
     </row>
     <row r="68">
-      <c r="A68" s="35" t="s">
+      <c r="A68" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="36"/>
-      <c r="E68" s="36"/>
-      <c r="F68" s="36"/>
-      <c r="G68" s="36"/>
-      <c r="H68" s="36"/>
-      <c r="I68" s="36"/>
-      <c r="J68" s="36"/>
-      <c r="K68" s="36"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="36"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="36"/>
-      <c r="P68" s="36"/>
-      <c r="Q68" s="36"/>
-      <c r="R68" s="36"/>
-      <c r="S68" s="36"/>
-      <c r="T68" s="36"/>
-      <c r="U68" s="36"/>
-      <c r="V68" s="36"/>
-      <c r="W68" s="36"/>
-      <c r="X68" s="36"/>
-      <c r="Y68" s="36"/>
-      <c r="Z68" s="36"/>
+      <c r="B68" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
+      <c r="K68" s="6"/>
+      <c r="L68" s="6"/>
+      <c r="M68" s="6"/>
+      <c r="N68" s="6"/>
+      <c r="O68" s="6"/>
+      <c r="P68" s="6"/>
+      <c r="Q68" s="6"/>
+      <c r="R68" s="6"/>
+      <c r="S68" s="6"/>
+      <c r="T68" s="6"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="6"/>
+      <c r="W68" s="6"/>
+      <c r="X68" s="6"/>
+      <c r="Y68" s="6"/>
+      <c r="Z68" s="6"/>
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D69" s="6"/>
       <c r="E69" s="6"/>
@@ -3590,13 +3618,13 @@
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" s="5" t="s">
         <v>127</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="D70" s="6"/>
       <c r="E70" s="6"/>
@@ -3623,78 +3651,78 @@
       <c r="Z70" s="6"/>
     </row>
     <row r="71">
-      <c r="A71" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" s="5" t="s">
+      <c r="A71" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="6"/>
-      <c r="G71" s="6"/>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="6"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
-      <c r="M71" s="6"/>
-      <c r="N71" s="6"/>
-      <c r="O71" s="6"/>
-      <c r="P71" s="6"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="6"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="6"/>
-      <c r="Y71" s="6"/>
-      <c r="Z71" s="6"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="36"/>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="36"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="36"/>
+      <c r="L71" s="36"/>
+      <c r="M71" s="36"/>
+      <c r="N71" s="36"/>
+      <c r="O71" s="36"/>
+      <c r="P71" s="36"/>
+      <c r="Q71" s="36"/>
+      <c r="R71" s="36"/>
+      <c r="S71" s="36"/>
+      <c r="T71" s="36"/>
+      <c r="U71" s="36"/>
+      <c r="V71" s="36"/>
+      <c r="W71" s="36"/>
+      <c r="X71" s="36"/>
+      <c r="Y71" s="36"/>
+      <c r="Z71" s="36"/>
     </row>
     <row r="72">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="38"/>
-      <c r="D72" s="38"/>
-      <c r="E72" s="38"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="38"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="38"/>
-      <c r="L72" s="38"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
-      <c r="Q72" s="38"/>
-      <c r="R72" s="38"/>
-      <c r="S72" s="38"/>
-      <c r="T72" s="38"/>
-      <c r="U72" s="38"/>
-      <c r="V72" s="38"/>
-      <c r="W72" s="38"/>
-      <c r="X72" s="38"/>
-      <c r="Y72" s="38"/>
-      <c r="Z72" s="38"/>
+      <c r="B72" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="6"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
+      <c r="K72" s="6"/>
+      <c r="L72" s="6"/>
+      <c r="M72" s="6"/>
+      <c r="N72" s="6"/>
+      <c r="O72" s="6"/>
+      <c r="P72" s="6"/>
+      <c r="Q72" s="6"/>
+      <c r="R72" s="6"/>
+      <c r="S72" s="6"/>
+      <c r="T72" s="6"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="6"/>
+      <c r="W72" s="6"/>
+      <c r="X72" s="6"/>
+      <c r="Y72" s="6"/>
+      <c r="Z72" s="6"/>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -3721,75 +3749,75 @@
       <c r="Z73" s="6"/>
     </row>
     <row r="74">
-      <c r="A74" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="36"/>
-      <c r="E74" s="36"/>
-      <c r="F74" s="36"/>
-      <c r="G74" s="36"/>
-      <c r="H74" s="36"/>
-      <c r="I74" s="36"/>
-      <c r="J74" s="36"/>
-      <c r="K74" s="36"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="36"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="36"/>
-      <c r="P74" s="36"/>
-      <c r="Q74" s="36"/>
-      <c r="R74" s="36"/>
-      <c r="S74" s="36"/>
-      <c r="T74" s="36"/>
-      <c r="U74" s="36"/>
-      <c r="V74" s="36"/>
-      <c r="W74" s="36"/>
-      <c r="X74" s="36"/>
-      <c r="Y74" s="36"/>
-      <c r="Z74" s="36"/>
+      <c r="A74" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="6"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
+      <c r="L74" s="6"/>
+      <c r="M74" s="6"/>
+      <c r="N74" s="6"/>
+      <c r="O74" s="6"/>
+      <c r="P74" s="6"/>
+      <c r="Q74" s="6"/>
+      <c r="R74" s="6"/>
+      <c r="S74" s="6"/>
+      <c r="T74" s="6"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="6"/>
+      <c r="W74" s="6"/>
+      <c r="X74" s="6"/>
+      <c r="Y74" s="6"/>
+      <c r="Z74" s="6"/>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
+      <c r="A75" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="38"/>
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="38"/>
+      <c r="K75" s="38"/>
+      <c r="L75" s="38"/>
+      <c r="M75" s="38"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="38"/>
+      <c r="P75" s="38"/>
+      <c r="Q75" s="38"/>
+      <c r="R75" s="38"/>
+      <c r="S75" s="38"/>
+      <c r="T75" s="38"/>
+      <c r="U75" s="38"/>
+      <c r="V75" s="38"/>
+      <c r="W75" s="38"/>
+      <c r="X75" s="38"/>
+      <c r="Y75" s="38"/>
+      <c r="Z75" s="38"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>136</v>
@@ -3819,78 +3847,78 @@
       <c r="Z76" s="6"/>
     </row>
     <row r="77">
-      <c r="A77" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C77" s="5" t="s">
+      <c r="A77" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-      <c r="G77" s="6"/>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="6"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
-      <c r="M77" s="6"/>
-      <c r="N77" s="6"/>
-      <c r="O77" s="6"/>
-      <c r="P77" s="6"/>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="6"/>
-      <c r="T77" s="6"/>
-      <c r="U77" s="6"/>
-      <c r="V77" s="6"/>
-      <c r="W77" s="6"/>
-      <c r="X77" s="6"/>
-      <c r="Y77" s="6"/>
-      <c r="Z77" s="6"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="36"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="36"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="36"/>
+      <c r="L77" s="36"/>
+      <c r="M77" s="36"/>
+      <c r="N77" s="36"/>
+      <c r="O77" s="36"/>
+      <c r="P77" s="36"/>
+      <c r="Q77" s="36"/>
+      <c r="R77" s="36"/>
+      <c r="S77" s="36"/>
+      <c r="T77" s="36"/>
+      <c r="U77" s="36"/>
+      <c r="V77" s="36"/>
+      <c r="W77" s="36"/>
+      <c r="X77" s="36"/>
+      <c r="Y77" s="36"/>
+      <c r="Z77" s="36"/>
     </row>
     <row r="78">
-      <c r="A78" s="35" t="s">
+      <c r="A78" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="36"/>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36"/>
-      <c r="H78" s="36"/>
-      <c r="I78" s="36"/>
-      <c r="J78" s="36"/>
-      <c r="K78" s="36"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="36"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="36"/>
-      <c r="P78" s="36"/>
-      <c r="Q78" s="36"/>
-      <c r="R78" s="36"/>
-      <c r="S78" s="36"/>
-      <c r="T78" s="36"/>
-      <c r="U78" s="36"/>
-      <c r="V78" s="36"/>
-      <c r="W78" s="36"/>
-      <c r="X78" s="36"/>
-      <c r="Y78" s="36"/>
-      <c r="Z78" s="36"/>
+      <c r="B78" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
     </row>
     <row r="79">
-      <c r="A79" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="7" t="s">
+      <c r="A79" s="5" t="s">
         <v>141</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="D79" s="6"/>
       <c r="E79" s="6"/>
@@ -3917,141 +3945,141 @@
       <c r="Z79" s="6"/>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C80" s="7" t="s">
+      <c r="A80" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-      <c r="F80" s="2"/>
-      <c r="G80" s="2"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-      <c r="J80" s="2"/>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
-      <c r="T80" s="2"/>
-      <c r="U80" s="2"/>
-      <c r="V80" s="2"/>
-      <c r="W80" s="2"/>
-      <c r="X80" s="2"/>
-      <c r="Y80" s="2"/>
-      <c r="Z80" s="2"/>
+      <c r="B80" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="6"/>
+      <c r="I80" s="6"/>
+      <c r="J80" s="6"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="6"/>
+      <c r="O80" s="6"/>
+      <c r="P80" s="6"/>
+      <c r="Q80" s="6"/>
+      <c r="R80" s="6"/>
+      <c r="S80" s="6"/>
+      <c r="T80" s="6"/>
+      <c r="U80" s="6"/>
+      <c r="V80" s="6"/>
+      <c r="W80" s="6"/>
+      <c r="X80" s="6"/>
+      <c r="Y80" s="6"/>
+      <c r="Z80" s="6"/>
     </row>
     <row r="81">
-      <c r="A81" s="5"/>
-      <c r="B81" s="5"/>
-      <c r="C81" s="5"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
+      <c r="A81" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="36"/>
+      <c r="E81" s="36"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="36"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="36"/>
+      <c r="L81" s="36"/>
+      <c r="M81" s="36"/>
+      <c r="N81" s="36"/>
+      <c r="O81" s="36"/>
+      <c r="P81" s="36"/>
+      <c r="Q81" s="36"/>
+      <c r="R81" s="36"/>
+      <c r="S81" s="36"/>
+      <c r="T81" s="36"/>
+      <c r="U81" s="36"/>
+      <c r="V81" s="36"/>
+      <c r="W81" s="36"/>
+      <c r="X81" s="36"/>
+      <c r="Y81" s="36"/>
+      <c r="Z81" s="36"/>
     </row>
     <row r="82">
-      <c r="A82" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-      <c r="H82" s="4"/>
-      <c r="I82" s="4"/>
-      <c r="J82" s="4"/>
-      <c r="K82" s="4"/>
-      <c r="L82" s="4"/>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4"/>
+      <c r="A82" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
     </row>
     <row r="83">
-      <c r="A83" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B83" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C83" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
-      <c r="M83" s="6"/>
-      <c r="N83" s="6"/>
-      <c r="O83" s="6"/>
-      <c r="P83" s="6"/>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="6"/>
-      <c r="T83" s="6"/>
-      <c r="U83" s="6"/>
-      <c r="V83" s="6"/>
-      <c r="W83" s="6"/>
-      <c r="X83" s="6"/>
-      <c r="Y83" s="6"/>
-      <c r="Z83" s="6"/>
+      <c r="A83" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>147</v>
-      </c>
+      <c r="A84" s="5"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -4077,43 +4105,45 @@
       <c r="Z84" s="6"/>
     </row>
     <row r="85">
-      <c r="A85" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
-      <c r="Z85" s="6"/>
+      <c r="A85" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="4"/>
+      <c r="Q85" s="4"/>
+      <c r="R85" s="4"/>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
     </row>
     <row r="86">
-      <c r="A86" s="5"/>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
+      <c r="A86" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="D86" s="6"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -4139,146 +4169,140 @@
       <c r="Z86" s="6"/>
     </row>
     <row r="87">
-      <c r="A87" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="4"/>
-      <c r="E87" s="4"/>
-      <c r="F87" s="4"/>
-      <c r="G87" s="4"/>
-      <c r="H87" s="4"/>
-      <c r="I87" s="4"/>
-      <c r="J87" s="4"/>
-      <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
-      <c r="O87" s="4"/>
-      <c r="P87" s="4"/>
-      <c r="Q87" s="4"/>
-      <c r="R87" s="4"/>
-      <c r="S87" s="4"/>
-      <c r="T87" s="4"/>
-      <c r="U87" s="4"/>
-      <c r="V87" s="4"/>
-      <c r="W87" s="4"/>
-      <c r="X87" s="4"/>
-      <c r="Y87" s="4"/>
-      <c r="Z87" s="4"/>
+      <c r="A87" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D87" s="6"/>
+      <c r="E87" s="6"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="6"/>
+      <c r="I87" s="6"/>
+      <c r="J87" s="6"/>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="6"/>
+      <c r="O87" s="6"/>
+      <c r="P87" s="6"/>
+      <c r="Q87" s="6"/>
+      <c r="R87" s="6"/>
+      <c r="S87" s="6"/>
+      <c r="T87" s="6"/>
+      <c r="U87" s="6"/>
+      <c r="V87" s="6"/>
+      <c r="W87" s="6"/>
+      <c r="X87" s="6"/>
+      <c r="Y87" s="6"/>
+      <c r="Z87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="2"/>
-      <c r="G88" s="2"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-      <c r="J88" s="2"/>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="2"/>
-      <c r="O88" s="2"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
-      <c r="S88" s="2"/>
-      <c r="T88" s="2"/>
-      <c r="U88" s="2"/>
-      <c r="V88" s="2"/>
-      <c r="W88" s="2"/>
-      <c r="X88" s="2"/>
-      <c r="Y88" s="2"/>
-      <c r="Z88" s="2"/>
+      <c r="A88" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-      <c r="J89" s="2"/>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="2"/>
-      <c r="S89" s="2"/>
-      <c r="T89" s="2"/>
-      <c r="U89" s="2"/>
-      <c r="V89" s="2"/>
-      <c r="W89" s="2"/>
-      <c r="X89" s="2"/>
-      <c r="Y89" s="2"/>
-      <c r="Z89" s="2"/>
+      <c r="A89" s="5"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-      <c r="R90" s="2"/>
-      <c r="S90" s="2"/>
-      <c r="T90" s="2"/>
-      <c r="U90" s="2"/>
-      <c r="V90" s="2"/>
-      <c r="W90" s="2"/>
-      <c r="X90" s="2"/>
-      <c r="Y90" s="2"/>
-      <c r="Z90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="4"/>
+      <c r="Q90" s="4"/>
+      <c r="R90" s="4"/>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
@@ -4306,7 +4330,7 @@
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>160</v>
@@ -4373,9 +4397,15 @@
       <c r="Z93" s="2"/>
     </row>
     <row r="94">
-      <c r="A94" s="1"/>
-      <c r="B94" s="1"/>
-      <c r="C94" s="1"/>
+      <c r="A94" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>165</v>
+      </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -4401,44 +4431,48 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
-      <c r="T95" s="4"/>
-      <c r="U95" s="4"/>
-      <c r="V95" s="4"/>
-      <c r="W95" s="4"/>
-      <c r="X95" s="4"/>
-      <c r="Y95" s="4"/>
-      <c r="Z95" s="4"/>
+      <c r="A95" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
@@ -4465,15 +4499,9 @@
       <c r="Z96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>167</v>
-      </c>
+      <c r="A97" s="1"/>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -4499,75 +4527,71 @@
       <c r="Z97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
-      <c r="V98" s="2"/>
-      <c r="W98" s="2"/>
-      <c r="X98" s="2"/>
-      <c r="Y98" s="2"/>
-      <c r="Z98" s="2"/>
+      <c r="A98" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
     </row>
     <row r="99">
-      <c r="A99" s="9" t="s">
+      <c r="A99" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C99" s="11" t="s">
+      <c r="C99" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="12"/>
-      <c r="O99" s="12"/>
-      <c r="P99" s="12"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="12"/>
-      <c r="S99" s="12"/>
-      <c r="T99" s="12"/>
-      <c r="U99" s="12"/>
-      <c r="V99" s="12"/>
-      <c r="W99" s="12"/>
-      <c r="X99" s="12"/>
-      <c r="Y99" s="12"/>
-      <c r="Z99" s="13"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+      <c r="L99" s="2"/>
+      <c r="M99" s="2"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2"/>
+      <c r="R99" s="2"/>
+      <c r="S99" s="2"/>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="2"/>
+      <c r="Y99" s="2"/>
+      <c r="Z99" s="2"/>
     </row>
     <row r="100">
-      <c r="A100" s="20" t="s">
+      <c r="A100" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -4598,41 +4622,41 @@
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
-      <c r="Z100" s="15"/>
+      <c r="Z100" s="2"/>
     </row>
     <row r="101">
-      <c r="A101" s="16" t="s">
+      <c r="A101" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C101" s="17" t="s">
+      <c r="C101" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D101" s="18"/>
-      <c r="E101" s="18"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="18"/>
-      <c r="I101" s="18"/>
-      <c r="J101" s="18"/>
-      <c r="K101" s="18"/>
-      <c r="L101" s="18"/>
-      <c r="M101" s="18"/>
-      <c r="N101" s="18"/>
-      <c r="O101" s="18"/>
-      <c r="P101" s="18"/>
-      <c r="Q101" s="18"/>
-      <c r="R101" s="18"/>
-      <c r="S101" s="18"/>
-      <c r="T101" s="18"/>
-      <c r="U101" s="18"/>
-      <c r="V101" s="18"/>
-      <c r="W101" s="18"/>
-      <c r="X101" s="18"/>
-      <c r="Y101" s="18"/>
-      <c r="Z101" s="19"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+      <c r="J101" s="2"/>
+      <c r="K101" s="2"/>
+      <c r="L101" s="2"/>
+      <c r="M101" s="2"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="2"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2"/>
+      <c r="R101" s="2"/>
+      <c r="S101" s="2"/>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="2"/>
+      <c r="Y101" s="2"/>
+      <c r="Z101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" s="9" t="s">
@@ -4669,7 +4693,7 @@
       <c r="Z102" s="13"/>
     </row>
     <row r="103">
-      <c r="A103" s="20" t="s">
+      <c r="A103" s="16" t="s">
         <v>178</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -4703,109 +4727,109 @@
       <c r="Z103" s="15"/>
     </row>
     <row r="104">
-      <c r="A104" s="20" t="s">
+      <c r="A104" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="C104" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
-      <c r="U104" s="2"/>
-      <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
-      <c r="X104" s="2"/>
-      <c r="Y104" s="2"/>
-      <c r="Z104" s="15"/>
+      <c r="D104" s="19"/>
+      <c r="E104" s="19"/>
+      <c r="F104" s="19"/>
+      <c r="G104" s="19"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
+      <c r="K104" s="19"/>
+      <c r="L104" s="19"/>
+      <c r="M104" s="19"/>
+      <c r="N104" s="19"/>
+      <c r="O104" s="19"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="19"/>
+      <c r="R104" s="19"/>
+      <c r="S104" s="19"/>
+      <c r="T104" s="19"/>
+      <c r="U104" s="19"/>
+      <c r="V104" s="19"/>
+      <c r="W104" s="19"/>
+      <c r="X104" s="19"/>
+      <c r="Y104" s="19"/>
+      <c r="Z104" s="20"/>
     </row>
     <row r="105">
-      <c r="A105" s="16" t="s">
+      <c r="A105" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="B105" s="17" t="s">
+      <c r="B105" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="C105" s="17" t="s">
+      <c r="C105" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="D105" s="18"/>
-      <c r="E105" s="18"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="18"/>
-      <c r="I105" s="18"/>
-      <c r="J105" s="18"/>
-      <c r="K105" s="18"/>
-      <c r="L105" s="18"/>
-      <c r="M105" s="18"/>
-      <c r="N105" s="18"/>
-      <c r="O105" s="18"/>
-      <c r="P105" s="18"/>
-      <c r="Q105" s="18"/>
-      <c r="R105" s="18"/>
-      <c r="S105" s="18"/>
-      <c r="T105" s="18"/>
-      <c r="U105" s="18"/>
-      <c r="V105" s="18"/>
-      <c r="W105" s="18"/>
-      <c r="X105" s="18"/>
-      <c r="Y105" s="18"/>
-      <c r="Z105" s="19"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="12"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+      <c r="Z105" s="13"/>
     </row>
     <row r="106">
-      <c r="A106" s="9" t="s">
+      <c r="A106" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C106" s="11" t="s">
+      <c r="C106" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="12"/>
-      <c r="O106" s="12"/>
-      <c r="P106" s="12"/>
-      <c r="Q106" s="12"/>
-      <c r="R106" s="12"/>
-      <c r="S106" s="12"/>
-      <c r="T106" s="12"/>
-      <c r="U106" s="12"/>
-      <c r="V106" s="12"/>
-      <c r="W106" s="12"/>
-      <c r="X106" s="12"/>
-      <c r="Y106" s="12"/>
-      <c r="Z106" s="13"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2"/>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+      <c r="Q106" s="2"/>
+      <c r="R106" s="2"/>
+      <c r="S106" s="2"/>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="2"/>
+      <c r="Y106" s="2"/>
+      <c r="Z106" s="15"/>
     </row>
     <row r="107">
-      <c r="A107" s="27" t="s">
+      <c r="A107" s="16" t="s">
         <v>186</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -4839,75 +4863,75 @@
       <c r="Z107" s="15"/>
     </row>
     <row r="108">
-      <c r="A108" s="20" t="s">
+      <c r="A108" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="18" t="s">
         <v>188</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C108" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-      <c r="Q108" s="2"/>
-      <c r="R108" s="2"/>
-      <c r="S108" s="2"/>
-      <c r="T108" s="2"/>
-      <c r="U108" s="2"/>
-      <c r="V108" s="2"/>
-      <c r="W108" s="2"/>
-      <c r="X108" s="2"/>
-      <c r="Y108" s="2"/>
-      <c r="Z108" s="15"/>
+      <c r="D108" s="19"/>
+      <c r="E108" s="19"/>
+      <c r="F108" s="19"/>
+      <c r="G108" s="19"/>
+      <c r="H108" s="19"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="19"/>
+      <c r="K108" s="19"/>
+      <c r="L108" s="19"/>
+      <c r="M108" s="19"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="19"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="19"/>
+      <c r="R108" s="19"/>
+      <c r="S108" s="19"/>
+      <c r="T108" s="19"/>
+      <c r="U108" s="19"/>
+      <c r="V108" s="19"/>
+      <c r="W108" s="19"/>
+      <c r="X108" s="19"/>
+      <c r="Y108" s="19"/>
+      <c r="Z108" s="20"/>
     </row>
     <row r="109">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B109" s="17" t="s">
+      <c r="B109" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="C109" s="17" t="s">
+      <c r="C109" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D109" s="18"/>
-      <c r="E109" s="18"/>
-      <c r="F109" s="18"/>
-      <c r="G109" s="18"/>
-      <c r="H109" s="18"/>
-      <c r="I109" s="18"/>
-      <c r="J109" s="18"/>
-      <c r="K109" s="18"/>
-      <c r="L109" s="18"/>
-      <c r="M109" s="18"/>
-      <c r="N109" s="18"/>
-      <c r="O109" s="18"/>
-      <c r="P109" s="18"/>
-      <c r="Q109" s="18"/>
-      <c r="R109" s="18"/>
-      <c r="S109" s="18"/>
-      <c r="T109" s="18"/>
-      <c r="U109" s="18"/>
-      <c r="V109" s="18"/>
-      <c r="W109" s="18"/>
-      <c r="X109" s="18"/>
-      <c r="Y109" s="18"/>
-      <c r="Z109" s="19"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="12"/>
+      <c r="X109" s="12"/>
+      <c r="Y109" s="12"/>
+      <c r="Z109" s="13"/>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="40" t="s">
         <v>192</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -4938,12 +4962,18 @@
       <c r="W110" s="2"/>
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
-      <c r="Z110" s="2"/>
+      <c r="Z110" s="15"/>
     </row>
     <row r="111">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
+      <c r="A111" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -4966,47 +4996,51 @@
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
-      <c r="Z111" s="2"/>
+      <c r="Z111" s="15"/>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
-      <c r="R112" s="4"/>
-      <c r="S112" s="4"/>
-      <c r="T112" s="4"/>
-      <c r="U112" s="4"/>
-      <c r="V112" s="4"/>
-      <c r="W112" s="4"/>
-      <c r="X112" s="4"/>
-      <c r="Y112" s="4"/>
-      <c r="Z112" s="4"/>
+      <c r="A112" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D112" s="19"/>
+      <c r="E112" s="19"/>
+      <c r="F112" s="19"/>
+      <c r="G112" s="19"/>
+      <c r="H112" s="19"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="19"/>
+      <c r="K112" s="19"/>
+      <c r="L112" s="19"/>
+      <c r="M112" s="19"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="19"/>
+      <c r="P112" s="19"/>
+      <c r="Q112" s="19"/>
+      <c r="R112" s="19"/>
+      <c r="S112" s="19"/>
+      <c r="T112" s="19"/>
+      <c r="U112" s="19"/>
+      <c r="V112" s="19"/>
+      <c r="W112" s="19"/>
+      <c r="X112" s="19"/>
+      <c r="Y112" s="19"/>
+      <c r="Z112" s="20"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
@@ -5062,7 +5096,7 @@
     </row>
     <row r="115">
       <c r="A115" s="3" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -5092,13 +5126,13 @@
     </row>
     <row r="116">
       <c r="A116" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -5125,15 +5159,9 @@
       <c r="Z116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -5159,38 +5187,34 @@
       <c r="Z117" s="2"/>
     </row>
     <row r="118">
-      <c r="A118" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="2"/>
-      <c r="S118" s="2"/>
-      <c r="T118" s="2"/>
-      <c r="U118" s="2"/>
-      <c r="V118" s="2"/>
-      <c r="W118" s="2"/>
-      <c r="X118" s="2"/>
-      <c r="Y118" s="2"/>
-      <c r="Z118" s="2"/>
+      <c r="A118" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="4"/>
+      <c r="Q118" s="4"/>
+      <c r="R118" s="4"/>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="s">
@@ -5363,9 +5387,15 @@
       <c r="Z123" s="2"/>
     </row>
     <row r="124">
-      <c r="A124" s="1"/>
-      <c r="B124" s="1"/>
-      <c r="C124" s="1"/>
+      <c r="A124" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
@@ -5391,44 +5421,48 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="4"/>
-      <c r="F125" s="4"/>
-      <c r="G125" s="4"/>
-      <c r="H125" s="4"/>
-      <c r="I125" s="4"/>
-      <c r="J125" s="4"/>
-      <c r="K125" s="4"/>
-      <c r="L125" s="4"/>
-      <c r="M125" s="4"/>
-      <c r="N125" s="4"/>
-      <c r="O125" s="4"/>
-      <c r="P125" s="4"/>
-      <c r="Q125" s="4"/>
-      <c r="R125" s="4"/>
-      <c r="S125" s="4"/>
-      <c r="T125" s="4"/>
-      <c r="U125" s="4"/>
-      <c r="V125" s="4"/>
-      <c r="W125" s="4"/>
-      <c r="X125" s="4"/>
-      <c r="Y125" s="4"/>
-      <c r="Z125" s="4"/>
+      <c r="A125" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="2"/>
+      <c r="Y125" s="2"/>
+      <c r="Z125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -5455,15 +5489,9 @@
       <c r="Z126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>217</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -5489,20 +5517,45 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B128" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="C128" s="21" t="s">
+      <c r="A128" s="3" t="s">
         <v>219</v>
       </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+      <c r="R128" s="4"/>
+      <c r="S128" s="4"/>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4"/>
+      <c r="V128" s="4"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="4"/>
     </row>
     <row r="129">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
+      <c r="A129" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -5528,68 +5581,49 @@
       <c r="Z129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-      <c r="R130" s="4"/>
-      <c r="S130" s="4"/>
-      <c r="T130" s="4"/>
-      <c r="U130" s="4"/>
-      <c r="V130" s="4"/>
-      <c r="W130" s="4"/>
-      <c r="X130" s="4"/>
-      <c r="Y130" s="4"/>
-      <c r="Z130" s="4"/>
+      <c r="A130" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2"/>
+      <c r="V130" s="2"/>
+      <c r="W130" s="2"/>
+      <c r="X130" s="2"/>
+      <c r="Y130" s="2"/>
+      <c r="Z130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="2"/>
-      <c r="S131" s="2"/>
-      <c r="T131" s="2"/>
-      <c r="U131" s="2"/>
-      <c r="V131" s="2"/>
-      <c r="W131" s="2"/>
-      <c r="X131" s="2"/>
-      <c r="Y131" s="2"/>
-      <c r="Z131" s="2"/>
+      <c r="A131" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="B131" s="41" t="s">
+        <v>224</v>
+      </c>
+      <c r="C131" s="41" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1"/>
@@ -5620,37 +5654,45 @@
       <c r="Z132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="1"/>
-      <c r="B133" s="1"/>
-      <c r="C133" s="1"/>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-      <c r="U133" s="2"/>
-      <c r="V133" s="2"/>
-      <c r="W133" s="2"/>
-      <c r="X133" s="2"/>
-      <c r="Y133" s="2"/>
-      <c r="Z133" s="2"/>
+      <c r="A133" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="4"/>
     </row>
     <row r="134">
-      <c r="A134" s="1"/>
-      <c r="B134" s="1"/>
-      <c r="C134" s="1"/>
+      <c r="A134" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
@@ -6516,45 +6558,37 @@
       <c r="Z164" s="2"/>
     </row>
     <row r="165">
-      <c r="A165" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
-      <c r="D165" s="4"/>
-      <c r="E165" s="4"/>
-      <c r="F165" s="4"/>
-      <c r="G165" s="4"/>
-      <c r="H165" s="4"/>
-      <c r="I165" s="4"/>
-      <c r="J165" s="4"/>
-      <c r="K165" s="4"/>
-      <c r="L165" s="4"/>
-      <c r="M165" s="4"/>
-      <c r="N165" s="4"/>
-      <c r="O165" s="4"/>
-      <c r="P165" s="4"/>
-      <c r="Q165" s="4"/>
-      <c r="R165" s="4"/>
-      <c r="S165" s="4"/>
-      <c r="T165" s="4"/>
-      <c r="U165" s="4"/>
-      <c r="V165" s="4"/>
-      <c r="W165" s="4"/>
-      <c r="X165" s="4"/>
-      <c r="Y165" s="4"/>
-      <c r="Z165" s="4"/>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="2"/>
+      <c r="V165" s="2"/>
+      <c r="W165" s="2"/>
+      <c r="X165" s="2"/>
+      <c r="Y165" s="2"/>
+      <c r="Z165" s="2"/>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>224</v>
-      </c>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -6580,15 +6614,9 @@
       <c r="Z166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>226</v>
-      </c>
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -6614,48 +6642,44 @@
       <c r="Z167" s="2"/>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C168" s="1" t="s">
+      <c r="A168" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
-      <c r="R168" s="2"/>
-      <c r="S168" s="2"/>
-      <c r="T168" s="2"/>
-      <c r="U168" s="2"/>
-      <c r="V168" s="2"/>
-      <c r="W168" s="2"/>
-      <c r="X168" s="2"/>
-      <c r="Y168" s="2"/>
-      <c r="Z168" s="2"/>
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="4"/>
+      <c r="N168" s="4"/>
+      <c r="O168" s="4"/>
+      <c r="P168" s="4"/>
+      <c r="Q168" s="4"/>
+      <c r="R168" s="4"/>
+      <c r="S168" s="4"/>
+      <c r="T168" s="4"/>
+      <c r="U168" s="4"/>
+      <c r="V168" s="4"/>
+      <c r="W168" s="4"/>
+      <c r="X168" s="4"/>
+      <c r="Y168" s="4"/>
+      <c r="Z168" s="4"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B169" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C169" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -6683,13 +6707,13 @@
     </row>
     <row r="170">
       <c r="A170" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C170" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -6717,13 +6741,13 @@
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C171" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6751,13 +6775,13 @@
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>238</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -6785,13 +6809,13 @@
     </row>
     <row r="173">
       <c r="A173" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C173" s="1" t="s">
         <v>239</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>240</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
@@ -6819,13 +6843,13 @@
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C174" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6853,13 +6877,13 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>243</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6887,13 +6911,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>245</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6921,7 +6945,7 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>247</v>
@@ -6958,10 +6982,10 @@
         <v>249</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>251</v>
+        <v>105</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -6989,13 +7013,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -7023,13 +7047,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -7056,9 +7080,15 @@
       <c r="Z180" s="2"/>
     </row>
     <row r="181">
-      <c r="A181" s="1"/>
-      <c r="B181" s="1"/>
-      <c r="C181" s="1"/>
+      <c r="A181" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
       <c r="F181" s="2"/>
@@ -7084,44 +7114,48 @@
       <c r="Z181" s="2"/>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
-      <c r="D182" s="4"/>
-      <c r="E182" s="4"/>
-      <c r="F182" s="4"/>
-      <c r="G182" s="4"/>
-      <c r="H182" s="4"/>
-      <c r="I182" s="4"/>
-      <c r="J182" s="4"/>
-      <c r="K182" s="4"/>
-      <c r="L182" s="4"/>
-      <c r="M182" s="4"/>
-      <c r="N182" s="4"/>
-      <c r="O182" s="4"/>
-      <c r="P182" s="4"/>
-      <c r="Q182" s="4"/>
-      <c r="R182" s="4"/>
-      <c r="S182" s="4"/>
-      <c r="T182" s="4"/>
-      <c r="U182" s="4"/>
-      <c r="V182" s="4"/>
-      <c r="W182" s="4"/>
-      <c r="X182" s="4"/>
-      <c r="Y182" s="4"/>
-      <c r="Z182" s="4"/>
+      <c r="B182" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C182" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+      <c r="M182" s="2"/>
+      <c r="N182" s="2"/>
+      <c r="O182" s="2"/>
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="2"/>
+      <c r="V182" s="2"/>
+      <c r="W182" s="2"/>
+      <c r="X182" s="2"/>
+      <c r="Y182" s="2"/>
+      <c r="Z182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7148,15 +7182,9 @@
       <c r="Z183" s="2"/>
     </row>
     <row r="184">
-      <c r="A184" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>264</v>
-      </c>
+      <c r="A184" s="1"/>
+      <c r="B184" s="1"/>
+      <c r="C184" s="1"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -7182,48 +7210,44 @@
       <c r="Z184" s="2"/>
     </row>
     <row r="185">
-      <c r="A185" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D185" s="2"/>
-      <c r="E185" s="2"/>
-      <c r="F185" s="2"/>
-      <c r="G185" s="2"/>
-      <c r="H185" s="2"/>
-      <c r="I185" s="2"/>
-      <c r="J185" s="2"/>
-      <c r="K185" s="2"/>
-      <c r="L185" s="2"/>
-      <c r="M185" s="2"/>
-      <c r="N185" s="2"/>
-      <c r="O185" s="2"/>
-      <c r="P185" s="2"/>
-      <c r="Q185" s="2"/>
-      <c r="R185" s="2"/>
-      <c r="S185" s="2"/>
-      <c r="T185" s="2"/>
-      <c r="U185" s="2"/>
-      <c r="V185" s="2"/>
-      <c r="W185" s="2"/>
-      <c r="X185" s="2"/>
-      <c r="Y185" s="2"/>
-      <c r="Z185" s="2"/>
+      <c r="A185" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
+      <c r="I185" s="4"/>
+      <c r="J185" s="4"/>
+      <c r="K185" s="4"/>
+      <c r="L185" s="4"/>
+      <c r="M185" s="4"/>
+      <c r="N185" s="4"/>
+      <c r="O185" s="4"/>
+      <c r="P185" s="4"/>
+      <c r="Q185" s="4"/>
+      <c r="R185" s="4"/>
+      <c r="S185" s="4"/>
+      <c r="T185" s="4"/>
+      <c r="U185" s="4"/>
+      <c r="V185" s="4"/>
+      <c r="W185" s="4"/>
+      <c r="X185" s="4"/>
+      <c r="Y185" s="4"/>
+      <c r="Z185" s="4"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -7251,13 +7275,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -7285,13 +7309,13 @@
     </row>
     <row r="188">
       <c r="A188" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C188" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -7319,13 +7343,13 @@
     </row>
     <row r="189">
       <c r="A189" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B189" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="C189" s="1" t="s">
         <v>276</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>277</v>
       </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
@@ -7353,13 +7377,13 @@
     </row>
     <row r="190">
       <c r="A190" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C190" s="1" t="s">
         <v>278</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>280</v>
       </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
@@ -7387,13 +7411,13 @@
     </row>
     <row r="191">
       <c r="A191" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
@@ -7421,13 +7445,13 @@
     </row>
     <row r="192">
       <c r="A192" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
@@ -7454,9 +7478,15 @@
       <c r="Z192" s="2"/>
     </row>
     <row r="193">
-      <c r="A193" s="2"/>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
+      <c r="A193" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -7482,9 +7512,15 @@
       <c r="Z193" s="2"/>
     </row>
     <row r="194">
-      <c r="A194" s="2"/>
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
+      <c r="A194" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>289</v>
+      </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -7510,9 +7546,15 @@
       <c r="Z194" s="2"/>
     </row>
     <row r="195">
-      <c r="A195" s="2"/>
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
+      <c r="A195" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C195" s="1" t="s">
+        <v>292</v>
+      </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -34557,6 +34599,90 @@
       <c r="Y1160" s="2"/>
       <c r="Z1160" s="2"/>
     </row>
+    <row r="1161">
+      <c r="A1161" s="2"/>
+      <c r="B1161" s="2"/>
+      <c r="C1161" s="2"/>
+      <c r="D1161" s="2"/>
+      <c r="E1161" s="2"/>
+      <c r="F1161" s="2"/>
+      <c r="G1161" s="2"/>
+      <c r="H1161" s="2"/>
+      <c r="I1161" s="2"/>
+      <c r="J1161" s="2"/>
+      <c r="K1161" s="2"/>
+      <c r="L1161" s="2"/>
+      <c r="M1161" s="2"/>
+      <c r="N1161" s="2"/>
+      <c r="O1161" s="2"/>
+      <c r="P1161" s="2"/>
+      <c r="Q1161" s="2"/>
+      <c r="R1161" s="2"/>
+      <c r="S1161" s="2"/>
+      <c r="T1161" s="2"/>
+      <c r="U1161" s="2"/>
+      <c r="V1161" s="2"/>
+      <c r="W1161" s="2"/>
+      <c r="X1161" s="2"/>
+      <c r="Y1161" s="2"/>
+      <c r="Z1161" s="2"/>
+    </row>
+    <row r="1162">
+      <c r="A1162" s="2"/>
+      <c r="B1162" s="2"/>
+      <c r="C1162" s="2"/>
+      <c r="D1162" s="2"/>
+      <c r="E1162" s="2"/>
+      <c r="F1162" s="2"/>
+      <c r="G1162" s="2"/>
+      <c r="H1162" s="2"/>
+      <c r="I1162" s="2"/>
+      <c r="J1162" s="2"/>
+      <c r="K1162" s="2"/>
+      <c r="L1162" s="2"/>
+      <c r="M1162" s="2"/>
+      <c r="N1162" s="2"/>
+      <c r="O1162" s="2"/>
+      <c r="P1162" s="2"/>
+      <c r="Q1162" s="2"/>
+      <c r="R1162" s="2"/>
+      <c r="S1162" s="2"/>
+      <c r="T1162" s="2"/>
+      <c r="U1162" s="2"/>
+      <c r="V1162" s="2"/>
+      <c r="W1162" s="2"/>
+      <c r="X1162" s="2"/>
+      <c r="Y1162" s="2"/>
+      <c r="Z1162" s="2"/>
+    </row>
+    <row r="1163">
+      <c r="A1163" s="2"/>
+      <c r="B1163" s="2"/>
+      <c r="C1163" s="2"/>
+      <c r="D1163" s="2"/>
+      <c r="E1163" s="2"/>
+      <c r="F1163" s="2"/>
+      <c r="G1163" s="2"/>
+      <c r="H1163" s="2"/>
+      <c r="I1163" s="2"/>
+      <c r="J1163" s="2"/>
+      <c r="K1163" s="2"/>
+      <c r="L1163" s="2"/>
+      <c r="M1163" s="2"/>
+      <c r="N1163" s="2"/>
+      <c r="O1163" s="2"/>
+      <c r="P1163" s="2"/>
+      <c r="Q1163" s="2"/>
+      <c r="R1163" s="2"/>
+      <c r="S1163" s="2"/>
+      <c r="T1163" s="2"/>
+      <c r="U1163" s="2"/>
+      <c r="V1163" s="2"/>
+      <c r="W1163" s="2"/>
+      <c r="X1163" s="2"/>
+      <c r="Y1163" s="2"/>
+      <c r="Z1163" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="319">
   <si>
     <t>ID</t>
   </si>
@@ -151,10 +151,52 @@
     <t>取消</t>
   </si>
   <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>確認</t>
+  </si>
+  <si>
     <t>Buy</t>
   </si>
   <si>
     <t>購買</t>
+  </si>
+  <si>
+    <t>Enter text...</t>
+  </si>
+  <si>
+    <t>輸入文字...</t>
+  </si>
+  <si>
+    <t>Send</t>
+  </si>
+  <si>
+    <t>傳送訊息</t>
+  </si>
+  <si>
+    <t>Hand</t>
+  </si>
+  <si>
+    <t>手牌</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>載入中</t>
+  </si>
+  <si>
+    <t>Win</t>
+  </si>
+  <si>
+    <t>獲勝</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>失敗</t>
   </si>
   <si>
     <t>Enter New Password.</t>
@@ -191,6 +233,18 @@
   </si>
   <si>
     <t>虛擬貨幣桌</t>
+  </si>
+  <si>
+    <t>CRYPTO</t>
+  </si>
+  <si>
+    <t>加密桌</t>
+  </si>
+  <si>
+    <t>VC</t>
+  </si>
+  <si>
+    <t>虛擬桌</t>
   </si>
   <si>
     <t>Integral Table</t>
@@ -313,22 +367,19 @@
     <t>社群媒體</t>
   </si>
   <si>
-    <t>Hand History</t>
+    <t>HAND HISTORY</t>
   </si>
   <si>
     <t>手牌紀錄</t>
+  </si>
+  <si>
+    <t>Hand History</t>
   </si>
   <si>
     <t>Settings</t>
   </si>
   <si>
     <t>設定</t>
-  </si>
-  <si>
-    <t>Blinds</t>
-  </si>
-  <si>
-    <t>盲注</t>
   </si>
   <si>
     <t>Min Buy-In</t>
@@ -343,16 +394,19 @@
     <t>發射</t>
   </si>
   <si>
-    <t>Hand</t>
+    <t>詢問彈窗</t>
   </si>
   <si>
-    <t>手牌</t>
+    <t>return to the lobby?</t>
   </si>
   <si>
-    <t>Loading</t>
+    <t>返回大廳？</t>
   </si>
   <si>
-    <t>載入中</t>
+    <t>If you leave now, you will not be able to get back your staked chips.</t>
+  </si>
+  <si>
+    <t>如果您現在離開，您將無法取回質押的籌碼。</t>
   </si>
   <si>
     <t>錯誤訊息</t>
@@ -604,9 +658,6 @@
     <t>FAIL</t>
   </si>
   <si>
-    <t>失敗</t>
-  </si>
-  <si>
     <t>Pledge</t>
   </si>
   <si>
@@ -697,13 +748,25 @@
     <t>已顯示最近20局手牌</t>
   </si>
   <si>
-    <t>遊戲</t>
+    <t>德州撲克遊戲</t>
   </si>
   <si>
-    <t>Waiting</t>
+    <t>Pot</t>
   </si>
   <si>
-    <t>等待下一局</t>
+    <t>底池</t>
+  </si>
+  <si>
+    <t>Side</t>
+  </si>
+  <si>
+    <t>邊池</t>
+  </si>
+  <si>
+    <t>Blinds</t>
+  </si>
+  <si>
+    <t>盲注</t>
   </si>
   <si>
     <t>Check</t>
@@ -718,15 +781,6 @@
     <t>棄牌</t>
   </si>
   <si>
-    <t>CallAny</t>
-  </si>
-  <si>
-    <t>Call Any</t>
-  </si>
-  <si>
-    <t>任何跟注</t>
-  </si>
-  <si>
     <t>Raise</t>
   </si>
   <si>
@@ -739,61 +793,25 @@
     <t>跟注</t>
   </si>
   <si>
-    <t>RaiseTo</t>
-  </si>
-  <si>
-    <t>Raise To</t>
-  </si>
-  <si>
-    <t>加注至</t>
-  </si>
-  <si>
-    <t>Pot</t>
-  </si>
-  <si>
-    <t>底池</t>
-  </si>
-  <si>
-    <t>Side</t>
-  </si>
-  <si>
-    <t>邊池</t>
-  </si>
-  <si>
-    <t>Blind</t>
-  </si>
-  <si>
     <t>AllIn</t>
   </si>
   <si>
     <t>All In</t>
   </si>
   <si>
-    <t>PotWinner</t>
+    <t>CallAny</t>
   </si>
   <si>
-    <t>Pot Winner</t>
+    <t>Call Any</t>
   </si>
   <si>
-    <t>底池贏家</t>
+    <t>任何跟注</t>
   </si>
   <si>
-    <t>SideWinner</t>
+    <t>RaiseTo</t>
   </si>
   <si>
-    <t>Side Winner</t>
-  </si>
-  <si>
-    <t>邊池贏家</t>
-  </si>
-  <si>
-    <t>ExitRoom</t>
-  </si>
-  <si>
-    <t>Exit Room</t>
-  </si>
-  <si>
-    <t>退出牌局</t>
+    <t>加注至</t>
   </si>
   <si>
     <t>CheckOrFold</t>
@@ -803,6 +821,66 @@
   </si>
   <si>
     <t>過牌 / 棄牌</t>
+  </si>
+  <si>
+    <t>Winner</t>
+  </si>
+  <si>
+    <t>贏家</t>
+  </si>
+  <si>
+    <t>Waiting for the next round...</t>
+  </si>
+  <si>
+    <t>等待下一局...</t>
+  </si>
+  <si>
+    <t>Back To Sit</t>
+  </si>
+  <si>
+    <t>回到座位</t>
+  </si>
+  <si>
+    <t>Sit out next hand</t>
+  </si>
+  <si>
+    <t>下一局留座離桌</t>
+  </si>
+  <si>
+    <t>遊戲內選單</t>
+  </si>
+  <si>
+    <t>MENU</t>
+  </si>
+  <si>
+    <t>選單</t>
+  </si>
+  <si>
+    <t>Buy Chips</t>
+  </si>
+  <si>
+    <t>購買籌碼</t>
+  </si>
+  <si>
+    <t>Log Out</t>
+  </si>
+  <si>
+    <t>登出</t>
+  </si>
+  <si>
+    <t>Game Settings</t>
+  </si>
+  <si>
+    <t>遊戲設定</t>
+  </si>
+  <si>
+    <t>聊天</t>
+  </si>
+  <si>
+    <t>New Message</t>
+  </si>
+  <si>
+    <t>新訊息</t>
   </si>
   <si>
     <t>牌型名稱</t>
@@ -1024,7 +1102,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1048,9 +1126,6 @@
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -1088,14 +1163,11 @@
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
@@ -1104,23 +1176,14 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -1144,6 +1207,24 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1703,7 +1784,7 @@
       <c r="Z10" s="6"/>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -2114,7 +2195,7 @@
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="7" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2145,41 +2226,41 @@
       <c r="Z23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="12"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="12"/>
-      <c r="X24" s="12"/>
-      <c r="Y24" s="12"/>
-      <c r="Z24" s="13"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
     </row>
     <row r="25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -2210,10 +2291,10 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-      <c r="Z25" s="15"/>
+      <c r="Z25" s="2"/>
     </row>
     <row r="26">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -2244,44 +2325,44 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-      <c r="Z26" s="15"/>
+      <c r="Z26" s="2"/>
     </row>
     <row r="27">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="12"/>
-      <c r="O27" s="12"/>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="12"/>
-      <c r="S27" s="12"/>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="12"/>
-      <c r="W27" s="12"/>
-      <c r="X27" s="12"/>
-      <c r="Y27" s="12"/>
-      <c r="Z27" s="13"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
     </row>
     <row r="28">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -2312,47 +2393,47 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="15"/>
+      <c r="Z28" s="2"/>
     </row>
     <row r="29">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
-      <c r="O29" s="19"/>
-      <c r="P29" s="19"/>
-      <c r="Q29" s="19"/>
-      <c r="R29" s="19"/>
-      <c r="S29" s="19"/>
-      <c r="T29" s="19"/>
-      <c r="U29" s="19"/>
-      <c r="V29" s="19"/>
-      <c r="W29" s="19"/>
-      <c r="X29" s="19"/>
-      <c r="Y29" s="19"/>
-      <c r="Z29" s="20"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
     </row>
     <row r="30">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="5" t="s">
         <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -2380,51 +2461,51 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-      <c r="Z30" s="15"/>
+      <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="2"/>
-      <c r="X31" s="2"/>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="15"/>
+      <c r="C31" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
+      <c r="X31" s="11"/>
+      <c r="Y31" s="11"/>
+      <c r="Z31" s="12"/>
     </row>
     <row r="32">
-      <c r="A32" s="16" t="s">
-        <v>63</v>
+      <c r="A32" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -2448,17 +2529,17 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
-      <c r="Z32" s="15"/>
+      <c r="Z32" s="14"/>
     </row>
     <row r="33">
-      <c r="A33" s="16" t="s">
-        <v>64</v>
+      <c r="A33" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -2482,85 +2563,85 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
-      <c r="Z33" s="15"/>
+      <c r="Z33" s="14"/>
     </row>
     <row r="34">
-      <c r="A34" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
-      <c r="Q34" s="2"/>
-      <c r="R34" s="2"/>
-      <c r="S34" s="2"/>
-      <c r="T34" s="2"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="2"/>
-      <c r="W34" s="2"/>
-      <c r="X34" s="2"/>
-      <c r="Y34" s="2"/>
-      <c r="Z34" s="15"/>
+      <c r="A34" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
+      <c r="X34" s="11"/>
+      <c r="Y34" s="11"/>
+      <c r="Z34" s="12"/>
     </row>
     <row r="35">
-      <c r="A35" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="19"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19"/>
-      <c r="V35" s="19"/>
-      <c r="W35" s="19"/>
-      <c r="X35" s="19"/>
-      <c r="Y35" s="19"/>
-      <c r="Z35" s="20"/>
+      <c r="A35" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="14"/>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>70</v>
+      <c r="A36" s="15" t="s">
+        <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -2584,17 +2665,17 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
-      <c r="Z36" s="2"/>
+      <c r="Z36" s="14"/>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>72</v>
+      <c r="A37" s="15" t="s">
+        <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -2618,187 +2699,255 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="2"/>
+      <c r="Z37" s="14"/>
     </row>
     <row r="38">
-      <c r="A38" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>75</v>
-      </c>
+      <c r="A38" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
+      <c r="Q38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="18"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="18"/>
+      <c r="V38" s="18"/>
+      <c r="W38" s="18"/>
+      <c r="X38" s="18"/>
+      <c r="Y38" s="18"/>
+      <c r="Z38" s="19"/>
     </row>
     <row r="39">
-      <c r="A39" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>77</v>
-      </c>
+      <c r="A39" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="14"/>
     </row>
     <row r="40">
-      <c r="A40" s="22" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24"/>
-      <c r="I40" s="24"/>
-      <c r="J40" s="24"/>
-      <c r="K40" s="24"/>
-      <c r="L40" s="24"/>
-      <c r="M40" s="24"/>
-      <c r="N40" s="24"/>
-      <c r="O40" s="24"/>
-      <c r="P40" s="24"/>
-      <c r="Q40" s="24"/>
-      <c r="R40" s="24"/>
-      <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
-      <c r="U40" s="24"/>
-      <c r="V40" s="24"/>
-      <c r="W40" s="24"/>
-      <c r="X40" s="24"/>
-      <c r="Y40" s="24"/>
-      <c r="Z40" s="25"/>
+      <c r="A40" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="14"/>
     </row>
     <row r="41">
-      <c r="A41" s="26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-      <c r="K41" s="24"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="24"/>
-      <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
-      <c r="U41" s="24"/>
-      <c r="V41" s="24"/>
-      <c r="W41" s="24"/>
-      <c r="X41" s="24"/>
-      <c r="Y41" s="24"/>
-      <c r="Z41" s="25"/>
+      <c r="A41" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="14"/>
     </row>
     <row r="42">
-      <c r="A42" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B42" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z42" s="28"/>
+      <c r="A42" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="14"/>
     </row>
     <row r="43">
-      <c r="A43" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="24"/>
-      <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
-      <c r="U43" s="24"/>
-      <c r="V43" s="24"/>
-      <c r="W43" s="24"/>
-      <c r="X43" s="24"/>
-      <c r="Y43" s="24"/>
-      <c r="Z43" s="25"/>
+      <c r="A43" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="14"/>
     </row>
     <row r="44">
       <c r="A44" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-      <c r="Y44" s="2"/>
-      <c r="Z44" s="15"/>
+        <v>86</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="18"/>
+      <c r="W44" s="18"/>
+      <c r="X44" s="18"/>
+      <c r="Y44" s="18"/>
+      <c r="Z44" s="19"/>
     </row>
     <row r="45">
-      <c r="A45" s="16" t="s">
-        <v>85</v>
+      <c r="A45" s="1" t="s">
+        <v>88</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
@@ -2822,17 +2971,17 @@
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
-      <c r="Z45" s="15"/>
+      <c r="Z45" s="2"/>
     </row>
     <row r="46">
-      <c r="A46" s="16" t="s">
-        <v>87</v>
+      <c r="A46" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -2856,873 +3005,813 @@
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
-      <c r="Z46" s="15"/>
+      <c r="Z46" s="2"/>
     </row>
     <row r="47">
-      <c r="A47" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="12"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="12"/>
-      <c r="S47" s="12"/>
-      <c r="T47" s="12"/>
-      <c r="U47" s="12"/>
-      <c r="V47" s="12"/>
-      <c r="W47" s="12"/>
-      <c r="X47" s="12"/>
-      <c r="Y47" s="12"/>
-      <c r="Z47" s="13"/>
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="16" t="s">
-        <v>90</v>
+      <c r="A48" s="1" t="s">
+        <v>94</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-      <c r="J48" s="2"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
-      <c r="Y48" s="2"/>
-      <c r="Z48" s="15"/>
+        <v>95</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="24"/>
-      <c r="R49" s="24"/>
-      <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
-      <c r="U49" s="24"/>
-      <c r="V49" s="24"/>
-      <c r="W49" s="24"/>
-      <c r="X49" s="24"/>
-      <c r="Y49" s="24"/>
-      <c r="Z49" s="25"/>
+      <c r="A49" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="22"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="23"/>
     </row>
     <row r="50">
-      <c r="A50" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C50" s="23" t="s">
-        <v>95</v>
-      </c>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="24"/>
-      <c r="H50" s="24"/>
-      <c r="I50" s="24"/>
-      <c r="J50" s="24"/>
-      <c r="K50" s="24"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="24"/>
-      <c r="R50" s="24"/>
-      <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
-      <c r="U50" s="24"/>
-      <c r="V50" s="24"/>
-      <c r="W50" s="24"/>
-      <c r="X50" s="24"/>
-      <c r="Y50" s="24"/>
-      <c r="Z50" s="25"/>
+      <c r="A50" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
+      <c r="W50" s="22"/>
+      <c r="X50" s="22"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="23"/>
     </row>
     <row r="51">
-      <c r="A51" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="B51" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="23" t="s">
+      <c r="A51" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z51" s="25"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
+      <c r="P52" s="22"/>
+      <c r="Q52" s="22"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="22"/>
+      <c r="T52" s="22"/>
+      <c r="U52" s="22"/>
+      <c r="V52" s="22"/>
+      <c r="W52" s="22"/>
+      <c r="X52" s="22"/>
+      <c r="Y52" s="22"/>
+      <c r="Z52" s="23"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="24"/>
-      <c r="R51" s="24"/>
-      <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
-      <c r="U51" s="24"/>
-      <c r="V51" s="24"/>
-      <c r="W51" s="24"/>
-      <c r="X51" s="24"/>
-      <c r="Y51" s="24"/>
-      <c r="Z51" s="25"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="22" t="s">
-        <v>98</v>
-      </c>
-      <c r="B52" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="24"/>
-      <c r="H52" s="24"/>
-      <c r="I52" s="24"/>
-      <c r="J52" s="24"/>
-      <c r="K52" s="24"/>
-      <c r="L52" s="24"/>
-      <c r="M52" s="24"/>
-      <c r="N52" s="24"/>
-      <c r="O52" s="24"/>
-      <c r="P52" s="24"/>
-      <c r="Q52" s="24"/>
-      <c r="R52" s="24"/>
-      <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
-      <c r="U52" s="24"/>
-      <c r="V52" s="24"/>
-      <c r="W52" s="24"/>
-      <c r="X52" s="24"/>
-      <c r="Y52" s="24"/>
-      <c r="Z52" s="25"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B53" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="24"/>
-      <c r="H53" s="24"/>
-      <c r="I53" s="24"/>
-      <c r="J53" s="24"/>
-      <c r="K53" s="24"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="24"/>
-      <c r="R53" s="24"/>
-      <c r="S53" s="24"/>
-      <c r="T53" s="24"/>
-      <c r="U53" s="24"/>
-      <c r="V53" s="24"/>
-      <c r="W53" s="24"/>
-      <c r="X53" s="24"/>
-      <c r="Y53" s="24"/>
-      <c r="Z53" s="25"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="14"/>
     </row>
     <row r="54">
-      <c r="A54" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="32" t="s">
+      <c r="A54" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="33"/>
-      <c r="E54" s="33"/>
-      <c r="F54" s="33"/>
-      <c r="G54" s="33"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="33"/>
-      <c r="J54" s="33"/>
-      <c r="K54" s="33"/>
-      <c r="L54" s="33"/>
-      <c r="M54" s="33"/>
-      <c r="N54" s="33"/>
-      <c r="O54" s="33"/>
-      <c r="P54" s="33"/>
-      <c r="Q54" s="33"/>
-      <c r="R54" s="33"/>
-      <c r="S54" s="33"/>
-      <c r="T54" s="33"/>
-      <c r="U54" s="33"/>
-      <c r="V54" s="33"/>
-      <c r="W54" s="33"/>
-      <c r="X54" s="33"/>
-      <c r="Y54" s="33"/>
-      <c r="Z54" s="34"/>
+      <c r="B54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="14"/>
     </row>
     <row r="55">
-      <c r="A55" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C55" s="11" t="s">
+      <c r="A55" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="12"/>
-      <c r="O55" s="12"/>
-      <c r="P55" s="12"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="12"/>
-      <c r="S55" s="12"/>
-      <c r="T55" s="12"/>
-      <c r="U55" s="12"/>
-      <c r="V55" s="12"/>
-      <c r="W55" s="12"/>
-      <c r="X55" s="12"/>
-      <c r="Y55" s="12"/>
-      <c r="Z55" s="13"/>
+      <c r="B55" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="14"/>
     </row>
     <row r="56">
-      <c r="A56" s="16" t="s">
+      <c r="A56" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-      <c r="J56" s="2"/>
-      <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-      <c r="V56" s="2"/>
-      <c r="W56" s="2"/>
-      <c r="X56" s="2"/>
-      <c r="Y56" s="2"/>
-      <c r="Z56" s="15"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+      <c r="O56" s="11"/>
+      <c r="P56" s="11"/>
+      <c r="Q56" s="11"/>
+      <c r="R56" s="11"/>
+      <c r="S56" s="11"/>
+      <c r="T56" s="11"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
+      <c r="X56" s="11"/>
+      <c r="Y56" s="11"/>
+      <c r="Z56" s="12"/>
     </row>
     <row r="57">
-      <c r="A57" s="17" t="s">
+      <c r="A57" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="20"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="14"/>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="23"/>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
-      <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-      <c r="V59" s="2"/>
-      <c r="W59" s="2"/>
-      <c r="X59" s="2"/>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
+      <c r="V59" s="22"/>
+      <c r="W59" s="22"/>
+      <c r="X59" s="22"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="23"/>
     </row>
     <row r="60">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
-      <c r="P60" s="2"/>
-      <c r="Q60" s="2"/>
-      <c r="R60" s="2"/>
-      <c r="S60" s="2"/>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
-      <c r="V60" s="2"/>
-      <c r="W60" s="2"/>
-      <c r="X60" s="2"/>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
+      <c r="A60" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="23"/>
     </row>
     <row r="61">
-      <c r="A61" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="R61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
+      <c r="A61" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
+      <c r="P61" s="22"/>
+      <c r="Q61" s="22"/>
+      <c r="R61" s="22"/>
+      <c r="S61" s="22"/>
+      <c r="T61" s="22"/>
+      <c r="U61" s="22"/>
+      <c r="V61" s="22"/>
+      <c r="W61" s="22"/>
+      <c r="X61" s="22"/>
+      <c r="Y61" s="22"/>
+      <c r="Z61" s="23"/>
     </row>
     <row r="62">
-      <c r="A62" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="6"/>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="6"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
-      <c r="M62" s="6"/>
-      <c r="N62" s="6"/>
-      <c r="O62" s="6"/>
-      <c r="P62" s="6"/>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="6"/>
-      <c r="T62" s="6"/>
-      <c r="U62" s="6"/>
-      <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-      <c r="X62" s="6"/>
-      <c r="Y62" s="6"/>
-      <c r="Z62" s="6"/>
+      <c r="A62" s="26" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="22"/>
+      <c r="Q62" s="22"/>
+      <c r="R62" s="22"/>
+      <c r="S62" s="22"/>
+      <c r="T62" s="22"/>
+      <c r="U62" s="22"/>
+      <c r="V62" s="22"/>
+      <c r="W62" s="22"/>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="23"/>
     </row>
     <row r="63">
-      <c r="A63" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="6"/>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="6"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
-      <c r="M63" s="6"/>
-      <c r="N63" s="6"/>
-      <c r="O63" s="6"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="6"/>
-      <c r="T63" s="6"/>
-      <c r="U63" s="6"/>
-      <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-      <c r="X63" s="6"/>
-      <c r="Y63" s="6"/>
-      <c r="Z63" s="6"/>
+      <c r="A63" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>120</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="22"/>
+      <c r="Q63" s="22"/>
+      <c r="R63" s="22"/>
+      <c r="S63" s="22"/>
+      <c r="T63" s="22"/>
+      <c r="U63" s="22"/>
+      <c r="V63" s="22"/>
+      <c r="W63" s="22"/>
+      <c r="X63" s="22"/>
+      <c r="Y63" s="22"/>
+      <c r="Z63" s="23"/>
     </row>
     <row r="64">
-      <c r="A64" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B64" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="6"/>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="6"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
-      <c r="M64" s="6"/>
-      <c r="N64" s="6"/>
-      <c r="O64" s="6"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="6"/>
-      <c r="T64" s="6"/>
-      <c r="U64" s="6"/>
-      <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-      <c r="X64" s="6"/>
-      <c r="Y64" s="6"/>
-      <c r="Z64" s="6"/>
+      <c r="A64" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C64" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="D64" s="28"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="28"/>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
+      <c r="J64" s="28"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="28"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="28"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="28"/>
+      <c r="X64" s="28"/>
+      <c r="Y64" s="28"/>
+      <c r="Z64" s="29"/>
     </row>
     <row r="65">
-      <c r="A65" s="5"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
-      <c r="Y65" s="6"/>
-      <c r="Z65" s="6"/>
+      <c r="A65" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="14"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-      <c r="J66" s="4"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
-      <c r="M66" s="4"/>
-      <c r="N66" s="4"/>
-      <c r="O66" s="4"/>
-      <c r="P66" s="4"/>
-      <c r="Q66" s="4"/>
-      <c r="R66" s="4"/>
-      <c r="S66" s="4"/>
-      <c r="T66" s="4"/>
-      <c r="U66" s="4"/>
-      <c r="V66" s="4"/>
-      <c r="W66" s="4"/>
-      <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="4"/>
+      <c r="A66" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
+      <c r="R66" s="18"/>
+      <c r="S66" s="18"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="18"/>
+      <c r="V66" s="18"/>
+      <c r="W66" s="18"/>
+      <c r="X66" s="18"/>
+      <c r="Y66" s="18"/>
+      <c r="Z66" s="19"/>
     </row>
     <row r="67">
-      <c r="A67" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="36"/>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="36"/>
-      <c r="H67" s="36"/>
-      <c r="I67" s="36"/>
-      <c r="J67" s="36"/>
-      <c r="K67" s="36"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="36"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="36"/>
-      <c r="P67" s="36"/>
-      <c r="Q67" s="36"/>
-      <c r="R67" s="36"/>
-      <c r="S67" s="36"/>
-      <c r="T67" s="36"/>
-      <c r="U67" s="36"/>
-      <c r="V67" s="36"/>
-      <c r="W67" s="36"/>
-      <c r="X67" s="36"/>
-      <c r="Y67" s="36"/>
-      <c r="Z67" s="36"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
     </row>
     <row r="68">
-      <c r="A68" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="6"/>
-      <c r="G68" s="6"/>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="6"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
-      <c r="M68" s="6"/>
-      <c r="N68" s="6"/>
-      <c r="O68" s="6"/>
-      <c r="P68" s="6"/>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="6"/>
-      <c r="T68" s="6"/>
-      <c r="U68" s="6"/>
-      <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-      <c r="X68" s="6"/>
-      <c r="Y68" s="6"/>
-      <c r="Z68" s="6"/>
+      <c r="A68" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+      <c r="M68" s="4"/>
+      <c r="N68" s="4"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="4"/>
+      <c r="Q68" s="4"/>
+      <c r="R68" s="4"/>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
     </row>
     <row r="69">
-      <c r="A69" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="6"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="N69" s="6"/>
-      <c r="O69" s="6"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="6"/>
-      <c r="T69" s="6"/>
-      <c r="U69" s="6"/>
-      <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-      <c r="X69" s="6"/>
-      <c r="Y69" s="6"/>
-      <c r="Z69" s="6"/>
+      <c r="A69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
-      <c r="M70" s="6"/>
-      <c r="N70" s="6"/>
-      <c r="O70" s="6"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="6"/>
-      <c r="T70" s="6"/>
-      <c r="U70" s="6"/>
-      <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-      <c r="X70" s="6"/>
-      <c r="Y70" s="6"/>
-      <c r="Z70" s="6"/>
+      <c r="A70" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="36"/>
-      <c r="H71" s="36"/>
-      <c r="I71" s="36"/>
-      <c r="J71" s="36"/>
-      <c r="K71" s="36"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="36"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="36"/>
-      <c r="P71" s="36"/>
-      <c r="Q71" s="36"/>
-      <c r="R71" s="36"/>
-      <c r="S71" s="36"/>
-      <c r="T71" s="36"/>
-      <c r="U71" s="36"/>
-      <c r="V71" s="36"/>
-      <c r="W71" s="36"/>
-      <c r="X71" s="36"/>
-      <c r="Y71" s="36"/>
-      <c r="Z71" s="36"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
-      <c r="G72" s="6"/>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="6"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
-      <c r="M72" s="6"/>
-      <c r="N72" s="6"/>
-      <c r="O72" s="6"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="6"/>
-      <c r="T72" s="6"/>
-      <c r="U72" s="6"/>
-      <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-      <c r="X72" s="6"/>
-      <c r="Y72" s="6"/>
-      <c r="Z72" s="6"/>
+      <c r="A72" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D73" s="6"/>
       <c r="E73" s="6"/>
@@ -3750,13 +3839,13 @@
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
@@ -3783,45 +3872,43 @@
       <c r="Z74" s="6"/>
     </row>
     <row r="75">
-      <c r="A75" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="38"/>
-      <c r="D75" s="38"/>
-      <c r="E75" s="38"/>
-      <c r="F75" s="38"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="38"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="38"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="38"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
-      <c r="Q75" s="38"/>
-      <c r="R75" s="38"/>
-      <c r="S75" s="38"/>
-      <c r="T75" s="38"/>
-      <c r="U75" s="38"/>
-      <c r="V75" s="38"/>
-      <c r="W75" s="38"/>
-      <c r="X75" s="38"/>
-      <c r="Y75" s="38"/>
-      <c r="Z75" s="38"/>
+      <c r="A75" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D75" s="6"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="6"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
+      <c r="K75" s="6"/>
+      <c r="L75" s="6"/>
+      <c r="M75" s="6"/>
+      <c r="N75" s="6"/>
+      <c r="O75" s="6"/>
+      <c r="P75" s="6"/>
+      <c r="Q75" s="6"/>
+      <c r="R75" s="6"/>
+      <c r="S75" s="6"/>
+      <c r="T75" s="6"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="6"/>
+      <c r="W75" s="6"/>
+      <c r="X75" s="6"/>
+      <c r="Y75" s="6"/>
+      <c r="Z75" s="6"/>
     </row>
     <row r="76">
-      <c r="A76" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -3847,68 +3934,64 @@
       <c r="Z76" s="6"/>
     </row>
     <row r="77">
-      <c r="A77" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="B77" s="35"/>
-      <c r="C77" s="35"/>
-      <c r="D77" s="36"/>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="36"/>
-      <c r="J77" s="36"/>
-      <c r="K77" s="36"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="36"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="36"/>
-      <c r="P77" s="36"/>
-      <c r="Q77" s="36"/>
-      <c r="R77" s="36"/>
-      <c r="S77" s="36"/>
-      <c r="T77" s="36"/>
-      <c r="U77" s="36"/>
-      <c r="V77" s="36"/>
-      <c r="W77" s="36"/>
-      <c r="X77" s="36"/>
-      <c r="Y77" s="36"/>
-      <c r="Z77" s="36"/>
+      <c r="A77" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="4"/>
+      <c r="Q77" s="4"/>
+      <c r="R77" s="4"/>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
     </row>
     <row r="78">
-      <c r="A78" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="C78" s="5" t="s">
+      <c r="A78" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
-      <c r="M78" s="6"/>
-      <c r="N78" s="6"/>
-      <c r="O78" s="6"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="6"/>
-      <c r="T78" s="6"/>
-      <c r="U78" s="6"/>
-      <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-      <c r="X78" s="6"/>
-      <c r="Y78" s="6"/>
-      <c r="Z78" s="6"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="30"/>
+      <c r="D78" s="31"/>
+      <c r="E78" s="31"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="31"/>
+      <c r="K78" s="31"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="31"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="31"/>
+      <c r="Q78" s="31"/>
+      <c r="R78" s="31"/>
+      <c r="S78" s="31"/>
+      <c r="T78" s="31"/>
+      <c r="U78" s="31"/>
+      <c r="V78" s="31"/>
+      <c r="W78" s="31"/>
+      <c r="X78" s="31"/>
+      <c r="Y78" s="31"/>
+      <c r="Z78" s="31"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
@@ -3945,7 +4028,7 @@
       <c r="Z79" s="6"/>
     </row>
     <row r="80">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="5" t="s">
         <v>143</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -3979,107 +4062,113 @@
       <c r="Z80" s="6"/>
     </row>
     <row r="81">
-      <c r="A81" s="35" t="s">
+      <c r="A81" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="36"/>
-      <c r="E81" s="36"/>
-      <c r="F81" s="36"/>
-      <c r="G81" s="36"/>
-      <c r="H81" s="36"/>
-      <c r="I81" s="36"/>
-      <c r="J81" s="36"/>
-      <c r="K81" s="36"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="36"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="36"/>
-      <c r="P81" s="36"/>
-      <c r="Q81" s="36"/>
-      <c r="R81" s="36"/>
-      <c r="S81" s="36"/>
-      <c r="T81" s="36"/>
-      <c r="U81" s="36"/>
-      <c r="V81" s="36"/>
-      <c r="W81" s="36"/>
-      <c r="X81" s="36"/>
-      <c r="Y81" s="36"/>
-      <c r="Z81" s="36"/>
+      <c r="B81" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D81" s="6"/>
+      <c r="E81" s="6"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="6"/>
+      <c r="I81" s="6"/>
+      <c r="J81" s="6"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="6"/>
+      <c r="O81" s="6"/>
+      <c r="P81" s="6"/>
+      <c r="Q81" s="6"/>
+      <c r="R81" s="6"/>
+      <c r="S81" s="6"/>
+      <c r="T81" s="6"/>
+      <c r="U81" s="6"/>
+      <c r="V81" s="6"/>
+      <c r="W81" s="6"/>
+      <c r="X81" s="6"/>
+      <c r="Y81" s="6"/>
+      <c r="Z81" s="6"/>
     </row>
     <row r="82">
-      <c r="A82" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C82" s="7" t="s">
+      <c r="A82" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
-      <c r="M82" s="6"/>
-      <c r="N82" s="6"/>
-      <c r="O82" s="6"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="6"/>
-      <c r="T82" s="6"/>
-      <c r="U82" s="6"/>
-      <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-      <c r="X82" s="6"/>
-      <c r="Y82" s="6"/>
-      <c r="Z82" s="6"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="30"/>
+      <c r="D82" s="31"/>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="31"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="31"/>
+      <c r="Q82" s="31"/>
+      <c r="R82" s="31"/>
+      <c r="S82" s="31"/>
+      <c r="T82" s="31"/>
+      <c r="U82" s="31"/>
+      <c r="V82" s="31"/>
+      <c r="W82" s="31"/>
+      <c r="X82" s="31"/>
+      <c r="Y82" s="31"/>
+      <c r="Z82" s="31"/>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
-      <c r="V83" s="2"/>
-      <c r="W83" s="2"/>
-      <c r="X83" s="2"/>
-      <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
+      <c r="D83" s="6"/>
+      <c r="E83" s="6"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="6"/>
+      <c r="I83" s="6"/>
+      <c r="J83" s="6"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="6"/>
+      <c r="O83" s="6"/>
+      <c r="P83" s="6"/>
+      <c r="Q83" s="6"/>
+      <c r="R83" s="6"/>
+      <c r="S83" s="6"/>
+      <c r="T83" s="6"/>
+      <c r="U83" s="6"/>
+      <c r="V83" s="6"/>
+      <c r="W83" s="6"/>
+      <c r="X83" s="6"/>
+      <c r="Y83" s="6"/>
+      <c r="Z83" s="6"/>
     </row>
     <row r="84">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
+      <c r="A84" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="D84" s="6"/>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -4105,78 +4194,78 @@
       <c r="Z84" s="6"/>
     </row>
     <row r="85">
-      <c r="A85" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="4"/>
-      <c r="E85" s="4"/>
-      <c r="F85" s="4"/>
-      <c r="G85" s="4"/>
-      <c r="H85" s="4"/>
-      <c r="I85" s="4"/>
-      <c r="J85" s="4"/>
-      <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
-      <c r="M85" s="4"/>
-      <c r="N85" s="4"/>
-      <c r="O85" s="4"/>
-      <c r="P85" s="4"/>
-      <c r="Q85" s="4"/>
-      <c r="R85" s="4"/>
-      <c r="S85" s="4"/>
-      <c r="T85" s="4"/>
-      <c r="U85" s="4"/>
-      <c r="V85" s="4"/>
-      <c r="W85" s="4"/>
-      <c r="X85" s="4"/>
-      <c r="Y85" s="4"/>
-      <c r="Z85" s="4"/>
+      <c r="A85" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D85" s="6"/>
+      <c r="E85" s="6"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="6"/>
+      <c r="I85" s="6"/>
+      <c r="J85" s="6"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="6"/>
+      <c r="O85" s="6"/>
+      <c r="P85" s="6"/>
+      <c r="Q85" s="6"/>
+      <c r="R85" s="6"/>
+      <c r="S85" s="6"/>
+      <c r="T85" s="6"/>
+      <c r="U85" s="6"/>
+      <c r="V85" s="6"/>
+      <c r="W85" s="6"/>
+      <c r="X85" s="6"/>
+      <c r="Y85" s="6"/>
+      <c r="Z85" s="6"/>
     </row>
     <row r="86">
-      <c r="A86" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
-      <c r="Y86" s="6"/>
-      <c r="Z86" s="6"/>
+      <c r="A86" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="B86" s="33"/>
+      <c r="C86" s="33"/>
+      <c r="D86" s="33"/>
+      <c r="E86" s="33"/>
+      <c r="F86" s="33"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="33"/>
+      <c r="I86" s="33"/>
+      <c r="J86" s="33"/>
+      <c r="K86" s="33"/>
+      <c r="L86" s="33"/>
+      <c r="M86" s="33"/>
+      <c r="N86" s="33"/>
+      <c r="O86" s="33"/>
+      <c r="P86" s="33"/>
+      <c r="Q86" s="33"/>
+      <c r="R86" s="33"/>
+      <c r="S86" s="33"/>
+      <c r="T86" s="33"/>
+      <c r="U86" s="33"/>
+      <c r="V86" s="33"/>
+      <c r="W86" s="33"/>
+      <c r="X86" s="33"/>
+      <c r="Y86" s="33"/>
+      <c r="Z86" s="33"/>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -4203,43 +4292,45 @@
       <c r="Z87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="6"/>
-      <c r="J88" s="6"/>
-      <c r="K88" s="6"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="N88" s="6"/>
-      <c r="O88" s="6"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="6"/>
-      <c r="T88" s="6"/>
-      <c r="U88" s="6"/>
-      <c r="V88" s="6"/>
-      <c r="W88" s="6"/>
-      <c r="X88" s="6"/>
-      <c r="Y88" s="6"/>
-      <c r="Z88" s="6"/>
+      <c r="A88" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="31"/>
+      <c r="E88" s="31"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31"/>
+      <c r="J88" s="31"/>
+      <c r="K88" s="31"/>
+      <c r="L88" s="31"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="31"/>
+      <c r="O88" s="31"/>
+      <c r="P88" s="31"/>
+      <c r="Q88" s="31"/>
+      <c r="R88" s="31"/>
+      <c r="S88" s="31"/>
+      <c r="T88" s="31"/>
+      <c r="U88" s="31"/>
+      <c r="V88" s="31"/>
+      <c r="W88" s="31"/>
+      <c r="X88" s="31"/>
+      <c r="Y88" s="31"/>
+      <c r="Z88" s="31"/>
     </row>
     <row r="89">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
+      <c r="A89" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -4265,146 +4356,146 @@
       <c r="Z89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
-      <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
-      <c r="H90" s="4"/>
-      <c r="I90" s="4"/>
-      <c r="J90" s="4"/>
-      <c r="K90" s="4"/>
-      <c r="L90" s="4"/>
-      <c r="M90" s="4"/>
-      <c r="N90" s="4"/>
-      <c r="O90" s="4"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="4"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="4"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="4"/>
-      <c r="X90" s="4"/>
-      <c r="Y90" s="4"/>
-      <c r="Z90" s="4"/>
+      <c r="A90" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-      <c r="R91" s="2"/>
-      <c r="S91" s="2"/>
-      <c r="T91" s="2"/>
-      <c r="U91" s="2"/>
-      <c r="V91" s="2"/>
-      <c r="W91" s="2"/>
-      <c r="X91" s="2"/>
-      <c r="Y91" s="2"/>
-      <c r="Z91" s="2"/>
+      <c r="A91" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
-      <c r="V92" s="2"/>
-      <c r="W92" s="2"/>
-      <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-      <c r="Z92" s="2"/>
+      <c r="A92" s="30" t="s">
+        <v>163</v>
+      </c>
+      <c r="B92" s="30"/>
+      <c r="C92" s="30"/>
+      <c r="D92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
+      <c r="I92" s="31"/>
+      <c r="J92" s="31"/>
+      <c r="K92" s="31"/>
+      <c r="L92" s="31"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="31"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="31"/>
+      <c r="Q92" s="31"/>
+      <c r="R92" s="31"/>
+      <c r="S92" s="31"/>
+      <c r="T92" s="31"/>
+      <c r="U92" s="31"/>
+      <c r="V92" s="31"/>
+      <c r="W92" s="31"/>
+      <c r="X92" s="31"/>
+      <c r="Y92" s="31"/>
+      <c r="Z92" s="31"/>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="s">
-        <v>162</v>
+      <c r="A93" s="34" t="s">
+        <v>164</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="2"/>
-      <c r="V93" s="2"/>
-      <c r="W93" s="2"/>
-      <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
-      <c r="Z93" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
+      <c r="Y93" s="6"/>
+      <c r="Z93" s="6"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
@@ -4431,270 +4522,260 @@
       <c r="Z94" s="2"/>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="2"/>
-      <c r="V95" s="2"/>
-      <c r="W95" s="2"/>
-      <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
-      <c r="Z95" s="2"/>
+      <c r="A95" s="5"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="6"/>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C97" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
-      <c r="V96" s="2"/>
-      <c r="W96" s="2"/>
-      <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
-      <c r="Z96" s="2"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="1"/>
-      <c r="B97" s="1"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="2"/>
-      <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
-      <c r="Z97" s="2"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="6"/>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
-      <c r="S98" s="4"/>
-      <c r="T98" s="4"/>
-      <c r="U98" s="4"/>
-      <c r="V98" s="4"/>
-      <c r="W98" s="4"/>
-      <c r="X98" s="4"/>
-      <c r="Y98" s="4"/>
-      <c r="Z98" s="4"/>
+      <c r="A98" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+      <c r="Y98" s="6"/>
+      <c r="Z98" s="6"/>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
-      <c r="V99" s="2"/>
-      <c r="W99" s="2"/>
-      <c r="X99" s="2"/>
-      <c r="Y99" s="2"/>
-      <c r="Z99" s="2"/>
+      <c r="A99" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+      <c r="Y99" s="6"/>
+      <c r="Z99" s="6"/>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
-      <c r="V100" s="2"/>
-      <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-      <c r="Z100" s="2"/>
+      <c r="A100" s="5"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="6"/>
+      <c r="I100" s="6"/>
+      <c r="J100" s="6"/>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="6"/>
+      <c r="O100" s="6"/>
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6"/>
+      <c r="R100" s="6"/>
+      <c r="S100" s="6"/>
+      <c r="T100" s="6"/>
+      <c r="U100" s="6"/>
+      <c r="V100" s="6"/>
+      <c r="W100" s="6"/>
+      <c r="X100" s="6"/>
+      <c r="Y100" s="6"/>
+      <c r="Z100" s="6"/>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B101" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C101" s="1" t="s">
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="4"/>
+      <c r="Q101" s="4"/>
+      <c r="R101" s="4"/>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="2"/>
-      <c r="O101" s="2"/>
-      <c r="P101" s="2"/>
-      <c r="Q101" s="2"/>
-      <c r="R101" s="2"/>
-      <c r="S101" s="2"/>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
-      <c r="V101" s="2"/>
-      <c r="W101" s="2"/>
-      <c r="X101" s="2"/>
-      <c r="Y101" s="2"/>
-      <c r="Z101" s="2"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="9" t="s">
+      <c r="B102" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B102" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="C102" s="11" t="s">
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+      <c r="J102" s="2"/>
+      <c r="K102" s="2"/>
+      <c r="L102" s="2"/>
+      <c r="M102" s="2"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2"/>
+      <c r="R102" s="2"/>
+      <c r="S102" s="2"/>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="2"/>
+      <c r="Y102" s="2"/>
+      <c r="Z102" s="2"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="12"/>
-      <c r="O102" s="12"/>
-      <c r="P102" s="12"/>
-      <c r="Q102" s="12"/>
-      <c r="R102" s="12"/>
-      <c r="S102" s="12"/>
-      <c r="T102" s="12"/>
-      <c r="U102" s="12"/>
-      <c r="V102" s="12"/>
-      <c r="W102" s="12"/>
-      <c r="X102" s="12"/>
-      <c r="Y102" s="12"/>
-      <c r="Z102" s="13"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="16" t="s">
-        <v>178</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>178</v>
@@ -4724,78 +4805,78 @@
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
-      <c r="Z103" s="15"/>
+      <c r="Z103" s="2"/>
     </row>
     <row r="104">
-      <c r="A104" s="17" t="s">
+      <c r="A104" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="B104" s="18" t="s">
+      <c r="B104" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="C104" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
-      <c r="F104" s="19"/>
-      <c r="G104" s="19"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
-      <c r="K104" s="19"/>
-      <c r="L104" s="19"/>
-      <c r="M104" s="19"/>
-      <c r="N104" s="19"/>
-      <c r="O104" s="19"/>
-      <c r="P104" s="19"/>
-      <c r="Q104" s="19"/>
-      <c r="R104" s="19"/>
-      <c r="S104" s="19"/>
-      <c r="T104" s="19"/>
-      <c r="U104" s="19"/>
-      <c r="V104" s="19"/>
-      <c r="W104" s="19"/>
-      <c r="X104" s="19"/>
-      <c r="Y104" s="19"/>
-      <c r="Z104" s="20"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+      <c r="M104" s="2"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2"/>
+      <c r="R104" s="2"/>
+      <c r="S104" s="2"/>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="2"/>
+      <c r="Y104" s="2"/>
+      <c r="Z104" s="2"/>
     </row>
     <row r="105">
-      <c r="A105" s="9" t="s">
+      <c r="A105" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C105" s="11" t="s">
+      <c r="C105" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="12"/>
-      <c r="O105" s="12"/>
-      <c r="P105" s="12"/>
-      <c r="Q105" s="12"/>
-      <c r="R105" s="12"/>
-      <c r="S105" s="12"/>
-      <c r="T105" s="12"/>
-      <c r="U105" s="12"/>
-      <c r="V105" s="12"/>
-      <c r="W105" s="12"/>
-      <c r="X105" s="12"/>
-      <c r="Y105" s="12"/>
-      <c r="Z105" s="13"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+      <c r="M105" s="2"/>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
+      <c r="Y105" s="2"/>
+      <c r="Z105" s="2"/>
     </row>
     <row r="106">
-      <c r="A106" s="16" t="s">
+      <c r="A106" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -4826,10 +4907,10 @@
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
-      <c r="Z106" s="15"/>
+      <c r="Z106" s="2"/>
     </row>
     <row r="107">
-      <c r="A107" s="16" t="s">
+      <c r="A107" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -4860,85 +4941,75 @@
       <c r="W107" s="2"/>
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
-      <c r="Z107" s="15"/>
+      <c r="Z107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="17" t="s">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2"/>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+      <c r="Q108" s="2"/>
+      <c r="R108" s="2"/>
+      <c r="S108" s="2"/>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="2"/>
+      <c r="Y108" s="2"/>
+      <c r="Z108" s="2"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="4"/>
+      <c r="Q109" s="4"/>
+      <c r="R109" s="4"/>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="4"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="B108" s="18" t="s">
+      <c r="B110" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C108" s="18" t="s">
+      <c r="C110" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
-      <c r="F108" s="19"/>
-      <c r="G108" s="19"/>
-      <c r="H108" s="19"/>
-      <c r="I108" s="19"/>
-      <c r="J108" s="19"/>
-      <c r="K108" s="19"/>
-      <c r="L108" s="19"/>
-      <c r="M108" s="19"/>
-      <c r="N108" s="19"/>
-      <c r="O108" s="19"/>
-      <c r="P108" s="19"/>
-      <c r="Q108" s="19"/>
-      <c r="R108" s="19"/>
-      <c r="S108" s="19"/>
-      <c r="T108" s="19"/>
-      <c r="U108" s="19"/>
-      <c r="V108" s="19"/>
-      <c r="W108" s="19"/>
-      <c r="X108" s="19"/>
-      <c r="Y108" s="19"/>
-      <c r="Z108" s="20"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="B109" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-      <c r="G109" s="12"/>
-      <c r="H109" s="12"/>
-      <c r="I109" s="12"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="12"/>
-      <c r="N109" s="12"/>
-      <c r="O109" s="12"/>
-      <c r="P109" s="12"/>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
-      <c r="S109" s="12"/>
-      <c r="T109" s="12"/>
-      <c r="U109" s="12"/>
-      <c r="V109" s="12"/>
-      <c r="W109" s="12"/>
-      <c r="X109" s="12"/>
-      <c r="Y109" s="12"/>
-      <c r="Z109" s="13"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
@@ -4962,17 +5033,17 @@
       <c r="W110" s="2"/>
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
-      <c r="Z110" s="15"/>
+      <c r="Z110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="16" t="s">
-        <v>194</v>
+      <c r="A111" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
@@ -4996,80 +5067,86 @@
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
-      <c r="Z111" s="15"/>
+      <c r="Z111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="17" t="s">
+      <c r="A112" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="2"/>
+      <c r="Z112" s="2"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D113" s="11"/>
+      <c r="E113" s="11"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
+      <c r="M113" s="11"/>
+      <c r="N113" s="11"/>
+      <c r="O113" s="11"/>
+      <c r="P113" s="11"/>
+      <c r="Q113" s="11"/>
+      <c r="R113" s="11"/>
+      <c r="S113" s="11"/>
+      <c r="T113" s="11"/>
+      <c r="U113" s="11"/>
+      <c r="V113" s="11"/>
+      <c r="W113" s="11"/>
+      <c r="X113" s="11"/>
+      <c r="Y113" s="11"/>
+      <c r="Z113" s="12"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="B112" s="18" t="s">
+      <c r="B114" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="C114" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
-      <c r="F112" s="19"/>
-      <c r="G112" s="19"/>
-      <c r="H112" s="19"/>
-      <c r="I112" s="19"/>
-      <c r="J112" s="19"/>
-      <c r="K112" s="19"/>
-      <c r="L112" s="19"/>
-      <c r="M112" s="19"/>
-      <c r="N112" s="19"/>
-      <c r="O112" s="19"/>
-      <c r="P112" s="19"/>
-      <c r="Q112" s="19"/>
-      <c r="R112" s="19"/>
-      <c r="S112" s="19"/>
-      <c r="T112" s="19"/>
-      <c r="U112" s="19"/>
-      <c r="V112" s="19"/>
-      <c r="W112" s="19"/>
-      <c r="X112" s="19"/>
-      <c r="Y112" s="19"/>
-      <c r="Z112" s="20"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
-      <c r="S113" s="2"/>
-      <c r="T113" s="2"/>
-      <c r="U113" s="2"/>
-      <c r="V113" s="2"/>
-      <c r="W113" s="2"/>
-      <c r="X113" s="2"/>
-      <c r="Y113" s="2"/>
-      <c r="Z113" s="2"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1"/>
-      <c r="B114" s="1"/>
-      <c r="C114" s="1"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -5092,76 +5169,86 @@
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
-      <c r="Z114" s="2"/>
+      <c r="Z114" s="14"/>
     </row>
     <row r="115">
-      <c r="A115" s="3" t="s">
+      <c r="A115" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B115" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="C115" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D115" s="18"/>
+      <c r="E115" s="18"/>
+      <c r="F115" s="18"/>
+      <c r="G115" s="18"/>
+      <c r="H115" s="18"/>
+      <c r="I115" s="18"/>
+      <c r="J115" s="18"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="18"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="18"/>
+      <c r="O115" s="18"/>
+      <c r="P115" s="18"/>
+      <c r="Q115" s="18"/>
+      <c r="R115" s="18"/>
+      <c r="S115" s="18"/>
+      <c r="T115" s="18"/>
+      <c r="U115" s="18"/>
+      <c r="V115" s="18"/>
+      <c r="W115" s="18"/>
+      <c r="X115" s="18"/>
+      <c r="Y115" s="18"/>
+      <c r="Z115" s="19"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="4"/>
-      <c r="E115" s="4"/>
-      <c r="F115" s="4"/>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
-      <c r="I115" s="4"/>
-      <c r="J115" s="4"/>
-      <c r="K115" s="4"/>
-      <c r="L115" s="4"/>
-      <c r="M115" s="4"/>
-      <c r="N115" s="4"/>
-      <c r="O115" s="4"/>
-      <c r="P115" s="4"/>
-      <c r="Q115" s="4"/>
-      <c r="R115" s="4"/>
-      <c r="S115" s="4"/>
-      <c r="T115" s="4"/>
-      <c r="U115" s="4"/>
-      <c r="V115" s="4"/>
-      <c r="W115" s="4"/>
-      <c r="X115" s="4"/>
-      <c r="Y115" s="4"/>
-      <c r="Z115" s="4"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="B116" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="C116" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="B116" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" s="11"/>
+      <c r="E116" s="11"/>
+      <c r="F116" s="11"/>
+      <c r="G116" s="11"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11"/>
+      <c r="L116" s="11"/>
+      <c r="M116" s="11"/>
+      <c r="N116" s="11"/>
+      <c r="O116" s="11"/>
+      <c r="P116" s="11"/>
+      <c r="Q116" s="11"/>
+      <c r="R116" s="11"/>
+      <c r="S116" s="11"/>
+      <c r="T116" s="11"/>
+      <c r="U116" s="11"/>
+      <c r="V116" s="11"/>
+      <c r="W116" s="11"/>
+      <c r="X116" s="11"/>
+      <c r="Y116" s="11"/>
+      <c r="Z116" s="12"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
-      <c r="S116" s="2"/>
-      <c r="T116" s="2"/>
-      <c r="U116" s="2"/>
-      <c r="V116" s="2"/>
-      <c r="W116" s="2"/>
-      <c r="X116" s="2"/>
-      <c r="Y116" s="2"/>
-      <c r="Z116" s="2"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1"/>
-      <c r="B117" s="1"/>
-      <c r="C117" s="1"/>
+      <c r="B117" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>203</v>
+      </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
@@ -5184,115 +5271,119 @@
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
-      <c r="Z117" s="2"/>
+      <c r="Z117" s="14"/>
     </row>
     <row r="118">
-      <c r="A118" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="3"/>
-      <c r="D118" s="4"/>
-      <c r="E118" s="4"/>
-      <c r="F118" s="4"/>
-      <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
-      <c r="I118" s="4"/>
-      <c r="J118" s="4"/>
-      <c r="K118" s="4"/>
-      <c r="L118" s="4"/>
-      <c r="M118" s="4"/>
-      <c r="N118" s="4"/>
-      <c r="O118" s="4"/>
-      <c r="P118" s="4"/>
-      <c r="Q118" s="4"/>
-      <c r="R118" s="4"/>
-      <c r="S118" s="4"/>
-      <c r="T118" s="4"/>
-      <c r="U118" s="4"/>
-      <c r="V118" s="4"/>
-      <c r="W118" s="4"/>
-      <c r="X118" s="4"/>
-      <c r="Y118" s="4"/>
-      <c r="Z118" s="4"/>
+      <c r="A118" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="2"/>
+      <c r="Y118" s="2"/>
+      <c r="Z118" s="14"/>
     </row>
     <row r="119">
-      <c r="A119" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="2"/>
-      <c r="S119" s="2"/>
-      <c r="T119" s="2"/>
-      <c r="U119" s="2"/>
-      <c r="V119" s="2"/>
-      <c r="W119" s="2"/>
-      <c r="X119" s="2"/>
-      <c r="Y119" s="2"/>
-      <c r="Z119" s="2"/>
+      <c r="A119" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B119" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="C119" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="D119" s="18"/>
+      <c r="E119" s="18"/>
+      <c r="F119" s="18"/>
+      <c r="G119" s="18"/>
+      <c r="H119" s="18"/>
+      <c r="I119" s="18"/>
+      <c r="J119" s="18"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="18"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="18"/>
+      <c r="O119" s="18"/>
+      <c r="P119" s="18"/>
+      <c r="Q119" s="18"/>
+      <c r="R119" s="18"/>
+      <c r="S119" s="18"/>
+      <c r="T119" s="18"/>
+      <c r="U119" s="18"/>
+      <c r="V119" s="18"/>
+      <c r="W119" s="18"/>
+      <c r="X119" s="18"/>
+      <c r="Y119" s="18"/>
+      <c r="Z119" s="19"/>
     </row>
     <row r="120">
-      <c r="A120" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-      <c r="P120" s="2"/>
-      <c r="Q120" s="2"/>
-      <c r="R120" s="2"/>
-      <c r="S120" s="2"/>
-      <c r="T120" s="2"/>
-      <c r="U120" s="2"/>
-      <c r="V120" s="2"/>
-      <c r="W120" s="2"/>
-      <c r="X120" s="2"/>
-      <c r="Y120" s="2"/>
-      <c r="Z120" s="2"/>
+      <c r="A120" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="D120" s="11"/>
+      <c r="E120" s="11"/>
+      <c r="F120" s="11"/>
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11"/>
+      <c r="L120" s="11"/>
+      <c r="M120" s="11"/>
+      <c r="N120" s="11"/>
+      <c r="O120" s="11"/>
+      <c r="P120" s="11"/>
+      <c r="Q120" s="11"/>
+      <c r="R120" s="11"/>
+      <c r="S120" s="11"/>
+      <c r="T120" s="11"/>
+      <c r="U120" s="11"/>
+      <c r="V120" s="11"/>
+      <c r="W120" s="11"/>
+      <c r="X120" s="11"/>
+      <c r="Y120" s="11"/>
+      <c r="Z120" s="12"/>
     </row>
     <row r="121">
-      <c r="A121" s="1" t="s">
-        <v>207</v>
+      <c r="A121" s="35" t="s">
+        <v>210</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5316,17 +5407,17 @@
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
-      <c r="Z121" s="2"/>
+      <c r="Z121" s="14"/>
     </row>
     <row r="122">
-      <c r="A122" s="1" t="s">
-        <v>209</v>
+      <c r="A122" s="15" t="s">
+        <v>212</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
@@ -5350,51 +5441,51 @@
       <c r="W122" s="2"/>
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
-      <c r="Z122" s="2"/>
+      <c r="Z122" s="14"/>
     </row>
     <row r="123">
-      <c r="A123" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
-      <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2"/>
-      <c r="V123" s="2"/>
-      <c r="W123" s="2"/>
-      <c r="X123" s="2"/>
-      <c r="Y123" s="2"/>
-      <c r="Z123" s="2"/>
+      <c r="A123" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="C123" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D123" s="18"/>
+      <c r="E123" s="18"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="18"/>
+      <c r="H123" s="18"/>
+      <c r="I123" s="18"/>
+      <c r="J123" s="18"/>
+      <c r="K123" s="18"/>
+      <c r="L123" s="18"/>
+      <c r="M123" s="18"/>
+      <c r="N123" s="18"/>
+      <c r="O123" s="18"/>
+      <c r="P123" s="18"/>
+      <c r="Q123" s="18"/>
+      <c r="R123" s="18"/>
+      <c r="S123" s="18"/>
+      <c r="T123" s="18"/>
+      <c r="U123" s="18"/>
+      <c r="V123" s="18"/>
+      <c r="W123" s="18"/>
+      <c r="X123" s="18"/>
+      <c r="Y123" s="18"/>
+      <c r="Z123" s="19"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
@@ -5421,15 +5512,9 @@
       <c r="Z124" s="2"/>
     </row>
     <row r="125">
-      <c r="A125" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>216</v>
-      </c>
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
       <c r="F125" s="2"/>
@@ -5455,43 +5540,45 @@
       <c r="Z125" s="2"/>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="B126" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="4"/>
+      <c r="Q126" s="4"/>
+      <c r="R126" s="4"/>
+      <c r="S126" s="4"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4"/>
+      <c r="Y126" s="4"/>
+      <c r="Z126" s="4"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
-      <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-      <c r="U126" s="2"/>
-      <c r="V126" s="2"/>
-      <c r="W126" s="2"/>
-      <c r="X126" s="2"/>
-      <c r="Y126" s="2"/>
-      <c r="Z126" s="2"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
+      <c r="B127" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>219</v>
+      </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -5517,78 +5604,72 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-      <c r="P128" s="4"/>
-      <c r="Q128" s="4"/>
-      <c r="R128" s="4"/>
-      <c r="S128" s="4"/>
-      <c r="T128" s="4"/>
-      <c r="U128" s="4"/>
-      <c r="V128" s="4"/>
-      <c r="W128" s="4"/>
-      <c r="X128" s="4"/>
-      <c r="Y128" s="4"/>
-      <c r="Z128" s="4"/>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2"/>
+      <c r="V128" s="2"/>
+      <c r="W128" s="2"/>
+      <c r="X128" s="2"/>
+      <c r="Y128" s="2"/>
+      <c r="Z128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="2"/>
-      <c r="S129" s="2"/>
-      <c r="T129" s="2"/>
-      <c r="U129" s="2"/>
-      <c r="V129" s="2"/>
-      <c r="W129" s="2"/>
-      <c r="X129" s="2"/>
-      <c r="Y129" s="2"/>
-      <c r="Z129" s="2"/>
+      <c r="A129" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="4"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
@@ -5615,20 +5696,49 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="41" t="s">
+      <c r="A131" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="2"/>
+      <c r="V131" s="2"/>
+      <c r="W131" s="2"/>
+      <c r="X131" s="2"/>
+      <c r="Y131" s="2"/>
+      <c r="Z131" s="2"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B131" s="41" t="s">
+      <c r="B132" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C131" s="41" t="s">
+      <c r="C132" s="1" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1"/>
-      <c r="B132" s="1"/>
-      <c r="C132" s="1"/>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
       <c r="F132" s="2"/>
@@ -5654,44 +5764,48 @@
       <c r="Z132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
-      <c r="F133" s="4"/>
-      <c r="G133" s="4"/>
-      <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
-      <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
-      <c r="M133" s="4"/>
-      <c r="N133" s="4"/>
-      <c r="O133" s="4"/>
-      <c r="P133" s="4"/>
-      <c r="Q133" s="4"/>
-      <c r="R133" s="4"/>
-      <c r="S133" s="4"/>
-      <c r="T133" s="4"/>
-      <c r="U133" s="4"/>
-      <c r="V133" s="4"/>
-      <c r="W133" s="4"/>
-      <c r="X133" s="4"/>
-      <c r="Y133" s="4"/>
-      <c r="Z133" s="4"/>
+      <c r="A133" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
+      <c r="U133" s="2"/>
+      <c r="V133" s="2"/>
+      <c r="W133" s="2"/>
+      <c r="X133" s="2"/>
+      <c r="Y133" s="2"/>
+      <c r="Z133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5718,9 +5832,15 @@
       <c r="Z134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="1"/>
-      <c r="B135" s="1"/>
-      <c r="C135" s="1"/>
+      <c r="A135" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -5746,9 +5866,15 @@
       <c r="Z135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="1"/>
-      <c r="B136" s="1"/>
-      <c r="C136" s="1"/>
+      <c r="A136" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
@@ -5774,9 +5900,15 @@
       <c r="Z136" s="2"/>
     </row>
     <row r="137">
-      <c r="A137" s="1"/>
-      <c r="B137" s="1"/>
-      <c r="C137" s="1"/>
+      <c r="A137" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>235</v>
+      </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
@@ -5830,37 +5962,45 @@
       <c r="Z138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="1"/>
-      <c r="B139" s="1"/>
-      <c r="C139" s="1"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="2"/>
-      <c r="I139" s="2"/>
-      <c r="J139" s="2"/>
-      <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
-      <c r="N139" s="2"/>
-      <c r="O139" s="2"/>
-      <c r="P139" s="2"/>
-      <c r="Q139" s="2"/>
-      <c r="R139" s="2"/>
-      <c r="S139" s="2"/>
-      <c r="T139" s="2"/>
-      <c r="U139" s="2"/>
-      <c r="V139" s="2"/>
-      <c r="W139" s="2"/>
-      <c r="X139" s="2"/>
-      <c r="Y139" s="2"/>
-      <c r="Z139" s="2"/>
+      <c r="A139" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="4"/>
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="4"/>
+      <c r="K139" s="4"/>
+      <c r="L139" s="4"/>
+      <c r="M139" s="4"/>
+      <c r="N139" s="4"/>
+      <c r="O139" s="4"/>
+      <c r="P139" s="4"/>
+      <c r="Q139" s="4"/>
+      <c r="R139" s="4"/>
+      <c r="S139" s="4"/>
+      <c r="T139" s="4"/>
+      <c r="U139" s="4"/>
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+      <c r="X139" s="4"/>
+      <c r="Y139" s="4"/>
+      <c r="Z139" s="4"/>
     </row>
     <row r="140">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -5886,9 +6026,15 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -5914,32 +6060,15 @@
       <c r="Z141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
-      <c r="Q142" s="2"/>
-      <c r="R142" s="2"/>
-      <c r="S142" s="2"/>
-      <c r="T142" s="2"/>
-      <c r="U142" s="2"/>
-      <c r="V142" s="2"/>
-      <c r="W142" s="2"/>
-      <c r="X142" s="2"/>
-      <c r="Y142" s="2"/>
-      <c r="Z142" s="2"/>
+      <c r="A142" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="B142" s="36" t="s">
+        <v>241</v>
+      </c>
+      <c r="C142" s="36" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1"/>
@@ -5970,37 +6099,45 @@
       <c r="Z143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="1"/>
-      <c r="B144" s="1"/>
-      <c r="C144" s="1"/>
-      <c r="D144" s="2"/>
-      <c r="E144" s="2"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="2"/>
-      <c r="H144" s="2"/>
-      <c r="I144" s="2"/>
-      <c r="J144" s="2"/>
-      <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
-      <c r="N144" s="2"/>
-      <c r="O144" s="2"/>
-      <c r="P144" s="2"/>
-      <c r="Q144" s="2"/>
-      <c r="R144" s="2"/>
-      <c r="S144" s="2"/>
-      <c r="T144" s="2"/>
-      <c r="U144" s="2"/>
-      <c r="V144" s="2"/>
-      <c r="W144" s="2"/>
-      <c r="X144" s="2"/>
-      <c r="Y144" s="2"/>
-      <c r="Z144" s="2"/>
+      <c r="A144" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
+      <c r="I144" s="4"/>
+      <c r="J144" s="4"/>
+      <c r="K144" s="4"/>
+      <c r="L144" s="4"/>
+      <c r="M144" s="4"/>
+      <c r="N144" s="4"/>
+      <c r="O144" s="4"/>
+      <c r="P144" s="4"/>
+      <c r="Q144" s="4"/>
+      <c r="R144" s="4"/>
+      <c r="S144" s="4"/>
+      <c r="T144" s="4"/>
+      <c r="U144" s="4"/>
+      <c r="V144" s="4"/>
+      <c r="W144" s="4"/>
+      <c r="X144" s="4"/>
+      <c r="Y144" s="4"/>
+      <c r="Z144" s="4"/>
     </row>
     <row r="145">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
+      <c r="A145" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>244</v>
+      </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -6054,289 +6191,351 @@
       <c r="Z146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-      <c r="Q147" s="2"/>
-      <c r="R147" s="2"/>
-      <c r="S147" s="2"/>
-      <c r="T147" s="2"/>
-      <c r="U147" s="2"/>
-      <c r="V147" s="2"/>
-      <c r="W147" s="2"/>
-      <c r="X147" s="2"/>
-      <c r="Y147" s="2"/>
-      <c r="Z147" s="2"/>
+      <c r="A147" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="4"/>
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
+      <c r="Z147" s="4"/>
     </row>
     <row r="148">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-      <c r="P148" s="2"/>
-      <c r="Q148" s="2"/>
-      <c r="R148" s="2"/>
-      <c r="S148" s="2"/>
-      <c r="T148" s="2"/>
-      <c r="U148" s="2"/>
-      <c r="V148" s="2"/>
-      <c r="W148" s="2"/>
-      <c r="X148" s="2"/>
-      <c r="Y148" s="2"/>
-      <c r="Z148" s="2"/>
+      <c r="A148" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11"/>
+      <c r="L148" s="11"/>
+      <c r="M148" s="11"/>
+      <c r="N148" s="11"/>
+      <c r="O148" s="11"/>
+      <c r="P148" s="11"/>
+      <c r="Q148" s="11"/>
+      <c r="R148" s="11"/>
+      <c r="S148" s="11"/>
+      <c r="T148" s="11"/>
+      <c r="U148" s="11"/>
+      <c r="V148" s="11"/>
+      <c r="W148" s="11"/>
+      <c r="X148" s="11"/>
+      <c r="Y148" s="11"/>
+      <c r="Z148" s="12"/>
     </row>
     <row r="149">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
-      <c r="Q149" s="2"/>
-      <c r="R149" s="2"/>
-      <c r="S149" s="2"/>
-      <c r="T149" s="2"/>
-      <c r="U149" s="2"/>
-      <c r="V149" s="2"/>
-      <c r="W149" s="2"/>
-      <c r="X149" s="2"/>
-      <c r="Y149" s="2"/>
-      <c r="Z149" s="2"/>
+      <c r="A149" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="B149" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="C149" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D149" s="18"/>
+      <c r="E149" s="18"/>
+      <c r="F149" s="18"/>
+      <c r="G149" s="18"/>
+      <c r="H149" s="18"/>
+      <c r="I149" s="18"/>
+      <c r="J149" s="18"/>
+      <c r="K149" s="18"/>
+      <c r="L149" s="18"/>
+      <c r="M149" s="18"/>
+      <c r="N149" s="18"/>
+      <c r="O149" s="18"/>
+      <c r="P149" s="18"/>
+      <c r="Q149" s="18"/>
+      <c r="R149" s="18"/>
+      <c r="S149" s="18"/>
+      <c r="T149" s="18"/>
+      <c r="U149" s="18"/>
+      <c r="V149" s="18"/>
+      <c r="W149" s="18"/>
+      <c r="X149" s="18"/>
+      <c r="Y149" s="18"/>
+      <c r="Z149" s="19"/>
     </row>
     <row r="150">
-      <c r="A150" s="1"/>
-      <c r="B150" s="1"/>
-      <c r="C150" s="1"/>
-      <c r="D150" s="2"/>
-      <c r="E150" s="2"/>
-      <c r="F150" s="2"/>
-      <c r="G150" s="2"/>
-      <c r="H150" s="2"/>
-      <c r="I150" s="2"/>
-      <c r="J150" s="2"/>
-      <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
-      <c r="N150" s="2"/>
-      <c r="O150" s="2"/>
-      <c r="P150" s="2"/>
-      <c r="Q150" s="2"/>
-      <c r="R150" s="2"/>
-      <c r="S150" s="2"/>
-      <c r="T150" s="2"/>
-      <c r="U150" s="2"/>
-      <c r="V150" s="2"/>
-      <c r="W150" s="2"/>
-      <c r="X150" s="2"/>
-      <c r="Y150" s="2"/>
-      <c r="Z150" s="2"/>
+      <c r="A150" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D150" s="11"/>
+      <c r="E150" s="11"/>
+      <c r="F150" s="11"/>
+      <c r="G150" s="11"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11"/>
+      <c r="L150" s="11"/>
+      <c r="M150" s="11"/>
+      <c r="N150" s="11"/>
+      <c r="O150" s="11"/>
+      <c r="P150" s="11"/>
+      <c r="Q150" s="11"/>
+      <c r="R150" s="11"/>
+      <c r="S150" s="11"/>
+      <c r="T150" s="11"/>
+      <c r="U150" s="11"/>
+      <c r="V150" s="11"/>
+      <c r="W150" s="11"/>
+      <c r="X150" s="11"/>
+      <c r="Y150" s="11"/>
+      <c r="Z150" s="12"/>
     </row>
     <row r="151">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
-      <c r="D151" s="2"/>
-      <c r="E151" s="2"/>
-      <c r="F151" s="2"/>
-      <c r="G151" s="2"/>
-      <c r="H151" s="2"/>
-      <c r="I151" s="2"/>
-      <c r="J151" s="2"/>
-      <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2"/>
-      <c r="N151" s="2"/>
-      <c r="O151" s="2"/>
-      <c r="P151" s="2"/>
-      <c r="Q151" s="2"/>
-      <c r="R151" s="2"/>
-      <c r="S151" s="2"/>
-      <c r="T151" s="2"/>
-      <c r="U151" s="2"/>
-      <c r="V151" s="2"/>
-      <c r="W151" s="2"/>
-      <c r="X151" s="2"/>
-      <c r="Y151" s="2"/>
-      <c r="Z151" s="2"/>
+      <c r="A151" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="B151" s="38" t="s">
+        <v>252</v>
+      </c>
+      <c r="C151" s="38" t="s">
+        <v>253</v>
+      </c>
+      <c r="D151" s="22"/>
+      <c r="E151" s="22"/>
+      <c r="F151" s="22"/>
+      <c r="G151" s="22"/>
+      <c r="H151" s="22"/>
+      <c r="I151" s="22"/>
+      <c r="J151" s="22"/>
+      <c r="K151" s="22"/>
+      <c r="L151" s="22"/>
+      <c r="M151" s="22"/>
+      <c r="N151" s="22"/>
+      <c r="O151" s="22"/>
+      <c r="P151" s="22"/>
+      <c r="Q151" s="22"/>
+      <c r="R151" s="22"/>
+      <c r="S151" s="22"/>
+      <c r="T151" s="22"/>
+      <c r="U151" s="22"/>
+      <c r="V151" s="22"/>
+      <c r="W151" s="22"/>
+      <c r="X151" s="22"/>
+      <c r="Y151" s="22"/>
+      <c r="Z151" s="23"/>
     </row>
     <row r="152">
-      <c r="A152" s="1"/>
-      <c r="B152" s="1"/>
-      <c r="C152" s="1"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
-      <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
-      <c r="P152" s="2"/>
-      <c r="Q152" s="2"/>
-      <c r="R152" s="2"/>
-      <c r="S152" s="2"/>
-      <c r="T152" s="2"/>
-      <c r="U152" s="2"/>
-      <c r="V152" s="2"/>
-      <c r="W152" s="2"/>
-      <c r="X152" s="2"/>
-      <c r="Y152" s="2"/>
-      <c r="Z152" s="2"/>
+      <c r="A152" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="B152" s="38" t="s">
+        <v>254</v>
+      </c>
+      <c r="C152" s="38" t="s">
+        <v>255</v>
+      </c>
+      <c r="D152" s="22"/>
+      <c r="E152" s="22"/>
+      <c r="F152" s="22"/>
+      <c r="G152" s="22"/>
+      <c r="H152" s="22"/>
+      <c r="I152" s="22"/>
+      <c r="J152" s="22"/>
+      <c r="K152" s="22"/>
+      <c r="L152" s="22"/>
+      <c r="M152" s="22"/>
+      <c r="N152" s="22"/>
+      <c r="O152" s="22"/>
+      <c r="P152" s="22"/>
+      <c r="Q152" s="22"/>
+      <c r="R152" s="22"/>
+      <c r="S152" s="22"/>
+      <c r="T152" s="22"/>
+      <c r="U152" s="22"/>
+      <c r="V152" s="22"/>
+      <c r="W152" s="22"/>
+      <c r="X152" s="22"/>
+      <c r="Y152" s="22"/>
+      <c r="Z152" s="23"/>
     </row>
     <row r="153">
-      <c r="A153" s="1"/>
-      <c r="B153" s="1"/>
-      <c r="C153" s="1"/>
-      <c r="D153" s="2"/>
-      <c r="E153" s="2"/>
-      <c r="F153" s="2"/>
-      <c r="G153" s="2"/>
-      <c r="H153" s="2"/>
-      <c r="I153" s="2"/>
-      <c r="J153" s="2"/>
-      <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
-      <c r="M153" s="2"/>
-      <c r="N153" s="2"/>
-      <c r="O153" s="2"/>
-      <c r="P153" s="2"/>
-      <c r="Q153" s="2"/>
-      <c r="R153" s="2"/>
-      <c r="S153" s="2"/>
-      <c r="T153" s="2"/>
-      <c r="U153" s="2"/>
-      <c r="V153" s="2"/>
-      <c r="W153" s="2"/>
-      <c r="X153" s="2"/>
-      <c r="Y153" s="2"/>
-      <c r="Z153" s="2"/>
+      <c r="A153" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="B153" s="38" t="s">
+        <v>256</v>
+      </c>
+      <c r="C153" s="38" t="s">
+        <v>257</v>
+      </c>
+      <c r="D153" s="22"/>
+      <c r="E153" s="22"/>
+      <c r="F153" s="22"/>
+      <c r="G153" s="22"/>
+      <c r="H153" s="22"/>
+      <c r="I153" s="22"/>
+      <c r="J153" s="22"/>
+      <c r="K153" s="22"/>
+      <c r="L153" s="22"/>
+      <c r="M153" s="22"/>
+      <c r="N153" s="22"/>
+      <c r="O153" s="22"/>
+      <c r="P153" s="22"/>
+      <c r="Q153" s="22"/>
+      <c r="R153" s="22"/>
+      <c r="S153" s="22"/>
+      <c r="T153" s="22"/>
+      <c r="U153" s="22"/>
+      <c r="V153" s="22"/>
+      <c r="W153" s="22"/>
+      <c r="X153" s="22"/>
+      <c r="Y153" s="22"/>
+      <c r="Z153" s="23"/>
     </row>
     <row r="154">
-      <c r="A154" s="1"/>
-      <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
-      <c r="D154" s="2"/>
-      <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
-      <c r="G154" s="2"/>
-      <c r="H154" s="2"/>
-      <c r="I154" s="2"/>
-      <c r="J154" s="2"/>
-      <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
-      <c r="M154" s="2"/>
-      <c r="N154" s="2"/>
-      <c r="O154" s="2"/>
-      <c r="P154" s="2"/>
-      <c r="Q154" s="2"/>
-      <c r="R154" s="2"/>
-      <c r="S154" s="2"/>
-      <c r="T154" s="2"/>
-      <c r="U154" s="2"/>
-      <c r="V154" s="2"/>
-      <c r="W154" s="2"/>
-      <c r="X154" s="2"/>
-      <c r="Y154" s="2"/>
-      <c r="Z154" s="2"/>
+      <c r="A154" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="B154" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C154" s="38" t="s">
+        <v>259</v>
+      </c>
+      <c r="D154" s="22"/>
+      <c r="E154" s="22"/>
+      <c r="F154" s="22"/>
+      <c r="G154" s="22"/>
+      <c r="H154" s="22"/>
+      <c r="I154" s="22"/>
+      <c r="J154" s="22"/>
+      <c r="K154" s="22"/>
+      <c r="L154" s="22"/>
+      <c r="M154" s="22"/>
+      <c r="N154" s="22"/>
+      <c r="O154" s="22"/>
+      <c r="P154" s="22"/>
+      <c r="Q154" s="22"/>
+      <c r="R154" s="22"/>
+      <c r="S154" s="22"/>
+      <c r="T154" s="22"/>
+      <c r="U154" s="22"/>
+      <c r="V154" s="22"/>
+      <c r="W154" s="22"/>
+      <c r="X154" s="22"/>
+      <c r="Y154" s="22"/>
+      <c r="Z154" s="23"/>
     </row>
     <row r="155">
-      <c r="A155" s="1"/>
-      <c r="B155" s="1"/>
-      <c r="C155" s="1"/>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2"/>
-      <c r="H155" s="2"/>
-      <c r="I155" s="2"/>
-      <c r="J155" s="2"/>
-      <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
-      <c r="M155" s="2"/>
-      <c r="N155" s="2"/>
-      <c r="O155" s="2"/>
-      <c r="P155" s="2"/>
-      <c r="Q155" s="2"/>
-      <c r="R155" s="2"/>
-      <c r="S155" s="2"/>
-      <c r="T155" s="2"/>
-      <c r="U155" s="2"/>
-      <c r="V155" s="2"/>
-      <c r="W155" s="2"/>
-      <c r="X155" s="2"/>
-      <c r="Y155" s="2"/>
-      <c r="Z155" s="2"/>
+      <c r="A155" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="B155" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="C155" s="40" t="s">
+        <v>261</v>
+      </c>
+      <c r="D155" s="41"/>
+      <c r="E155" s="41"/>
+      <c r="F155" s="41"/>
+      <c r="G155" s="41"/>
+      <c r="H155" s="41"/>
+      <c r="I155" s="41"/>
+      <c r="J155" s="41"/>
+      <c r="K155" s="41"/>
+      <c r="L155" s="41"/>
+      <c r="M155" s="41"/>
+      <c r="N155" s="41"/>
+      <c r="O155" s="41"/>
+      <c r="P155" s="41"/>
+      <c r="Q155" s="41"/>
+      <c r="R155" s="41"/>
+      <c r="S155" s="41"/>
+      <c r="T155" s="41"/>
+      <c r="U155" s="41"/>
+      <c r="V155" s="41"/>
+      <c r="W155" s="41"/>
+      <c r="X155" s="41"/>
+      <c r="Y155" s="41"/>
+      <c r="Z155" s="42"/>
     </row>
     <row r="156">
-      <c r="A156" s="1"/>
-      <c r="B156" s="1"/>
-      <c r="C156" s="1"/>
-      <c r="D156" s="2"/>
-      <c r="E156" s="2"/>
-      <c r="F156" s="2"/>
-      <c r="G156" s="2"/>
-      <c r="H156" s="2"/>
-      <c r="I156" s="2"/>
-      <c r="J156" s="2"/>
-      <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
-      <c r="M156" s="2"/>
-      <c r="N156" s="2"/>
-      <c r="O156" s="2"/>
-      <c r="P156" s="2"/>
-      <c r="Q156" s="2"/>
-      <c r="R156" s="2"/>
-      <c r="S156" s="2"/>
-      <c r="T156" s="2"/>
-      <c r="U156" s="2"/>
-      <c r="V156" s="2"/>
-      <c r="W156" s="2"/>
-      <c r="X156" s="2"/>
-      <c r="Y156" s="2"/>
-      <c r="Z156" s="2"/>
+      <c r="A156" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D156" s="11"/>
+      <c r="E156" s="11"/>
+      <c r="F156" s="11"/>
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
+      <c r="L156" s="11"/>
+      <c r="M156" s="11"/>
+      <c r="N156" s="11"/>
+      <c r="O156" s="11"/>
+      <c r="P156" s="11"/>
+      <c r="Q156" s="11"/>
+      <c r="R156" s="11"/>
+      <c r="S156" s="11"/>
+      <c r="T156" s="11"/>
+      <c r="U156" s="11"/>
+      <c r="V156" s="11"/>
+      <c r="W156" s="11"/>
+      <c r="X156" s="11"/>
+      <c r="Y156" s="11"/>
+      <c r="Z156" s="12"/>
     </row>
     <row r="157">
-      <c r="A157" s="1"/>
-      <c r="B157" s="1"/>
-      <c r="C157" s="1"/>
+      <c r="A157" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
       <c r="F157" s="2"/>
@@ -6359,12 +6558,18 @@
       <c r="W157" s="2"/>
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
-      <c r="Z157" s="2"/>
+      <c r="Z157" s="14"/>
     </row>
     <row r="158">
-      <c r="A158" s="1"/>
-      <c r="B158" s="1"/>
-      <c r="C158" s="1"/>
+      <c r="A158" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
       <c r="F158" s="2"/>
@@ -6387,40 +6592,52 @@
       <c r="W158" s="2"/>
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
-      <c r="Z158" s="2"/>
+      <c r="Z158" s="14"/>
     </row>
     <row r="159">
-      <c r="A159" s="1"/>
-      <c r="B159" s="1"/>
-      <c r="C159" s="1"/>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" s="2"/>
-      <c r="R159" s="2"/>
-      <c r="S159" s="2"/>
-      <c r="T159" s="2"/>
-      <c r="U159" s="2"/>
-      <c r="V159" s="2"/>
-      <c r="W159" s="2"/>
-      <c r="X159" s="2"/>
-      <c r="Y159" s="2"/>
-      <c r="Z159" s="2"/>
+      <c r="A159" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="D159" s="11"/>
+      <c r="E159" s="11"/>
+      <c r="F159" s="11"/>
+      <c r="G159" s="11"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="11"/>
+      <c r="L159" s="11"/>
+      <c r="M159" s="11"/>
+      <c r="N159" s="11"/>
+      <c r="O159" s="11"/>
+      <c r="P159" s="11"/>
+      <c r="Q159" s="11"/>
+      <c r="R159" s="11"/>
+      <c r="S159" s="11"/>
+      <c r="T159" s="11"/>
+      <c r="U159" s="11"/>
+      <c r="V159" s="11"/>
+      <c r="W159" s="11"/>
+      <c r="X159" s="11"/>
+      <c r="Y159" s="11"/>
+      <c r="Z159" s="12"/>
     </row>
     <row r="160">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-      <c r="C160" s="1"/>
+      <c r="A160" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>273</v>
+      </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
       <c r="F160" s="2"/>
@@ -6443,12 +6660,18 @@
       <c r="W160" s="2"/>
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
-      <c r="Z160" s="2"/>
+      <c r="Z160" s="14"/>
     </row>
     <row r="161">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
+      <c r="A161" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>275</v>
+      </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
@@ -6471,35 +6694,41 @@
       <c r="W161" s="2"/>
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
-      <c r="Z161" s="2"/>
+      <c r="Z161" s="14"/>
     </row>
     <row r="162">
-      <c r="A162" s="1"/>
-      <c r="B162" s="1"/>
-      <c r="C162" s="1"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="2"/>
-      <c r="S162" s="2"/>
-      <c r="T162" s="2"/>
-      <c r="U162" s="2"/>
-      <c r="V162" s="2"/>
-      <c r="W162" s="2"/>
-      <c r="X162" s="2"/>
-      <c r="Y162" s="2"/>
-      <c r="Z162" s="2"/>
+      <c r="A162" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B162" s="17" t="s">
+        <v>276</v>
+      </c>
+      <c r="C162" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="D162" s="18"/>
+      <c r="E162" s="18"/>
+      <c r="F162" s="18"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="18"/>
+      <c r="M162" s="18"/>
+      <c r="N162" s="18"/>
+      <c r="O162" s="18"/>
+      <c r="P162" s="18"/>
+      <c r="Q162" s="18"/>
+      <c r="R162" s="18"/>
+      <c r="S162" s="18"/>
+      <c r="T162" s="18"/>
+      <c r="U162" s="18"/>
+      <c r="V162" s="18"/>
+      <c r="W162" s="18"/>
+      <c r="X162" s="18"/>
+      <c r="Y162" s="18"/>
+      <c r="Z162" s="19"/>
     </row>
     <row r="163">
       <c r="A163" s="1"/>
@@ -6530,37 +6759,45 @@
       <c r="Z163" s="2"/>
     </row>
     <row r="164">
-      <c r="A164" s="1"/>
-      <c r="B164" s="1"/>
-      <c r="C164" s="1"/>
-      <c r="D164" s="2"/>
-      <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2"/>
-      <c r="H164" s="2"/>
-      <c r="I164" s="2"/>
-      <c r="J164" s="2"/>
-      <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
-      <c r="M164" s="2"/>
-      <c r="N164" s="2"/>
-      <c r="O164" s="2"/>
-      <c r="P164" s="2"/>
-      <c r="Q164" s="2"/>
-      <c r="R164" s="2"/>
-      <c r="S164" s="2"/>
-      <c r="T164" s="2"/>
-      <c r="U164" s="2"/>
-      <c r="V164" s="2"/>
-      <c r="W164" s="2"/>
-      <c r="X164" s="2"/>
-      <c r="Y164" s="2"/>
-      <c r="Z164" s="2"/>
+      <c r="A164" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
+      <c r="I164" s="4"/>
+      <c r="J164" s="4"/>
+      <c r="K164" s="4"/>
+      <c r="L164" s="4"/>
+      <c r="M164" s="4"/>
+      <c r="N164" s="4"/>
+      <c r="O164" s="4"/>
+      <c r="P164" s="4"/>
+      <c r="Q164" s="4"/>
+      <c r="R164" s="4"/>
+      <c r="S164" s="4"/>
+      <c r="T164" s="4"/>
+      <c r="U164" s="4"/>
+      <c r="V164" s="4"/>
+      <c r="W164" s="4"/>
+      <c r="X164" s="4"/>
+      <c r="Y164" s="4"/>
+      <c r="Z164" s="4"/>
     </row>
     <row r="165">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
+      <c r="A165" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C165" s="1" t="s">
+        <v>280</v>
+      </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -6586,9 +6823,15 @@
       <c r="Z165" s="2"/>
     </row>
     <row r="166">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
+      <c r="A166" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
@@ -6614,9 +6857,15 @@
       <c r="Z166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+      <c r="A167" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>284</v>
+      </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -6642,45 +6891,43 @@
       <c r="Z167" s="2"/>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
-      <c r="M168" s="4"/>
-      <c r="N168" s="4"/>
-      <c r="O168" s="4"/>
-      <c r="P168" s="4"/>
-      <c r="Q168" s="4"/>
-      <c r="R168" s="4"/>
-      <c r="S168" s="4"/>
-      <c r="T168" s="4"/>
-      <c r="U168" s="4"/>
-      <c r="V168" s="4"/>
-      <c r="W168" s="4"/>
-      <c r="X168" s="4"/>
-      <c r="Y168" s="4"/>
-      <c r="Z168" s="4"/>
+      <c r="A168" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2"/>
+      <c r="V168" s="2"/>
+      <c r="W168" s="2"/>
+      <c r="X168" s="2"/>
+      <c r="Y168" s="2"/>
+      <c r="Z168" s="2"/>
     </row>
     <row r="169">
-      <c r="A169" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -6706,48 +6953,44 @@
       <c r="Z169" s="2"/>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D170" s="2"/>
-      <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
-      <c r="G170" s="2"/>
-      <c r="H170" s="2"/>
-      <c r="I170" s="2"/>
-      <c r="J170" s="2"/>
-      <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
-      <c r="N170" s="2"/>
-      <c r="O170" s="2"/>
-      <c r="P170" s="2"/>
-      <c r="Q170" s="2"/>
-      <c r="R170" s="2"/>
-      <c r="S170" s="2"/>
-      <c r="T170" s="2"/>
-      <c r="U170" s="2"/>
-      <c r="V170" s="2"/>
-      <c r="W170" s="2"/>
-      <c r="X170" s="2"/>
-      <c r="Y170" s="2"/>
-      <c r="Z170" s="2"/>
+      <c r="A170" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
+      <c r="I170" s="4"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="4"/>
+      <c r="P170" s="4"/>
+      <c r="Q170" s="4"/>
+      <c r="R170" s="4"/>
+      <c r="S170" s="4"/>
+      <c r="T170" s="4"/>
+      <c r="U170" s="4"/>
+      <c r="V170" s="4"/>
+      <c r="W170" s="4"/>
+      <c r="X170" s="4"/>
+      <c r="Y170" s="4"/>
+      <c r="Z170" s="4"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>233</v>
+        <v>288</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>234</v>
+        <v>289</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -6774,15 +7017,9 @@
       <c r="Z171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>237</v>
-      </c>
+      <c r="A172" s="1"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -6808,48 +7045,44 @@
       <c r="Z172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
-      <c r="T173" s="2"/>
-      <c r="U173" s="2"/>
-      <c r="V173" s="2"/>
-      <c r="W173" s="2"/>
-      <c r="X173" s="2"/>
-      <c r="Y173" s="2"/>
-      <c r="Z173" s="2"/>
+      <c r="A173" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="4"/>
+      <c r="S173" s="4"/>
+      <c r="T173" s="4"/>
+      <c r="U173" s="4"/>
+      <c r="V173" s="4"/>
+      <c r="W173" s="4"/>
+      <c r="X173" s="4"/>
+      <c r="Y173" s="4"/>
+      <c r="Z173" s="4"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -6877,13 +7110,13 @@
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -6911,13 +7144,13 @@
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -6945,13 +7178,13 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>247</v>
+        <v>301</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -6979,13 +7212,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>105</v>
+        <v>304</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -7013,13 +7246,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
-        <v>250</v>
+        <v>305</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>251</v>
+        <v>306</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -7047,13 +7280,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>253</v>
+        <v>308</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>254</v>
+        <v>309</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -7081,13 +7314,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -7115,13 +7348,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>260</v>
+        <v>315</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -7149,13 +7382,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>262</v>
+        <v>317</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>263</v>
+        <v>318</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7182,9 +7415,9 @@
       <c r="Z183" s="2"/>
     </row>
     <row r="184">
-      <c r="A184" s="1"/>
-      <c r="B184" s="1"/>
-      <c r="C184" s="1"/>
+      <c r="A184" s="2"/>
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -7210,45 +7443,37 @@
       <c r="Z184" s="2"/>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
-      <c r="D185" s="4"/>
-      <c r="E185" s="4"/>
-      <c r="F185" s="4"/>
-      <c r="G185" s="4"/>
-      <c r="H185" s="4"/>
-      <c r="I185" s="4"/>
-      <c r="J185" s="4"/>
-      <c r="K185" s="4"/>
-      <c r="L185" s="4"/>
-      <c r="M185" s="4"/>
-      <c r="N185" s="4"/>
-      <c r="O185" s="4"/>
-      <c r="P185" s="4"/>
-      <c r="Q185" s="4"/>
-      <c r="R185" s="4"/>
-      <c r="S185" s="4"/>
-      <c r="T185" s="4"/>
-      <c r="U185" s="4"/>
-      <c r="V185" s="4"/>
-      <c r="W185" s="4"/>
-      <c r="X185" s="4"/>
-      <c r="Y185" s="4"/>
-      <c r="Z185" s="4"/>
+      <c r="A185" s="2"/>
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2"/>
+      <c r="K185" s="2"/>
+      <c r="L185" s="2"/>
+      <c r="M185" s="2"/>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
+      <c r="P185" s="2"/>
+      <c r="Q185" s="2"/>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2"/>
+      <c r="T185" s="2"/>
+      <c r="U185" s="2"/>
+      <c r="V185" s="2"/>
+      <c r="W185" s="2"/>
+      <c r="X185" s="2"/>
+      <c r="Y185" s="2"/>
+      <c r="Z185" s="2"/>
     </row>
     <row r="186">
-      <c r="A186" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>267</v>
-      </c>
+      <c r="A186" s="2"/>
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -7274,15 +7499,9 @@
       <c r="Z186" s="2"/>
     </row>
     <row r="187">
-      <c r="A187" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>270</v>
-      </c>
+      <c r="A187" s="2"/>
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -7308,15 +7527,9 @@
       <c r="Z187" s="2"/>
     </row>
     <row r="188">
-      <c r="A188" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="A188" s="2"/>
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -7342,15 +7555,9 @@
       <c r="Z188" s="2"/>
     </row>
     <row r="189">
-      <c r="A189" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>276</v>
-      </c>
+      <c r="A189" s="2"/>
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -7376,15 +7583,9 @@
       <c r="Z189" s="2"/>
     </row>
     <row r="190">
-      <c r="A190" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>278</v>
-      </c>
+      <c r="A190" s="2"/>
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
@@ -7410,15 +7611,9 @@
       <c r="Z190" s="2"/>
     </row>
     <row r="191">
-      <c r="A191" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>280</v>
-      </c>
+      <c r="A191" s="2"/>
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
       <c r="F191" s="2"/>
@@ -7444,15 +7639,9 @@
       <c r="Z191" s="2"/>
     </row>
     <row r="192">
-      <c r="A192" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>283</v>
-      </c>
+      <c r="A192" s="2"/>
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
@@ -7478,15 +7667,9 @@
       <c r="Z192" s="2"/>
     </row>
     <row r="193">
-      <c r="A193" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>286</v>
-      </c>
+      <c r="A193" s="2"/>
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="2"/>
       <c r="F193" s="2"/>
@@ -7512,15 +7695,9 @@
       <c r="Z193" s="2"/>
     </row>
     <row r="194">
-      <c r="A194" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="A194" s="2"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
@@ -7546,15 +7723,9 @@
       <c r="Z194" s="2"/>
     </row>
     <row r="195">
-      <c r="A195" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>292</v>
-      </c>
+      <c r="A195" s="2"/>
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
@@ -34347,342 +34518,6 @@
       <c r="Y1151" s="2"/>
       <c r="Z1151" s="2"/>
     </row>
-    <row r="1152">
-      <c r="A1152" s="2"/>
-      <c r="B1152" s="2"/>
-      <c r="C1152" s="2"/>
-      <c r="D1152" s="2"/>
-      <c r="E1152" s="2"/>
-      <c r="F1152" s="2"/>
-      <c r="G1152" s="2"/>
-      <c r="H1152" s="2"/>
-      <c r="I1152" s="2"/>
-      <c r="J1152" s="2"/>
-      <c r="K1152" s="2"/>
-      <c r="L1152" s="2"/>
-      <c r="M1152" s="2"/>
-      <c r="N1152" s="2"/>
-      <c r="O1152" s="2"/>
-      <c r="P1152" s="2"/>
-      <c r="Q1152" s="2"/>
-      <c r="R1152" s="2"/>
-      <c r="S1152" s="2"/>
-      <c r="T1152" s="2"/>
-      <c r="U1152" s="2"/>
-      <c r="V1152" s="2"/>
-      <c r="W1152" s="2"/>
-      <c r="X1152" s="2"/>
-      <c r="Y1152" s="2"/>
-      <c r="Z1152" s="2"/>
-    </row>
-    <row r="1153">
-      <c r="A1153" s="2"/>
-      <c r="B1153" s="2"/>
-      <c r="C1153" s="2"/>
-      <c r="D1153" s="2"/>
-      <c r="E1153" s="2"/>
-      <c r="F1153" s="2"/>
-      <c r="G1153" s="2"/>
-      <c r="H1153" s="2"/>
-      <c r="I1153" s="2"/>
-      <c r="J1153" s="2"/>
-      <c r="K1153" s="2"/>
-      <c r="L1153" s="2"/>
-      <c r="M1153" s="2"/>
-      <c r="N1153" s="2"/>
-      <c r="O1153" s="2"/>
-      <c r="P1153" s="2"/>
-      <c r="Q1153" s="2"/>
-      <c r="R1153" s="2"/>
-      <c r="S1153" s="2"/>
-      <c r="T1153" s="2"/>
-      <c r="U1153" s="2"/>
-      <c r="V1153" s="2"/>
-      <c r="W1153" s="2"/>
-      <c r="X1153" s="2"/>
-      <c r="Y1153" s="2"/>
-      <c r="Z1153" s="2"/>
-    </row>
-    <row r="1154">
-      <c r="A1154" s="2"/>
-      <c r="B1154" s="2"/>
-      <c r="C1154" s="2"/>
-      <c r="D1154" s="2"/>
-      <c r="E1154" s="2"/>
-      <c r="F1154" s="2"/>
-      <c r="G1154" s="2"/>
-      <c r="H1154" s="2"/>
-      <c r="I1154" s="2"/>
-      <c r="J1154" s="2"/>
-      <c r="K1154" s="2"/>
-      <c r="L1154" s="2"/>
-      <c r="M1154" s="2"/>
-      <c r="N1154" s="2"/>
-      <c r="O1154" s="2"/>
-      <c r="P1154" s="2"/>
-      <c r="Q1154" s="2"/>
-      <c r="R1154" s="2"/>
-      <c r="S1154" s="2"/>
-      <c r="T1154" s="2"/>
-      <c r="U1154" s="2"/>
-      <c r="V1154" s="2"/>
-      <c r="W1154" s="2"/>
-      <c r="X1154" s="2"/>
-      <c r="Y1154" s="2"/>
-      <c r="Z1154" s="2"/>
-    </row>
-    <row r="1155">
-      <c r="A1155" s="2"/>
-      <c r="B1155" s="2"/>
-      <c r="C1155" s="2"/>
-      <c r="D1155" s="2"/>
-      <c r="E1155" s="2"/>
-      <c r="F1155" s="2"/>
-      <c r="G1155" s="2"/>
-      <c r="H1155" s="2"/>
-      <c r="I1155" s="2"/>
-      <c r="J1155" s="2"/>
-      <c r="K1155" s="2"/>
-      <c r="L1155" s="2"/>
-      <c r="M1155" s="2"/>
-      <c r="N1155" s="2"/>
-      <c r="O1155" s="2"/>
-      <c r="P1155" s="2"/>
-      <c r="Q1155" s="2"/>
-      <c r="R1155" s="2"/>
-      <c r="S1155" s="2"/>
-      <c r="T1155" s="2"/>
-      <c r="U1155" s="2"/>
-      <c r="V1155" s="2"/>
-      <c r="W1155" s="2"/>
-      <c r="X1155" s="2"/>
-      <c r="Y1155" s="2"/>
-      <c r="Z1155" s="2"/>
-    </row>
-    <row r="1156">
-      <c r="A1156" s="2"/>
-      <c r="B1156" s="2"/>
-      <c r="C1156" s="2"/>
-      <c r="D1156" s="2"/>
-      <c r="E1156" s="2"/>
-      <c r="F1156" s="2"/>
-      <c r="G1156" s="2"/>
-      <c r="H1156" s="2"/>
-      <c r="I1156" s="2"/>
-      <c r="J1156" s="2"/>
-      <c r="K1156" s="2"/>
-      <c r="L1156" s="2"/>
-      <c r="M1156" s="2"/>
-      <c r="N1156" s="2"/>
-      <c r="O1156" s="2"/>
-      <c r="P1156" s="2"/>
-      <c r="Q1156" s="2"/>
-      <c r="R1156" s="2"/>
-      <c r="S1156" s="2"/>
-      <c r="T1156" s="2"/>
-      <c r="U1156" s="2"/>
-      <c r="V1156" s="2"/>
-      <c r="W1156" s="2"/>
-      <c r="X1156" s="2"/>
-      <c r="Y1156" s="2"/>
-      <c r="Z1156" s="2"/>
-    </row>
-    <row r="1157">
-      <c r="A1157" s="2"/>
-      <c r="B1157" s="2"/>
-      <c r="C1157" s="2"/>
-      <c r="D1157" s="2"/>
-      <c r="E1157" s="2"/>
-      <c r="F1157" s="2"/>
-      <c r="G1157" s="2"/>
-      <c r="H1157" s="2"/>
-      <c r="I1157" s="2"/>
-      <c r="J1157" s="2"/>
-      <c r="K1157" s="2"/>
-      <c r="L1157" s="2"/>
-      <c r="M1157" s="2"/>
-      <c r="N1157" s="2"/>
-      <c r="O1157" s="2"/>
-      <c r="P1157" s="2"/>
-      <c r="Q1157" s="2"/>
-      <c r="R1157" s="2"/>
-      <c r="S1157" s="2"/>
-      <c r="T1157" s="2"/>
-      <c r="U1157" s="2"/>
-      <c r="V1157" s="2"/>
-      <c r="W1157" s="2"/>
-      <c r="X1157" s="2"/>
-      <c r="Y1157" s="2"/>
-      <c r="Z1157" s="2"/>
-    </row>
-    <row r="1158">
-      <c r="A1158" s="2"/>
-      <c r="B1158" s="2"/>
-      <c r="C1158" s="2"/>
-      <c r="D1158" s="2"/>
-      <c r="E1158" s="2"/>
-      <c r="F1158" s="2"/>
-      <c r="G1158" s="2"/>
-      <c r="H1158" s="2"/>
-      <c r="I1158" s="2"/>
-      <c r="J1158" s="2"/>
-      <c r="K1158" s="2"/>
-      <c r="L1158" s="2"/>
-      <c r="M1158" s="2"/>
-      <c r="N1158" s="2"/>
-      <c r="O1158" s="2"/>
-      <c r="P1158" s="2"/>
-      <c r="Q1158" s="2"/>
-      <c r="R1158" s="2"/>
-      <c r="S1158" s="2"/>
-      <c r="T1158" s="2"/>
-      <c r="U1158" s="2"/>
-      <c r="V1158" s="2"/>
-      <c r="W1158" s="2"/>
-      <c r="X1158" s="2"/>
-      <c r="Y1158" s="2"/>
-      <c r="Z1158" s="2"/>
-    </row>
-    <row r="1159">
-      <c r="A1159" s="2"/>
-      <c r="B1159" s="2"/>
-      <c r="C1159" s="2"/>
-      <c r="D1159" s="2"/>
-      <c r="E1159" s="2"/>
-      <c r="F1159" s="2"/>
-      <c r="G1159" s="2"/>
-      <c r="H1159" s="2"/>
-      <c r="I1159" s="2"/>
-      <c r="J1159" s="2"/>
-      <c r="K1159" s="2"/>
-      <c r="L1159" s="2"/>
-      <c r="M1159" s="2"/>
-      <c r="N1159" s="2"/>
-      <c r="O1159" s="2"/>
-      <c r="P1159" s="2"/>
-      <c r="Q1159" s="2"/>
-      <c r="R1159" s="2"/>
-      <c r="S1159" s="2"/>
-      <c r="T1159" s="2"/>
-      <c r="U1159" s="2"/>
-      <c r="V1159" s="2"/>
-      <c r="W1159" s="2"/>
-      <c r="X1159" s="2"/>
-      <c r="Y1159" s="2"/>
-      <c r="Z1159" s="2"/>
-    </row>
-    <row r="1160">
-      <c r="A1160" s="2"/>
-      <c r="B1160" s="2"/>
-      <c r="C1160" s="2"/>
-      <c r="D1160" s="2"/>
-      <c r="E1160" s="2"/>
-      <c r="F1160" s="2"/>
-      <c r="G1160" s="2"/>
-      <c r="H1160" s="2"/>
-      <c r="I1160" s="2"/>
-      <c r="J1160" s="2"/>
-      <c r="K1160" s="2"/>
-      <c r="L1160" s="2"/>
-      <c r="M1160" s="2"/>
-      <c r="N1160" s="2"/>
-      <c r="O1160" s="2"/>
-      <c r="P1160" s="2"/>
-      <c r="Q1160" s="2"/>
-      <c r="R1160" s="2"/>
-      <c r="S1160" s="2"/>
-      <c r="T1160" s="2"/>
-      <c r="U1160" s="2"/>
-      <c r="V1160" s="2"/>
-      <c r="W1160" s="2"/>
-      <c r="X1160" s="2"/>
-      <c r="Y1160" s="2"/>
-      <c r="Z1160" s="2"/>
-    </row>
-    <row r="1161">
-      <c r="A1161" s="2"/>
-      <c r="B1161" s="2"/>
-      <c r="C1161" s="2"/>
-      <c r="D1161" s="2"/>
-      <c r="E1161" s="2"/>
-      <c r="F1161" s="2"/>
-      <c r="G1161" s="2"/>
-      <c r="H1161" s="2"/>
-      <c r="I1161" s="2"/>
-      <c r="J1161" s="2"/>
-      <c r="K1161" s="2"/>
-      <c r="L1161" s="2"/>
-      <c r="M1161" s="2"/>
-      <c r="N1161" s="2"/>
-      <c r="O1161" s="2"/>
-      <c r="P1161" s="2"/>
-      <c r="Q1161" s="2"/>
-      <c r="R1161" s="2"/>
-      <c r="S1161" s="2"/>
-      <c r="T1161" s="2"/>
-      <c r="U1161" s="2"/>
-      <c r="V1161" s="2"/>
-      <c r="W1161" s="2"/>
-      <c r="X1161" s="2"/>
-      <c r="Y1161" s="2"/>
-      <c r="Z1161" s="2"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" s="2"/>
-      <c r="B1162" s="2"/>
-      <c r="C1162" s="2"/>
-      <c r="D1162" s="2"/>
-      <c r="E1162" s="2"/>
-      <c r="F1162" s="2"/>
-      <c r="G1162" s="2"/>
-      <c r="H1162" s="2"/>
-      <c r="I1162" s="2"/>
-      <c r="J1162" s="2"/>
-      <c r="K1162" s="2"/>
-      <c r="L1162" s="2"/>
-      <c r="M1162" s="2"/>
-      <c r="N1162" s="2"/>
-      <c r="O1162" s="2"/>
-      <c r="P1162" s="2"/>
-      <c r="Q1162" s="2"/>
-      <c r="R1162" s="2"/>
-      <c r="S1162" s="2"/>
-      <c r="T1162" s="2"/>
-      <c r="U1162" s="2"/>
-      <c r="V1162" s="2"/>
-      <c r="W1162" s="2"/>
-      <c r="X1162" s="2"/>
-      <c r="Y1162" s="2"/>
-      <c r="Z1162" s="2"/>
-    </row>
-    <row r="1163">
-      <c r="A1163" s="2"/>
-      <c r="B1163" s="2"/>
-      <c r="C1163" s="2"/>
-      <c r="D1163" s="2"/>
-      <c r="E1163" s="2"/>
-      <c r="F1163" s="2"/>
-      <c r="G1163" s="2"/>
-      <c r="H1163" s="2"/>
-      <c r="I1163" s="2"/>
-      <c r="J1163" s="2"/>
-      <c r="K1163" s="2"/>
-      <c r="L1163" s="2"/>
-      <c r="M1163" s="2"/>
-      <c r="N1163" s="2"/>
-      <c r="O1163" s="2"/>
-      <c r="P1163" s="2"/>
-      <c r="Q1163" s="2"/>
-      <c r="R1163" s="2"/>
-      <c r="S1163" s="2"/>
-      <c r="T1163" s="2"/>
-      <c r="U1163" s="2"/>
-      <c r="V1163" s="2"/>
-      <c r="W1163" s="2"/>
-      <c r="X1163" s="2"/>
-      <c r="Y1163" s="2"/>
-      <c r="Z1163" s="2"/>
-    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="322">
   <si>
     <t>ID</t>
   </si>
@@ -199,6 +199,12 @@
     <t>失敗</t>
   </si>
   <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>語言</t>
+  </si>
+  <si>
     <t>Enter New Password.</t>
   </si>
   <si>
@@ -380,6 +386,9 @@
   </si>
   <si>
     <t>設定</t>
+  </si>
+  <si>
+    <t>SETTINGS</t>
   </si>
   <si>
     <t>Min Buy-In</t>
@@ -1102,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1185,8 +1194,6 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -2464,75 +2471,75 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="12"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="2"/>
-      <c r="X32" s="2"/>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="14"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
+      <c r="Y32" s="11"/>
+      <c r="Z32" s="12"/>
     </row>
     <row r="33">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="13" t="s">
         <v>66</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -2566,72 +2573,72 @@
       <c r="Z33" s="14"/>
     </row>
     <row r="34">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C34" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="12"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="14"/>
     </row>
     <row r="35">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
-      <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
-      <c r="S35" s="2"/>
-      <c r="T35" s="2"/>
-      <c r="U35" s="2"/>
-      <c r="V35" s="2"/>
-      <c r="W35" s="2"/>
-      <c r="X35" s="2"/>
-      <c r="Y35" s="2"/>
-      <c r="Z35" s="14"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
+      <c r="X35" s="11"/>
+      <c r="Y35" s="11"/>
+      <c r="Z35" s="12"/>
     </row>
     <row r="36">
       <c r="A36" s="15" t="s">
@@ -2702,72 +2709,72 @@
       <c r="Z37" s="14"/>
     </row>
     <row r="38">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C38" s="17" t="s">
+      <c r="C38" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
-      <c r="W38" s="18"/>
-      <c r="X38" s="18"/>
-      <c r="Y38" s="18"/>
-      <c r="Z38" s="19"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="14"/>
     </row>
     <row r="39">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-      <c r="Y39" s="2"/>
-      <c r="Z39" s="14"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
+      <c r="Q39" s="18"/>
+      <c r="R39" s="18"/>
+      <c r="S39" s="18"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="18"/>
+      <c r="V39" s="18"/>
+      <c r="W39" s="18"/>
+      <c r="X39" s="18"/>
+      <c r="Y39" s="18"/>
+      <c r="Z39" s="19"/>
     </row>
     <row r="40">
       <c r="A40" s="15" t="s">
@@ -2777,7 +2784,7 @@
         <v>80</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2805,10 +2812,10 @@
     </row>
     <row r="41">
       <c r="A41" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>73</v>
@@ -2839,13 +2846,13 @@
     </row>
     <row r="42">
       <c r="A42" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2906,72 +2913,72 @@
       <c r="Z43" s="14"/>
     </row>
     <row r="44">
-      <c r="A44" s="16" t="s">
+      <c r="A44" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="B44" s="17" t="s">
+      <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="17" t="s">
+      <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
-      <c r="W44" s="18"/>
-      <c r="X44" s="18"/>
-      <c r="Y44" s="18"/>
-      <c r="Z44" s="19"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="14"/>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
-      <c r="T45" s="2"/>
-      <c r="U45" s="2"/>
-      <c r="V45" s="2"/>
-      <c r="W45" s="2"/>
-      <c r="X45" s="2"/>
-      <c r="Y45" s="2"/>
-      <c r="Z45" s="2"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
+      <c r="Q45" s="18"/>
+      <c r="R45" s="18"/>
+      <c r="S45" s="18"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="19"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
@@ -3017,6 +3024,29 @@
       <c r="C47" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
@@ -3030,48 +3060,25 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="20" t="s">
+      <c r="A49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="21" t="s">
+      <c r="C49" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
-      <c r="V49" s="22"/>
-      <c r="W49" s="22"/>
-      <c r="X49" s="22"/>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="23"/>
     </row>
     <row r="50">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="20" t="s">
         <v>98</v>
       </c>
       <c r="B50" s="21" t="s">
         <v>98</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="D50" s="22"/>
       <c r="E50" s="22"/>
@@ -3098,94 +3105,94 @@
       <c r="Z50" s="23"/>
     </row>
     <row r="51">
-      <c r="A51" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z51" s="25"/>
+      <c r="A51" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22"/>
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
+      <c r="V51" s="22"/>
+      <c r="W51" s="22"/>
+      <c r="X51" s="22"/>
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="23"/>
     </row>
     <row r="52">
-      <c r="A52" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="B52" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="21" t="s">
+      <c r="A52" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="22"/>
-      <c r="R52" s="22"/>
-      <c r="S52" s="22"/>
-      <c r="T52" s="22"/>
-      <c r="U52" s="22"/>
-      <c r="V52" s="22"/>
-      <c r="W52" s="22"/>
-      <c r="X52" s="22"/>
-      <c r="Y52" s="22"/>
-      <c r="Z52" s="23"/>
+      <c r="B52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z52" s="25"/>
     </row>
     <row r="53">
-      <c r="A53" s="15" t="s">
+      <c r="A53" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-      <c r="J53" s="2"/>
-      <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-      <c r="V53" s="2"/>
-      <c r="W53" s="2"/>
-      <c r="X53" s="2"/>
-      <c r="Y53" s="2"/>
-      <c r="Z53" s="14"/>
+      <c r="C53" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="22"/>
+      <c r="Q53" s="22"/>
+      <c r="R53" s="22"/>
+      <c r="S53" s="22"/>
+      <c r="T53" s="22"/>
+      <c r="U53" s="22"/>
+      <c r="V53" s="22"/>
+      <c r="W53" s="22"/>
+      <c r="X53" s="22"/>
+      <c r="Y53" s="22"/>
+      <c r="Z53" s="23"/>
     </row>
     <row r="54">
       <c r="A54" s="15" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
@@ -3219,7 +3226,7 @@
         <v>105</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -3246,106 +3253,106 @@
       <c r="Z55" s="14"/>
     </row>
     <row r="56">
-      <c r="A56" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="10" t="s">
+      <c r="A56" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="11"/>
-      <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
-      <c r="Q56" s="11"/>
-      <c r="R56" s="11"/>
-      <c r="S56" s="11"/>
-      <c r="T56" s="11"/>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
-      <c r="X56" s="11"/>
-      <c r="Y56" s="11"/>
-      <c r="Z56" s="12"/>
+      <c r="B56" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="14"/>
     </row>
     <row r="57">
-      <c r="A57" s="15" t="s">
+      <c r="A57" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-      <c r="J57" s="2"/>
-      <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
-      <c r="O57" s="2"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-      <c r="V57" s="2"/>
-      <c r="W57" s="2"/>
-      <c r="X57" s="2"/>
-      <c r="Y57" s="2"/>
-      <c r="Z57" s="14"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="11"/>
+      <c r="R57" s="11"/>
+      <c r="S57" s="11"/>
+      <c r="T57" s="11"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
+      <c r="X57" s="11"/>
+      <c r="Y57" s="11"/>
+      <c r="Z57" s="12"/>
     </row>
     <row r="58">
-      <c r="A58" s="20" t="s">
+      <c r="A58" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C58" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
-      <c r="V58" s="22"/>
-      <c r="W58" s="22"/>
-      <c r="X58" s="22"/>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="23"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="14"/>
     </row>
     <row r="59">
       <c r="A59" s="20" t="s">
@@ -3450,13 +3457,13 @@
       <c r="Z61" s="23"/>
     </row>
     <row r="62">
-      <c r="A62" s="26" t="s">
+      <c r="A62" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="27" t="s">
+      <c r="C62" s="21" t="s">
         <v>119</v>
       </c>
       <c r="D62" s="22"/>
@@ -3491,7 +3498,7 @@
         <v>120</v>
       </c>
       <c r="C63" s="27" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D63" s="22"/>
       <c r="E63" s="22"/>
@@ -3518,38 +3525,38 @@
       <c r="Z63" s="23"/>
     </row>
     <row r="64">
-      <c r="A64" s="16" t="s">
+      <c r="A64" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="B64" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" s="28"/>
-      <c r="E64" s="28"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
-      <c r="J64" s="28"/>
-      <c r="K64" s="28"/>
-      <c r="L64" s="28"/>
-      <c r="M64" s="28"/>
-      <c r="N64" s="28"/>
-      <c r="O64" s="28"/>
-      <c r="P64" s="28"/>
-      <c r="Q64" s="28"/>
-      <c r="R64" s="28"/>
-      <c r="S64" s="28"/>
-      <c r="T64" s="28"/>
-      <c r="U64" s="28"/>
-      <c r="V64" s="28"/>
-      <c r="W64" s="28"/>
-      <c r="X64" s="28"/>
-      <c r="Y64" s="28"/>
-      <c r="Z64" s="29"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="22"/>
+      <c r="R64" s="22"/>
+      <c r="S64" s="22"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="22"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="23"/>
     </row>
     <row r="65">
       <c r="A65" s="15" t="s">
@@ -3561,29 +3568,7 @@
       <c r="C65" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-      <c r="J65" s="2"/>
-      <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
-      <c r="P65" s="2"/>
-      <c r="Q65" s="2"/>
-      <c r="R65" s="2"/>
-      <c r="S65" s="2"/>
-      <c r="T65" s="2"/>
-      <c r="U65" s="2"/>
-      <c r="V65" s="2"/>
-      <c r="W65" s="2"/>
-      <c r="X65" s="2"/>
-      <c r="Y65" s="2"/>
-      <c r="Z65" s="14"/>
+      <c r="Z65" s="25"/>
     </row>
     <row r="66">
       <c r="A66" s="16" t="s">
@@ -3593,7 +3578,7 @@
         <v>125</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D66" s="18"/>
       <c r="E66" s="18"/>
@@ -3620,9 +3605,15 @@
       <c r="Z66" s="19"/>
     </row>
     <row r="67">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
+      <c r="A67" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>127</v>
+      </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
@@ -3645,48 +3636,46 @@
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
-      <c r="Z67" s="2"/>
+      <c r="Z67" s="14"/>
     </row>
     <row r="68">
-      <c r="A68" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="4"/>
-      <c r="E68" s="4"/>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-      <c r="I68" s="4"/>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
-      <c r="M68" s="4"/>
-      <c r="N68" s="4"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="4"/>
-      <c r="R68" s="4"/>
-      <c r="S68" s="4"/>
-      <c r="T68" s="4"/>
-      <c r="U68" s="4"/>
-      <c r="V68" s="4"/>
-      <c r="W68" s="4"/>
-      <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="4"/>
+      <c r="A68" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="18"/>
+      <c r="Q68" s="18"/>
+      <c r="R68" s="18"/>
+      <c r="S68" s="18"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="18"/>
+      <c r="V68" s="18"/>
+      <c r="W68" s="18"/>
+      <c r="X68" s="18"/>
+      <c r="Y68" s="18"/>
+      <c r="Z68" s="19"/>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>129</v>
-      </c>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
@@ -3712,43 +3701,45 @@
       <c r="Z69" s="2"/>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="B70" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C70" s="1" t="s">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4"/>
+      <c r="L70" s="4"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-      <c r="J70" s="2"/>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
-      <c r="P70" s="2"/>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
-      <c r="S70" s="2"/>
-      <c r="T70" s="2"/>
-      <c r="U70" s="2"/>
-      <c r="V70" s="2"/>
-      <c r="W70" s="2"/>
-      <c r="X70" s="2"/>
-      <c r="Y70" s="2"/>
-      <c r="Z70" s="2"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>132</v>
+      </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
@@ -3774,112 +3765,106 @@
       <c r="Z71" s="2"/>
     </row>
     <row r="72">
-      <c r="A72" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="4"/>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-      <c r="G72" s="4"/>
-      <c r="H72" s="4"/>
-      <c r="I72" s="4"/>
-      <c r="J72" s="4"/>
-      <c r="K72" s="4"/>
-      <c r="L72" s="4"/>
-      <c r="M72" s="4"/>
-      <c r="N72" s="4"/>
-      <c r="O72" s="4"/>
-      <c r="P72" s="4"/>
-      <c r="Q72" s="4"/>
-      <c r="R72" s="4"/>
-      <c r="S72" s="4"/>
-      <c r="T72" s="4"/>
-      <c r="U72" s="4"/>
-      <c r="V72" s="4"/>
-      <c r="W72" s="4"/>
-      <c r="X72" s="4"/>
-      <c r="Y72" s="4"/>
-      <c r="Z72" s="4"/>
+      <c r="A72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
-      <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="B74" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
-      <c r="M74" s="6"/>
-      <c r="N74" s="6"/>
-      <c r="O74" s="6"/>
-      <c r="P74" s="6"/>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="6"/>
-      <c r="T74" s="6"/>
-      <c r="U74" s="6"/>
-      <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
-      <c r="X74" s="6"/>
-      <c r="Y74" s="6"/>
-      <c r="Z74" s="6"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>137</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>138</v>
       </c>
       <c r="D75" s="6"/>
       <c r="E75" s="6"/>
@@ -3906,9 +3891,15 @@
       <c r="Z75" s="6"/>
     </row>
     <row r="76">
-      <c r="A76" s="5"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
+      <c r="A76" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="D76" s="6"/>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -3934,142 +3925,136 @@
       <c r="Z76" s="6"/>
     </row>
     <row r="77">
-      <c r="A77" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4"/>
+      <c r="A77" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="D77" s="6"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="6"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="6"/>
+      <c r="O77" s="6"/>
+      <c r="P77" s="6"/>
+      <c r="Q77" s="6"/>
+      <c r="R77" s="6"/>
+      <c r="S77" s="6"/>
+      <c r="T77" s="6"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="6"/>
+      <c r="W77" s="6"/>
+      <c r="X77" s="6"/>
+      <c r="Y77" s="6"/>
+      <c r="Z77" s="6"/>
     </row>
     <row r="78">
-      <c r="A78" s="30" t="s">
-        <v>140</v>
-      </c>
-      <c r="B78" s="30"/>
-      <c r="C78" s="30"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
-      <c r="K78" s="31"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="31"/>
-      <c r="O78" s="31"/>
-      <c r="P78" s="31"/>
-      <c r="Q78" s="31"/>
-      <c r="R78" s="31"/>
-      <c r="S78" s="31"/>
-      <c r="T78" s="31"/>
-      <c r="U78" s="31"/>
-      <c r="V78" s="31"/>
-      <c r="W78" s="31"/>
-      <c r="X78" s="31"/>
-      <c r="Y78" s="31"/>
-      <c r="Z78" s="31"/>
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="6"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="6"/>
+      <c r="O78" s="6"/>
+      <c r="P78" s="6"/>
+      <c r="Q78" s="6"/>
+      <c r="R78" s="6"/>
+      <c r="S78" s="6"/>
+      <c r="T78" s="6"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="6"/>
+      <c r="W78" s="6"/>
+      <c r="X78" s="6"/>
+      <c r="Y78" s="6"/>
+      <c r="Z78" s="6"/>
     </row>
     <row r="79">
-      <c r="A79" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="5" t="s">
+      <c r="A79" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="6"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="N79" s="6"/>
-      <c r="O79" s="6"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="6"/>
-      <c r="T79" s="6"/>
-      <c r="U79" s="6"/>
-      <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-      <c r="X79" s="6"/>
-      <c r="Y79" s="6"/>
-      <c r="Z79" s="6"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="4"/>
+      <c r="Q79" s="4"/>
+      <c r="R79" s="4"/>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
     </row>
     <row r="80">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B80" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
-      <c r="G80" s="6"/>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="6"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
-      <c r="M80" s="6"/>
-      <c r="N80" s="6"/>
-      <c r="O80" s="6"/>
-      <c r="P80" s="6"/>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="6"/>
-      <c r="T80" s="6"/>
-      <c r="U80" s="6"/>
-      <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-      <c r="X80" s="6"/>
-      <c r="Y80" s="6"/>
-      <c r="Z80" s="6"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="29"/>
+      <c r="E80" s="29"/>
+      <c r="F80" s="29"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="29"/>
+      <c r="I80" s="29"/>
+      <c r="J80" s="29"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="29"/>
+      <c r="N80" s="29"/>
+      <c r="O80" s="29"/>
+      <c r="P80" s="29"/>
+      <c r="Q80" s="29"/>
+      <c r="R80" s="29"/>
+      <c r="S80" s="29"/>
+      <c r="T80" s="29"/>
+      <c r="U80" s="29"/>
+      <c r="V80" s="29"/>
+      <c r="W80" s="29"/>
+      <c r="X80" s="29"/>
+      <c r="Y80" s="29"/>
+      <c r="Z80" s="29"/>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="D81" s="6"/>
       <c r="E81" s="6"/>
@@ -4096,34 +4081,38 @@
       <c r="Z81" s="6"/>
     </row>
     <row r="82">
-      <c r="A82" s="30" t="s">
+      <c r="A82" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B82" s="30"/>
-      <c r="C82" s="30"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="31"/>
-      <c r="O82" s="31"/>
-      <c r="P82" s="31"/>
-      <c r="Q82" s="31"/>
-      <c r="R82" s="31"/>
-      <c r="S82" s="31"/>
-      <c r="T82" s="31"/>
-      <c r="U82" s="31"/>
-      <c r="V82" s="31"/>
-      <c r="W82" s="31"/>
-      <c r="X82" s="31"/>
-      <c r="Y82" s="31"/>
-      <c r="Z82" s="31"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="6"/>
+      <c r="I82" s="6"/>
+      <c r="J82" s="6"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="6"/>
+      <c r="O82" s="6"/>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="6"/>
+      <c r="R82" s="6"/>
+      <c r="S82" s="6"/>
+      <c r="T82" s="6"/>
+      <c r="U82" s="6"/>
+      <c r="V82" s="6"/>
+      <c r="W82" s="6"/>
+      <c r="X82" s="6"/>
+      <c r="Y82" s="6"/>
+      <c r="Z82" s="6"/>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
@@ -4132,7 +4121,7 @@
       <c r="B83" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="7" t="s">
         <v>149</v>
       </c>
       <c r="D83" s="6"/>
@@ -4160,48 +4149,44 @@
       <c r="Z83" s="6"/>
     </row>
     <row r="84">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
-      <c r="M84" s="6"/>
-      <c r="N84" s="6"/>
-      <c r="O84" s="6"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="6"/>
-      <c r="T84" s="6"/>
-      <c r="U84" s="6"/>
-      <c r="V84" s="6"/>
-      <c r="W84" s="6"/>
-      <c r="X84" s="6"/>
-      <c r="Y84" s="6"/>
-      <c r="Z84" s="6"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="28"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="29"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="29"/>
+      <c r="N84" s="29"/>
+      <c r="O84" s="29"/>
+      <c r="P84" s="29"/>
+      <c r="Q84" s="29"/>
+      <c r="R84" s="29"/>
+      <c r="S84" s="29"/>
+      <c r="T84" s="29"/>
+      <c r="U84" s="29"/>
+      <c r="V84" s="29"/>
+      <c r="W84" s="29"/>
+      <c r="X84" s="29"/>
+      <c r="Y84" s="29"/>
+      <c r="Z84" s="29"/>
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C85" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="D85" s="6"/>
       <c r="E85" s="6"/>
@@ -4228,34 +4213,38 @@
       <c r="Z85" s="6"/>
     </row>
     <row r="86">
-      <c r="A86" s="32" t="s">
+      <c r="A86" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C86" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B86" s="33"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="33"/>
-      <c r="M86" s="33"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="33"/>
-      <c r="P86" s="33"/>
-      <c r="Q86" s="33"/>
-      <c r="R86" s="33"/>
-      <c r="S86" s="33"/>
-      <c r="T86" s="33"/>
-      <c r="U86" s="33"/>
-      <c r="V86" s="33"/>
-      <c r="W86" s="33"/>
-      <c r="X86" s="33"/>
-      <c r="Y86" s="33"/>
-      <c r="Z86" s="33"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="6"/>
+      <c r="I86" s="6"/>
+      <c r="J86" s="6"/>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="6"/>
+      <c r="O86" s="6"/>
+      <c r="P86" s="6"/>
+      <c r="Q86" s="6"/>
+      <c r="R86" s="6"/>
+      <c r="S86" s="6"/>
+      <c r="T86" s="6"/>
+      <c r="U86" s="6"/>
+      <c r="V86" s="6"/>
+      <c r="W86" s="6"/>
+      <c r="X86" s="6"/>
+      <c r="Y86" s="6"/>
+      <c r="Z86" s="6"/>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
@@ -4265,7 +4254,7 @@
         <v>155</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D87" s="6"/>
       <c r="E87" s="6"/>
@@ -4293,10 +4282,10 @@
     </row>
     <row r="88">
       <c r="A88" s="30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B88" s="30"/>
-      <c r="C88" s="30"/>
+        <v>157</v>
+      </c>
+      <c r="B88" s="31"/>
+      <c r="C88" s="31"/>
       <c r="D88" s="31"/>
       <c r="E88" s="31"/>
       <c r="F88" s="31"/>
@@ -4323,13 +4312,13 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C89" s="5" t="s">
         <v>157</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>158</v>
       </c>
       <c r="D89" s="6"/>
       <c r="E89" s="6"/>
@@ -4356,48 +4345,44 @@
       <c r="Z89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C90" s="5" t="s">
+      <c r="B90" s="28"/>
+      <c r="C90" s="28"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="29"/>
+      <c r="I90" s="29"/>
+      <c r="J90" s="29"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="29"/>
+      <c r="N90" s="29"/>
+      <c r="O90" s="29"/>
+      <c r="P90" s="29"/>
+      <c r="Q90" s="29"/>
+      <c r="R90" s="29"/>
+      <c r="S90" s="29"/>
+      <c r="T90" s="29"/>
+      <c r="U90" s="29"/>
+      <c r="V90" s="29"/>
+      <c r="W90" s="29"/>
+      <c r="X90" s="29"/>
+      <c r="Y90" s="29"/>
+      <c r="Z90" s="29"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
-      <c r="U90" s="6"/>
-      <c r="V90" s="6"/>
-      <c r="W90" s="6"/>
-      <c r="X90" s="6"/>
-      <c r="Y90" s="6"/>
-      <c r="Z90" s="6"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="7" t="s">
+      <c r="B91" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>161</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="C91" s="5" t="s">
-        <v>162</v>
       </c>
       <c r="D91" s="6"/>
       <c r="E91" s="6"/>
@@ -4424,43 +4409,47 @@
       <c r="Z91" s="6"/>
     </row>
     <row r="92">
-      <c r="A92" s="30" t="s">
+      <c r="A92" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B92" s="30"/>
-      <c r="C92" s="30"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
-      <c r="K92" s="31"/>
-      <c r="L92" s="31"/>
-      <c r="M92" s="31"/>
-      <c r="N92" s="31"/>
-      <c r="O92" s="31"/>
-      <c r="P92" s="31"/>
-      <c r="Q92" s="31"/>
-      <c r="R92" s="31"/>
-      <c r="S92" s="31"/>
-      <c r="T92" s="31"/>
-      <c r="U92" s="31"/>
-      <c r="V92" s="31"/>
-      <c r="W92" s="31"/>
-      <c r="X92" s="31"/>
-      <c r="Y92" s="31"/>
-      <c r="Z92" s="31"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="6"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="6"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="6"/>
     </row>
     <row r="93">
-      <c r="A93" s="34" t="s">
+      <c r="A93" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C93" s="7" t="s">
+      <c r="C93" s="5" t="s">
         <v>165</v>
       </c>
       <c r="D93" s="6"/>
@@ -4488,43 +4477,45 @@
       <c r="Z93" s="6"/>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="28" t="s">
         <v>166</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C94" s="7" t="s">
+      <c r="B94" s="28"/>
+      <c r="C94" s="28"/>
+      <c r="D94" s="29"/>
+      <c r="E94" s="29"/>
+      <c r="F94" s="29"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="29"/>
+      <c r="I94" s="29"/>
+      <c r="J94" s="29"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="29"/>
+      <c r="N94" s="29"/>
+      <c r="O94" s="29"/>
+      <c r="P94" s="29"/>
+      <c r="Q94" s="29"/>
+      <c r="R94" s="29"/>
+      <c r="S94" s="29"/>
+      <c r="T94" s="29"/>
+      <c r="U94" s="29"/>
+      <c r="V94" s="29"/>
+      <c r="W94" s="29"/>
+      <c r="X94" s="29"/>
+      <c r="Y94" s="29"/>
+      <c r="Z94" s="29"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
-      <c r="V94" s="2"/>
-      <c r="W94" s="2"/>
-      <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
-      <c r="Z94" s="2"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="5"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="5"/>
+      <c r="B95" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>168</v>
+      </c>
       <c r="D95" s="6"/>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -4550,45 +4541,43 @@
       <c r="Z95" s="6"/>
     </row>
     <row r="96">
-      <c r="A96" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-      <c r="T96" s="4"/>
-      <c r="U96" s="4"/>
-      <c r="V96" s="4"/>
-      <c r="W96" s="4"/>
-      <c r="X96" s="4"/>
-      <c r="Y96" s="4"/>
-      <c r="Z96" s="4"/>
+      <c r="A96" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
     </row>
     <row r="97">
-      <c r="A97" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="B97" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C97" s="5" t="s">
-        <v>168</v>
-      </c>
+      <c r="A97" s="5"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
       <c r="D97" s="6"/>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -4614,38 +4603,34 @@
       <c r="Z97" s="6"/>
     </row>
     <row r="98">
-      <c r="A98" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C98" s="5" t="s">
+      <c r="A98" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
-      <c r="U98" s="6"/>
-      <c r="V98" s="6"/>
-      <c r="W98" s="6"/>
-      <c r="X98" s="6"/>
-      <c r="Y98" s="6"/>
-      <c r="Z98" s="6"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="4"/>
+      <c r="Q98" s="4"/>
+      <c r="R98" s="4"/>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
@@ -4655,7 +4640,7 @@
         <v>172</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D99" s="6"/>
       <c r="E99" s="6"/>
@@ -4682,9 +4667,15 @@
       <c r="Z99" s="6"/>
     </row>
     <row r="100">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5"/>
-      <c r="C100" s="5"/>
+      <c r="A100" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>174</v>
+      </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -4710,112 +4701,106 @@
       <c r="Z100" s="6"/>
     </row>
     <row r="101">
-      <c r="A101" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="4"/>
-      <c r="E101" s="4"/>
-      <c r="F101" s="4"/>
-      <c r="G101" s="4"/>
-      <c r="H101" s="4"/>
-      <c r="I101" s="4"/>
-      <c r="J101" s="4"/>
-      <c r="K101" s="4"/>
-      <c r="L101" s="4"/>
-      <c r="M101" s="4"/>
-      <c r="N101" s="4"/>
-      <c r="O101" s="4"/>
-      <c r="P101" s="4"/>
-      <c r="Q101" s="4"/>
-      <c r="R101" s="4"/>
-      <c r="S101" s="4"/>
-      <c r="T101" s="4"/>
-      <c r="U101" s="4"/>
-      <c r="V101" s="4"/>
-      <c r="W101" s="4"/>
-      <c r="X101" s="4"/>
-      <c r="Y101" s="4"/>
-      <c r="Z101" s="4"/>
+      <c r="A101" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="6"/>
+      <c r="I101" s="6"/>
+      <c r="J101" s="6"/>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="6"/>
+      <c r="O101" s="6"/>
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6"/>
+      <c r="R101" s="6"/>
+      <c r="S101" s="6"/>
+      <c r="T101" s="6"/>
+      <c r="U101" s="6"/>
+      <c r="V101" s="6"/>
+      <c r="W101" s="6"/>
+      <c r="X101" s="6"/>
+      <c r="Y101" s="6"/>
+      <c r="Z101" s="6"/>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" s="2"/>
-      <c r="F102" s="2"/>
-      <c r="G102" s="2"/>
-      <c r="H102" s="2"/>
-      <c r="I102" s="2"/>
-      <c r="J102" s="2"/>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
-      <c r="P102" s="2"/>
-      <c r="Q102" s="2"/>
-      <c r="R102" s="2"/>
-      <c r="S102" s="2"/>
-      <c r="T102" s="2"/>
-      <c r="U102" s="2"/>
-      <c r="V102" s="2"/>
-      <c r="W102" s="2"/>
-      <c r="X102" s="2"/>
-      <c r="Y102" s="2"/>
-      <c r="Z102" s="2"/>
+      <c r="A102" s="5"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="6"/>
+      <c r="I102" s="6"/>
+      <c r="J102" s="6"/>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="6"/>
+      <c r="O102" s="6"/>
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6"/>
+      <c r="R102" s="6"/>
+      <c r="S102" s="6"/>
+      <c r="T102" s="6"/>
+      <c r="U102" s="6"/>
+      <c r="V102" s="6"/>
+      <c r="W102" s="6"/>
+      <c r="X102" s="6"/>
+      <c r="Y102" s="6"/>
+      <c r="Z102" s="6"/>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="2"/>
-      <c r="U103" s="2"/>
-      <c r="V103" s="2"/>
-      <c r="W103" s="2"/>
-      <c r="X103" s="2"/>
-      <c r="Y103" s="2"/>
-      <c r="Z103" s="2"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="4"/>
+      <c r="Q103" s="4"/>
+      <c r="R103" s="4"/>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -4843,13 +4828,13 @@
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -4877,13 +4862,13 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4911,13 +4896,13 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C107" s="1" t="s">
         <v>186</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>187</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -4944,9 +4929,15 @@
       <c r="Z107" s="2"/>
     </row>
     <row r="108">
-      <c r="A108" s="1"/>
-      <c r="B108" s="1"/>
-      <c r="C108" s="1"/>
+      <c r="A108" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -4972,45 +4963,43 @@
       <c r="Z108" s="2"/>
     </row>
     <row r="109">
-      <c r="A109" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="4"/>
-      <c r="E109" s="4"/>
-      <c r="F109" s="4"/>
-      <c r="G109" s="4"/>
-      <c r="H109" s="4"/>
-      <c r="I109" s="4"/>
-      <c r="J109" s="4"/>
-      <c r="K109" s="4"/>
-      <c r="L109" s="4"/>
-      <c r="M109" s="4"/>
-      <c r="N109" s="4"/>
-      <c r="O109" s="4"/>
-      <c r="P109" s="4"/>
-      <c r="Q109" s="4"/>
-      <c r="R109" s="4"/>
-      <c r="S109" s="4"/>
-      <c r="T109" s="4"/>
-      <c r="U109" s="4"/>
-      <c r="V109" s="4"/>
-      <c r="W109" s="4"/>
-      <c r="X109" s="4"/>
-      <c r="Y109" s="4"/>
-      <c r="Z109" s="4"/>
+      <c r="A109" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2"/>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="2"/>
+      <c r="Y109" s="2"/>
+      <c r="Z109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>189</v>
-      </c>
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -5036,48 +5025,44 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
-      <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
-      <c r="U111" s="2"/>
-      <c r="V111" s="2"/>
-      <c r="W111" s="2"/>
-      <c r="X111" s="2"/>
-      <c r="Y111" s="2"/>
-      <c r="Z111" s="2"/>
+      <c r="A111" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="4"/>
+      <c r="Q111" s="4"/>
+      <c r="R111" s="4"/>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C112" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
@@ -5104,48 +5089,48 @@
       <c r="Z112" s="2"/>
     </row>
     <row r="113">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C113" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C113" s="10" t="s">
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2"/>
+      <c r="K113" s="2"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
+      <c r="O113" s="2"/>
+      <c r="P113" s="2"/>
+      <c r="Q113" s="2"/>
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="2"/>
+      <c r="Y113" s="2"/>
+      <c r="Z113" s="2"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D113" s="11"/>
-      <c r="E113" s="11"/>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="11"/>
-      <c r="L113" s="11"/>
-      <c r="M113" s="11"/>
-      <c r="N113" s="11"/>
-      <c r="O113" s="11"/>
-      <c r="P113" s="11"/>
-      <c r="Q113" s="11"/>
-      <c r="R113" s="11"/>
-      <c r="S113" s="11"/>
-      <c r="T113" s="11"/>
-      <c r="U113" s="11"/>
-      <c r="V113" s="11"/>
-      <c r="W113" s="11"/>
-      <c r="X113" s="11"/>
-      <c r="Y113" s="11"/>
-      <c r="Z113" s="12"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="15" t="s">
+      <c r="B114" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5169,316 +5154,316 @@
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
-      <c r="Z114" s="14"/>
+      <c r="Z114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="16" t="s">
+      <c r="A115" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="C115" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="B115" s="17" t="s">
-        <v>198</v>
-      </c>
-      <c r="C115" s="17" t="s">
+      <c r="D115" s="11"/>
+      <c r="E115" s="11"/>
+      <c r="F115" s="11"/>
+      <c r="G115" s="11"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11"/>
+      <c r="L115" s="11"/>
+      <c r="M115" s="11"/>
+      <c r="N115" s="11"/>
+      <c r="O115" s="11"/>
+      <c r="P115" s="11"/>
+      <c r="Q115" s="11"/>
+      <c r="R115" s="11"/>
+      <c r="S115" s="11"/>
+      <c r="T115" s="11"/>
+      <c r="U115" s="11"/>
+      <c r="V115" s="11"/>
+      <c r="W115" s="11"/>
+      <c r="X115" s="11"/>
+      <c r="Y115" s="11"/>
+      <c r="Z115" s="12"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D115" s="18"/>
-      <c r="E115" s="18"/>
-      <c r="F115" s="18"/>
-      <c r="G115" s="18"/>
-      <c r="H115" s="18"/>
-      <c r="I115" s="18"/>
-      <c r="J115" s="18"/>
-      <c r="K115" s="18"/>
-      <c r="L115" s="18"/>
-      <c r="M115" s="18"/>
-      <c r="N115" s="18"/>
-      <c r="O115" s="18"/>
-      <c r="P115" s="18"/>
-      <c r="Q115" s="18"/>
-      <c r="R115" s="18"/>
-      <c r="S115" s="18"/>
-      <c r="T115" s="18"/>
-      <c r="U115" s="18"/>
-      <c r="V115" s="18"/>
-      <c r="W115" s="18"/>
-      <c r="X115" s="18"/>
-      <c r="Y115" s="18"/>
-      <c r="Z115" s="19"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="8" t="s">
+      <c r="B116" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C116" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="C116" s="10" t="s">
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="2"/>
+      <c r="Z116" s="14"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="D116" s="11"/>
-      <c r="E116" s="11"/>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="11"/>
-      <c r="L116" s="11"/>
-      <c r="M116" s="11"/>
-      <c r="N116" s="11"/>
-      <c r="O116" s="11"/>
-      <c r="P116" s="11"/>
-      <c r="Q116" s="11"/>
-      <c r="R116" s="11"/>
-      <c r="S116" s="11"/>
-      <c r="T116" s="11"/>
-      <c r="U116" s="11"/>
-      <c r="V116" s="11"/>
-      <c r="W116" s="11"/>
-      <c r="X116" s="11"/>
-      <c r="Y116" s="11"/>
-      <c r="Z116" s="12"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="15" t="s">
+      <c r="B117" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="C117" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B117" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" s="18"/>
+      <c r="E117" s="18"/>
+      <c r="F117" s="18"/>
+      <c r="G117" s="18"/>
+      <c r="H117" s="18"/>
+      <c r="I117" s="18"/>
+      <c r="J117" s="18"/>
+      <c r="K117" s="18"/>
+      <c r="L117" s="18"/>
+      <c r="M117" s="18"/>
+      <c r="N117" s="18"/>
+      <c r="O117" s="18"/>
+      <c r="P117" s="18"/>
+      <c r="Q117" s="18"/>
+      <c r="R117" s="18"/>
+      <c r="S117" s="18"/>
+      <c r="T117" s="18"/>
+      <c r="U117" s="18"/>
+      <c r="V117" s="18"/>
+      <c r="W117" s="18"/>
+      <c r="X117" s="18"/>
+      <c r="Y117" s="18"/>
+      <c r="Z117" s="19"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
-      <c r="S117" s="2"/>
-      <c r="T117" s="2"/>
-      <c r="U117" s="2"/>
-      <c r="V117" s="2"/>
-      <c r="W117" s="2"/>
-      <c r="X117" s="2"/>
-      <c r="Y117" s="2"/>
-      <c r="Z117" s="14"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="15" t="s">
+      <c r="B118" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="C118" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="B118" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
+      <c r="F118" s="11"/>
+      <c r="G118" s="11"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="11"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="11"/>
+      <c r="L118" s="11"/>
+      <c r="M118" s="11"/>
+      <c r="N118" s="11"/>
+      <c r="O118" s="11"/>
+      <c r="P118" s="11"/>
+      <c r="Q118" s="11"/>
+      <c r="R118" s="11"/>
+      <c r="S118" s="11"/>
+      <c r="T118" s="11"/>
+      <c r="U118" s="11"/>
+      <c r="V118" s="11"/>
+      <c r="W118" s="11"/>
+      <c r="X118" s="11"/>
+      <c r="Y118" s="11"/>
+      <c r="Z118" s="12"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="2"/>
-      <c r="S118" s="2"/>
-      <c r="T118" s="2"/>
-      <c r="U118" s="2"/>
-      <c r="V118" s="2"/>
-      <c r="W118" s="2"/>
-      <c r="X118" s="2"/>
-      <c r="Y118" s="2"/>
-      <c r="Z118" s="14"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="16" t="s">
+      <c r="B119" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="B119" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="C119" s="17" t="s">
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="2"/>
+      <c r="Y119" s="2"/>
+      <c r="Z119" s="14"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="D119" s="18"/>
-      <c r="E119" s="18"/>
-      <c r="F119" s="18"/>
-      <c r="G119" s="18"/>
-      <c r="H119" s="18"/>
-      <c r="I119" s="18"/>
-      <c r="J119" s="18"/>
-      <c r="K119" s="18"/>
-      <c r="L119" s="18"/>
-      <c r="M119" s="18"/>
-      <c r="N119" s="18"/>
-      <c r="O119" s="18"/>
-      <c r="P119" s="18"/>
-      <c r="Q119" s="18"/>
-      <c r="R119" s="18"/>
-      <c r="S119" s="18"/>
-      <c r="T119" s="18"/>
-      <c r="U119" s="18"/>
-      <c r="V119" s="18"/>
-      <c r="W119" s="18"/>
-      <c r="X119" s="18"/>
-      <c r="Y119" s="18"/>
-      <c r="Z119" s="19"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="8" t="s">
+      <c r="B120" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C120" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="C120" s="10" t="s">
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
+      <c r="Z120" s="14"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="11"/>
-      <c r="G120" s="11"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="11"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="11"/>
-      <c r="L120" s="11"/>
-      <c r="M120" s="11"/>
-      <c r="N120" s="11"/>
-      <c r="O120" s="11"/>
-      <c r="P120" s="11"/>
-      <c r="Q120" s="11"/>
-      <c r="R120" s="11"/>
-      <c r="S120" s="11"/>
-      <c r="T120" s="11"/>
-      <c r="U120" s="11"/>
-      <c r="V120" s="11"/>
-      <c r="W120" s="11"/>
-      <c r="X120" s="11"/>
-      <c r="Y120" s="11"/>
-      <c r="Z120" s="12"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="35" t="s">
+      <c r="B121" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="C121" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B121" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" s="18"/>
+      <c r="E121" s="18"/>
+      <c r="F121" s="18"/>
+      <c r="G121" s="18"/>
+      <c r="H121" s="18"/>
+      <c r="I121" s="18"/>
+      <c r="J121" s="18"/>
+      <c r="K121" s="18"/>
+      <c r="L121" s="18"/>
+      <c r="M121" s="18"/>
+      <c r="N121" s="18"/>
+      <c r="O121" s="18"/>
+      <c r="P121" s="18"/>
+      <c r="Q121" s="18"/>
+      <c r="R121" s="18"/>
+      <c r="S121" s="18"/>
+      <c r="T121" s="18"/>
+      <c r="U121" s="18"/>
+      <c r="V121" s="18"/>
+      <c r="W121" s="18"/>
+      <c r="X121" s="18"/>
+      <c r="Y121" s="18"/>
+      <c r="Z121" s="19"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
-      <c r="S121" s="2"/>
-      <c r="T121" s="2"/>
-      <c r="U121" s="2"/>
-      <c r="V121" s="2"/>
-      <c r="W121" s="2"/>
-      <c r="X121" s="2"/>
-      <c r="Y121" s="2"/>
-      <c r="Z121" s="14"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="15" t="s">
+      <c r="B122" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="C122" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B122" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" s="11"/>
+      <c r="E122" s="11"/>
+      <c r="F122" s="11"/>
+      <c r="G122" s="11"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11"/>
+      <c r="L122" s="11"/>
+      <c r="M122" s="11"/>
+      <c r="N122" s="11"/>
+      <c r="O122" s="11"/>
+      <c r="P122" s="11"/>
+      <c r="Q122" s="11"/>
+      <c r="R122" s="11"/>
+      <c r="S122" s="11"/>
+      <c r="T122" s="11"/>
+      <c r="U122" s="11"/>
+      <c r="V122" s="11"/>
+      <c r="W122" s="11"/>
+      <c r="X122" s="11"/>
+      <c r="Y122" s="11"/>
+      <c r="Z122" s="12"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
-      <c r="Q122" s="2"/>
-      <c r="R122" s="2"/>
-      <c r="S122" s="2"/>
-      <c r="T122" s="2"/>
-      <c r="U122" s="2"/>
-      <c r="V122" s="2"/>
-      <c r="W122" s="2"/>
-      <c r="X122" s="2"/>
-      <c r="Y122" s="2"/>
-      <c r="Z122" s="14"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="16" t="s">
+      <c r="B123" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="B123" s="17" t="s">
-        <v>214</v>
-      </c>
-      <c r="C123" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D123" s="18"/>
-      <c r="E123" s="18"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="18"/>
-      <c r="H123" s="18"/>
-      <c r="I123" s="18"/>
-      <c r="J123" s="18"/>
-      <c r="K123" s="18"/>
-      <c r="L123" s="18"/>
-      <c r="M123" s="18"/>
-      <c r="N123" s="18"/>
-      <c r="O123" s="18"/>
-      <c r="P123" s="18"/>
-      <c r="Q123" s="18"/>
-      <c r="R123" s="18"/>
-      <c r="S123" s="18"/>
-      <c r="T123" s="18"/>
-      <c r="U123" s="18"/>
-      <c r="V123" s="18"/>
-      <c r="W123" s="18"/>
-      <c r="X123" s="18"/>
-      <c r="Y123" s="18"/>
-      <c r="Z123" s="19"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2"/>
+      <c r="V123" s="2"/>
+      <c r="W123" s="2"/>
+      <c r="X123" s="2"/>
+      <c r="Y123" s="2"/>
+      <c r="Z123" s="14"/>
     </row>
     <row r="124">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="15" t="s">
         <v>215</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -5509,76 +5494,80 @@
       <c r="W124" s="2"/>
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
-      <c r="Z124" s="2"/>
+      <c r="Z124" s="14"/>
     </row>
     <row r="125">
-      <c r="A125" s="1"/>
-      <c r="B125" s="1"/>
-      <c r="C125" s="1"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
-      <c r="H125" s="2"/>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
-      <c r="P125" s="2"/>
-      <c r="Q125" s="2"/>
-      <c r="R125" s="2"/>
-      <c r="S125" s="2"/>
-      <c r="T125" s="2"/>
-      <c r="U125" s="2"/>
-      <c r="V125" s="2"/>
-      <c r="W125" s="2"/>
-      <c r="X125" s="2"/>
-      <c r="Y125" s="2"/>
-      <c r="Z125" s="2"/>
+      <c r="A125" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D125" s="18"/>
+      <c r="E125" s="18"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="18"/>
+      <c r="H125" s="18"/>
+      <c r="I125" s="18"/>
+      <c r="J125" s="18"/>
+      <c r="K125" s="18"/>
+      <c r="L125" s="18"/>
+      <c r="M125" s="18"/>
+      <c r="N125" s="18"/>
+      <c r="O125" s="18"/>
+      <c r="P125" s="18"/>
+      <c r="Q125" s="18"/>
+      <c r="R125" s="18"/>
+      <c r="S125" s="18"/>
+      <c r="T125" s="18"/>
+      <c r="U125" s="18"/>
+      <c r="V125" s="18"/>
+      <c r="W125" s="18"/>
+      <c r="X125" s="18"/>
+      <c r="Y125" s="18"/>
+      <c r="Z125" s="19"/>
     </row>
     <row r="126">
-      <c r="A126" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="4"/>
-      <c r="E126" s="4"/>
-      <c r="F126" s="4"/>
-      <c r="G126" s="4"/>
-      <c r="H126" s="4"/>
-      <c r="I126" s="4"/>
-      <c r="J126" s="4"/>
-      <c r="K126" s="4"/>
-      <c r="L126" s="4"/>
-      <c r="M126" s="4"/>
-      <c r="N126" s="4"/>
-      <c r="O126" s="4"/>
-      <c r="P126" s="4"/>
-      <c r="Q126" s="4"/>
-      <c r="R126" s="4"/>
-      <c r="S126" s="4"/>
-      <c r="T126" s="4"/>
-      <c r="U126" s="4"/>
-      <c r="V126" s="4"/>
-      <c r="W126" s="4"/>
-      <c r="X126" s="4"/>
-      <c r="Y126" s="4"/>
-      <c r="Z126" s="4"/>
+      <c r="A126" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="2"/>
+      <c r="Z126" s="2"/>
     </row>
     <row r="127">
-      <c r="A127" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>219</v>
-      </c>
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -5604,73 +5593,73 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
-      <c r="D128" s="2"/>
-      <c r="E128" s="2"/>
-      <c r="F128" s="2"/>
-      <c r="G128" s="2"/>
-      <c r="H128" s="2"/>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
-      <c r="N128" s="2"/>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-      <c r="R128" s="2"/>
-      <c r="S128" s="2"/>
-      <c r="T128" s="2"/>
-      <c r="U128" s="2"/>
-      <c r="V128" s="2"/>
-      <c r="W128" s="2"/>
-      <c r="X128" s="2"/>
-      <c r="Y128" s="2"/>
-      <c r="Z128" s="2"/>
+      <c r="A128" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="4"/>
+      <c r="Q128" s="4"/>
+      <c r="R128" s="4"/>
+      <c r="S128" s="4"/>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4"/>
+      <c r="V128" s="4"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="4"/>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-      <c r="R129" s="4"/>
-      <c r="S129" s="4"/>
-      <c r="T129" s="4"/>
-      <c r="U129" s="4"/>
-      <c r="V129" s="4"/>
-      <c r="W129" s="4"/>
-      <c r="X129" s="4"/>
-      <c r="Y129" s="4"/>
-      <c r="Z129" s="4"/>
+      <c r="A129" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
+      <c r="W129" s="2"/>
+      <c r="X129" s="2"/>
+      <c r="Y129" s="2"/>
+      <c r="Z129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>221</v>
-      </c>
+      <c r="A130" s="1"/>
+      <c r="B130" s="1"/>
+      <c r="C130" s="1"/>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -5696,48 +5685,44 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D131" s="2"/>
-      <c r="E131" s="2"/>
-      <c r="F131" s="2"/>
-      <c r="G131" s="2"/>
-      <c r="H131" s="2"/>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
-      <c r="N131" s="2"/>
-      <c r="O131" s="2"/>
-      <c r="P131" s="2"/>
-      <c r="Q131" s="2"/>
-      <c r="R131" s="2"/>
-      <c r="S131" s="2"/>
-      <c r="T131" s="2"/>
-      <c r="U131" s="2"/>
-      <c r="V131" s="2"/>
-      <c r="W131" s="2"/>
-      <c r="X131" s="2"/>
-      <c r="Y131" s="2"/>
-      <c r="Z131" s="2"/>
+      <c r="A131" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="4"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C132" s="1" t="s">
         <v>224</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>225</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
@@ -5765,13 +5750,13 @@
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -5799,13 +5784,13 @@
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C134" s="1" t="s">
         <v>228</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>229</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
@@ -5833,13 +5818,13 @@
     </row>
     <row r="135">
       <c r="A135" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C135" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
@@ -5867,13 +5852,13 @@
     </row>
     <row r="136">
       <c r="A136" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>233</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
@@ -5901,13 +5886,13 @@
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C137" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -5934,9 +5919,15 @@
       <c r="Z137" s="2"/>
     </row>
     <row r="138">
-      <c r="A138" s="1"/>
-      <c r="B138" s="1"/>
-      <c r="C138" s="1"/>
+      <c r="A138" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
@@ -5962,45 +5953,43 @@
       <c r="Z138" s="2"/>
     </row>
     <row r="139">
-      <c r="A139" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
-      <c r="F139" s="4"/>
-      <c r="G139" s="4"/>
-      <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
-      <c r="M139" s="4"/>
-      <c r="N139" s="4"/>
-      <c r="O139" s="4"/>
-      <c r="P139" s="4"/>
-      <c r="Q139" s="4"/>
-      <c r="R139" s="4"/>
-      <c r="S139" s="4"/>
-      <c r="T139" s="4"/>
-      <c r="U139" s="4"/>
-      <c r="V139" s="4"/>
-      <c r="W139" s="4"/>
-      <c r="X139" s="4"/>
-      <c r="Y139" s="4"/>
-      <c r="Z139" s="4"/>
+      <c r="A139" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
+      <c r="U139" s="2"/>
+      <c r="V139" s="2"/>
+      <c r="W139" s="2"/>
+      <c r="X139" s="2"/>
+      <c r="Y139" s="2"/>
+      <c r="Z139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>238</v>
-      </c>
+      <c r="A140" s="1"/>
+      <c r="B140" s="1"/>
+      <c r="C140" s="1"/>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -6026,54 +6015,79 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="1" t="s">
+      <c r="A141" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C141" s="1" t="s">
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
+      <c r="I141" s="4"/>
+      <c r="J141" s="4"/>
+      <c r="K141" s="4"/>
+      <c r="L141" s="4"/>
+      <c r="M141" s="4"/>
+      <c r="N141" s="4"/>
+      <c r="O141" s="4"/>
+      <c r="P141" s="4"/>
+      <c r="Q141" s="4"/>
+      <c r="R141" s="4"/>
+      <c r="S141" s="4"/>
+      <c r="T141" s="4"/>
+      <c r="U141" s="4"/>
+      <c r="V141" s="4"/>
+      <c r="W141" s="4"/>
+      <c r="X141" s="4"/>
+      <c r="Y141" s="4"/>
+      <c r="Z141" s="4"/>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2"/>
-      <c r="G141" s="2"/>
-      <c r="H141" s="2"/>
-      <c r="I141" s="2"/>
-      <c r="J141" s="2"/>
-      <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
-      <c r="N141" s="2"/>
-      <c r="O141" s="2"/>
-      <c r="P141" s="2"/>
-      <c r="Q141" s="2"/>
-      <c r="R141" s="2"/>
-      <c r="S141" s="2"/>
-      <c r="T141" s="2"/>
-      <c r="U141" s="2"/>
-      <c r="V141" s="2"/>
-      <c r="W141" s="2"/>
-      <c r="X141" s="2"/>
-      <c r="Y141" s="2"/>
-      <c r="Z141" s="2"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="36" t="s">
+      <c r="B142" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B142" s="36" t="s">
-        <v>241</v>
-      </c>
-      <c r="C142" s="36" t="s">
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2"/>
+      <c r="V142" s="2"/>
+      <c r="W142" s="2"/>
+      <c r="X142" s="2"/>
+      <c r="Y142" s="2"/>
+      <c r="Z142" s="2"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1"/>
-      <c r="B143" s="1"/>
-      <c r="C143" s="1"/>
+      <c r="B143" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>243</v>
+      </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
@@ -6099,45 +6113,20 @@
       <c r="Z143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
-      <c r="F144" s="4"/>
-      <c r="G144" s="4"/>
-      <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144" s="4"/>
-      <c r="L144" s="4"/>
-      <c r="M144" s="4"/>
-      <c r="N144" s="4"/>
-      <c r="O144" s="4"/>
-      <c r="P144" s="4"/>
-      <c r="Q144" s="4"/>
-      <c r="R144" s="4"/>
-      <c r="S144" s="4"/>
-      <c r="T144" s="4"/>
-      <c r="U144" s="4"/>
-      <c r="V144" s="4"/>
-      <c r="W144" s="4"/>
-      <c r="X144" s="4"/>
-      <c r="Y144" s="4"/>
-      <c r="Z144" s="4"/>
+      <c r="A144" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="B144" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="C144" s="34" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -6163,140 +6152,136 @@
       <c r="Z145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
-      <c r="Q146" s="2"/>
-      <c r="R146" s="2"/>
-      <c r="S146" s="2"/>
-      <c r="T146" s="2"/>
-      <c r="U146" s="2"/>
-      <c r="V146" s="2"/>
-      <c r="W146" s="2"/>
-      <c r="X146" s="2"/>
-      <c r="Y146" s="2"/>
-      <c r="Z146" s="2"/>
+      <c r="A146" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
+      <c r="Z146" s="4"/>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="4"/>
-      <c r="P147" s="4"/>
-      <c r="Q147" s="4"/>
-      <c r="R147" s="4"/>
-      <c r="S147" s="4"/>
-      <c r="T147" s="4"/>
-      <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
-      <c r="W147" s="4"/>
-      <c r="X147" s="4"/>
-      <c r="Y147" s="4"/>
-      <c r="Z147" s="4"/>
+      <c r="A147" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2"/>
+      <c r="V147" s="2"/>
+      <c r="W147" s="2"/>
+      <c r="X147" s="2"/>
+      <c r="Y147" s="2"/>
+      <c r="Z147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="B148" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>247</v>
-      </c>
-      <c r="D148" s="11"/>
-      <c r="E148" s="11"/>
-      <c r="F148" s="11"/>
-      <c r="G148" s="11"/>
-      <c r="H148" s="11"/>
-      <c r="I148" s="11"/>
-      <c r="J148" s="11"/>
-      <c r="K148" s="11"/>
-      <c r="L148" s="11"/>
-      <c r="M148" s="11"/>
-      <c r="N148" s="11"/>
-      <c r="O148" s="11"/>
-      <c r="P148" s="11"/>
-      <c r="Q148" s="11"/>
-      <c r="R148" s="11"/>
-      <c r="S148" s="11"/>
-      <c r="T148" s="11"/>
-      <c r="U148" s="11"/>
-      <c r="V148" s="11"/>
-      <c r="W148" s="11"/>
-      <c r="X148" s="11"/>
-      <c r="Y148" s="11"/>
-      <c r="Z148" s="12"/>
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
+      <c r="P148" s="2"/>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="2"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="2"/>
+      <c r="U148" s="2"/>
+      <c r="V148" s="2"/>
+      <c r="W148" s="2"/>
+      <c r="X148" s="2"/>
+      <c r="Y148" s="2"/>
+      <c r="Z148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="16" t="s">
+      <c r="A149" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="B149" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C149" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D149" s="18"/>
-      <c r="E149" s="18"/>
-      <c r="F149" s="18"/>
-      <c r="G149" s="18"/>
-      <c r="H149" s="18"/>
-      <c r="I149" s="18"/>
-      <c r="J149" s="18"/>
-      <c r="K149" s="18"/>
-      <c r="L149" s="18"/>
-      <c r="M149" s="18"/>
-      <c r="N149" s="18"/>
-      <c r="O149" s="18"/>
-      <c r="P149" s="18"/>
-      <c r="Q149" s="18"/>
-      <c r="R149" s="18"/>
-      <c r="S149" s="18"/>
-      <c r="T149" s="18"/>
-      <c r="U149" s="18"/>
-      <c r="V149" s="18"/>
-      <c r="W149" s="18"/>
-      <c r="X149" s="18"/>
-      <c r="Y149" s="18"/>
-      <c r="Z149" s="19"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="4"/>
+      <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
+      <c r="I149" s="4"/>
+      <c r="J149" s="4"/>
+      <c r="K149" s="4"/>
+      <c r="L149" s="4"/>
+      <c r="M149" s="4"/>
+      <c r="N149" s="4"/>
+      <c r="O149" s="4"/>
+      <c r="P149" s="4"/>
+      <c r="Q149" s="4"/>
+      <c r="R149" s="4"/>
+      <c r="S149" s="4"/>
+      <c r="T149" s="4"/>
+      <c r="U149" s="4"/>
+      <c r="V149" s="4"/>
+      <c r="W149" s="4"/>
+      <c r="X149" s="4"/>
+      <c r="Y149" s="4"/>
+      <c r="Z149" s="4"/>
     </row>
     <row r="150">
       <c r="A150" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C150" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C150" s="10" t="s">
-        <v>251</v>
       </c>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
@@ -6323,82 +6308,82 @@
       <c r="Z150" s="12"/>
     </row>
     <row r="151">
-      <c r="A151" s="37" t="s">
+      <c r="A151" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="B151" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="C151" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="B151" s="38" t="s">
-        <v>252</v>
-      </c>
-      <c r="C151" s="38" t="s">
+      <c r="D151" s="18"/>
+      <c r="E151" s="18"/>
+      <c r="F151" s="18"/>
+      <c r="G151" s="18"/>
+      <c r="H151" s="18"/>
+      <c r="I151" s="18"/>
+      <c r="J151" s="18"/>
+      <c r="K151" s="18"/>
+      <c r="L151" s="18"/>
+      <c r="M151" s="18"/>
+      <c r="N151" s="18"/>
+      <c r="O151" s="18"/>
+      <c r="P151" s="18"/>
+      <c r="Q151" s="18"/>
+      <c r="R151" s="18"/>
+      <c r="S151" s="18"/>
+      <c r="T151" s="18"/>
+      <c r="U151" s="18"/>
+      <c r="V151" s="18"/>
+      <c r="W151" s="18"/>
+      <c r="X151" s="18"/>
+      <c r="Y151" s="18"/>
+      <c r="Z151" s="19"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="D151" s="22"/>
-      <c r="E151" s="22"/>
-      <c r="F151" s="22"/>
-      <c r="G151" s="22"/>
-      <c r="H151" s="22"/>
-      <c r="I151" s="22"/>
-      <c r="J151" s="22"/>
-      <c r="K151" s="22"/>
-      <c r="L151" s="22"/>
-      <c r="M151" s="22"/>
-      <c r="N151" s="22"/>
-      <c r="O151" s="22"/>
-      <c r="P151" s="22"/>
-      <c r="Q151" s="22"/>
-      <c r="R151" s="22"/>
-      <c r="S151" s="22"/>
-      <c r="T151" s="22"/>
-      <c r="U151" s="22"/>
-      <c r="V151" s="22"/>
-      <c r="W151" s="22"/>
-      <c r="X151" s="22"/>
-      <c r="Y151" s="22"/>
-      <c r="Z151" s="23"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="37" t="s">
+      <c r="B152" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C152" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="B152" s="38" t="s">
-        <v>254</v>
-      </c>
-      <c r="C152" s="38" t="s">
+      <c r="D152" s="11"/>
+      <c r="E152" s="11"/>
+      <c r="F152" s="11"/>
+      <c r="G152" s="11"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11"/>
+      <c r="L152" s="11"/>
+      <c r="M152" s="11"/>
+      <c r="N152" s="11"/>
+      <c r="O152" s="11"/>
+      <c r="P152" s="11"/>
+      <c r="Q152" s="11"/>
+      <c r="R152" s="11"/>
+      <c r="S152" s="11"/>
+      <c r="T152" s="11"/>
+      <c r="U152" s="11"/>
+      <c r="V152" s="11"/>
+      <c r="W152" s="11"/>
+      <c r="X152" s="11"/>
+      <c r="Y152" s="11"/>
+      <c r="Z152" s="12"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="D152" s="22"/>
-      <c r="E152" s="22"/>
-      <c r="F152" s="22"/>
-      <c r="G152" s="22"/>
-      <c r="H152" s="22"/>
-      <c r="I152" s="22"/>
-      <c r="J152" s="22"/>
-      <c r="K152" s="22"/>
-      <c r="L152" s="22"/>
-      <c r="M152" s="22"/>
-      <c r="N152" s="22"/>
-      <c r="O152" s="22"/>
-      <c r="P152" s="22"/>
-      <c r="Q152" s="22"/>
-      <c r="R152" s="22"/>
-      <c r="S152" s="22"/>
-      <c r="T152" s="22"/>
-      <c r="U152" s="22"/>
-      <c r="V152" s="22"/>
-      <c r="W152" s="22"/>
-      <c r="X152" s="22"/>
-      <c r="Y152" s="22"/>
-      <c r="Z152" s="23"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="37" t="s">
+      <c r="B153" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="C153" s="36" t="s">
         <v>256</v>
-      </c>
-      <c r="B153" s="38" t="s">
-        <v>256</v>
-      </c>
-      <c r="C153" s="38" t="s">
-        <v>257</v>
       </c>
       <c r="D153" s="22"/>
       <c r="E153" s="22"/>
@@ -6425,14 +6410,14 @@
       <c r="Z153" s="23"/>
     </row>
     <row r="154">
-      <c r="A154" s="37" t="s">
+      <c r="A154" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="B154" s="36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C154" s="36" t="s">
         <v>258</v>
-      </c>
-      <c r="B154" s="38" t="s">
-        <v>258</v>
-      </c>
-      <c r="C154" s="38" t="s">
-        <v>259</v>
       </c>
       <c r="D154" s="22"/>
       <c r="E154" s="22"/>
@@ -6459,184 +6444,184 @@
       <c r="Z154" s="23"/>
     </row>
     <row r="155">
-      <c r="A155" s="39" t="s">
+      <c r="A155" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="B155" s="36" t="s">
+        <v>259</v>
+      </c>
+      <c r="C155" s="36" t="s">
         <v>260</v>
       </c>
-      <c r="B155" s="40" t="s">
+      <c r="D155" s="22"/>
+      <c r="E155" s="22"/>
+      <c r="F155" s="22"/>
+      <c r="G155" s="22"/>
+      <c r="H155" s="22"/>
+      <c r="I155" s="22"/>
+      <c r="J155" s="22"/>
+      <c r="K155" s="22"/>
+      <c r="L155" s="22"/>
+      <c r="M155" s="22"/>
+      <c r="N155" s="22"/>
+      <c r="O155" s="22"/>
+      <c r="P155" s="22"/>
+      <c r="Q155" s="22"/>
+      <c r="R155" s="22"/>
+      <c r="S155" s="22"/>
+      <c r="T155" s="22"/>
+      <c r="U155" s="22"/>
+      <c r="V155" s="22"/>
+      <c r="W155" s="22"/>
+      <c r="X155" s="22"/>
+      <c r="Y155" s="22"/>
+      <c r="Z155" s="23"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="35" t="s">
         <v>261</v>
       </c>
-      <c r="C155" s="40" t="s">
+      <c r="B156" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="D155" s="41"/>
-      <c r="E155" s="41"/>
-      <c r="F155" s="41"/>
-      <c r="G155" s="41"/>
-      <c r="H155" s="41"/>
-      <c r="I155" s="41"/>
-      <c r="J155" s="41"/>
-      <c r="K155" s="41"/>
-      <c r="L155" s="41"/>
-      <c r="M155" s="41"/>
-      <c r="N155" s="41"/>
-      <c r="O155" s="41"/>
-      <c r="P155" s="41"/>
-      <c r="Q155" s="41"/>
-      <c r="R155" s="41"/>
-      <c r="S155" s="41"/>
-      <c r="T155" s="41"/>
-      <c r="U155" s="41"/>
-      <c r="V155" s="41"/>
-      <c r="W155" s="41"/>
-      <c r="X155" s="41"/>
-      <c r="Y155" s="41"/>
-      <c r="Z155" s="42"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="8" t="s">
+      <c r="C156" s="36" t="s">
         <v>262</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="D156" s="22"/>
+      <c r="E156" s="22"/>
+      <c r="F156" s="22"/>
+      <c r="G156" s="22"/>
+      <c r="H156" s="22"/>
+      <c r="I156" s="22"/>
+      <c r="J156" s="22"/>
+      <c r="K156" s="22"/>
+      <c r="L156" s="22"/>
+      <c r="M156" s="22"/>
+      <c r="N156" s="22"/>
+      <c r="O156" s="22"/>
+      <c r="P156" s="22"/>
+      <c r="Q156" s="22"/>
+      <c r="R156" s="22"/>
+      <c r="S156" s="22"/>
+      <c r="T156" s="22"/>
+      <c r="U156" s="22"/>
+      <c r="V156" s="22"/>
+      <c r="W156" s="22"/>
+      <c r="X156" s="22"/>
+      <c r="Y156" s="22"/>
+      <c r="Z156" s="23"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="B157" s="38" t="s">
         <v>264</v>
       </c>
-      <c r="D156" s="11"/>
-      <c r="E156" s="11"/>
-      <c r="F156" s="11"/>
-      <c r="G156" s="11"/>
-      <c r="H156" s="11"/>
-      <c r="I156" s="11"/>
-      <c r="J156" s="11"/>
-      <c r="K156" s="11"/>
-      <c r="L156" s="11"/>
-      <c r="M156" s="11"/>
-      <c r="N156" s="11"/>
-      <c r="O156" s="11"/>
-      <c r="P156" s="11"/>
-      <c r="Q156" s="11"/>
-      <c r="R156" s="11"/>
-      <c r="S156" s="11"/>
-      <c r="T156" s="11"/>
-      <c r="U156" s="11"/>
-      <c r="V156" s="11"/>
-      <c r="W156" s="11"/>
-      <c r="X156" s="11"/>
-      <c r="Y156" s="11"/>
-      <c r="Z156" s="12"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="15" t="s">
+      <c r="C157" s="38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D157" s="39"/>
+      <c r="E157" s="39"/>
+      <c r="F157" s="39"/>
+      <c r="G157" s="39"/>
+      <c r="H157" s="39"/>
+      <c r="I157" s="39"/>
+      <c r="J157" s="39"/>
+      <c r="K157" s="39"/>
+      <c r="L157" s="39"/>
+      <c r="M157" s="39"/>
+      <c r="N157" s="39"/>
+      <c r="O157" s="39"/>
+      <c r="P157" s="39"/>
+      <c r="Q157" s="39"/>
+      <c r="R157" s="39"/>
+      <c r="S157" s="39"/>
+      <c r="T157" s="39"/>
+      <c r="U157" s="39"/>
+      <c r="V157" s="39"/>
+      <c r="W157" s="39"/>
+      <c r="X157" s="39"/>
+      <c r="Y157" s="39"/>
+      <c r="Z157" s="40"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C157" s="1" t="s">
+      <c r="B158" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D157" s="2"/>
-      <c r="E157" s="2"/>
-      <c r="F157" s="2"/>
-      <c r="G157" s="2"/>
-      <c r="H157" s="2"/>
-      <c r="I157" s="2"/>
-      <c r="J157" s="2"/>
-      <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
-      <c r="N157" s="2"/>
-      <c r="O157" s="2"/>
-      <c r="P157" s="2"/>
-      <c r="Q157" s="2"/>
-      <c r="R157" s="2"/>
-      <c r="S157" s="2"/>
-      <c r="T157" s="2"/>
-      <c r="U157" s="2"/>
-      <c r="V157" s="2"/>
-      <c r="W157" s="2"/>
-      <c r="X157" s="2"/>
-      <c r="Y157" s="2"/>
-      <c r="Z157" s="14"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="15" t="s">
+      <c r="C158" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="D158" s="11"/>
+      <c r="E158" s="11"/>
+      <c r="F158" s="11"/>
+      <c r="G158" s="11"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="11"/>
+      <c r="L158" s="11"/>
+      <c r="M158" s="11"/>
+      <c r="N158" s="11"/>
+      <c r="O158" s="11"/>
+      <c r="P158" s="11"/>
+      <c r="Q158" s="11"/>
+      <c r="R158" s="11"/>
+      <c r="S158" s="11"/>
+      <c r="T158" s="11"/>
+      <c r="U158" s="11"/>
+      <c r="V158" s="11"/>
+      <c r="W158" s="11"/>
+      <c r="X158" s="11"/>
+      <c r="Y158" s="11"/>
+      <c r="Z158" s="12"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="15" t="s">
         <v>268</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="B159" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C159" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D158" s="2"/>
-      <c r="E158" s="2"/>
-      <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
-      <c r="H158" s="2"/>
-      <c r="I158" s="2"/>
-      <c r="J158" s="2"/>
-      <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
-      <c r="N158" s="2"/>
-      <c r="O158" s="2"/>
-      <c r="P158" s="2"/>
-      <c r="Q158" s="2"/>
-      <c r="R158" s="2"/>
-      <c r="S158" s="2"/>
-      <c r="T158" s="2"/>
-      <c r="U158" s="2"/>
-      <c r="V158" s="2"/>
-      <c r="W158" s="2"/>
-      <c r="X158" s="2"/>
-      <c r="Y158" s="2"/>
-      <c r="Z158" s="14"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="B159" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="D159" s="11"/>
-      <c r="E159" s="11"/>
-      <c r="F159" s="11"/>
-      <c r="G159" s="11"/>
-      <c r="H159" s="11"/>
-      <c r="I159" s="11"/>
-      <c r="J159" s="11"/>
-      <c r="K159" s="11"/>
-      <c r="L159" s="11"/>
-      <c r="M159" s="11"/>
-      <c r="N159" s="11"/>
-      <c r="O159" s="11"/>
-      <c r="P159" s="11"/>
-      <c r="Q159" s="11"/>
-      <c r="R159" s="11"/>
-      <c r="S159" s="11"/>
-      <c r="T159" s="11"/>
-      <c r="U159" s="11"/>
-      <c r="V159" s="11"/>
-      <c r="W159" s="11"/>
-      <c r="X159" s="11"/>
-      <c r="Y159" s="11"/>
-      <c r="Z159" s="12"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2"/>
+      <c r="K159" s="2"/>
+      <c r="L159" s="2"/>
+      <c r="M159" s="2"/>
+      <c r="N159" s="2"/>
+      <c r="O159" s="2"/>
+      <c r="P159" s="2"/>
+      <c r="Q159" s="2"/>
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2"/>
+      <c r="V159" s="2"/>
+      <c r="W159" s="2"/>
+      <c r="X159" s="2"/>
+      <c r="Y159" s="2"/>
+      <c r="Z159" s="14"/>
     </row>
     <row r="160">
       <c r="A160" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>272</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>273</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6663,77 +6648,83 @@
       <c r="Z160" s="14"/>
     </row>
     <row r="161">
-      <c r="A161" s="15" t="s">
+      <c r="A161" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="C161" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C161" s="1" t="s">
+      <c r="D161" s="11"/>
+      <c r="E161" s="11"/>
+      <c r="F161" s="11"/>
+      <c r="G161" s="11"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="11"/>
+      <c r="L161" s="11"/>
+      <c r="M161" s="11"/>
+      <c r="N161" s="11"/>
+      <c r="O161" s="11"/>
+      <c r="P161" s="11"/>
+      <c r="Q161" s="11"/>
+      <c r="R161" s="11"/>
+      <c r="S161" s="11"/>
+      <c r="T161" s="11"/>
+      <c r="U161" s="11"/>
+      <c r="V161" s="11"/>
+      <c r="W161" s="11"/>
+      <c r="X161" s="11"/>
+      <c r="Y161" s="11"/>
+      <c r="Z161" s="12"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
-      <c r="Q161" s="2"/>
-      <c r="R161" s="2"/>
-      <c r="S161" s="2"/>
-      <c r="T161" s="2"/>
-      <c r="U161" s="2"/>
-      <c r="V161" s="2"/>
-      <c r="W161" s="2"/>
-      <c r="X161" s="2"/>
-      <c r="Y161" s="2"/>
-      <c r="Z161" s="14"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="16" t="s">
+      <c r="B162" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C162" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B162" s="17" t="s">
-        <v>276</v>
-      </c>
-      <c r="C162" s="17" t="s">
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2"/>
+      <c r="V162" s="2"/>
+      <c r="W162" s="2"/>
+      <c r="X162" s="2"/>
+      <c r="Y162" s="2"/>
+      <c r="Z162" s="14"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="15" t="s">
         <v>277</v>
       </c>
-      <c r="D162" s="18"/>
-      <c r="E162" s="18"/>
-      <c r="F162" s="18"/>
-      <c r="G162" s="18"/>
-      <c r="H162" s="18"/>
-      <c r="I162" s="18"/>
-      <c r="J162" s="18"/>
-      <c r="K162" s="18"/>
-      <c r="L162" s="18"/>
-      <c r="M162" s="18"/>
-      <c r="N162" s="18"/>
-      <c r="O162" s="18"/>
-      <c r="P162" s="18"/>
-      <c r="Q162" s="18"/>
-      <c r="R162" s="18"/>
-      <c r="S162" s="18"/>
-      <c r="T162" s="18"/>
-      <c r="U162" s="18"/>
-      <c r="V162" s="18"/>
-      <c r="W162" s="18"/>
-      <c r="X162" s="18"/>
-      <c r="Y162" s="18"/>
-      <c r="Z162" s="19"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1"/>
-      <c r="B163" s="1"/>
-      <c r="C163" s="1"/>
+      <c r="B163" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>278</v>
+      </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
       <c r="F163" s="2"/>
@@ -6756,48 +6747,46 @@
       <c r="W163" s="2"/>
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
-      <c r="Z163" s="2"/>
+      <c r="Z163" s="14"/>
     </row>
     <row r="164">
-      <c r="A164" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="B164" s="3"/>
-      <c r="C164" s="3"/>
-      <c r="D164" s="4"/>
-      <c r="E164" s="4"/>
-      <c r="F164" s="4"/>
-      <c r="G164" s="4"/>
-      <c r="H164" s="4"/>
-      <c r="I164" s="4"/>
-      <c r="J164" s="4"/>
-      <c r="K164" s="4"/>
-      <c r="L164" s="4"/>
-      <c r="M164" s="4"/>
-      <c r="N164" s="4"/>
-      <c r="O164" s="4"/>
-      <c r="P164" s="4"/>
-      <c r="Q164" s="4"/>
-      <c r="R164" s="4"/>
-      <c r="S164" s="4"/>
-      <c r="T164" s="4"/>
-      <c r="U164" s="4"/>
-      <c r="V164" s="4"/>
-      <c r="W164" s="4"/>
-      <c r="X164" s="4"/>
-      <c r="Y164" s="4"/>
-      <c r="Z164" s="4"/>
+      <c r="A164" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B164" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="C164" s="17" t="s">
+        <v>280</v>
+      </c>
+      <c r="D164" s="18"/>
+      <c r="E164" s="18"/>
+      <c r="F164" s="18"/>
+      <c r="G164" s="18"/>
+      <c r="H164" s="18"/>
+      <c r="I164" s="18"/>
+      <c r="J164" s="18"/>
+      <c r="K164" s="18"/>
+      <c r="L164" s="18"/>
+      <c r="M164" s="18"/>
+      <c r="N164" s="18"/>
+      <c r="O164" s="18"/>
+      <c r="P164" s="18"/>
+      <c r="Q164" s="18"/>
+      <c r="R164" s="18"/>
+      <c r="S164" s="18"/>
+      <c r="T164" s="18"/>
+      <c r="U164" s="18"/>
+      <c r="V164" s="18"/>
+      <c r="W164" s="18"/>
+      <c r="X164" s="18"/>
+      <c r="Y164" s="18"/>
+      <c r="Z164" s="19"/>
     </row>
     <row r="165">
-      <c r="A165" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>280</v>
-      </c>
+      <c r="A165" s="1"/>
+      <c r="B165" s="1"/>
+      <c r="C165" s="1"/>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
       <c r="F165" s="2"/>
@@ -6823,48 +6812,44 @@
       <c r="Z165" s="2"/>
     </row>
     <row r="166">
-      <c r="A166" s="1" t="s">
+      <c r="A166" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="2"/>
-      <c r="U166" s="2"/>
-      <c r="V166" s="2"/>
-      <c r="W166" s="2"/>
-      <c r="X166" s="2"/>
-      <c r="Y166" s="2"/>
-      <c r="Z166" s="2"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
+      <c r="I166" s="4"/>
+      <c r="J166" s="4"/>
+      <c r="K166" s="4"/>
+      <c r="L166" s="4"/>
+      <c r="M166" s="4"/>
+      <c r="N166" s="4"/>
+      <c r="O166" s="4"/>
+      <c r="P166" s="4"/>
+      <c r="Q166" s="4"/>
+      <c r="R166" s="4"/>
+      <c r="S166" s="4"/>
+      <c r="T166" s="4"/>
+      <c r="U166" s="4"/>
+      <c r="V166" s="4"/>
+      <c r="W166" s="4"/>
+      <c r="X166" s="4"/>
+      <c r="Y166" s="4"/>
+      <c r="Z166" s="4"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C167" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>284</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
@@ -6892,13 +6877,13 @@
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C168" s="1" t="s">
         <v>285</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -6925,9 +6910,15 @@
       <c r="Z168" s="2"/>
     </row>
     <row r="169">
-      <c r="A169" s="1"/>
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
+      <c r="A169" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C169" s="1" t="s">
+        <v>287</v>
+      </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
       <c r="F169" s="2"/>
@@ -6953,45 +6944,43 @@
       <c r="Z169" s="2"/>
     </row>
     <row r="170">
-      <c r="A170" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
-      <c r="D170" s="4"/>
-      <c r="E170" s="4"/>
-      <c r="F170" s="4"/>
-      <c r="G170" s="4"/>
-      <c r="H170" s="4"/>
-      <c r="I170" s="4"/>
-      <c r="J170" s="4"/>
-      <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
-      <c r="M170" s="4"/>
-      <c r="N170" s="4"/>
-      <c r="O170" s="4"/>
-      <c r="P170" s="4"/>
-      <c r="Q170" s="4"/>
-      <c r="R170" s="4"/>
-      <c r="S170" s="4"/>
-      <c r="T170" s="4"/>
-      <c r="U170" s="4"/>
-      <c r="V170" s="4"/>
-      <c r="W170" s="4"/>
-      <c r="X170" s="4"/>
-      <c r="Y170" s="4"/>
-      <c r="Z170" s="4"/>
+      <c r="A170" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="2"/>
+      <c r="M170" s="2"/>
+      <c r="N170" s="2"/>
+      <c r="O170" s="2"/>
+      <c r="P170" s="2"/>
+      <c r="Q170" s="2"/>
+      <c r="R170" s="2"/>
+      <c r="S170" s="2"/>
+      <c r="T170" s="2"/>
+      <c r="U170" s="2"/>
+      <c r="V170" s="2"/>
+      <c r="W170" s="2"/>
+      <c r="X170" s="2"/>
+      <c r="Y170" s="2"/>
+      <c r="Z170" s="2"/>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="A171" s="1"/>
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -7017,73 +7006,73 @@
       <c r="Z171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="1"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-      <c r="D172" s="2"/>
-      <c r="E172" s="2"/>
-      <c r="F172" s="2"/>
-      <c r="G172" s="2"/>
-      <c r="H172" s="2"/>
-      <c r="I172" s="2"/>
-      <c r="J172" s="2"/>
-      <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
-      <c r="N172" s="2"/>
-      <c r="O172" s="2"/>
-      <c r="P172" s="2"/>
-      <c r="Q172" s="2"/>
-      <c r="R172" s="2"/>
-      <c r="S172" s="2"/>
-      <c r="T172" s="2"/>
-      <c r="U172" s="2"/>
-      <c r="V172" s="2"/>
-      <c r="W172" s="2"/>
-      <c r="X172" s="2"/>
-      <c r="Y172" s="2"/>
-      <c r="Z172" s="2"/>
+      <c r="A172" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
+      <c r="I172" s="4"/>
+      <c r="J172" s="4"/>
+      <c r="K172" s="4"/>
+      <c r="L172" s="4"/>
+      <c r="M172" s="4"/>
+      <c r="N172" s="4"/>
+      <c r="O172" s="4"/>
+      <c r="P172" s="4"/>
+      <c r="Q172" s="4"/>
+      <c r="R172" s="4"/>
+      <c r="S172" s="4"/>
+      <c r="T172" s="4"/>
+      <c r="U172" s="4"/>
+      <c r="V172" s="4"/>
+      <c r="W172" s="4"/>
+      <c r="X172" s="4"/>
+      <c r="Y172" s="4"/>
+      <c r="Z172" s="4"/>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-      <c r="M173" s="4"/>
-      <c r="N173" s="4"/>
-      <c r="O173" s="4"/>
-      <c r="P173" s="4"/>
-      <c r="Q173" s="4"/>
-      <c r="R173" s="4"/>
-      <c r="S173" s="4"/>
-      <c r="T173" s="4"/>
-      <c r="U173" s="4"/>
-      <c r="V173" s="4"/>
-      <c r="W173" s="4"/>
-      <c r="X173" s="4"/>
-      <c r="Y173" s="4"/>
-      <c r="Z173" s="4"/>
+      <c r="A173" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+      <c r="U173" s="2"/>
+      <c r="V173" s="2"/>
+      <c r="W173" s="2"/>
+      <c r="X173" s="2"/>
+      <c r="Y173" s="2"/>
+      <c r="Z173" s="2"/>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="A174" s="1"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -7109,48 +7098,44 @@
       <c r="Z174" s="2"/>
     </row>
     <row r="175">
-      <c r="A175" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D175" s="2"/>
-      <c r="E175" s="2"/>
-      <c r="F175" s="2"/>
-      <c r="G175" s="2"/>
-      <c r="H175" s="2"/>
-      <c r="I175" s="2"/>
-      <c r="J175" s="2"/>
-      <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
-      <c r="N175" s="2"/>
-      <c r="O175" s="2"/>
-      <c r="P175" s="2"/>
-      <c r="Q175" s="2"/>
-      <c r="R175" s="2"/>
-      <c r="S175" s="2"/>
-      <c r="T175" s="2"/>
-      <c r="U175" s="2"/>
-      <c r="V175" s="2"/>
-      <c r="W175" s="2"/>
-      <c r="X175" s="2"/>
-      <c r="Y175" s="2"/>
-      <c r="Z175" s="2"/>
+      <c r="A175" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
+      <c r="I175" s="4"/>
+      <c r="J175" s="4"/>
+      <c r="K175" s="4"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="4"/>
+      <c r="N175" s="4"/>
+      <c r="O175" s="4"/>
+      <c r="P175" s="4"/>
+      <c r="Q175" s="4"/>
+      <c r="R175" s="4"/>
+      <c r="S175" s="4"/>
+      <c r="T175" s="4"/>
+      <c r="U175" s="4"/>
+      <c r="V175" s="4"/>
+      <c r="W175" s="4"/>
+      <c r="X175" s="4"/>
+      <c r="Y175" s="4"/>
+      <c r="Z175" s="4"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -7178,13 +7163,13 @@
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -7212,13 +7197,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -7246,13 +7231,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C179" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>306</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -7280,13 +7265,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C180" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>309</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -7314,13 +7299,13 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -7348,13 +7333,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -7382,13 +7367,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7415,9 +7400,15 @@
       <c r="Z183" s="2"/>
     </row>
     <row r="184">
-      <c r="A184" s="2"/>
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
+      <c r="A184" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C184" s="1" t="s">
+        <v>318</v>
+      </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
       <c r="F184" s="2"/>
@@ -7443,9 +7434,15 @@
       <c r="Z184" s="2"/>
     </row>
     <row r="185">
-      <c r="A185" s="2"/>
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
+      <c r="A185" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
@@ -34518,6 +34515,62 @@
       <c r="Y1151" s="2"/>
       <c r="Z1151" s="2"/>
     </row>
+    <row r="1152">
+      <c r="A1152" s="2"/>
+      <c r="B1152" s="2"/>
+      <c r="C1152" s="2"/>
+      <c r="D1152" s="2"/>
+      <c r="E1152" s="2"/>
+      <c r="F1152" s="2"/>
+      <c r="G1152" s="2"/>
+      <c r="H1152" s="2"/>
+      <c r="I1152" s="2"/>
+      <c r="J1152" s="2"/>
+      <c r="K1152" s="2"/>
+      <c r="L1152" s="2"/>
+      <c r="M1152" s="2"/>
+      <c r="N1152" s="2"/>
+      <c r="O1152" s="2"/>
+      <c r="P1152" s="2"/>
+      <c r="Q1152" s="2"/>
+      <c r="R1152" s="2"/>
+      <c r="S1152" s="2"/>
+      <c r="T1152" s="2"/>
+      <c r="U1152" s="2"/>
+      <c r="V1152" s="2"/>
+      <c r="W1152" s="2"/>
+      <c r="X1152" s="2"/>
+      <c r="Y1152" s="2"/>
+      <c r="Z1152" s="2"/>
+    </row>
+    <row r="1153">
+      <c r="A1153" s="2"/>
+      <c r="B1153" s="2"/>
+      <c r="C1153" s="2"/>
+      <c r="D1153" s="2"/>
+      <c r="E1153" s="2"/>
+      <c r="F1153" s="2"/>
+      <c r="G1153" s="2"/>
+      <c r="H1153" s="2"/>
+      <c r="I1153" s="2"/>
+      <c r="J1153" s="2"/>
+      <c r="K1153" s="2"/>
+      <c r="L1153" s="2"/>
+      <c r="M1153" s="2"/>
+      <c r="N1153" s="2"/>
+      <c r="O1153" s="2"/>
+      <c r="P1153" s="2"/>
+      <c r="Q1153" s="2"/>
+      <c r="R1153" s="2"/>
+      <c r="S1153" s="2"/>
+      <c r="T1153" s="2"/>
+      <c r="U1153" s="2"/>
+      <c r="V1153" s="2"/>
+      <c r="W1153" s="2"/>
+      <c r="X1153" s="2"/>
+      <c r="Y1153" s="2"/>
+      <c r="Z1153" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="324">
   <si>
     <t>ID</t>
   </si>
@@ -59,6 +59,12 @@
   </si>
   <si>
     <t>一次性代碼</t>
+  </si>
+  <si>
+    <t>RESEND</t>
+  </si>
+  <si>
+    <t>重發</t>
   </si>
   <si>
     <t>SEND CODE</t>
@@ -983,7 +989,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1000,6 +1006,10 @@
       <sz val="10.0"/>
       <color rgb="FF1F1F1F"/>
       <name val="&quot;Google Sans&quot;"/>
+    </font>
+    <font>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -1111,7 +1121,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1134,6 +1144,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1172,26 +1185,26 @@
     <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="4" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -1206,31 +1219,31 @@
     <xf borderId="0" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1692,7 +1705,7 @@
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -1757,7 +1770,7 @@
       <c r="Z9" s="6"/>
     </row>
     <row r="10">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1859,7 +1872,7 @@
       <c r="Z12" s="6"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1893,7 +1906,7 @@
       <c r="Z13" s="6"/>
     </row>
     <row r="14">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1927,7 +1940,7 @@
       <c r="Z14" s="6"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -2029,106 +2042,106 @@
       <c r="Z17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
+      <c r="V18" s="6"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+      <c r="T20" s="6"/>
+      <c r="U20" s="6"/>
+      <c r="V20" s="6"/>
+      <c r="W20" s="6"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
@@ -2202,7 +2215,7 @@
       <c r="A23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -2236,7 +2249,7 @@
       <c r="A24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -2406,7 +2419,7 @@
       <c r="A29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -2505,75 +2518,75 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="12"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
     </row>
     <row r="33">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2"/>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
-      <c r="V33" s="2"/>
-      <c r="W33" s="2"/>
-      <c r="X33" s="2"/>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="14"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="12"/>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
+      <c r="X33" s="12"/>
+      <c r="Y33" s="12"/>
+      <c r="Z33" s="13"/>
     </row>
     <row r="34">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>68</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -2604,78 +2617,78 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-      <c r="Z34" s="14"/>
+      <c r="Z34" s="15"/>
     </row>
     <row r="35">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="B35" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C35" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="12"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="15"/>
     </row>
     <row r="36">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
-      <c r="S36" s="2"/>
-      <c r="T36" s="2"/>
-      <c r="U36" s="2"/>
-      <c r="V36" s="2"/>
-      <c r="W36" s="2"/>
-      <c r="X36" s="2"/>
-      <c r="Y36" s="2"/>
-      <c r="Z36" s="14"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="12"/>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
+      <c r="X36" s="12"/>
+      <c r="Y36" s="12"/>
+      <c r="Z36" s="13"/>
     </row>
     <row r="37">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>74</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2706,10 +2719,10 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
-      <c r="Z37" s="14"/>
+      <c r="Z37" s="15"/>
     </row>
     <row r="38">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="16" t="s">
         <v>76</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -2740,85 +2753,85 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="14"/>
+      <c r="Z38" s="15"/>
     </row>
     <row r="39">
       <c r="A39" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
-      <c r="W39" s="18"/>
-      <c r="X39" s="18"/>
-      <c r="Y39" s="18"/>
-      <c r="Z39" s="19"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="15"/>
     </row>
     <row r="40">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
-      <c r="W40" s="2"/>
-      <c r="X40" s="2"/>
-      <c r="Y40" s="2"/>
-      <c r="Z40" s="14"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="19"/>
+      <c r="P40" s="19"/>
+      <c r="Q40" s="19"/>
+      <c r="R40" s="19"/>
+      <c r="S40" s="19"/>
+      <c r="T40" s="19"/>
+      <c r="U40" s="19"/>
+      <c r="V40" s="19"/>
+      <c r="W40" s="19"/>
+      <c r="X40" s="19"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="20"/>
     </row>
     <row r="41">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="16" t="s">
         <v>82</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2842,14 +2855,14 @@
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
-      <c r="Z41" s="14"/>
+      <c r="Z41" s="15"/>
     </row>
     <row r="42">
-      <c r="A42" s="15" t="s">
-        <v>83</v>
+      <c r="A42" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>75</v>
@@ -2876,17 +2889,17 @@
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
-      <c r="Z42" s="14"/>
+      <c r="Z42" s="15"/>
     </row>
     <row r="43">
-      <c r="A43" s="15" t="s">
-        <v>84</v>
+      <c r="A43" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -2910,10 +2923,10 @@
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
-      <c r="Z43" s="14"/>
+      <c r="Z43" s="15"/>
     </row>
     <row r="44">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="16" t="s">
         <v>86</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -2944,75 +2957,75 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
-      <c r="Z44" s="14"/>
+      <c r="Z44" s="15"/>
     </row>
     <row r="45">
       <c r="A45" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="17" t="s">
+      <c r="B45" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C45" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="19"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="15"/>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-      <c r="V46" s="2"/>
-      <c r="W46" s="2"/>
-      <c r="X46" s="2"/>
-      <c r="Y46" s="2"/>
-      <c r="Z46" s="2"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="19"/>
+      <c r="F46" s="19"/>
+      <c r="G46" s="19"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="19"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="19"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="19"/>
+      <c r="R46" s="19"/>
+      <c r="S46" s="19"/>
+      <c r="T46" s="19"/>
+      <c r="U46" s="19"/>
+      <c r="V46" s="19"/>
+      <c r="W46" s="19"/>
+      <c r="X46" s="19"/>
+      <c r="Y46" s="19"/>
+      <c r="Z46" s="20"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
@@ -3058,6 +3071,29 @@
       <c r="C48" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
@@ -3071,162 +3107,139 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="20" t="s">
+      <c r="A50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="23"/>
     </row>
     <row r="51">
-      <c r="A51" s="24" t="s">
+      <c r="A51" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="23"/>
+      <c r="C51" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="24"/>
     </row>
     <row r="52">
-      <c r="A52" s="15" t="s">
+      <c r="A52" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="23"/>
+      <c r="Z52" s="24"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z53" s="26"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="24"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z52" s="25"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="B53" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="22"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="22"/>
-      <c r="S53" s="22"/>
-      <c r="T53" s="22"/>
-      <c r="U53" s="22"/>
-      <c r="V53" s="22"/>
-      <c r="W53" s="22"/>
-      <c r="X53" s="22"/>
-      <c r="Y53" s="22"/>
-      <c r="Z53" s="23"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-      <c r="J54" s="2"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-      <c r="Y54" s="2"/>
-      <c r="Z54" s="14"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
@@ -3250,17 +3263,17 @@
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
-      <c r="Z55" s="14"/>
+      <c r="Z55" s="15"/>
     </row>
     <row r="56">
-      <c r="A56" s="15" t="s">
+      <c r="A56" s="16" t="s">
         <v>107</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -3284,485 +3297,485 @@
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
-      <c r="Z56" s="14"/>
+      <c r="Z56" s="15"/>
     </row>
     <row r="57">
-      <c r="A57" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="10" t="s">
+      <c r="A57" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
-      <c r="Q57" s="11"/>
-      <c r="R57" s="11"/>
-      <c r="S57" s="11"/>
-      <c r="T57" s="11"/>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
-      <c r="X57" s="11"/>
-      <c r="Y57" s="11"/>
-      <c r="Z57" s="12"/>
+      <c r="B57" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="15"/>
     </row>
     <row r="58">
-      <c r="A58" s="15" t="s">
+      <c r="A58" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
-      <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-      <c r="V58" s="2"/>
-      <c r="W58" s="2"/>
-      <c r="X58" s="2"/>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="14"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="13"/>
     </row>
     <row r="59">
-      <c r="A59" s="20" t="s">
+      <c r="A59" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="B59" s="21" t="s">
+      <c r="B59" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="21" t="s">
+      <c r="C59" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
-      <c r="V59" s="22"/>
-      <c r="W59" s="22"/>
-      <c r="X59" s="22"/>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="23"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="15"/>
     </row>
     <row r="60">
-      <c r="A60" s="20" t="s">
+      <c r="A60" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B60" s="21" t="s">
+      <c r="B60" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="22"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="22"/>
-      <c r="S60" s="22"/>
-      <c r="T60" s="22"/>
-      <c r="U60" s="22"/>
-      <c r="V60" s="22"/>
-      <c r="W60" s="22"/>
-      <c r="X60" s="22"/>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="23"/>
+      <c r="L60" s="23"/>
+      <c r="M60" s="23"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="23"/>
+      <c r="S60" s="23"/>
+      <c r="T60" s="23"/>
+      <c r="U60" s="23"/>
+      <c r="V60" s="23"/>
+      <c r="W60" s="23"/>
+      <c r="X60" s="23"/>
+      <c r="Y60" s="23"/>
+      <c r="Z60" s="24"/>
     </row>
     <row r="61">
-      <c r="A61" s="20" t="s">
+      <c r="A61" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="B61" s="21" t="s">
+      <c r="B61" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="21" t="s">
+      <c r="C61" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
-      <c r="P61" s="22"/>
-      <c r="Q61" s="22"/>
-      <c r="R61" s="22"/>
-      <c r="S61" s="22"/>
-      <c r="T61" s="22"/>
-      <c r="U61" s="22"/>
-      <c r="V61" s="22"/>
-      <c r="W61" s="22"/>
-      <c r="X61" s="22"/>
-      <c r="Y61" s="22"/>
-      <c r="Z61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="23"/>
+      <c r="L61" s="23"/>
+      <c r="M61" s="23"/>
+      <c r="N61" s="23"/>
+      <c r="O61" s="23"/>
+      <c r="P61" s="23"/>
+      <c r="Q61" s="23"/>
+      <c r="R61" s="23"/>
+      <c r="S61" s="23"/>
+      <c r="T61" s="23"/>
+      <c r="U61" s="23"/>
+      <c r="V61" s="23"/>
+      <c r="W61" s="23"/>
+      <c r="X61" s="23"/>
+      <c r="Y61" s="23"/>
+      <c r="Z61" s="24"/>
     </row>
     <row r="62">
-      <c r="A62" s="20" t="s">
+      <c r="A62" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C62" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="22"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="22"/>
-      <c r="S62" s="22"/>
-      <c r="T62" s="22"/>
-      <c r="U62" s="22"/>
-      <c r="V62" s="22"/>
-      <c r="W62" s="22"/>
-      <c r="X62" s="22"/>
-      <c r="Y62" s="22"/>
-      <c r="Z62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="23"/>
+      <c r="L62" s="23"/>
+      <c r="M62" s="23"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="23"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="23"/>
+      <c r="S62" s="23"/>
+      <c r="T62" s="23"/>
+      <c r="U62" s="23"/>
+      <c r="V62" s="23"/>
+      <c r="W62" s="23"/>
+      <c r="X62" s="23"/>
+      <c r="Y62" s="23"/>
+      <c r="Z62" s="24"/>
     </row>
     <row r="63">
-      <c r="A63" s="26" t="s">
+      <c r="A63" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="B63" s="27" t="s">
+      <c r="B63" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="C63" s="27" t="s">
+      <c r="C63" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="22"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="22"/>
-      <c r="S63" s="22"/>
-      <c r="T63" s="22"/>
-      <c r="U63" s="22"/>
-      <c r="V63" s="22"/>
-      <c r="W63" s="22"/>
-      <c r="X63" s="22"/>
-      <c r="Y63" s="22"/>
-      <c r="Z63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="23"/>
+      <c r="W63" s="23"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="23"/>
+      <c r="Z63" s="24"/>
     </row>
     <row r="64">
-      <c r="A64" s="26" t="s">
+      <c r="A64" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="27" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="22"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="22"/>
-      <c r="S64" s="22"/>
-      <c r="T64" s="22"/>
-      <c r="U64" s="22"/>
-      <c r="V64" s="22"/>
-      <c r="W64" s="22"/>
-      <c r="X64" s="22"/>
-      <c r="Y64" s="22"/>
-      <c r="Z64" s="23"/>
+      <c r="C64" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D64" s="23"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="23"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="23"/>
+      <c r="Z64" s="24"/>
     </row>
     <row r="65">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="Z65" s="25"/>
+      <c r="D65" s="23"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="23"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="23"/>
+      <c r="S65" s="23"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="23"/>
+      <c r="W65" s="23"/>
+      <c r="X65" s="23"/>
+      <c r="Y65" s="23"/>
+      <c r="Z65" s="24"/>
     </row>
     <row r="66">
       <c r="A66" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B66" s="17" t="s">
+      <c r="B66" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C66" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
-      <c r="P66" s="18"/>
-      <c r="Q66" s="18"/>
-      <c r="R66" s="18"/>
-      <c r="S66" s="18"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="18"/>
-      <c r="V66" s="18"/>
-      <c r="W66" s="18"/>
-      <c r="X66" s="18"/>
-      <c r="Y66" s="18"/>
-      <c r="Z66" s="19"/>
+      <c r="C66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z66" s="26"/>
     </row>
     <row r="67">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="18" t="s">
         <v>126</v>
       </c>
-      <c r="B67" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-      <c r="J67" s="2"/>
-      <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2"/>
-      <c r="T67" s="2"/>
-      <c r="U67" s="2"/>
-      <c r="V67" s="2"/>
-      <c r="W67" s="2"/>
-      <c r="X67" s="2"/>
-      <c r="Y67" s="2"/>
-      <c r="Z67" s="14"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="19"/>
+      <c r="F67" s="19"/>
+      <c r="G67" s="19"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="19"/>
+      <c r="M67" s="19"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="19"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="19"/>
+      <c r="R67" s="19"/>
+      <c r="S67" s="19"/>
+      <c r="T67" s="19"/>
+      <c r="U67" s="19"/>
+      <c r="V67" s="19"/>
+      <c r="W67" s="19"/>
+      <c r="X67" s="19"/>
+      <c r="Y67" s="19"/>
+      <c r="Z67" s="20"/>
     </row>
     <row r="68">
       <c r="A68" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B68" s="17" t="s">
+      <c r="B68" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C68" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
-      <c r="P68" s="18"/>
-      <c r="Q68" s="18"/>
-      <c r="R68" s="18"/>
-      <c r="S68" s="18"/>
-      <c r="T68" s="18"/>
-      <c r="U68" s="18"/>
-      <c r="V68" s="18"/>
-      <c r="W68" s="18"/>
-      <c r="X68" s="18"/>
-      <c r="Y68" s="18"/>
-      <c r="Z68" s="19"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="15"/>
     </row>
     <row r="69">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-      <c r="J69" s="2"/>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2"/>
-      <c r="T69" s="2"/>
-      <c r="U69" s="2"/>
-      <c r="V69" s="2"/>
-      <c r="W69" s="2"/>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
+      <c r="A69" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="19"/>
+      <c r="E69" s="19"/>
+      <c r="F69" s="19"/>
+      <c r="G69" s="19"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="19"/>
+      <c r="M69" s="19"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="19"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="19"/>
+      <c r="R69" s="19"/>
+      <c r="S69" s="19"/>
+      <c r="T69" s="19"/>
+      <c r="U69" s="19"/>
+      <c r="V69" s="19"/>
+      <c r="W69" s="19"/>
+      <c r="X69" s="19"/>
+      <c r="Y69" s="19"/>
+      <c r="Z69" s="20"/>
     </row>
     <row r="70">
-      <c r="A70" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-      <c r="I70" s="4"/>
-      <c r="J70" s="4"/>
-      <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
-      <c r="M70" s="4"/>
-      <c r="N70" s="4"/>
-      <c r="O70" s="4"/>
-      <c r="P70" s="4"/>
-      <c r="Q70" s="4"/>
-      <c r="R70" s="4"/>
-      <c r="S70" s="4"/>
-      <c r="T70" s="4"/>
-      <c r="U70" s="4"/>
-      <c r="V70" s="4"/>
-      <c r="W70" s="4"/>
-      <c r="X70" s="4"/>
-      <c r="Y70" s="4"/>
-      <c r="Z70" s="4"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C71" s="1" t="s">
+      <c r="A71" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
-      <c r="R71" s="2"/>
-      <c r="S71" s="2"/>
-      <c r="T71" s="2"/>
-      <c r="U71" s="2"/>
-      <c r="V71" s="2"/>
-      <c r="W71" s="2"/>
-      <c r="X71" s="2"/>
-      <c r="Y71" s="2"/>
-      <c r="Z71" s="2"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
@@ -3799,9 +3812,15 @@
       <c r="Z72" s="2"/>
     </row>
     <row r="73">
-      <c r="A73" s="1"/>
-      <c r="B73" s="1"/>
-      <c r="C73" s="1"/>
+      <c r="A73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>136</v>
+      </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -3827,68 +3846,62 @@
       <c r="Z73" s="2"/>
     </row>
     <row r="74">
-      <c r="A74" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
-      <c r="F74" s="4"/>
-      <c r="G74" s="4"/>
-      <c r="H74" s="4"/>
-      <c r="I74" s="4"/>
-      <c r="J74" s="4"/>
-      <c r="K74" s="4"/>
-      <c r="L74" s="4"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="4"/>
-      <c r="T74" s="4"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="4"/>
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
     </row>
     <row r="75">
-      <c r="A75" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C75" s="5" t="s">
+      <c r="A75" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="6"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
-      <c r="M75" s="6"/>
-      <c r="N75" s="6"/>
-      <c r="O75" s="6"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="6"/>
-      <c r="T75" s="6"/>
-      <c r="U75" s="6"/>
-      <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-      <c r="X75" s="6"/>
-      <c r="Y75" s="6"/>
-      <c r="Z75" s="6"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="4"/>
+      <c r="Q75" s="4"/>
+      <c r="R75" s="4"/>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
@@ -3959,9 +3972,15 @@
       <c r="Z77" s="6"/>
     </row>
     <row r="78">
-      <c r="A78" s="5"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
+      <c r="A78" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="D78" s="6"/>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -3987,98 +4006,92 @@
       <c r="Z78" s="6"/>
     </row>
     <row r="79">
-      <c r="A79" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="4"/>
-      <c r="E79" s="4"/>
-      <c r="F79" s="4"/>
-      <c r="G79" s="4"/>
-      <c r="H79" s="4"/>
-      <c r="I79" s="4"/>
-      <c r="J79" s="4"/>
-      <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
-      <c r="M79" s="4"/>
-      <c r="N79" s="4"/>
-      <c r="O79" s="4"/>
-      <c r="P79" s="4"/>
-      <c r="Q79" s="4"/>
-      <c r="R79" s="4"/>
-      <c r="S79" s="4"/>
-      <c r="T79" s="4"/>
-      <c r="U79" s="4"/>
-      <c r="V79" s="4"/>
-      <c r="W79" s="4"/>
-      <c r="X79" s="4"/>
-      <c r="Y79" s="4"/>
-      <c r="Z79" s="4"/>
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="6"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="6"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="6"/>
+      <c r="O79" s="6"/>
+      <c r="P79" s="6"/>
+      <c r="Q79" s="6"/>
+      <c r="R79" s="6"/>
+      <c r="S79" s="6"/>
+      <c r="T79" s="6"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="6"/>
+      <c r="W79" s="6"/>
+      <c r="X79" s="6"/>
+      <c r="Y79" s="6"/>
+      <c r="Z79" s="6"/>
     </row>
     <row r="80">
-      <c r="A80" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="29"/>
-      <c r="F80" s="29"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="29"/>
-      <c r="I80" s="29"/>
-      <c r="J80" s="29"/>
-      <c r="K80" s="29"/>
-      <c r="L80" s="29"/>
-      <c r="M80" s="29"/>
-      <c r="N80" s="29"/>
-      <c r="O80" s="29"/>
-      <c r="P80" s="29"/>
-      <c r="Q80" s="29"/>
-      <c r="R80" s="29"/>
-      <c r="S80" s="29"/>
-      <c r="T80" s="29"/>
-      <c r="U80" s="29"/>
-      <c r="V80" s="29"/>
-      <c r="W80" s="29"/>
-      <c r="X80" s="29"/>
-      <c r="Y80" s="29"/>
-      <c r="Z80" s="29"/>
+      <c r="A80" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="4"/>
+      <c r="Q80" s="4"/>
+      <c r="R80" s="4"/>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
     </row>
     <row r="81">
-      <c r="A81" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C81" s="5" t="s">
+      <c r="A81" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
-      <c r="M81" s="6"/>
-      <c r="N81" s="6"/>
-      <c r="O81" s="6"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="6"/>
-      <c r="T81" s="6"/>
-      <c r="U81" s="6"/>
-      <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-      <c r="X81" s="6"/>
-      <c r="Y81" s="6"/>
-      <c r="Z81" s="6"/>
+      <c r="B81" s="29"/>
+      <c r="C81" s="29"/>
+      <c r="D81" s="30"/>
+      <c r="E81" s="30"/>
+      <c r="F81" s="30"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="30"/>
+      <c r="P81" s="30"/>
+      <c r="Q81" s="30"/>
+      <c r="R81" s="30"/>
+      <c r="S81" s="30"/>
+      <c r="T81" s="30"/>
+      <c r="U81" s="30"/>
+      <c r="V81" s="30"/>
+      <c r="W81" s="30"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="30"/>
+      <c r="Z81" s="30"/>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
@@ -4121,7 +4134,7 @@
       <c r="B83" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C83" s="7" t="s">
+      <c r="C83" s="5" t="s">
         <v>149</v>
       </c>
       <c r="D83" s="6"/>
@@ -4149,68 +4162,68 @@
       <c r="Z83" s="6"/>
     </row>
     <row r="84">
-      <c r="A84" s="28" t="s">
+      <c r="A84" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B84" s="28"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="29"/>
-      <c r="E84" s="29"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="29"/>
-      <c r="H84" s="29"/>
-      <c r="I84" s="29"/>
-      <c r="J84" s="29"/>
-      <c r="K84" s="29"/>
-      <c r="L84" s="29"/>
-      <c r="M84" s="29"/>
-      <c r="N84" s="29"/>
-      <c r="O84" s="29"/>
-      <c r="P84" s="29"/>
-      <c r="Q84" s="29"/>
-      <c r="R84" s="29"/>
-      <c r="S84" s="29"/>
-      <c r="T84" s="29"/>
-      <c r="U84" s="29"/>
-      <c r="V84" s="29"/>
-      <c r="W84" s="29"/>
-      <c r="X84" s="29"/>
-      <c r="Y84" s="29"/>
-      <c r="Z84" s="29"/>
+      <c r="B84" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="6"/>
+      <c r="I84" s="6"/>
+      <c r="J84" s="6"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="6"/>
+      <c r="O84" s="6"/>
+      <c r="P84" s="6"/>
+      <c r="Q84" s="6"/>
+      <c r="R84" s="6"/>
+      <c r="S84" s="6"/>
+      <c r="T84" s="6"/>
+      <c r="U84" s="6"/>
+      <c r="V84" s="6"/>
+      <c r="W84" s="6"/>
+      <c r="X84" s="6"/>
+      <c r="Y84" s="6"/>
+      <c r="Z84" s="6"/>
     </row>
     <row r="85">
-      <c r="A85" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="B85" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C85" s="5" t="s">
+      <c r="A85" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-      <c r="L85" s="6"/>
-      <c r="M85" s="6"/>
-      <c r="N85" s="6"/>
-      <c r="O85" s="6"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="6"/>
-      <c r="T85" s="6"/>
-      <c r="U85" s="6"/>
-      <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-      <c r="X85" s="6"/>
-      <c r="Y85" s="6"/>
-      <c r="Z85" s="6"/>
+      <c r="B85" s="29"/>
+      <c r="C85" s="29"/>
+      <c r="D85" s="30"/>
+      <c r="E85" s="30"/>
+      <c r="F85" s="30"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="30"/>
+      <c r="P85" s="30"/>
+      <c r="Q85" s="30"/>
+      <c r="R85" s="30"/>
+      <c r="S85" s="30"/>
+      <c r="T85" s="30"/>
+      <c r="U85" s="30"/>
+      <c r="V85" s="30"/>
+      <c r="W85" s="30"/>
+      <c r="X85" s="30"/>
+      <c r="Y85" s="30"/>
+      <c r="Z85" s="30"/>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
@@ -4281,132 +4294,132 @@
       <c r="Z87" s="6"/>
     </row>
     <row r="88">
-      <c r="A88" s="30" t="s">
+      <c r="A88" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B88" s="31"/>
-      <c r="C88" s="31"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31"/>
-      <c r="K88" s="31"/>
-      <c r="L88" s="31"/>
-      <c r="M88" s="31"/>
-      <c r="N88" s="31"/>
-      <c r="O88" s="31"/>
-      <c r="P88" s="31"/>
-      <c r="Q88" s="31"/>
-      <c r="R88" s="31"/>
-      <c r="S88" s="31"/>
-      <c r="T88" s="31"/>
-      <c r="U88" s="31"/>
-      <c r="V88" s="31"/>
-      <c r="W88" s="31"/>
-      <c r="X88" s="31"/>
-      <c r="Y88" s="31"/>
-      <c r="Z88" s="31"/>
+      <c r="B88" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
+      <c r="Y88" s="6"/>
+      <c r="Z88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="C89" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="6"/>
-      <c r="I89" s="6"/>
-      <c r="J89" s="6"/>
-      <c r="K89" s="6"/>
-      <c r="L89" s="6"/>
-      <c r="M89" s="6"/>
-      <c r="N89" s="6"/>
-      <c r="O89" s="6"/>
-      <c r="P89" s="6"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="6"/>
-      <c r="S89" s="6"/>
-      <c r="T89" s="6"/>
-      <c r="U89" s="6"/>
-      <c r="V89" s="6"/>
-      <c r="W89" s="6"/>
-      <c r="X89" s="6"/>
-      <c r="Y89" s="6"/>
-      <c r="Z89" s="6"/>
+      <c r="A89" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
+      <c r="I89" s="32"/>
+      <c r="J89" s="32"/>
+      <c r="K89" s="32"/>
+      <c r="L89" s="32"/>
+      <c r="M89" s="32"/>
+      <c r="N89" s="32"/>
+      <c r="O89" s="32"/>
+      <c r="P89" s="32"/>
+      <c r="Q89" s="32"/>
+      <c r="R89" s="32"/>
+      <c r="S89" s="32"/>
+      <c r="T89" s="32"/>
+      <c r="U89" s="32"/>
+      <c r="V89" s="32"/>
+      <c r="W89" s="32"/>
+      <c r="X89" s="32"/>
+      <c r="Y89" s="32"/>
+      <c r="Z89" s="32"/>
     </row>
     <row r="90">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B90" s="28"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="29"/>
-      <c r="E90" s="29"/>
-      <c r="F90" s="29"/>
-      <c r="G90" s="29"/>
-      <c r="H90" s="29"/>
-      <c r="I90" s="29"/>
-      <c r="J90" s="29"/>
-      <c r="K90" s="29"/>
-      <c r="L90" s="29"/>
-      <c r="M90" s="29"/>
-      <c r="N90" s="29"/>
-      <c r="O90" s="29"/>
-      <c r="P90" s="29"/>
-      <c r="Q90" s="29"/>
-      <c r="R90" s="29"/>
-      <c r="S90" s="29"/>
-      <c r="T90" s="29"/>
-      <c r="U90" s="29"/>
-      <c r="V90" s="29"/>
-      <c r="W90" s="29"/>
-      <c r="X90" s="29"/>
-      <c r="Y90" s="29"/>
-      <c r="Z90" s="29"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="6"/>
+      <c r="I90" s="6"/>
+      <c r="J90" s="6"/>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="6"/>
+      <c r="O90" s="6"/>
+      <c r="P90" s="6"/>
+      <c r="Q90" s="6"/>
+      <c r="R90" s="6"/>
+      <c r="S90" s="6"/>
+      <c r="T90" s="6"/>
+      <c r="U90" s="6"/>
+      <c r="V90" s="6"/>
+      <c r="W90" s="6"/>
+      <c r="X90" s="6"/>
+      <c r="Y90" s="6"/>
+      <c r="Z90" s="6"/>
     </row>
     <row r="91">
-      <c r="A91" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B91" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91" s="5" t="s">
+      <c r="A91" s="29" t="s">
         <v>161</v>
       </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="6"/>
-      <c r="J91" s="6"/>
-      <c r="K91" s="6"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="N91" s="6"/>
-      <c r="O91" s="6"/>
-      <c r="P91" s="6"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="6"/>
-      <c r="S91" s="6"/>
-      <c r="T91" s="6"/>
-      <c r="U91" s="6"/>
-      <c r="V91" s="6"/>
-      <c r="W91" s="6"/>
-      <c r="X91" s="6"/>
-      <c r="Y91" s="6"/>
-      <c r="Z91" s="6"/>
+      <c r="B91" s="29"/>
+      <c r="C91" s="29"/>
+      <c r="D91" s="30"/>
+      <c r="E91" s="30"/>
+      <c r="F91" s="30"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="30"/>
+      <c r="I91" s="30"/>
+      <c r="J91" s="30"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="30"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="30"/>
+      <c r="P91" s="30"/>
+      <c r="Q91" s="30"/>
+      <c r="R91" s="30"/>
+      <c r="S91" s="30"/>
+      <c r="T91" s="30"/>
+      <c r="U91" s="30"/>
+      <c r="V91" s="30"/>
+      <c r="W91" s="30"/>
+      <c r="X91" s="30"/>
+      <c r="Y91" s="30"/>
+      <c r="Z91" s="30"/>
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
@@ -4443,7 +4456,7 @@
       <c r="Z92" s="6"/>
     </row>
     <row r="93">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -4477,71 +4490,71 @@
       <c r="Z93" s="6"/>
     </row>
     <row r="94">
-      <c r="A94" s="28" t="s">
+      <c r="A94" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B94" s="28"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="29"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="29"/>
-      <c r="R94" s="29"/>
-      <c r="S94" s="29"/>
-      <c r="T94" s="29"/>
-      <c r="U94" s="29"/>
-      <c r="V94" s="29"/>
-      <c r="W94" s="29"/>
-      <c r="X94" s="29"/>
-      <c r="Y94" s="29"/>
-      <c r="Z94" s="29"/>
+      <c r="B94" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="6"/>
+      <c r="I94" s="6"/>
+      <c r="J94" s="6"/>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+      <c r="R94" s="6"/>
+      <c r="S94" s="6"/>
+      <c r="T94" s="6"/>
+      <c r="U94" s="6"/>
+      <c r="V94" s="6"/>
+      <c r="W94" s="6"/>
+      <c r="X94" s="6"/>
+      <c r="Y94" s="6"/>
+      <c r="Z94" s="6"/>
     </row>
     <row r="95">
-      <c r="A95" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C95" s="7" t="s">
+      <c r="A95" s="29" t="s">
         <v>168</v>
       </c>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
-      <c r="G95" s="6"/>
-      <c r="H95" s="6"/>
-      <c r="I95" s="6"/>
-      <c r="J95" s="6"/>
-      <c r="K95" s="6"/>
-      <c r="L95" s="6"/>
-      <c r="M95" s="6"/>
-      <c r="N95" s="6"/>
-      <c r="O95" s="6"/>
-      <c r="P95" s="6"/>
-      <c r="Q95" s="6"/>
-      <c r="R95" s="6"/>
-      <c r="S95" s="6"/>
-      <c r="T95" s="6"/>
-      <c r="U95" s="6"/>
-      <c r="V95" s="6"/>
-      <c r="W95" s="6"/>
-      <c r="X95" s="6"/>
-      <c r="Y95" s="6"/>
-      <c r="Z95" s="6"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="30"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="30"/>
+      <c r="M95" s="30"/>
+      <c r="N95" s="30"/>
+      <c r="O95" s="30"/>
+      <c r="P95" s="30"/>
+      <c r="Q95" s="30"/>
+      <c r="R95" s="30"/>
+      <c r="S95" s="30"/>
+      <c r="T95" s="30"/>
+      <c r="U95" s="30"/>
+      <c r="V95" s="30"/>
+      <c r="W95" s="30"/>
+      <c r="X95" s="30"/>
+      <c r="Y95" s="30"/>
+      <c r="Z95" s="30"/>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="33" t="s">
         <v>169</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -4550,131 +4563,131 @@
       <c r="C96" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
-      <c r="V96" s="2"/>
-      <c r="W96" s="2"/>
-      <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
-      <c r="Z96" s="2"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="6"/>
+      <c r="I96" s="6"/>
+      <c r="J96" s="6"/>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="6"/>
+      <c r="O96" s="6"/>
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6"/>
+      <c r="R96" s="6"/>
+      <c r="S96" s="6"/>
+      <c r="T96" s="6"/>
+      <c r="U96" s="6"/>
+      <c r="V96" s="6"/>
+      <c r="W96" s="6"/>
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6"/>
+      <c r="Z96" s="6"/>
     </row>
     <row r="97">
-      <c r="A97" s="5"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="5"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="6"/>
-      <c r="K97" s="6"/>
-      <c r="L97" s="6"/>
-      <c r="M97" s="6"/>
-      <c r="N97" s="6"/>
-      <c r="O97" s="6"/>
-      <c r="P97" s="6"/>
-      <c r="Q97" s="6"/>
-      <c r="R97" s="6"/>
-      <c r="S97" s="6"/>
-      <c r="T97" s="6"/>
-      <c r="U97" s="6"/>
-      <c r="V97" s="6"/>
-      <c r="W97" s="6"/>
-      <c r="X97" s="6"/>
-      <c r="Y97" s="6"/>
-      <c r="Z97" s="6"/>
+      <c r="A97" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
     </row>
     <row r="98">
-      <c r="A98" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
-      <c r="I98" s="4"/>
-      <c r="J98" s="4"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="4"/>
-      <c r="M98" s="4"/>
-      <c r="N98" s="4"/>
-      <c r="O98" s="4"/>
-      <c r="P98" s="4"/>
-      <c r="Q98" s="4"/>
-      <c r="R98" s="4"/>
-      <c r="S98" s="4"/>
-      <c r="T98" s="4"/>
-      <c r="U98" s="4"/>
-      <c r="V98" s="4"/>
-      <c r="W98" s="4"/>
-      <c r="X98" s="4"/>
-      <c r="Y98" s="4"/>
-      <c r="Z98" s="4"/>
+      <c r="A98" s="5"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="6"/>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="6"/>
+      <c r="O98" s="6"/>
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6"/>
+      <c r="R98" s="6"/>
+      <c r="S98" s="6"/>
+      <c r="T98" s="6"/>
+      <c r="U98" s="6"/>
+      <c r="V98" s="6"/>
+      <c r="W98" s="6"/>
+      <c r="X98" s="6"/>
+      <c r="Y98" s="6"/>
+      <c r="Z98" s="6"/>
     </row>
     <row r="99">
-      <c r="A99" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
-      <c r="G99" s="6"/>
-      <c r="H99" s="6"/>
-      <c r="I99" s="6"/>
-      <c r="J99" s="6"/>
-      <c r="K99" s="6"/>
-      <c r="L99" s="6"/>
-      <c r="M99" s="6"/>
-      <c r="N99" s="6"/>
-      <c r="O99" s="6"/>
-      <c r="P99" s="6"/>
-      <c r="Q99" s="6"/>
-      <c r="R99" s="6"/>
-      <c r="S99" s="6"/>
-      <c r="T99" s="6"/>
-      <c r="U99" s="6"/>
-      <c r="V99" s="6"/>
-      <c r="W99" s="6"/>
-      <c r="X99" s="6"/>
-      <c r="Y99" s="6"/>
-      <c r="Z99" s="6"/>
+      <c r="A99" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="D100" s="6"/>
       <c r="E100" s="6"/>
@@ -4735,9 +4748,15 @@
       <c r="Z101" s="6"/>
     </row>
     <row r="102">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5"/>
-      <c r="C102" s="5"/>
+      <c r="A102" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="D102" s="6"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -4763,78 +4782,72 @@
       <c r="Z102" s="6"/>
     </row>
     <row r="103">
-      <c r="A103" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="4"/>
-      <c r="E103" s="4"/>
-      <c r="F103" s="4"/>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
-      <c r="I103" s="4"/>
-      <c r="J103" s="4"/>
-      <c r="K103" s="4"/>
-      <c r="L103" s="4"/>
-      <c r="M103" s="4"/>
-      <c r="N103" s="4"/>
-      <c r="O103" s="4"/>
-      <c r="P103" s="4"/>
-      <c r="Q103" s="4"/>
-      <c r="R103" s="4"/>
-      <c r="S103" s="4"/>
-      <c r="T103" s="4"/>
-      <c r="U103" s="4"/>
-      <c r="V103" s="4"/>
-      <c r="W103" s="4"/>
-      <c r="X103" s="4"/>
-      <c r="Y103" s="4"/>
-      <c r="Z103" s="4"/>
+      <c r="A103" s="5"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="6"/>
+      <c r="I103" s="6"/>
+      <c r="J103" s="6"/>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="6"/>
+      <c r="O103" s="6"/>
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6"/>
+      <c r="R103" s="6"/>
+      <c r="S103" s="6"/>
+      <c r="T103" s="6"/>
+      <c r="U103" s="6"/>
+      <c r="V103" s="6"/>
+      <c r="W103" s="6"/>
+      <c r="X103" s="6"/>
+      <c r="Y103" s="6"/>
+      <c r="Z103" s="6"/>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C104" s="1" t="s">
+      <c r="A104" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="D104" s="2"/>
-      <c r="E104" s="2"/>
-      <c r="F104" s="2"/>
-      <c r="G104" s="2"/>
-      <c r="H104" s="2"/>
-      <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="2"/>
-      <c r="O104" s="2"/>
-      <c r="P104" s="2"/>
-      <c r="Q104" s="2"/>
-      <c r="R104" s="2"/>
-      <c r="S104" s="2"/>
-      <c r="T104" s="2"/>
-      <c r="U104" s="2"/>
-      <c r="V104" s="2"/>
-      <c r="W104" s="2"/>
-      <c r="X104" s="2"/>
-      <c r="Y104" s="2"/>
-      <c r="Z104" s="2"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="4"/>
+      <c r="Q104" s="4"/>
+      <c r="R104" s="4"/>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B105" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C105" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -4862,7 +4875,7 @@
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>183</v>
@@ -4997,9 +5010,15 @@
       <c r="Z109" s="2"/>
     </row>
     <row r="110">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1"/>
-      <c r="C110" s="1"/>
+      <c r="A110" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>192</v>
+      </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -5025,68 +5044,62 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="4"/>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4"/>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="O111" s="4"/>
-      <c r="P111" s="4"/>
-      <c r="Q111" s="4"/>
-      <c r="R111" s="4"/>
-      <c r="S111" s="4"/>
-      <c r="T111" s="4"/>
-      <c r="U111" s="4"/>
-      <c r="V111" s="4"/>
-      <c r="W111" s="4"/>
-      <c r="X111" s="4"/>
-      <c r="Y111" s="4"/>
-      <c r="Z111" s="4"/>
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="2"/>
+      <c r="P111" s="2"/>
+      <c r="Q111" s="2"/>
+      <c r="R111" s="2"/>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
+      <c r="Y111" s="2"/>
+      <c r="Z111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2"/>
-      <c r="V112" s="2"/>
-      <c r="W112" s="2"/>
-      <c r="X112" s="2"/>
-      <c r="Y112" s="2"/>
-      <c r="Z112" s="2"/>
+      <c r="A112" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="4"/>
+      <c r="Q112" s="4"/>
+      <c r="R112" s="4"/>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="s">
@@ -5157,177 +5170,177 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B115" s="10" t="s">
+      <c r="B115" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D115" s="11"/>
-      <c r="E115" s="11"/>
-      <c r="F115" s="11"/>
-      <c r="G115" s="11"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="11"/>
-      <c r="L115" s="11"/>
-      <c r="M115" s="11"/>
-      <c r="N115" s="11"/>
-      <c r="O115" s="11"/>
-      <c r="P115" s="11"/>
-      <c r="Q115" s="11"/>
-      <c r="R115" s="11"/>
-      <c r="S115" s="11"/>
-      <c r="T115" s="11"/>
-      <c r="U115" s="11"/>
-      <c r="V115" s="11"/>
-      <c r="W115" s="11"/>
-      <c r="X115" s="11"/>
-      <c r="Y115" s="11"/>
-      <c r="Z115" s="12"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2"/>
+      <c r="N115" s="2"/>
+      <c r="O115" s="2"/>
+      <c r="P115" s="2"/>
+      <c r="Q115" s="2"/>
+      <c r="R115" s="2"/>
+      <c r="S115" s="2"/>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="2"/>
+      <c r="Y115" s="2"/>
+      <c r="Z115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C116" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
-      <c r="S116" s="2"/>
-      <c r="T116" s="2"/>
-      <c r="U116" s="2"/>
-      <c r="V116" s="2"/>
-      <c r="W116" s="2"/>
-      <c r="X116" s="2"/>
-      <c r="Y116" s="2"/>
-      <c r="Z116" s="14"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
+      <c r="Z116" s="13"/>
     </row>
     <row r="117">
       <c r="A117" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B117" s="17" t="s">
+      <c r="B117" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C117" s="17" t="s">
+      <c r="C117" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D117" s="18"/>
-      <c r="E117" s="18"/>
-      <c r="F117" s="18"/>
-      <c r="G117" s="18"/>
-      <c r="H117" s="18"/>
-      <c r="I117" s="18"/>
-      <c r="J117" s="18"/>
-      <c r="K117" s="18"/>
-      <c r="L117" s="18"/>
-      <c r="M117" s="18"/>
-      <c r="N117" s="18"/>
-      <c r="O117" s="18"/>
-      <c r="P117" s="18"/>
-      <c r="Q117" s="18"/>
-      <c r="R117" s="18"/>
-      <c r="S117" s="18"/>
-      <c r="T117" s="18"/>
-      <c r="U117" s="18"/>
-      <c r="V117" s="18"/>
-      <c r="W117" s="18"/>
-      <c r="X117" s="18"/>
-      <c r="Y117" s="18"/>
-      <c r="Z117" s="19"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
+      <c r="Z117" s="15"/>
     </row>
     <row r="118">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B118" s="10" t="s">
+      <c r="B118" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="D118" s="11"/>
-      <c r="E118" s="11"/>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
-      <c r="H118" s="11"/>
-      <c r="I118" s="11"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="11"/>
-      <c r="L118" s="11"/>
-      <c r="M118" s="11"/>
-      <c r="N118" s="11"/>
-      <c r="O118" s="11"/>
-      <c r="P118" s="11"/>
-      <c r="Q118" s="11"/>
-      <c r="R118" s="11"/>
-      <c r="S118" s="11"/>
-      <c r="T118" s="11"/>
-      <c r="U118" s="11"/>
-      <c r="V118" s="11"/>
-      <c r="W118" s="11"/>
-      <c r="X118" s="11"/>
-      <c r="Y118" s="11"/>
-      <c r="Z118" s="12"/>
+      <c r="D118" s="19"/>
+      <c r="E118" s="19"/>
+      <c r="F118" s="19"/>
+      <c r="G118" s="19"/>
+      <c r="H118" s="19"/>
+      <c r="I118" s="19"/>
+      <c r="J118" s="19"/>
+      <c r="K118" s="19"/>
+      <c r="L118" s="19"/>
+      <c r="M118" s="19"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="19"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="19"/>
+      <c r="R118" s="19"/>
+      <c r="S118" s="19"/>
+      <c r="T118" s="19"/>
+      <c r="U118" s="19"/>
+      <c r="V118" s="19"/>
+      <c r="W118" s="19"/>
+      <c r="X118" s="19"/>
+      <c r="Y118" s="19"/>
+      <c r="Z118" s="20"/>
     </row>
     <row r="119">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="C119" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
-      <c r="N119" s="2"/>
-      <c r="O119" s="2"/>
-      <c r="P119" s="2"/>
-      <c r="Q119" s="2"/>
-      <c r="R119" s="2"/>
-      <c r="S119" s="2"/>
-      <c r="T119" s="2"/>
-      <c r="U119" s="2"/>
-      <c r="V119" s="2"/>
-      <c r="W119" s="2"/>
-      <c r="X119" s="2"/>
-      <c r="Y119" s="2"/>
-      <c r="Z119" s="14"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="12"/>
+      <c r="F119" s="12"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="12"/>
+      <c r="U119" s="12"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="12"/>
+      <c r="X119" s="12"/>
+      <c r="Y119" s="12"/>
+      <c r="Z119" s="13"/>
     </row>
     <row r="120">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="16" t="s">
         <v>207</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -5358,112 +5371,112 @@
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
-      <c r="Z120" s="14"/>
+      <c r="Z120" s="15"/>
     </row>
     <row r="121">
       <c r="A121" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="B121" s="17" t="s">
+      <c r="B121" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C121" s="17" t="s">
+      <c r="C121" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="D121" s="18"/>
-      <c r="E121" s="18"/>
-      <c r="F121" s="18"/>
-      <c r="G121" s="18"/>
-      <c r="H121" s="18"/>
-      <c r="I121" s="18"/>
-      <c r="J121" s="18"/>
-      <c r="K121" s="18"/>
-      <c r="L121" s="18"/>
-      <c r="M121" s="18"/>
-      <c r="N121" s="18"/>
-      <c r="O121" s="18"/>
-      <c r="P121" s="18"/>
-      <c r="Q121" s="18"/>
-      <c r="R121" s="18"/>
-      <c r="S121" s="18"/>
-      <c r="T121" s="18"/>
-      <c r="U121" s="18"/>
-      <c r="V121" s="18"/>
-      <c r="W121" s="18"/>
-      <c r="X121" s="18"/>
-      <c r="Y121" s="18"/>
-      <c r="Z121" s="19"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="V121" s="2"/>
+      <c r="W121" s="2"/>
+      <c r="X121" s="2"/>
+      <c r="Y121" s="2"/>
+      <c r="Z121" s="15"/>
     </row>
     <row r="122">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="C122" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="D122" s="11"/>
-      <c r="E122" s="11"/>
-      <c r="F122" s="11"/>
-      <c r="G122" s="11"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="11"/>
-      <c r="L122" s="11"/>
-      <c r="M122" s="11"/>
-      <c r="N122" s="11"/>
-      <c r="O122" s="11"/>
-      <c r="P122" s="11"/>
-      <c r="Q122" s="11"/>
-      <c r="R122" s="11"/>
-      <c r="S122" s="11"/>
-      <c r="T122" s="11"/>
-      <c r="U122" s="11"/>
-      <c r="V122" s="11"/>
-      <c r="W122" s="11"/>
-      <c r="X122" s="11"/>
-      <c r="Y122" s="11"/>
-      <c r="Z122" s="12"/>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19"/>
+      <c r="O122" s="19"/>
+      <c r="P122" s="19"/>
+      <c r="Q122" s="19"/>
+      <c r="R122" s="19"/>
+      <c r="S122" s="19"/>
+      <c r="T122" s="19"/>
+      <c r="U122" s="19"/>
+      <c r="V122" s="19"/>
+      <c r="W122" s="19"/>
+      <c r="X122" s="19"/>
+      <c r="Y122" s="19"/>
+      <c r="Z122" s="20"/>
     </row>
     <row r="123">
-      <c r="A123" s="33" t="s">
+      <c r="A123" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C123" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
-      <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
-      <c r="P123" s="2"/>
-      <c r="Q123" s="2"/>
-      <c r="R123" s="2"/>
-      <c r="S123" s="2"/>
-      <c r="T123" s="2"/>
-      <c r="U123" s="2"/>
-      <c r="V123" s="2"/>
-      <c r="W123" s="2"/>
-      <c r="X123" s="2"/>
-      <c r="Y123" s="2"/>
-      <c r="Z123" s="14"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="12"/>
+      <c r="U123" s="12"/>
+      <c r="V123" s="12"/>
+      <c r="W123" s="12"/>
+      <c r="X123" s="12"/>
+      <c r="Y123" s="12"/>
+      <c r="Z123" s="13"/>
     </row>
     <row r="124">
-      <c r="A124" s="15" t="s">
+      <c r="A124" s="34" t="s">
         <v>215</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -5494,80 +5507,86 @@
       <c r="W124" s="2"/>
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
-      <c r="Z124" s="14"/>
+      <c r="Z124" s="15"/>
     </row>
     <row r="125">
       <c r="A125" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="B125" s="17" t="s">
+      <c r="B125" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C125" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="D125" s="18"/>
-      <c r="E125" s="18"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="18"/>
-      <c r="H125" s="18"/>
-      <c r="I125" s="18"/>
-      <c r="J125" s="18"/>
-      <c r="K125" s="18"/>
-      <c r="L125" s="18"/>
-      <c r="M125" s="18"/>
-      <c r="N125" s="18"/>
-      <c r="O125" s="18"/>
-      <c r="P125" s="18"/>
-      <c r="Q125" s="18"/>
-      <c r="R125" s="18"/>
-      <c r="S125" s="18"/>
-      <c r="T125" s="18"/>
-      <c r="U125" s="18"/>
-      <c r="V125" s="18"/>
-      <c r="W125" s="18"/>
-      <c r="X125" s="18"/>
-      <c r="Y125" s="18"/>
-      <c r="Z125" s="19"/>
+      <c r="C125" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="2"/>
+      <c r="Y125" s="2"/>
+      <c r="Z125" s="15"/>
     </row>
     <row r="126">
-      <c r="A126" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C126" s="1" t="s">
+      <c r="A126" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
-      <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-      <c r="U126" s="2"/>
-      <c r="V126" s="2"/>
-      <c r="W126" s="2"/>
-      <c r="X126" s="2"/>
-      <c r="Y126" s="2"/>
-      <c r="Z126" s="2"/>
+      <c r="B126" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="19"/>
+      <c r="P126" s="19"/>
+      <c r="Q126" s="19"/>
+      <c r="R126" s="19"/>
+      <c r="S126" s="19"/>
+      <c r="T126" s="19"/>
+      <c r="U126" s="19"/>
+      <c r="V126" s="19"/>
+      <c r="W126" s="19"/>
+      <c r="X126" s="19"/>
+      <c r="Y126" s="19"/>
+      <c r="Z126" s="20"/>
     </row>
     <row r="127">
-      <c r="A127" s="1"/>
-      <c r="B127" s="1"/>
-      <c r="C127" s="1"/>
+      <c r="A127" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>221</v>
+      </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
       <c r="F127" s="2"/>
@@ -5593,73 +5612,73 @@
       <c r="Z127" s="2"/>
     </row>
     <row r="128">
-      <c r="A128" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="4"/>
-      <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-      <c r="K128" s="4"/>
-      <c r="L128" s="4"/>
-      <c r="M128" s="4"/>
-      <c r="N128" s="4"/>
-      <c r="O128" s="4"/>
-      <c r="P128" s="4"/>
-      <c r="Q128" s="4"/>
-      <c r="R128" s="4"/>
-      <c r="S128" s="4"/>
-      <c r="T128" s="4"/>
-      <c r="U128" s="4"/>
-      <c r="V128" s="4"/>
-      <c r="W128" s="4"/>
-      <c r="X128" s="4"/>
-      <c r="Y128" s="4"/>
-      <c r="Z128" s="4"/>
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+      <c r="C128" s="1"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2"/>
+      <c r="V128" s="2"/>
+      <c r="W128" s="2"/>
+      <c r="X128" s="2"/>
+      <c r="Y128" s="2"/>
+      <c r="Z128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C129" s="1" t="s">
+      <c r="A129" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="2"/>
-      <c r="S129" s="2"/>
-      <c r="T129" s="2"/>
-      <c r="U129" s="2"/>
-      <c r="V129" s="2"/>
-      <c r="W129" s="2"/>
-      <c r="X129" s="2"/>
-      <c r="Y129" s="2"/>
-      <c r="Z129" s="2"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="4"/>
+      <c r="Q129" s="4"/>
+      <c r="R129" s="4"/>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="4"/>
     </row>
     <row r="130">
-      <c r="A130" s="1"/>
-      <c r="B130" s="1"/>
-      <c r="C130" s="1"/>
+      <c r="A130" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
       <c r="F130" s="2"/>
@@ -5685,68 +5704,62 @@
       <c r="Z130" s="2"/>
     </row>
     <row r="131">
-      <c r="A131" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
-      <c r="F131" s="4"/>
-      <c r="G131" s="4"/>
-      <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
-      <c r="K131" s="4"/>
-      <c r="L131" s="4"/>
-      <c r="M131" s="4"/>
-      <c r="N131" s="4"/>
-      <c r="O131" s="4"/>
-      <c r="P131" s="4"/>
-      <c r="Q131" s="4"/>
-      <c r="R131" s="4"/>
-      <c r="S131" s="4"/>
-      <c r="T131" s="4"/>
-      <c r="U131" s="4"/>
-      <c r="V131" s="4"/>
-      <c r="W131" s="4"/>
-      <c r="X131" s="4"/>
-      <c r="Y131" s="4"/>
-      <c r="Z131" s="4"/>
+      <c r="A131" s="1"/>
+      <c r="B131" s="1"/>
+      <c r="C131" s="1"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="2"/>
+      <c r="V131" s="2"/>
+      <c r="W131" s="2"/>
+      <c r="X131" s="2"/>
+      <c r="Y131" s="2"/>
+      <c r="Z131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" s="2"/>
-      <c r="Q132" s="2"/>
-      <c r="R132" s="2"/>
-      <c r="S132" s="2"/>
-      <c r="T132" s="2"/>
-      <c r="U132" s="2"/>
-      <c r="V132" s="2"/>
-      <c r="W132" s="2"/>
-      <c r="X132" s="2"/>
-      <c r="Y132" s="2"/>
-      <c r="Z132" s="2"/>
+      <c r="A132" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+      <c r="R132" s="4"/>
+      <c r="S132" s="4"/>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
+      <c r="Z132" s="4"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="s">
@@ -5987,9 +6000,15 @@
       <c r="Z139" s="2"/>
     </row>
     <row r="140">
-      <c r="A140" s="1"/>
-      <c r="B140" s="1"/>
-      <c r="C140" s="1"/>
+      <c r="A140" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
@@ -6015,68 +6034,62 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
-      <c r="F141" s="4"/>
-      <c r="G141" s="4"/>
-      <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
-      <c r="M141" s="4"/>
-      <c r="N141" s="4"/>
-      <c r="O141" s="4"/>
-      <c r="P141" s="4"/>
-      <c r="Q141" s="4"/>
-      <c r="R141" s="4"/>
-      <c r="S141" s="4"/>
-      <c r="T141" s="4"/>
-      <c r="U141" s="4"/>
-      <c r="V141" s="4"/>
-      <c r="W141" s="4"/>
-      <c r="X141" s="4"/>
-      <c r="Y141" s="4"/>
-      <c r="Z141" s="4"/>
+      <c r="A141" s="1"/>
+      <c r="B141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2"/>
+      <c r="V141" s="2"/>
+      <c r="W141" s="2"/>
+      <c r="X141" s="2"/>
+      <c r="Y141" s="2"/>
+      <c r="Z141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="C142" s="1" t="s">
+      <c r="A142" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="D142" s="2"/>
-      <c r="E142" s="2"/>
-      <c r="F142" s="2"/>
-      <c r="G142" s="2"/>
-      <c r="H142" s="2"/>
-      <c r="I142" s="2"/>
-      <c r="J142" s="2"/>
-      <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
-      <c r="N142" s="2"/>
-      <c r="O142" s="2"/>
-      <c r="P142" s="2"/>
-      <c r="Q142" s="2"/>
-      <c r="R142" s="2"/>
-      <c r="S142" s="2"/>
-      <c r="T142" s="2"/>
-      <c r="U142" s="2"/>
-      <c r="V142" s="2"/>
-      <c r="W142" s="2"/>
-      <c r="X142" s="2"/>
-      <c r="Y142" s="2"/>
-      <c r="Z142" s="2"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="4"/>
+      <c r="K142" s="4"/>
+      <c r="L142" s="4"/>
+      <c r="M142" s="4"/>
+      <c r="N142" s="4"/>
+      <c r="O142" s="4"/>
+      <c r="P142" s="4"/>
+      <c r="Q142" s="4"/>
+      <c r="R142" s="4"/>
+      <c r="S142" s="4"/>
+      <c r="T142" s="4"/>
+      <c r="U142" s="4"/>
+      <c r="V142" s="4"/>
+      <c r="W142" s="4"/>
+      <c r="X142" s="4"/>
+      <c r="Y142" s="4"/>
+      <c r="Z142" s="4"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="s">
@@ -6113,112 +6126,118 @@
       <c r="Z143" s="2"/>
     </row>
     <row r="144">
-      <c r="A144" s="34" t="s">
+      <c r="A144" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B144" s="34" t="s">
+      <c r="B144" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C144" s="34" t="s">
+      <c r="C144" s="1" t="s">
         <v>245</v>
       </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2"/>
+      <c r="V144" s="2"/>
+      <c r="W144" s="2"/>
+      <c r="X144" s="2"/>
+      <c r="Y144" s="2"/>
+      <c r="Z144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="1"/>
-      <c r="B145" s="1"/>
-      <c r="C145" s="1"/>
-      <c r="D145" s="2"/>
-      <c r="E145" s="2"/>
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
-      <c r="I145" s="2"/>
-      <c r="J145" s="2"/>
-      <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
-      <c r="N145" s="2"/>
-      <c r="O145" s="2"/>
-      <c r="P145" s="2"/>
-      <c r="Q145" s="2"/>
-      <c r="R145" s="2"/>
-      <c r="S145" s="2"/>
-      <c r="T145" s="2"/>
-      <c r="U145" s="2"/>
-      <c r="V145" s="2"/>
-      <c r="W145" s="2"/>
-      <c r="X145" s="2"/>
-      <c r="Y145" s="2"/>
-      <c r="Z145" s="2"/>
+      <c r="A145" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="B145" s="35" t="s">
+        <v>246</v>
+      </c>
+      <c r="C145" s="35" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
-      <c r="F146" s="4"/>
-      <c r="G146" s="4"/>
-      <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
-      <c r="M146" s="4"/>
-      <c r="N146" s="4"/>
-      <c r="O146" s="4"/>
-      <c r="P146" s="4"/>
-      <c r="Q146" s="4"/>
-      <c r="R146" s="4"/>
-      <c r="S146" s="4"/>
-      <c r="T146" s="4"/>
-      <c r="U146" s="4"/>
-      <c r="V146" s="4"/>
-      <c r="W146" s="4"/>
-      <c r="X146" s="4"/>
-      <c r="Y146" s="4"/>
-      <c r="Z146" s="4"/>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2"/>
+      <c r="V146" s="2"/>
+      <c r="W146" s="2"/>
+      <c r="X146" s="2"/>
+      <c r="Y146" s="2"/>
+      <c r="Z146" s="2"/>
     </row>
     <row r="147">
-      <c r="A147" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="D147" s="2"/>
-      <c r="E147" s="2"/>
-      <c r="F147" s="2"/>
-      <c r="G147" s="2"/>
-      <c r="H147" s="2"/>
-      <c r="I147" s="2"/>
-      <c r="J147" s="2"/>
-      <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
-      <c r="N147" s="2"/>
-      <c r="O147" s="2"/>
-      <c r="P147" s="2"/>
-      <c r="Q147" s="2"/>
-      <c r="R147" s="2"/>
-      <c r="S147" s="2"/>
-      <c r="T147" s="2"/>
-      <c r="U147" s="2"/>
-      <c r="V147" s="2"/>
-      <c r="W147" s="2"/>
-      <c r="X147" s="2"/>
-      <c r="Y147" s="2"/>
-      <c r="Z147" s="2"/>
+      <c r="A147" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="4"/>
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
+      <c r="Z147" s="4"/>
     </row>
     <row r="148">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
+      <c r="A148" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
@@ -6244,384 +6263,378 @@
       <c r="Z148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
-      <c r="F149" s="4"/>
-      <c r="G149" s="4"/>
-      <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
-      <c r="K149" s="4"/>
-      <c r="L149" s="4"/>
-      <c r="M149" s="4"/>
-      <c r="N149" s="4"/>
-      <c r="O149" s="4"/>
-      <c r="P149" s="4"/>
-      <c r="Q149" s="4"/>
-      <c r="R149" s="4"/>
-      <c r="S149" s="4"/>
-      <c r="T149" s="4"/>
-      <c r="U149" s="4"/>
-      <c r="V149" s="4"/>
-      <c r="W149" s="4"/>
-      <c r="X149" s="4"/>
-      <c r="Y149" s="4"/>
-      <c r="Z149" s="4"/>
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+      <c r="H149" s="2"/>
+      <c r="I149" s="2"/>
+      <c r="J149" s="2"/>
+      <c r="K149" s="2"/>
+      <c r="L149" s="2"/>
+      <c r="M149" s="2"/>
+      <c r="N149" s="2"/>
+      <c r="O149" s="2"/>
+      <c r="P149" s="2"/>
+      <c r="Q149" s="2"/>
+      <c r="R149" s="2"/>
+      <c r="S149" s="2"/>
+      <c r="T149" s="2"/>
+      <c r="U149" s="2"/>
+      <c r="V149" s="2"/>
+      <c r="W149" s="2"/>
+      <c r="X149" s="2"/>
+      <c r="Y149" s="2"/>
+      <c r="Z149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B150" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C150" s="10" t="s">
+      <c r="A150" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
-      <c r="F150" s="11"/>
-      <c r="G150" s="11"/>
-      <c r="H150" s="11"/>
-      <c r="I150" s="11"/>
-      <c r="J150" s="11"/>
-      <c r="K150" s="11"/>
-      <c r="L150" s="11"/>
-      <c r="M150" s="11"/>
-      <c r="N150" s="11"/>
-      <c r="O150" s="11"/>
-      <c r="P150" s="11"/>
-      <c r="Q150" s="11"/>
-      <c r="R150" s="11"/>
-      <c r="S150" s="11"/>
-      <c r="T150" s="11"/>
-      <c r="U150" s="11"/>
-      <c r="V150" s="11"/>
-      <c r="W150" s="11"/>
-      <c r="X150" s="11"/>
-      <c r="Y150" s="11"/>
-      <c r="Z150" s="12"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
+      <c r="I150" s="4"/>
+      <c r="J150" s="4"/>
+      <c r="K150" s="4"/>
+      <c r="L150" s="4"/>
+      <c r="M150" s="4"/>
+      <c r="N150" s="4"/>
+      <c r="O150" s="4"/>
+      <c r="P150" s="4"/>
+      <c r="Q150" s="4"/>
+      <c r="R150" s="4"/>
+      <c r="S150" s="4"/>
+      <c r="T150" s="4"/>
+      <c r="U150" s="4"/>
+      <c r="V150" s="4"/>
+      <c r="W150" s="4"/>
+      <c r="X150" s="4"/>
+      <c r="Y150" s="4"/>
+      <c r="Z150" s="4"/>
     </row>
     <row r="151">
-      <c r="A151" s="16" t="s">
+      <c r="A151" s="9" t="s">
         <v>251</v>
       </c>
-      <c r="B151" s="17" t="s">
+      <c r="B151" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="C151" s="17" t="s">
+      <c r="C151" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="D151" s="18"/>
-      <c r="E151" s="18"/>
-      <c r="F151" s="18"/>
-      <c r="G151" s="18"/>
-      <c r="H151" s="18"/>
-      <c r="I151" s="18"/>
-      <c r="J151" s="18"/>
-      <c r="K151" s="18"/>
-      <c r="L151" s="18"/>
-      <c r="M151" s="18"/>
-      <c r="N151" s="18"/>
-      <c r="O151" s="18"/>
-      <c r="P151" s="18"/>
-      <c r="Q151" s="18"/>
-      <c r="R151" s="18"/>
-      <c r="S151" s="18"/>
-      <c r="T151" s="18"/>
-      <c r="U151" s="18"/>
-      <c r="V151" s="18"/>
-      <c r="W151" s="18"/>
-      <c r="X151" s="18"/>
-      <c r="Y151" s="18"/>
-      <c r="Z151" s="19"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+      <c r="O151" s="12"/>
+      <c r="P151" s="12"/>
+      <c r="Q151" s="12"/>
+      <c r="R151" s="12"/>
+      <c r="S151" s="12"/>
+      <c r="T151" s="12"/>
+      <c r="U151" s="12"/>
+      <c r="V151" s="12"/>
+      <c r="W151" s="12"/>
+      <c r="X151" s="12"/>
+      <c r="Y151" s="12"/>
+      <c r="Z151" s="13"/>
     </row>
     <row r="152">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="C152" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="D152" s="11"/>
-      <c r="E152" s="11"/>
-      <c r="F152" s="11"/>
-      <c r="G152" s="11"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="11"/>
-      <c r="L152" s="11"/>
-      <c r="M152" s="11"/>
-      <c r="N152" s="11"/>
-      <c r="O152" s="11"/>
-      <c r="P152" s="11"/>
-      <c r="Q152" s="11"/>
-      <c r="R152" s="11"/>
-      <c r="S152" s="11"/>
-      <c r="T152" s="11"/>
-      <c r="U152" s="11"/>
-      <c r="V152" s="11"/>
-      <c r="W152" s="11"/>
-      <c r="X152" s="11"/>
-      <c r="Y152" s="11"/>
-      <c r="Z152" s="12"/>
+      <c r="D152" s="19"/>
+      <c r="E152" s="19"/>
+      <c r="F152" s="19"/>
+      <c r="G152" s="19"/>
+      <c r="H152" s="19"/>
+      <c r="I152" s="19"/>
+      <c r="J152" s="19"/>
+      <c r="K152" s="19"/>
+      <c r="L152" s="19"/>
+      <c r="M152" s="19"/>
+      <c r="N152" s="19"/>
+      <c r="O152" s="19"/>
+      <c r="P152" s="19"/>
+      <c r="Q152" s="19"/>
+      <c r="R152" s="19"/>
+      <c r="S152" s="19"/>
+      <c r="T152" s="19"/>
+      <c r="U152" s="19"/>
+      <c r="V152" s="19"/>
+      <c r="W152" s="19"/>
+      <c r="X152" s="19"/>
+      <c r="Y152" s="19"/>
+      <c r="Z152" s="20"/>
     </row>
     <row r="153">
-      <c r="A153" s="35" t="s">
+      <c r="A153" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B153" s="36" t="s">
+      <c r="B153" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C153" s="36" t="s">
+      <c r="C153" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D153" s="22"/>
-      <c r="E153" s="22"/>
-      <c r="F153" s="22"/>
-      <c r="G153" s="22"/>
-      <c r="H153" s="22"/>
-      <c r="I153" s="22"/>
-      <c r="J153" s="22"/>
-      <c r="K153" s="22"/>
-      <c r="L153" s="22"/>
-      <c r="M153" s="22"/>
-      <c r="N153" s="22"/>
-      <c r="O153" s="22"/>
-      <c r="P153" s="22"/>
-      <c r="Q153" s="22"/>
-      <c r="R153" s="22"/>
-      <c r="S153" s="22"/>
-      <c r="T153" s="22"/>
-      <c r="U153" s="22"/>
-      <c r="V153" s="22"/>
-      <c r="W153" s="22"/>
-      <c r="X153" s="22"/>
-      <c r="Y153" s="22"/>
-      <c r="Z153" s="23"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
+      <c r="G153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="I153" s="12"/>
+      <c r="J153" s="12"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="12"/>
+      <c r="O153" s="12"/>
+      <c r="P153" s="12"/>
+      <c r="Q153" s="12"/>
+      <c r="R153" s="12"/>
+      <c r="S153" s="12"/>
+      <c r="T153" s="12"/>
+      <c r="U153" s="12"/>
+      <c r="V153" s="12"/>
+      <c r="W153" s="12"/>
+      <c r="X153" s="12"/>
+      <c r="Y153" s="12"/>
+      <c r="Z153" s="13"/>
     </row>
     <row r="154">
-      <c r="A154" s="35" t="s">
+      <c r="A154" s="36" t="s">
         <v>257</v>
       </c>
-      <c r="B154" s="36" t="s">
+      <c r="B154" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="C154" s="36" t="s">
+      <c r="C154" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="D154" s="22"/>
-      <c r="E154" s="22"/>
-      <c r="F154" s="22"/>
-      <c r="G154" s="22"/>
-      <c r="H154" s="22"/>
-      <c r="I154" s="22"/>
-      <c r="J154" s="22"/>
-      <c r="K154" s="22"/>
-      <c r="L154" s="22"/>
-      <c r="M154" s="22"/>
-      <c r="N154" s="22"/>
-      <c r="O154" s="22"/>
-      <c r="P154" s="22"/>
-      <c r="Q154" s="22"/>
-      <c r="R154" s="22"/>
-      <c r="S154" s="22"/>
-      <c r="T154" s="22"/>
-      <c r="U154" s="22"/>
-      <c r="V154" s="22"/>
-      <c r="W154" s="22"/>
-      <c r="X154" s="22"/>
-      <c r="Y154" s="22"/>
-      <c r="Z154" s="23"/>
+      <c r="D154" s="23"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="23"/>
+      <c r="H154" s="23"/>
+      <c r="I154" s="23"/>
+      <c r="J154" s="23"/>
+      <c r="K154" s="23"/>
+      <c r="L154" s="23"/>
+      <c r="M154" s="23"/>
+      <c r="N154" s="23"/>
+      <c r="O154" s="23"/>
+      <c r="P154" s="23"/>
+      <c r="Q154" s="23"/>
+      <c r="R154" s="23"/>
+      <c r="S154" s="23"/>
+      <c r="T154" s="23"/>
+      <c r="U154" s="23"/>
+      <c r="V154" s="23"/>
+      <c r="W154" s="23"/>
+      <c r="X154" s="23"/>
+      <c r="Y154" s="23"/>
+      <c r="Z154" s="24"/>
     </row>
     <row r="155">
-      <c r="A155" s="35" t="s">
+      <c r="A155" s="36" t="s">
         <v>259</v>
       </c>
-      <c r="B155" s="36" t="s">
+      <c r="B155" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="C155" s="36" t="s">
+      <c r="C155" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="D155" s="22"/>
-      <c r="E155" s="22"/>
-      <c r="F155" s="22"/>
-      <c r="G155" s="22"/>
-      <c r="H155" s="22"/>
-      <c r="I155" s="22"/>
-      <c r="J155" s="22"/>
-      <c r="K155" s="22"/>
-      <c r="L155" s="22"/>
-      <c r="M155" s="22"/>
-      <c r="N155" s="22"/>
-      <c r="O155" s="22"/>
-      <c r="P155" s="22"/>
-      <c r="Q155" s="22"/>
-      <c r="R155" s="22"/>
-      <c r="S155" s="22"/>
-      <c r="T155" s="22"/>
-      <c r="U155" s="22"/>
-      <c r="V155" s="22"/>
-      <c r="W155" s="22"/>
-      <c r="X155" s="22"/>
-      <c r="Y155" s="22"/>
-      <c r="Z155" s="23"/>
+      <c r="D155" s="23"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="23"/>
+      <c r="H155" s="23"/>
+      <c r="I155" s="23"/>
+      <c r="J155" s="23"/>
+      <c r="K155" s="23"/>
+      <c r="L155" s="23"/>
+      <c r="M155" s="23"/>
+      <c r="N155" s="23"/>
+      <c r="O155" s="23"/>
+      <c r="P155" s="23"/>
+      <c r="Q155" s="23"/>
+      <c r="R155" s="23"/>
+      <c r="S155" s="23"/>
+      <c r="T155" s="23"/>
+      <c r="U155" s="23"/>
+      <c r="V155" s="23"/>
+      <c r="W155" s="23"/>
+      <c r="X155" s="23"/>
+      <c r="Y155" s="23"/>
+      <c r="Z155" s="24"/>
     </row>
     <row r="156">
-      <c r="A156" s="35" t="s">
+      <c r="A156" s="36" t="s">
         <v>261</v>
       </c>
-      <c r="B156" s="36" t="s">
+      <c r="B156" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="C156" s="36" t="s">
+      <c r="C156" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="D156" s="22"/>
-      <c r="E156" s="22"/>
-      <c r="F156" s="22"/>
-      <c r="G156" s="22"/>
-      <c r="H156" s="22"/>
-      <c r="I156" s="22"/>
-      <c r="J156" s="22"/>
-      <c r="K156" s="22"/>
-      <c r="L156" s="22"/>
-      <c r="M156" s="22"/>
-      <c r="N156" s="22"/>
-      <c r="O156" s="22"/>
-      <c r="P156" s="22"/>
-      <c r="Q156" s="22"/>
-      <c r="R156" s="22"/>
-      <c r="S156" s="22"/>
-      <c r="T156" s="22"/>
-      <c r="U156" s="22"/>
-      <c r="V156" s="22"/>
-      <c r="W156" s="22"/>
-      <c r="X156" s="22"/>
-      <c r="Y156" s="22"/>
-      <c r="Z156" s="23"/>
+      <c r="D156" s="23"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="23"/>
+      <c r="G156" s="23"/>
+      <c r="H156" s="23"/>
+      <c r="I156" s="23"/>
+      <c r="J156" s="23"/>
+      <c r="K156" s="23"/>
+      <c r="L156" s="23"/>
+      <c r="M156" s="23"/>
+      <c r="N156" s="23"/>
+      <c r="O156" s="23"/>
+      <c r="P156" s="23"/>
+      <c r="Q156" s="23"/>
+      <c r="R156" s="23"/>
+      <c r="S156" s="23"/>
+      <c r="T156" s="23"/>
+      <c r="U156" s="23"/>
+      <c r="V156" s="23"/>
+      <c r="W156" s="23"/>
+      <c r="X156" s="23"/>
+      <c r="Y156" s="23"/>
+      <c r="Z156" s="24"/>
     </row>
     <row r="157">
-      <c r="A157" s="37" t="s">
+      <c r="A157" s="36" t="s">
         <v>263</v>
       </c>
-      <c r="B157" s="38" t="s">
+      <c r="B157" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C157" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="C157" s="38" t="s">
-        <v>264</v>
-      </c>
-      <c r="D157" s="39"/>
-      <c r="E157" s="39"/>
-      <c r="F157" s="39"/>
-      <c r="G157" s="39"/>
-      <c r="H157" s="39"/>
-      <c r="I157" s="39"/>
-      <c r="J157" s="39"/>
-      <c r="K157" s="39"/>
-      <c r="L157" s="39"/>
-      <c r="M157" s="39"/>
-      <c r="N157" s="39"/>
-      <c r="O157" s="39"/>
-      <c r="P157" s="39"/>
-      <c r="Q157" s="39"/>
-      <c r="R157" s="39"/>
-      <c r="S157" s="39"/>
-      <c r="T157" s="39"/>
-      <c r="U157" s="39"/>
-      <c r="V157" s="39"/>
-      <c r="W157" s="39"/>
-      <c r="X157" s="39"/>
-      <c r="Y157" s="39"/>
-      <c r="Z157" s="40"/>
+      <c r="D157" s="23"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="23"/>
+      <c r="G157" s="23"/>
+      <c r="H157" s="23"/>
+      <c r="I157" s="23"/>
+      <c r="J157" s="23"/>
+      <c r="K157" s="23"/>
+      <c r="L157" s="23"/>
+      <c r="M157" s="23"/>
+      <c r="N157" s="23"/>
+      <c r="O157" s="23"/>
+      <c r="P157" s="23"/>
+      <c r="Q157" s="23"/>
+      <c r="R157" s="23"/>
+      <c r="S157" s="23"/>
+      <c r="T157" s="23"/>
+      <c r="U157" s="23"/>
+      <c r="V157" s="23"/>
+      <c r="W157" s="23"/>
+      <c r="X157" s="23"/>
+      <c r="Y157" s="23"/>
+      <c r="Z157" s="24"/>
     </row>
     <row r="158">
-      <c r="A158" s="8" t="s">
+      <c r="A158" s="38" t="s">
         <v>265</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C158" s="39" t="s">
+        <v>266</v>
+      </c>
+      <c r="D158" s="40"/>
+      <c r="E158" s="40"/>
+      <c r="F158" s="40"/>
+      <c r="G158" s="40"/>
+      <c r="H158" s="40"/>
+      <c r="I158" s="40"/>
+      <c r="J158" s="40"/>
+      <c r="K158" s="40"/>
+      <c r="L158" s="40"/>
+      <c r="M158" s="40"/>
+      <c r="N158" s="40"/>
+      <c r="O158" s="40"/>
+      <c r="P158" s="40"/>
+      <c r="Q158" s="40"/>
+      <c r="R158" s="40"/>
+      <c r="S158" s="40"/>
+      <c r="T158" s="40"/>
+      <c r="U158" s="40"/>
+      <c r="V158" s="40"/>
+      <c r="W158" s="40"/>
+      <c r="X158" s="40"/>
+      <c r="Y158" s="40"/>
+      <c r="Z158" s="41"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="D158" s="11"/>
-      <c r="E158" s="11"/>
-      <c r="F158" s="11"/>
-      <c r="G158" s="11"/>
-      <c r="H158" s="11"/>
-      <c r="I158" s="11"/>
-      <c r="J158" s="11"/>
-      <c r="K158" s="11"/>
-      <c r="L158" s="11"/>
-      <c r="M158" s="11"/>
-      <c r="N158" s="11"/>
-      <c r="O158" s="11"/>
-      <c r="P158" s="11"/>
-      <c r="Q158" s="11"/>
-      <c r="R158" s="11"/>
-      <c r="S158" s="11"/>
-      <c r="T158" s="11"/>
-      <c r="U158" s="11"/>
-      <c r="V158" s="11"/>
-      <c r="W158" s="11"/>
-      <c r="X158" s="11"/>
-      <c r="Y158" s="11"/>
-      <c r="Z158" s="12"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="15" t="s">
+      <c r="B159" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="D159" s="2"/>
-      <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
-      <c r="G159" s="2"/>
-      <c r="H159" s="2"/>
-      <c r="I159" s="2"/>
-      <c r="J159" s="2"/>
-      <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
-      <c r="N159" s="2"/>
-      <c r="O159" s="2"/>
-      <c r="P159" s="2"/>
-      <c r="Q159" s="2"/>
-      <c r="R159" s="2"/>
-      <c r="S159" s="2"/>
-      <c r="T159" s="2"/>
-      <c r="U159" s="2"/>
-      <c r="V159" s="2"/>
-      <c r="W159" s="2"/>
-      <c r="X159" s="2"/>
-      <c r="Y159" s="2"/>
-      <c r="Z159" s="14"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+      <c r="G159" s="12"/>
+      <c r="H159" s="12"/>
+      <c r="I159" s="12"/>
+      <c r="J159" s="12"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="12"/>
+      <c r="N159" s="12"/>
+      <c r="O159" s="12"/>
+      <c r="P159" s="12"/>
+      <c r="Q159" s="12"/>
+      <c r="R159" s="12"/>
+      <c r="S159" s="12"/>
+      <c r="T159" s="12"/>
+      <c r="U159" s="12"/>
+      <c r="V159" s="12"/>
+      <c r="W159" s="12"/>
+      <c r="X159" s="12"/>
+      <c r="Y159" s="12"/>
+      <c r="Z159" s="13"/>
     </row>
     <row r="160">
-      <c r="A160" s="15" t="s">
+      <c r="A160" s="16" t="s">
         <v>270</v>
       </c>
       <c r="B160" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C160" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
@@ -6645,78 +6658,78 @@
       <c r="W160" s="2"/>
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
-      <c r="Z160" s="14"/>
+      <c r="Z160" s="15"/>
     </row>
     <row r="161">
-      <c r="A161" s="8" t="s">
+      <c r="A161" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B161" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B161" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D161" s="11"/>
-      <c r="E161" s="11"/>
-      <c r="F161" s="11"/>
-      <c r="G161" s="11"/>
-      <c r="H161" s="11"/>
-      <c r="I161" s="11"/>
-      <c r="J161" s="11"/>
-      <c r="K161" s="11"/>
-      <c r="L161" s="11"/>
-      <c r="M161" s="11"/>
-      <c r="N161" s="11"/>
-      <c r="O161" s="11"/>
-      <c r="P161" s="11"/>
-      <c r="Q161" s="11"/>
-      <c r="R161" s="11"/>
-      <c r="S161" s="11"/>
-      <c r="T161" s="11"/>
-      <c r="U161" s="11"/>
-      <c r="V161" s="11"/>
-      <c r="W161" s="11"/>
-      <c r="X161" s="11"/>
-      <c r="Y161" s="11"/>
-      <c r="Z161" s="12"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
+      <c r="H161" s="2"/>
+      <c r="I161" s="2"/>
+      <c r="J161" s="2"/>
+      <c r="K161" s="2"/>
+      <c r="L161" s="2"/>
+      <c r="M161" s="2"/>
+      <c r="N161" s="2"/>
+      <c r="O161" s="2"/>
+      <c r="P161" s="2"/>
+      <c r="Q161" s="2"/>
+      <c r="R161" s="2"/>
+      <c r="S161" s="2"/>
+      <c r="T161" s="2"/>
+      <c r="U161" s="2"/>
+      <c r="V161" s="2"/>
+      <c r="W161" s="2"/>
+      <c r="X161" s="2"/>
+      <c r="Y161" s="2"/>
+      <c r="Z161" s="15"/>
     </row>
     <row r="162">
-      <c r="A162" s="15" t="s">
+      <c r="A162" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="2"/>
-      <c r="S162" s="2"/>
-      <c r="T162" s="2"/>
-      <c r="U162" s="2"/>
-      <c r="V162" s="2"/>
-      <c r="W162" s="2"/>
-      <c r="X162" s="2"/>
-      <c r="Y162" s="2"/>
-      <c r="Z162" s="14"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="12"/>
+      <c r="F162" s="12"/>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="12"/>
+      <c r="O162" s="12"/>
+      <c r="P162" s="12"/>
+      <c r="Q162" s="12"/>
+      <c r="R162" s="12"/>
+      <c r="S162" s="12"/>
+      <c r="T162" s="12"/>
+      <c r="U162" s="12"/>
+      <c r="V162" s="12"/>
+      <c r="W162" s="12"/>
+      <c r="X162" s="12"/>
+      <c r="Y162" s="12"/>
+      <c r="Z162" s="13"/>
     </row>
     <row r="163">
-      <c r="A163" s="15" t="s">
+      <c r="A163" s="16" t="s">
         <v>277</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -6747,133 +6760,133 @@
       <c r="W163" s="2"/>
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
-      <c r="Z163" s="14"/>
+      <c r="Z163" s="15"/>
     </row>
     <row r="164">
       <c r="A164" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="B164" s="17" t="s">
+      <c r="B164" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C164" s="17" t="s">
+      <c r="C164" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D164" s="18"/>
-      <c r="E164" s="18"/>
-      <c r="F164" s="18"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="18"/>
-      <c r="I164" s="18"/>
-      <c r="J164" s="18"/>
-      <c r="K164" s="18"/>
-      <c r="L164" s="18"/>
-      <c r="M164" s="18"/>
-      <c r="N164" s="18"/>
-      <c r="O164" s="18"/>
-      <c r="P164" s="18"/>
-      <c r="Q164" s="18"/>
-      <c r="R164" s="18"/>
-      <c r="S164" s="18"/>
-      <c r="T164" s="18"/>
-      <c r="U164" s="18"/>
-      <c r="V164" s="18"/>
-      <c r="W164" s="18"/>
-      <c r="X164" s="18"/>
-      <c r="Y164" s="18"/>
-      <c r="Z164" s="19"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
+      <c r="H164" s="2"/>
+      <c r="I164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="2"/>
+      <c r="L164" s="2"/>
+      <c r="M164" s="2"/>
+      <c r="N164" s="2"/>
+      <c r="O164" s="2"/>
+      <c r="P164" s="2"/>
+      <c r="Q164" s="2"/>
+      <c r="R164" s="2"/>
+      <c r="S164" s="2"/>
+      <c r="T164" s="2"/>
+      <c r="U164" s="2"/>
+      <c r="V164" s="2"/>
+      <c r="W164" s="2"/>
+      <c r="X164" s="2"/>
+      <c r="Y164" s="2"/>
+      <c r="Z164" s="15"/>
     </row>
     <row r="165">
-      <c r="A165" s="1"/>
-      <c r="B165" s="1"/>
-      <c r="C165" s="1"/>
-      <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
-      <c r="F165" s="2"/>
-      <c r="G165" s="2"/>
-      <c r="H165" s="2"/>
-      <c r="I165" s="2"/>
-      <c r="J165" s="2"/>
-      <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
-      <c r="M165" s="2"/>
-      <c r="N165" s="2"/>
-      <c r="O165" s="2"/>
-      <c r="P165" s="2"/>
-      <c r="Q165" s="2"/>
-      <c r="R165" s="2"/>
-      <c r="S165" s="2"/>
-      <c r="T165" s="2"/>
-      <c r="U165" s="2"/>
-      <c r="V165" s="2"/>
-      <c r="W165" s="2"/>
-      <c r="X165" s="2"/>
-      <c r="Y165" s="2"/>
-      <c r="Z165" s="2"/>
+      <c r="A165" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="B165" s="18" t="s">
+        <v>281</v>
+      </c>
+      <c r="C165" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="D165" s="19"/>
+      <c r="E165" s="19"/>
+      <c r="F165" s="19"/>
+      <c r="G165" s="19"/>
+      <c r="H165" s="19"/>
+      <c r="I165" s="19"/>
+      <c r="J165" s="19"/>
+      <c r="K165" s="19"/>
+      <c r="L165" s="19"/>
+      <c r="M165" s="19"/>
+      <c r="N165" s="19"/>
+      <c r="O165" s="19"/>
+      <c r="P165" s="19"/>
+      <c r="Q165" s="19"/>
+      <c r="R165" s="19"/>
+      <c r="S165" s="19"/>
+      <c r="T165" s="19"/>
+      <c r="U165" s="19"/>
+      <c r="V165" s="19"/>
+      <c r="W165" s="19"/>
+      <c r="X165" s="19"/>
+      <c r="Y165" s="19"/>
+      <c r="Z165" s="20"/>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="B166" s="3"/>
-      <c r="C166" s="3"/>
-      <c r="D166" s="4"/>
-      <c r="E166" s="4"/>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="4"/>
-      <c r="I166" s="4"/>
-      <c r="J166" s="4"/>
-      <c r="K166" s="4"/>
-      <c r="L166" s="4"/>
-      <c r="M166" s="4"/>
-      <c r="N166" s="4"/>
-      <c r="O166" s="4"/>
-      <c r="P166" s="4"/>
-      <c r="Q166" s="4"/>
-      <c r="R166" s="4"/>
-      <c r="S166" s="4"/>
-      <c r="T166" s="4"/>
-      <c r="U166" s="4"/>
-      <c r="V166" s="4"/>
-      <c r="W166" s="4"/>
-      <c r="X166" s="4"/>
-      <c r="Y166" s="4"/>
-      <c r="Z166" s="4"/>
+      <c r="A166" s="1"/>
+      <c r="B166" s="1"/>
+      <c r="C166" s="1"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="2"/>
+      <c r="M166" s="2"/>
+      <c r="N166" s="2"/>
+      <c r="O166" s="2"/>
+      <c r="P166" s="2"/>
+      <c r="Q166" s="2"/>
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2"/>
+      <c r="V166" s="2"/>
+      <c r="W166" s="2"/>
+      <c r="X166" s="2"/>
+      <c r="Y166" s="2"/>
+      <c r="Z166" s="2"/>
     </row>
     <row r="167">
-      <c r="A167" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="C167" s="1" t="s">
+      <c r="A167" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="D167" s="2"/>
-      <c r="E167" s="2"/>
-      <c r="F167" s="2"/>
-      <c r="G167" s="2"/>
-      <c r="H167" s="2"/>
-      <c r="I167" s="2"/>
-      <c r="J167" s="2"/>
-      <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
-      <c r="N167" s="2"/>
-      <c r="O167" s="2"/>
-      <c r="P167" s="2"/>
-      <c r="Q167" s="2"/>
-      <c r="R167" s="2"/>
-      <c r="S167" s="2"/>
-      <c r="T167" s="2"/>
-      <c r="U167" s="2"/>
-      <c r="V167" s="2"/>
-      <c r="W167" s="2"/>
-      <c r="X167" s="2"/>
-      <c r="Y167" s="2"/>
-      <c r="Z167" s="2"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
+      <c r="I167" s="4"/>
+      <c r="J167" s="4"/>
+      <c r="K167" s="4"/>
+      <c r="L167" s="4"/>
+      <c r="M167" s="4"/>
+      <c r="N167" s="4"/>
+      <c r="O167" s="4"/>
+      <c r="P167" s="4"/>
+      <c r="Q167" s="4"/>
+      <c r="R167" s="4"/>
+      <c r="S167" s="4"/>
+      <c r="T167" s="4"/>
+      <c r="U167" s="4"/>
+      <c r="V167" s="4"/>
+      <c r="W167" s="4"/>
+      <c r="X167" s="4"/>
+      <c r="Y167" s="4"/>
+      <c r="Z167" s="4"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="s">
@@ -6978,9 +6991,15 @@
       <c r="Z170" s="2"/>
     </row>
     <row r="171">
-      <c r="A171" s="1"/>
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
+      <c r="A171" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C171" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
       <c r="F171" s="2"/>
@@ -7006,73 +7025,73 @@
       <c r="Z171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
-      <c r="H172" s="4"/>
-      <c r="I172" s="4"/>
-      <c r="J172" s="4"/>
-      <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
-      <c r="M172" s="4"/>
-      <c r="N172" s="4"/>
-      <c r="O172" s="4"/>
-      <c r="P172" s="4"/>
-      <c r="Q172" s="4"/>
-      <c r="R172" s="4"/>
-      <c r="S172" s="4"/>
-      <c r="T172" s="4"/>
-      <c r="U172" s="4"/>
-      <c r="V172" s="4"/>
-      <c r="W172" s="4"/>
-      <c r="X172" s="4"/>
-      <c r="Y172" s="4"/>
-      <c r="Z172" s="4"/>
+      <c r="A172" s="1"/>
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
+      <c r="H172" s="2"/>
+      <c r="I172" s="2"/>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="2"/>
+      <c r="M172" s="2"/>
+      <c r="N172" s="2"/>
+      <c r="O172" s="2"/>
+      <c r="P172" s="2"/>
+      <c r="Q172" s="2"/>
+      <c r="R172" s="2"/>
+      <c r="S172" s="2"/>
+      <c r="T172" s="2"/>
+      <c r="U172" s="2"/>
+      <c r="V172" s="2"/>
+      <c r="W172" s="2"/>
+      <c r="X172" s="2"/>
+      <c r="Y172" s="2"/>
+      <c r="Z172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C173" s="1" t="s">
+      <c r="A173" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
-      <c r="T173" s="2"/>
-      <c r="U173" s="2"/>
-      <c r="V173" s="2"/>
-      <c r="W173" s="2"/>
-      <c r="X173" s="2"/>
-      <c r="Y173" s="2"/>
-      <c r="Z173" s="2"/>
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
+      <c r="I173" s="4"/>
+      <c r="J173" s="4"/>
+      <c r="K173" s="4"/>
+      <c r="L173" s="4"/>
+      <c r="M173" s="4"/>
+      <c r="N173" s="4"/>
+      <c r="O173" s="4"/>
+      <c r="P173" s="4"/>
+      <c r="Q173" s="4"/>
+      <c r="R173" s="4"/>
+      <c r="S173" s="4"/>
+      <c r="T173" s="4"/>
+      <c r="U173" s="4"/>
+      <c r="V173" s="4"/>
+      <c r="W173" s="4"/>
+      <c r="X173" s="4"/>
+      <c r="Y173" s="4"/>
+      <c r="Z173" s="4"/>
     </row>
     <row r="174">
-      <c r="A174" s="1"/>
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
+      <c r="A174" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
       <c r="F174" s="2"/>
@@ -7098,78 +7117,72 @@
       <c r="Z174" s="2"/>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
-      <c r="D175" s="4"/>
-      <c r="E175" s="4"/>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="4"/>
-      <c r="I175" s="4"/>
-      <c r="J175" s="4"/>
-      <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
-      <c r="M175" s="4"/>
-      <c r="N175" s="4"/>
-      <c r="O175" s="4"/>
-      <c r="P175" s="4"/>
-      <c r="Q175" s="4"/>
-      <c r="R175" s="4"/>
-      <c r="S175" s="4"/>
-      <c r="T175" s="4"/>
-      <c r="U175" s="4"/>
-      <c r="V175" s="4"/>
-      <c r="W175" s="4"/>
-      <c r="X175" s="4"/>
-      <c r="Y175" s="4"/>
-      <c r="Z175" s="4"/>
+      <c r="A175" s="1"/>
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+      <c r="M175" s="2"/>
+      <c r="N175" s="2"/>
+      <c r="O175" s="2"/>
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2"/>
+      <c r="V175" s="2"/>
+      <c r="W175" s="2"/>
+      <c r="X175" s="2"/>
+      <c r="Y175" s="2"/>
+      <c r="Z175" s="2"/>
     </row>
     <row r="176">
-      <c r="A176" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B176" s="1" t="s">
+      <c r="A176" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
-      <c r="O176" s="2"/>
-      <c r="P176" s="2"/>
-      <c r="Q176" s="2"/>
-      <c r="R176" s="2"/>
-      <c r="S176" s="2"/>
-      <c r="T176" s="2"/>
-      <c r="U176" s="2"/>
-      <c r="V176" s="2"/>
-      <c r="W176" s="2"/>
-      <c r="X176" s="2"/>
-      <c r="Y176" s="2"/>
-      <c r="Z176" s="2"/>
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
+      <c r="I176" s="4"/>
+      <c r="J176" s="4"/>
+      <c r="K176" s="4"/>
+      <c r="L176" s="4"/>
+      <c r="M176" s="4"/>
+      <c r="N176" s="4"/>
+      <c r="O176" s="4"/>
+      <c r="P176" s="4"/>
+      <c r="Q176" s="4"/>
+      <c r="R176" s="4"/>
+      <c r="S176" s="4"/>
+      <c r="T176" s="4"/>
+      <c r="U176" s="4"/>
+      <c r="V176" s="4"/>
+      <c r="W176" s="4"/>
+      <c r="X176" s="4"/>
+      <c r="Y176" s="4"/>
+      <c r="Z176" s="4"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B177" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>299</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2"/>
@@ -7197,13 +7210,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>301</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -7231,13 +7244,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>304</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>305</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -7265,7 +7278,7 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>306</v>
@@ -7336,10 +7349,10 @@
         <v>310</v>
       </c>
       <c r="B182" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C182" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -7367,13 +7380,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B183" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="C183" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>315</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7401,13 +7414,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -7435,13 +7448,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>320</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>321</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -7468,9 +7481,15 @@
       <c r="Z185" s="2"/>
     </row>
     <row r="186">
-      <c r="A186" s="2"/>
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
+      <c r="A186" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C186" s="1" t="s">
+        <v>323</v>
+      </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
@@ -34571,6 +34590,34 @@
       <c r="Y1153" s="2"/>
       <c r="Z1153" s="2"/>
     </row>
+    <row r="1154">
+      <c r="A1154" s="2"/>
+      <c r="B1154" s="2"/>
+      <c r="C1154" s="2"/>
+      <c r="D1154" s="2"/>
+      <c r="E1154" s="2"/>
+      <c r="F1154" s="2"/>
+      <c r="G1154" s="2"/>
+      <c r="H1154" s="2"/>
+      <c r="I1154" s="2"/>
+      <c r="J1154" s="2"/>
+      <c r="K1154" s="2"/>
+      <c r="L1154" s="2"/>
+      <c r="M1154" s="2"/>
+      <c r="N1154" s="2"/>
+      <c r="O1154" s="2"/>
+      <c r="P1154" s="2"/>
+      <c r="Q1154" s="2"/>
+      <c r="R1154" s="2"/>
+      <c r="S1154" s="2"/>
+      <c r="T1154" s="2"/>
+      <c r="U1154" s="2"/>
+      <c r="V1154" s="2"/>
+      <c r="W1154" s="2"/>
+      <c r="X1154" s="2"/>
+      <c r="Y1154" s="2"/>
+      <c r="Z1154" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -187,10 +187,10 @@
     <t>手牌</t>
   </si>
   <si>
-    <t>Loading</t>
+    <t>Now Loading...</t>
   </si>
   <si>
-    <t>載入中</t>
+    <t>正在加載...</t>
   </si>
   <si>
     <t>Win</t>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -316,7 +316,10 @@
     <t>CASH</t>
   </si>
   <si>
-    <t>現金</t>
+    <t>加密貨幣</t>
+  </si>
+  <si>
+    <t>Cash</t>
   </si>
   <si>
     <t>GOLD</t>
@@ -329,9 +332,6 @@
   </si>
   <si>
     <t>之</t>
-  </si>
-  <si>
-    <t>Cash</t>
   </si>
   <si>
     <t>Points</t>
@@ -1191,6 +1191,9 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -1202,9 +1205,6 @@
     </xf>
     <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -3124,146 +3124,146 @@
       <c r="B51" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="D51" s="23"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="24"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="24"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="24"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="24"/>
+      <c r="S51" s="24"/>
+      <c r="T51" s="24"/>
+      <c r="U51" s="24"/>
+      <c r="V51" s="24"/>
+      <c r="W51" s="24"/>
+      <c r="X51" s="24"/>
+      <c r="Y51" s="24"/>
+      <c r="Z51" s="25"/>
     </row>
     <row r="52">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="15"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="D52" s="23"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="23"/>
-      <c r="Z52" s="24"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="16" t="s">
-        <v>103</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="24"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="24"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="24"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="24"/>
+      <c r="T53" s="24"/>
+      <c r="U53" s="24"/>
+      <c r="V53" s="24"/>
+      <c r="W53" s="24"/>
+      <c r="X53" s="24"/>
+      <c r="Y53" s="24"/>
+      <c r="Z53" s="25"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="Z53" s="26"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="C54" s="22" t="s">
+      <c r="Z54" s="27"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="23"/>
-      <c r="Z54" s="24"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="16" t="s">
+      <c r="B55" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-      <c r="J55" s="2"/>
-      <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-      <c r="V55" s="2"/>
-      <c r="W55" s="2"/>
-      <c r="X55" s="2"/>
-      <c r="Y55" s="2"/>
-      <c r="Z55" s="15"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="24"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="24"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="24"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="24"/>
+      <c r="S55" s="24"/>
+      <c r="T55" s="24"/>
+      <c r="U55" s="24"/>
+      <c r="V55" s="24"/>
+      <c r="W55" s="24"/>
+      <c r="X55" s="24"/>
+      <c r="Y55" s="24"/>
+      <c r="Z55" s="25"/>
     </row>
     <row r="56">
       <c r="A56" s="16" t="s">
@@ -3411,29 +3411,29 @@
       <c r="C60" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="D60" s="23"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="23"/>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="23"/>
-      <c r="W60" s="23"/>
-      <c r="X60" s="23"/>
-      <c r="Y60" s="23"/>
-      <c r="Z60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="24"/>
+      <c r="U60" s="24"/>
+      <c r="V60" s="24"/>
+      <c r="W60" s="24"/>
+      <c r="X60" s="24"/>
+      <c r="Y60" s="24"/>
+      <c r="Z60" s="25"/>
     </row>
     <row r="61">
       <c r="A61" s="21" t="s">
@@ -3445,29 +3445,29 @@
       <c r="C61" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="23"/>
-      <c r="W61" s="23"/>
-      <c r="X61" s="23"/>
-      <c r="Y61" s="23"/>
-      <c r="Z61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="24"/>
+      <c r="M61" s="24"/>
+      <c r="N61" s="24"/>
+      <c r="O61" s="24"/>
+      <c r="P61" s="24"/>
+      <c r="Q61" s="24"/>
+      <c r="R61" s="24"/>
+      <c r="S61" s="24"/>
+      <c r="T61" s="24"/>
+      <c r="U61" s="24"/>
+      <c r="V61" s="24"/>
+      <c r="W61" s="24"/>
+      <c r="X61" s="24"/>
+      <c r="Y61" s="24"/>
+      <c r="Z61" s="25"/>
     </row>
     <row r="62">
       <c r="A62" s="21" t="s">
@@ -3479,29 +3479,29 @@
       <c r="C62" s="22" t="s">
         <v>119</v>
       </c>
-      <c r="D62" s="23"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="23"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="23"/>
-      <c r="W62" s="23"/>
-      <c r="X62" s="23"/>
-      <c r="Y62" s="23"/>
-      <c r="Z62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="24"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="24"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="24"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="24"/>
+      <c r="S62" s="24"/>
+      <c r="T62" s="24"/>
+      <c r="U62" s="24"/>
+      <c r="V62" s="24"/>
+      <c r="W62" s="24"/>
+      <c r="X62" s="24"/>
+      <c r="Y62" s="24"/>
+      <c r="Z62" s="25"/>
     </row>
     <row r="63">
       <c r="A63" s="21" t="s">
@@ -3513,97 +3513,97 @@
       <c r="C63" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="D63" s="23"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="23"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="23"/>
-      <c r="W63" s="23"/>
-      <c r="X63" s="23"/>
-      <c r="Y63" s="23"/>
-      <c r="Z63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="24"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="24"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="24"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="24"/>
+      <c r="S63" s="24"/>
+      <c r="T63" s="24"/>
+      <c r="U63" s="24"/>
+      <c r="V63" s="24"/>
+      <c r="W63" s="24"/>
+      <c r="X63" s="24"/>
+      <c r="Y63" s="24"/>
+      <c r="Z63" s="25"/>
     </row>
     <row r="64">
-      <c r="A64" s="27" t="s">
+      <c r="A64" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="B64" s="28" t="s">
+      <c r="B64" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D64" s="23"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
-      <c r="H64" s="23"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="23"/>
-      <c r="W64" s="23"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="23"/>
-      <c r="Z64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="24"/>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="24"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="24"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="24"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="24"/>
+      <c r="S64" s="24"/>
+      <c r="T64" s="24"/>
+      <c r="U64" s="24"/>
+      <c r="V64" s="24"/>
+      <c r="W64" s="24"/>
+      <c r="X64" s="24"/>
+      <c r="Y64" s="24"/>
+      <c r="Z64" s="25"/>
     </row>
     <row r="65">
-      <c r="A65" s="27" t="s">
+      <c r="A65" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B65" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="D65" s="23"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
-      <c r="P65" s="23"/>
-      <c r="Q65" s="23"/>
-      <c r="R65" s="23"/>
-      <c r="S65" s="23"/>
-      <c r="T65" s="23"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="23"/>
-      <c r="W65" s="23"/>
-      <c r="X65" s="23"/>
-      <c r="Y65" s="23"/>
-      <c r="Z65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="24"/>
+      <c r="W65" s="24"/>
+      <c r="X65" s="24"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="25"/>
     </row>
     <row r="66">
       <c r="A66" s="16" t="s">
@@ -3615,7 +3615,7 @@
       <c r="C66" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="Z66" s="26"/>
+      <c r="Z66" s="27"/>
     </row>
     <row r="67">
       <c r="A67" s="17" t="s">
@@ -6432,29 +6432,29 @@
       <c r="C154" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="D154" s="23"/>
-      <c r="E154" s="23"/>
-      <c r="F154" s="23"/>
-      <c r="G154" s="23"/>
-      <c r="H154" s="23"/>
-      <c r="I154" s="23"/>
-      <c r="J154" s="23"/>
-      <c r="K154" s="23"/>
-      <c r="L154" s="23"/>
-      <c r="M154" s="23"/>
-      <c r="N154" s="23"/>
-      <c r="O154" s="23"/>
-      <c r="P154" s="23"/>
-      <c r="Q154" s="23"/>
-      <c r="R154" s="23"/>
-      <c r="S154" s="23"/>
-      <c r="T154" s="23"/>
-      <c r="U154" s="23"/>
-      <c r="V154" s="23"/>
-      <c r="W154" s="23"/>
-      <c r="X154" s="23"/>
-      <c r="Y154" s="23"/>
-      <c r="Z154" s="24"/>
+      <c r="D154" s="24"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="24"/>
+      <c r="G154" s="24"/>
+      <c r="H154" s="24"/>
+      <c r="I154" s="24"/>
+      <c r="J154" s="24"/>
+      <c r="K154" s="24"/>
+      <c r="L154" s="24"/>
+      <c r="M154" s="24"/>
+      <c r="N154" s="24"/>
+      <c r="O154" s="24"/>
+      <c r="P154" s="24"/>
+      <c r="Q154" s="24"/>
+      <c r="R154" s="24"/>
+      <c r="S154" s="24"/>
+      <c r="T154" s="24"/>
+      <c r="U154" s="24"/>
+      <c r="V154" s="24"/>
+      <c r="W154" s="24"/>
+      <c r="X154" s="24"/>
+      <c r="Y154" s="24"/>
+      <c r="Z154" s="25"/>
     </row>
     <row r="155">
       <c r="A155" s="36" t="s">
@@ -6466,29 +6466,29 @@
       <c r="C155" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="D155" s="23"/>
-      <c r="E155" s="23"/>
-      <c r="F155" s="23"/>
-      <c r="G155" s="23"/>
-      <c r="H155" s="23"/>
-      <c r="I155" s="23"/>
-      <c r="J155" s="23"/>
-      <c r="K155" s="23"/>
-      <c r="L155" s="23"/>
-      <c r="M155" s="23"/>
-      <c r="N155" s="23"/>
-      <c r="O155" s="23"/>
-      <c r="P155" s="23"/>
-      <c r="Q155" s="23"/>
-      <c r="R155" s="23"/>
-      <c r="S155" s="23"/>
-      <c r="T155" s="23"/>
-      <c r="U155" s="23"/>
-      <c r="V155" s="23"/>
-      <c r="W155" s="23"/>
-      <c r="X155" s="23"/>
-      <c r="Y155" s="23"/>
-      <c r="Z155" s="24"/>
+      <c r="D155" s="24"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="24"/>
+      <c r="G155" s="24"/>
+      <c r="H155" s="24"/>
+      <c r="I155" s="24"/>
+      <c r="J155" s="24"/>
+      <c r="K155" s="24"/>
+      <c r="L155" s="24"/>
+      <c r="M155" s="24"/>
+      <c r="N155" s="24"/>
+      <c r="O155" s="24"/>
+      <c r="P155" s="24"/>
+      <c r="Q155" s="24"/>
+      <c r="R155" s="24"/>
+      <c r="S155" s="24"/>
+      <c r="T155" s="24"/>
+      <c r="U155" s="24"/>
+      <c r="V155" s="24"/>
+      <c r="W155" s="24"/>
+      <c r="X155" s="24"/>
+      <c r="Y155" s="24"/>
+      <c r="Z155" s="25"/>
     </row>
     <row r="156">
       <c r="A156" s="36" t="s">
@@ -6500,29 +6500,29 @@
       <c r="C156" s="37" t="s">
         <v>262</v>
       </c>
-      <c r="D156" s="23"/>
-      <c r="E156" s="23"/>
-      <c r="F156" s="23"/>
-      <c r="G156" s="23"/>
-      <c r="H156" s="23"/>
-      <c r="I156" s="23"/>
-      <c r="J156" s="23"/>
-      <c r="K156" s="23"/>
-      <c r="L156" s="23"/>
-      <c r="M156" s="23"/>
-      <c r="N156" s="23"/>
-      <c r="O156" s="23"/>
-      <c r="P156" s="23"/>
-      <c r="Q156" s="23"/>
-      <c r="R156" s="23"/>
-      <c r="S156" s="23"/>
-      <c r="T156" s="23"/>
-      <c r="U156" s="23"/>
-      <c r="V156" s="23"/>
-      <c r="W156" s="23"/>
-      <c r="X156" s="23"/>
-      <c r="Y156" s="23"/>
-      <c r="Z156" s="24"/>
+      <c r="D156" s="24"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="24"/>
+      <c r="G156" s="24"/>
+      <c r="H156" s="24"/>
+      <c r="I156" s="24"/>
+      <c r="J156" s="24"/>
+      <c r="K156" s="24"/>
+      <c r="L156" s="24"/>
+      <c r="M156" s="24"/>
+      <c r="N156" s="24"/>
+      <c r="O156" s="24"/>
+      <c r="P156" s="24"/>
+      <c r="Q156" s="24"/>
+      <c r="R156" s="24"/>
+      <c r="S156" s="24"/>
+      <c r="T156" s="24"/>
+      <c r="U156" s="24"/>
+      <c r="V156" s="24"/>
+      <c r="W156" s="24"/>
+      <c r="X156" s="24"/>
+      <c r="Y156" s="24"/>
+      <c r="Z156" s="25"/>
     </row>
     <row r="157">
       <c r="A157" s="36" t="s">
@@ -6534,29 +6534,29 @@
       <c r="C157" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="D157" s="23"/>
-      <c r="E157" s="23"/>
-      <c r="F157" s="23"/>
-      <c r="G157" s="23"/>
-      <c r="H157" s="23"/>
-      <c r="I157" s="23"/>
-      <c r="J157" s="23"/>
-      <c r="K157" s="23"/>
-      <c r="L157" s="23"/>
-      <c r="M157" s="23"/>
-      <c r="N157" s="23"/>
-      <c r="O157" s="23"/>
-      <c r="P157" s="23"/>
-      <c r="Q157" s="23"/>
-      <c r="R157" s="23"/>
-      <c r="S157" s="23"/>
-      <c r="T157" s="23"/>
-      <c r="U157" s="23"/>
-      <c r="V157" s="23"/>
-      <c r="W157" s="23"/>
-      <c r="X157" s="23"/>
-      <c r="Y157" s="23"/>
-      <c r="Z157" s="24"/>
+      <c r="D157" s="24"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="24"/>
+      <c r="G157" s="24"/>
+      <c r="H157" s="24"/>
+      <c r="I157" s="24"/>
+      <c r="J157" s="24"/>
+      <c r="K157" s="24"/>
+      <c r="L157" s="24"/>
+      <c r="M157" s="24"/>
+      <c r="N157" s="24"/>
+      <c r="O157" s="24"/>
+      <c r="P157" s="24"/>
+      <c r="Q157" s="24"/>
+      <c r="R157" s="24"/>
+      <c r="S157" s="24"/>
+      <c r="T157" s="24"/>
+      <c r="U157" s="24"/>
+      <c r="V157" s="24"/>
+      <c r="W157" s="24"/>
+      <c r="X157" s="24"/>
+      <c r="Y157" s="24"/>
+      <c r="Z157" s="25"/>
     </row>
     <row r="158">
       <c r="A158" s="38" t="s">

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="326">
   <si>
     <t>ID</t>
   </si>
@@ -470,6 +470,12 @@
   </si>
   <si>
     <t>錢包連接中頁面</t>
+  </si>
+  <si>
+    <t>If you have not downloaded the wallet, please download it first. &lt;color=#79E84B&gt;&lt;link=DownloadWallet&gt;&lt;u&gt;Download Here!&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>如果您未下載錢包，請先下載。 &lt;color=#79E84B&gt;&lt;link=DownloadWallet&gt;&lt;u&gt;在這裡下載!&lt;/u&gt;&lt;/link&gt;&lt;/color&gt;</t>
   </si>
   <si>
     <t>Log In Using</t>
@@ -4328,132 +4334,132 @@
       <c r="Z88" s="6"/>
     </row>
     <row r="89">
-      <c r="A89" s="31" t="s">
+      <c r="A89" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B89" s="32"/>
-      <c r="C89" s="32"/>
-      <c r="D89" s="32"/>
-      <c r="E89" s="32"/>
-      <c r="F89" s="32"/>
-      <c r="G89" s="32"/>
-      <c r="H89" s="32"/>
-      <c r="I89" s="32"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="32"/>
-      <c r="L89" s="32"/>
-      <c r="M89" s="32"/>
-      <c r="N89" s="32"/>
-      <c r="O89" s="32"/>
-      <c r="P89" s="32"/>
-      <c r="Q89" s="32"/>
-      <c r="R89" s="32"/>
-      <c r="S89" s="32"/>
-      <c r="T89" s="32"/>
-      <c r="U89" s="32"/>
-      <c r="V89" s="32"/>
-      <c r="W89" s="32"/>
-      <c r="X89" s="32"/>
-      <c r="Y89" s="32"/>
-      <c r="Z89" s="32"/>
+      <c r="B89" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="6"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
+      <c r="S89" s="6"/>
+      <c r="T89" s="6"/>
+      <c r="U89" s="6"/>
+      <c r="V89" s="6"/>
+      <c r="W89" s="6"/>
+      <c r="X89" s="6"/>
+      <c r="Y89" s="6"/>
+      <c r="Z89" s="6"/>
     </row>
     <row r="90">
-      <c r="A90" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C90" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="6"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="6"/>
-      <c r="P90" s="6"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="6"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="6"/>
-      <c r="U90" s="6"/>
-      <c r="V90" s="6"/>
-      <c r="W90" s="6"/>
-      <c r="X90" s="6"/>
-      <c r="Y90" s="6"/>
-      <c r="Z90" s="6"/>
+      <c r="A90" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
+      <c r="I90" s="32"/>
+      <c r="J90" s="32"/>
+      <c r="K90" s="32"/>
+      <c r="L90" s="32"/>
+      <c r="M90" s="32"/>
+      <c r="N90" s="32"/>
+      <c r="O90" s="32"/>
+      <c r="P90" s="32"/>
+      <c r="Q90" s="32"/>
+      <c r="R90" s="32"/>
+      <c r="S90" s="32"/>
+      <c r="T90" s="32"/>
+      <c r="U90" s="32"/>
+      <c r="V90" s="32"/>
+      <c r="W90" s="32"/>
+      <c r="X90" s="32"/>
+      <c r="Y90" s="32"/>
+      <c r="Z90" s="32"/>
     </row>
     <row r="91">
-      <c r="A91" s="29" t="s">
+      <c r="A91" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C91" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B91" s="29"/>
-      <c r="C91" s="29"/>
-      <c r="D91" s="30"/>
-      <c r="E91" s="30"/>
-      <c r="F91" s="30"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="30"/>
-      <c r="I91" s="30"/>
-      <c r="J91" s="30"/>
-      <c r="K91" s="30"/>
-      <c r="L91" s="30"/>
-      <c r="M91" s="30"/>
-      <c r="N91" s="30"/>
-      <c r="O91" s="30"/>
-      <c r="P91" s="30"/>
-      <c r="Q91" s="30"/>
-      <c r="R91" s="30"/>
-      <c r="S91" s="30"/>
-      <c r="T91" s="30"/>
-      <c r="U91" s="30"/>
-      <c r="V91" s="30"/>
-      <c r="W91" s="30"/>
-      <c r="X91" s="30"/>
-      <c r="Y91" s="30"/>
-      <c r="Z91" s="30"/>
+      <c r="D91" s="6"/>
+      <c r="E91" s="6"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="6"/>
+      <c r="I91" s="6"/>
+      <c r="J91" s="6"/>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="6"/>
+      <c r="O91" s="6"/>
+      <c r="P91" s="6"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="6"/>
+      <c r="S91" s="6"/>
+      <c r="T91" s="6"/>
+      <c r="U91" s="6"/>
+      <c r="V91" s="6"/>
+      <c r="W91" s="6"/>
+      <c r="X91" s="6"/>
+      <c r="Y91" s="6"/>
+      <c r="Z91" s="6"/>
     </row>
     <row r="92">
-      <c r="A92" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C92" s="5" t="s">
+      <c r="A92" s="29" t="s">
         <v>163</v>
       </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
-      <c r="Y92" s="6"/>
-      <c r="Z92" s="6"/>
+      <c r="B92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="30"/>
+      <c r="E92" s="30"/>
+      <c r="F92" s="30"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="30"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="30"/>
+      <c r="P92" s="30"/>
+      <c r="Q92" s="30"/>
+      <c r="R92" s="30"/>
+      <c r="S92" s="30"/>
+      <c r="T92" s="30"/>
+      <c r="U92" s="30"/>
+      <c r="V92" s="30"/>
+      <c r="W92" s="30"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="30"/>
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
@@ -4490,7 +4496,7 @@
       <c r="Z93" s="6"/>
     </row>
     <row r="94">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -4524,71 +4530,71 @@
       <c r="Z94" s="6"/>
     </row>
     <row r="95">
-      <c r="A95" s="29" t="s">
+      <c r="A95" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B95" s="29"/>
-      <c r="C95" s="29"/>
-      <c r="D95" s="30"/>
-      <c r="E95" s="30"/>
-      <c r="F95" s="30"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="30"/>
-      <c r="I95" s="30"/>
-      <c r="J95" s="30"/>
-      <c r="K95" s="30"/>
-      <c r="L95" s="30"/>
-      <c r="M95" s="30"/>
-      <c r="N95" s="30"/>
-      <c r="O95" s="30"/>
-      <c r="P95" s="30"/>
-      <c r="Q95" s="30"/>
-      <c r="R95" s="30"/>
-      <c r="S95" s="30"/>
-      <c r="T95" s="30"/>
-      <c r="U95" s="30"/>
-      <c r="V95" s="30"/>
-      <c r="W95" s="30"/>
-      <c r="X95" s="30"/>
-      <c r="Y95" s="30"/>
-      <c r="Z95" s="30"/>
+      <c r="B95" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="6"/>
+      <c r="I95" s="6"/>
+      <c r="J95" s="6"/>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="6"/>
+      <c r="O95" s="6"/>
+      <c r="P95" s="6"/>
+      <c r="Q95" s="6"/>
+      <c r="R95" s="6"/>
+      <c r="S95" s="6"/>
+      <c r="T95" s="6"/>
+      <c r="U95" s="6"/>
+      <c r="V95" s="6"/>
+      <c r="W95" s="6"/>
+      <c r="X95" s="6"/>
+      <c r="Y95" s="6"/>
+      <c r="Z95" s="6"/>
     </row>
     <row r="96">
-      <c r="A96" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C96" s="7" t="s">
+      <c r="A96" s="29" t="s">
         <v>170</v>
       </c>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
-      <c r="U96" s="6"/>
-      <c r="V96" s="6"/>
-      <c r="W96" s="6"/>
-      <c r="X96" s="6"/>
-      <c r="Y96" s="6"/>
-      <c r="Z96" s="6"/>
+      <c r="B96" s="29"/>
+      <c r="C96" s="29"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="30"/>
+      <c r="N96" s="30"/>
+      <c r="O96" s="30"/>
+      <c r="P96" s="30"/>
+      <c r="Q96" s="30"/>
+      <c r="R96" s="30"/>
+      <c r="S96" s="30"/>
+      <c r="T96" s="30"/>
+      <c r="U96" s="30"/>
+      <c r="V96" s="30"/>
+      <c r="W96" s="30"/>
+      <c r="X96" s="30"/>
+      <c r="Y96" s="30"/>
+      <c r="Z96" s="30"/>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="33" t="s">
         <v>171</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -4597,131 +4603,131 @@
       <c r="C97" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
-      <c r="V97" s="2"/>
-      <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
-      <c r="Z97" s="2"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6"/>
+      <c r="Z97" s="6"/>
     </row>
     <row r="98">
-      <c r="A98" s="5"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="5"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="6"/>
-      <c r="I98" s="6"/>
-      <c r="J98" s="6"/>
-      <c r="K98" s="6"/>
-      <c r="L98" s="6"/>
-      <c r="M98" s="6"/>
-      <c r="N98" s="6"/>
-      <c r="O98" s="6"/>
-      <c r="P98" s="6"/>
-      <c r="Q98" s="6"/>
-      <c r="R98" s="6"/>
-      <c r="S98" s="6"/>
-      <c r="T98" s="6"/>
-      <c r="U98" s="6"/>
-      <c r="V98" s="6"/>
-      <c r="W98" s="6"/>
-      <c r="X98" s="6"/>
-      <c r="Y98" s="6"/>
-      <c r="Z98" s="6"/>
+      <c r="A98" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="2"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2"/>
+      <c r="R98" s="2"/>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
+      <c r="Y98" s="2"/>
+      <c r="Z98" s="2"/>
     </row>
     <row r="99">
-      <c r="A99" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="4"/>
-      <c r="E99" s="4"/>
-      <c r="F99" s="4"/>
-      <c r="G99" s="4"/>
-      <c r="H99" s="4"/>
-      <c r="I99" s="4"/>
-      <c r="J99" s="4"/>
-      <c r="K99" s="4"/>
-      <c r="L99" s="4"/>
-      <c r="M99" s="4"/>
-      <c r="N99" s="4"/>
-      <c r="O99" s="4"/>
-      <c r="P99" s="4"/>
-      <c r="Q99" s="4"/>
-      <c r="R99" s="4"/>
-      <c r="S99" s="4"/>
-      <c r="T99" s="4"/>
-      <c r="U99" s="4"/>
-      <c r="V99" s="4"/>
-      <c r="W99" s="4"/>
-      <c r="X99" s="4"/>
-      <c r="Y99" s="4"/>
-      <c r="Z99" s="4"/>
+      <c r="A99" s="5"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="6"/>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
+      <c r="S99" s="6"/>
+      <c r="T99" s="6"/>
+      <c r="U99" s="6"/>
+      <c r="V99" s="6"/>
+      <c r="W99" s="6"/>
+      <c r="X99" s="6"/>
+      <c r="Y99" s="6"/>
+      <c r="Z99" s="6"/>
     </row>
     <row r="100">
-      <c r="A100" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="D100" s="6"/>
-      <c r="E100" s="6"/>
-      <c r="F100" s="6"/>
-      <c r="G100" s="6"/>
-      <c r="H100" s="6"/>
-      <c r="I100" s="6"/>
-      <c r="J100" s="6"/>
-      <c r="K100" s="6"/>
-      <c r="L100" s="6"/>
-      <c r="M100" s="6"/>
-      <c r="N100" s="6"/>
-      <c r="O100" s="6"/>
-      <c r="P100" s="6"/>
-      <c r="Q100" s="6"/>
-      <c r="R100" s="6"/>
-      <c r="S100" s="6"/>
-      <c r="T100" s="6"/>
-      <c r="U100" s="6"/>
-      <c r="V100" s="6"/>
-      <c r="W100" s="6"/>
-      <c r="X100" s="6"/>
-      <c r="Y100" s="6"/>
-      <c r="Z100" s="6"/>
+      <c r="A100" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="4"/>
+      <c r="Q100" s="4"/>
+      <c r="R100" s="4"/>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C101" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="B101" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="D101" s="6"/>
       <c r="E101" s="6"/>
@@ -4782,9 +4788,15 @@
       <c r="Z102" s="6"/>
     </row>
     <row r="103">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5"/>
-      <c r="C103" s="5"/>
+      <c r="A103" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="D103" s="6"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -4810,78 +4822,72 @@
       <c r="Z103" s="6"/>
     </row>
     <row r="104">
-      <c r="A104" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="4"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="4"/>
-      <c r="H104" s="4"/>
-      <c r="I104" s="4"/>
-      <c r="J104" s="4"/>
-      <c r="K104" s="4"/>
-      <c r="L104" s="4"/>
-      <c r="M104" s="4"/>
-      <c r="N104" s="4"/>
-      <c r="O104" s="4"/>
-      <c r="P104" s="4"/>
-      <c r="Q104" s="4"/>
-      <c r="R104" s="4"/>
-      <c r="S104" s="4"/>
-      <c r="T104" s="4"/>
-      <c r="U104" s="4"/>
-      <c r="V104" s="4"/>
-      <c r="W104" s="4"/>
-      <c r="X104" s="4"/>
-      <c r="Y104" s="4"/>
-      <c r="Z104" s="4"/>
+      <c r="A104" s="5"/>
+      <c r="B104" s="5"/>
+      <c r="C104" s="5"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="6"/>
+      <c r="I104" s="6"/>
+      <c r="J104" s="6"/>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="6"/>
+      <c r="O104" s="6"/>
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6"/>
+      <c r="R104" s="6"/>
+      <c r="S104" s="6"/>
+      <c r="T104" s="6"/>
+      <c r="U104" s="6"/>
+      <c r="V104" s="6"/>
+      <c r="W104" s="6"/>
+      <c r="X104" s="6"/>
+      <c r="Y104" s="6"/>
+      <c r="Z104" s="6"/>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C105" s="1" t="s">
+      <c r="A105" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D105" s="2"/>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-      <c r="G105" s="2"/>
-      <c r="H105" s="2"/>
-      <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-      <c r="Q105" s="2"/>
-      <c r="R105" s="2"/>
-      <c r="S105" s="2"/>
-      <c r="T105" s="2"/>
-      <c r="U105" s="2"/>
-      <c r="V105" s="2"/>
-      <c r="W105" s="2"/>
-      <c r="X105" s="2"/>
-      <c r="Y105" s="2"/>
-      <c r="Z105" s="2"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+      <c r="Q105" s="4"/>
+      <c r="R105" s="4"/>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B106" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C106" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>184</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -4909,7 +4915,7 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>185</v>
@@ -5044,9 +5050,15 @@
       <c r="Z110" s="2"/>
     </row>
     <row r="111">
-      <c r="A111" s="1"/>
-      <c r="B111" s="1"/>
-      <c r="C111" s="1"/>
+      <c r="A111" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>194</v>
+      </c>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -5072,68 +5084,62 @@
       <c r="Z111" s="2"/>
     </row>
     <row r="112">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+      <c r="H112" s="2"/>
+      <c r="I112" s="2"/>
+      <c r="J112" s="2"/>
+      <c r="K112" s="2"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2"/>
+      <c r="N112" s="2"/>
+      <c r="O112" s="2"/>
+      <c r="P112" s="2"/>
+      <c r="Q112" s="2"/>
+      <c r="R112" s="2"/>
+      <c r="S112" s="2"/>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="2"/>
+      <c r="Y112" s="2"/>
+      <c r="Z112" s="2"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="4"/>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="O112" s="4"/>
-      <c r="P112" s="4"/>
-      <c r="Q112" s="4"/>
-      <c r="R112" s="4"/>
-      <c r="S112" s="4"/>
-      <c r="T112" s="4"/>
-      <c r="U112" s="4"/>
-      <c r="V112" s="4"/>
-      <c r="W112" s="4"/>
-      <c r="X112" s="4"/>
-      <c r="Y112" s="4"/>
-      <c r="Z112" s="4"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
-      <c r="S113" s="2"/>
-      <c r="T113" s="2"/>
-      <c r="U113" s="2"/>
-      <c r="V113" s="2"/>
-      <c r="W113" s="2"/>
-      <c r="X113" s="2"/>
-      <c r="Y113" s="2"/>
-      <c r="Z113" s="2"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="4"/>
+      <c r="Q113" s="4"/>
+      <c r="R113" s="4"/>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
@@ -5204,174 +5210,174 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="9" t="s">
+      <c r="A116" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D116" s="12"/>
-      <c r="E116" s="12"/>
-      <c r="F116" s="12"/>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12"/>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="12"/>
-      <c r="S116" s="12"/>
-      <c r="T116" s="12"/>
-      <c r="U116" s="12"/>
-      <c r="V116" s="12"/>
-      <c r="W116" s="12"/>
-      <c r="X116" s="12"/>
-      <c r="Y116" s="12"/>
-      <c r="Z116" s="13"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2"/>
+      <c r="N116" s="2"/>
+      <c r="O116" s="2"/>
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="2"/>
+      <c r="Y116" s="2"/>
+      <c r="Z116" s="2"/>
     </row>
     <row r="117">
-      <c r="A117" s="16" t="s">
+      <c r="A117" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="C117" s="11" t="s">
         <v>202</v>
       </c>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
-      <c r="S117" s="2"/>
-      <c r="T117" s="2"/>
-      <c r="U117" s="2"/>
-      <c r="V117" s="2"/>
-      <c r="W117" s="2"/>
-      <c r="X117" s="2"/>
-      <c r="Y117" s="2"/>
-      <c r="Z117" s="15"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="12"/>
+      <c r="F117" s="12"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="12"/>
+      <c r="Y117" s="12"/>
+      <c r="Z117" s="13"/>
     </row>
     <row r="118">
-      <c r="A118" s="17" t="s">
+      <c r="A118" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="B118" s="18" t="s">
+      <c r="B118" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C118" s="18" t="s">
+      <c r="C118" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
-      <c r="F118" s="19"/>
-      <c r="G118" s="19"/>
-      <c r="H118" s="19"/>
-      <c r="I118" s="19"/>
-      <c r="J118" s="19"/>
-      <c r="K118" s="19"/>
-      <c r="L118" s="19"/>
-      <c r="M118" s="19"/>
-      <c r="N118" s="19"/>
-      <c r="O118" s="19"/>
-      <c r="P118" s="19"/>
-      <c r="Q118" s="19"/>
-      <c r="R118" s="19"/>
-      <c r="S118" s="19"/>
-      <c r="T118" s="19"/>
-      <c r="U118" s="19"/>
-      <c r="V118" s="19"/>
-      <c r="W118" s="19"/>
-      <c r="X118" s="19"/>
-      <c r="Y118" s="19"/>
-      <c r="Z118" s="20"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2"/>
+      <c r="N118" s="2"/>
+      <c r="O118" s="2"/>
+      <c r="P118" s="2"/>
+      <c r="Q118" s="2"/>
+      <c r="R118" s="2"/>
+      <c r="S118" s="2"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="2"/>
+      <c r="Y118" s="2"/>
+      <c r="Z118" s="15"/>
     </row>
     <row r="119">
-      <c r="A119" s="9" t="s">
+      <c r="A119" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="C119" s="11" t="s">
+      <c r="C119" s="18" t="s">
         <v>206</v>
       </c>
-      <c r="D119" s="12"/>
-      <c r="E119" s="12"/>
-      <c r="F119" s="12"/>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12"/>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="12"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="12"/>
-      <c r="P119" s="12"/>
-      <c r="Q119" s="12"/>
-      <c r="R119" s="12"/>
-      <c r="S119" s="12"/>
-      <c r="T119" s="12"/>
-      <c r="U119" s="12"/>
-      <c r="V119" s="12"/>
-      <c r="W119" s="12"/>
-      <c r="X119" s="12"/>
-      <c r="Y119" s="12"/>
-      <c r="Z119" s="13"/>
+      <c r="D119" s="19"/>
+      <c r="E119" s="19"/>
+      <c r="F119" s="19"/>
+      <c r="G119" s="19"/>
+      <c r="H119" s="19"/>
+      <c r="I119" s="19"/>
+      <c r="J119" s="19"/>
+      <c r="K119" s="19"/>
+      <c r="L119" s="19"/>
+      <c r="M119" s="19"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="19"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="19"/>
+      <c r="R119" s="19"/>
+      <c r="S119" s="19"/>
+      <c r="T119" s="19"/>
+      <c r="U119" s="19"/>
+      <c r="V119" s="19"/>
+      <c r="W119" s="19"/>
+      <c r="X119" s="19"/>
+      <c r="Y119" s="19"/>
+      <c r="Z119" s="20"/>
     </row>
     <row r="120">
-      <c r="A120" s="16" t="s">
+      <c r="A120" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="C120" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
-      <c r="F120" s="2"/>
-      <c r="G120" s="2"/>
-      <c r="H120" s="2"/>
-      <c r="I120" s="2"/>
-      <c r="J120" s="2"/>
-      <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
-      <c r="N120" s="2"/>
-      <c r="O120" s="2"/>
-      <c r="P120" s="2"/>
-      <c r="Q120" s="2"/>
-      <c r="R120" s="2"/>
-      <c r="S120" s="2"/>
-      <c r="T120" s="2"/>
-      <c r="U120" s="2"/>
-      <c r="V120" s="2"/>
-      <c r="W120" s="2"/>
-      <c r="X120" s="2"/>
-      <c r="Y120" s="2"/>
-      <c r="Z120" s="15"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="12"/>
+      <c r="F120" s="12"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="12"/>
+      <c r="U120" s="12"/>
+      <c r="V120" s="12"/>
+      <c r="W120" s="12"/>
+      <c r="X120" s="12"/>
+      <c r="Y120" s="12"/>
+      <c r="Z120" s="13"/>
     </row>
     <row r="121">
       <c r="A121" s="16" t="s">
@@ -5408,109 +5414,109 @@
       <c r="Z121" s="15"/>
     </row>
     <row r="122">
-      <c r="A122" s="17" t="s">
+      <c r="A122" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B122" s="18" t="s">
+      <c r="B122" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C122" s="18" t="s">
+      <c r="C122" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
-      <c r="F122" s="19"/>
-      <c r="G122" s="19"/>
-      <c r="H122" s="19"/>
-      <c r="I122" s="19"/>
-      <c r="J122" s="19"/>
-      <c r="K122" s="19"/>
-      <c r="L122" s="19"/>
-      <c r="M122" s="19"/>
-      <c r="N122" s="19"/>
-      <c r="O122" s="19"/>
-      <c r="P122" s="19"/>
-      <c r="Q122" s="19"/>
-      <c r="R122" s="19"/>
-      <c r="S122" s="19"/>
-      <c r="T122" s="19"/>
-      <c r="U122" s="19"/>
-      <c r="V122" s="19"/>
-      <c r="W122" s="19"/>
-      <c r="X122" s="19"/>
-      <c r="Y122" s="19"/>
-      <c r="Z122" s="20"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2"/>
+      <c r="V122" s="2"/>
+      <c r="W122" s="2"/>
+      <c r="X122" s="2"/>
+      <c r="Y122" s="2"/>
+      <c r="Z122" s="15"/>
     </row>
     <row r="123">
-      <c r="A123" s="9" t="s">
+      <c r="A123" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="18" t="s">
         <v>213</v>
       </c>
-      <c r="C123" s="11" t="s">
+      <c r="C123" s="18" t="s">
         <v>214</v>
       </c>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-      <c r="G123" s="12"/>
-      <c r="H123" s="12"/>
-      <c r="I123" s="12"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="12"/>
-      <c r="L123" s="12"/>
-      <c r="M123" s="12"/>
-      <c r="N123" s="12"/>
-      <c r="O123" s="12"/>
-      <c r="P123" s="12"/>
-      <c r="Q123" s="12"/>
-      <c r="R123" s="12"/>
-      <c r="S123" s="12"/>
-      <c r="T123" s="12"/>
-      <c r="U123" s="12"/>
-      <c r="V123" s="12"/>
-      <c r="W123" s="12"/>
-      <c r="X123" s="12"/>
-      <c r="Y123" s="12"/>
-      <c r="Z123" s="13"/>
+      <c r="D123" s="19"/>
+      <c r="E123" s="19"/>
+      <c r="F123" s="19"/>
+      <c r="G123" s="19"/>
+      <c r="H123" s="19"/>
+      <c r="I123" s="19"/>
+      <c r="J123" s="19"/>
+      <c r="K123" s="19"/>
+      <c r="L123" s="19"/>
+      <c r="M123" s="19"/>
+      <c r="N123" s="19"/>
+      <c r="O123" s="19"/>
+      <c r="P123" s="19"/>
+      <c r="Q123" s="19"/>
+      <c r="R123" s="19"/>
+      <c r="S123" s="19"/>
+      <c r="T123" s="19"/>
+      <c r="U123" s="19"/>
+      <c r="V123" s="19"/>
+      <c r="W123" s="19"/>
+      <c r="X123" s="19"/>
+      <c r="Y123" s="19"/>
+      <c r="Z123" s="20"/>
     </row>
     <row r="124">
-      <c r="A124" s="34" t="s">
+      <c r="A124" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="C124" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
-      <c r="H124" s="2"/>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
-      <c r="O124" s="2"/>
-      <c r="P124" s="2"/>
-      <c r="Q124" s="2"/>
-      <c r="R124" s="2"/>
-      <c r="S124" s="2"/>
-      <c r="T124" s="2"/>
-      <c r="U124" s="2"/>
-      <c r="V124" s="2"/>
-      <c r="W124" s="2"/>
-      <c r="X124" s="2"/>
-      <c r="Y124" s="2"/>
-      <c r="Z124" s="15"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="12"/>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="12"/>
+      <c r="U124" s="12"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="12"/>
+      <c r="X124" s="12"/>
+      <c r="Y124" s="12"/>
+      <c r="Z124" s="13"/>
     </row>
     <row r="125">
-      <c r="A125" s="16" t="s">
+      <c r="A125" s="34" t="s">
         <v>217</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -5544,77 +5550,83 @@
       <c r="Z125" s="15"/>
     </row>
     <row r="126">
-      <c r="A126" s="17" t="s">
+      <c r="A126" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="B126" s="18" t="s">
+      <c r="B126" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C126" s="18" t="s">
+      <c r="C126" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="2"/>
+      <c r="Z126" s="15"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C127" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="19"/>
-      <c r="H126" s="19"/>
-      <c r="I126" s="19"/>
-      <c r="J126" s="19"/>
-      <c r="K126" s="19"/>
-      <c r="L126" s="19"/>
-      <c r="M126" s="19"/>
-      <c r="N126" s="19"/>
-      <c r="O126" s="19"/>
-      <c r="P126" s="19"/>
-      <c r="Q126" s="19"/>
-      <c r="R126" s="19"/>
-      <c r="S126" s="19"/>
-      <c r="T126" s="19"/>
-      <c r="U126" s="19"/>
-      <c r="V126" s="19"/>
-      <c r="W126" s="19"/>
-      <c r="X126" s="19"/>
-      <c r="Y126" s="19"/>
-      <c r="Z126" s="20"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
-      <c r="H127" s="2"/>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
-      <c r="N127" s="2"/>
-      <c r="O127" s="2"/>
-      <c r="P127" s="2"/>
-      <c r="Q127" s="2"/>
-      <c r="R127" s="2"/>
-      <c r="S127" s="2"/>
-      <c r="T127" s="2"/>
-      <c r="U127" s="2"/>
-      <c r="V127" s="2"/>
-      <c r="W127" s="2"/>
-      <c r="X127" s="2"/>
-      <c r="Y127" s="2"/>
-      <c r="Z127" s="2"/>
+      <c r="D127" s="19"/>
+      <c r="E127" s="19"/>
+      <c r="F127" s="19"/>
+      <c r="G127" s="19"/>
+      <c r="H127" s="19"/>
+      <c r="I127" s="19"/>
+      <c r="J127" s="19"/>
+      <c r="K127" s="19"/>
+      <c r="L127" s="19"/>
+      <c r="M127" s="19"/>
+      <c r="N127" s="19"/>
+      <c r="O127" s="19"/>
+      <c r="P127" s="19"/>
+      <c r="Q127" s="19"/>
+      <c r="R127" s="19"/>
+      <c r="S127" s="19"/>
+      <c r="T127" s="19"/>
+      <c r="U127" s="19"/>
+      <c r="V127" s="19"/>
+      <c r="W127" s="19"/>
+      <c r="X127" s="19"/>
+      <c r="Y127" s="19"/>
+      <c r="Z127" s="20"/>
     </row>
     <row r="128">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>223</v>
+      </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
       <c r="F128" s="2"/>
@@ -5640,73 +5652,73 @@
       <c r="Z128" s="2"/>
     </row>
     <row r="129">
-      <c r="A129" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="4"/>
-      <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-      <c r="K129" s="4"/>
-      <c r="L129" s="4"/>
-      <c r="M129" s="4"/>
-      <c r="N129" s="4"/>
-      <c r="O129" s="4"/>
-      <c r="P129" s="4"/>
-      <c r="Q129" s="4"/>
-      <c r="R129" s="4"/>
-      <c r="S129" s="4"/>
-      <c r="T129" s="4"/>
-      <c r="U129" s="4"/>
-      <c r="V129" s="4"/>
-      <c r="W129" s="4"/>
-      <c r="X129" s="4"/>
-      <c r="Y129" s="4"/>
-      <c r="Z129" s="4"/>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
+      <c r="W129" s="2"/>
+      <c r="X129" s="2"/>
+      <c r="Y129" s="2"/>
+      <c r="Z129" s="2"/>
     </row>
     <row r="130">
-      <c r="A130" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C130" s="1" t="s">
+      <c r="A130" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D130" s="2"/>
-      <c r="E130" s="2"/>
-      <c r="F130" s="2"/>
-      <c r="G130" s="2"/>
-      <c r="H130" s="2"/>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
-      <c r="N130" s="2"/>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
-      <c r="R130" s="2"/>
-      <c r="S130" s="2"/>
-      <c r="T130" s="2"/>
-      <c r="U130" s="2"/>
-      <c r="V130" s="2"/>
-      <c r="W130" s="2"/>
-      <c r="X130" s="2"/>
-      <c r="Y130" s="2"/>
-      <c r="Z130" s="2"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="4"/>
     </row>
     <row r="131">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
       <c r="F131" s="2"/>
@@ -5732,68 +5744,62 @@
       <c r="Z131" s="2"/>
     </row>
     <row r="132">
-      <c r="A132" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
-      <c r="F132" s="4"/>
-      <c r="G132" s="4"/>
-      <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
-      <c r="K132" s="4"/>
-      <c r="L132" s="4"/>
-      <c r="M132" s="4"/>
-      <c r="N132" s="4"/>
-      <c r="O132" s="4"/>
-      <c r="P132" s="4"/>
-      <c r="Q132" s="4"/>
-      <c r="R132" s="4"/>
-      <c r="S132" s="4"/>
-      <c r="T132" s="4"/>
-      <c r="U132" s="4"/>
-      <c r="V132" s="4"/>
-      <c r="W132" s="4"/>
-      <c r="X132" s="4"/>
-      <c r="Y132" s="4"/>
-      <c r="Z132" s="4"/>
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2"/>
+      <c r="V132" s="2"/>
+      <c r="W132" s="2"/>
+      <c r="X132" s="2"/>
+      <c r="Y132" s="2"/>
+      <c r="Z132" s="2"/>
     </row>
     <row r="133">
-      <c r="A133" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D133" s="2"/>
-      <c r="E133" s="2"/>
-      <c r="F133" s="2"/>
-      <c r="G133" s="2"/>
-      <c r="H133" s="2"/>
-      <c r="I133" s="2"/>
-      <c r="J133" s="2"/>
-      <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
-      <c r="N133" s="2"/>
-      <c r="O133" s="2"/>
-      <c r="P133" s="2"/>
-      <c r="Q133" s="2"/>
-      <c r="R133" s="2"/>
-      <c r="S133" s="2"/>
-      <c r="T133" s="2"/>
-      <c r="U133" s="2"/>
-      <c r="V133" s="2"/>
-      <c r="W133" s="2"/>
-      <c r="X133" s="2"/>
-      <c r="Y133" s="2"/>
-      <c r="Z133" s="2"/>
+      <c r="A133" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="4"/>
+      <c r="Q133" s="4"/>
+      <c r="R133" s="4"/>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="4"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="s">
@@ -6034,9 +6040,15 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141">
-      <c r="A141" s="1"/>
-      <c r="B141" s="1"/>
-      <c r="C141" s="1"/>
+      <c r="A141" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>242</v>
+      </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
@@ -6062,68 +6074,62 @@
       <c r="Z141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
-      <c r="F142" s="4"/>
-      <c r="G142" s="4"/>
-      <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142" s="4"/>
-      <c r="L142" s="4"/>
-      <c r="M142" s="4"/>
-      <c r="N142" s="4"/>
-      <c r="O142" s="4"/>
-      <c r="P142" s="4"/>
-      <c r="Q142" s="4"/>
-      <c r="R142" s="4"/>
-      <c r="S142" s="4"/>
-      <c r="T142" s="4"/>
-      <c r="U142" s="4"/>
-      <c r="V142" s="4"/>
-      <c r="W142" s="4"/>
-      <c r="X142" s="4"/>
-      <c r="Y142" s="4"/>
-      <c r="Z142" s="4"/>
+      <c r="A142" s="1"/>
+      <c r="B142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2"/>
+      <c r="V142" s="2"/>
+      <c r="W142" s="2"/>
+      <c r="X142" s="2"/>
+      <c r="Y142" s="2"/>
+      <c r="Z142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C143" s="1" t="s">
+      <c r="A143" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="D143" s="2"/>
-      <c r="E143" s="2"/>
-      <c r="F143" s="2"/>
-      <c r="G143" s="2"/>
-      <c r="H143" s="2"/>
-      <c r="I143" s="2"/>
-      <c r="J143" s="2"/>
-      <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
-      <c r="N143" s="2"/>
-      <c r="O143" s="2"/>
-      <c r="P143" s="2"/>
-      <c r="Q143" s="2"/>
-      <c r="R143" s="2"/>
-      <c r="S143" s="2"/>
-      <c r="T143" s="2"/>
-      <c r="U143" s="2"/>
-      <c r="V143" s="2"/>
-      <c r="W143" s="2"/>
-      <c r="X143" s="2"/>
-      <c r="Y143" s="2"/>
-      <c r="Z143" s="2"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="4"/>
+      <c r="K143" s="4"/>
+      <c r="L143" s="4"/>
+      <c r="M143" s="4"/>
+      <c r="N143" s="4"/>
+      <c r="O143" s="4"/>
+      <c r="P143" s="4"/>
+      <c r="Q143" s="4"/>
+      <c r="R143" s="4"/>
+      <c r="S143" s="4"/>
+      <c r="T143" s="4"/>
+      <c r="U143" s="4"/>
+      <c r="V143" s="4"/>
+      <c r="W143" s="4"/>
+      <c r="X143" s="4"/>
+      <c r="Y143" s="4"/>
+      <c r="Z143" s="4"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
@@ -6160,112 +6166,118 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="35" t="s">
+      <c r="A145" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B145" s="35" t="s">
+      <c r="B145" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C145" s="35" t="s">
+      <c r="C145" s="1" t="s">
         <v>247</v>
       </c>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2"/>
+      <c r="V145" s="2"/>
+      <c r="W145" s="2"/>
+      <c r="X145" s="2"/>
+      <c r="Y145" s="2"/>
+      <c r="Z145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="1"/>
-      <c r="B146" s="1"/>
-      <c r="C146" s="1"/>
-      <c r="D146" s="2"/>
-      <c r="E146" s="2"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="2"/>
-      <c r="H146" s="2"/>
-      <c r="I146" s="2"/>
-      <c r="J146" s="2"/>
-      <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
-      <c r="N146" s="2"/>
-      <c r="O146" s="2"/>
-      <c r="P146" s="2"/>
-      <c r="Q146" s="2"/>
-      <c r="R146" s="2"/>
-      <c r="S146" s="2"/>
-      <c r="T146" s="2"/>
-      <c r="U146" s="2"/>
-      <c r="V146" s="2"/>
-      <c r="W146" s="2"/>
-      <c r="X146" s="2"/>
-      <c r="Y146" s="2"/>
-      <c r="Z146" s="2"/>
+      <c r="A146" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B146" s="35" t="s">
+        <v>248</v>
+      </c>
+      <c r="C146" s="35" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="147">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2"/>
+      <c r="V147" s="2"/>
+      <c r="W147" s="2"/>
+      <c r="X147" s="2"/>
+      <c r="Y147" s="2"/>
+      <c r="Z147" s="2"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
-      <c r="F147" s="4"/>
-      <c r="G147" s="4"/>
-      <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
-      <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
-      <c r="M147" s="4"/>
-      <c r="N147" s="4"/>
-      <c r="O147" s="4"/>
-      <c r="P147" s="4"/>
-      <c r="Q147" s="4"/>
-      <c r="R147" s="4"/>
-      <c r="S147" s="4"/>
-      <c r="T147" s="4"/>
-      <c r="U147" s="4"/>
-      <c r="V147" s="4"/>
-      <c r="W147" s="4"/>
-      <c r="X147" s="4"/>
-      <c r="Y147" s="4"/>
-      <c r="Z147" s="4"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D148" s="2"/>
-      <c r="E148" s="2"/>
-      <c r="F148" s="2"/>
-      <c r="G148" s="2"/>
-      <c r="H148" s="2"/>
-      <c r="I148" s="2"/>
-      <c r="J148" s="2"/>
-      <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
-      <c r="N148" s="2"/>
-      <c r="O148" s="2"/>
-      <c r="P148" s="2"/>
-      <c r="Q148" s="2"/>
-      <c r="R148" s="2"/>
-      <c r="S148" s="2"/>
-      <c r="T148" s="2"/>
-      <c r="U148" s="2"/>
-      <c r="V148" s="2"/>
-      <c r="W148" s="2"/>
-      <c r="X148" s="2"/>
-      <c r="Y148" s="2"/>
-      <c r="Z148" s="2"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
+      <c r="I148" s="4"/>
+      <c r="J148" s="4"/>
+      <c r="K148" s="4"/>
+      <c r="L148" s="4"/>
+      <c r="M148" s="4"/>
+      <c r="N148" s="4"/>
+      <c r="O148" s="4"/>
+      <c r="P148" s="4"/>
+      <c r="Q148" s="4"/>
+      <c r="R148" s="4"/>
+      <c r="S148" s="4"/>
+      <c r="T148" s="4"/>
+      <c r="U148" s="4"/>
+      <c r="V148" s="4"/>
+      <c r="W148" s="4"/>
+      <c r="X148" s="4"/>
+      <c r="Y148" s="4"/>
+      <c r="Z148" s="4"/>
     </row>
     <row r="149">
-      <c r="A149" s="1"/>
-      <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="A149" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>251</v>
+      </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
@@ -6291,170 +6303,164 @@
       <c r="Z149" s="2"/>
     </row>
     <row r="150">
-      <c r="A150" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B150" s="3"/>
-      <c r="C150" s="3"/>
-      <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
-      <c r="F150" s="4"/>
-      <c r="G150" s="4"/>
-      <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
-      <c r="K150" s="4"/>
-      <c r="L150" s="4"/>
-      <c r="M150" s="4"/>
-      <c r="N150" s="4"/>
-      <c r="O150" s="4"/>
-      <c r="P150" s="4"/>
-      <c r="Q150" s="4"/>
-      <c r="R150" s="4"/>
-      <c r="S150" s="4"/>
-      <c r="T150" s="4"/>
-      <c r="U150" s="4"/>
-      <c r="V150" s="4"/>
-      <c r="W150" s="4"/>
-      <c r="X150" s="4"/>
-      <c r="Y150" s="4"/>
-      <c r="Z150" s="4"/>
+      <c r="A150" s="1"/>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2"/>
+      <c r="V150" s="2"/>
+      <c r="W150" s="2"/>
+      <c r="X150" s="2"/>
+      <c r="Y150" s="2"/>
+      <c r="Z150" s="2"/>
     </row>
     <row r="151">
-      <c r="A151" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="B151" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="C151" s="11" t="s">
+      <c r="A151" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="D151" s="12"/>
-      <c r="E151" s="12"/>
-      <c r="F151" s="12"/>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="12"/>
-      <c r="L151" s="12"/>
-      <c r="M151" s="12"/>
-      <c r="N151" s="12"/>
-      <c r="O151" s="12"/>
-      <c r="P151" s="12"/>
-      <c r="Q151" s="12"/>
-      <c r="R151" s="12"/>
-      <c r="S151" s="12"/>
-      <c r="T151" s="12"/>
-      <c r="U151" s="12"/>
-      <c r="V151" s="12"/>
-      <c r="W151" s="12"/>
-      <c r="X151" s="12"/>
-      <c r="Y151" s="12"/>
-      <c r="Z151" s="13"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
+      <c r="I151" s="4"/>
+      <c r="J151" s="4"/>
+      <c r="K151" s="4"/>
+      <c r="L151" s="4"/>
+      <c r="M151" s="4"/>
+      <c r="N151" s="4"/>
+      <c r="O151" s="4"/>
+      <c r="P151" s="4"/>
+      <c r="Q151" s="4"/>
+      <c r="R151" s="4"/>
+      <c r="S151" s="4"/>
+      <c r="T151" s="4"/>
+      <c r="U151" s="4"/>
+      <c r="V151" s="4"/>
+      <c r="W151" s="4"/>
+      <c r="X151" s="4"/>
+      <c r="Y151" s="4"/>
+      <c r="Z151" s="4"/>
     </row>
     <row r="152">
-      <c r="A152" s="17" t="s">
+      <c r="A152" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="B152" s="18" t="s">
+      <c r="B152" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="C152" s="18" t="s">
+      <c r="C152" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
-      <c r="F152" s="19"/>
-      <c r="G152" s="19"/>
-      <c r="H152" s="19"/>
-      <c r="I152" s="19"/>
-      <c r="J152" s="19"/>
-      <c r="K152" s="19"/>
-      <c r="L152" s="19"/>
-      <c r="M152" s="19"/>
-      <c r="N152" s="19"/>
-      <c r="O152" s="19"/>
-      <c r="P152" s="19"/>
-      <c r="Q152" s="19"/>
-      <c r="R152" s="19"/>
-      <c r="S152" s="19"/>
-      <c r="T152" s="19"/>
-      <c r="U152" s="19"/>
-      <c r="V152" s="19"/>
-      <c r="W152" s="19"/>
-      <c r="X152" s="19"/>
-      <c r="Y152" s="19"/>
-      <c r="Z152" s="20"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+      <c r="O152" s="12"/>
+      <c r="P152" s="12"/>
+      <c r="Q152" s="12"/>
+      <c r="R152" s="12"/>
+      <c r="S152" s="12"/>
+      <c r="T152" s="12"/>
+      <c r="U152" s="12"/>
+      <c r="V152" s="12"/>
+      <c r="W152" s="12"/>
+      <c r="X152" s="12"/>
+      <c r="Y152" s="12"/>
+      <c r="Z152" s="13"/>
     </row>
     <row r="153">
-      <c r="A153" s="9" t="s">
+      <c r="A153" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="C153" s="11" t="s">
+      <c r="C153" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="D153" s="12"/>
-      <c r="E153" s="12"/>
-      <c r="F153" s="12"/>
-      <c r="G153" s="12"/>
-      <c r="H153" s="12"/>
-      <c r="I153" s="12"/>
-      <c r="J153" s="12"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="12"/>
-      <c r="M153" s="12"/>
-      <c r="N153" s="12"/>
-      <c r="O153" s="12"/>
-      <c r="P153" s="12"/>
-      <c r="Q153" s="12"/>
-      <c r="R153" s="12"/>
-      <c r="S153" s="12"/>
-      <c r="T153" s="12"/>
-      <c r="U153" s="12"/>
-      <c r="V153" s="12"/>
-      <c r="W153" s="12"/>
-      <c r="X153" s="12"/>
-      <c r="Y153" s="12"/>
-      <c r="Z153" s="13"/>
+      <c r="D153" s="19"/>
+      <c r="E153" s="19"/>
+      <c r="F153" s="19"/>
+      <c r="G153" s="19"/>
+      <c r="H153" s="19"/>
+      <c r="I153" s="19"/>
+      <c r="J153" s="19"/>
+      <c r="K153" s="19"/>
+      <c r="L153" s="19"/>
+      <c r="M153" s="19"/>
+      <c r="N153" s="19"/>
+      <c r="O153" s="19"/>
+      <c r="P153" s="19"/>
+      <c r="Q153" s="19"/>
+      <c r="R153" s="19"/>
+      <c r="S153" s="19"/>
+      <c r="T153" s="19"/>
+      <c r="U153" s="19"/>
+      <c r="V153" s="19"/>
+      <c r="W153" s="19"/>
+      <c r="X153" s="19"/>
+      <c r="Y153" s="19"/>
+      <c r="Z153" s="20"/>
     </row>
     <row r="154">
-      <c r="A154" s="36" t="s">
+      <c r="A154" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B154" s="37" t="s">
+      <c r="B154" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C154" s="37" t="s">
+      <c r="C154" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D154" s="24"/>
-      <c r="E154" s="24"/>
-      <c r="F154" s="24"/>
-      <c r="G154" s="24"/>
-      <c r="H154" s="24"/>
-      <c r="I154" s="24"/>
-      <c r="J154" s="24"/>
-      <c r="K154" s="24"/>
-      <c r="L154" s="24"/>
-      <c r="M154" s="24"/>
-      <c r="N154" s="24"/>
-      <c r="O154" s="24"/>
-      <c r="P154" s="24"/>
-      <c r="Q154" s="24"/>
-      <c r="R154" s="24"/>
-      <c r="S154" s="24"/>
-      <c r="T154" s="24"/>
-      <c r="U154" s="24"/>
-      <c r="V154" s="24"/>
-      <c r="W154" s="24"/>
-      <c r="X154" s="24"/>
-      <c r="Y154" s="24"/>
-      <c r="Z154" s="25"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+      <c r="G154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="I154" s="12"/>
+      <c r="J154" s="12"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="12"/>
+      <c r="P154" s="12"/>
+      <c r="Q154" s="12"/>
+      <c r="R154" s="12"/>
+      <c r="S154" s="12"/>
+      <c r="T154" s="12"/>
+      <c r="U154" s="12"/>
+      <c r="V154" s="12"/>
+      <c r="W154" s="12"/>
+      <c r="X154" s="12"/>
+      <c r="Y154" s="12"/>
+      <c r="Z154" s="13"/>
     </row>
     <row r="155">
       <c r="A155" s="36" t="s">
@@ -6559,116 +6565,116 @@
       <c r="Z157" s="25"/>
     </row>
     <row r="158">
-      <c r="A158" s="38" t="s">
+      <c r="A158" s="36" t="s">
         <v>265</v>
       </c>
-      <c r="B158" s="39" t="s">
+      <c r="B158" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C158" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="C158" s="39" t="s">
-        <v>266</v>
-      </c>
-      <c r="D158" s="40"/>
-      <c r="E158" s="40"/>
-      <c r="F158" s="40"/>
-      <c r="G158" s="40"/>
-      <c r="H158" s="40"/>
-      <c r="I158" s="40"/>
-      <c r="J158" s="40"/>
-      <c r="K158" s="40"/>
-      <c r="L158" s="40"/>
-      <c r="M158" s="40"/>
-      <c r="N158" s="40"/>
-      <c r="O158" s="40"/>
-      <c r="P158" s="40"/>
-      <c r="Q158" s="40"/>
-      <c r="R158" s="40"/>
-      <c r="S158" s="40"/>
-      <c r="T158" s="40"/>
-      <c r="U158" s="40"/>
-      <c r="V158" s="40"/>
-      <c r="W158" s="40"/>
-      <c r="X158" s="40"/>
-      <c r="Y158" s="40"/>
-      <c r="Z158" s="41"/>
+      <c r="D158" s="24"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="24"/>
+      <c r="G158" s="24"/>
+      <c r="H158" s="24"/>
+      <c r="I158" s="24"/>
+      <c r="J158" s="24"/>
+      <c r="K158" s="24"/>
+      <c r="L158" s="24"/>
+      <c r="M158" s="24"/>
+      <c r="N158" s="24"/>
+      <c r="O158" s="24"/>
+      <c r="P158" s="24"/>
+      <c r="Q158" s="24"/>
+      <c r="R158" s="24"/>
+      <c r="S158" s="24"/>
+      <c r="T158" s="24"/>
+      <c r="U158" s="24"/>
+      <c r="V158" s="24"/>
+      <c r="W158" s="24"/>
+      <c r="X158" s="24"/>
+      <c r="Y158" s="24"/>
+      <c r="Z158" s="25"/>
     </row>
     <row r="159">
-      <c r="A159" s="9" t="s">
+      <c r="A159" s="38" t="s">
         <v>267</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="C159" s="11" t="s">
+      <c r="C159" s="39" t="s">
+        <v>268</v>
+      </c>
+      <c r="D159" s="40"/>
+      <c r="E159" s="40"/>
+      <c r="F159" s="40"/>
+      <c r="G159" s="40"/>
+      <c r="H159" s="40"/>
+      <c r="I159" s="40"/>
+      <c r="J159" s="40"/>
+      <c r="K159" s="40"/>
+      <c r="L159" s="40"/>
+      <c r="M159" s="40"/>
+      <c r="N159" s="40"/>
+      <c r="O159" s="40"/>
+      <c r="P159" s="40"/>
+      <c r="Q159" s="40"/>
+      <c r="R159" s="40"/>
+      <c r="S159" s="40"/>
+      <c r="T159" s="40"/>
+      <c r="U159" s="40"/>
+      <c r="V159" s="40"/>
+      <c r="W159" s="40"/>
+      <c r="X159" s="40"/>
+      <c r="Y159" s="40"/>
+      <c r="Z159" s="41"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="D159" s="12"/>
-      <c r="E159" s="12"/>
-      <c r="F159" s="12"/>
-      <c r="G159" s="12"/>
-      <c r="H159" s="12"/>
-      <c r="I159" s="12"/>
-      <c r="J159" s="12"/>
-      <c r="K159" s="12"/>
-      <c r="L159" s="12"/>
-      <c r="M159" s="12"/>
-      <c r="N159" s="12"/>
-      <c r="O159" s="12"/>
-      <c r="P159" s="12"/>
-      <c r="Q159" s="12"/>
-      <c r="R159" s="12"/>
-      <c r="S159" s="12"/>
-      <c r="T159" s="12"/>
-      <c r="U159" s="12"/>
-      <c r="V159" s="12"/>
-      <c r="W159" s="12"/>
-      <c r="X159" s="12"/>
-      <c r="Y159" s="12"/>
-      <c r="Z159" s="13"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="16" t="s">
+      <c r="B160" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2"/>
-      <c r="F160" s="2"/>
-      <c r="G160" s="2"/>
-      <c r="H160" s="2"/>
-      <c r="I160" s="2"/>
-      <c r="J160" s="2"/>
-      <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
-      <c r="M160" s="2"/>
-      <c r="N160" s="2"/>
-      <c r="O160" s="2"/>
-      <c r="P160" s="2"/>
-      <c r="Q160" s="2"/>
-      <c r="R160" s="2"/>
-      <c r="S160" s="2"/>
-      <c r="T160" s="2"/>
-      <c r="U160" s="2"/>
-      <c r="V160" s="2"/>
-      <c r="W160" s="2"/>
-      <c r="X160" s="2"/>
-      <c r="Y160" s="2"/>
-      <c r="Z160" s="15"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="12"/>
+      <c r="F160" s="12"/>
+      <c r="G160" s="12"/>
+      <c r="H160" s="12"/>
+      <c r="I160" s="12"/>
+      <c r="J160" s="12"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="12"/>
+      <c r="O160" s="12"/>
+      <c r="P160" s="12"/>
+      <c r="Q160" s="12"/>
+      <c r="R160" s="12"/>
+      <c r="S160" s="12"/>
+      <c r="T160" s="12"/>
+      <c r="U160" s="12"/>
+      <c r="V160" s="12"/>
+      <c r="W160" s="12"/>
+      <c r="X160" s="12"/>
+      <c r="Y160" s="12"/>
+      <c r="Z160" s="13"/>
     </row>
     <row r="161">
       <c r="A161" s="16" t="s">
         <v>272</v>
       </c>
       <c r="B161" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C161" s="1" t="s">
         <v>273</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>274</v>
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
@@ -6695,72 +6701,72 @@
       <c r="Z161" s="15"/>
     </row>
     <row r="162">
-      <c r="A162" s="9" t="s">
+      <c r="A162" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B162" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="C162" s="11" t="s">
+      <c r="C162" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D162" s="12"/>
-      <c r="E162" s="12"/>
-      <c r="F162" s="12"/>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12"/>
-      <c r="I162" s="12"/>
-      <c r="J162" s="12"/>
-      <c r="K162" s="12"/>
-      <c r="L162" s="12"/>
-      <c r="M162" s="12"/>
-      <c r="N162" s="12"/>
-      <c r="O162" s="12"/>
-      <c r="P162" s="12"/>
-      <c r="Q162" s="12"/>
-      <c r="R162" s="12"/>
-      <c r="S162" s="12"/>
-      <c r="T162" s="12"/>
-      <c r="U162" s="12"/>
-      <c r="V162" s="12"/>
-      <c r="W162" s="12"/>
-      <c r="X162" s="12"/>
-      <c r="Y162" s="12"/>
-      <c r="Z162" s="13"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2"/>
+      <c r="K162" s="2"/>
+      <c r="L162" s="2"/>
+      <c r="M162" s="2"/>
+      <c r="N162" s="2"/>
+      <c r="O162" s="2"/>
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2"/>
+      <c r="V162" s="2"/>
+      <c r="W162" s="2"/>
+      <c r="X162" s="2"/>
+      <c r="Y162" s="2"/>
+      <c r="Z162" s="15"/>
     </row>
     <row r="163">
-      <c r="A163" s="16" t="s">
+      <c r="A163" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2"/>
-      <c r="G163" s="2"/>
-      <c r="H163" s="2"/>
-      <c r="I163" s="2"/>
-      <c r="J163" s="2"/>
-      <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
-      <c r="M163" s="2"/>
-      <c r="N163" s="2"/>
-      <c r="O163" s="2"/>
-      <c r="P163" s="2"/>
-      <c r="Q163" s="2"/>
-      <c r="R163" s="2"/>
-      <c r="S163" s="2"/>
-      <c r="T163" s="2"/>
-      <c r="U163" s="2"/>
-      <c r="V163" s="2"/>
-      <c r="W163" s="2"/>
-      <c r="X163" s="2"/>
-      <c r="Y163" s="2"/>
-      <c r="Z163" s="15"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
+      <c r="F163" s="12"/>
+      <c r="G163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="I163" s="12"/>
+      <c r="J163" s="12"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="12"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="12"/>
+      <c r="O163" s="12"/>
+      <c r="P163" s="12"/>
+      <c r="Q163" s="12"/>
+      <c r="R163" s="12"/>
+      <c r="S163" s="12"/>
+      <c r="T163" s="12"/>
+      <c r="U163" s="12"/>
+      <c r="V163" s="12"/>
+      <c r="W163" s="12"/>
+      <c r="X163" s="12"/>
+      <c r="Y163" s="12"/>
+      <c r="Z163" s="13"/>
     </row>
     <row r="164">
       <c r="A164" s="16" t="s">
@@ -6797,130 +6803,130 @@
       <c r="Z164" s="15"/>
     </row>
     <row r="165">
-      <c r="A165" s="17" t="s">
+      <c r="A165" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="B165" s="18" t="s">
+      <c r="B165" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C165" s="18" t="s">
+      <c r="C165" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
-      <c r="F165" s="19"/>
-      <c r="G165" s="19"/>
-      <c r="H165" s="19"/>
-      <c r="I165" s="19"/>
-      <c r="J165" s="19"/>
-      <c r="K165" s="19"/>
-      <c r="L165" s="19"/>
-      <c r="M165" s="19"/>
-      <c r="N165" s="19"/>
-      <c r="O165" s="19"/>
-      <c r="P165" s="19"/>
-      <c r="Q165" s="19"/>
-      <c r="R165" s="19"/>
-      <c r="S165" s="19"/>
-      <c r="T165" s="19"/>
-      <c r="U165" s="19"/>
-      <c r="V165" s="19"/>
-      <c r="W165" s="19"/>
-      <c r="X165" s="19"/>
-      <c r="Y165" s="19"/>
-      <c r="Z165" s="20"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
+      <c r="J165" s="2"/>
+      <c r="K165" s="2"/>
+      <c r="L165" s="2"/>
+      <c r="M165" s="2"/>
+      <c r="N165" s="2"/>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
+      <c r="U165" s="2"/>
+      <c r="V165" s="2"/>
+      <c r="W165" s="2"/>
+      <c r="X165" s="2"/>
+      <c r="Y165" s="2"/>
+      <c r="Z165" s="15"/>
     </row>
     <row r="166">
-      <c r="A166" s="1"/>
-      <c r="B166" s="1"/>
-      <c r="C166" s="1"/>
-      <c r="D166" s="2"/>
-      <c r="E166" s="2"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="2"/>
-      <c r="H166" s="2"/>
-      <c r="I166" s="2"/>
-      <c r="J166" s="2"/>
-      <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
-      <c r="N166" s="2"/>
-      <c r="O166" s="2"/>
-      <c r="P166" s="2"/>
-      <c r="Q166" s="2"/>
-      <c r="R166" s="2"/>
-      <c r="S166" s="2"/>
-      <c r="T166" s="2"/>
-      <c r="U166" s="2"/>
-      <c r="V166" s="2"/>
-      <c r="W166" s="2"/>
-      <c r="X166" s="2"/>
-      <c r="Y166" s="2"/>
-      <c r="Z166" s="2"/>
+      <c r="A166" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="B166" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C166" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="D166" s="19"/>
+      <c r="E166" s="19"/>
+      <c r="F166" s="19"/>
+      <c r="G166" s="19"/>
+      <c r="H166" s="19"/>
+      <c r="I166" s="19"/>
+      <c r="J166" s="19"/>
+      <c r="K166" s="19"/>
+      <c r="L166" s="19"/>
+      <c r="M166" s="19"/>
+      <c r="N166" s="19"/>
+      <c r="O166" s="19"/>
+      <c r="P166" s="19"/>
+      <c r="Q166" s="19"/>
+      <c r="R166" s="19"/>
+      <c r="S166" s="19"/>
+      <c r="T166" s="19"/>
+      <c r="U166" s="19"/>
+      <c r="V166" s="19"/>
+      <c r="W166" s="19"/>
+      <c r="X166" s="19"/>
+      <c r="Y166" s="19"/>
+      <c r="Z166" s="20"/>
     </row>
     <row r="167">
-      <c r="A167" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="B167" s="3"/>
-      <c r="C167" s="3"/>
-      <c r="D167" s="4"/>
-      <c r="E167" s="4"/>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="4"/>
-      <c r="I167" s="4"/>
-      <c r="J167" s="4"/>
-      <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
-      <c r="M167" s="4"/>
-      <c r="N167" s="4"/>
-      <c r="O167" s="4"/>
-      <c r="P167" s="4"/>
-      <c r="Q167" s="4"/>
-      <c r="R167" s="4"/>
-      <c r="S167" s="4"/>
-      <c r="T167" s="4"/>
-      <c r="U167" s="4"/>
-      <c r="V167" s="4"/>
-      <c r="W167" s="4"/>
-      <c r="X167" s="4"/>
-      <c r="Y167" s="4"/>
-      <c r="Z167" s="4"/>
+      <c r="A167" s="1"/>
+      <c r="B167" s="1"/>
+      <c r="C167" s="1"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
+      <c r="H167" s="2"/>
+      <c r="I167" s="2"/>
+      <c r="J167" s="2"/>
+      <c r="K167" s="2"/>
+      <c r="L167" s="2"/>
+      <c r="M167" s="2"/>
+      <c r="N167" s="2"/>
+      <c r="O167" s="2"/>
+      <c r="P167" s="2"/>
+      <c r="Q167" s="2"/>
+      <c r="R167" s="2"/>
+      <c r="S167" s="2"/>
+      <c r="T167" s="2"/>
+      <c r="U167" s="2"/>
+      <c r="V167" s="2"/>
+      <c r="W167" s="2"/>
+      <c r="X167" s="2"/>
+      <c r="Y167" s="2"/>
+      <c r="Z167" s="2"/>
     </row>
     <row r="168">
-      <c r="A168" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="C168" s="1" t="s">
+      <c r="A168" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
-      <c r="F168" s="2"/>
-      <c r="G168" s="2"/>
-      <c r="H168" s="2"/>
-      <c r="I168" s="2"/>
-      <c r="J168" s="2"/>
-      <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
-      <c r="N168" s="2"/>
-      <c r="O168" s="2"/>
-      <c r="P168" s="2"/>
-      <c r="Q168" s="2"/>
-      <c r="R168" s="2"/>
-      <c r="S168" s="2"/>
-      <c r="T168" s="2"/>
-      <c r="U168" s="2"/>
-      <c r="V168" s="2"/>
-      <c r="W168" s="2"/>
-      <c r="X168" s="2"/>
-      <c r="Y168" s="2"/>
-      <c r="Z168" s="2"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
+      <c r="I168" s="4"/>
+      <c r="J168" s="4"/>
+      <c r="K168" s="4"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="4"/>
+      <c r="N168" s="4"/>
+      <c r="O168" s="4"/>
+      <c r="P168" s="4"/>
+      <c r="Q168" s="4"/>
+      <c r="R168" s="4"/>
+      <c r="S168" s="4"/>
+      <c r="T168" s="4"/>
+      <c r="U168" s="4"/>
+      <c r="V168" s="4"/>
+      <c r="W168" s="4"/>
+      <c r="X168" s="4"/>
+      <c r="Y168" s="4"/>
+      <c r="Z168" s="4"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="s">
@@ -7025,9 +7031,15 @@
       <c r="Z171" s="2"/>
     </row>
     <row r="172">
-      <c r="A172" s="1"/>
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
+      <c r="A172" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C172" s="1" t="s">
+        <v>293</v>
+      </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
       <c r="F172" s="2"/>
@@ -7053,73 +7065,73 @@
       <c r="Z172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
-      <c r="G173" s="4"/>
-      <c r="H173" s="4"/>
-      <c r="I173" s="4"/>
-      <c r="J173" s="4"/>
-      <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
-      <c r="M173" s="4"/>
-      <c r="N173" s="4"/>
-      <c r="O173" s="4"/>
-      <c r="P173" s="4"/>
-      <c r="Q173" s="4"/>
-      <c r="R173" s="4"/>
-      <c r="S173" s="4"/>
-      <c r="T173" s="4"/>
-      <c r="U173" s="4"/>
-      <c r="V173" s="4"/>
-      <c r="W173" s="4"/>
-      <c r="X173" s="4"/>
-      <c r="Y173" s="4"/>
-      <c r="Z173" s="4"/>
+      <c r="A173" s="1"/>
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
+      <c r="H173" s="2"/>
+      <c r="I173" s="2"/>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="2"/>
+      <c r="M173" s="2"/>
+      <c r="N173" s="2"/>
+      <c r="O173" s="2"/>
+      <c r="P173" s="2"/>
+      <c r="Q173" s="2"/>
+      <c r="R173" s="2"/>
+      <c r="S173" s="2"/>
+      <c r="T173" s="2"/>
+      <c r="U173" s="2"/>
+      <c r="V173" s="2"/>
+      <c r="W173" s="2"/>
+      <c r="X173" s="2"/>
+      <c r="Y173" s="2"/>
+      <c r="Z173" s="2"/>
     </row>
     <row r="174">
-      <c r="A174" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C174" s="1" t="s">
+      <c r="A174" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D174" s="2"/>
-      <c r="E174" s="2"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="2"/>
-      <c r="H174" s="2"/>
-      <c r="I174" s="2"/>
-      <c r="J174" s="2"/>
-      <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
-      <c r="N174" s="2"/>
-      <c r="O174" s="2"/>
-      <c r="P174" s="2"/>
-      <c r="Q174" s="2"/>
-      <c r="R174" s="2"/>
-      <c r="S174" s="2"/>
-      <c r="T174" s="2"/>
-      <c r="U174" s="2"/>
-      <c r="V174" s="2"/>
-      <c r="W174" s="2"/>
-      <c r="X174" s="2"/>
-      <c r="Y174" s="2"/>
-      <c r="Z174" s="2"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
+      <c r="R174" s="4"/>
+      <c r="S174" s="4"/>
+      <c r="T174" s="4"/>
+      <c r="U174" s="4"/>
+      <c r="V174" s="4"/>
+      <c r="W174" s="4"/>
+      <c r="X174" s="4"/>
+      <c r="Y174" s="4"/>
+      <c r="Z174" s="4"/>
     </row>
     <row r="175">
-      <c r="A175" s="1"/>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
+      <c r="A175" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>296</v>
+      </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
@@ -7145,78 +7157,72 @@
       <c r="Z175" s="2"/>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
-      <c r="D176" s="4"/>
-      <c r="E176" s="4"/>
-      <c r="F176" s="4"/>
-      <c r="G176" s="4"/>
-      <c r="H176" s="4"/>
-      <c r="I176" s="4"/>
-      <c r="J176" s="4"/>
-      <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
-      <c r="M176" s="4"/>
-      <c r="N176" s="4"/>
-      <c r="O176" s="4"/>
-      <c r="P176" s="4"/>
-      <c r="Q176" s="4"/>
-      <c r="R176" s="4"/>
-      <c r="S176" s="4"/>
-      <c r="T176" s="4"/>
-      <c r="U176" s="4"/>
-      <c r="V176" s="4"/>
-      <c r="W176" s="4"/>
-      <c r="X176" s="4"/>
-      <c r="Y176" s="4"/>
-      <c r="Z176" s="4"/>
+      <c r="A176" s="1"/>
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+      <c r="M176" s="2"/>
+      <c r="N176" s="2"/>
+      <c r="O176" s="2"/>
+      <c r="P176" s="2"/>
+      <c r="Q176" s="2"/>
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
+      <c r="U176" s="2"/>
+      <c r="V176" s="2"/>
+      <c r="W176" s="2"/>
+      <c r="X176" s="2"/>
+      <c r="Y176" s="2"/>
+      <c r="Z176" s="2"/>
     </row>
     <row r="177">
-      <c r="A177" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B177" s="1" t="s">
+      <c r="A177" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
-      <c r="F177" s="2"/>
-      <c r="G177" s="2"/>
-      <c r="H177" s="2"/>
-      <c r="I177" s="2"/>
-      <c r="J177" s="2"/>
-      <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
-      <c r="N177" s="2"/>
-      <c r="O177" s="2"/>
-      <c r="P177" s="2"/>
-      <c r="Q177" s="2"/>
-      <c r="R177" s="2"/>
-      <c r="S177" s="2"/>
-      <c r="T177" s="2"/>
-      <c r="U177" s="2"/>
-      <c r="V177" s="2"/>
-      <c r="W177" s="2"/>
-      <c r="X177" s="2"/>
-      <c r="Y177" s="2"/>
-      <c r="Z177" s="2"/>
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
+      <c r="I177" s="4"/>
+      <c r="J177" s="4"/>
+      <c r="K177" s="4"/>
+      <c r="L177" s="4"/>
+      <c r="M177" s="4"/>
+      <c r="N177" s="4"/>
+      <c r="O177" s="4"/>
+      <c r="P177" s="4"/>
+      <c r="Q177" s="4"/>
+      <c r="R177" s="4"/>
+      <c r="S177" s="4"/>
+      <c r="T177" s="4"/>
+      <c r="U177" s="4"/>
+      <c r="V177" s="4"/>
+      <c r="W177" s="4"/>
+      <c r="X177" s="4"/>
+      <c r="Y177" s="4"/>
+      <c r="Z177" s="4"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B178" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>301</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -7244,13 +7250,13 @@
     </row>
     <row r="179">
       <c r="A179" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B179" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="1" t="s">
         <v>303</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>304</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
@@ -7278,13 +7284,13 @@
     </row>
     <row r="180">
       <c r="A180" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B180" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="C180" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>307</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2"/>
@@ -7312,7 +7318,7 @@
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>308</v>
@@ -7383,10 +7389,10 @@
         <v>312</v>
       </c>
       <c r="B183" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C183" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7414,13 +7420,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B184" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="C184" s="1" t="s">
         <v>316</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>317</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -7448,13 +7454,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B185" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="C185" s="1" t="s">
         <v>319</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>320</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -7482,13 +7488,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="C186" s="1" t="s">
         <v>322</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>323</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -7515,9 +7521,15 @@
       <c r="Z186" s="2"/>
     </row>
     <row r="187">
-      <c r="A187" s="2"/>
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
+      <c r="A187" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
@@ -34618,6 +34630,34 @@
       <c r="Y1154" s="2"/>
       <c r="Z1154" s="2"/>
     </row>
+    <row r="1155">
+      <c r="A1155" s="2"/>
+      <c r="B1155" s="2"/>
+      <c r="C1155" s="2"/>
+      <c r="D1155" s="2"/>
+      <c r="E1155" s="2"/>
+      <c r="F1155" s="2"/>
+      <c r="G1155" s="2"/>
+      <c r="H1155" s="2"/>
+      <c r="I1155" s="2"/>
+      <c r="J1155" s="2"/>
+      <c r="K1155" s="2"/>
+      <c r="L1155" s="2"/>
+      <c r="M1155" s="2"/>
+      <c r="N1155" s="2"/>
+      <c r="O1155" s="2"/>
+      <c r="P1155" s="2"/>
+      <c r="Q1155" s="2"/>
+      <c r="R1155" s="2"/>
+      <c r="S1155" s="2"/>
+      <c r="T1155" s="2"/>
+      <c r="U1155" s="2"/>
+      <c r="V1155" s="2"/>
+      <c r="W1155" s="2"/>
+      <c r="X1155" s="2"/>
+      <c r="Y1155" s="2"/>
+      <c r="Z1155" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="328">
   <si>
     <t>ID</t>
   </si>
@@ -596,6 +596,12 @@
   </si>
   <si>
     <t>排名</t>
+  </si>
+  <si>
+    <t>存提款</t>
+  </si>
+  <si>
+    <t>Transfers</t>
   </si>
   <si>
     <t>TRANSACTION HISTORY</t>
@@ -5113,7 +5119,7 @@
     </row>
     <row r="113">
       <c r="A113" s="3" t="s">
-        <v>113</v>
+        <v>195</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -5143,13 +5149,13 @@
     </row>
     <row r="114">
       <c r="A114" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C114" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -5176,15 +5182,9 @@
       <c r="Z114" s="2"/>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>198</v>
-      </c>
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
@@ -5210,82 +5210,78 @@
       <c r="Z115" s="2"/>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="4"/>
+      <c r="Q116" s="4"/>
+      <c r="R116" s="4"/>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="4"/>
+      <c r="X116" s="4"/>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="4"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
+      <c r="Z117" s="2"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B118" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="C118" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
-      <c r="S116" s="2"/>
-      <c r="T116" s="2"/>
-      <c r="U116" s="2"/>
-      <c r="V116" s="2"/>
-      <c r="W116" s="2"/>
-      <c r="X116" s="2"/>
-      <c r="Y116" s="2"/>
-      <c r="Z116" s="2"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B117" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>202</v>
-      </c>
-      <c r="D117" s="12"/>
-      <c r="E117" s="12"/>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
-      <c r="H117" s="12"/>
-      <c r="I117" s="12"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="12"/>
-      <c r="N117" s="12"/>
-      <c r="O117" s="12"/>
-      <c r="P117" s="12"/>
-      <c r="Q117" s="12"/>
-      <c r="R117" s="12"/>
-      <c r="S117" s="12"/>
-      <c r="T117" s="12"/>
-      <c r="U117" s="12"/>
-      <c r="V117" s="12"/>
-      <c r="W117" s="12"/>
-      <c r="X117" s="12"/>
-      <c r="Y117" s="12"/>
-      <c r="Z117" s="13"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="16" t="s">
-        <v>203</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2"/>
@@ -5309,51 +5305,51 @@
       <c r="W118" s="2"/>
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
-      <c r="Z118" s="15"/>
+      <c r="Z118" s="2"/>
     </row>
     <row r="119">
-      <c r="A119" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="B119" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C119" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
-      <c r="F119" s="19"/>
-      <c r="G119" s="19"/>
-      <c r="H119" s="19"/>
-      <c r="I119" s="19"/>
-      <c r="J119" s="19"/>
-      <c r="K119" s="19"/>
-      <c r="L119" s="19"/>
-      <c r="M119" s="19"/>
-      <c r="N119" s="19"/>
-      <c r="O119" s="19"/>
-      <c r="P119" s="19"/>
-      <c r="Q119" s="19"/>
-      <c r="R119" s="19"/>
-      <c r="S119" s="19"/>
-      <c r="T119" s="19"/>
-      <c r="U119" s="19"/>
-      <c r="V119" s="19"/>
-      <c r="W119" s="19"/>
-      <c r="X119" s="19"/>
-      <c r="Y119" s="19"/>
-      <c r="Z119" s="20"/>
+      <c r="A119" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" s="2"/>
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2"/>
+      <c r="V119" s="2"/>
+      <c r="W119" s="2"/>
+      <c r="X119" s="2"/>
+      <c r="Y119" s="2"/>
+      <c r="Z119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B120" s="11" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
@@ -5381,13 +5377,13 @@
     </row>
     <row r="121">
       <c r="A121" s="16" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" s="2"/>
@@ -5414,116 +5410,116 @@
       <c r="Z121" s="15"/>
     </row>
     <row r="122">
-      <c r="A122" s="16" t="s">
+      <c r="A122" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D122" s="19"/>
+      <c r="E122" s="19"/>
+      <c r="F122" s="19"/>
+      <c r="G122" s="19"/>
+      <c r="H122" s="19"/>
+      <c r="I122" s="19"/>
+      <c r="J122" s="19"/>
+      <c r="K122" s="19"/>
+      <c r="L122" s="19"/>
+      <c r="M122" s="19"/>
+      <c r="N122" s="19"/>
+      <c r="O122" s="19"/>
+      <c r="P122" s="19"/>
+      <c r="Q122" s="19"/>
+      <c r="R122" s="19"/>
+      <c r="S122" s="19"/>
+      <c r="T122" s="19"/>
+      <c r="U122" s="19"/>
+      <c r="V122" s="19"/>
+      <c r="W122" s="19"/>
+      <c r="X122" s="19"/>
+      <c r="Y122" s="19"/>
+      <c r="Z122" s="20"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="12"/>
+      <c r="U123" s="12"/>
+      <c r="V123" s="12"/>
+      <c r="W123" s="12"/>
+      <c r="X123" s="12"/>
+      <c r="Y123" s="12"/>
+      <c r="Z123" s="13"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="16" t="s">
         <v>211</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B124" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="C124" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D122" s="2"/>
-      <c r="E122" s="2"/>
-      <c r="F122" s="2"/>
-      <c r="G122" s="2"/>
-      <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
-      <c r="N122" s="2"/>
-      <c r="O122" s="2"/>
-      <c r="P122" s="2"/>
-      <c r="Q122" s="2"/>
-      <c r="R122" s="2"/>
-      <c r="S122" s="2"/>
-      <c r="T122" s="2"/>
-      <c r="U122" s="2"/>
-      <c r="V122" s="2"/>
-      <c r="W122" s="2"/>
-      <c r="X122" s="2"/>
-      <c r="Y122" s="2"/>
-      <c r="Z122" s="15"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="17" t="s">
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="2"/>
+      <c r="Z124" s="15"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="B123" s="18" t="s">
+      <c r="B125" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C123" s="18" t="s">
+      <c r="C125" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
-      <c r="F123" s="19"/>
-      <c r="G123" s="19"/>
-      <c r="H123" s="19"/>
-      <c r="I123" s="19"/>
-      <c r="J123" s="19"/>
-      <c r="K123" s="19"/>
-      <c r="L123" s="19"/>
-      <c r="M123" s="19"/>
-      <c r="N123" s="19"/>
-      <c r="O123" s="19"/>
-      <c r="P123" s="19"/>
-      <c r="Q123" s="19"/>
-      <c r="R123" s="19"/>
-      <c r="S123" s="19"/>
-      <c r="T123" s="19"/>
-      <c r="U123" s="19"/>
-      <c r="V123" s="19"/>
-      <c r="W123" s="19"/>
-      <c r="X123" s="19"/>
-      <c r="Y123" s="19"/>
-      <c r="Z123" s="20"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="B124" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="C124" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-      <c r="G124" s="12"/>
-      <c r="H124" s="12"/>
-      <c r="I124" s="12"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="12"/>
-      <c r="L124" s="12"/>
-      <c r="M124" s="12"/>
-      <c r="N124" s="12"/>
-      <c r="O124" s="12"/>
-      <c r="P124" s="12"/>
-      <c r="Q124" s="12"/>
-      <c r="R124" s="12"/>
-      <c r="S124" s="12"/>
-      <c r="T124" s="12"/>
-      <c r="U124" s="12"/>
-      <c r="V124" s="12"/>
-      <c r="W124" s="12"/>
-      <c r="X124" s="12"/>
-      <c r="Y124" s="12"/>
-      <c r="Z124" s="13"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="34" t="s">
-        <v>217</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>218</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
@@ -5550,82 +5546,82 @@
       <c r="Z125" s="15"/>
     </row>
     <row r="126">
-      <c r="A126" s="16" t="s">
+      <c r="A126" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="19"/>
+      <c r="H126" s="19"/>
+      <c r="I126" s="19"/>
+      <c r="J126" s="19"/>
+      <c r="K126" s="19"/>
+      <c r="L126" s="19"/>
+      <c r="M126" s="19"/>
+      <c r="N126" s="19"/>
+      <c r="O126" s="19"/>
+      <c r="P126" s="19"/>
+      <c r="Q126" s="19"/>
+      <c r="R126" s="19"/>
+      <c r="S126" s="19"/>
+      <c r="T126" s="19"/>
+      <c r="U126" s="19"/>
+      <c r="V126" s="19"/>
+      <c r="W126" s="19"/>
+      <c r="X126" s="19"/>
+      <c r="Y126" s="19"/>
+      <c r="Z126" s="20"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D127" s="12"/>
+      <c r="E127" s="12"/>
+      <c r="F127" s="12"/>
+      <c r="G127" s="12"/>
+      <c r="H127" s="12"/>
+      <c r="I127" s="12"/>
+      <c r="J127" s="12"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="12"/>
+      <c r="N127" s="12"/>
+      <c r="O127" s="12"/>
+      <c r="P127" s="12"/>
+      <c r="Q127" s="12"/>
+      <c r="R127" s="12"/>
+      <c r="S127" s="12"/>
+      <c r="T127" s="12"/>
+      <c r="U127" s="12"/>
+      <c r="V127" s="12"/>
+      <c r="W127" s="12"/>
+      <c r="X127" s="12"/>
+      <c r="Y127" s="12"/>
+      <c r="Z127" s="13"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="34" t="s">
         <v>219</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="C128" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
-      <c r="H126" s="2"/>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
-      <c r="P126" s="2"/>
-      <c r="Q126" s="2"/>
-      <c r="R126" s="2"/>
-      <c r="S126" s="2"/>
-      <c r="T126" s="2"/>
-      <c r="U126" s="2"/>
-      <c r="V126" s="2"/>
-      <c r="W126" s="2"/>
-      <c r="X126" s="2"/>
-      <c r="Y126" s="2"/>
-      <c r="Z126" s="15"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="17" t="s">
-        <v>221</v>
-      </c>
-      <c r="B127" s="18" t="s">
-        <v>221</v>
-      </c>
-      <c r="C127" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
-      <c r="F127" s="19"/>
-      <c r="G127" s="19"/>
-      <c r="H127" s="19"/>
-      <c r="I127" s="19"/>
-      <c r="J127" s="19"/>
-      <c r="K127" s="19"/>
-      <c r="L127" s="19"/>
-      <c r="M127" s="19"/>
-      <c r="N127" s="19"/>
-      <c r="O127" s="19"/>
-      <c r="P127" s="19"/>
-      <c r="Q127" s="19"/>
-      <c r="R127" s="19"/>
-      <c r="S127" s="19"/>
-      <c r="T127" s="19"/>
-      <c r="U127" s="19"/>
-      <c r="V127" s="19"/>
-      <c r="W127" s="19"/>
-      <c r="X127" s="19"/>
-      <c r="Y127" s="19"/>
-      <c r="Z127" s="20"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
@@ -5649,12 +5645,18 @@
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
-      <c r="Z128" s="2"/>
+      <c r="Z128" s="15"/>
     </row>
     <row r="129">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-      <c r="C129" s="1"/>
+      <c r="A129" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>222</v>
+      </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
       <c r="F129" s="2"/>
@@ -5677,47 +5679,51 @@
       <c r="W129" s="2"/>
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
-      <c r="Z129" s="2"/>
+      <c r="Z129" s="15"/>
     </row>
     <row r="130">
-      <c r="A130" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
-      <c r="F130" s="4"/>
-      <c r="G130" s="4"/>
-      <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
-      <c r="K130" s="4"/>
-      <c r="L130" s="4"/>
-      <c r="M130" s="4"/>
-      <c r="N130" s="4"/>
-      <c r="O130" s="4"/>
-      <c r="P130" s="4"/>
-      <c r="Q130" s="4"/>
-      <c r="R130" s="4"/>
-      <c r="S130" s="4"/>
-      <c r="T130" s="4"/>
-      <c r="U130" s="4"/>
-      <c r="V130" s="4"/>
-      <c r="W130" s="4"/>
-      <c r="X130" s="4"/>
-      <c r="Y130" s="4"/>
-      <c r="Z130" s="4"/>
+      <c r="A130" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B130" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" s="19"/>
+      <c r="E130" s="19"/>
+      <c r="F130" s="19"/>
+      <c r="G130" s="19"/>
+      <c r="H130" s="19"/>
+      <c r="I130" s="19"/>
+      <c r="J130" s="19"/>
+      <c r="K130" s="19"/>
+      <c r="L130" s="19"/>
+      <c r="M130" s="19"/>
+      <c r="N130" s="19"/>
+      <c r="O130" s="19"/>
+      <c r="P130" s="19"/>
+      <c r="Q130" s="19"/>
+      <c r="R130" s="19"/>
+      <c r="S130" s="19"/>
+      <c r="T130" s="19"/>
+      <c r="U130" s="19"/>
+      <c r="V130" s="19"/>
+      <c r="W130" s="19"/>
+      <c r="X130" s="19"/>
+      <c r="Y130" s="19"/>
+      <c r="Z130" s="20"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C131" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
@@ -5773,7 +5779,7 @@
     </row>
     <row r="133">
       <c r="A133" s="3" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -5836,15 +5842,9 @@
       <c r="Z134" s="2"/>
     </row>
     <row r="135">
-      <c r="A135" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>230</v>
-      </c>
+      <c r="A135" s="1"/>
+      <c r="B135" s="1"/>
+      <c r="C135" s="1"/>
       <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
@@ -5870,48 +5870,44 @@
       <c r="Z135" s="2"/>
     </row>
     <row r="136">
-      <c r="A136" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="D136" s="2"/>
-      <c r="E136" s="2"/>
-      <c r="F136" s="2"/>
-      <c r="G136" s="2"/>
-      <c r="H136" s="2"/>
-      <c r="I136" s="2"/>
-      <c r="J136" s="2"/>
-      <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
-      <c r="N136" s="2"/>
-      <c r="O136" s="2"/>
-      <c r="P136" s="2"/>
-      <c r="Q136" s="2"/>
-      <c r="R136" s="2"/>
-      <c r="S136" s="2"/>
-      <c r="T136" s="2"/>
-      <c r="U136" s="2"/>
-      <c r="V136" s="2"/>
-      <c r="W136" s="2"/>
-      <c r="X136" s="2"/>
-      <c r="Y136" s="2"/>
-      <c r="Z136" s="2"/>
+      <c r="A136" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="4"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+      <c r="Z136" s="4"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
@@ -5939,13 +5935,13 @@
     </row>
     <row r="138">
       <c r="A138" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
@@ -5973,13 +5969,13 @@
     </row>
     <row r="139">
       <c r="A139" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
@@ -6007,13 +6003,13 @@
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
@@ -6041,13 +6037,13 @@
     </row>
     <row r="141">
       <c r="A141" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
@@ -6074,9 +6070,15 @@
       <c r="Z141" s="2"/>
     </row>
     <row r="142">
-      <c r="A142" s="1"/>
-      <c r="B142" s="1"/>
-      <c r="C142" s="1"/>
+      <c r="A142" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>240</v>
+      </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
@@ -6102,44 +6104,48 @@
       <c r="Z142" s="2"/>
     </row>
     <row r="143">
-      <c r="A143" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
-      <c r="F143" s="4"/>
-      <c r="G143" s="4"/>
-      <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143" s="4"/>
-      <c r="L143" s="4"/>
-      <c r="M143" s="4"/>
-      <c r="N143" s="4"/>
-      <c r="O143" s="4"/>
-      <c r="P143" s="4"/>
-      <c r="Q143" s="4"/>
-      <c r="R143" s="4"/>
-      <c r="S143" s="4"/>
-      <c r="T143" s="4"/>
-      <c r="U143" s="4"/>
-      <c r="V143" s="4"/>
-      <c r="W143" s="4"/>
-      <c r="X143" s="4"/>
-      <c r="Y143" s="4"/>
-      <c r="Z143" s="4"/>
+      <c r="A143" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+      <c r="U143" s="2"/>
+      <c r="V143" s="2"/>
+      <c r="W143" s="2"/>
+      <c r="X143" s="2"/>
+      <c r="Y143" s="2"/>
+      <c r="Z143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C144" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C144" s="1" t="s">
-        <v>245</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
@@ -6166,15 +6172,9 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145">
-      <c r="A145" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>247</v>
-      </c>
+      <c r="A145" s="1"/>
+      <c r="B145" s="1"/>
+      <c r="C145" s="1"/>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
@@ -6200,20 +6200,45 @@
       <c r="Z145" s="2"/>
     </row>
     <row r="146">
-      <c r="A146" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="B146" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="C146" s="35" t="s">
-        <v>249</v>
-      </c>
+      <c r="A146" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
+      <c r="I146" s="4"/>
+      <c r="J146" s="4"/>
+      <c r="K146" s="4"/>
+      <c r="L146" s="4"/>
+      <c r="M146" s="4"/>
+      <c r="N146" s="4"/>
+      <c r="O146" s="4"/>
+      <c r="P146" s="4"/>
+      <c r="Q146" s="4"/>
+      <c r="R146" s="4"/>
+      <c r="S146" s="4"/>
+      <c r="T146" s="4"/>
+      <c r="U146" s="4"/>
+      <c r="V146" s="4"/>
+      <c r="W146" s="4"/>
+      <c r="X146" s="4"/>
+      <c r="Y146" s="4"/>
+      <c r="Z146" s="4"/>
     </row>
     <row r="147">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-      <c r="C147" s="1"/>
+      <c r="A147" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
@@ -6239,68 +6264,49 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148">
-      <c r="A148" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
-      <c r="F148" s="4"/>
-      <c r="G148" s="4"/>
-      <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
-      <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
-      <c r="M148" s="4"/>
-      <c r="N148" s="4"/>
-      <c r="O148" s="4"/>
-      <c r="P148" s="4"/>
-      <c r="Q148" s="4"/>
-      <c r="R148" s="4"/>
-      <c r="S148" s="4"/>
-      <c r="T148" s="4"/>
-      <c r="U148" s="4"/>
-      <c r="V148" s="4"/>
-      <c r="W148" s="4"/>
-      <c r="X148" s="4"/>
-      <c r="Y148" s="4"/>
-      <c r="Z148" s="4"/>
+      <c r="A148" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
+      <c r="P148" s="2"/>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="2"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="2"/>
+      <c r="U148" s="2"/>
+      <c r="V148" s="2"/>
+      <c r="W148" s="2"/>
+      <c r="X148" s="2"/>
+      <c r="Y148" s="2"/>
+      <c r="Z148" s="2"/>
     </row>
     <row r="149">
-      <c r="A149" s="1" t="s">
+      <c r="A149" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" s="35" t="s">
         <v>250</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" s="35" t="s">
         <v>251</v>
       </c>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
-      <c r="Q149" s="2"/>
-      <c r="R149" s="2"/>
-      <c r="S149" s="2"/>
-      <c r="T149" s="2"/>
-      <c r="U149" s="2"/>
-      <c r="V149" s="2"/>
-      <c r="W149" s="2"/>
-      <c r="X149" s="2"/>
-      <c r="Y149" s="2"/>
-      <c r="Z149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" s="1"/>
@@ -6332,7 +6338,7 @@
     </row>
     <row r="151">
       <c r="A151" s="3" t="s">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -6361,218 +6367,208 @@
       <c r="Z151" s="4"/>
     </row>
     <row r="152">
-      <c r="A152" s="9" t="s">
+      <c r="A152" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C152" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B152" s="11" t="s">
-        <v>253</v>
-      </c>
-      <c r="C152" s="11" t="s">
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2"/>
+      <c r="K152" s="2"/>
+      <c r="L152" s="2"/>
+      <c r="M152" s="2"/>
+      <c r="N152" s="2"/>
+      <c r="O152" s="2"/>
+      <c r="P152" s="2"/>
+      <c r="Q152" s="2"/>
+      <c r="R152" s="2"/>
+      <c r="S152" s="2"/>
+      <c r="T152" s="2"/>
+      <c r="U152" s="2"/>
+      <c r="V152" s="2"/>
+      <c r="W152" s="2"/>
+      <c r="X152" s="2"/>
+      <c r="Y152" s="2"/>
+      <c r="Z152" s="2"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1"/>
+      <c r="B153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2"/>
+      <c r="P153" s="2"/>
+      <c r="Q153" s="2"/>
+      <c r="R153" s="2"/>
+      <c r="S153" s="2"/>
+      <c r="T153" s="2"/>
+      <c r="U153" s="2"/>
+      <c r="V153" s="2"/>
+      <c r="W153" s="2"/>
+      <c r="X153" s="2"/>
+      <c r="Y153" s="2"/>
+      <c r="Z153" s="2"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="D152" s="12"/>
-      <c r="E152" s="12"/>
-      <c r="F152" s="12"/>
-      <c r="G152" s="12"/>
-      <c r="H152" s="12"/>
-      <c r="I152" s="12"/>
-      <c r="J152" s="12"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="12"/>
-      <c r="M152" s="12"/>
-      <c r="N152" s="12"/>
-      <c r="O152" s="12"/>
-      <c r="P152" s="12"/>
-      <c r="Q152" s="12"/>
-      <c r="R152" s="12"/>
-      <c r="S152" s="12"/>
-      <c r="T152" s="12"/>
-      <c r="U152" s="12"/>
-      <c r="V152" s="12"/>
-      <c r="W152" s="12"/>
-      <c r="X152" s="12"/>
-      <c r="Y152" s="12"/>
-      <c r="Z152" s="13"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="17" t="s">
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
+      <c r="I154" s="4"/>
+      <c r="J154" s="4"/>
+      <c r="K154" s="4"/>
+      <c r="L154" s="4"/>
+      <c r="M154" s="4"/>
+      <c r="N154" s="4"/>
+      <c r="O154" s="4"/>
+      <c r="P154" s="4"/>
+      <c r="Q154" s="4"/>
+      <c r="R154" s="4"/>
+      <c r="S154" s="4"/>
+      <c r="T154" s="4"/>
+      <c r="U154" s="4"/>
+      <c r="V154" s="4"/>
+      <c r="W154" s="4"/>
+      <c r="X154" s="4"/>
+      <c r="Y154" s="4"/>
+      <c r="Z154" s="4"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B153" s="18" t="s">
+      <c r="B155" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C153" s="18" t="s">
+      <c r="C155" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
-      <c r="F153" s="19"/>
-      <c r="G153" s="19"/>
-      <c r="H153" s="19"/>
-      <c r="I153" s="19"/>
-      <c r="J153" s="19"/>
-      <c r="K153" s="19"/>
-      <c r="L153" s="19"/>
-      <c r="M153" s="19"/>
-      <c r="N153" s="19"/>
-      <c r="O153" s="19"/>
-      <c r="P153" s="19"/>
-      <c r="Q153" s="19"/>
-      <c r="R153" s="19"/>
-      <c r="S153" s="19"/>
-      <c r="T153" s="19"/>
-      <c r="U153" s="19"/>
-      <c r="V153" s="19"/>
-      <c r="W153" s="19"/>
-      <c r="X153" s="19"/>
-      <c r="Y153" s="19"/>
-      <c r="Z153" s="20"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="9" t="s">
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+      <c r="G155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="I155" s="12"/>
+      <c r="J155" s="12"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="12"/>
+      <c r="P155" s="12"/>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="12"/>
+      <c r="S155" s="12"/>
+      <c r="T155" s="12"/>
+      <c r="U155" s="12"/>
+      <c r="V155" s="12"/>
+      <c r="W155" s="12"/>
+      <c r="X155" s="12"/>
+      <c r="Y155" s="12"/>
+      <c r="Z155" s="13"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B156" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="C154" s="11" t="s">
+      <c r="C156" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
-      <c r="G154" s="12"/>
-      <c r="H154" s="12"/>
-      <c r="I154" s="12"/>
-      <c r="J154" s="12"/>
-      <c r="K154" s="12"/>
-      <c r="L154" s="12"/>
-      <c r="M154" s="12"/>
-      <c r="N154" s="12"/>
-      <c r="O154" s="12"/>
-      <c r="P154" s="12"/>
-      <c r="Q154" s="12"/>
-      <c r="R154" s="12"/>
-      <c r="S154" s="12"/>
-      <c r="T154" s="12"/>
-      <c r="U154" s="12"/>
-      <c r="V154" s="12"/>
-      <c r="W154" s="12"/>
-      <c r="X154" s="12"/>
-      <c r="Y154" s="12"/>
-      <c r="Z154" s="13"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="36" t="s">
+      <c r="D156" s="19"/>
+      <c r="E156" s="19"/>
+      <c r="F156" s="19"/>
+      <c r="G156" s="19"/>
+      <c r="H156" s="19"/>
+      <c r="I156" s="19"/>
+      <c r="J156" s="19"/>
+      <c r="K156" s="19"/>
+      <c r="L156" s="19"/>
+      <c r="M156" s="19"/>
+      <c r="N156" s="19"/>
+      <c r="O156" s="19"/>
+      <c r="P156" s="19"/>
+      <c r="Q156" s="19"/>
+      <c r="R156" s="19"/>
+      <c r="S156" s="19"/>
+      <c r="T156" s="19"/>
+      <c r="U156" s="19"/>
+      <c r="V156" s="19"/>
+      <c r="W156" s="19"/>
+      <c r="X156" s="19"/>
+      <c r="Y156" s="19"/>
+      <c r="Z156" s="20"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B155" s="37" t="s">
+      <c r="B157" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C155" s="37" t="s">
+      <c r="C157" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D155" s="24"/>
-      <c r="E155" s="24"/>
-      <c r="F155" s="24"/>
-      <c r="G155" s="24"/>
-      <c r="H155" s="24"/>
-      <c r="I155" s="24"/>
-      <c r="J155" s="24"/>
-      <c r="K155" s="24"/>
-      <c r="L155" s="24"/>
-      <c r="M155" s="24"/>
-      <c r="N155" s="24"/>
-      <c r="O155" s="24"/>
-      <c r="P155" s="24"/>
-      <c r="Q155" s="24"/>
-      <c r="R155" s="24"/>
-      <c r="S155" s="24"/>
-      <c r="T155" s="24"/>
-      <c r="U155" s="24"/>
-      <c r="V155" s="24"/>
-      <c r="W155" s="24"/>
-      <c r="X155" s="24"/>
-      <c r="Y155" s="24"/>
-      <c r="Z155" s="25"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="36" t="s">
-        <v>261</v>
-      </c>
-      <c r="B156" s="37" t="s">
-        <v>261</v>
-      </c>
-      <c r="C156" s="37" t="s">
-        <v>262</v>
-      </c>
-      <c r="D156" s="24"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="24"/>
-      <c r="G156" s="24"/>
-      <c r="H156" s="24"/>
-      <c r="I156" s="24"/>
-      <c r="J156" s="24"/>
-      <c r="K156" s="24"/>
-      <c r="L156" s="24"/>
-      <c r="M156" s="24"/>
-      <c r="N156" s="24"/>
-      <c r="O156" s="24"/>
-      <c r="P156" s="24"/>
-      <c r="Q156" s="24"/>
-      <c r="R156" s="24"/>
-      <c r="S156" s="24"/>
-      <c r="T156" s="24"/>
-      <c r="U156" s="24"/>
-      <c r="V156" s="24"/>
-      <c r="W156" s="24"/>
-      <c r="X156" s="24"/>
-      <c r="Y156" s="24"/>
-      <c r="Z156" s="25"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="B157" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="C157" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="D157" s="24"/>
-      <c r="E157" s="24"/>
-      <c r="F157" s="24"/>
-      <c r="G157" s="24"/>
-      <c r="H157" s="24"/>
-      <c r="I157" s="24"/>
-      <c r="J157" s="24"/>
-      <c r="K157" s="24"/>
-      <c r="L157" s="24"/>
-      <c r="M157" s="24"/>
-      <c r="N157" s="24"/>
-      <c r="O157" s="24"/>
-      <c r="P157" s="24"/>
-      <c r="Q157" s="24"/>
-      <c r="R157" s="24"/>
-      <c r="S157" s="24"/>
-      <c r="T157" s="24"/>
-      <c r="U157" s="24"/>
-      <c r="V157" s="24"/>
-      <c r="W157" s="24"/>
-      <c r="X157" s="24"/>
-      <c r="Y157" s="24"/>
-      <c r="Z157" s="25"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="12"/>
+      <c r="O157" s="12"/>
+      <c r="P157" s="12"/>
+      <c r="Q157" s="12"/>
+      <c r="R157" s="12"/>
+      <c r="S157" s="12"/>
+      <c r="T157" s="12"/>
+      <c r="U157" s="12"/>
+      <c r="V157" s="12"/>
+      <c r="W157" s="12"/>
+      <c r="X157" s="12"/>
+      <c r="Y157" s="12"/>
+      <c r="Z157" s="13"/>
     </row>
     <row r="158">
       <c r="A158" s="36" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B158" s="37" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D158" s="24"/>
       <c r="E158" s="24"/>
@@ -6599,150 +6595,150 @@
       <c r="Z158" s="25"/>
     </row>
     <row r="159">
-      <c r="A159" s="38" t="s">
+      <c r="A159" s="36" t="s">
+        <v>263</v>
+      </c>
+      <c r="B159" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C159" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="D159" s="24"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="24"/>
+      <c r="G159" s="24"/>
+      <c r="H159" s="24"/>
+      <c r="I159" s="24"/>
+      <c r="J159" s="24"/>
+      <c r="K159" s="24"/>
+      <c r="L159" s="24"/>
+      <c r="M159" s="24"/>
+      <c r="N159" s="24"/>
+      <c r="O159" s="24"/>
+      <c r="P159" s="24"/>
+      <c r="Q159" s="24"/>
+      <c r="R159" s="24"/>
+      <c r="S159" s="24"/>
+      <c r="T159" s="24"/>
+      <c r="U159" s="24"/>
+      <c r="V159" s="24"/>
+      <c r="W159" s="24"/>
+      <c r="X159" s="24"/>
+      <c r="Y159" s="24"/>
+      <c r="Z159" s="25"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="36" t="s">
+        <v>265</v>
+      </c>
+      <c r="B160" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="C160" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="D160" s="24"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="24"/>
+      <c r="G160" s="24"/>
+      <c r="H160" s="24"/>
+      <c r="I160" s="24"/>
+      <c r="J160" s="24"/>
+      <c r="K160" s="24"/>
+      <c r="L160" s="24"/>
+      <c r="M160" s="24"/>
+      <c r="N160" s="24"/>
+      <c r="O160" s="24"/>
+      <c r="P160" s="24"/>
+      <c r="Q160" s="24"/>
+      <c r="R160" s="24"/>
+      <c r="S160" s="24"/>
+      <c r="T160" s="24"/>
+      <c r="U160" s="24"/>
+      <c r="V160" s="24"/>
+      <c r="W160" s="24"/>
+      <c r="X160" s="24"/>
+      <c r="Y160" s="24"/>
+      <c r="Z160" s="25"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="36" t="s">
         <v>267</v>
       </c>
-      <c r="B159" s="39" t="s">
+      <c r="B161" s="37" t="s">
+        <v>267</v>
+      </c>
+      <c r="C161" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="C159" s="39" t="s">
-        <v>268</v>
-      </c>
-      <c r="D159" s="40"/>
-      <c r="E159" s="40"/>
-      <c r="F159" s="40"/>
-      <c r="G159" s="40"/>
-      <c r="H159" s="40"/>
-      <c r="I159" s="40"/>
-      <c r="J159" s="40"/>
-      <c r="K159" s="40"/>
-      <c r="L159" s="40"/>
-      <c r="M159" s="40"/>
-      <c r="N159" s="40"/>
-      <c r="O159" s="40"/>
-      <c r="P159" s="40"/>
-      <c r="Q159" s="40"/>
-      <c r="R159" s="40"/>
-      <c r="S159" s="40"/>
-      <c r="T159" s="40"/>
-      <c r="U159" s="40"/>
-      <c r="V159" s="40"/>
-      <c r="W159" s="40"/>
-      <c r="X159" s="40"/>
-      <c r="Y159" s="40"/>
-      <c r="Z159" s="41"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="9" t="s">
+      <c r="D161" s="24"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="24"/>
+      <c r="G161" s="24"/>
+      <c r="H161" s="24"/>
+      <c r="I161" s="24"/>
+      <c r="J161" s="24"/>
+      <c r="K161" s="24"/>
+      <c r="L161" s="24"/>
+      <c r="M161" s="24"/>
+      <c r="N161" s="24"/>
+      <c r="O161" s="24"/>
+      <c r="P161" s="24"/>
+      <c r="Q161" s="24"/>
+      <c r="R161" s="24"/>
+      <c r="S161" s="24"/>
+      <c r="T161" s="24"/>
+      <c r="U161" s="24"/>
+      <c r="V161" s="24"/>
+      <c r="W161" s="24"/>
+      <c r="X161" s="24"/>
+      <c r="Y161" s="24"/>
+      <c r="Z161" s="25"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="38" t="s">
         <v>269</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B162" s="39" t="s">
         <v>270</v>
       </c>
-      <c r="C160" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="D160" s="12"/>
-      <c r="E160" s="12"/>
-      <c r="F160" s="12"/>
-      <c r="G160" s="12"/>
-      <c r="H160" s="12"/>
-      <c r="I160" s="12"/>
-      <c r="J160" s="12"/>
-      <c r="K160" s="12"/>
-      <c r="L160" s="12"/>
-      <c r="M160" s="12"/>
-      <c r="N160" s="12"/>
-      <c r="O160" s="12"/>
-      <c r="P160" s="12"/>
-      <c r="Q160" s="12"/>
-      <c r="R160" s="12"/>
-      <c r="S160" s="12"/>
-      <c r="T160" s="12"/>
-      <c r="U160" s="12"/>
-      <c r="V160" s="12"/>
-      <c r="W160" s="12"/>
-      <c r="X160" s="12"/>
-      <c r="Y160" s="12"/>
-      <c r="Z160" s="13"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="16" t="s">
-        <v>272</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="D161" s="2"/>
-      <c r="E161" s="2"/>
-      <c r="F161" s="2"/>
-      <c r="G161" s="2"/>
-      <c r="H161" s="2"/>
-      <c r="I161" s="2"/>
-      <c r="J161" s="2"/>
-      <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
-      <c r="N161" s="2"/>
-      <c r="O161" s="2"/>
-      <c r="P161" s="2"/>
-      <c r="Q161" s="2"/>
-      <c r="R161" s="2"/>
-      <c r="S161" s="2"/>
-      <c r="T161" s="2"/>
-      <c r="U161" s="2"/>
-      <c r="V161" s="2"/>
-      <c r="W161" s="2"/>
-      <c r="X161" s="2"/>
-      <c r="Y161" s="2"/>
-      <c r="Z161" s="15"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="16" t="s">
-        <v>274</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="2"/>
-      <c r="S162" s="2"/>
-      <c r="T162" s="2"/>
-      <c r="U162" s="2"/>
-      <c r="V162" s="2"/>
-      <c r="W162" s="2"/>
-      <c r="X162" s="2"/>
-      <c r="Y162" s="2"/>
-      <c r="Z162" s="15"/>
+      <c r="C162" s="39" t="s">
+        <v>270</v>
+      </c>
+      <c r="D162" s="40"/>
+      <c r="E162" s="40"/>
+      <c r="F162" s="40"/>
+      <c r="G162" s="40"/>
+      <c r="H162" s="40"/>
+      <c r="I162" s="40"/>
+      <c r="J162" s="40"/>
+      <c r="K162" s="40"/>
+      <c r="L162" s="40"/>
+      <c r="M162" s="40"/>
+      <c r="N162" s="40"/>
+      <c r="O162" s="40"/>
+      <c r="P162" s="40"/>
+      <c r="Q162" s="40"/>
+      <c r="R162" s="40"/>
+      <c r="S162" s="40"/>
+      <c r="T162" s="40"/>
+      <c r="U162" s="40"/>
+      <c r="V162" s="40"/>
+      <c r="W162" s="40"/>
+      <c r="X162" s="40"/>
+      <c r="Y162" s="40"/>
+      <c r="Z162" s="41"/>
     </row>
     <row r="163">
       <c r="A163" s="9" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C163" s="11" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
@@ -6770,13 +6766,13 @@
     </row>
     <row r="164">
       <c r="A164" s="16" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -6804,13 +6800,13 @@
     </row>
     <row r="165">
       <c r="A165" s="16" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -6837,43 +6833,49 @@
       <c r="Z165" s="15"/>
     </row>
     <row r="166">
-      <c r="A166" s="17" t="s">
-        <v>283</v>
-      </c>
-      <c r="B166" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="C166" s="18" t="s">
-        <v>284</v>
-      </c>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
-      <c r="F166" s="19"/>
-      <c r="G166" s="19"/>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="19"/>
-      <c r="K166" s="19"/>
-      <c r="L166" s="19"/>
-      <c r="M166" s="19"/>
-      <c r="N166" s="19"/>
-      <c r="O166" s="19"/>
-      <c r="P166" s="19"/>
-      <c r="Q166" s="19"/>
-      <c r="R166" s="19"/>
-      <c r="S166" s="19"/>
-      <c r="T166" s="19"/>
-      <c r="U166" s="19"/>
-      <c r="V166" s="19"/>
-      <c r="W166" s="19"/>
-      <c r="X166" s="19"/>
-      <c r="Y166" s="19"/>
-      <c r="Z166" s="20"/>
+      <c r="A166" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B166" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D166" s="12"/>
+      <c r="E166" s="12"/>
+      <c r="F166" s="12"/>
+      <c r="G166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="I166" s="12"/>
+      <c r="J166" s="12"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="12"/>
+      <c r="N166" s="12"/>
+      <c r="O166" s="12"/>
+      <c r="P166" s="12"/>
+      <c r="Q166" s="12"/>
+      <c r="R166" s="12"/>
+      <c r="S166" s="12"/>
+      <c r="T166" s="12"/>
+      <c r="U166" s="12"/>
+      <c r="V166" s="12"/>
+      <c r="W166" s="12"/>
+      <c r="X166" s="12"/>
+      <c r="Y166" s="12"/>
+      <c r="Z166" s="13"/>
     </row>
     <row r="167">
-      <c r="A167" s="1"/>
-      <c r="B167" s="1"/>
-      <c r="C167" s="1"/>
+      <c r="A167" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C167" s="1" t="s">
+        <v>282</v>
+      </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
@@ -6896,82 +6898,80 @@
       <c r="W167" s="2"/>
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
-      <c r="Z167" s="2"/>
+      <c r="Z167" s="15"/>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="s">
+      <c r="A168" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2"/>
+      <c r="K168" s="2"/>
+      <c r="L168" s="2"/>
+      <c r="M168" s="2"/>
+      <c r="N168" s="2"/>
+      <c r="O168" s="2"/>
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2"/>
+      <c r="V168" s="2"/>
+      <c r="W168" s="2"/>
+      <c r="X168" s="2"/>
+      <c r="Y168" s="2"/>
+      <c r="Z168" s="15"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="17" t="s">
         <v>285</v>
       </c>
-      <c r="B168" s="3"/>
-      <c r="C168" s="3"/>
-      <c r="D168" s="4"/>
-      <c r="E168" s="4"/>
-      <c r="F168" s="4"/>
-      <c r="G168" s="4"/>
-      <c r="H168" s="4"/>
-      <c r="I168" s="4"/>
-      <c r="J168" s="4"/>
-      <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
-      <c r="M168" s="4"/>
-      <c r="N168" s="4"/>
-      <c r="O168" s="4"/>
-      <c r="P168" s="4"/>
-      <c r="Q168" s="4"/>
-      <c r="R168" s="4"/>
-      <c r="S168" s="4"/>
-      <c r="T168" s="4"/>
-      <c r="U168" s="4"/>
-      <c r="V168" s="4"/>
-      <c r="W168" s="4"/>
-      <c r="X168" s="4"/>
-      <c r="Y168" s="4"/>
-      <c r="Z168" s="4"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="s">
+      <c r="B169" s="18" t="s">
+        <v>285</v>
+      </c>
+      <c r="C169" s="18" t="s">
         <v>286</v>
       </c>
-      <c r="B169" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="D169" s="2"/>
-      <c r="E169" s="2"/>
-      <c r="F169" s="2"/>
-      <c r="G169" s="2"/>
-      <c r="H169" s="2"/>
-      <c r="I169" s="2"/>
-      <c r="J169" s="2"/>
-      <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
-      <c r="N169" s="2"/>
-      <c r="O169" s="2"/>
-      <c r="P169" s="2"/>
-      <c r="Q169" s="2"/>
-      <c r="R169" s="2"/>
-      <c r="S169" s="2"/>
-      <c r="T169" s="2"/>
-      <c r="U169" s="2"/>
-      <c r="V169" s="2"/>
-      <c r="W169" s="2"/>
-      <c r="X169" s="2"/>
-      <c r="Y169" s="2"/>
-      <c r="Z169" s="2"/>
+      <c r="D169" s="19"/>
+      <c r="E169" s="19"/>
+      <c r="F169" s="19"/>
+      <c r="G169" s="19"/>
+      <c r="H169" s="19"/>
+      <c r="I169" s="19"/>
+      <c r="J169" s="19"/>
+      <c r="K169" s="19"/>
+      <c r="L169" s="19"/>
+      <c r="M169" s="19"/>
+      <c r="N169" s="19"/>
+      <c r="O169" s="19"/>
+      <c r="P169" s="19"/>
+      <c r="Q169" s="19"/>
+      <c r="R169" s="19"/>
+      <c r="S169" s="19"/>
+      <c r="T169" s="19"/>
+      <c r="U169" s="19"/>
+      <c r="V169" s="19"/>
+      <c r="W169" s="19"/>
+      <c r="X169" s="19"/>
+      <c r="Y169" s="19"/>
+      <c r="Z169" s="20"/>
     </row>
     <row r="170">
-      <c r="A170" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>289</v>
-      </c>
+      <c r="A170" s="1"/>
+      <c r="B170" s="1"/>
+      <c r="C170" s="1"/>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
       <c r="F170" s="2"/>
@@ -6997,48 +6997,44 @@
       <c r="Z170" s="2"/>
     </row>
     <row r="171">
-      <c r="A171" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D171" s="2"/>
-      <c r="E171" s="2"/>
-      <c r="F171" s="2"/>
-      <c r="G171" s="2"/>
-      <c r="H171" s="2"/>
-      <c r="I171" s="2"/>
-      <c r="J171" s="2"/>
-      <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
-      <c r="N171" s="2"/>
-      <c r="O171" s="2"/>
-      <c r="P171" s="2"/>
-      <c r="Q171" s="2"/>
-      <c r="R171" s="2"/>
-      <c r="S171" s="2"/>
-      <c r="T171" s="2"/>
-      <c r="U171" s="2"/>
-      <c r="V171" s="2"/>
-      <c r="W171" s="2"/>
-      <c r="X171" s="2"/>
-      <c r="Y171" s="2"/>
-      <c r="Z171" s="2"/>
+      <c r="A171" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
+      <c r="I171" s="4"/>
+      <c r="J171" s="4"/>
+      <c r="K171" s="4"/>
+      <c r="L171" s="4"/>
+      <c r="M171" s="4"/>
+      <c r="N171" s="4"/>
+      <c r="O171" s="4"/>
+      <c r="P171" s="4"/>
+      <c r="Q171" s="4"/>
+      <c r="R171" s="4"/>
+      <c r="S171" s="4"/>
+      <c r="T171" s="4"/>
+      <c r="U171" s="4"/>
+      <c r="V171" s="4"/>
+      <c r="W171" s="4"/>
+      <c r="X171" s="4"/>
+      <c r="Y171" s="4"/>
+      <c r="Z171" s="4"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -7065,9 +7061,15 @@
       <c r="Z172" s="2"/>
     </row>
     <row r="173">
-      <c r="A173" s="1"/>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
+      <c r="A173" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C173" s="1" t="s">
+        <v>291</v>
+      </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2"/>
       <c r="F173" s="2"/>
@@ -7093,44 +7095,48 @@
       <c r="Z173" s="2"/>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
-      <c r="H174" s="4"/>
-      <c r="I174" s="4"/>
-      <c r="J174" s="4"/>
-      <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
-      <c r="M174" s="4"/>
-      <c r="N174" s="4"/>
-      <c r="O174" s="4"/>
-      <c r="P174" s="4"/>
-      <c r="Q174" s="4"/>
-      <c r="R174" s="4"/>
-      <c r="S174" s="4"/>
-      <c r="T174" s="4"/>
-      <c r="U174" s="4"/>
-      <c r="V174" s="4"/>
-      <c r="W174" s="4"/>
-      <c r="X174" s="4"/>
-      <c r="Y174" s="4"/>
-      <c r="Z174" s="4"/>
+      <c r="A174" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C174" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
+      <c r="U174" s="2"/>
+      <c r="V174" s="2"/>
+      <c r="W174" s="2"/>
+      <c r="X174" s="2"/>
+      <c r="Y174" s="2"/>
+      <c r="Z174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C175" s="1" t="s">
         <v>295</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -7186,7 +7192,7 @@
     </row>
     <row r="177">
       <c r="A177" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -7216,13 +7222,13 @@
     </row>
     <row r="178">
       <c r="A178" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C178" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>300</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
@@ -7249,15 +7255,9 @@
       <c r="Z178" s="2"/>
     </row>
     <row r="179">
-      <c r="A179" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>303</v>
-      </c>
+      <c r="A179" s="1"/>
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="2"/>
       <c r="F179" s="2"/>
@@ -7283,48 +7283,44 @@
       <c r="Z179" s="2"/>
     </row>
     <row r="180">
-      <c r="A180" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D180" s="2"/>
-      <c r="E180" s="2"/>
-      <c r="F180" s="2"/>
-      <c r="G180" s="2"/>
-      <c r="H180" s="2"/>
-      <c r="I180" s="2"/>
-      <c r="J180" s="2"/>
-      <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
-      <c r="P180" s="2"/>
-      <c r="Q180" s="2"/>
-      <c r="R180" s="2"/>
-      <c r="S180" s="2"/>
-      <c r="T180" s="2"/>
-      <c r="U180" s="2"/>
-      <c r="V180" s="2"/>
-      <c r="W180" s="2"/>
-      <c r="X180" s="2"/>
-      <c r="Y180" s="2"/>
-      <c r="Z180" s="2"/>
+      <c r="A180" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
+      <c r="I180" s="4"/>
+      <c r="J180" s="4"/>
+      <c r="K180" s="4"/>
+      <c r="L180" s="4"/>
+      <c r="M180" s="4"/>
+      <c r="N180" s="4"/>
+      <c r="O180" s="4"/>
+      <c r="P180" s="4"/>
+      <c r="Q180" s="4"/>
+      <c r="R180" s="4"/>
+      <c r="S180" s="4"/>
+      <c r="T180" s="4"/>
+      <c r="U180" s="4"/>
+      <c r="V180" s="4"/>
+      <c r="W180" s="4"/>
+      <c r="X180" s="4"/>
+      <c r="Y180" s="4"/>
+      <c r="Z180" s="4"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2"/>
@@ -7352,13 +7348,13 @@
     </row>
     <row r="182">
       <c r="A182" s="1" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2"/>
@@ -7386,13 +7382,13 @@
     </row>
     <row r="183">
       <c r="A183" s="1" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2"/>
@@ -7420,13 +7416,13 @@
     </row>
     <row r="184">
       <c r="A184" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2"/>
@@ -7454,13 +7450,13 @@
     </row>
     <row r="185">
       <c r="A185" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2"/>
@@ -7488,13 +7484,13 @@
     </row>
     <row r="186">
       <c r="A186" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -7522,13 +7518,13 @@
     </row>
     <row r="187">
       <c r="A187" s="1" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
@@ -7555,9 +7551,15 @@
       <c r="Z187" s="2"/>
     </row>
     <row r="188">
-      <c r="A188" s="2"/>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
+      <c r="A188" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>321</v>
+      </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
       <c r="F188" s="2"/>
@@ -7583,9 +7585,15 @@
       <c r="Z188" s="2"/>
     </row>
     <row r="189">
-      <c r="A189" s="2"/>
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
+      <c r="A189" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="D189" s="2"/>
       <c r="E189" s="2"/>
       <c r="F189" s="2"/>
@@ -7611,9 +7619,15 @@
       <c r="Z189" s="2"/>
     </row>
     <row r="190">
-      <c r="A190" s="2"/>
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
+      <c r="A190" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C190" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="D190" s="2"/>
       <c r="E190" s="2"/>
       <c r="F190" s="2"/>
@@ -34658,6 +34672,90 @@
       <c r="Y1155" s="2"/>
       <c r="Z1155" s="2"/>
     </row>
+    <row r="1156">
+      <c r="A1156" s="2"/>
+      <c r="B1156" s="2"/>
+      <c r="C1156" s="2"/>
+      <c r="D1156" s="2"/>
+      <c r="E1156" s="2"/>
+      <c r="F1156" s="2"/>
+      <c r="G1156" s="2"/>
+      <c r="H1156" s="2"/>
+      <c r="I1156" s="2"/>
+      <c r="J1156" s="2"/>
+      <c r="K1156" s="2"/>
+      <c r="L1156" s="2"/>
+      <c r="M1156" s="2"/>
+      <c r="N1156" s="2"/>
+      <c r="O1156" s="2"/>
+      <c r="P1156" s="2"/>
+      <c r="Q1156" s="2"/>
+      <c r="R1156" s="2"/>
+      <c r="S1156" s="2"/>
+      <c r="T1156" s="2"/>
+      <c r="U1156" s="2"/>
+      <c r="V1156" s="2"/>
+      <c r="W1156" s="2"/>
+      <c r="X1156" s="2"/>
+      <c r="Y1156" s="2"/>
+      <c r="Z1156" s="2"/>
+    </row>
+    <row r="1157">
+      <c r="A1157" s="2"/>
+      <c r="B1157" s="2"/>
+      <c r="C1157" s="2"/>
+      <c r="D1157" s="2"/>
+      <c r="E1157" s="2"/>
+      <c r="F1157" s="2"/>
+      <c r="G1157" s="2"/>
+      <c r="H1157" s="2"/>
+      <c r="I1157" s="2"/>
+      <c r="J1157" s="2"/>
+      <c r="K1157" s="2"/>
+      <c r="L1157" s="2"/>
+      <c r="M1157" s="2"/>
+      <c r="N1157" s="2"/>
+      <c r="O1157" s="2"/>
+      <c r="P1157" s="2"/>
+      <c r="Q1157" s="2"/>
+      <c r="R1157" s="2"/>
+      <c r="S1157" s="2"/>
+      <c r="T1157" s="2"/>
+      <c r="U1157" s="2"/>
+      <c r="V1157" s="2"/>
+      <c r="W1157" s="2"/>
+      <c r="X1157" s="2"/>
+      <c r="Y1157" s="2"/>
+      <c r="Z1157" s="2"/>
+    </row>
+    <row r="1158">
+      <c r="A1158" s="2"/>
+      <c r="B1158" s="2"/>
+      <c r="C1158" s="2"/>
+      <c r="D1158" s="2"/>
+      <c r="E1158" s="2"/>
+      <c r="F1158" s="2"/>
+      <c r="G1158" s="2"/>
+      <c r="H1158" s="2"/>
+      <c r="I1158" s="2"/>
+      <c r="J1158" s="2"/>
+      <c r="K1158" s="2"/>
+      <c r="L1158" s="2"/>
+      <c r="M1158" s="2"/>
+      <c r="N1158" s="2"/>
+      <c r="O1158" s="2"/>
+      <c r="P1158" s="2"/>
+      <c r="Q1158" s="2"/>
+      <c r="R1158" s="2"/>
+      <c r="S1158" s="2"/>
+      <c r="T1158" s="2"/>
+      <c r="U1158" s="2"/>
+      <c r="V1158" s="2"/>
+      <c r="W1158" s="2"/>
+      <c r="X1158" s="2"/>
+      <c r="Y1158" s="2"/>
+      <c r="Z1158" s="2"/>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="PDWKAWSnmlKWwaDnRHdE9Bi2xns3vpiH0lYkRCmMyV8="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="6nwFSWNpi/8+ZnVlufCd3XzagaYjcSTTz10voUWY7qw="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="392">
   <si>
     <t>ID</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>錯誤的邀請碼。</t>
+  </si>
+  <si>
+    <t>Duplicate Login.</t>
+  </si>
+  <si>
+    <t>帳號已登入。</t>
   </si>
   <si>
     <t>登入(LoginView)</t>
@@ -4138,9 +4144,15 @@
       <c r="Z73" s="5"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
+      <c r="A74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>134</v>
+      </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -4166,77 +4178,71 @@
       <c r="Z74" s="5"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="S76" s="5"/>
-      <c r="T76" s="5"/>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="3" t="s">
         <v>137</v>
       </c>
       <c r="D77" s="5"/>
@@ -4267,7 +4273,7 @@
       <c r="A78" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>138</v>
       </c>
       <c r="C78" s="5" t="s">
@@ -4301,11 +4307,11 @@
       <c r="A79" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>141</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>142</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -4333,7 +4339,7 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>143</v>
@@ -4369,7 +4375,7 @@
       <c r="A81" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B81" s="28" t="s">
+      <c r="B81" s="5" t="s">
         <v>145</v>
       </c>
       <c r="C81" s="5" t="s">
@@ -4403,7 +4409,7 @@
       <c r="A82" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="28" t="s">
         <v>147</v>
       </c>
       <c r="C82" s="5" t="s">
@@ -4468,7 +4474,7 @@
       <c r="Z83" s="5"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -4570,7 +4576,7 @@
       <c r="Z86" s="5"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="6" t="s">
         <v>157</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -4604,7 +4610,7 @@
       <c r="Z87" s="5"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>159</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -4638,7 +4644,7 @@
       <c r="Z88" s="5"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="6" t="s">
         <v>161</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -4740,130 +4746,130 @@
       <c r="Z91" s="5"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C92" s="1" t="s">
+      <c r="C92" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="1"/>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1"/>
-      <c r="R92" s="1"/>
-      <c r="S92" s="1"/>
-      <c r="T92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="1"/>
-      <c r="X92" s="1"/>
-      <c r="Y92" s="1"/>
-      <c r="Z92" s="1"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="5"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
-      <c r="X93" s="5"/>
-      <c r="Y93" s="5"/>
-      <c r="Z93" s="5"/>
+      <c r="A93" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+      <c r="U93" s="1"/>
+      <c r="V93" s="1"/>
+      <c r="W93" s="1"/>
+      <c r="X93" s="1"/>
+      <c r="Y93" s="1"/>
+      <c r="Z93" s="1"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="29"/>
-      <c r="E94" s="29"/>
-      <c r="F94" s="29"/>
-      <c r="G94" s="29"/>
-      <c r="H94" s="29"/>
-      <c r="I94" s="29"/>
-      <c r="J94" s="29"/>
-      <c r="K94" s="29"/>
-      <c r="L94" s="29"/>
-      <c r="M94" s="29"/>
-      <c r="N94" s="29"/>
-      <c r="O94" s="29"/>
-      <c r="P94" s="29"/>
-      <c r="Q94" s="29"/>
-      <c r="R94" s="29"/>
-      <c r="S94" s="29"/>
-      <c r="T94" s="29"/>
-      <c r="U94" s="29"/>
-      <c r="V94" s="29"/>
-      <c r="W94" s="29"/>
-      <c r="X94" s="29"/>
-      <c r="Y94" s="29"/>
-      <c r="Z94" s="29"/>
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+      <c r="U94" s="5"/>
+      <c r="V94" s="5"/>
+      <c r="W94" s="5"/>
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5"/>
+      <c r="Z94" s="5"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="C95" s="5" t="s">
+      <c r="A95" s="29" t="s">
         <v>171</v>
       </c>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-      <c r="U95" s="5"/>
-      <c r="V95" s="5"/>
-      <c r="W95" s="5"/>
-      <c r="X95" s="5"/>
-      <c r="Y95" s="5"/>
-      <c r="Z95" s="5"/>
+      <c r="B95" s="29"/>
+      <c r="C95" s="29"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="29"/>
+      <c r="F95" s="29"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="29"/>
+      <c r="I95" s="29"/>
+      <c r="J95" s="29"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="29"/>
+      <c r="N95" s="29"/>
+      <c r="O95" s="29"/>
+      <c r="P95" s="29"/>
+      <c r="Q95" s="29"/>
+      <c r="R95" s="29"/>
+      <c r="S95" s="29"/>
+      <c r="T95" s="29"/>
+      <c r="U95" s="29"/>
+      <c r="V95" s="29"/>
+      <c r="W95" s="29"/>
+      <c r="X95" s="29"/>
+      <c r="Y95" s="29"/>
+      <c r="Z95" s="29"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="5" t="s">
@@ -4906,7 +4912,7 @@
       <c r="B97" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C97" s="6" t="s">
+      <c r="C97" s="5" t="s">
         <v>175</v>
       </c>
       <c r="D97" s="5"/>
@@ -4934,68 +4940,68 @@
       <c r="Z97" s="5"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="29" t="s">
+      <c r="A98" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B98" s="29"/>
-      <c r="C98" s="29"/>
-      <c r="D98" s="29"/>
-      <c r="E98" s="29"/>
-      <c r="F98" s="29"/>
-      <c r="G98" s="29"/>
-      <c r="H98" s="29"/>
-      <c r="I98" s="29"/>
-      <c r="J98" s="29"/>
-      <c r="K98" s="29"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="29"/>
-      <c r="N98" s="29"/>
-      <c r="O98" s="29"/>
-      <c r="P98" s="29"/>
-      <c r="Q98" s="29"/>
-      <c r="R98" s="29"/>
-      <c r="S98" s="29"/>
-      <c r="T98" s="29"/>
-      <c r="U98" s="29"/>
-      <c r="V98" s="29"/>
-      <c r="W98" s="29"/>
-      <c r="X98" s="29"/>
-      <c r="Y98" s="29"/>
-      <c r="Z98" s="29"/>
+      <c r="B98" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+      <c r="U98" s="5"/>
+      <c r="V98" s="5"/>
+      <c r="W98" s="5"/>
+      <c r="X98" s="5"/>
+      <c r="Y98" s="5"/>
+      <c r="Z98" s="5"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C99" s="5" t="s">
+      <c r="A99" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
-      <c r="U99" s="5"/>
-      <c r="V99" s="5"/>
-      <c r="W99" s="5"/>
-      <c r="X99" s="5"/>
-      <c r="Y99" s="5"/>
-      <c r="Z99" s="5"/>
+      <c r="B99" s="29"/>
+      <c r="C99" s="29"/>
+      <c r="D99" s="29"/>
+      <c r="E99" s="29"/>
+      <c r="F99" s="29"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="29"/>
+      <c r="I99" s="29"/>
+      <c r="J99" s="29"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="29"/>
+      <c r="M99" s="29"/>
+      <c r="N99" s="29"/>
+      <c r="O99" s="29"/>
+      <c r="P99" s="29"/>
+      <c r="Q99" s="29"/>
+      <c r="R99" s="29"/>
+      <c r="S99" s="29"/>
+      <c r="T99" s="29"/>
+      <c r="U99" s="29"/>
+      <c r="V99" s="29"/>
+      <c r="W99" s="29"/>
+      <c r="X99" s="29"/>
+      <c r="Y99" s="29"/>
+      <c r="Z99" s="29"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="5" t="s">
@@ -5100,132 +5106,132 @@
       <c r="Z102" s="5"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="30" t="s">
+      <c r="A103" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B103" s="30"/>
-      <c r="C103" s="30"/>
-      <c r="D103" s="30"/>
-      <c r="E103" s="30"/>
-      <c r="F103" s="30"/>
-      <c r="G103" s="30"/>
-      <c r="H103" s="30"/>
-      <c r="I103" s="30"/>
-      <c r="J103" s="30"/>
-      <c r="K103" s="30"/>
-      <c r="L103" s="30"/>
-      <c r="M103" s="30"/>
-      <c r="N103" s="30"/>
-      <c r="O103" s="30"/>
-      <c r="P103" s="30"/>
-      <c r="Q103" s="30"/>
-      <c r="R103" s="30"/>
-      <c r="S103" s="30"/>
-      <c r="T103" s="30"/>
-      <c r="U103" s="30"/>
-      <c r="V103" s="30"/>
-      <c r="W103" s="30"/>
-      <c r="X103" s="30"/>
-      <c r="Y103" s="30"/>
-      <c r="Z103" s="30"/>
+      <c r="B103" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+      <c r="U103" s="5"/>
+      <c r="V103" s="5"/>
+      <c r="W103" s="5"/>
+      <c r="X103" s="5"/>
+      <c r="Y103" s="5"/>
+      <c r="Z103" s="5"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="B104" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
-      <c r="U104" s="5"/>
-      <c r="V104" s="5"/>
-      <c r="W104" s="5"/>
-      <c r="X104" s="5"/>
-      <c r="Y104" s="5"/>
-      <c r="Z104" s="5"/>
+      <c r="A104" s="30" t="s">
+        <v>187</v>
+      </c>
+      <c r="B104" s="30"/>
+      <c r="C104" s="30"/>
+      <c r="D104" s="30"/>
+      <c r="E104" s="30"/>
+      <c r="F104" s="30"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="30"/>
+      <c r="M104" s="30"/>
+      <c r="N104" s="30"/>
+      <c r="O104" s="30"/>
+      <c r="P104" s="30"/>
+      <c r="Q104" s="30"/>
+      <c r="R104" s="30"/>
+      <c r="S104" s="30"/>
+      <c r="T104" s="30"/>
+      <c r="U104" s="30"/>
+      <c r="V104" s="30"/>
+      <c r="W104" s="30"/>
+      <c r="X104" s="30"/>
+      <c r="Y104" s="30"/>
+      <c r="Z104" s="30"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="A105" s="29" t="s">
+      <c r="A105" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C105" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B105" s="29"/>
-      <c r="C105" s="29"/>
-      <c r="D105" s="29"/>
-      <c r="E105" s="29"/>
-      <c r="F105" s="29"/>
-      <c r="G105" s="29"/>
-      <c r="H105" s="29"/>
-      <c r="I105" s="29"/>
-      <c r="J105" s="29"/>
-      <c r="K105" s="29"/>
-      <c r="L105" s="29"/>
-      <c r="M105" s="29"/>
-      <c r="N105" s="29"/>
-      <c r="O105" s="29"/>
-      <c r="P105" s="29"/>
-      <c r="Q105" s="29"/>
-      <c r="R105" s="29"/>
-      <c r="S105" s="29"/>
-      <c r="T105" s="29"/>
-      <c r="U105" s="29"/>
-      <c r="V105" s="29"/>
-      <c r="W105" s="29"/>
-      <c r="X105" s="29"/>
-      <c r="Y105" s="29"/>
-      <c r="Z105" s="29"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+      <c r="U105" s="5"/>
+      <c r="V105" s="5"/>
+      <c r="W105" s="5"/>
+      <c r="X105" s="5"/>
+      <c r="Y105" s="5"/>
+      <c r="Z105" s="5"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="A106" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B106" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="C106" s="5" t="s">
+      <c r="A106" s="29" t="s">
         <v>189</v>
       </c>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
-      <c r="T106" s="5"/>
-      <c r="U106" s="5"/>
-      <c r="V106" s="5"/>
-      <c r="W106" s="5"/>
-      <c r="X106" s="5"/>
-      <c r="Y106" s="5"/>
-      <c r="Z106" s="5"/>
+      <c r="B106" s="29"/>
+      <c r="C106" s="29"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="29"/>
+      <c r="F106" s="29"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="29"/>
+      <c r="M106" s="29"/>
+      <c r="N106" s="29"/>
+      <c r="O106" s="29"/>
+      <c r="P106" s="29"/>
+      <c r="Q106" s="29"/>
+      <c r="R106" s="29"/>
+      <c r="S106" s="29"/>
+      <c r="T106" s="29"/>
+      <c r="U106" s="29"/>
+      <c r="V106" s="29"/>
+      <c r="W106" s="29"/>
+      <c r="X106" s="29"/>
+      <c r="Y106" s="29"/>
+      <c r="Z106" s="29"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="5" t="s">
@@ -5262,7 +5268,7 @@
       <c r="Z107" s="5"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="5" t="s">
         <v>192</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -5296,302 +5302,302 @@
       <c r="Z108" s="5"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="29" t="s">
+      <c r="A109" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B109" s="29"/>
-      <c r="C109" s="29"/>
-      <c r="D109" s="29"/>
-      <c r="E109" s="29"/>
-      <c r="F109" s="29"/>
-      <c r="G109" s="29"/>
-      <c r="H109" s="29"/>
-      <c r="I109" s="29"/>
-      <c r="J109" s="29"/>
-      <c r="K109" s="29"/>
-      <c r="L109" s="29"/>
-      <c r="M109" s="29"/>
-      <c r="N109" s="29"/>
-      <c r="O109" s="29"/>
-      <c r="P109" s="29"/>
-      <c r="Q109" s="29"/>
-      <c r="R109" s="29"/>
-      <c r="S109" s="29"/>
-      <c r="T109" s="29"/>
-      <c r="U109" s="29"/>
-      <c r="V109" s="29"/>
-      <c r="W109" s="29"/>
-      <c r="X109" s="29"/>
-      <c r="Y109" s="29"/>
-      <c r="Z109" s="29"/>
+      <c r="B109" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
+      <c r="W109" s="5"/>
+      <c r="X109" s="5"/>
+      <c r="Y109" s="5"/>
+      <c r="Z109" s="5"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="A110" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C110" s="6" t="s">
+      <c r="A110" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="1"/>
-      <c r="H110" s="1"/>
-      <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1"/>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="1"/>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="V110" s="1"/>
-      <c r="W110" s="1"/>
-      <c r="X110" s="1"/>
-      <c r="Y110" s="1"/>
-      <c r="Z110" s="1"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="29"/>
+      <c r="F110" s="29"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="29"/>
+      <c r="M110" s="29"/>
+      <c r="N110" s="29"/>
+      <c r="O110" s="29"/>
+      <c r="P110" s="29"/>
+      <c r="Q110" s="29"/>
+      <c r="R110" s="29"/>
+      <c r="S110" s="29"/>
+      <c r="T110" s="29"/>
+      <c r="U110" s="29"/>
+      <c r="V110" s="29"/>
+      <c r="W110" s="29"/>
+      <c r="X110" s="29"/>
+      <c r="Y110" s="29"/>
+      <c r="Z110" s="29"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="A111" s="31" t="s">
+      <c r="A111" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B111" s="32"/>
-      <c r="C111" s="29"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="32"/>
-      <c r="F111" s="32"/>
-      <c r="G111" s="32"/>
-      <c r="H111" s="32"/>
-      <c r="I111" s="32"/>
-      <c r="J111" s="32"/>
-      <c r="K111" s="32"/>
-      <c r="L111" s="32"/>
-      <c r="M111" s="32"/>
-      <c r="N111" s="32"/>
-      <c r="O111" s="32"/>
-      <c r="P111" s="32"/>
-      <c r="Q111" s="32"/>
-      <c r="R111" s="32"/>
-      <c r="S111" s="32"/>
-      <c r="T111" s="32"/>
-      <c r="U111" s="32"/>
-      <c r="V111" s="32"/>
-      <c r="W111" s="32"/>
-      <c r="X111" s="32"/>
-      <c r="Y111" s="32"/>
-      <c r="Z111" s="32"/>
+      <c r="B111" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C111" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+      <c r="K111" s="1"/>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1"/>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1"/>
+      <c r="P111" s="1"/>
+      <c r="Q111" s="1"/>
+      <c r="R111" s="1"/>
+      <c r="S111" s="1"/>
+      <c r="T111" s="1"/>
+      <c r="U111" s="1"/>
+      <c r="V111" s="1"/>
+      <c r="W111" s="1"/>
+      <c r="X111" s="1"/>
+      <c r="Y111" s="1"/>
+      <c r="Z111" s="1"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="A112" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C112" s="6" t="s">
+      <c r="A112" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="D112" s="5"/>
-      <c r="E112" s="5"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="5"/>
-      <c r="M112" s="5"/>
-      <c r="N112" s="5"/>
-      <c r="O112" s="5"/>
-      <c r="P112" s="5"/>
-      <c r="Q112" s="5"/>
-      <c r="R112" s="5"/>
-      <c r="S112" s="5"/>
-      <c r="T112" s="5"/>
-      <c r="U112" s="5"/>
-      <c r="V112" s="5"/>
-      <c r="W112" s="5"/>
-      <c r="X112" s="5"/>
-      <c r="Y112" s="5"/>
-      <c r="Z112" s="5"/>
+      <c r="B112" s="32"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="32"/>
+      <c r="E112" s="32"/>
+      <c r="F112" s="32"/>
+      <c r="G112" s="32"/>
+      <c r="H112" s="32"/>
+      <c r="I112" s="32"/>
+      <c r="J112" s="32"/>
+      <c r="K112" s="32"/>
+      <c r="L112" s="32"/>
+      <c r="M112" s="32"/>
+      <c r="N112" s="32"/>
+      <c r="O112" s="32"/>
+      <c r="P112" s="32"/>
+      <c r="Q112" s="32"/>
+      <c r="R112" s="32"/>
+      <c r="S112" s="32"/>
+      <c r="T112" s="32"/>
+      <c r="U112" s="32"/>
+      <c r="V112" s="32"/>
+      <c r="W112" s="32"/>
+      <c r="X112" s="32"/>
+      <c r="Y112" s="32"/>
+      <c r="Z112" s="32"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="A113" s="17" t="s">
+      <c r="A113" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="B113" s="17" t="s">
+      <c r="B113" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C113" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="D113" s="33"/>
-      <c r="E113" s="33"/>
-      <c r="F113" s="33"/>
-      <c r="G113" s="33"/>
-      <c r="H113" s="33"/>
-      <c r="I113" s="33"/>
-      <c r="J113" s="33"/>
-      <c r="K113" s="33"/>
-      <c r="L113" s="33"/>
-      <c r="M113" s="33"/>
-      <c r="N113" s="33"/>
-      <c r="O113" s="33"/>
-      <c r="P113" s="33"/>
-      <c r="Q113" s="33"/>
-      <c r="R113" s="33"/>
-      <c r="S113" s="33"/>
-      <c r="T113" s="33"/>
-      <c r="U113" s="33"/>
-      <c r="V113" s="33"/>
-      <c r="W113" s="33"/>
-      <c r="X113" s="33"/>
-      <c r="Y113" s="33"/>
-      <c r="Z113" s="33"/>
+      <c r="C113" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D113" s="5"/>
+      <c r="E113" s="5"/>
+      <c r="F113" s="5"/>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
+      <c r="N113" s="5"/>
+      <c r="O113" s="5"/>
+      <c r="P113" s="5"/>
+      <c r="Q113" s="5"/>
+      <c r="R113" s="5"/>
+      <c r="S113" s="5"/>
+      <c r="T113" s="5"/>
+      <c r="U113" s="5"/>
+      <c r="V113" s="5"/>
+      <c r="W113" s="5"/>
+      <c r="X113" s="5"/>
+      <c r="Y113" s="5"/>
+      <c r="Z113" s="5"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="17" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B114" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="C114" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="5"/>
-      <c r="L114" s="5"/>
-      <c r="M114" s="5"/>
-      <c r="N114" s="5"/>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
-      <c r="U114" s="5"/>
-      <c r="V114" s="5"/>
-      <c r="W114" s="5"/>
-      <c r="X114" s="5"/>
-      <c r="Y114" s="5"/>
-      <c r="Z114" s="5"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="21"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="21"/>
-      <c r="D115" s="21"/>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="21"/>
-      <c r="H115" s="21"/>
-      <c r="I115" s="21"/>
-      <c r="J115" s="21"/>
-      <c r="K115" s="21"/>
-      <c r="L115" s="21"/>
-      <c r="M115" s="21"/>
-      <c r="N115" s="21"/>
-      <c r="O115" s="21"/>
-      <c r="P115" s="21"/>
-      <c r="Q115" s="21"/>
-      <c r="R115" s="21"/>
-      <c r="S115" s="21"/>
-      <c r="T115" s="21"/>
-      <c r="U115" s="21"/>
-      <c r="V115" s="21"/>
-      <c r="W115" s="21"/>
-      <c r="X115" s="21"/>
-      <c r="Y115" s="21"/>
-      <c r="Z115" s="21"/>
-    </row>
-    <row r="116" ht="15.75" customHeight="1">
-      <c r="A116" s="2" t="s">
+      <c r="C114" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="D114" s="33"/>
+      <c r="E114" s="33"/>
+      <c r="F114" s="33"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="33"/>
+      <c r="I114" s="33"/>
+      <c r="J114" s="33"/>
+      <c r="K114" s="33"/>
+      <c r="L114" s="33"/>
+      <c r="M114" s="33"/>
+      <c r="N114" s="33"/>
+      <c r="O114" s="33"/>
+      <c r="P114" s="33"/>
+      <c r="Q114" s="33"/>
+      <c r="R114" s="33"/>
+      <c r="S114" s="33"/>
+      <c r="T114" s="33"/>
+      <c r="U114" s="33"/>
+      <c r="V114" s="33"/>
+      <c r="W114" s="33"/>
+      <c r="X114" s="33"/>
+      <c r="Y114" s="33"/>
+      <c r="Z114" s="33"/>
+    </row>
+    <row r="115" ht="15.75" customHeight="1">
+      <c r="A115" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
-      <c r="S116" s="2"/>
-      <c r="T116" s="2"/>
-      <c r="U116" s="2"/>
-      <c r="V116" s="2"/>
-      <c r="W116" s="2"/>
-      <c r="X116" s="2"/>
-      <c r="Y116" s="2"/>
-      <c r="Z116" s="2"/>
+      <c r="B115" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D115" s="5"/>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="5"/>
+      <c r="L115" s="5"/>
+      <c r="M115" s="5"/>
+      <c r="N115" s="5"/>
+      <c r="O115" s="5"/>
+      <c r="P115" s="5"/>
+      <c r="Q115" s="5"/>
+      <c r="R115" s="5"/>
+      <c r="S115" s="5"/>
+      <c r="T115" s="5"/>
+      <c r="U115" s="5"/>
+      <c r="V115" s="5"/>
+      <c r="W115" s="5"/>
+      <c r="X115" s="5"/>
+      <c r="Y115" s="5"/>
+      <c r="Z115" s="5"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="21"/>
+      <c r="B116" s="21"/>
+      <c r="C116" s="21"/>
+      <c r="D116" s="21"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="21"/>
+      <c r="H116" s="21"/>
+      <c r="I116" s="21"/>
+      <c r="J116" s="21"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="21"/>
+      <c r="M116" s="21"/>
+      <c r="N116" s="21"/>
+      <c r="O116" s="21"/>
+      <c r="P116" s="21"/>
+      <c r="Q116" s="21"/>
+      <c r="R116" s="21"/>
+      <c r="S116" s="21"/>
+      <c r="T116" s="21"/>
+      <c r="U116" s="21"/>
+      <c r="V116" s="21"/>
+      <c r="W116" s="21"/>
+      <c r="X116" s="21"/>
+      <c r="Y116" s="21"/>
+      <c r="Z116" s="21"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="A117" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="B117" s="5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C117" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
-      <c r="F117" s="5"/>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="5"/>
-      <c r="L117" s="5"/>
-      <c r="M117" s="5"/>
-      <c r="N117" s="5"/>
-      <c r="O117" s="5"/>
-      <c r="P117" s="5"/>
-      <c r="Q117" s="5"/>
-      <c r="R117" s="5"/>
-      <c r="S117" s="5"/>
-      <c r="T117" s="5"/>
-      <c r="U117" s="5"/>
-      <c r="V117" s="5"/>
-      <c r="W117" s="5"/>
-      <c r="X117" s="5"/>
-      <c r="Y117" s="5"/>
-      <c r="Z117" s="5"/>
+      <c r="A117" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+      <c r="K117" s="2"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" s="2"/>
+      <c r="P117" s="2"/>
+      <c r="Q117" s="2"/>
+      <c r="R117" s="2"/>
+      <c r="S117" s="2"/>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="2"/>
+      <c r="Y117" s="2"/>
+      <c r="Z117" s="2"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C118" s="5" t="s">
         <v>205</v>
-      </c>
-      <c r="B118" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>206</v>
       </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -5652,9 +5658,15 @@
       <c r="Z119" s="5"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="A120" s="5"/>
-      <c r="B120" s="5"/>
-      <c r="C120" s="5"/>
+      <c r="A120" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>210</v>
+      </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -5680,78 +5692,72 @@
       <c r="Z120" s="5"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="A121" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
-      <c r="N121" s="2"/>
-      <c r="O121" s="2"/>
-      <c r="P121" s="2"/>
-      <c r="Q121" s="2"/>
-      <c r="R121" s="2"/>
-      <c r="S121" s="2"/>
-      <c r="T121" s="2"/>
-      <c r="U121" s="2"/>
-      <c r="V121" s="2"/>
-      <c r="W121" s="2"/>
-      <c r="X121" s="2"/>
-      <c r="Y121" s="2"/>
-      <c r="Z121" s="2"/>
+      <c r="A121" s="5"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="5"/>
+      <c r="D121" s="5"/>
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="5"/>
+      <c r="L121" s="5"/>
+      <c r="M121" s="5"/>
+      <c r="N121" s="5"/>
+      <c r="O121" s="5"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="T121" s="5"/>
+      <c r="U121" s="5"/>
+      <c r="V121" s="5"/>
+      <c r="W121" s="5"/>
+      <c r="X121" s="5"/>
+      <c r="Y121" s="5"/>
+      <c r="Z121" s="5"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="A122" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="C122" s="1" t="s">
+      <c r="A122" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-      <c r="F122" s="1"/>
-      <c r="G122" s="1"/>
-      <c r="H122" s="1"/>
-      <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-      <c r="K122" s="1"/>
-      <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
-      <c r="N122" s="1"/>
-      <c r="O122" s="1"/>
-      <c r="P122" s="1"/>
-      <c r="Q122" s="1"/>
-      <c r="R122" s="1"/>
-      <c r="S122" s="1"/>
-      <c r="T122" s="1"/>
-      <c r="U122" s="1"/>
-      <c r="V122" s="1"/>
-      <c r="W122" s="1"/>
-      <c r="X122" s="1"/>
-      <c r="Y122" s="1"/>
-      <c r="Z122" s="1"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2"/>
+      <c r="V122" s="2"/>
+      <c r="W122" s="2"/>
+      <c r="X122" s="2"/>
+      <c r="Y122" s="2"/>
+      <c r="Z122" s="2"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C123" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
@@ -5779,7 +5785,7 @@
     </row>
     <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>215</v>
@@ -5914,9 +5920,15 @@
       <c r="Z127" s="1"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="A128" s="1"/>
-      <c r="B128" s="1"/>
-      <c r="C128" s="1"/>
+      <c r="A128" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -5942,73 +5954,73 @@
       <c r="Z128" s="1"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="A129" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2"/>
-      <c r="F129" s="2"/>
-      <c r="G129" s="2"/>
-      <c r="H129" s="2"/>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
-      <c r="N129" s="2"/>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
-      <c r="R129" s="2"/>
-      <c r="S129" s="2"/>
-      <c r="T129" s="2"/>
-      <c r="U129" s="2"/>
-      <c r="V129" s="2"/>
-      <c r="W129" s="2"/>
-      <c r="X129" s="2"/>
-      <c r="Y129" s="2"/>
-      <c r="Z129" s="2"/>
+      <c r="A129" s="1"/>
+      <c r="B129" s="1"/>
+      <c r="C129" s="1"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="1"/>
+      <c r="G129" s="1"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1"/>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1"/>
+      <c r="P129" s="1"/>
+      <c r="Q129" s="1"/>
+      <c r="R129" s="1"/>
+      <c r="S129" s="1"/>
+      <c r="T129" s="1"/>
+      <c r="U129" s="1"/>
+      <c r="V129" s="1"/>
+      <c r="W129" s="1"/>
+      <c r="X129" s="1"/>
+      <c r="Y129" s="1"/>
+      <c r="Z129" s="1"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="A130" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-      <c r="F130" s="1"/>
-      <c r="G130" s="1"/>
-      <c r="H130" s="1"/>
-      <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-      <c r="K130" s="1"/>
-      <c r="L130" s="1"/>
-      <c r="M130" s="1"/>
-      <c r="N130" s="1"/>
-      <c r="O130" s="1"/>
-      <c r="P130" s="1"/>
-      <c r="Q130" s="1"/>
-      <c r="R130" s="1"/>
-      <c r="S130" s="1"/>
-      <c r="T130" s="1"/>
-      <c r="U130" s="1"/>
-      <c r="V130" s="1"/>
-      <c r="W130" s="1"/>
-      <c r="X130" s="1"/>
-      <c r="Y130" s="1"/>
-      <c r="Z130" s="1"/>
+      <c r="A130" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2"/>
+      <c r="V130" s="2"/>
+      <c r="W130" s="2"/>
+      <c r="X130" s="2"/>
+      <c r="Y130" s="2"/>
+      <c r="Z130" s="2"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="A131" s="1"/>
-      <c r="B131" s="1"/>
-      <c r="C131" s="1"/>
+      <c r="A131" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>225</v>
+      </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -6034,68 +6046,62 @@
       <c r="Z131" s="1"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="1"/>
+      <c r="B132" s="1"/>
+      <c r="C132" s="1"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="1"/>
+      <c r="G132" s="1"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1"/>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1"/>
+      <c r="P132" s="1"/>
+      <c r="Q132" s="1"/>
+      <c r="R132" s="1"/>
+      <c r="S132" s="1"/>
+      <c r="T132" s="1"/>
+      <c r="U132" s="1"/>
+      <c r="V132" s="1"/>
+      <c r="W132" s="1"/>
+      <c r="X132" s="1"/>
+      <c r="Y132" s="1"/>
+      <c r="Z132" s="1"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="A133" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-      <c r="D132" s="2"/>
-      <c r="E132" s="2"/>
-      <c r="F132" s="2"/>
-      <c r="G132" s="2"/>
-      <c r="H132" s="2"/>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
-      <c r="N132" s="2"/>
-      <c r="O132" s="2"/>
-      <c r="P132" s="2"/>
-      <c r="Q132" s="2"/>
-      <c r="R132" s="2"/>
-      <c r="S132" s="2"/>
-      <c r="T132" s="2"/>
-      <c r="U132" s="2"/>
-      <c r="V132" s="2"/>
-      <c r="W132" s="2"/>
-      <c r="X132" s="2"/>
-      <c r="Y132" s="2"/>
-      <c r="Z132" s="2"/>
-    </row>
-    <row r="133" ht="15.75" customHeight="1">
-      <c r="A133" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="1"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-      <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="1"/>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
-      <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
-      <c r="S133" s="1"/>
-      <c r="T133" s="1"/>
-      <c r="U133" s="1"/>
-      <c r="V133" s="1"/>
-      <c r="W133" s="1"/>
-      <c r="X133" s="1"/>
-      <c r="Y133" s="1"/>
-      <c r="Z133" s="1"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
+      <c r="U133" s="2"/>
+      <c r="V133" s="2"/>
+      <c r="W133" s="2"/>
+      <c r="X133" s="2"/>
+      <c r="Y133" s="2"/>
+      <c r="Z133" s="2"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
@@ -6166,174 +6172,174 @@
       <c r="Z135" s="1"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="A136" s="9" t="s">
+      <c r="A136" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C136" s="11" t="s">
+      <c r="C136" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D136" s="11"/>
-      <c r="E136" s="11"/>
-      <c r="F136" s="11"/>
-      <c r="G136" s="11"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="11"/>
-      <c r="L136" s="11"/>
-      <c r="M136" s="11"/>
-      <c r="N136" s="11"/>
-      <c r="O136" s="11"/>
-      <c r="P136" s="11"/>
-      <c r="Q136" s="11"/>
-      <c r="R136" s="11"/>
-      <c r="S136" s="11"/>
-      <c r="T136" s="11"/>
-      <c r="U136" s="11"/>
-      <c r="V136" s="11"/>
-      <c r="W136" s="11"/>
-      <c r="X136" s="11"/>
-      <c r="Y136" s="11"/>
-      <c r="Z136" s="12"/>
+      <c r="D136" s="1"/>
+      <c r="E136" s="1"/>
+      <c r="F136" s="1"/>
+      <c r="G136" s="1"/>
+      <c r="H136" s="1"/>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1"/>
+      <c r="P136" s="1"/>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="1"/>
+      <c r="S136" s="1"/>
+      <c r="T136" s="1"/>
+      <c r="U136" s="1"/>
+      <c r="V136" s="1"/>
+      <c r="W136" s="1"/>
+      <c r="X136" s="1"/>
+      <c r="Y136" s="1"/>
+      <c r="Z136" s="1"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="C137" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
-      <c r="G137" s="1"/>
-      <c r="H137" s="1"/>
-      <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-      <c r="K137" s="1"/>
-      <c r="L137" s="1"/>
-      <c r="M137" s="1"/>
-      <c r="N137" s="1"/>
-      <c r="O137" s="1"/>
-      <c r="P137" s="1"/>
-      <c r="Q137" s="1"/>
-      <c r="R137" s="1"/>
-      <c r="S137" s="1"/>
-      <c r="T137" s="1"/>
-      <c r="U137" s="1"/>
-      <c r="V137" s="1"/>
-      <c r="W137" s="1"/>
-      <c r="X137" s="1"/>
-      <c r="Y137" s="1"/>
-      <c r="Z137" s="14"/>
+      <c r="D137" s="11"/>
+      <c r="E137" s="11"/>
+      <c r="F137" s="11"/>
+      <c r="G137" s="11"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11"/>
+      <c r="L137" s="11"/>
+      <c r="M137" s="11"/>
+      <c r="N137" s="11"/>
+      <c r="O137" s="11"/>
+      <c r="P137" s="11"/>
+      <c r="Q137" s="11"/>
+      <c r="R137" s="11"/>
+      <c r="S137" s="11"/>
+      <c r="T137" s="11"/>
+      <c r="U137" s="11"/>
+      <c r="V137" s="11"/>
+      <c r="W137" s="11"/>
+      <c r="X137" s="11"/>
+      <c r="Y137" s="11"/>
+      <c r="Z137" s="12"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="A138" s="18" t="s">
+      <c r="A138" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="B138" s="19" t="s">
+      <c r="B138" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C138" s="19" t="s">
+      <c r="C138" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
-      <c r="F138" s="19"/>
-      <c r="G138" s="19"/>
-      <c r="H138" s="19"/>
-      <c r="I138" s="19"/>
-      <c r="J138" s="19"/>
-      <c r="K138" s="19"/>
-      <c r="L138" s="19"/>
-      <c r="M138" s="19"/>
-      <c r="N138" s="19"/>
-      <c r="O138" s="19"/>
-      <c r="P138" s="19"/>
-      <c r="Q138" s="19"/>
-      <c r="R138" s="19"/>
-      <c r="S138" s="19"/>
-      <c r="T138" s="19"/>
-      <c r="U138" s="19"/>
-      <c r="V138" s="19"/>
-      <c r="W138" s="19"/>
-      <c r="X138" s="19"/>
-      <c r="Y138" s="19"/>
-      <c r="Z138" s="20"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
+      <c r="G138" s="1"/>
+      <c r="H138" s="1"/>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1"/>
+      <c r="P138" s="1"/>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="1"/>
+      <c r="S138" s="1"/>
+      <c r="T138" s="1"/>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
+      <c r="W138" s="1"/>
+      <c r="X138" s="1"/>
+      <c r="Y138" s="1"/>
+      <c r="Z138" s="14"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="A139" s="9" t="s">
+      <c r="A139" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="19" t="s">
         <v>237</v>
       </c>
-      <c r="C139" s="11" t="s">
+      <c r="C139" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="D139" s="11"/>
-      <c r="E139" s="11"/>
-      <c r="F139" s="11"/>
-      <c r="G139" s="11"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="11"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="11"/>
-      <c r="L139" s="11"/>
-      <c r="M139" s="11"/>
-      <c r="N139" s="11"/>
-      <c r="O139" s="11"/>
-      <c r="P139" s="11"/>
-      <c r="Q139" s="11"/>
-      <c r="R139" s="11"/>
-      <c r="S139" s="11"/>
-      <c r="T139" s="11"/>
-      <c r="U139" s="11"/>
-      <c r="V139" s="11"/>
-      <c r="W139" s="11"/>
-      <c r="X139" s="11"/>
-      <c r="Y139" s="11"/>
-      <c r="Z139" s="12"/>
+      <c r="D139" s="19"/>
+      <c r="E139" s="19"/>
+      <c r="F139" s="19"/>
+      <c r="G139" s="19"/>
+      <c r="H139" s="19"/>
+      <c r="I139" s="19"/>
+      <c r="J139" s="19"/>
+      <c r="K139" s="19"/>
+      <c r="L139" s="19"/>
+      <c r="M139" s="19"/>
+      <c r="N139" s="19"/>
+      <c r="O139" s="19"/>
+      <c r="P139" s="19"/>
+      <c r="Q139" s="19"/>
+      <c r="R139" s="19"/>
+      <c r="S139" s="19"/>
+      <c r="T139" s="19"/>
+      <c r="U139" s="19"/>
+      <c r="V139" s="19"/>
+      <c r="W139" s="19"/>
+      <c r="X139" s="19"/>
+      <c r="Y139" s="19"/>
+      <c r="Z139" s="20"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="11" t="s">
         <v>239</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="C140" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-      <c r="F140" s="1"/>
-      <c r="G140" s="1"/>
-      <c r="H140" s="1"/>
-      <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-      <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
-      <c r="M140" s="1"/>
-      <c r="N140" s="1"/>
-      <c r="O140" s="1"/>
-      <c r="P140" s="1"/>
-      <c r="Q140" s="1"/>
-      <c r="R140" s="1"/>
-      <c r="S140" s="1"/>
-      <c r="T140" s="1"/>
-      <c r="U140" s="1"/>
-      <c r="V140" s="1"/>
-      <c r="W140" s="1"/>
-      <c r="X140" s="1"/>
-      <c r="Y140" s="1"/>
-      <c r="Z140" s="14"/>
+      <c r="D140" s="11"/>
+      <c r="E140" s="11"/>
+      <c r="F140" s="11"/>
+      <c r="G140" s="11"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11"/>
+      <c r="L140" s="11"/>
+      <c r="M140" s="11"/>
+      <c r="N140" s="11"/>
+      <c r="O140" s="11"/>
+      <c r="P140" s="11"/>
+      <c r="Q140" s="11"/>
+      <c r="R140" s="11"/>
+      <c r="S140" s="11"/>
+      <c r="T140" s="11"/>
+      <c r="U140" s="11"/>
+      <c r="V140" s="11"/>
+      <c r="W140" s="11"/>
+      <c r="X140" s="11"/>
+      <c r="Y140" s="11"/>
+      <c r="Z140" s="12"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="15" t="s">
@@ -6370,109 +6376,109 @@
       <c r="Z141" s="14"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="18" t="s">
+      <c r="A142" s="15" t="s">
         <v>243</v>
       </c>
-      <c r="B142" s="19" t="s">
+      <c r="B142" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C142" s="19" t="s">
+      <c r="C142" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
-      <c r="F142" s="19"/>
-      <c r="G142" s="19"/>
-      <c r="H142" s="19"/>
-      <c r="I142" s="19"/>
-      <c r="J142" s="19"/>
-      <c r="K142" s="19"/>
-      <c r="L142" s="19"/>
-      <c r="M142" s="19"/>
-      <c r="N142" s="19"/>
-      <c r="O142" s="19"/>
-      <c r="P142" s="19"/>
-      <c r="Q142" s="19"/>
-      <c r="R142" s="19"/>
-      <c r="S142" s="19"/>
-      <c r="T142" s="19"/>
-      <c r="U142" s="19"/>
-      <c r="V142" s="19"/>
-      <c r="W142" s="19"/>
-      <c r="X142" s="19"/>
-      <c r="Y142" s="19"/>
-      <c r="Z142" s="20"/>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
+      <c r="F142" s="1"/>
+      <c r="G142" s="1"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="1"/>
+      <c r="J142" s="1"/>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
+      <c r="P142" s="1"/>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
+      <c r="S142" s="1"/>
+      <c r="T142" s="1"/>
+      <c r="U142" s="1"/>
+      <c r="V142" s="1"/>
+      <c r="W142" s="1"/>
+      <c r="X142" s="1"/>
+      <c r="Y142" s="1"/>
+      <c r="Z142" s="14"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="A143" s="9" t="s">
+      <c r="A143" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="19" t="s">
         <v>245</v>
       </c>
-      <c r="C143" s="11" t="s">
+      <c r="C143" s="19" t="s">
         <v>246</v>
       </c>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
-      <c r="F143" s="11"/>
-      <c r="G143" s="11"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="11"/>
-      <c r="J143" s="11"/>
-      <c r="K143" s="11"/>
-      <c r="L143" s="11"/>
-      <c r="M143" s="11"/>
-      <c r="N143" s="11"/>
-      <c r="O143" s="11"/>
-      <c r="P143" s="11"/>
-      <c r="Q143" s="11"/>
-      <c r="R143" s="11"/>
-      <c r="S143" s="11"/>
-      <c r="T143" s="11"/>
-      <c r="U143" s="11"/>
-      <c r="V143" s="11"/>
-      <c r="W143" s="11"/>
-      <c r="X143" s="11"/>
-      <c r="Y143" s="11"/>
-      <c r="Z143" s="12"/>
+      <c r="D143" s="19"/>
+      <c r="E143" s="19"/>
+      <c r="F143" s="19"/>
+      <c r="G143" s="19"/>
+      <c r="H143" s="19"/>
+      <c r="I143" s="19"/>
+      <c r="J143" s="19"/>
+      <c r="K143" s="19"/>
+      <c r="L143" s="19"/>
+      <c r="M143" s="19"/>
+      <c r="N143" s="19"/>
+      <c r="O143" s="19"/>
+      <c r="P143" s="19"/>
+      <c r="Q143" s="19"/>
+      <c r="R143" s="19"/>
+      <c r="S143" s="19"/>
+      <c r="T143" s="19"/>
+      <c r="U143" s="19"/>
+      <c r="V143" s="19"/>
+      <c r="W143" s="19"/>
+      <c r="X143" s="19"/>
+      <c r="Y143" s="19"/>
+      <c r="Z143" s="20"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="A144" s="34" t="s">
+      <c r="A144" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-      <c r="F144" s="1"/>
-      <c r="G144" s="1"/>
-      <c r="H144" s="1"/>
-      <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="1"/>
-      <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
-      <c r="S144" s="1"/>
-      <c r="T144" s="1"/>
-      <c r="U144" s="1"/>
-      <c r="V144" s="1"/>
-      <c r="W144" s="1"/>
-      <c r="X144" s="1"/>
-      <c r="Y144" s="1"/>
-      <c r="Z144" s="14"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="11"/>
+      <c r="F144" s="11"/>
+      <c r="G144" s="11"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="11"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="11"/>
+      <c r="L144" s="11"/>
+      <c r="M144" s="11"/>
+      <c r="N144" s="11"/>
+      <c r="O144" s="11"/>
+      <c r="P144" s="11"/>
+      <c r="Q144" s="11"/>
+      <c r="R144" s="11"/>
+      <c r="S144" s="11"/>
+      <c r="T144" s="11"/>
+      <c r="U144" s="11"/>
+      <c r="V144" s="11"/>
+      <c r="W144" s="11"/>
+      <c r="X144" s="11"/>
+      <c r="Y144" s="11"/>
+      <c r="Z144" s="12"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="A145" s="15" t="s">
+      <c r="A145" s="34" t="s">
         <v>249</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -6506,77 +6512,83 @@
       <c r="Z145" s="14"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="A146" s="18" t="s">
+      <c r="A146" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="B146" s="19" t="s">
+      <c r="B146" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C146" s="19" t="s">
+      <c r="C146" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D146" s="1"/>
+      <c r="E146" s="1"/>
+      <c r="F146" s="1"/>
+      <c r="G146" s="1"/>
+      <c r="H146" s="1"/>
+      <c r="I146" s="1"/>
+      <c r="J146" s="1"/>
+      <c r="K146" s="1"/>
+      <c r="L146" s="1"/>
+      <c r="M146" s="1"/>
+      <c r="N146" s="1"/>
+      <c r="O146" s="1"/>
+      <c r="P146" s="1"/>
+      <c r="Q146" s="1"/>
+      <c r="R146" s="1"/>
+      <c r="S146" s="1"/>
+      <c r="T146" s="1"/>
+      <c r="U146" s="1"/>
+      <c r="V146" s="1"/>
+      <c r="W146" s="1"/>
+      <c r="X146" s="1"/>
+      <c r="Y146" s="1"/>
+      <c r="Z146" s="14"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="A147" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B147" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C147" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
-      <c r="F146" s="19"/>
-      <c r="G146" s="19"/>
-      <c r="H146" s="19"/>
-      <c r="I146" s="19"/>
-      <c r="J146" s="19"/>
-      <c r="K146" s="19"/>
-      <c r="L146" s="19"/>
-      <c r="M146" s="19"/>
-      <c r="N146" s="19"/>
-      <c r="O146" s="19"/>
-      <c r="P146" s="19"/>
-      <c r="Q146" s="19"/>
-      <c r="R146" s="19"/>
-      <c r="S146" s="19"/>
-      <c r="T146" s="19"/>
-      <c r="U146" s="19"/>
-      <c r="V146" s="19"/>
-      <c r="W146" s="19"/>
-      <c r="X146" s="19"/>
-      <c r="Y146" s="19"/>
-      <c r="Z146" s="20"/>
-    </row>
-    <row r="147" ht="15.75" customHeight="1">
-      <c r="A147" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
-      <c r="G147" s="1"/>
-      <c r="H147" s="1"/>
-      <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="1"/>
-      <c r="M147" s="1"/>
-      <c r="N147" s="1"/>
-      <c r="O147" s="1"/>
-      <c r="P147" s="1"/>
-      <c r="Q147" s="1"/>
-      <c r="R147" s="1"/>
-      <c r="S147" s="1"/>
-      <c r="T147" s="1"/>
-      <c r="U147" s="1"/>
-      <c r="V147" s="1"/>
-      <c r="W147" s="1"/>
-      <c r="X147" s="1"/>
-      <c r="Y147" s="1"/>
-      <c r="Z147" s="1"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="19"/>
+      <c r="I147" s="19"/>
+      <c r="J147" s="19"/>
+      <c r="K147" s="19"/>
+      <c r="L147" s="19"/>
+      <c r="M147" s="19"/>
+      <c r="N147" s="19"/>
+      <c r="O147" s="19"/>
+      <c r="P147" s="19"/>
+      <c r="Q147" s="19"/>
+      <c r="R147" s="19"/>
+      <c r="S147" s="19"/>
+      <c r="T147" s="19"/>
+      <c r="U147" s="19"/>
+      <c r="V147" s="19"/>
+      <c r="W147" s="19"/>
+      <c r="X147" s="19"/>
+      <c r="Y147" s="19"/>
+      <c r="Z147" s="20"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="A148" s="1"/>
-      <c r="B148" s="1"/>
-      <c r="C148" s="1"/>
+      <c r="A148" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -6602,73 +6614,73 @@
       <c r="Z148" s="1"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="A149" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-      <c r="E149" s="2"/>
-      <c r="F149" s="2"/>
-      <c r="G149" s="2"/>
-      <c r="H149" s="2"/>
-      <c r="I149" s="2"/>
-      <c r="J149" s="2"/>
-      <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
-      <c r="N149" s="2"/>
-      <c r="O149" s="2"/>
-      <c r="P149" s="2"/>
-      <c r="Q149" s="2"/>
-      <c r="R149" s="2"/>
-      <c r="S149" s="2"/>
-      <c r="T149" s="2"/>
-      <c r="U149" s="2"/>
-      <c r="V149" s="2"/>
-      <c r="W149" s="2"/>
-      <c r="X149" s="2"/>
-      <c r="Y149" s="2"/>
-      <c r="Z149" s="2"/>
+      <c r="A149" s="1"/>
+      <c r="B149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="E149" s="1"/>
+      <c r="F149" s="1"/>
+      <c r="G149" s="1"/>
+      <c r="H149" s="1"/>
+      <c r="I149" s="1"/>
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+      <c r="O149" s="1"/>
+      <c r="P149" s="1"/>
+      <c r="Q149" s="1"/>
+      <c r="R149" s="1"/>
+      <c r="S149" s="1"/>
+      <c r="T149" s="1"/>
+      <c r="U149" s="1"/>
+      <c r="V149" s="1"/>
+      <c r="W149" s="1"/>
+      <c r="X149" s="1"/>
+      <c r="Y149" s="1"/>
+      <c r="Z149" s="1"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="A150" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C150" s="1" t="s">
+      <c r="A150" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="F150" s="1"/>
-      <c r="G150" s="1"/>
-      <c r="H150" s="1"/>
-      <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
-      <c r="K150" s="1"/>
-      <c r="L150" s="1"/>
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
-      <c r="R150" s="1"/>
-      <c r="S150" s="1"/>
-      <c r="T150" s="1"/>
-      <c r="U150" s="1"/>
-      <c r="V150" s="1"/>
-      <c r="W150" s="1"/>
-      <c r="X150" s="1"/>
-      <c r="Y150" s="1"/>
-      <c r="Z150" s="1"/>
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2"/>
+      <c r="K150" s="2"/>
+      <c r="L150" s="2"/>
+      <c r="M150" s="2"/>
+      <c r="N150" s="2"/>
+      <c r="O150" s="2"/>
+      <c r="P150" s="2"/>
+      <c r="Q150" s="2"/>
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2"/>
+      <c r="V150" s="2"/>
+      <c r="W150" s="2"/>
+      <c r="X150" s="2"/>
+      <c r="Y150" s="2"/>
+      <c r="Z150" s="2"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="A151" s="1"/>
-      <c r="B151" s="1"/>
-      <c r="C151" s="1"/>
+      <c r="A151" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>258</v>
+      </c>
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -6694,68 +6706,62 @@
       <c r="Z151" s="1"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="A152" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-      <c r="E152" s="2"/>
-      <c r="F152" s="2"/>
-      <c r="G152" s="2"/>
-      <c r="H152" s="2"/>
-      <c r="I152" s="2"/>
-      <c r="J152" s="2"/>
-      <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
-      <c r="M152" s="2"/>
-      <c r="N152" s="2"/>
-      <c r="O152" s="2"/>
-      <c r="P152" s="2"/>
-      <c r="Q152" s="2"/>
-      <c r="R152" s="2"/>
-      <c r="S152" s="2"/>
-      <c r="T152" s="2"/>
-      <c r="U152" s="2"/>
-      <c r="V152" s="2"/>
-      <c r="W152" s="2"/>
-      <c r="X152" s="2"/>
-      <c r="Y152" s="2"/>
-      <c r="Z152" s="2"/>
+      <c r="A152" s="1"/>
+      <c r="B152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="E152" s="1"/>
+      <c r="F152" s="1"/>
+      <c r="G152" s="1"/>
+      <c r="H152" s="1"/>
+      <c r="I152" s="1"/>
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
+      <c r="U152" s="1"/>
+      <c r="V152" s="1"/>
+      <c r="W152" s="1"/>
+      <c r="X152" s="1"/>
+      <c r="Y152" s="1"/>
+      <c r="Z152" s="1"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="A153" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-      <c r="F153" s="1"/>
-      <c r="G153" s="1"/>
-      <c r="H153" s="1"/>
-      <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
-      <c r="M153" s="1"/>
-      <c r="N153" s="1"/>
-      <c r="O153" s="1"/>
-      <c r="P153" s="1"/>
-      <c r="Q153" s="1"/>
-      <c r="R153" s="1"/>
-      <c r="S153" s="1"/>
-      <c r="T153" s="1"/>
-      <c r="U153" s="1"/>
-      <c r="V153" s="1"/>
-      <c r="W153" s="1"/>
-      <c r="X153" s="1"/>
-      <c r="Y153" s="1"/>
-      <c r="Z153" s="1"/>
+      <c r="A153" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2"/>
+      <c r="K153" s="2"/>
+      <c r="L153" s="2"/>
+      <c r="M153" s="2"/>
+      <c r="N153" s="2"/>
+      <c r="O153" s="2"/>
+      <c r="P153" s="2"/>
+      <c r="Q153" s="2"/>
+      <c r="R153" s="2"/>
+      <c r="S153" s="2"/>
+      <c r="T153" s="2"/>
+      <c r="U153" s="2"/>
+      <c r="V153" s="2"/>
+      <c r="W153" s="2"/>
+      <c r="X153" s="2"/>
+      <c r="Y153" s="2"/>
+      <c r="Z153" s="2"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
@@ -6996,9 +7002,15 @@
       <c r="Z160" s="1"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="A161" s="1"/>
-      <c r="B161" s="1"/>
-      <c r="C161" s="1"/>
+      <c r="A161" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -7024,68 +7036,62 @@
       <c r="Z161" s="1"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="A162" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2"/>
-      <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
-      <c r="H162" s="2"/>
-      <c r="I162" s="2"/>
-      <c r="J162" s="2"/>
-      <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
-      <c r="N162" s="2"/>
-      <c r="O162" s="2"/>
-      <c r="P162" s="2"/>
-      <c r="Q162" s="2"/>
-      <c r="R162" s="2"/>
-      <c r="S162" s="2"/>
-      <c r="T162" s="2"/>
-      <c r="U162" s="2"/>
-      <c r="V162" s="2"/>
-      <c r="W162" s="2"/>
-      <c r="X162" s="2"/>
-      <c r="Y162" s="2"/>
-      <c r="Z162" s="2"/>
+      <c r="A162" s="1"/>
+      <c r="B162" s="1"/>
+      <c r="C162" s="1"/>
+      <c r="D162" s="1"/>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="G162" s="1"/>
+      <c r="H162" s="1"/>
+      <c r="I162" s="1"/>
+      <c r="J162" s="1"/>
+      <c r="K162" s="1"/>
+      <c r="L162" s="1"/>
+      <c r="M162" s="1"/>
+      <c r="N162" s="1"/>
+      <c r="O162" s="1"/>
+      <c r="P162" s="1"/>
+      <c r="Q162" s="1"/>
+      <c r="R162" s="1"/>
+      <c r="S162" s="1"/>
+      <c r="T162" s="1"/>
+      <c r="U162" s="1"/>
+      <c r="V162" s="1"/>
+      <c r="W162" s="1"/>
+      <c r="X162" s="1"/>
+      <c r="Y162" s="1"/>
+      <c r="Z162" s="1"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="A163" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="C163" s="1" t="s">
+      <c r="A163" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-      <c r="F163" s="1"/>
-      <c r="G163" s="1"/>
-      <c r="H163" s="1"/>
-      <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-      <c r="K163" s="1"/>
-      <c r="L163" s="1"/>
-      <c r="M163" s="1"/>
-      <c r="N163" s="1"/>
-      <c r="O163" s="1"/>
-      <c r="P163" s="1"/>
-      <c r="Q163" s="1"/>
-      <c r="R163" s="1"/>
-      <c r="S163" s="1"/>
-      <c r="T163" s="1"/>
-      <c r="U163" s="1"/>
-      <c r="V163" s="1"/>
-      <c r="W163" s="1"/>
-      <c r="X163" s="1"/>
-      <c r="Y163" s="1"/>
-      <c r="Z163" s="1"/>
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
+      <c r="H163" s="2"/>
+      <c r="I163" s="2"/>
+      <c r="J163" s="2"/>
+      <c r="K163" s="2"/>
+      <c r="L163" s="2"/>
+      <c r="M163" s="2"/>
+      <c r="N163" s="2"/>
+      <c r="O163" s="2"/>
+      <c r="P163" s="2"/>
+      <c r="Q163" s="2"/>
+      <c r="R163" s="2"/>
+      <c r="S163" s="2"/>
+      <c r="T163" s="2"/>
+      <c r="U163" s="2"/>
+      <c r="V163" s="2"/>
+      <c r="W163" s="2"/>
+      <c r="X163" s="2"/>
+      <c r="Y163" s="2"/>
+      <c r="Z163" s="2"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
@@ -7122,72 +7128,72 @@
       <c r="Z164" s="1"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="A165" s="22" t="s">
+      <c r="A165" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B165" s="22" t="s">
+      <c r="B165" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C165" s="22" t="s">
+      <c r="C165" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D165" s="21"/>
-      <c r="E165" s="21"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="21"/>
-      <c r="H165" s="21"/>
-      <c r="I165" s="21"/>
-      <c r="J165" s="21"/>
-      <c r="K165" s="21"/>
-      <c r="L165" s="21"/>
-      <c r="M165" s="21"/>
-      <c r="N165" s="21"/>
-      <c r="O165" s="21"/>
-      <c r="P165" s="21"/>
-      <c r="Q165" s="21"/>
-      <c r="R165" s="21"/>
-      <c r="S165" s="21"/>
-      <c r="T165" s="21"/>
-      <c r="U165" s="21"/>
-      <c r="V165" s="21"/>
-      <c r="W165" s="21"/>
-      <c r="X165" s="21"/>
-      <c r="Y165" s="21"/>
-      <c r="Z165" s="21"/>
+      <c r="D165" s="1"/>
+      <c r="E165" s="1"/>
+      <c r="F165" s="1"/>
+      <c r="G165" s="1"/>
+      <c r="H165" s="1"/>
+      <c r="I165" s="1"/>
+      <c r="J165" s="1"/>
+      <c r="K165" s="1"/>
+      <c r="L165" s="1"/>
+      <c r="M165" s="1"/>
+      <c r="N165" s="1"/>
+      <c r="O165" s="1"/>
+      <c r="P165" s="1"/>
+      <c r="Q165" s="1"/>
+      <c r="R165" s="1"/>
+      <c r="S165" s="1"/>
+      <c r="T165" s="1"/>
+      <c r="U165" s="1"/>
+      <c r="V165" s="1"/>
+      <c r="W165" s="1"/>
+      <c r="X165" s="1"/>
+      <c r="Y165" s="1"/>
+      <c r="Z165" s="1"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="A166" s="7" t="s">
+      <c r="A166" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="B166" s="7" t="s">
+      <c r="B166" s="22" t="s">
         <v>280</v>
       </c>
-      <c r="C166" s="7" t="s">
+      <c r="C166" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-      <c r="F166" s="1"/>
-      <c r="G166" s="1"/>
-      <c r="H166" s="1"/>
-      <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-      <c r="K166" s="1"/>
-      <c r="L166" s="1"/>
-      <c r="M166" s="1"/>
-      <c r="N166" s="1"/>
-      <c r="O166" s="1"/>
-      <c r="P166" s="1"/>
-      <c r="Q166" s="1"/>
-      <c r="R166" s="1"/>
-      <c r="S166" s="1"/>
-      <c r="T166" s="1"/>
-      <c r="U166" s="1"/>
-      <c r="V166" s="1"/>
-      <c r="W166" s="1"/>
-      <c r="X166" s="1"/>
-      <c r="Y166" s="1"/>
-      <c r="Z166" s="1"/>
+      <c r="D166" s="21"/>
+      <c r="E166" s="21"/>
+      <c r="F166" s="21"/>
+      <c r="G166" s="21"/>
+      <c r="H166" s="21"/>
+      <c r="I166" s="21"/>
+      <c r="J166" s="21"/>
+      <c r="K166" s="21"/>
+      <c r="L166" s="21"/>
+      <c r="M166" s="21"/>
+      <c r="N166" s="21"/>
+      <c r="O166" s="21"/>
+      <c r="P166" s="21"/>
+      <c r="Q166" s="21"/>
+      <c r="R166" s="21"/>
+      <c r="S166" s="21"/>
+      <c r="T166" s="21"/>
+      <c r="U166" s="21"/>
+      <c r="V166" s="21"/>
+      <c r="W166" s="21"/>
+      <c r="X166" s="21"/>
+      <c r="Y166" s="21"/>
+      <c r="Z166" s="21"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="7" t="s">
@@ -7227,7 +7233,7 @@
       <c r="A168" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="B168" s="17" t="s">
+      <c r="B168" s="7" t="s">
         <v>284</v>
       </c>
       <c r="C168" s="7" t="s">
@@ -7261,7 +7267,7 @@
       <c r="A169" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="B169" s="7" t="s">
+      <c r="B169" s="17" t="s">
         <v>286</v>
       </c>
       <c r="C169" s="7" t="s">
@@ -7329,7 +7335,7 @@
       <c r="A171" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B171" s="8" t="s">
+      <c r="B171" s="7" t="s">
         <v>290</v>
       </c>
       <c r="C171" s="7" t="s">
@@ -7360,9 +7366,15 @@
       <c r="Z171" s="1"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="A172" s="7"/>
-      <c r="B172" s="7"/>
-      <c r="C172" s="1"/>
+      <c r="A172" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -7388,73 +7400,73 @@
       <c r="Z172" s="1"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="1"/>
+      <c r="D173" s="1"/>
+      <c r="E173" s="1"/>
+      <c r="F173" s="1"/>
+      <c r="G173" s="1"/>
+      <c r="H173" s="1"/>
+      <c r="I173" s="1"/>
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="1"/>
+      <c r="T173" s="1"/>
+      <c r="U173" s="1"/>
+      <c r="V173" s="1"/>
+      <c r="W173" s="1"/>
+      <c r="X173" s="1"/>
+      <c r="Y173" s="1"/>
+      <c r="Z173" s="1"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="A174" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2"/>
-      <c r="F173" s="2"/>
-      <c r="G173" s="2"/>
-      <c r="H173" s="2"/>
-      <c r="I173" s="2"/>
-      <c r="J173" s="2"/>
-      <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
-      <c r="N173" s="2"/>
-      <c r="O173" s="2"/>
-      <c r="P173" s="2"/>
-      <c r="Q173" s="2"/>
-      <c r="R173" s="2"/>
-      <c r="S173" s="2"/>
-      <c r="T173" s="2"/>
-      <c r="U173" s="2"/>
-      <c r="V173" s="2"/>
-      <c r="W173" s="2"/>
-      <c r="X173" s="2"/>
-      <c r="Y173" s="2"/>
-      <c r="Z173" s="2"/>
-    </row>
-    <row r="174" ht="15.75" customHeight="1">
-      <c r="A174" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
-      <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
-      <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-      <c r="K174" s="1"/>
-      <c r="L174" s="1"/>
-      <c r="M174" s="1"/>
-      <c r="N174" s="1"/>
-      <c r="O174" s="1"/>
-      <c r="P174" s="1"/>
-      <c r="Q174" s="1"/>
-      <c r="R174" s="1"/>
-      <c r="S174" s="1"/>
-      <c r="T174" s="1"/>
-      <c r="U174" s="1"/>
-      <c r="V174" s="1"/>
-      <c r="W174" s="1"/>
-      <c r="X174" s="1"/>
-      <c r="Y174" s="1"/>
-      <c r="Z174" s="1"/>
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+      <c r="I174" s="2"/>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="2"/>
+      <c r="M174" s="2"/>
+      <c r="N174" s="2"/>
+      <c r="O174" s="2"/>
+      <c r="P174" s="2"/>
+      <c r="Q174" s="2"/>
+      <c r="R174" s="2"/>
+      <c r="S174" s="2"/>
+      <c r="T174" s="2"/>
+      <c r="U174" s="2"/>
+      <c r="V174" s="2"/>
+      <c r="W174" s="2"/>
+      <c r="X174" s="2"/>
+      <c r="Y174" s="2"/>
+      <c r="Z174" s="2"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="A175" s="1"/>
-      <c r="B175" s="1"/>
-      <c r="C175" s="1"/>
+      <c r="A175" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C175" s="1" t="s">
+        <v>295</v>
+      </c>
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -7480,170 +7492,164 @@
       <c r="Z175" s="1"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="A176" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-      <c r="D176" s="2"/>
-      <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2"/>
-      <c r="H176" s="2"/>
-      <c r="I176" s="2"/>
-      <c r="J176" s="2"/>
-      <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
-      <c r="N176" s="2"/>
-      <c r="O176" s="2"/>
-      <c r="P176" s="2"/>
-      <c r="Q176" s="2"/>
-      <c r="R176" s="2"/>
-      <c r="S176" s="2"/>
-      <c r="T176" s="2"/>
-      <c r="U176" s="2"/>
-      <c r="V176" s="2"/>
-      <c r="W176" s="2"/>
-      <c r="X176" s="2"/>
-      <c r="Y176" s="2"/>
-      <c r="Z176" s="2"/>
+      <c r="A176" s="1"/>
+      <c r="B176" s="1"/>
+      <c r="C176" s="1"/>
+      <c r="D176" s="1"/>
+      <c r="E176" s="1"/>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1"/>
+      <c r="I176" s="1"/>
+      <c r="J176" s="1"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="1"/>
+      <c r="N176" s="1"/>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="1"/>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="1"/>
+      <c r="W176" s="1"/>
+      <c r="X176" s="1"/>
+      <c r="Y176" s="1"/>
+      <c r="Z176" s="1"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="A177" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B177" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="C177" s="11" t="s">
+      <c r="A177" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="D177" s="11"/>
-      <c r="E177" s="11"/>
-      <c r="F177" s="11"/>
-      <c r="G177" s="11"/>
-      <c r="H177" s="11"/>
-      <c r="I177" s="11"/>
-      <c r="J177" s="11"/>
-      <c r="K177" s="11"/>
-      <c r="L177" s="11"/>
-      <c r="M177" s="11"/>
-      <c r="N177" s="11"/>
-      <c r="O177" s="11"/>
-      <c r="P177" s="11"/>
-      <c r="Q177" s="11"/>
-      <c r="R177" s="11"/>
-      <c r="S177" s="11"/>
-      <c r="T177" s="11"/>
-      <c r="U177" s="11"/>
-      <c r="V177" s="11"/>
-      <c r="W177" s="11"/>
-      <c r="X177" s="11"/>
-      <c r="Y177" s="11"/>
-      <c r="Z177" s="12"/>
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+      <c r="K177" s="2"/>
+      <c r="L177" s="2"/>
+      <c r="M177" s="2"/>
+      <c r="N177" s="2"/>
+      <c r="O177" s="2"/>
+      <c r="P177" s="2"/>
+      <c r="Q177" s="2"/>
+      <c r="R177" s="2"/>
+      <c r="S177" s="2"/>
+      <c r="T177" s="2"/>
+      <c r="U177" s="2"/>
+      <c r="V177" s="2"/>
+      <c r="W177" s="2"/>
+      <c r="X177" s="2"/>
+      <c r="Y177" s="2"/>
+      <c r="Z177" s="2"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="A178" s="18" t="s">
+      <c r="A178" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="B178" s="19" t="s">
+      <c r="B178" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C178" s="19" t="s">
+      <c r="C178" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
-      <c r="F178" s="19"/>
-      <c r="G178" s="19"/>
-      <c r="H178" s="19"/>
-      <c r="I178" s="19"/>
-      <c r="J178" s="19"/>
-      <c r="K178" s="19"/>
-      <c r="L178" s="19"/>
-      <c r="M178" s="19"/>
-      <c r="N178" s="19"/>
-      <c r="O178" s="19"/>
-      <c r="P178" s="19"/>
-      <c r="Q178" s="19"/>
-      <c r="R178" s="19"/>
-      <c r="S178" s="19"/>
-      <c r="T178" s="19"/>
-      <c r="U178" s="19"/>
-      <c r="V178" s="19"/>
-      <c r="W178" s="19"/>
-      <c r="X178" s="19"/>
-      <c r="Y178" s="19"/>
-      <c r="Z178" s="20"/>
+      <c r="D178" s="11"/>
+      <c r="E178" s="11"/>
+      <c r="F178" s="11"/>
+      <c r="G178" s="11"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="11"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="11"/>
+      <c r="L178" s="11"/>
+      <c r="M178" s="11"/>
+      <c r="N178" s="11"/>
+      <c r="O178" s="11"/>
+      <c r="P178" s="11"/>
+      <c r="Q178" s="11"/>
+      <c r="R178" s="11"/>
+      <c r="S178" s="11"/>
+      <c r="T178" s="11"/>
+      <c r="U178" s="11"/>
+      <c r="V178" s="11"/>
+      <c r="W178" s="11"/>
+      <c r="X178" s="11"/>
+      <c r="Y178" s="11"/>
+      <c r="Z178" s="12"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="A179" s="9" t="s">
+      <c r="A179" s="18" t="s">
         <v>299</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C179" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="D179" s="11"/>
-      <c r="E179" s="11"/>
-      <c r="F179" s="11"/>
-      <c r="G179" s="11"/>
-      <c r="H179" s="11"/>
-      <c r="I179" s="11"/>
-      <c r="J179" s="11"/>
-      <c r="K179" s="11"/>
-      <c r="L179" s="11"/>
-      <c r="M179" s="11"/>
-      <c r="N179" s="11"/>
-      <c r="O179" s="11"/>
-      <c r="P179" s="11"/>
-      <c r="Q179" s="11"/>
-      <c r="R179" s="11"/>
-      <c r="S179" s="11"/>
-      <c r="T179" s="11"/>
-      <c r="U179" s="11"/>
-      <c r="V179" s="11"/>
-      <c r="W179" s="11"/>
-      <c r="X179" s="11"/>
-      <c r="Y179" s="11"/>
-      <c r="Z179" s="12"/>
+      <c r="D179" s="19"/>
+      <c r="E179" s="19"/>
+      <c r="F179" s="19"/>
+      <c r="G179" s="19"/>
+      <c r="H179" s="19"/>
+      <c r="I179" s="19"/>
+      <c r="J179" s="19"/>
+      <c r="K179" s="19"/>
+      <c r="L179" s="19"/>
+      <c r="M179" s="19"/>
+      <c r="N179" s="19"/>
+      <c r="O179" s="19"/>
+      <c r="P179" s="19"/>
+      <c r="Q179" s="19"/>
+      <c r="R179" s="19"/>
+      <c r="S179" s="19"/>
+      <c r="T179" s="19"/>
+      <c r="U179" s="19"/>
+      <c r="V179" s="19"/>
+      <c r="W179" s="19"/>
+      <c r="X179" s="19"/>
+      <c r="Y179" s="19"/>
+      <c r="Z179" s="20"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="A180" s="34" t="s">
+      <c r="A180" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="B180" s="22" t="s">
+      <c r="B180" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="C180" s="22" t="s">
+      <c r="C180" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="D180" s="22"/>
-      <c r="E180" s="22"/>
-      <c r="F180" s="22"/>
-      <c r="G180" s="22"/>
-      <c r="H180" s="22"/>
-      <c r="I180" s="22"/>
-      <c r="J180" s="22"/>
-      <c r="K180" s="22"/>
-      <c r="L180" s="22"/>
-      <c r="M180" s="22"/>
-      <c r="N180" s="22"/>
-      <c r="O180" s="22"/>
-      <c r="P180" s="22"/>
-      <c r="Q180" s="22"/>
-      <c r="R180" s="22"/>
-      <c r="S180" s="22"/>
-      <c r="T180" s="22"/>
-      <c r="U180" s="22"/>
-      <c r="V180" s="22"/>
-      <c r="W180" s="22"/>
-      <c r="X180" s="22"/>
-      <c r="Y180" s="22"/>
-      <c r="Z180" s="23"/>
+      <c r="D180" s="11"/>
+      <c r="E180" s="11"/>
+      <c r="F180" s="11"/>
+      <c r="G180" s="11"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="11"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="11"/>
+      <c r="L180" s="11"/>
+      <c r="M180" s="11"/>
+      <c r="N180" s="11"/>
+      <c r="O180" s="11"/>
+      <c r="P180" s="11"/>
+      <c r="Q180" s="11"/>
+      <c r="R180" s="11"/>
+      <c r="S180" s="11"/>
+      <c r="T180" s="11"/>
+      <c r="U180" s="11"/>
+      <c r="V180" s="11"/>
+      <c r="W180" s="11"/>
+      <c r="X180" s="11"/>
+      <c r="Y180" s="11"/>
+      <c r="Z180" s="12"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="34" t="s">
@@ -7748,116 +7754,116 @@
       <c r="Z183" s="23"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="A184" s="35" t="s">
+      <c r="A184" s="34" t="s">
         <v>309</v>
       </c>
-      <c r="B184" s="36" t="s">
+      <c r="B184" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="C184" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="C184" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="D184" s="36"/>
-      <c r="E184" s="36"/>
-      <c r="F184" s="36"/>
-      <c r="G184" s="36"/>
-      <c r="H184" s="36"/>
-      <c r="I184" s="36"/>
-      <c r="J184" s="36"/>
-      <c r="K184" s="36"/>
-      <c r="L184" s="36"/>
-      <c r="M184" s="36"/>
-      <c r="N184" s="36"/>
-      <c r="O184" s="36"/>
-      <c r="P184" s="36"/>
-      <c r="Q184" s="36"/>
-      <c r="R184" s="36"/>
-      <c r="S184" s="36"/>
-      <c r="T184" s="36"/>
-      <c r="U184" s="36"/>
-      <c r="V184" s="36"/>
-      <c r="W184" s="36"/>
-      <c r="X184" s="36"/>
-      <c r="Y184" s="36"/>
-      <c r="Z184" s="37"/>
+      <c r="D184" s="22"/>
+      <c r="E184" s="22"/>
+      <c r="F184" s="22"/>
+      <c r="G184" s="22"/>
+      <c r="H184" s="22"/>
+      <c r="I184" s="22"/>
+      <c r="J184" s="22"/>
+      <c r="K184" s="22"/>
+      <c r="L184" s="22"/>
+      <c r="M184" s="22"/>
+      <c r="N184" s="22"/>
+      <c r="O184" s="22"/>
+      <c r="P184" s="22"/>
+      <c r="Q184" s="22"/>
+      <c r="R184" s="22"/>
+      <c r="S184" s="22"/>
+      <c r="T184" s="22"/>
+      <c r="U184" s="22"/>
+      <c r="V184" s="22"/>
+      <c r="W184" s="22"/>
+      <c r="X184" s="22"/>
+      <c r="Y184" s="22"/>
+      <c r="Z184" s="23"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="A185" s="9" t="s">
+      <c r="A185" s="35" t="s">
         <v>311</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="36" t="s">
         <v>312</v>
       </c>
-      <c r="C185" s="11" t="s">
+      <c r="C185" s="36" t="s">
+        <v>312</v>
+      </c>
+      <c r="D185" s="36"/>
+      <c r="E185" s="36"/>
+      <c r="F185" s="36"/>
+      <c r="G185" s="36"/>
+      <c r="H185" s="36"/>
+      <c r="I185" s="36"/>
+      <c r="J185" s="36"/>
+      <c r="K185" s="36"/>
+      <c r="L185" s="36"/>
+      <c r="M185" s="36"/>
+      <c r="N185" s="36"/>
+      <c r="O185" s="36"/>
+      <c r="P185" s="36"/>
+      <c r="Q185" s="36"/>
+      <c r="R185" s="36"/>
+      <c r="S185" s="36"/>
+      <c r="T185" s="36"/>
+      <c r="U185" s="36"/>
+      <c r="V185" s="36"/>
+      <c r="W185" s="36"/>
+      <c r="X185" s="36"/>
+      <c r="Y185" s="36"/>
+      <c r="Z185" s="37"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="A186" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="D185" s="11"/>
-      <c r="E185" s="11"/>
-      <c r="F185" s="11"/>
-      <c r="G185" s="11"/>
-      <c r="H185" s="11"/>
-      <c r="I185" s="11"/>
-      <c r="J185" s="11"/>
-      <c r="K185" s="11"/>
-      <c r="L185" s="11"/>
-      <c r="M185" s="11"/>
-      <c r="N185" s="11"/>
-      <c r="O185" s="11"/>
-      <c r="P185" s="11"/>
-      <c r="Q185" s="11"/>
-      <c r="R185" s="11"/>
-      <c r="S185" s="11"/>
-      <c r="T185" s="11"/>
-      <c r="U185" s="11"/>
-      <c r="V185" s="11"/>
-      <c r="W185" s="11"/>
-      <c r="X185" s="11"/>
-      <c r="Y185" s="11"/>
-      <c r="Z185" s="12"/>
-    </row>
-    <row r="186" ht="15.75" customHeight="1">
-      <c r="A186" s="15" t="s">
+      <c r="B186" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="B186" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-      <c r="F186" s="1"/>
-      <c r="G186" s="1"/>
-      <c r="H186" s="1"/>
-      <c r="I186" s="1"/>
-      <c r="J186" s="1"/>
-      <c r="K186" s="1"/>
-      <c r="L186" s="1"/>
-      <c r="M186" s="1"/>
-      <c r="N186" s="1"/>
-      <c r="O186" s="1"/>
-      <c r="P186" s="1"/>
-      <c r="Q186" s="1"/>
-      <c r="R186" s="1"/>
-      <c r="S186" s="1"/>
-      <c r="T186" s="1"/>
-      <c r="U186" s="1"/>
-      <c r="V186" s="1"/>
-      <c r="W186" s="1"/>
-      <c r="X186" s="1"/>
-      <c r="Y186" s="1"/>
-      <c r="Z186" s="14"/>
+      <c r="D186" s="11"/>
+      <c r="E186" s="11"/>
+      <c r="F186" s="11"/>
+      <c r="G186" s="11"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="11"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="11"/>
+      <c r="L186" s="11"/>
+      <c r="M186" s="11"/>
+      <c r="N186" s="11"/>
+      <c r="O186" s="11"/>
+      <c r="P186" s="11"/>
+      <c r="Q186" s="11"/>
+      <c r="R186" s="11"/>
+      <c r="S186" s="11"/>
+      <c r="T186" s="11"/>
+      <c r="U186" s="11"/>
+      <c r="V186" s="11"/>
+      <c r="W186" s="11"/>
+      <c r="X186" s="11"/>
+      <c r="Y186" s="11"/>
+      <c r="Z186" s="12"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="15" t="s">
         <v>316</v>
       </c>
       <c r="B187" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C187" s="1" t="s">
         <v>317</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>318</v>
       </c>
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
@@ -7884,72 +7890,72 @@
       <c r="Z187" s="14"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="A188" s="9" t="s">
+      <c r="A188" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B188" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B188" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C188" s="11" t="s">
+      <c r="C188" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D188" s="11"/>
-      <c r="E188" s="11"/>
-      <c r="F188" s="11"/>
-      <c r="G188" s="11"/>
-      <c r="H188" s="11"/>
-      <c r="I188" s="11"/>
-      <c r="J188" s="11"/>
-      <c r="K188" s="11"/>
-      <c r="L188" s="11"/>
-      <c r="M188" s="11"/>
-      <c r="N188" s="11"/>
-      <c r="O188" s="11"/>
-      <c r="P188" s="11"/>
-      <c r="Q188" s="11"/>
-      <c r="R188" s="11"/>
-      <c r="S188" s="11"/>
-      <c r="T188" s="11"/>
-      <c r="U188" s="11"/>
-      <c r="V188" s="11"/>
-      <c r="W188" s="11"/>
-      <c r="X188" s="11"/>
-      <c r="Y188" s="11"/>
-      <c r="Z188" s="12"/>
+      <c r="D188" s="1"/>
+      <c r="E188" s="1"/>
+      <c r="F188" s="1"/>
+      <c r="G188" s="1"/>
+      <c r="H188" s="1"/>
+      <c r="I188" s="1"/>
+      <c r="J188" s="1"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="1"/>
+      <c r="O188" s="1"/>
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
+      <c r="U188" s="1"/>
+      <c r="V188" s="1"/>
+      <c r="W188" s="1"/>
+      <c r="X188" s="1"/>
+      <c r="Y188" s="1"/>
+      <c r="Z188" s="14"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="A189" s="15" t="s">
+      <c r="A189" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-      <c r="F189" s="1"/>
-      <c r="G189" s="1"/>
-      <c r="H189" s="1"/>
-      <c r="I189" s="1"/>
-      <c r="J189" s="1"/>
-      <c r="K189" s="1"/>
-      <c r="L189" s="1"/>
-      <c r="M189" s="1"/>
-      <c r="N189" s="1"/>
-      <c r="O189" s="1"/>
-      <c r="P189" s="1"/>
-      <c r="Q189" s="1"/>
-      <c r="R189" s="1"/>
-      <c r="S189" s="1"/>
-      <c r="T189" s="1"/>
-      <c r="U189" s="1"/>
-      <c r="V189" s="1"/>
-      <c r="W189" s="1"/>
-      <c r="X189" s="1"/>
-      <c r="Y189" s="1"/>
-      <c r="Z189" s="14"/>
+      <c r="D189" s="11"/>
+      <c r="E189" s="11"/>
+      <c r="F189" s="11"/>
+      <c r="G189" s="11"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="11"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="11"/>
+      <c r="L189" s="11"/>
+      <c r="M189" s="11"/>
+      <c r="N189" s="11"/>
+      <c r="O189" s="11"/>
+      <c r="P189" s="11"/>
+      <c r="Q189" s="11"/>
+      <c r="R189" s="11"/>
+      <c r="S189" s="11"/>
+      <c r="T189" s="11"/>
+      <c r="U189" s="11"/>
+      <c r="V189" s="11"/>
+      <c r="W189" s="11"/>
+      <c r="X189" s="11"/>
+      <c r="Y189" s="11"/>
+      <c r="Z189" s="12"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="15" t="s">
@@ -7986,130 +7992,130 @@
       <c r="Z190" s="14"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="A191" s="18" t="s">
+      <c r="A191" s="15" t="s">
         <v>325</v>
       </c>
-      <c r="B191" s="19" t="s">
+      <c r="B191" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C191" s="19" t="s">
+      <c r="C191" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
-      <c r="F191" s="19"/>
-      <c r="G191" s="19"/>
-      <c r="H191" s="19"/>
-      <c r="I191" s="19"/>
-      <c r="J191" s="19"/>
-      <c r="K191" s="19"/>
-      <c r="L191" s="19"/>
-      <c r="M191" s="19"/>
-      <c r="N191" s="19"/>
-      <c r="O191" s="19"/>
-      <c r="P191" s="19"/>
-      <c r="Q191" s="19"/>
-      <c r="R191" s="19"/>
-      <c r="S191" s="19"/>
-      <c r="T191" s="19"/>
-      <c r="U191" s="19"/>
-      <c r="V191" s="19"/>
-      <c r="W191" s="19"/>
-      <c r="X191" s="19"/>
-      <c r="Y191" s="19"/>
-      <c r="Z191" s="20"/>
+      <c r="D191" s="1"/>
+      <c r="E191" s="1"/>
+      <c r="F191" s="1"/>
+      <c r="G191" s="1"/>
+      <c r="H191" s="1"/>
+      <c r="I191" s="1"/>
+      <c r="J191" s="1"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="1"/>
+      <c r="M191" s="1"/>
+      <c r="N191" s="1"/>
+      <c r="O191" s="1"/>
+      <c r="P191" s="1"/>
+      <c r="Q191" s="1"/>
+      <c r="R191" s="1"/>
+      <c r="S191" s="1"/>
+      <c r="T191" s="1"/>
+      <c r="U191" s="1"/>
+      <c r="V191" s="1"/>
+      <c r="W191" s="1"/>
+      <c r="X191" s="1"/>
+      <c r="Y191" s="1"/>
+      <c r="Z191" s="14"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="A192" s="1"/>
-      <c r="B192" s="1"/>
-      <c r="C192" s="1"/>
-      <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-      <c r="F192" s="1"/>
-      <c r="G192" s="1"/>
-      <c r="H192" s="1"/>
-      <c r="I192" s="1"/>
-      <c r="J192" s="1"/>
-      <c r="K192" s="1"/>
-      <c r="L192" s="1"/>
-      <c r="M192" s="1"/>
-      <c r="N192" s="1"/>
-      <c r="O192" s="1"/>
-      <c r="P192" s="1"/>
-      <c r="Q192" s="1"/>
-      <c r="R192" s="1"/>
-      <c r="S192" s="1"/>
-      <c r="T192" s="1"/>
-      <c r="U192" s="1"/>
-      <c r="V192" s="1"/>
-      <c r="W192" s="1"/>
-      <c r="X192" s="1"/>
-      <c r="Y192" s="1"/>
-      <c r="Z192" s="1"/>
+      <c r="A192" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="B192" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="C192" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="D192" s="19"/>
+      <c r="E192" s="19"/>
+      <c r="F192" s="19"/>
+      <c r="G192" s="19"/>
+      <c r="H192" s="19"/>
+      <c r="I192" s="19"/>
+      <c r="J192" s="19"/>
+      <c r="K192" s="19"/>
+      <c r="L192" s="19"/>
+      <c r="M192" s="19"/>
+      <c r="N192" s="19"/>
+      <c r="O192" s="19"/>
+      <c r="P192" s="19"/>
+      <c r="Q192" s="19"/>
+      <c r="R192" s="19"/>
+      <c r="S192" s="19"/>
+      <c r="T192" s="19"/>
+      <c r="U192" s="19"/>
+      <c r="V192" s="19"/>
+      <c r="W192" s="19"/>
+      <c r="X192" s="19"/>
+      <c r="Y192" s="19"/>
+      <c r="Z192" s="20"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="A193" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-      <c r="D193" s="2"/>
-      <c r="E193" s="2"/>
-      <c r="F193" s="2"/>
-      <c r="G193" s="2"/>
-      <c r="H193" s="2"/>
-      <c r="I193" s="2"/>
-      <c r="J193" s="2"/>
-      <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
-      <c r="M193" s="2"/>
-      <c r="N193" s="2"/>
-      <c r="O193" s="2"/>
-      <c r="P193" s="2"/>
-      <c r="Q193" s="2"/>
-      <c r="R193" s="2"/>
-      <c r="S193" s="2"/>
-      <c r="T193" s="2"/>
-      <c r="U193" s="2"/>
-      <c r="V193" s="2"/>
-      <c r="W193" s="2"/>
-      <c r="X193" s="2"/>
-      <c r="Y193" s="2"/>
-      <c r="Z193" s="2"/>
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+      <c r="C193" s="1"/>
+      <c r="D193" s="1"/>
+      <c r="E193" s="1"/>
+      <c r="F193" s="1"/>
+      <c r="G193" s="1"/>
+      <c r="H193" s="1"/>
+      <c r="I193" s="1"/>
+      <c r="J193" s="1"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="1"/>
+      <c r="O193" s="1"/>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
+      <c r="U193" s="1"/>
+      <c r="V193" s="1"/>
+      <c r="W193" s="1"/>
+      <c r="X193" s="1"/>
+      <c r="Y193" s="1"/>
+      <c r="Z193" s="1"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="A194" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C194" s="1" t="s">
+      <c r="A194" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-      <c r="F194" s="1"/>
-      <c r="G194" s="1"/>
-      <c r="H194" s="1"/>
-      <c r="I194" s="1"/>
-      <c r="J194" s="1"/>
-      <c r="K194" s="1"/>
-      <c r="L194" s="1"/>
-      <c r="M194" s="1"/>
-      <c r="N194" s="1"/>
-      <c r="O194" s="1"/>
-      <c r="P194" s="1"/>
-      <c r="Q194" s="1"/>
-      <c r="R194" s="1"/>
-      <c r="S194" s="1"/>
-      <c r="T194" s="1"/>
-      <c r="U194" s="1"/>
-      <c r="V194" s="1"/>
-      <c r="W194" s="1"/>
-      <c r="X194" s="1"/>
-      <c r="Y194" s="1"/>
-      <c r="Z194" s="1"/>
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2"/>
+      <c r="K194" s="2"/>
+      <c r="L194" s="2"/>
+      <c r="M194" s="2"/>
+      <c r="N194" s="2"/>
+      <c r="O194" s="2"/>
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+      <c r="R194" s="2"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+      <c r="U194" s="2"/>
+      <c r="V194" s="2"/>
+      <c r="W194" s="2"/>
+      <c r="X194" s="2"/>
+      <c r="Y194" s="2"/>
+      <c r="Z194" s="2"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
@@ -8214,9 +8220,15 @@
       <c r="Z197" s="1"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="A198" s="1"/>
-      <c r="B198" s="1"/>
-      <c r="C198" s="1"/>
+      <c r="A198" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C198" s="1" t="s">
+        <v>337</v>
+      </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -8242,73 +8254,73 @@
       <c r="Z198" s="1"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="A199" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-      <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2"/>
-      <c r="G199" s="2"/>
-      <c r="H199" s="2"/>
-      <c r="I199" s="2"/>
-      <c r="J199" s="2"/>
-      <c r="K199" s="2"/>
-      <c r="L199" s="2"/>
-      <c r="M199" s="2"/>
-      <c r="N199" s="2"/>
-      <c r="O199" s="2"/>
-      <c r="P199" s="2"/>
-      <c r="Q199" s="2"/>
-      <c r="R199" s="2"/>
-      <c r="S199" s="2"/>
-      <c r="T199" s="2"/>
-      <c r="U199" s="2"/>
-      <c r="V199" s="2"/>
-      <c r="W199" s="2"/>
-      <c r="X199" s="2"/>
-      <c r="Y199" s="2"/>
-      <c r="Z199" s="2"/>
+      <c r="A199" s="1"/>
+      <c r="B199" s="1"/>
+      <c r="C199" s="1"/>
+      <c r="D199" s="1"/>
+      <c r="E199" s="1"/>
+      <c r="F199" s="1"/>
+      <c r="G199" s="1"/>
+      <c r="H199" s="1"/>
+      <c r="I199" s="1"/>
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+      <c r="O199" s="1"/>
+      <c r="P199" s="1"/>
+      <c r="Q199" s="1"/>
+      <c r="R199" s="1"/>
+      <c r="S199" s="1"/>
+      <c r="T199" s="1"/>
+      <c r="U199" s="1"/>
+      <c r="V199" s="1"/>
+      <c r="W199" s="1"/>
+      <c r="X199" s="1"/>
+      <c r="Y199" s="1"/>
+      <c r="Z199" s="1"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="A200" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C200" s="1" t="s">
+      <c r="A200" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-      <c r="F200" s="1"/>
-      <c r="G200" s="1"/>
-      <c r="H200" s="1"/>
-      <c r="I200" s="1"/>
-      <c r="J200" s="1"/>
-      <c r="K200" s="1"/>
-      <c r="L200" s="1"/>
-      <c r="M200" s="1"/>
-      <c r="N200" s="1"/>
-      <c r="O200" s="1"/>
-      <c r="P200" s="1"/>
-      <c r="Q200" s="1"/>
-      <c r="R200" s="1"/>
-      <c r="S200" s="1"/>
-      <c r="T200" s="1"/>
-      <c r="U200" s="1"/>
-      <c r="V200" s="1"/>
-      <c r="W200" s="1"/>
-      <c r="X200" s="1"/>
-      <c r="Y200" s="1"/>
-      <c r="Z200" s="1"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
+      <c r="H200" s="2"/>
+      <c r="I200" s="2"/>
+      <c r="J200" s="2"/>
+      <c r="K200" s="2"/>
+      <c r="L200" s="2"/>
+      <c r="M200" s="2"/>
+      <c r="N200" s="2"/>
+      <c r="O200" s="2"/>
+      <c r="P200" s="2"/>
+      <c r="Q200" s="2"/>
+      <c r="R200" s="2"/>
+      <c r="S200" s="2"/>
+      <c r="T200" s="2"/>
+      <c r="U200" s="2"/>
+      <c r="V200" s="2"/>
+      <c r="W200" s="2"/>
+      <c r="X200" s="2"/>
+      <c r="Y200" s="2"/>
+      <c r="Z200" s="2"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="A201" s="1"/>
-      <c r="B201" s="1"/>
-      <c r="C201" s="1"/>
+      <c r="A201" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C201" s="1" t="s">
+        <v>340</v>
+      </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -8334,78 +8346,72 @@
       <c r="Z201" s="1"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="A202" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-      <c r="D202" s="2"/>
-      <c r="E202" s="2"/>
-      <c r="F202" s="2"/>
-      <c r="G202" s="2"/>
-      <c r="H202" s="2"/>
-      <c r="I202" s="2"/>
-      <c r="J202" s="2"/>
-      <c r="K202" s="2"/>
-      <c r="L202" s="2"/>
-      <c r="M202" s="2"/>
-      <c r="N202" s="2"/>
-      <c r="O202" s="2"/>
-      <c r="P202" s="2"/>
-      <c r="Q202" s="2"/>
-      <c r="R202" s="2"/>
-      <c r="S202" s="2"/>
-      <c r="T202" s="2"/>
-      <c r="U202" s="2"/>
-      <c r="V202" s="2"/>
-      <c r="W202" s="2"/>
-      <c r="X202" s="2"/>
-      <c r="Y202" s="2"/>
-      <c r="Z202" s="2"/>
+      <c r="A202" s="1"/>
+      <c r="B202" s="1"/>
+      <c r="C202" s="1"/>
+      <c r="D202" s="1"/>
+      <c r="E202" s="1"/>
+      <c r="F202" s="1"/>
+      <c r="G202" s="1"/>
+      <c r="H202" s="1"/>
+      <c r="I202" s="1"/>
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+      <c r="O202" s="1"/>
+      <c r="P202" s="1"/>
+      <c r="Q202" s="1"/>
+      <c r="R202" s="1"/>
+      <c r="S202" s="1"/>
+      <c r="T202" s="1"/>
+      <c r="U202" s="1"/>
+      <c r="V202" s="1"/>
+      <c r="W202" s="1"/>
+      <c r="X202" s="1"/>
+      <c r="Y202" s="1"/>
+      <c r="Z202" s="1"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="A203" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B203" s="1" t="s">
+      <c r="A203" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D203" s="1"/>
-      <c r="E203" s="1"/>
-      <c r="F203" s="1"/>
-      <c r="G203" s="1"/>
-      <c r="H203" s="1"/>
-      <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
-      <c r="K203" s="1"/>
-      <c r="L203" s="1"/>
-      <c r="M203" s="1"/>
-      <c r="N203" s="1"/>
-      <c r="O203" s="1"/>
-      <c r="P203" s="1"/>
-      <c r="Q203" s="1"/>
-      <c r="R203" s="1"/>
-      <c r="S203" s="1"/>
-      <c r="T203" s="1"/>
-      <c r="U203" s="1"/>
-      <c r="V203" s="1"/>
-      <c r="W203" s="1"/>
-      <c r="X203" s="1"/>
-      <c r="Y203" s="1"/>
-      <c r="Z203" s="1"/>
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="2"/>
+      <c r="I203" s="2"/>
+      <c r="J203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="2"/>
+      <c r="M203" s="2"/>
+      <c r="N203" s="2"/>
+      <c r="O203" s="2"/>
+      <c r="P203" s="2"/>
+      <c r="Q203" s="2"/>
+      <c r="R203" s="2"/>
+      <c r="S203" s="2"/>
+      <c r="T203" s="2"/>
+      <c r="U203" s="2"/>
+      <c r="V203" s="2"/>
+      <c r="W203" s="2"/>
+      <c r="X203" s="2"/>
+      <c r="Y203" s="2"/>
+      <c r="Z203" s="2"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B204" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B204" s="1" t="s">
+      <c r="C204" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>345</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
@@ -8433,13 +8439,13 @@
     </row>
     <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B205" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B205" s="1" t="s">
+      <c r="C205" s="1" t="s">
         <v>347</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>348</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
@@ -8467,13 +8473,13 @@
     </row>
     <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B206" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B206" s="1" t="s">
+      <c r="C206" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
@@ -8501,7 +8507,7 @@
     </row>
     <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>352</v>
@@ -8572,10 +8578,10 @@
         <v>356</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>357</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>358</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
@@ -8603,13 +8609,13 @@
     </row>
     <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B210" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B210" s="1" t="s">
+      <c r="C210" s="1" t="s">
         <v>360</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>361</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
@@ -8637,13 +8643,13 @@
     </row>
     <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B211" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="C211" s="1" t="s">
         <v>363</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>364</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
@@ -8671,13 +8677,13 @@
     </row>
     <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B212" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="B212" s="1" t="s">
+      <c r="C212" s="1" t="s">
         <v>366</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>367</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
@@ -8704,9 +8710,15 @@
       <c r="Z212" s="1"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="A213" s="1"/>
-      <c r="B213" s="1"/>
-      <c r="C213" s="1"/>
+      <c r="A213" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C213" s="1" t="s">
+        <v>369</v>
+      </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
@@ -8732,78 +8744,72 @@
       <c r="Z213" s="1"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="A214" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-      <c r="D214" s="2"/>
-      <c r="E214" s="2"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="2"/>
-      <c r="H214" s="2"/>
-      <c r="I214" s="2"/>
-      <c r="J214" s="2"/>
-      <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
-      <c r="N214" s="2"/>
-      <c r="O214" s="2"/>
-      <c r="P214" s="2"/>
-      <c r="Q214" s="2"/>
-      <c r="R214" s="2"/>
-      <c r="S214" s="2"/>
-      <c r="T214" s="2"/>
-      <c r="U214" s="2"/>
-      <c r="V214" s="2"/>
-      <c r="W214" s="2"/>
-      <c r="X214" s="2"/>
-      <c r="Y214" s="2"/>
-      <c r="Z214" s="2"/>
+      <c r="A214" s="1"/>
+      <c r="B214" s="1"/>
+      <c r="C214" s="1"/>
+      <c r="D214" s="1"/>
+      <c r="E214" s="1"/>
+      <c r="F214" s="1"/>
+      <c r="G214" s="1"/>
+      <c r="H214" s="1"/>
+      <c r="I214" s="1"/>
+      <c r="J214" s="1"/>
+      <c r="K214" s="1"/>
+      <c r="L214" s="1"/>
+      <c r="M214" s="1"/>
+      <c r="N214" s="1"/>
+      <c r="O214" s="1"/>
+      <c r="P214" s="1"/>
+      <c r="Q214" s="1"/>
+      <c r="R214" s="1"/>
+      <c r="S214" s="1"/>
+      <c r="T214" s="1"/>
+      <c r="U214" s="1"/>
+      <c r="V214" s="1"/>
+      <c r="W214" s="1"/>
+      <c r="X214" s="1"/>
+      <c r="Y214" s="1"/>
+      <c r="Z214" s="1"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="A215" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D215" s="1"/>
-      <c r="E215" s="1"/>
-      <c r="F215" s="1"/>
-      <c r="G215" s="1"/>
-      <c r="H215" s="1"/>
-      <c r="I215" s="1"/>
-      <c r="J215" s="1"/>
-      <c r="K215" s="1"/>
-      <c r="L215" s="1"/>
-      <c r="M215" s="1"/>
-      <c r="N215" s="1"/>
-      <c r="O215" s="1"/>
-      <c r="P215" s="1"/>
-      <c r="Q215" s="1"/>
-      <c r="R215" s="1"/>
-      <c r="S215" s="1"/>
-      <c r="T215" s="1"/>
-      <c r="U215" s="1"/>
-      <c r="V215" s="1"/>
-      <c r="W215" s="1"/>
-      <c r="X215" s="1"/>
-      <c r="Y215" s="1"/>
-      <c r="Z215" s="1"/>
+      <c r="A215" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2"/>
+      <c r="K215" s="2"/>
+      <c r="L215" s="2"/>
+      <c r="M215" s="2"/>
+      <c r="N215" s="2"/>
+      <c r="O215" s="2"/>
+      <c r="P215" s="2"/>
+      <c r="Q215" s="2"/>
+      <c r="R215" s="2"/>
+      <c r="S215" s="2"/>
+      <c r="T215" s="2"/>
+      <c r="U215" s="2"/>
+      <c r="V215" s="2"/>
+      <c r="W215" s="2"/>
+      <c r="X215" s="2"/>
+      <c r="Y215" s="2"/>
+      <c r="Z215" s="2"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="C216" s="38" t="s">
-        <v>66</v>
+      <c r="C216" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
@@ -8834,9 +8840,9 @@
         <v>371</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C217" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C217" s="38" t="s">
         <v>66</v>
       </c>
       <c r="D217" s="1"/>
@@ -8865,13 +8871,13 @@
     </row>
     <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>373</v>
+        <v>66</v>
       </c>
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
@@ -8938,7 +8944,7 @@
       <c r="B220" s="1" t="s">
         <v>376</v>
       </c>
-      <c r="C220" s="38" t="s">
+      <c r="C220" s="1" t="s">
         <v>377</v>
       </c>
       <c r="D220" s="1"/>
@@ -8973,7 +8979,7 @@
         <v>378</v>
       </c>
       <c r="C221" s="38" t="s">
-        <v>20</v>
+        <v>379</v>
       </c>
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
@@ -9001,13 +9007,13 @@
     </row>
     <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>16</v>
+        <v>380</v>
+      </c>
+      <c r="C222" s="38" t="s">
+        <v>20</v>
       </c>
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
@@ -9035,13 +9041,13 @@
     </row>
     <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
@@ -9069,13 +9075,13 @@
     </row>
     <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>383</v>
+        <v>18</v>
       </c>
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
@@ -9103,13 +9109,13 @@
     </row>
     <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B225" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="B225" s="1" t="s">
+      <c r="C225" s="1" t="s">
         <v>385</v>
-      </c>
-      <c r="C225" s="38" t="s">
-        <v>386</v>
       </c>
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
@@ -9137,13 +9143,13 @@
     </row>
     <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B226" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="B226" s="1" t="s">
+      <c r="C226" s="38" t="s">
         <v>388</v>
-      </c>
-      <c r="C226" s="38" t="s">
-        <v>389</v>
       </c>
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
@@ -9170,9 +9176,15 @@
       <c r="Z226" s="1"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
+      <c r="A227" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C227" s="38" t="s">
+        <v>391</v>
+      </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
@@ -14770,32 +14782,32 @@
       <c r="Z426" s="1"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="A427" s="21"/>
-      <c r="B427" s="21"/>
-      <c r="C427" s="21"/>
-      <c r="D427" s="21"/>
-      <c r="E427" s="21"/>
-      <c r="F427" s="21"/>
-      <c r="G427" s="21"/>
-      <c r="H427" s="21"/>
-      <c r="I427" s="21"/>
-      <c r="J427" s="21"/>
-      <c r="K427" s="21"/>
-      <c r="L427" s="21"/>
-      <c r="M427" s="21"/>
-      <c r="N427" s="21"/>
-      <c r="O427" s="21"/>
-      <c r="P427" s="21"/>
-      <c r="Q427" s="21"/>
-      <c r="R427" s="21"/>
-      <c r="S427" s="21"/>
-      <c r="T427" s="21"/>
-      <c r="U427" s="21"/>
-      <c r="V427" s="21"/>
-      <c r="W427" s="21"/>
-      <c r="X427" s="21"/>
-      <c r="Y427" s="21"/>
-      <c r="Z427" s="21"/>
+      <c r="A427" s="1"/>
+      <c r="B427" s="1"/>
+      <c r="C427" s="1"/>
+      <c r="D427" s="1"/>
+      <c r="E427" s="1"/>
+      <c r="F427" s="1"/>
+      <c r="G427" s="1"/>
+      <c r="H427" s="1"/>
+      <c r="I427" s="1"/>
+      <c r="J427" s="1"/>
+      <c r="K427" s="1"/>
+      <c r="L427" s="1"/>
+      <c r="M427" s="1"/>
+      <c r="N427" s="1"/>
+      <c r="O427" s="1"/>
+      <c r="P427" s="1"/>
+      <c r="Q427" s="1"/>
+      <c r="R427" s="1"/>
+      <c r="S427" s="1"/>
+      <c r="T427" s="1"/>
+      <c r="U427" s="1"/>
+      <c r="V427" s="1"/>
+      <c r="W427" s="1"/>
+      <c r="X427" s="1"/>
+      <c r="Y427" s="1"/>
+      <c r="Z427" s="1"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
       <c r="A428" s="21"/>
@@ -31457,6 +31469,34 @@
       <c r="Y1022" s="21"/>
       <c r="Z1022" s="21"/>
     </row>
+    <row r="1023" ht="15.75" customHeight="1">
+      <c r="A1023" s="21"/>
+      <c r="B1023" s="21"/>
+      <c r="C1023" s="21"/>
+      <c r="D1023" s="21"/>
+      <c r="E1023" s="21"/>
+      <c r="F1023" s="21"/>
+      <c r="G1023" s="21"/>
+      <c r="H1023" s="21"/>
+      <c r="I1023" s="21"/>
+      <c r="J1023" s="21"/>
+      <c r="K1023" s="21"/>
+      <c r="L1023" s="21"/>
+      <c r="M1023" s="21"/>
+      <c r="N1023" s="21"/>
+      <c r="O1023" s="21"/>
+      <c r="P1023" s="21"/>
+      <c r="Q1023" s="21"/>
+      <c r="R1023" s="21"/>
+      <c r="S1023" s="21"/>
+      <c r="T1023" s="21"/>
+      <c r="U1023" s="21"/>
+      <c r="V1023" s="21"/>
+      <c r="W1023" s="21"/>
+      <c r="X1023" s="21"/>
+      <c r="Y1023" s="21"/>
+      <c r="Z1023" s="21"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/Assets/Resources/Language/Language.xlsx
+++ b/Assets/Resources/Language/Language.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kooco_GitHub\ACE\ACE\Assets\Resources\Language\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0173B96E-7EFE-4819-BD2A-20BA10F4D2FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1342FC74-6788-4E22-B8F7-74FF1E3B48E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20100" windowHeight="12252" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="411">
   <si>
     <t>ID</t>
   </si>
@@ -373,12 +373,6 @@
   </si>
   <si>
     <t>如果您現在離開，您將無法取回質押的籌碼。</t>
-  </si>
-  <si>
-    <t>Cannot be changed after binding!!!</t>
-  </si>
-  <si>
-    <t>綁定後不能變更!!!</t>
   </si>
   <si>
     <t>錯誤訊息</t>
@@ -1272,12 +1266,66 @@
     <t>InviteCode</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>Notice</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot Be Changed After Linking.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>連結後不能變更</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>!!!</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter at least one special character.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少輸入一個特殊字元</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contains at least one uppercase and lowercase.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter at least one uppercase and lowercase.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>至少輸入一個大寫和小寫</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1361,6 +1409,13 @@
       <color theme="1"/>
       <name val="細明體"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -1513,7 +1568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1621,6 +1676,12 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1841,10 +1902,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1027"/>
+  <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="A166" sqref="A166"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
@@ -2600,82 +2661,82 @@
       <c r="Z22" s="14"/>
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="45" t="s">
+        <v>406</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>406</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>407</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="14"/>
+    </row>
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A24" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="B24" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>410</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="14"/>
+    </row>
+    <row r="25" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A25" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="14"/>
-    </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A24" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="12"/>
-    </row>
-    <row r="25" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A25" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -2702,48 +2763,48 @@
       <c r="Z25" s="14"/>
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A26" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="14"/>
+      <c r="A26" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+      <c r="U26" s="11"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="11"/>
+      <c r="X26" s="11"/>
+      <c r="Y26" s="11"/>
+      <c r="Z26" s="12"/>
     </row>
     <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="15" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -2770,48 +2831,48 @@
       <c r="Z27" s="14"/>
     </row>
     <row r="28" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A28" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
-      <c r="P28" s="19"/>
-      <c r="Q28" s="19"/>
-      <c r="R28" s="19"/>
-      <c r="S28" s="19"/>
-      <c r="T28" s="19"/>
-      <c r="U28" s="19"/>
-      <c r="V28" s="19"/>
-      <c r="W28" s="19"/>
-      <c r="X28" s="19"/>
-      <c r="Y28" s="19"/>
-      <c r="Z28" s="20"/>
+      <c r="A28" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="14"/>
     </row>
     <row r="29" spans="1:26" ht="15.75" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -2838,48 +2899,48 @@
       <c r="Z29" s="14"/>
     </row>
     <row r="30" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A30" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="14"/>
+      <c r="A30" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="20"/>
     </row>
     <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="15" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2907,13 +2968,13 @@
     </row>
     <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2941,13 +3002,13 @@
     </row>
     <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2974,48 +3035,48 @@
       <c r="Z33" s="14"/>
     </row>
     <row r="34" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A34" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="19"/>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="19"/>
-      <c r="U34" s="19"/>
-      <c r="V34" s="19"/>
-      <c r="W34" s="19"/>
-      <c r="X34" s="19"/>
-      <c r="Y34" s="19"/>
-      <c r="Z34" s="20"/>
+      <c r="A34" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="14"/>
     </row>
     <row r="35" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>67</v>
+      <c r="A35" s="15" t="s">
+        <v>63</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -3039,187 +3100,187 @@
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
+      <c r="Z35" s="14"/>
     </row>
     <row r="36" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
+      <c r="A36" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="20"/>
     </row>
     <row r="37" spans="1:26" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
-      <c r="O37" s="21"/>
-      <c r="P37" s="21"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="21"/>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21"/>
-      <c r="U37" s="21"/>
-      <c r="V37" s="21"/>
-      <c r="W37" s="21"/>
-      <c r="X37" s="21"/>
-      <c r="Y37" s="21"/>
-      <c r="Z37" s="21"/>
+        <v>68</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
     </row>
     <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="21"/>
+      <c r="J39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="21"/>
+      <c r="Z39" s="21"/>
+    </row>
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="21"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
-      <c r="U38" s="21"/>
-      <c r="V38" s="21"/>
-      <c r="W38" s="21"/>
-      <c r="X38" s="21"/>
-      <c r="Y38" s="21"/>
-      <c r="Z38" s="21"/>
-    </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A39" s="15" t="s">
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="21"/>
+      <c r="M40" s="21"/>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="21"/>
+      <c r="Z40" s="21"/>
+    </row>
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A41" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B41" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="22"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="22"/>
-      <c r="S39" s="22"/>
-      <c r="T39" s="22"/>
-      <c r="U39" s="22"/>
-      <c r="V39" s="22"/>
-      <c r="W39" s="22"/>
-      <c r="X39" s="22"/>
-      <c r="Y39" s="22"/>
-      <c r="Z39" s="23"/>
-    </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A40" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="14"/>
-    </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A41" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="D41" s="22"/>
       <c r="E41" s="22"/>
@@ -3246,48 +3307,48 @@
       <c r="Z41" s="23"/>
     </row>
     <row r="42" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A42" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="22"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="22"/>
-      <c r="S42" s="22"/>
-      <c r="T42" s="22"/>
-      <c r="U42" s="22"/>
-      <c r="V42" s="22"/>
-      <c r="W42" s="22"/>
-      <c r="X42" s="22"/>
-      <c r="Y42" s="22"/>
-      <c r="Z42" s="23"/>
+      <c r="A42" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="14"/>
     </row>
     <row r="43" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A43" s="25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>62</v>
+      <c r="A43" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="D43" s="22"/>
       <c r="E43" s="22"/>
@@ -3314,48 +3375,48 @@
       <c r="Z43" s="23"/>
     </row>
     <row r="44" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A44" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="1" t="s">
+      <c r="A44" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
+      <c r="W44" s="22"/>
+      <c r="X44" s="22"/>
+      <c r="Y44" s="22"/>
+      <c r="Z44" s="23"/>
+    </row>
+    <row r="45" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A45" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="21"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="23"/>
-    </row>
-    <row r="45" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A45" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="D45" s="22"/>
       <c r="E45" s="22"/>
@@ -3383,115 +3444,115 @@
     </row>
     <row r="46" spans="1:26" ht="15.75" customHeight="1">
       <c r="A46" s="15" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="14"/>
+        <v>62</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+      <c r="V46" s="21"/>
+      <c r="W46" s="21"/>
+      <c r="X46" s="21"/>
+      <c r="Y46" s="21"/>
+      <c r="Z46" s="23"/>
     </row>
     <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="14"/>
+        <v>85</v>
+      </c>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
+      <c r="W47" s="22"/>
+      <c r="X47" s="22"/>
+      <c r="Y47" s="22"/>
+      <c r="Z47" s="23"/>
     </row>
     <row r="48" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A48" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="11"/>
-      <c r="Y48" s="11"/>
-      <c r="Z48" s="12"/>
+      <c r="A48" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="14"/>
     </row>
     <row r="49" spans="1:26" ht="15.75" customHeight="1">
       <c r="A49" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
@@ -3518,82 +3579,82 @@
       <c r="Z49" s="14"/>
     </row>
     <row r="50" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A50" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
-      <c r="V50" s="22"/>
-      <c r="W50" s="22"/>
-      <c r="X50" s="22"/>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="23"/>
+      <c r="A50" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="11"/>
+      <c r="Q50" s="11"/>
+      <c r="R50" s="11"/>
+      <c r="S50" s="11"/>
+      <c r="T50" s="11"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
+      <c r="X50" s="11"/>
+      <c r="Y50" s="11"/>
+      <c r="Z50" s="12"/>
     </row>
     <row r="51" spans="1:26" ht="15.75" customHeight="1">
       <c r="A51" s="15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22"/>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
-      <c r="V51" s="22"/>
-      <c r="W51" s="22"/>
-      <c r="X51" s="22"/>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="23"/>
+        <v>92</v>
+      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="14"/>
     </row>
     <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="15" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D52" s="22"/>
       <c r="E52" s="22"/>
@@ -3621,13 +3682,13 @@
     </row>
     <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="15" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D53" s="22"/>
       <c r="E53" s="22"/>
@@ -3655,13 +3716,13 @@
     </row>
     <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D54" s="22"/>
       <c r="E54" s="22"/>
@@ -3689,13 +3750,13 @@
     </row>
     <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="15" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D55" s="22"/>
       <c r="E55" s="22"/>
@@ -3723,115 +3784,115 @@
     </row>
     <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" s="21"/>
-      <c r="E56" s="21"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="21"/>
-      <c r="H56" s="21"/>
-      <c r="I56" s="21"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="21"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="21"/>
-      <c r="T56" s="21"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
+        <v>102</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
+      <c r="P56" s="22"/>
+      <c r="Q56" s="22"/>
+      <c r="R56" s="22"/>
+      <c r="S56" s="22"/>
+      <c r="T56" s="22"/>
+      <c r="U56" s="22"/>
+      <c r="V56" s="22"/>
+      <c r="W56" s="22"/>
+      <c r="X56" s="22"/>
+      <c r="Y56" s="22"/>
       <c r="Z56" s="23"/>
     </row>
     <row r="57" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A57" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C57" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
-      <c r="Q57" s="19"/>
-      <c r="R57" s="19"/>
-      <c r="S57" s="19"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
-      <c r="V57" s="19"/>
-      <c r="W57" s="19"/>
-      <c r="X57" s="19"/>
-      <c r="Y57" s="19"/>
-      <c r="Z57" s="20"/>
+      <c r="A57" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
+      <c r="P57" s="22"/>
+      <c r="Q57" s="22"/>
+      <c r="R57" s="22"/>
+      <c r="S57" s="22"/>
+      <c r="T57" s="22"/>
+      <c r="U57" s="22"/>
+      <c r="V57" s="22"/>
+      <c r="W57" s="22"/>
+      <c r="X57" s="22"/>
+      <c r="Y57" s="22"/>
+      <c r="Z57" s="23"/>
     </row>
     <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="1"/>
-      <c r="W58" s="1"/>
-      <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
-      <c r="Z58" s="14"/>
+        <v>105</v>
+      </c>
+      <c r="D58" s="21"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="21"/>
+      <c r="H58" s="21"/>
+      <c r="I58" s="21"/>
+      <c r="J58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="21"/>
+      <c r="M58" s="21"/>
+      <c r="N58" s="21"/>
+      <c r="O58" s="21"/>
+      <c r="P58" s="21"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="21"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="21"/>
+      <c r="U58" s="21"/>
+      <c r="V58" s="21"/>
+      <c r="W58" s="21"/>
+      <c r="X58" s="21"/>
+      <c r="Y58" s="21"/>
+      <c r="Z58" s="23"/>
     </row>
     <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C59" s="19" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D59" s="19"/>
       <c r="E59" s="19"/>
@@ -3858,9 +3919,15 @@
       <c r="Z59" s="20"/>
     </row>
     <row r="60" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1"/>
+      <c r="A60" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
@@ -3883,48 +3950,46 @@
       <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1"/>
-      <c r="Z60" s="1"/>
+      <c r="Z60" s="14"/>
     </row>
     <row r="61" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A61" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2"/>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2"/>
-      <c r="S61" s="2"/>
-      <c r="T61" s="2"/>
-      <c r="U61" s="2"/>
-      <c r="V61" s="2"/>
-      <c r="W61" s="2"/>
-      <c r="X61" s="2"/>
-      <c r="Y61" s="2"/>
-      <c r="Z61" s="2"/>
+      <c r="A61" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="19"/>
+      <c r="E61" s="19"/>
+      <c r="F61" s="19"/>
+      <c r="G61" s="19"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="19"/>
+      <c r="M61" s="19"/>
+      <c r="N61" s="19"/>
+      <c r="O61" s="19"/>
+      <c r="P61" s="19"/>
+      <c r="Q61" s="19"/>
+      <c r="R61" s="19"/>
+      <c r="S61" s="19"/>
+      <c r="T61" s="19"/>
+      <c r="U61" s="19"/>
+      <c r="V61" s="19"/>
+      <c r="W61" s="19"/>
+      <c r="X61" s="19"/>
+      <c r="Y61" s="19"/>
+      <c r="Z61" s="20"/>
     </row>
     <row r="62" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A62" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3950,48 +4015,44 @@
       <c r="Z62" s="1"/>
     </row>
     <row r="63" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-      <c r="K63" s="1"/>
-      <c r="L63" s="1"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
-      <c r="R63" s="1"/>
-      <c r="S63" s="1"/>
-      <c r="T63" s="1"/>
-      <c r="U63" s="1"/>
-      <c r="V63" s="1"/>
-      <c r="W63" s="1"/>
-      <c r="X63" s="1"/>
-      <c r="Y63" s="1"/>
-      <c r="Z63" s="1"/>
+      <c r="A63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
     </row>
     <row r="64" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A64" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>117</v>
+      <c r="A64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -4018,9 +4079,15 @@
       <c r="Z64" s="1"/>
     </row>
     <row r="65" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
+      <c r="A65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>115</v>
+      </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
@@ -4046,146 +4113,140 @@
       <c r="Z65" s="1"/>
     </row>
     <row r="66" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="39" t="s">
+        <v>404</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>404</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>405</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="1"/>
+      <c r="Y66" s="1"/>
+      <c r="Z66" s="1"/>
+    </row>
+    <row r="67" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A67" s="39" t="s">
+        <v>402</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>402</v>
+      </c>
+      <c r="C67" s="44" t="s">
+        <v>403</v>
+      </c>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+    </row>
+    <row r="68" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+      <c r="Z68" s="1"/>
+    </row>
+    <row r="69" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A69" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+    </row>
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A70" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-      <c r="J66" s="2"/>
-      <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2"/>
-      <c r="O66" s="2"/>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-      <c r="S66" s="2"/>
-      <c r="T66" s="2"/>
-      <c r="U66" s="2"/>
-      <c r="V66" s="2"/>
-      <c r="W66" s="2"/>
-      <c r="X66" s="2"/>
-      <c r="Y66" s="2"/>
-      <c r="Z66" s="2"/>
-    </row>
-    <row r="67" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A67" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
-      <c r="Y67" s="5"/>
-      <c r="Z67" s="5"/>
-    </row>
-    <row r="68" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A68" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5"/>
-      <c r="K68" s="5"/>
-      <c r="L68" s="5"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5"/>
-      <c r="V68" s="5"/>
-      <c r="W68" s="5"/>
-      <c r="X68" s="5"/>
-      <c r="Y68" s="5"/>
-      <c r="Z68" s="5"/>
-    </row>
-    <row r="69" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A69" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
-      <c r="J69" s="5"/>
-      <c r="K69" s="5"/>
-      <c r="L69" s="5"/>
-      <c r="M69" s="5"/>
-      <c r="N69" s="5"/>
-      <c r="O69" s="5"/>
-      <c r="P69" s="5"/>
-      <c r="Q69" s="5"/>
-      <c r="R69" s="5"/>
-      <c r="S69" s="5"/>
-      <c r="T69" s="5"/>
-      <c r="U69" s="5"/>
-      <c r="V69" s="5"/>
-      <c r="W69" s="5"/>
-      <c r="X69" s="5"/>
-      <c r="Y69" s="5"/>
-      <c r="Z69" s="5"/>
-    </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A70" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>126</v>
       </c>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -4212,14 +4273,14 @@
       <c r="Z70" s="5"/>
     </row>
     <row r="71" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A71" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>128</v>
+      <c r="A71" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>120</v>
       </c>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -4246,14 +4307,14 @@
       <c r="Z71" s="5"/>
     </row>
     <row r="72" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A72" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>130</v>
+      <c r="A72" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -4281,13 +4342,13 @@
     </row>
     <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>131</v>
+        <v>123</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>123</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -4314,9 +4375,15 @@
       <c r="Z73" s="5"/>
     </row>
     <row r="74" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A74" s="5"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
+      <c r="A74" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="B74" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>126</v>
+      </c>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -4342,44 +4409,48 @@
       <c r="Z74" s="5"/>
     </row>
     <row r="75" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A75" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="V75" s="2"/>
-      <c r="W75" s="2"/>
-      <c r="X75" s="2"/>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
+      <c r="A75" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B75" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5"/>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
+      <c r="L75" s="5"/>
+      <c r="M75" s="5"/>
+      <c r="N75" s="5"/>
+      <c r="O75" s="5"/>
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="5"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+      <c r="W75" s="5"/>
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5"/>
+      <c r="Z75" s="5"/>
     </row>
     <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
+      </c>
+      <c r="B76" s="17" t="s">
+        <v>129</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -4406,15 +4477,9 @@
       <c r="Z76" s="5"/>
     </row>
     <row r="77" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A77" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>137</v>
-      </c>
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
@@ -4440,48 +4505,44 @@
       <c r="Z77" s="5"/>
     </row>
     <row r="78" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A78" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
-      <c r="K78" s="5"/>
-      <c r="L78" s="5"/>
-      <c r="M78" s="5"/>
-      <c r="N78" s="5"/>
-      <c r="O78" s="5"/>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5"/>
-      <c r="V78" s="5"/>
-      <c r="W78" s="5"/>
-      <c r="X78" s="5"/>
-      <c r="Y78" s="5"/>
-      <c r="Z78" s="5"/>
+      <c r="A78" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
     </row>
     <row r="79" spans="1:26" ht="15.75" customHeight="1">
-      <c r="A79" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>142</v>
+      <c r="A79" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>133</v>
       </c>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -4509,13 +4570,13 @@
     </row>
     <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -4543,13 +4604,13 @@
     </row>
     <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>145</v>
+        <v>136</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>1